--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\INDIND\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23AA972A-C28E-4FD3-82DA-5D0FC4657CDB}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="143">
   <si>
     <t>~FI_T</t>
   </si>
@@ -4474,8 +4474,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:Z45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="W27" sqref="W27:W28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5070,7 +5070,9 @@
       <c r="V20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W20" s="92"/>
+      <c r="W20" s="92" t="s">
+        <v>89</v>
+      </c>
       <c r="X20" s="56"/>
       <c r="Y20" s="56"/>
     </row>
@@ -5125,7 +5127,9 @@
       <c r="V21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W21" s="56"/>
+      <c r="W21" s="92" t="s">
+        <v>89</v>
+      </c>
       <c r="X21" s="56"/>
       <c r="Y21" s="56"/>
     </row>
@@ -5179,7 +5183,9 @@
       <c r="V22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W22" s="56"/>
+      <c r="W22" s="92" t="s">
+        <v>89</v>
+      </c>
       <c r="X22" s="56"/>
       <c r="Y22" s="56"/>
     </row>
@@ -5230,6 +5236,9 @@
       <c r="V23" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="W23" s="92" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="24" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="str">
@@ -5278,6 +5287,9 @@
       <c r="V24" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="W24" s="92" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="25" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="54" t="str">
@@ -5481,7 +5493,9 @@
       <c r="V28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W28" s="8"/>
+      <c r="W28" s="56" t="s">
+        <v>89</v>
+      </c>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
     </row>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23AA972A-C28E-4FD3-82DA-5D0FC4657CDB}"/>
+  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2950429B-52A4-4F85-A733-20AFF2C3A020}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="196">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1996,6 +1996,165 @@
   <si>
     <t>CEMENTHEAT</t>
   </si>
+  <si>
+    <t>Attribute</t>
+  </si>
+  <si>
+    <t>Timeslices</t>
+  </si>
+  <si>
+    <t>Demand Commodity Name</t>
+  </si>
+  <si>
+    <t>W_01</t>
+  </si>
+  <si>
+    <t>W_02</t>
+  </si>
+  <si>
+    <t>W_03</t>
+  </si>
+  <si>
+    <t>W_04</t>
+  </si>
+  <si>
+    <t>W_05</t>
+  </si>
+  <si>
+    <t>W_06</t>
+  </si>
+  <si>
+    <t>W_07</t>
+  </si>
+  <si>
+    <t>W_08</t>
+  </si>
+  <si>
+    <t>W_09</t>
+  </si>
+  <si>
+    <t>W_10</t>
+  </si>
+  <si>
+    <t>W_11</t>
+  </si>
+  <si>
+    <t>W_12</t>
+  </si>
+  <si>
+    <t>W_13</t>
+  </si>
+  <si>
+    <t>W_14</t>
+  </si>
+  <si>
+    <t>W_15</t>
+  </si>
+  <si>
+    <t>W_16</t>
+  </si>
+  <si>
+    <t>W_17</t>
+  </si>
+  <si>
+    <t>W_18</t>
+  </si>
+  <si>
+    <t>W_19</t>
+  </si>
+  <si>
+    <t>W_20</t>
+  </si>
+  <si>
+    <t>W_21</t>
+  </si>
+  <si>
+    <t>W_22</t>
+  </si>
+  <si>
+    <t>W_23</t>
+  </si>
+  <si>
+    <t>W_24</t>
+  </si>
+  <si>
+    <t>D_01</t>
+  </si>
+  <si>
+    <t>D_02</t>
+  </si>
+  <si>
+    <t>D_03</t>
+  </si>
+  <si>
+    <t>D_04</t>
+  </si>
+  <si>
+    <t>D_05</t>
+  </si>
+  <si>
+    <t>D_06</t>
+  </si>
+  <si>
+    <t>D_07</t>
+  </si>
+  <si>
+    <t>D_08</t>
+  </si>
+  <si>
+    <t>D_09</t>
+  </si>
+  <si>
+    <t>D_10</t>
+  </si>
+  <si>
+    <t>D_11</t>
+  </si>
+  <si>
+    <t>D_12</t>
+  </si>
+  <si>
+    <t>D_13</t>
+  </si>
+  <si>
+    <t>D_14</t>
+  </si>
+  <si>
+    <t>D_15</t>
+  </si>
+  <si>
+    <t>D_16</t>
+  </si>
+  <si>
+    <t>D_17</t>
+  </si>
+  <si>
+    <t>D_18</t>
+  </si>
+  <si>
+    <t>D_19</t>
+  </si>
+  <si>
+    <t>D_20</t>
+  </si>
+  <si>
+    <t>D_21</t>
+  </si>
+  <si>
+    <t>D_22</t>
+  </si>
+  <si>
+    <t>D_23</t>
+  </si>
+  <si>
+    <t>D_24</t>
+  </si>
+  <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
+    <t>FLO_FR</t>
+  </si>
 </sst>
 </file>
 
@@ -2007,10 +2166,17 @@
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2214,7 +2380,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2262,199 +2428,221 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="22">
+  <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="19" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="19" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="15" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="16" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="14" fillId="3" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="15" fillId="3" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="15" fillId="8" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="5" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="4" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="15" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="4" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="16" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="20" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="20" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="15" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="15" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="15" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="16" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="8" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="8" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="21" fillId="12" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="12" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="22">
+  <cellStyles count="23">
+    <cellStyle name="20% - Accent5" xfId="22" builtinId="46"/>
     <cellStyle name="20% - Accent5 2" xfId="18" xr:uid="{4C3A48E2-3C46-4D12-9A64-54698D8BF8EE}"/>
     <cellStyle name="20% - Accent5 3" xfId="20" xr:uid="{3013E58E-05D8-4A7E-9DD3-5FDB1B87B181}"/>
     <cellStyle name="Accent2" xfId="1" builtinId="33"/>
@@ -2788,6 +2976,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -4472,10 +4664,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:Z45"/>
+  <dimension ref="B1:AG144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I17" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="W27" sqref="W27:W28"/>
+    <sheetView tabSelected="1" topLeftCell="Q7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AD17" sqref="AD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4848,7 +5040,7 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
     </row>
-    <row r="17" spans="2:25" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
@@ -4915,8 +5107,14 @@
       <c r="Y17" s="41" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="2:25" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD17" s="93" t="s">
+        <v>194</v>
+      </c>
+      <c r="AE17"/>
+      <c r="AF17" s="93"/>
+      <c r="AG17" s="1"/>
+    </row>
+    <row r="18" spans="2:33" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48" t="s">
         <v>48</v>
       </c>
@@ -4983,8 +5181,20 @@
       <c r="Y18" s="44" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="19" spans="2:25" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AD18" s="94" t="s">
+        <v>143</v>
+      </c>
+      <c r="AE18" s="94" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="94" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG18" s="94">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="50" t="s">
         <v>53</v>
       </c>
@@ -5019,8 +5229,16 @@
       <c r="W19" s="44"/>
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
-    </row>
-    <row r="20" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AD19" s="95" t="s">
+        <v>82</v>
+      </c>
+      <c r="AE19" s="95" t="s">
+        <v>145</v>
+      </c>
+      <c r="AF19" s="95"/>
+      <c r="AG19" s="95"/>
+    </row>
+    <row r="20" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="str">
         <f>S20</f>
         <v>Furnace</v>
@@ -5075,8 +5293,14 @@
       </c>
       <c r="X20" s="56"/>
       <c r="Y20" s="56"/>
-    </row>
-    <row r="21" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AD20" s="96" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE20" s="96"/>
+      <c r="AF20" s="96"/>
+      <c r="AG20" s="96"/>
+    </row>
+    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="str">
         <f>S$21</f>
         <v>BIOBoiler</v>
@@ -5132,8 +5356,21 @@
       </c>
       <c r="X21" s="56"/>
       <c r="Y21" s="56"/>
-    </row>
-    <row r="22" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AD21" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE21" s="12" t="str">
+        <f>S$26</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF21" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG21" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="str">
         <f>S24</f>
         <v>ELCBoiler</v>
@@ -5188,8 +5425,21 @@
       </c>
       <c r="X22" s="56"/>
       <c r="Y22" s="56"/>
-    </row>
-    <row r="23" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE22" s="12" t="str">
+        <f t="shared" ref="AE22:AE68" si="0">S$26</f>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF22" s="97" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG22" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="str">
         <f>S22</f>
         <v>BIOKiln</v>
@@ -5239,8 +5489,21 @@
       <c r="W23" s="92" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="24" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD23" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE23" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF23" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG23" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="str">
         <f>S23</f>
         <v>GASBoiler</v>
@@ -5290,8 +5553,21 @@
       <c r="W24" s="92" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="25" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE24" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF24" s="97" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG24" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="54" t="str">
         <f>S26</f>
         <v>WNDTRBN</v>
@@ -5341,8 +5617,21 @@
       <c r="W25" s="56" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD25" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE25" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF25" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG25" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="54" t="str">
         <f>S27</f>
         <v>SOLPV</v>
@@ -5392,8 +5681,21 @@
       <c r="W26" s="56" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="27" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD26" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE26" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF26" s="97" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG26" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="54" t="str">
         <f>S25</f>
         <v>CSP</v>
@@ -5444,8 +5746,21 @@
       <c r="W27" s="56" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="28" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD27" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE27" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF27" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG27" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
@@ -5498,8 +5813,21 @@
       </c>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
-    </row>
-    <row r="29" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE28" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF28" s="97" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG28" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
@@ -5531,8 +5859,21 @@
       <c r="M29" s="57">
         <v>8.76</v>
       </c>
-    </row>
-    <row r="30" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD29" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE29" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF29" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG29" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
@@ -5573,8 +5914,21 @@
       <c r="W30" s="8"/>
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
-    </row>
-    <row r="31" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE30" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF30" s="97" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG30" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="str">
         <f>S23</f>
         <v>GASBoiler</v>
@@ -5612,8 +5966,21 @@
       <c r="W31" s="8"/>
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
-    </row>
-    <row r="32" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD31" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE31" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF31" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG31" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="54"/>
@@ -5630,8 +5997,21 @@
       <c r="W32" s="8"/>
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
-    </row>
-    <row r="33" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD32" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE32" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF32" s="97" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG32" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="54"/>
@@ -5648,8 +6028,21 @@
       <c r="W33" s="8"/>
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
-    </row>
-    <row r="34" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD33" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE33" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF33" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG33" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
       <c r="C34" s="16"/>
       <c r="D34" s="54"/>
@@ -5665,8 +6058,21 @@
       <c r="W34" s="8"/>
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
-    </row>
-    <row r="35" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD34" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE34" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF34" s="97" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG34" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="54"/>
@@ -5683,8 +6089,21 @@
       <c r="W35" s="21"/>
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
-    </row>
-    <row r="36" spans="2:25" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD35" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE35" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF35" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG35" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="16"/>
       <c r="C36" s="8"/>
       <c r="D36" s="54"/>
@@ -5704,8 +6123,21 @@
       <c r="W36" s="21"/>
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
-    </row>
-    <row r="37" spans="2:25" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD36" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE36" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF36" s="97" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG36" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -5725,8 +6157,21 @@
       <c r="W37" s="62"/>
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
-    </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AD37" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE37" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF37" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG37" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
       <c r="F38" s="58"/>
       <c r="G38" s="10"/>
       <c r="H38" s="60"/>
@@ -5734,25 +6179,77 @@
       <c r="T38" s="57"/>
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
-    </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AD38" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE38" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF38" s="97" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG38" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
       <c r="H39" s="60"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AD39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE39" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF39" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG39" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B40" s="53"/>
       <c r="C40" s="8" t="s">
         <v>83</v>
       </c>
       <c r="H40" s="60"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AD40" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE40" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF40" s="97" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG40" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
       <c r="B41" s="61"/>
       <c r="C41" s="8" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="60"/>
-    </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AD41" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE41" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG41" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
       <c r="E42" s="8" t="s">
         <v>90</v>
       </c>
@@ -5760,8 +6257,36 @@
         <v>91</v>
       </c>
       <c r="H42" s="60"/>
-    </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AD42" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE42" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF42" s="97" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG42" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AD43" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE43" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF43" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG43" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
       <c r="E44" s="8" t="s">
         <v>92</v>
       </c>
@@ -5769,9 +6294,1596 @@
         <f>24*365</f>
         <v>8760</v>
       </c>
-    </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="AD44" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE44" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF44" s="97" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG44" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
       <c r="E45" s="10"/>
+      <c r="AD45" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE45" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF45" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG45" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AD46" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE46" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF46" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG46" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AD47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE47" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF47" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG47" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AD48" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE48" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF48" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG48" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD49" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE49" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF49" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG49" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD50" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE50" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF50" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG50" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD51" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE51" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF51" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG51" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD52" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE52" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF52" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG52" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD53" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE53" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF53" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG53" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD54" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE54" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF54" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG54" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE55" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF55" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG55" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD56" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE56" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF56" t="s">
+        <v>181</v>
+      </c>
+      <c r="AG56" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD57" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE57" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF57" t="s">
+        <v>182</v>
+      </c>
+      <c r="AG57" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD58" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE58" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF58" t="s">
+        <v>183</v>
+      </c>
+      <c r="AG58" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD59" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE59" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF59" t="s">
+        <v>184</v>
+      </c>
+      <c r="AG59" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE60" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF60" t="s">
+        <v>185</v>
+      </c>
+      <c r="AG60" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD61" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE61" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF61" t="s">
+        <v>186</v>
+      </c>
+      <c r="AG61" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD62" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE62" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF62" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG62" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD63" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE63" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF63" t="s">
+        <v>188</v>
+      </c>
+      <c r="AG63" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD64" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE64" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF64" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG64" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD65" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE65" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF65" t="s">
+        <v>190</v>
+      </c>
+      <c r="AG65" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD66" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE66" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF66" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG66" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD67" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE67" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF67" t="s">
+        <v>192</v>
+      </c>
+      <c r="AG67" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD68" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE68" s="12" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF68" t="s">
+        <v>193</v>
+      </c>
+      <c r="AG68" s="75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD69" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE69" s="16" t="str">
+        <f>S$27</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF69" s="8" t="str">
+        <f>AF21</f>
+        <v>W_01</v>
+      </c>
+      <c r="AG69" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD70" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE70" s="16" t="str">
+        <f t="shared" ref="AE70:AE116" si="1">S$27</f>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF70" s="8" t="str">
+        <f t="shared" ref="AF70:AF133" si="2">AF22</f>
+        <v>W_02</v>
+      </c>
+      <c r="AG70" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD71" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE71" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF71" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_03</v>
+      </c>
+      <c r="AG71" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD72" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE72" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF72" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_04</v>
+      </c>
+      <c r="AG72" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD73" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE73" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF73" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_05</v>
+      </c>
+      <c r="AG73" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD74" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE74" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF74" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_06</v>
+      </c>
+      <c r="AG74" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE75" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF75" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_07</v>
+      </c>
+      <c r="AG75" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD76" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE76" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF76" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_08</v>
+      </c>
+      <c r="AG76" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE77" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF77" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_09</v>
+      </c>
+      <c r="AG77" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD78" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE78" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF78" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_10</v>
+      </c>
+      <c r="AG78" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD79" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE79" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF79" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_11</v>
+      </c>
+      <c r="AG79" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD80" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE80" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF80" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_12</v>
+      </c>
+      <c r="AG80" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD81" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE81" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF81" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_13</v>
+      </c>
+      <c r="AG81" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD82" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE82" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF82" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_14</v>
+      </c>
+      <c r="AG82" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD83" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE83" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF83" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_15</v>
+      </c>
+      <c r="AG83" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD84" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE84" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF84" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_16</v>
+      </c>
+      <c r="AG84" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD85" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE85" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF85" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_17</v>
+      </c>
+      <c r="AG85" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD86" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE86" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF86" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_18</v>
+      </c>
+      <c r="AG86" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD87" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE87" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF87" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_19</v>
+      </c>
+      <c r="AG87" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD88" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE88" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF88" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_20</v>
+      </c>
+      <c r="AG88" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD89" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE89" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF89" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_21</v>
+      </c>
+      <c r="AG89" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD90" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE90" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF90" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_22</v>
+      </c>
+      <c r="AG90" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD91" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE91" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF91" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_23</v>
+      </c>
+      <c r="AG91" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD92" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE92" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF92" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_24</v>
+      </c>
+      <c r="AG92" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD93" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE93" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF93" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_01</v>
+      </c>
+      <c r="AG93" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD94" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE94" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF94" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_02</v>
+      </c>
+      <c r="AG94" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD95" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE95" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF95" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_03</v>
+      </c>
+      <c r="AG95" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD96" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE96" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF96" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_04</v>
+      </c>
+      <c r="AG96" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD97" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE97" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF97" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_05</v>
+      </c>
+      <c r="AG97" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD98" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE98" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF98" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_06</v>
+      </c>
+      <c r="AG98" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD99" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE99" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF99" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_07</v>
+      </c>
+      <c r="AG99" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD100" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE100" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF100" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_08</v>
+      </c>
+      <c r="AG100" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD101" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE101" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF101" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_09</v>
+      </c>
+      <c r="AG101" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD102" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE102" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF102" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_10</v>
+      </c>
+      <c r="AG102" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD103" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE103" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF103" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_11</v>
+      </c>
+      <c r="AG103" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD104" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE104" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF104" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_12</v>
+      </c>
+      <c r="AG104" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD105" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE105" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF105" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_13</v>
+      </c>
+      <c r="AG105" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD106" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE106" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF106" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_14</v>
+      </c>
+      <c r="AG106" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD107" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE107" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF107" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_15</v>
+      </c>
+      <c r="AG107" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD108" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE108" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF108" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_16</v>
+      </c>
+      <c r="AG108" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD109" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE109" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF109" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_17</v>
+      </c>
+      <c r="AG109" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD110" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE110" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF110" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_18</v>
+      </c>
+      <c r="AG110" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD111" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE111" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF111" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_19</v>
+      </c>
+      <c r="AG111" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD112" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE112" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF112" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_20</v>
+      </c>
+      <c r="AG112" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD113" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE113" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF113" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_21</v>
+      </c>
+      <c r="AG113" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD114" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE114" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF114" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_22</v>
+      </c>
+      <c r="AG114" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD115" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE115" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF115" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_23</v>
+      </c>
+      <c r="AG115" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD116" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE116" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLPV</v>
+      </c>
+      <c r="AF116" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>D_24</v>
+      </c>
+      <c r="AG116" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD117" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE117" s="16" t="str">
+        <f>S$25</f>
+        <v>CSP</v>
+      </c>
+      <c r="AF117" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_01</v>
+      </c>
+      <c r="AG117" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD118" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE118" s="16" t="str">
+        <f t="shared" ref="AE118:AE144" si="3">S$25</f>
+        <v>CSP</v>
+      </c>
+      <c r="AF118" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_02</v>
+      </c>
+      <c r="AG118" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD119" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE119" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF119" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_03</v>
+      </c>
+      <c r="AG119" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD120" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE120" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF120" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_04</v>
+      </c>
+      <c r="AG120" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD121" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE121" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF121" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_05</v>
+      </c>
+      <c r="AG121" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD122" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE122" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF122" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_06</v>
+      </c>
+      <c r="AG122" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD123" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE123" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF123" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_07</v>
+      </c>
+      <c r="AG123" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD124" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE124" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF124" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_08</v>
+      </c>
+      <c r="AG124" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD125" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE125" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF125" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_09</v>
+      </c>
+      <c r="AG125" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD126" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE126" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF126" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_10</v>
+      </c>
+      <c r="AG126" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD127" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE127" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF127" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_11</v>
+      </c>
+      <c r="AG127" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD128" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE128" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF128" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_12</v>
+      </c>
+      <c r="AG128" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD129" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE129" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF129" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_13</v>
+      </c>
+      <c r="AG129" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD130" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE130" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF130" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_14</v>
+      </c>
+      <c r="AG130" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD131" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE131" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF131" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_15</v>
+      </c>
+      <c r="AG131" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD132" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE132" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF132" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_16</v>
+      </c>
+      <c r="AG132" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD133" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE133" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF133" s="8" t="str">
+        <f t="shared" si="2"/>
+        <v>W_17</v>
+      </c>
+      <c r="AG133" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD134" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE134" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF134" s="8" t="str">
+        <f t="shared" ref="AF134:AF144" si="4">AF86</f>
+        <v>W_18</v>
+      </c>
+      <c r="AG134" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD135" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE135" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF135" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W_19</v>
+      </c>
+      <c r="AG135" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD136" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE136" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF136" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W_20</v>
+      </c>
+      <c r="AG136" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD137" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE137" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF137" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W_21</v>
+      </c>
+      <c r="AG137" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD138" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE138" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF138" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W_22</v>
+      </c>
+      <c r="AG138" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD139" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE139" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF139" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W_23</v>
+      </c>
+      <c r="AG139" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD140" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE140" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF140" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>W_24</v>
+      </c>
+      <c r="AG140" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD141" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE141" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF141" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>D_01</v>
+      </c>
+      <c r="AG141" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD142" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE142" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF142" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>D_02</v>
+      </c>
+      <c r="AG142" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD143" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE143" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF143" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>D_03</v>
+      </c>
+      <c r="AG143" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="30:33" x14ac:dyDescent="0.2">
+      <c r="AD144" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AE144" s="16" t="str">
+        <f t="shared" si="3"/>
+        <v>CSP</v>
+      </c>
+      <c r="AF144" s="8" t="str">
+        <f t="shared" si="4"/>
+        <v>D_04</v>
+      </c>
+      <c r="AG144" s="8">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2950429B-52A4-4F85-A733-20AFF2C3A020}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A9E415-3A99-415D-89E5-74016C8B3A06}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="FID_1">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191029" calcOnSave="0" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="196">
   <si>
     <t>~FI_T</t>
   </si>
@@ -4666,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AG144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q7" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AD17" sqref="AD17"/>
+    <sheetView tabSelected="1" topLeftCell="Q2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="Y135" sqref="Y135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5367,7 +5367,7 @@
         <v>146</v>
       </c>
       <c r="AG21" s="75">
-        <v>1</v>
+        <v>4.7712418300653592E-3</v>
       </c>
     </row>
     <row r="22" spans="2:33" x14ac:dyDescent="0.2">
@@ -5436,7 +5436,7 @@
         <v>147</v>
       </c>
       <c r="AG22" s="75">
-        <v>1</v>
+        <v>4.5751633986928107E-3</v>
       </c>
     </row>
     <row r="23" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -5500,7 +5500,7 @@
         <v>148</v>
       </c>
       <c r="AG23" s="75">
-        <v>1</v>
+        <v>4.4444444444444444E-3</v>
       </c>
     </row>
     <row r="24" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -5564,7 +5564,7 @@
         <v>149</v>
       </c>
       <c r="AG24" s="75">
-        <v>1</v>
+        <v>4.2483660130718951E-3</v>
       </c>
     </row>
     <row r="25" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -5628,7 +5628,7 @@
         <v>150</v>
       </c>
       <c r="AG25" s="75">
-        <v>1</v>
+        <v>4.0522875816993466E-3</v>
       </c>
     </row>
     <row r="26" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -5692,7 +5692,7 @@
         <v>151</v>
       </c>
       <c r="AG26" s="75">
-        <v>1</v>
+        <v>3.8562091503267972E-3</v>
       </c>
     </row>
     <row r="27" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -5757,7 +5757,7 @@
         <v>152</v>
       </c>
       <c r="AG27" s="75">
-        <v>1</v>
+        <v>3.7254901960784314E-3</v>
       </c>
     </row>
     <row r="28" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -5824,7 +5824,7 @@
         <v>153</v>
       </c>
       <c r="AG28" s="75">
-        <v>1</v>
+        <v>3.5947712418300652E-3</v>
       </c>
     </row>
     <row r="29" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -5870,7 +5870,7 @@
         <v>154</v>
       </c>
       <c r="AG29" s="75">
-        <v>1</v>
+        <v>3.0065359477124184E-3</v>
       </c>
     </row>
     <row r="30" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -5925,7 +5925,7 @@
         <v>155</v>
       </c>
       <c r="AG30" s="75">
-        <v>1</v>
+        <v>3.2679738562091504E-3</v>
       </c>
     </row>
     <row r="31" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -5977,7 +5977,7 @@
         <v>156</v>
       </c>
       <c r="AG31" s="75">
-        <v>1</v>
+        <v>3.5294117647058825E-3</v>
       </c>
     </row>
     <row r="32" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -6008,7 +6008,7 @@
         <v>157</v>
       </c>
       <c r="AG32" s="75">
-        <v>1</v>
+        <v>3.5947712418300652E-3</v>
       </c>
     </row>
     <row r="33" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -6039,7 +6039,7 @@
         <v>158</v>
       </c>
       <c r="AG33" s="75">
-        <v>1</v>
+        <v>3.5294117647058825E-3</v>
       </c>
     </row>
     <row r="34" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -6069,7 +6069,7 @@
         <v>159</v>
       </c>
       <c r="AG34" s="75">
-        <v>1</v>
+        <v>3.4640522875816994E-3</v>
       </c>
     </row>
     <row r="35" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -6100,7 +6100,7 @@
         <v>160</v>
       </c>
       <c r="AG35" s="75">
-        <v>1</v>
+        <v>3.5947712418300652E-3</v>
       </c>
     </row>
     <row r="36" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
@@ -6134,7 +6134,7 @@
         <v>161</v>
       </c>
       <c r="AG36" s="75">
-        <v>1</v>
+        <v>3.9215686274509803E-3</v>
       </c>
     </row>
     <row r="37" spans="2:33" s="57" customFormat="1" x14ac:dyDescent="0.2">
@@ -6168,7 +6168,7 @@
         <v>162</v>
       </c>
       <c r="AG37" s="75">
-        <v>1</v>
+        <v>4.4444444444444444E-3</v>
       </c>
     </row>
     <row r="38" spans="2:33" x14ac:dyDescent="0.2">
@@ -6190,7 +6190,7 @@
         <v>163</v>
       </c>
       <c r="AG38" s="75">
-        <v>1</v>
+        <v>4.9019607843137254E-3</v>
       </c>
     </row>
     <row r="39" spans="2:33" x14ac:dyDescent="0.2">
@@ -6206,7 +6206,7 @@
         <v>164</v>
       </c>
       <c r="AG39" s="75">
-        <v>1</v>
+        <v>5.2941176470588233E-3</v>
       </c>
     </row>
     <row r="40" spans="2:33" x14ac:dyDescent="0.2">
@@ -6226,7 +6226,7 @@
         <v>165</v>
       </c>
       <c r="AG40" s="75">
-        <v>1</v>
+        <v>5.6209150326797389E-3</v>
       </c>
     </row>
     <row r="41" spans="2:33" x14ac:dyDescent="0.2">
@@ -6246,7 +6246,7 @@
         <v>166</v>
       </c>
       <c r="AG41" s="75">
-        <v>1</v>
+        <v>5.7516339869281043E-3</v>
       </c>
     </row>
     <row r="42" spans="2:33" x14ac:dyDescent="0.2">
@@ -6268,7 +6268,7 @@
         <v>167</v>
       </c>
       <c r="AG42" s="75">
-        <v>1</v>
+        <v>5.6209150326797389E-3</v>
       </c>
     </row>
     <row r="43" spans="2:33" x14ac:dyDescent="0.2">
@@ -6283,7 +6283,7 @@
         <v>168</v>
       </c>
       <c r="AG43" s="75">
-        <v>1</v>
+        <v>5.3594771241830064E-3</v>
       </c>
     </row>
     <row r="44" spans="2:33" x14ac:dyDescent="0.2">
@@ -6305,7 +6305,7 @@
         <v>169</v>
       </c>
       <c r="AG44" s="75">
-        <v>1</v>
+        <v>5.0980392156862748E-3</v>
       </c>
     </row>
     <row r="45" spans="2:33" x14ac:dyDescent="0.2">
@@ -6321,7 +6321,7 @@
         <v>170</v>
       </c>
       <c r="AG45" s="75">
-        <v>1</v>
+        <v>4.7712418300653592E-3</v>
       </c>
     </row>
     <row r="46" spans="2:33" x14ac:dyDescent="0.2">
@@ -6336,7 +6336,7 @@
         <v>171</v>
       </c>
       <c r="AG46" s="75">
-        <v>1</v>
+        <v>4.5751633986928107E-3</v>
       </c>
     </row>
     <row r="47" spans="2:33" x14ac:dyDescent="0.2">
@@ -6351,7 +6351,7 @@
         <v>172</v>
       </c>
       <c r="AG47" s="75">
-        <v>1</v>
+        <v>4.4444444444444444E-3</v>
       </c>
     </row>
     <row r="48" spans="2:33" x14ac:dyDescent="0.2">
@@ -6366,7 +6366,7 @@
         <v>173</v>
       </c>
       <c r="AG48" s="75">
-        <v>1</v>
+        <v>4.2483660130718951E-3</v>
       </c>
     </row>
     <row r="49" spans="30:33" x14ac:dyDescent="0.2">
@@ -6381,7 +6381,7 @@
         <v>174</v>
       </c>
       <c r="AG49" s="75">
-        <v>1</v>
+        <v>4.0522875816993466E-3</v>
       </c>
     </row>
     <row r="50" spans="30:33" x14ac:dyDescent="0.2">
@@ -6396,7 +6396,7 @@
         <v>175</v>
       </c>
       <c r="AG50" s="75">
-        <v>1</v>
+        <v>3.8562091503267972E-3</v>
       </c>
     </row>
     <row r="51" spans="30:33" x14ac:dyDescent="0.2">
@@ -6411,7 +6411,7 @@
         <v>176</v>
       </c>
       <c r="AG51" s="75">
-        <v>1</v>
+        <v>3.7254901960784314E-3</v>
       </c>
     </row>
     <row r="52" spans="30:33" x14ac:dyDescent="0.2">
@@ -6426,7 +6426,7 @@
         <v>177</v>
       </c>
       <c r="AG52" s="75">
-        <v>1</v>
+        <v>3.5947712418300652E-3</v>
       </c>
     </row>
     <row r="53" spans="30:33" x14ac:dyDescent="0.2">
@@ -6441,7 +6441,7 @@
         <v>178</v>
       </c>
       <c r="AG53" s="75">
-        <v>1</v>
+        <v>3.0065359477124184E-3</v>
       </c>
     </row>
     <row r="54" spans="30:33" x14ac:dyDescent="0.2">
@@ -6456,7 +6456,7 @@
         <v>179</v>
       </c>
       <c r="AG54" s="75">
-        <v>1</v>
+        <v>3.2679738562091504E-3</v>
       </c>
     </row>
     <row r="55" spans="30:33" x14ac:dyDescent="0.2">
@@ -6471,7 +6471,7 @@
         <v>180</v>
       </c>
       <c r="AG55" s="75">
-        <v>1</v>
+        <v>3.5294117647058825E-3</v>
       </c>
     </row>
     <row r="56" spans="30:33" x14ac:dyDescent="0.2">
@@ -6486,7 +6486,7 @@
         <v>181</v>
       </c>
       <c r="AG56" s="75">
-        <v>1</v>
+        <v>3.5947712418300652E-3</v>
       </c>
     </row>
     <row r="57" spans="30:33" x14ac:dyDescent="0.2">
@@ -6501,7 +6501,7 @@
         <v>182</v>
       </c>
       <c r="AG57" s="75">
-        <v>1</v>
+        <v>3.5294117647058825E-3</v>
       </c>
     </row>
     <row r="58" spans="30:33" x14ac:dyDescent="0.2">
@@ -6516,7 +6516,7 @@
         <v>183</v>
       </c>
       <c r="AG58" s="75">
-        <v>1</v>
+        <v>3.4640522875816994E-3</v>
       </c>
     </row>
     <row r="59" spans="30:33" x14ac:dyDescent="0.2">
@@ -6531,7 +6531,7 @@
         <v>184</v>
       </c>
       <c r="AG59" s="75">
-        <v>1</v>
+        <v>3.5947712418300652E-3</v>
       </c>
     </row>
     <row r="60" spans="30:33" x14ac:dyDescent="0.2">
@@ -6546,7 +6546,7 @@
         <v>185</v>
       </c>
       <c r="AG60" s="75">
-        <v>1</v>
+        <v>3.9215686274509803E-3</v>
       </c>
     </row>
     <row r="61" spans="30:33" x14ac:dyDescent="0.2">
@@ -6561,7 +6561,7 @@
         <v>186</v>
       </c>
       <c r="AG61" s="75">
-        <v>1</v>
+        <v>4.4444444444444444E-3</v>
       </c>
     </row>
     <row r="62" spans="30:33" x14ac:dyDescent="0.2">
@@ -6576,7 +6576,7 @@
         <v>187</v>
       </c>
       <c r="AG62" s="75">
-        <v>1</v>
+        <v>4.9019607843137254E-3</v>
       </c>
     </row>
     <row r="63" spans="30:33" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>188</v>
       </c>
       <c r="AG63" s="75">
-        <v>1</v>
+        <v>5.2941176470588233E-3</v>
       </c>
     </row>
     <row r="64" spans="30:33" x14ac:dyDescent="0.2">
@@ -6606,7 +6606,7 @@
         <v>189</v>
       </c>
       <c r="AG64" s="75">
-        <v>1</v>
+        <v>5.6209150326797389E-3</v>
       </c>
     </row>
     <row r="65" spans="30:33" x14ac:dyDescent="0.2">
@@ -6621,7 +6621,7 @@
         <v>190</v>
       </c>
       <c r="AG65" s="75">
-        <v>1</v>
+        <v>5.7516339869281043E-3</v>
       </c>
     </row>
     <row r="66" spans="30:33" x14ac:dyDescent="0.2">
@@ -6636,7 +6636,7 @@
         <v>191</v>
       </c>
       <c r="AG66" s="75">
-        <v>1</v>
+        <v>5.6209150326797389E-3</v>
       </c>
     </row>
     <row r="67" spans="30:33" x14ac:dyDescent="0.2">
@@ -6651,7 +6651,7 @@
         <v>192</v>
       </c>
       <c r="AG67" s="75">
-        <v>1</v>
+        <v>5.3594771241830064E-3</v>
       </c>
     </row>
     <row r="68" spans="30:33" x14ac:dyDescent="0.2">
@@ -6666,7 +6666,7 @@
         <v>193</v>
       </c>
       <c r="AG68" s="75">
-        <v>1</v>
+        <v>5.0980392156862748E-3</v>
       </c>
     </row>
     <row r="69" spans="30:33" x14ac:dyDescent="0.2">
@@ -6762,7 +6762,7 @@
         <v>W_06</v>
       </c>
       <c r="AG74" s="8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="30:33" x14ac:dyDescent="0.2">
@@ -6778,7 +6778,7 @@
         <v>W_07</v>
       </c>
       <c r="AG75" s="8">
-        <v>1</v>
+        <v>1.646798088410991E-2</v>
       </c>
     </row>
     <row r="76" spans="30:33" x14ac:dyDescent="0.2">
@@ -6794,7 +6794,7 @@
         <v>W_08</v>
       </c>
       <c r="AG76" s="8">
-        <v>1</v>
+        <v>0.1184353643966547</v>
       </c>
     </row>
     <row r="77" spans="30:33" x14ac:dyDescent="0.2">
@@ -6810,7 +6810,7 @@
         <v>W_09</v>
       </c>
       <c r="AG77" s="8">
-        <v>1</v>
+        <v>0.29891851851851847</v>
       </c>
     </row>
     <row r="78" spans="30:33" x14ac:dyDescent="0.2">
@@ -6826,7 +6826,7 @@
         <v>W_10</v>
       </c>
       <c r="AG78" s="8">
-        <v>1</v>
+        <v>0.49000167264038241</v>
       </c>
     </row>
     <row r="79" spans="30:33" x14ac:dyDescent="0.2">
@@ -6842,7 +6842,7 @@
         <v>W_11</v>
       </c>
       <c r="AG79" s="8">
-        <v>1</v>
+        <v>0.65401063321385899</v>
       </c>
     </row>
     <row r="80" spans="30:33" x14ac:dyDescent="0.2">
@@ -6858,7 +6858,7 @@
         <v>W_12</v>
       </c>
       <c r="AG80" s="8">
-        <v>1</v>
+        <v>0.77708183990442059</v>
       </c>
     </row>
     <row r="81" spans="30:33" x14ac:dyDescent="0.2">
@@ -6874,7 +6874,7 @@
         <v>W_13</v>
       </c>
       <c r="AG81" s="8">
-        <v>1</v>
+        <v>0.83970382317801662</v>
       </c>
     </row>
     <row r="82" spans="30:33" x14ac:dyDescent="0.2">
@@ -6890,7 +6890,7 @@
         <v>W_14</v>
       </c>
       <c r="AG82" s="8">
-        <v>1</v>
+        <v>0.81719127837514938</v>
       </c>
     </row>
     <row r="83" spans="30:33" x14ac:dyDescent="0.2">
@@ -6906,7 +6906,7 @@
         <v>W_15</v>
       </c>
       <c r="AG83" s="8">
-        <v>1</v>
+        <v>0.72164026284348859</v>
       </c>
     </row>
     <row r="84" spans="30:33" x14ac:dyDescent="0.2">
@@ -6922,7 +6922,7 @@
         <v>W_16</v>
       </c>
       <c r="AG84" s="8">
-        <v>1</v>
+        <v>0.55167574671445641</v>
       </c>
     </row>
     <row r="85" spans="30:33" x14ac:dyDescent="0.2">
@@ -6938,7 +6938,7 @@
         <v>W_17</v>
       </c>
       <c r="AG85" s="8">
-        <v>1</v>
+        <v>0.33744408602150539</v>
       </c>
     </row>
     <row r="86" spans="30:33" x14ac:dyDescent="0.2">
@@ -6954,7 +6954,7 @@
         <v>W_18</v>
       </c>
       <c r="AG86" s="8">
-        <v>1</v>
+        <v>0.1283225806451613</v>
       </c>
     </row>
     <row r="87" spans="30:33" x14ac:dyDescent="0.2">
@@ -6970,7 +6970,7 @@
         <v>W_19</v>
       </c>
       <c r="AG87" s="8">
-        <v>0</v>
+        <v>6.2623655913978497E-3</v>
       </c>
     </row>
     <row r="88" spans="30:33" x14ac:dyDescent="0.2">
@@ -7162,7 +7162,7 @@
         <v>D_07</v>
       </c>
       <c r="AG99" s="8">
-        <v>1</v>
+        <v>1.528355236957387E-2</v>
       </c>
     </row>
     <row r="100" spans="30:33" x14ac:dyDescent="0.2">
@@ -7178,7 +7178,7 @@
         <v>D_08</v>
       </c>
       <c r="AG100" s="8">
-        <v>1</v>
+        <v>0.16866303407862551</v>
       </c>
     </row>
     <row r="101" spans="30:33" x14ac:dyDescent="0.2">
@@ -7194,7 +7194,7 @@
         <v>D_09</v>
       </c>
       <c r="AG101" s="8">
-        <v>1</v>
+        <v>0.38093878079308191</v>
       </c>
     </row>
     <row r="102" spans="30:33" x14ac:dyDescent="0.2">
@@ -7210,7 +7210,7 @@
         <v>D_10</v>
       </c>
       <c r="AG102" s="8">
-        <v>1</v>
+        <v>0.60340974284576432</v>
       </c>
     </row>
     <row r="103" spans="30:33" x14ac:dyDescent="0.2">
@@ -7226,7 +7226,7 @@
         <v>D_11</v>
       </c>
       <c r="AG103" s="8">
-        <v>1</v>
+        <v>0.7847666183080162</v>
       </c>
     </row>
     <row r="104" spans="30:33" x14ac:dyDescent="0.2">
@@ -7242,7 +7242,7 @@
         <v>D_12</v>
       </c>
       <c r="AG104" s="8">
-        <v>1</v>
+        <v>0.89506576776469238</v>
       </c>
     </row>
     <row r="105" spans="30:33" x14ac:dyDescent="0.2">
@@ -7258,7 +7258,7 @@
         <v>D_13</v>
       </c>
       <c r="AG105" s="8">
-        <v>1</v>
+        <v>0.92324038231780159</v>
       </c>
     </row>
     <row r="106" spans="30:33" x14ac:dyDescent="0.2">
@@ -7274,7 +7274,7 @@
         <v>D_14</v>
       </c>
       <c r="AG106" s="8">
-        <v>1</v>
+        <v>0.8673043750355578</v>
       </c>
     </row>
     <row r="107" spans="30:33" x14ac:dyDescent="0.2">
@@ -7290,7 +7290,7 @@
         <v>D_15</v>
       </c>
       <c r="AG107" s="8">
-        <v>1</v>
+        <v>0.7383132388917335</v>
       </c>
     </row>
     <row r="108" spans="30:33" x14ac:dyDescent="0.2">
@@ -7306,7 +7306,7 @@
         <v>D_16</v>
       </c>
       <c r="AG108" s="8">
-        <v>1</v>
+        <v>0.55210523695738756</v>
       </c>
     </row>
     <row r="109" spans="30:33" x14ac:dyDescent="0.2">
@@ -7322,7 +7322,7 @@
         <v>D_17</v>
       </c>
       <c r="AG109" s="8">
-        <v>1</v>
+        <v>0.32423942936792399</v>
       </c>
     </row>
     <row r="110" spans="30:33" x14ac:dyDescent="0.2">
@@ -7338,7 +7338,7 @@
         <v>D_18</v>
       </c>
       <c r="AG110" s="8">
-        <v>1</v>
+        <v>0.1175180804460375</v>
       </c>
     </row>
     <row r="111" spans="30:33" x14ac:dyDescent="0.2">
@@ -7354,7 +7354,7 @@
         <v>D_19</v>
       </c>
       <c r="AG111" s="8">
-        <v>0</v>
+        <v>1.7921146953405021E-5</v>
       </c>
     </row>
     <row r="112" spans="30:33" x14ac:dyDescent="0.2">
@@ -7438,452 +7438,116 @@
       </c>
     </row>
     <row r="117" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD117" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE117" s="16" t="str">
-        <f>S$25</f>
-        <v>CSP</v>
-      </c>
-      <c r="AF117" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_01</v>
-      </c>
-      <c r="AG117" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD117" s="1"/>
+      <c r="AE117" s="16"/>
     </row>
     <row r="118" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD118" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE118" s="16" t="str">
-        <f t="shared" ref="AE118:AE144" si="3">S$25</f>
-        <v>CSP</v>
-      </c>
-      <c r="AF118" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_02</v>
-      </c>
-      <c r="AG118" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD118" s="1"/>
+      <c r="AE118" s="16"/>
     </row>
     <row r="119" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD119" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE119" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF119" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_03</v>
-      </c>
-      <c r="AG119" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD119" s="1"/>
+      <c r="AE119" s="16"/>
     </row>
     <row r="120" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD120" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE120" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF120" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_04</v>
-      </c>
-      <c r="AG120" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD120" s="1"/>
+      <c r="AE120" s="16"/>
     </row>
     <row r="121" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD121" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE121" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF121" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_05</v>
-      </c>
-      <c r="AG121" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD121" s="1"/>
+      <c r="AE121" s="16"/>
     </row>
     <row r="122" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD122" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE122" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF122" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_06</v>
-      </c>
-      <c r="AG122" s="8">
-        <v>1</v>
-      </c>
+      <c r="AD122" s="1"/>
+      <c r="AE122" s="16"/>
     </row>
     <row r="123" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD123" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE123" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF123" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_07</v>
-      </c>
-      <c r="AG123" s="8">
-        <v>1</v>
-      </c>
+      <c r="AD123" s="1"/>
+      <c r="AE123" s="16"/>
     </row>
     <row r="124" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD124" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE124" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF124" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_08</v>
-      </c>
-      <c r="AG124" s="8">
-        <v>1</v>
-      </c>
+      <c r="AD124" s="1"/>
+      <c r="AE124" s="16"/>
     </row>
     <row r="125" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD125" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE125" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF125" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_09</v>
-      </c>
-      <c r="AG125" s="8">
-        <v>1</v>
-      </c>
+      <c r="AD125" s="1"/>
+      <c r="AE125" s="16"/>
     </row>
     <row r="126" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD126" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE126" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF126" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_10</v>
-      </c>
-      <c r="AG126" s="8">
-        <v>1</v>
-      </c>
+      <c r="AD126" s="1"/>
+      <c r="AE126" s="16"/>
     </row>
     <row r="127" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD127" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE127" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF127" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_11</v>
-      </c>
-      <c r="AG127" s="8">
-        <v>1</v>
-      </c>
+      <c r="AD127" s="1"/>
+      <c r="AE127" s="16"/>
     </row>
     <row r="128" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD128" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE128" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF128" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_12</v>
-      </c>
-      <c r="AG128" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD129" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE129" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF129" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_13</v>
-      </c>
-      <c r="AG129" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD130" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE130" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF130" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_14</v>
-      </c>
-      <c r="AG130" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD131" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE131" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF131" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_15</v>
-      </c>
-      <c r="AG131" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD132" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE132" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF132" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_16</v>
-      </c>
-      <c r="AG132" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD133" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE133" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF133" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_17</v>
-      </c>
-      <c r="AG133" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD134" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE134" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF134" s="8" t="str">
-        <f t="shared" ref="AF134:AF144" si="4">AF86</f>
-        <v>W_18</v>
-      </c>
-      <c r="AG134" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD135" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE135" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF135" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>W_19</v>
-      </c>
-      <c r="AG135" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD136" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE136" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF136" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>W_20</v>
-      </c>
-      <c r="AG136" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD137" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE137" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF137" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>W_21</v>
-      </c>
-      <c r="AG137" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD138" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE138" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF138" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>W_22</v>
-      </c>
-      <c r="AG138" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD139" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE139" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF139" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>W_23</v>
-      </c>
-      <c r="AG139" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD140" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE140" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF140" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>W_24</v>
-      </c>
-      <c r="AG140" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD141" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE141" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF141" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>D_01</v>
-      </c>
-      <c r="AG141" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD142" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE142" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF142" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>D_02</v>
-      </c>
-      <c r="AG142" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD143" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE143" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF143" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>D_03</v>
-      </c>
-      <c r="AG143" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD144" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE144" s="16" t="str">
-        <f t="shared" si="3"/>
-        <v>CSP</v>
-      </c>
-      <c r="AF144" s="8" t="str">
-        <f t="shared" si="4"/>
-        <v>D_04</v>
-      </c>
-      <c r="AG144" s="8">
-        <v>0</v>
-      </c>
+      <c r="AD128" s="1"/>
+      <c r="AE128" s="16"/>
+    </row>
+    <row r="129" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD129" s="1"/>
+      <c r="AE129" s="16"/>
+    </row>
+    <row r="130" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD130" s="1"/>
+      <c r="AE130" s="16"/>
+    </row>
+    <row r="131" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD131" s="1"/>
+      <c r="AE131" s="16"/>
+    </row>
+    <row r="132" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD132" s="1"/>
+      <c r="AE132" s="16"/>
+    </row>
+    <row r="133" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD133" s="1"/>
+      <c r="AE133" s="16"/>
+    </row>
+    <row r="134" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD134" s="1"/>
+      <c r="AE134" s="16"/>
+    </row>
+    <row r="135" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD135" s="1"/>
+      <c r="AE135" s="16"/>
+    </row>
+    <row r="136" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD136" s="1"/>
+      <c r="AE136" s="16"/>
+    </row>
+    <row r="137" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD137" s="1"/>
+      <c r="AE137" s="16"/>
+    </row>
+    <row r="138" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD138" s="1"/>
+      <c r="AE138" s="16"/>
+    </row>
+    <row r="139" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD139" s="1"/>
+      <c r="AE139" s="16"/>
+    </row>
+    <row r="140" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD140" s="1"/>
+      <c r="AE140" s="16"/>
+    </row>
+    <row r="141" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD141" s="1"/>
+      <c r="AE141" s="16"/>
+    </row>
+    <row r="142" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD142" s="1"/>
+      <c r="AE142" s="16"/>
+    </row>
+    <row r="143" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD143" s="1"/>
+      <c r="AE143" s="16"/>
+    </row>
+    <row r="144" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD144" s="1"/>
+      <c r="AE144" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A9E415-3A99-415D-89E5-74016C8B3A06}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BACA7DC7-4774-4AA8-97D3-3569D1FA8E0B}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -3269,8 +3269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4666,8 +4666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AG144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q2" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="Y135" sqref="Y135"/>
+    <sheetView topLeftCell="A39" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5657,7 +5657,7 @@
         <v>691</v>
       </c>
       <c r="K26" s="56">
-        <v>1125</v>
+        <v>6.99</v>
       </c>
       <c r="M26" s="57">
         <v>8.76</v>
@@ -6694,7 +6694,7 @@
         <v>SOLPV</v>
       </c>
       <c r="AF70" s="8" t="str">
-        <f t="shared" ref="AF70:AF133" si="2">AF22</f>
+        <f t="shared" ref="AF70:AF116" si="2">AF22</f>
         <v>W_02</v>
       </c>
       <c r="AG70" s="8">

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BACA7DC7-4774-4AA8-97D3-3569D1FA8E0B}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9867C29A-B4AF-4175-AA6C-314AC4164CA0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="192">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1869,18 +1869,6 @@
   </si>
   <si>
     <t>Solar Energy</t>
-  </si>
-  <si>
-    <t>MINWIND</t>
-  </si>
-  <si>
-    <t>MINSOL</t>
-  </si>
-  <si>
-    <t>Solar radation-domestic</t>
-  </si>
-  <si>
-    <t>Wind Supply-domestic</t>
   </si>
   <si>
     <t>SOLAR</t>
@@ -2160,10 +2148,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.0"/>
   </numFmts>
   <fonts count="23" x14ac:knownFonts="1">
@@ -2463,7 +2450,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2585,12 +2572,7 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="4" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="8" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="21" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="21" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
@@ -2598,10 +2580,6 @@
     <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="16" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="16" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2610,16 +2588,6 @@
     <xf numFmtId="167" fontId="16" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -3270,7 +3238,7 @@
   <dimension ref="A1:W67"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="O39" sqref="O39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3285,9 +3253,7 @@
     <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" style="65" customWidth="1"/>
-    <col min="13" max="13" width="2" customWidth="1"/>
+    <col min="11" max="13" width="13.7109375" customWidth="1"/>
     <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="7.140625" customWidth="1"/>
     <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
@@ -3506,19 +3472,11 @@
       <c r="E8" s="21"/>
       <c r="F8" s="21"/>
       <c r="G8" s="21"/>
-      <c r="N8" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="O8" s="66"/>
-      <c r="P8" s="66" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q8" s="66" t="s">
-        <v>103</v>
-      </c>
-      <c r="R8" s="66" t="s">
-        <v>58</v>
-      </c>
+      <c r="N8" s="63"/>
+      <c r="O8" s="63"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="63"/>
+      <c r="R8" s="63"/>
       <c r="S8" s="19"/>
       <c r="T8" s="19"/>
       <c r="U8" s="19"/>
@@ -3532,19 +3490,11 @@
       <c r="F9" s="21"/>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
-      <c r="N9" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="O9" s="66"/>
-      <c r="P9" s="66" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q9" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="R9" s="66" t="s">
-        <v>58</v>
-      </c>
+      <c r="N9" s="63"/>
+      <c r="O9" s="63"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="63"/>
+      <c r="R9" s="63"/>
       <c r="S9" s="19"/>
       <c r="T9" s="19"/>
       <c r="U9" s="19"/>
@@ -3569,7 +3519,8 @@
       <c r="V10" s="19"/>
     </row>
     <row r="11" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="L11" s="84"/>
+      <c r="L11"/>
+      <c r="M11"/>
       <c r="N11"/>
       <c r="O11"/>
       <c r="P11"/>
@@ -3581,7 +3532,8 @@
       <c r="V11" s="19"/>
     </row>
     <row r="12" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="L12" s="84"/>
+      <c r="L12"/>
+      <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
@@ -3600,7 +3552,8 @@
       <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="L13" s="84"/>
+      <c r="L13"/>
+      <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
@@ -3619,7 +3572,8 @@
       <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="L14" s="84"/>
+      <c r="L14"/>
+      <c r="M14"/>
       <c r="N14" s="12"/>
       <c r="O14" s="15"/>
       <c r="P14" s="12"/>
@@ -3754,7 +3708,6 @@
       <c r="K23" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="L23" s="85"/>
       <c r="N23" s="13" t="s">
         <v>15</v>
       </c>
@@ -3814,7 +3767,6 @@
       <c r="K24" s="26" t="s">
         <v>80</v>
       </c>
-      <c r="L24" s="86"/>
       <c r="N24" s="20" t="s">
         <v>50</v>
       </c>
@@ -3862,12 +3814,11 @@
         <v>58</v>
       </c>
       <c r="K25" s="28"/>
-      <c r="L25" s="87"/>
       <c r="N25" s="20" t="s">
         <v>82</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
@@ -3900,29 +3851,28 @@
         <v>50</v>
       </c>
       <c r="I26" s="31">
-        <v>14.00399887968009</v>
+        <v>16.152193200065501</v>
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="33">
         <v>8.76</v>
       </c>
-      <c r="L26" s="63"/>
-      <c r="N26" s="78" t="s">
+      <c r="N26" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="78"/>
-      <c r="P26" s="79" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q26" s="80" t="str">
+      <c r="O26" s="69"/>
+      <c r="P26" s="70" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q26" s="71" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
-      <c r="R26" s="78" t="s">
+      <c r="R26" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="78"/>
-      <c r="T26" s="78"/>
+      <c r="S26" s="69"/>
+      <c r="T26" s="69"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="str">
@@ -3947,29 +3897,28 @@
         <v>50</v>
       </c>
       <c r="I27" s="35">
-        <v>27.575997793920177</v>
+        <v>31.819820604129035</v>
       </c>
       <c r="J27" s="36"/>
       <c r="K27" s="33">
         <v>8.76</v>
       </c>
-      <c r="L27" s="63"/>
-      <c r="N27" s="78" t="s">
+      <c r="N27" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="78"/>
-      <c r="P27" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q27" s="80" t="str">
+      <c r="O27" s="69"/>
+      <c r="P27" s="70" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q27" s="71" t="str">
         <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Ngas </v>
       </c>
-      <c r="R27" s="78" t="s">
+      <c r="R27" s="69" t="s">
         <v>58</v>
       </c>
-      <c r="S27" s="78"/>
-      <c r="T27" s="78"/>
+      <c r="S27" s="69"/>
+      <c r="T27" s="69"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="12"/>
@@ -3979,17 +3928,9 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="33"/>
-      <c r="L28" s="63"/>
-      <c r="N28" s="78"/>
-      <c r="O28" s="78"/>
-      <c r="P28" s="79"/>
-      <c r="Q28" s="80"/>
-      <c r="R28" s="78"/>
-      <c r="S28" s="78"/>
-      <c r="T28" s="78"/>
+      <c r="R28" s="69"/>
+      <c r="S28" s="69"/>
+      <c r="T28" s="69"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B29" s="12"/>
@@ -3999,17 +3940,13 @@
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="33"/>
-      <c r="L29" s="63"/>
-      <c r="N29" s="78"/>
-      <c r="O29" s="78"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="80"/>
-      <c r="R29" s="78"/>
-      <c r="S29" s="78"/>
-      <c r="T29" s="78"/>
+      <c r="N29" s="21"/>
+      <c r="O29" s="21"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="69"/>
+      <c r="S29" s="69"/>
+      <c r="T29" s="69"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="12"/>
@@ -4019,17 +3956,13 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="63"/>
-      <c r="N30" s="78"/>
-      <c r="O30" s="78"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="80"/>
-      <c r="R30" s="78"/>
-      <c r="S30" s="78"/>
-      <c r="T30" s="78"/>
+      <c r="N30" s="21"/>
+      <c r="O30" s="21"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="69"/>
+      <c r="S30" s="69"/>
+      <c r="T30" s="69"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B31" s="12"/>
@@ -4039,17 +3972,13 @@
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="33"/>
-      <c r="L31" s="63"/>
-      <c r="N31" s="78"/>
-      <c r="O31" s="78"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="80"/>
-      <c r="R31" s="78"/>
-      <c r="S31" s="78"/>
-      <c r="T31" s="78"/>
+      <c r="N31" s="21"/>
+      <c r="O31" s="21"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="69"/>
+      <c r="S31" s="69"/>
+      <c r="T31" s="69"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B32" s="12"/>
@@ -4059,17 +3988,13 @@
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="63"/>
-      <c r="N32" s="78"/>
-      <c r="O32" s="78"/>
-      <c r="P32" s="79"/>
-      <c r="Q32" s="80"/>
-      <c r="R32" s="78"/>
-      <c r="S32" s="78"/>
-      <c r="T32" s="78"/>
+      <c r="N32" s="21"/>
+      <c r="O32" s="21"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="69"/>
+      <c r="S32" s="69"/>
+      <c r="T32" s="69"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B33" s="12"/>
@@ -4079,17 +4004,13 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="33"/>
-      <c r="L33" s="63"/>
-      <c r="N33" s="78"/>
-      <c r="O33" s="78"/>
-      <c r="P33" s="79"/>
-      <c r="Q33" s="80"/>
-      <c r="R33" s="78"/>
-      <c r="S33" s="78"/>
-      <c r="T33" s="78"/>
+      <c r="N33" s="21"/>
+      <c r="O33" s="21"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="69"/>
+      <c r="S33" s="69"/>
+      <c r="T33" s="69"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B34" s="12"/>
@@ -4099,17 +4020,12 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="33"/>
-      <c r="L34" s="63"/>
-      <c r="N34" s="78"/>
-      <c r="O34" s="78"/>
-      <c r="P34" s="79"/>
-      <c r="Q34" s="80"/>
-      <c r="R34" s="78"/>
-      <c r="S34" s="78"/>
-      <c r="T34" s="78"/>
+      <c r="N34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="69"/>
+      <c r="S34" s="69"/>
+      <c r="T34" s="69"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B35" s="12"/>
@@ -4119,17 +4035,12 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="33"/>
-      <c r="L35" s="63"/>
-      <c r="N35" s="78"/>
-      <c r="O35" s="78"/>
-      <c r="P35" s="79"/>
-      <c r="Q35" s="80"/>
-      <c r="R35" s="78"/>
-      <c r="S35" s="78"/>
-      <c r="T35" s="78"/>
+      <c r="N35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="69"/>
+      <c r="S35" s="69"/>
+      <c r="T35" s="69"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B36" s="12"/>
@@ -4139,276 +4050,92 @@
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="33"/>
-      <c r="L36" s="63"/>
-      <c r="N36" s="78"/>
-      <c r="O36" s="78"/>
-      <c r="P36" s="79"/>
-      <c r="Q36" s="80"/>
-      <c r="R36" s="78"/>
-      <c r="S36" s="78"/>
-      <c r="T36" s="78"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="69"/>
+      <c r="S36" s="69"/>
+      <c r="T36" s="69"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B37" s="19" t="str">
-        <f t="shared" ref="B37:B38" si="0">P37</f>
-        <v>WNDTRBN</v>
-      </c>
-      <c r="C37" s="19" t="str">
-        <f>P8</f>
-        <v>WIND</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E37" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F37" s="21">
-        <v>0.34</v>
-      </c>
-      <c r="G37" s="21">
-        <v>0.97</v>
-      </c>
-      <c r="H37" s="21">
-        <v>25</v>
-      </c>
-      <c r="I37" s="74">
-        <v>9.1191599999999994E-3</v>
-      </c>
-      <c r="J37" s="36"/>
-      <c r="K37" s="75">
-        <v>8.76</v>
-      </c>
-      <c r="L37" s="63"/>
-      <c r="N37" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="O37" s="21"/>
-      <c r="P37" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q37" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="R37" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="S37" s="21"/>
-      <c r="T37" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="N37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="str">
-        <f t="shared" si="0"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="C38" s="19" t="str">
-        <f>P9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F38" s="21">
-        <v>0.17</v>
-      </c>
-      <c r="G38" s="21">
-        <v>0.99</v>
-      </c>
-      <c r="H38" s="21">
-        <v>25</v>
-      </c>
-      <c r="I38" s="74">
-        <v>6.0531600000000001E-3</v>
-      </c>
-      <c r="J38" s="36"/>
-      <c r="K38" s="75">
-        <v>8.76</v>
-      </c>
-      <c r="L38" s="63"/>
-      <c r="N38" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="O38" s="21"/>
-      <c r="P38" s="19" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q38" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="R38" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="B38" s="19"/>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="N38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="21"/>
       <c r="S38" s="21"/>
-      <c r="T38" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="T38" s="21"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="19" t="str">
-        <f>P41</f>
-        <v>CSP</v>
-      </c>
-      <c r="C39" s="19" t="str">
-        <f>P9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="D39" s="19" t="str">
-        <f>DemTechs_INDF!S7</f>
-        <v>SOLHEAT</v>
-      </c>
-      <c r="E39" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F39" s="21">
-        <v>0.41</v>
-      </c>
-      <c r="G39" s="21">
-        <v>0.92</v>
-      </c>
-      <c r="H39" s="21">
-        <v>25</v>
-      </c>
-      <c r="I39" s="76">
-        <v>3.2210519999999999E-2</v>
-      </c>
-      <c r="J39" s="36"/>
-      <c r="K39" s="75">
-        <v>8.76</v>
-      </c>
-      <c r="L39" s="63"/>
-      <c r="N39" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O39" s="21"/>
-      <c r="P39" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q39" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="R39" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="B39" s="19"/>
+      <c r="C39" s="19"/>
+      <c r="D39" s="19"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="N39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="21"/>
       <c r="S39" s="21"/>
       <c r="T39" s="21"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="19" t="str">
-        <f>P39</f>
-        <v>MINWIND</v>
-      </c>
+      <c r="B40" s="19"/>
       <c r="C40" s="19"/>
-      <c r="D40" s="19" t="str">
-        <f>P8</f>
-        <v>WIND</v>
-      </c>
-      <c r="E40" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F40" s="21">
-        <v>1</v>
-      </c>
-      <c r="G40" s="21">
-        <v>1</v>
-      </c>
-      <c r="H40" s="21">
-        <v>50</v>
-      </c>
-      <c r="I40" s="77">
-        <v>0</v>
-      </c>
-      <c r="J40" s="64"/>
-      <c r="K40" s="75">
-        <v>8.76</v>
-      </c>
-      <c r="L40" s="63"/>
-      <c r="N40" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="O40" s="21"/>
-      <c r="P40" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q40" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="R40" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="D40" s="19"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="N40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="21"/>
       <c r="S40" s="21"/>
       <c r="T40" s="21"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="19" t="str">
-        <f>P40</f>
-        <v>MINSOL</v>
-      </c>
+      <c r="B41" s="19"/>
       <c r="C41" s="19"/>
-      <c r="D41" s="19" t="str">
-        <f>P9</f>
-        <v>SOLAR</v>
-      </c>
-      <c r="E41" s="21">
-        <v>2030</v>
-      </c>
-      <c r="F41" s="21">
-        <v>1</v>
-      </c>
-      <c r="G41" s="21">
-        <v>1</v>
-      </c>
-      <c r="H41" s="21">
-        <v>50</v>
-      </c>
-      <c r="I41" s="77">
-        <v>0</v>
-      </c>
-      <c r="J41" s="64"/>
-      <c r="K41" s="75">
-        <v>8.76</v>
-      </c>
-      <c r="L41" s="63"/>
-      <c r="N41" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="O41" s="21"/>
-      <c r="P41" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q41" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="R41" s="21" t="s">
-        <v>58</v>
-      </c>
+      <c r="D41" s="19"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="N41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="21"/>
       <c r="S41" s="21"/>
-      <c r="T41" s="21" t="s">
-        <v>89</v>
-      </c>
+      <c r="T41" s="21"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="I42" s="67"/>
-      <c r="J42" s="64"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="63"/>
-      <c r="N42" s="72"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="69"/>
-      <c r="Q42" s="73"/>
+      <c r="B42" s="19"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="21"/>
+      <c r="F42" s="21"/>
+      <c r="G42" s="21"/>
+      <c r="H42" s="21"/>
+      <c r="N42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B43" s="12"/>
@@ -4417,14 +4144,9 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="64"/>
-      <c r="K43" s="68"/>
-      <c r="L43" s="63"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="70"/>
-      <c r="Q43" s="73"/>
+      <c r="N43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B44" s="12"/>
@@ -4433,14 +4155,9 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="I44" s="67"/>
-      <c r="J44" s="64"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="63"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="70"/>
-      <c r="Q44" s="73"/>
+      <c r="N44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B45" s="12"/>
@@ -4449,14 +4166,6 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="64"/>
-      <c r="K45" s="68"/>
-      <c r="L45" s="63"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="70"/>
-      <c r="Q45" s="73"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B46" s="12"/>
@@ -4465,14 +4174,6 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="I46" s="67"/>
-      <c r="J46" s="64"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="63"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="70"/>
-      <c r="Q46" s="73"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B47" s="8"/>
@@ -4481,14 +4182,6 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="64"/>
-      <c r="K47" s="68"/>
-      <c r="L47" s="63"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="70"/>
-      <c r="Q47" s="73"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B48" s="8"/>
@@ -4497,14 +4190,6 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="I48" s="67"/>
-      <c r="J48" s="64"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="63"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="70"/>
-      <c r="Q48" s="73"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B49" s="8"/>
@@ -4513,14 +4198,10 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="68"/>
-      <c r="L49" s="63"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="70"/>
-      <c r="Q49" s="73"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B50" s="8"/>
@@ -4529,14 +4210,10 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="I50" s="67"/>
-      <c r="J50" s="64"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="63"/>
-      <c r="N50" s="71"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="70"/>
-      <c r="Q50" s="73"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B51" s="12"/>
@@ -4545,14 +4222,10 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="I51" s="63"/>
-      <c r="J51" s="64"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="N51" s="71"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="70"/>
-      <c r="Q51" s="73"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B52" s="12"/>
@@ -4561,14 +4234,10 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="I52" s="63"/>
-      <c r="J52" s="64"/>
-      <c r="K52" s="63"/>
-      <c r="L52" s="63"/>
-      <c r="N52" s="71"/>
-      <c r="O52" s="71"/>
-      <c r="P52" s="70"/>
-      <c r="Q52" s="73"/>
+      <c r="N52" s="21"/>
+      <c r="O52" s="21"/>
+      <c r="P52" s="21"/>
+      <c r="Q52" s="21"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B53" s="12"/>
@@ -4576,18 +4245,12 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="64"/>
-      <c r="K53" s="63"/>
-      <c r="L53" s="63"/>
-      <c r="P53" s="15"/>
-      <c r="Q53" s="34"/>
+      <c r="N53" s="21"/>
+      <c r="O53" s="21"/>
+      <c r="P53" s="21"/>
+      <c r="Q53" s="21"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="I54" s="63"/>
-      <c r="J54" s="64"/>
-      <c r="K54" s="63"/>
-      <c r="L54" s="63"/>
       <c r="P54" s="15"/>
       <c r="Q54" s="34"/>
     </row>
@@ -4596,31 +4259,12 @@
       <c r="C55" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="I55" s="63"/>
-      <c r="J55" s="64"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="38"/>
       <c r="C56" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="I56" s="63"/>
-      <c r="J56" s="64"/>
-      <c r="K56" s="63"/>
-      <c r="L56" s="63"/>
-    </row>
-    <row r="57" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="I57" s="63"/>
-      <c r="J57" s="64"/>
-      <c r="K57" s="63"/>
-      <c r="L57" s="63"/>
-    </row>
-    <row r="58" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="I58" s="65"/>
-      <c r="J58" s="65"/>
-      <c r="K58" s="65"/>
     </row>
     <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65"/>
@@ -4634,7 +4278,7 @@
       <c r="I65"/>
       <c r="J65"/>
       <c r="K65"/>
-      <c r="L65" s="65"/>
+      <c r="L65"/>
       <c r="M65"/>
       <c r="N65"/>
       <c r="O65"/>
@@ -4664,10 +4308,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AG144"/>
+  <dimension ref="B1:AH144"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView topLeftCell="A24" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4693,7 +4337,9 @@
     <col min="23" max="23" width="13.42578125" style="8" customWidth="1"/>
     <col min="24" max="24" width="13.85546875" style="8" customWidth="1"/>
     <col min="25" max="25" width="8.42578125" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="8.85546875" style="8"/>
+    <col min="26" max="30" width="8.85546875" style="8"/>
+    <col min="31" max="31" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="15" x14ac:dyDescent="0.25">
@@ -4821,23 +4467,23 @@
       <c r="E5" s="43"/>
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
-      <c r="Q5" s="89" t="s">
+      <c r="Q5" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="89"/>
-      <c r="S5" s="89" t="s">
-        <v>121</v>
-      </c>
-      <c r="T5" s="89" t="s">
-        <v>124</v>
-      </c>
-      <c r="U5" s="89" t="s">
+      <c r="R5" s="76"/>
+      <c r="S5" s="76" t="s">
+        <v>117</v>
+      </c>
+      <c r="T5" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="U5" s="76" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
+      <c r="V5" s="75"/>
+      <c r="W5" s="75"/>
+      <c r="X5" s="75"/>
+      <c r="Y5" s="75"/>
       <c r="Z5" s="57"/>
     </row>
     <row r="6" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -4847,17 +4493,17 @@
       <c r="E6" s="43"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
-      <c r="Q6" s="89" t="s">
+      <c r="Q6" s="76" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="89"/>
-      <c r="S6" s="89" t="s">
-        <v>123</v>
-      </c>
-      <c r="T6" s="89" t="s">
-        <v>125</v>
-      </c>
-      <c r="U6" s="89" t="s">
+      <c r="R6" s="76"/>
+      <c r="S6" s="76" t="s">
+        <v>119</v>
+      </c>
+      <c r="T6" s="76" t="s">
+        <v>121</v>
+      </c>
+      <c r="U6" s="76" t="s">
         <v>58</v>
       </c>
       <c r="V6" s="59"/>
@@ -4873,17 +4519,17 @@
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
-      <c r="Q7" s="90" t="s">
+      <c r="Q7" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="90"/>
-      <c r="S7" s="90" t="s">
+      <c r="R7" s="77"/>
+      <c r="S7" s="77" t="s">
+        <v>118</v>
+      </c>
+      <c r="T7" s="77" t="s">
         <v>122</v>
       </c>
-      <c r="T7" s="90" t="s">
-        <v>126</v>
-      </c>
-      <c r="U7" s="90" t="s">
+      <c r="U7" s="77" t="s">
         <v>58</v>
       </c>
       <c r="V7" s="59"/>
@@ -4899,11 +4545,11 @@
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="Q8" s="90"/>
-      <c r="R8" s="90"/>
-      <c r="S8" s="90"/>
-      <c r="T8" s="90"/>
-      <c r="U8" s="90"/>
+      <c r="Q8" s="77"/>
+      <c r="R8" s="77"/>
+      <c r="S8" s="77"/>
+      <c r="T8" s="77"/>
+      <c r="U8" s="77"/>
       <c r="V8" s="59"/>
       <c r="W8" s="59"/>
       <c r="X8" s="59"/>
@@ -4917,11 +4563,11 @@
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="Q9" s="90"/>
-      <c r="R9" s="90"/>
-      <c r="S9" s="90"/>
-      <c r="T9" s="90"/>
-      <c r="U9" s="90"/>
+      <c r="Q9" s="77"/>
+      <c r="R9" s="77"/>
+      <c r="S9" s="77"/>
+      <c r="T9" s="77"/>
+      <c r="U9" s="77"/>
       <c r="V9" s="59"/>
       <c r="W9" s="59"/>
       <c r="X9" s="59"/>
@@ -4935,17 +4581,17 @@
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
-      <c r="Q10" s="90" t="s">
+      <c r="Q10" s="77" t="s">
         <v>69</v>
       </c>
-      <c r="R10" s="90"/>
-      <c r="S10" s="90" t="s">
-        <v>138</v>
-      </c>
-      <c r="T10" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="U10" s="90" t="s">
+      <c r="R10" s="77"/>
+      <c r="S10" s="77" t="s">
+        <v>134</v>
+      </c>
+      <c r="T10" s="77" t="s">
+        <v>135</v>
+      </c>
+      <c r="U10" s="77" t="s">
         <v>58</v>
       </c>
       <c r="V10" s="59"/>
@@ -4955,43 +4601,43 @@
       <c r="Z10" s="57"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q11" s="91" t="s">
+      <c r="Q11" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91" t="s">
+      <c r="R11" s="78"/>
+      <c r="S11" s="78" t="s">
         <v>72</v>
       </c>
-      <c r="T11" s="91" t="s">
+      <c r="T11" s="78" t="s">
         <v>103</v>
       </c>
-      <c r="U11" s="91" t="s">
+      <c r="U11" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="V11" s="91"/>
-      <c r="W11" s="91"/>
-      <c r="X11" s="91"/>
-      <c r="Y11" s="91"/>
+      <c r="V11" s="78"/>
+      <c r="W11" s="78"/>
+      <c r="X11" s="78"/>
+      <c r="Y11" s="78"/>
       <c r="Z11" s="57"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q12" s="91" t="s">
+      <c r="Q12" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="R12" s="91"/>
-      <c r="S12" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="T12" s="91" t="s">
+      <c r="R12" s="78"/>
+      <c r="S12" s="78" t="s">
+        <v>105</v>
+      </c>
+      <c r="T12" s="78" t="s">
         <v>104</v>
       </c>
-      <c r="U12" s="91" t="s">
+      <c r="U12" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="V12" s="91"/>
-      <c r="W12" s="91"/>
-      <c r="X12" s="91"/>
-      <c r="Y12" s="91"/>
+      <c r="V12" s="78"/>
+      <c r="W12" s="78"/>
+      <c r="X12" s="78"/>
+      <c r="Y12" s="78"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="Q13" s="16"/>
@@ -5040,7 +4686,7 @@
       <c r="X16" s="16"/>
       <c r="Y16" s="16"/>
     </row>
-    <row r="17" spans="2:33" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="5" t="s">
         <v>1</v>
       </c>
@@ -5054,7 +4700,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="G17" s="45" t="s">
         <v>16</v>
@@ -5072,13 +4718,13 @@
         <v>5</v>
       </c>
       <c r="L17" s="47" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="M17" s="45" t="s">
         <v>56</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="Q17" s="41" t="s">
         <v>15</v>
@@ -5107,14 +4753,14 @@
       <c r="Y17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AD17" s="93" t="s">
-        <v>194</v>
+      <c r="AD17" s="80" t="s">
+        <v>190</v>
       </c>
       <c r="AE17"/>
-      <c r="AF17" s="93"/>
+      <c r="AF17" s="80"/>
       <c r="AG17" s="1"/>
     </row>
-    <row r="18" spans="2:33" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:34" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="48" t="s">
         <v>48</v>
       </c>
@@ -5146,13 +4792,13 @@
         <v>37</v>
       </c>
       <c r="L18" s="49" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="M18" s="49" t="s">
         <v>80</v>
       </c>
       <c r="N18" s="49" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>50</v>
@@ -5181,20 +4827,23 @@
       <c r="Y18" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AD18" s="94" t="s">
-        <v>143</v>
-      </c>
-      <c r="AE18" s="94" t="s">
+      <c r="AD18" s="81" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE18" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="AF18" s="94" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG18" s="94">
-        <v>2022</v>
-      </c>
-    </row>
-    <row r="19" spans="2:33" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AF18" s="81" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG18" s="81" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH18" s="81" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="50" t="s">
         <v>53</v>
       </c>
@@ -5208,7 +4857,7 @@
         <v>54</v>
       </c>
       <c r="J19" s="51" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="K19" s="52"/>
       <c r="L19" s="51" t="s">
@@ -5216,7 +4865,7 @@
       </c>
       <c r="M19" s="52"/>
       <c r="N19" s="52" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="Q19" s="44" t="s">
         <v>82</v>
@@ -5229,16 +4878,17 @@
       <c r="W19" s="44"/>
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
-      <c r="AD19" s="95" t="s">
+      <c r="AD19" s="82" t="s">
         <v>82</v>
       </c>
-      <c r="AE19" s="95" t="s">
-        <v>145</v>
-      </c>
-      <c r="AF19" s="95"/>
-      <c r="AG19" s="95"/>
-    </row>
-    <row r="20" spans="2:33" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AE19" s="82" t="s">
+        <v>141</v>
+      </c>
+      <c r="AF19" s="82"/>
+      <c r="AG19" s="82"/>
+      <c r="AH19" s="82"/>
+    </row>
+    <row r="20" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="str">
         <f>S20</f>
         <v>Furnace</v>
@@ -5250,7 +4900,7 @@
         <f>S5</f>
         <v>ELCHEAT</v>
       </c>
-      <c r="E20" s="83">
+      <c r="E20" s="74">
         <v>2030</v>
       </c>
       <c r="F20" s="55"/>
@@ -5261,10 +4911,10 @@
         <v>1</v>
       </c>
       <c r="I20" s="56">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="J20" s="56">
-        <v>1515</v>
+        <v>55.97</v>
       </c>
       <c r="K20" s="56"/>
       <c r="L20" s="57"/>
@@ -5272,15 +4922,15 @@
         <v>8.76</v>
       </c>
       <c r="N20" s="57"/>
-      <c r="Q20" s="72" t="s">
-        <v>120</v>
-      </c>
-      <c r="R20" s="71"/>
-      <c r="S20" s="69" t="s">
+      <c r="Q20" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="R20" s="66"/>
+      <c r="S20" s="64" t="s">
         <v>66</v>
       </c>
-      <c r="T20" s="73" t="s">
-        <v>118</v>
+      <c r="T20" s="68" t="s">
+        <v>114</v>
       </c>
       <c r="U20" s="9" t="s">
         <v>58</v>
@@ -5288,19 +4938,20 @@
       <c r="V20" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W20" s="92" t="s">
+      <c r="W20" s="79" t="s">
         <v>89</v>
       </c>
       <c r="X20" s="56"/>
       <c r="Y20" s="56"/>
-      <c r="AD20" s="96" t="s">
+      <c r="AD20" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="AE20" s="96"/>
-      <c r="AF20" s="96"/>
-      <c r="AG20" s="96"/>
-    </row>
-    <row r="21" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AE20" s="83"/>
+      <c r="AF20" s="83"/>
+      <c r="AG20" s="83"/>
+      <c r="AH20" s="82"/>
+    </row>
+    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="str">
         <f>S$21</f>
         <v>BIOBoiler</v>
@@ -5313,7 +4964,7 @@
         <f>S6</f>
         <v>BIOHEAT</v>
       </c>
-      <c r="E21" s="83">
+      <c r="E21" s="74">
         <v>2030</v>
       </c>
       <c r="F21" s="55"/>
@@ -5324,10 +4975,10 @@
         <v>1</v>
       </c>
       <c r="I21" s="56">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J21" s="56">
-        <v>1515</v>
+        <v>660.44600000000003</v>
       </c>
       <c r="K21" s="56"/>
       <c r="L21" s="57"/>
@@ -5335,14 +4986,14 @@
         <v>8.76</v>
       </c>
       <c r="N21" s="57"/>
-      <c r="Q21" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="R21" s="71"/>
-      <c r="S21" s="70" t="s">
-        <v>111</v>
-      </c>
-      <c r="T21" s="73" t="s">
+      <c r="Q21" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="R21" s="66"/>
+      <c r="S21" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="T21" s="68" t="s">
         <v>102</v>
       </c>
       <c r="U21" s="9" t="s">
@@ -5351,26 +5002,29 @@
       <c r="V21" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W21" s="92" t="s">
+      <c r="W21" s="79" t="s">
         <v>89</v>
       </c>
       <c r="X21" s="56"/>
       <c r="Y21" s="56"/>
       <c r="AD21" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE21" s="12" t="str">
         <f>S$26</f>
         <v>WNDTRBN</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG21" s="75">
-        <v>4.7712418300653592E-3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:33" x14ac:dyDescent="0.2">
+        <v>142</v>
+      </c>
+      <c r="AG21" s="8">
+        <v>3.3051976250754521E-3</v>
+      </c>
+      <c r="AH21" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B22" s="9" t="str">
         <f>S24</f>
         <v>ELCBoiler</v>
@@ -5382,7 +5036,7 @@
         <f>S5</f>
         <v>ELCHEAT</v>
       </c>
-      <c r="E22" s="83">
+      <c r="E22" s="74">
         <v>2030</v>
       </c>
       <c r="F22" s="55"/>
@@ -5393,10 +5047,10 @@
         <v>1</v>
       </c>
       <c r="I22" s="56">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J22" s="56">
-        <v>1515</v>
+        <v>212.68599999999998</v>
       </c>
       <c r="K22" s="56"/>
       <c r="L22" s="57"/>
@@ -5404,15 +5058,15 @@
         <v>8.76</v>
       </c>
       <c r="N22" s="57"/>
-      <c r="Q22" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="R22" s="71"/>
-      <c r="S22" s="70" t="s">
-        <v>112</v>
-      </c>
-      <c r="T22" s="73" t="s">
-        <v>117</v>
+      <c r="Q22" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="R22" s="66"/>
+      <c r="S22" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="T22" s="68" t="s">
+        <v>113</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>58</v>
@@ -5420,26 +5074,29 @@
       <c r="V22" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W22" s="92" t="s">
+      <c r="W22" s="79" t="s">
         <v>89</v>
       </c>
       <c r="X22" s="56"/>
       <c r="Y22" s="56"/>
       <c r="AD22" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE22" s="12" t="str">
         <f t="shared" ref="AE22:AE68" si="0">S$26</f>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF22" s="97" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG22" s="75">
-        <v>4.5751633986928107E-3</v>
-      </c>
-    </row>
-    <row r="23" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF22" s="84" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG22" s="8">
+        <v>3.1618331753269246E-3</v>
+      </c>
+      <c r="AH22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="9" t="str">
         <f>S22</f>
         <v>BIOKiln</v>
@@ -5449,9 +5106,9 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="83">
+        <v>138</v>
+      </c>
+      <c r="E23" s="74">
         <v>2030</v>
       </c>
       <c r="F23" s="55"/>
@@ -5462,23 +5119,23 @@
         <v>1</v>
       </c>
       <c r="I23" s="56">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J23" s="56">
-        <v>1515</v>
+        <v>67.164000000000001</v>
       </c>
       <c r="M23" s="57">
         <v>8.76</v>
       </c>
-      <c r="Q23" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="R23" s="71"/>
-      <c r="S23" s="70" t="s">
-        <v>113</v>
-      </c>
-      <c r="T23" s="73" t="s">
-        <v>114</v>
+      <c r="Q23" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="R23" s="66"/>
+      <c r="S23" s="65" t="s">
+        <v>109</v>
+      </c>
+      <c r="T23" s="68" t="s">
+        <v>110</v>
       </c>
       <c r="U23" s="9" t="s">
         <v>58</v>
@@ -5486,24 +5143,27 @@
       <c r="V23" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W23" s="92" t="s">
+      <c r="W23" s="79" t="s">
         <v>89</v>
       </c>
       <c r="AD23" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG23" s="75">
-        <v>4.4444444444444444E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>144</v>
+      </c>
+      <c r="AG23" s="8">
+        <v>2.8979409360310663E-3</v>
+      </c>
+      <c r="AH23" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="54" t="str">
         <f>S23</f>
         <v>GASBoiler</v>
@@ -5513,9 +5173,9 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="E24" s="83">
+        <v>137</v>
+      </c>
+      <c r="E24" s="74">
         <v>2030</v>
       </c>
       <c r="F24" s="55"/>
@@ -5529,20 +5189,20 @@
         <v>25</v>
       </c>
       <c r="J24" s="56">
-        <v>1515</v>
+        <v>50.372999999999998</v>
       </c>
       <c r="M24" s="57">
         <v>8.76</v>
       </c>
-      <c r="Q24" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="R24" s="71"/>
-      <c r="S24" s="70" t="s">
-        <v>115</v>
-      </c>
-      <c r="T24" s="73" t="s">
+      <c r="Q24" s="66" t="s">
         <v>116</v>
+      </c>
+      <c r="R24" s="66"/>
+      <c r="S24" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="T24" s="68" t="s">
+        <v>112</v>
       </c>
       <c r="U24" s="9" t="s">
         <v>58</v>
@@ -5550,24 +5210,27 @@
       <c r="V24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="W24" s="92" t="s">
+      <c r="W24" s="79" t="s">
         <v>89</v>
       </c>
       <c r="AD24" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF24" s="97" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG24" s="75">
-        <v>4.2483660130718951E-3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF24" s="84" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG24" s="8">
+        <v>2.7156926103261707E-3</v>
+      </c>
+      <c r="AH24" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="54" t="str">
         <f>S26</f>
         <v>WNDTRBN</v>
@@ -5576,15 +5239,12 @@
       <c r="D25" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="83">
+      <c r="E25" s="74">
         <v>2030</v>
       </c>
       <c r="F25" s="55"/>
-      <c r="G25" s="56">
-        <v>1</v>
-      </c>
       <c r="H25" s="56">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="I25" s="56">
         <v>25</v>
@@ -5598,15 +5258,15 @@
       <c r="M25" s="57">
         <v>8.76</v>
       </c>
-      <c r="Q25" s="71" t="s">
-        <v>120</v>
-      </c>
-      <c r="R25" s="71"/>
-      <c r="S25" s="70" t="s">
+      <c r="Q25" s="66" t="s">
+        <v>116</v>
+      </c>
+      <c r="R25" s="66"/>
+      <c r="S25" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="T25" s="73" t="s">
-        <v>119</v>
+      <c r="T25" s="68" t="s">
+        <v>115</v>
       </c>
       <c r="U25" s="9" t="s">
         <v>58</v>
@@ -5618,20 +5278,23 @@
         <v>89</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG25" s="75">
-        <v>4.0522875816993466E-3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+      <c r="AG25" s="8">
+        <v>2.5452192095824343E-3</v>
+      </c>
+      <c r="AH25" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="54" t="str">
         <f>S27</f>
         <v>SOLPV</v>
@@ -5640,15 +5303,12 @@
       <c r="D26" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="83">
+      <c r="E26" s="74">
         <v>2030</v>
       </c>
       <c r="F26" s="55"/>
-      <c r="G26" s="56">
-        <v>1</v>
-      </c>
       <c r="H26" s="56">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="I26" s="56">
         <v>25</v>
@@ -5662,14 +5322,14 @@
       <c r="M26" s="57">
         <v>8.76</v>
       </c>
-      <c r="Q26" s="71" t="s">
+      <c r="Q26" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="R26" s="71"/>
-      <c r="S26" s="70" t="s">
+      <c r="R26" s="66"/>
+      <c r="S26" s="65" t="s">
         <v>94</v>
       </c>
-      <c r="T26" s="73" t="s">
+      <c r="T26" s="68" t="s">
         <v>97</v>
       </c>
       <c r="U26" s="9" t="s">
@@ -5682,20 +5342,23 @@
         <v>89</v>
       </c>
       <c r="AD26" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF26" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG26" s="75">
-        <v>3.8562091503267972E-3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF26" s="84" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>2.5834450529081338E-3</v>
+      </c>
+      <c r="AH26" s="56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="54" t="str">
         <f>S25</f>
         <v>CSP</v>
@@ -5705,13 +5368,10 @@
         <f>S7</f>
         <v>SOLHEAT</v>
       </c>
-      <c r="E27" s="83">
+      <c r="E27" s="74">
         <v>2030</v>
       </c>
       <c r="F27" s="55"/>
-      <c r="G27" s="56">
-        <v>1</v>
-      </c>
       <c r="H27" s="56">
         <v>1</v>
       </c>
@@ -5727,14 +5387,14 @@
       <c r="M27" s="57">
         <v>8.76</v>
       </c>
-      <c r="Q27" s="71" t="s">
+      <c r="Q27" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="R27" s="71"/>
-      <c r="S27" s="70" t="s">
+      <c r="R27" s="66"/>
+      <c r="S27" s="65" t="s">
         <v>95</v>
       </c>
-      <c r="T27" s="73" t="s">
+      <c r="T27" s="68" t="s">
         <v>96</v>
       </c>
       <c r="U27" s="9" t="s">
@@ -5747,20 +5407,23 @@
         <v>89</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE27" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG27" s="75">
-        <v>3.7254901960784314E-3</v>
-      </c>
-    </row>
-    <row r="28" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>148</v>
+      </c>
+      <c r="AG27" s="8">
+        <v>2.7432881310744317E-3</v>
+      </c>
+      <c r="AH27" s="56">
+        <v>6.9165519713261618E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="8" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
@@ -5770,9 +5433,9 @@
         <v>ELCHEAT</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="E28" s="83">
+        <v>137</v>
+      </c>
+      <c r="E28" s="74">
         <v>2030</v>
       </c>
       <c r="F28" s="55"/>
@@ -5782,9 +5445,6 @@
       <c r="H28" s="56">
         <v>1</v>
       </c>
-      <c r="I28" s="56">
-        <v>25</v>
-      </c>
       <c r="J28" s="56">
         <v>0</v>
       </c>
@@ -5793,14 +5453,14 @@
         <v>8.76</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="8" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="U28" s="8" t="s">
         <v>58</v>
@@ -5814,20 +5474,23 @@
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="AD28" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE28" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF28" s="97" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG28" s="75">
-        <v>3.5947712418300652E-3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF28" s="84" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG28" s="8">
+        <v>2.8314721319216154E-3</v>
+      </c>
+      <c r="AH28" s="56">
+        <v>4.9742853046594968E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="8" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
@@ -5837,9 +5500,9 @@
         <v>BIOHEAT</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="E29" s="83">
+        <v>137</v>
+      </c>
+      <c r="E29" s="74">
         <v>2030</v>
       </c>
       <c r="F29" s="55"/>
@@ -5849,9 +5512,6 @@
       <c r="H29" s="56">
         <v>1</v>
       </c>
-      <c r="I29" s="56">
-        <v>25</v>
-      </c>
       <c r="J29" s="56">
         <v>0</v>
       </c>
@@ -5860,20 +5520,23 @@
         <v>8.76</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG29" s="75">
-        <v>3.0065359477124184E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+      <c r="AG29" s="8">
+        <v>2.8141143326017269E-3</v>
+      </c>
+      <c r="AH29" s="56">
+        <v>0.12554577777777776</v>
+      </c>
+    </row>
+    <row r="30" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="8" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
@@ -5883,9 +5546,9 @@
         <v>SOLHEAT</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>141</v>
-      </c>
-      <c r="E30" s="83">
+        <v>137</v>
+      </c>
+      <c r="E30" s="74">
         <v>2030</v>
       </c>
       <c r="F30" s="55"/>
@@ -5894,9 +5557,6 @@
       </c>
       <c r="H30" s="56">
         <v>1</v>
-      </c>
-      <c r="I30" s="56">
-        <v>25</v>
       </c>
       <c r="J30" s="56">
         <v>0</v>
@@ -5915,37 +5575,37 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="AD30" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE30" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF30" s="97" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG30" s="75">
-        <v>3.2679738562091504E-3</v>
-      </c>
-    </row>
-    <row r="31" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF30" s="84" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG30" s="8">
+        <v>2.6656478128544076E-3</v>
+      </c>
+      <c r="AH30" s="56">
+        <v>0.2058007025089606</v>
+      </c>
+    </row>
+    <row r="31" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="16" t="str">
         <f>S23</f>
         <v>GASBoiler</v>
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="E31" s="83">
+        <v>132</v>
+      </c>
+      <c r="E31" s="74">
         <v>2030</v>
       </c>
       <c r="F31" s="55"/>
       <c r="H31" s="56">
         <v>1</v>
-      </c>
-      <c r="I31" s="56">
-        <v>25</v>
       </c>
       <c r="J31" s="56">
         <v>0</v>
@@ -5967,20 +5627,23 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="AD31" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE31" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF31" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG31" s="75">
-        <v>3.5294117647058825E-3</v>
-      </c>
-    </row>
-    <row r="32" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+      <c r="AG31" s="8">
+        <v>2.4530677112863486E-3</v>
+      </c>
+      <c r="AH31" s="56">
+        <v>0.27468446594982077</v>
+      </c>
+    </row>
+    <row r="32" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="16"/>
       <c r="C32" s="16"/>
       <c r="D32" s="54"/>
@@ -5998,20 +5661,23 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="AD32" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE32" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF32" s="97" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG32" s="75">
-        <v>3.5947712418300652E-3</v>
-      </c>
-    </row>
-    <row r="33" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF32" s="84" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG32" s="8">
+        <v>2.1363241345921055E-3</v>
+      </c>
+      <c r="AH32" s="56">
+        <v>0.32637437275985665</v>
+      </c>
+    </row>
+    <row r="33" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="16"/>
       <c r="C33" s="16"/>
       <c r="D33" s="54"/>
@@ -6029,20 +5695,23 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="AD33" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE33" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF33" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG33" s="75">
-        <v>3.5294117647058825E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+      <c r="AG33" s="8">
+        <v>1.8660639529435976E-3</v>
+      </c>
+      <c r="AH33" s="56">
+        <v>0.35267560573476697</v>
+      </c>
+    </row>
+    <row r="34" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="8"/>
       <c r="C34" s="16"/>
       <c r="D34" s="54"/>
@@ -6059,26 +5728,29 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="AD34" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE34" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF34" s="97" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG34" s="75">
-        <v>3.4640522875816994E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF34" s="84" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG34" s="8">
+        <v>1.7487528282965712E-3</v>
+      </c>
+      <c r="AH34" s="56">
+        <v>0.34322033691756271</v>
+      </c>
+    </row>
+    <row r="35" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="16"/>
       <c r="C35" s="16"/>
       <c r="D35" s="54"/>
       <c r="E35" s="17"/>
       <c r="F35" s="55"/>
-      <c r="J35" s="81"/>
+      <c r="J35" s="72"/>
       <c r="K35" s="8"/>
       <c r="Q35" s="21"/>
       <c r="R35" s="21"/>
@@ -6090,20 +5762,23 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="AD35" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE35" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF35" s="8" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG35" s="75">
-        <v>3.5947712418300652E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="2:33" s="56" customFormat="1" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+      <c r="AG35" s="8">
+        <v>1.6637860863902745E-3</v>
+      </c>
+      <c r="AH35" s="56">
+        <v>0.30308891039426522</v>
+      </c>
+    </row>
+    <row r="36" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="16"/>
       <c r="C36" s="8"/>
       <c r="D36" s="54"/>
@@ -6112,7 +5787,7 @@
       <c r="G36" s="8"/>
       <c r="H36" s="8"/>
       <c r="I36" s="8"/>
-      <c r="J36" s="82"/>
+      <c r="J36" s="73"/>
       <c r="K36" s="8"/>
       <c r="Q36" s="21"/>
       <c r="R36" s="21"/>
@@ -6124,20 +5799,23 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="AD36" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE36" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF36" s="97" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG36" s="75">
-        <v>3.9215686274509803E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="2:33" s="57" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AF36" s="84" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG36" s="8">
+        <v>1.8211742012316831E-3</v>
+      </c>
+      <c r="AH36" s="56">
+        <v>0.23170381362007167</v>
+      </c>
+    </row>
+    <row r="37" spans="2:34" s="57" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
@@ -6146,7 +5824,7 @@
       <c r="G37" s="8"/>
       <c r="H37" s="8"/>
       <c r="I37" s="8"/>
-      <c r="J37" s="82"/>
+      <c r="J37" s="73"/>
       <c r="K37" s="8"/>
       <c r="Q37" s="8"/>
       <c r="R37" s="8"/>
@@ -6158,20 +5836,23 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="AD37" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE37" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF37" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG37" s="75">
-        <v>4.4444444444444444E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="2:33" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+      <c r="AG37" s="8">
+        <v>1.9153018835258307E-3</v>
+      </c>
+      <c r="AH37" s="56">
+        <v>0.14172651612903225</v>
+      </c>
+    </row>
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
       <c r="F38" s="58"/>
       <c r="G38" s="10"/>
       <c r="H38" s="60"/>
@@ -6180,76 +5861,88 @@
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="AD38" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE38" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF38" s="97" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG38" s="75">
-        <v>4.9019607843137254E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AF38" s="84" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG38" s="8">
+        <v>1.9744590518638132E-3</v>
+      </c>
+      <c r="AH38" s="9">
+        <v>5.3895483870967743E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
       <c r="H39" s="60"/>
       <c r="AD39" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE39" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF39" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG39" s="75">
-        <v>5.2941176470588233E-3</v>
-      </c>
-    </row>
-    <row r="40" spans="2:33" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+      <c r="AG39" s="8">
+        <v>2.1878436160058393E-3</v>
+      </c>
+      <c r="AH39" s="9">
+        <v>2.6301935483870969E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B40" s="53"/>
       <c r="C40" s="8" t="s">
         <v>83</v>
       </c>
       <c r="H40" s="60"/>
       <c r="AD40" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE40" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF40" s="97" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG40" s="75">
-        <v>5.6209150326797389E-3</v>
-      </c>
-    </row>
-    <row r="41" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AF40" s="84" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG40" s="8">
+        <v>2.3889741533883327E-3</v>
+      </c>
+      <c r="AH40" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B41" s="61"/>
       <c r="C41" s="8" t="s">
         <v>84</v>
       </c>
       <c r="H41" s="60"/>
       <c r="AD41" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE41" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF41" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG41" s="75">
-        <v>5.7516339869281043E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="2:33" x14ac:dyDescent="0.2">
+        <v>162</v>
+      </c>
+      <c r="AG41" s="8">
+        <v>2.4063426997311056E-3</v>
+      </c>
+      <c r="AH41" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
       <c r="E42" s="8" t="s">
         <v>90</v>
       </c>
@@ -6258,35 +5951,41 @@
       </c>
       <c r="H42" s="60"/>
       <c r="AD42" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE42" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF42" s="97" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG42" s="75">
-        <v>5.6209150326797389E-3</v>
-      </c>
-    </row>
-    <row r="43" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AF42" s="84" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG42" s="8">
+        <v>2.5925256698099051E-3</v>
+      </c>
+      <c r="AH42" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD43" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE43" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG43" s="75">
-        <v>5.3594771241830064E-3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:33" x14ac:dyDescent="0.2">
+        <v>164</v>
+      </c>
+      <c r="AG43" s="8">
+        <v>2.9724559200622644E-3</v>
+      </c>
+      <c r="AH43" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
       <c r="E44" s="8" t="s">
         <v>92</v>
       </c>
@@ -6295,1193 +5994,692 @@
         <v>8760</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE44" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF44" s="97" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG44" s="75">
-        <v>5.0980392156862748E-3</v>
-      </c>
-    </row>
-    <row r="45" spans="2:33" x14ac:dyDescent="0.2">
+      <c r="AF44" s="84" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG44" s="8">
+        <v>3.3823091606694387E-3</v>
+      </c>
+      <c r="AH44" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:34" x14ac:dyDescent="0.2">
       <c r="E45" s="10"/>
       <c r="AD45" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE45" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF45" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG45" s="75">
-        <v>4.7712418300653592E-3</v>
-      </c>
-    </row>
-    <row r="46" spans="2:33" x14ac:dyDescent="0.2">
+        <v>166</v>
+      </c>
+      <c r="AG45" s="8">
+        <v>3.030827569122875E-3</v>
+      </c>
+      <c r="AH45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD46" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE46" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF46" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG46" s="75">
-        <v>4.5751633986928107E-3</v>
-      </c>
-    </row>
-    <row r="47" spans="2:33" x14ac:dyDescent="0.2">
+        <v>167</v>
+      </c>
+      <c r="AG46" s="8">
+        <v>2.7479296595765089E-3</v>
+      </c>
+      <c r="AH46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD47" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE47" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF47" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG47" s="75">
-        <v>4.4444444444444444E-3</v>
-      </c>
-    </row>
-    <row r="48" spans="2:33" x14ac:dyDescent="0.2">
+        <v>168</v>
+      </c>
+      <c r="AG47" s="8">
+        <v>2.5373694178364601E-3</v>
+      </c>
+      <c r="AH47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD48" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE48" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF48" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG48" s="75">
-        <v>4.2483660130718951E-3</v>
-      </c>
-    </row>
-    <row r="49" spans="30:33" x14ac:dyDescent="0.2">
+        <v>169</v>
+      </c>
+      <c r="AG48" s="8">
+        <v>2.3562266756271813E-3</v>
+      </c>
+      <c r="AH48" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD49" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE49" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF49" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG49" s="75">
-        <v>4.0522875816993466E-3</v>
-      </c>
-    </row>
-    <row r="50" spans="30:33" x14ac:dyDescent="0.2">
+        <v>170</v>
+      </c>
+      <c r="AG49" s="8">
+        <v>2.2781297107044287E-3</v>
+      </c>
+      <c r="AH49" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD50" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE50" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF50" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG50" s="75">
-        <v>3.8562091503267972E-3</v>
-      </c>
-    </row>
-    <row r="51" spans="30:33" x14ac:dyDescent="0.2">
+        <v>171</v>
+      </c>
+      <c r="AG50" s="8">
+        <v>2.3484464756202451E-3</v>
+      </c>
+      <c r="AH50" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD51" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE51" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF51" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG51" s="75">
-        <v>3.7254901960784314E-3</v>
-      </c>
-    </row>
-    <row r="52" spans="30:33" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="AG51" s="8">
+        <v>2.4124360007773756E-3</v>
+      </c>
+      <c r="AH51" s="9">
+        <v>6.4190919952210254E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD52" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE52" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF52" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG52" s="75">
-        <v>3.5947712418300652E-3</v>
-      </c>
-    </row>
-    <row r="53" spans="30:33" x14ac:dyDescent="0.2">
+        <v>173</v>
+      </c>
+      <c r="AG52" s="8">
+        <v>2.2399725827334173E-3</v>
+      </c>
+      <c r="AH52" s="9">
+        <v>7.0838474313022717E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD53" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE53" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF53" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG53" s="75">
-        <v>3.0065359477124184E-3</v>
-      </c>
-    </row>
-    <row r="54" spans="30:33" x14ac:dyDescent="0.2">
+        <v>174</v>
+      </c>
+      <c r="AG53" s="8">
+        <v>2.3663331133225518E-3</v>
+      </c>
+      <c r="AH53" s="9">
+        <v>0.15999428793309439</v>
+      </c>
+    </row>
+    <row r="54" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD54" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE54" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF54" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG54" s="75">
-        <v>3.2679738562091504E-3</v>
-      </c>
-    </row>
-    <row r="55" spans="30:33" x14ac:dyDescent="0.2">
+        <v>175</v>
+      </c>
+      <c r="AG54" s="8">
+        <v>2.8966005765197612E-3</v>
+      </c>
+      <c r="AH54" s="9">
+        <v>0.25343209199522099</v>
+      </c>
+    </row>
+    <row r="55" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD55" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE55" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF55" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG55" s="75">
-        <v>3.5294117647058825E-3</v>
-      </c>
-    </row>
-    <row r="56" spans="30:33" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+      <c r="AG55" s="8">
+        <v>3.1152079955055634E-3</v>
+      </c>
+      <c r="AH55" s="9">
+        <v>0.32960197968936678</v>
+      </c>
+    </row>
+    <row r="56" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD56" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE56" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF56" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG56" s="75">
-        <v>3.5947712418300652E-3</v>
-      </c>
-    </row>
-    <row r="57" spans="30:33" x14ac:dyDescent="0.2">
+        <v>177</v>
+      </c>
+      <c r="AG56" s="8">
+        <v>3.1182259692196785E-3</v>
+      </c>
+      <c r="AH56" s="9">
+        <v>0.37592762246117079</v>
+      </c>
+    </row>
+    <row r="57" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD57" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE57" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF57" t="s">
-        <v>182</v>
-      </c>
-      <c r="AG57" s="75">
-        <v>3.5294117647058825E-3</v>
-      </c>
-    </row>
-    <row r="58" spans="30:33" x14ac:dyDescent="0.2">
+        <v>178</v>
+      </c>
+      <c r="AG57" s="8">
+        <v>3.0731870914146721E-3</v>
+      </c>
+      <c r="AH57" s="9">
+        <v>0.38776096057347664</v>
+      </c>
+    </row>
+    <row r="58" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD58" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE58" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF58" t="s">
-        <v>183</v>
-      </c>
-      <c r="AG58" s="75">
-        <v>3.4640522875816994E-3</v>
-      </c>
-    </row>
-    <row r="59" spans="30:33" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+      <c r="AG58" s="8">
+        <v>3.1429734317050739E-3</v>
+      </c>
+      <c r="AH58" s="9">
+        <v>0.36426783751493425</v>
+      </c>
+    </row>
+    <row r="59" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD59" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE59" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF59" t="s">
-        <v>184</v>
-      </c>
-      <c r="AG59" s="75">
-        <v>3.5947712418300652E-3</v>
-      </c>
-    </row>
-    <row r="60" spans="30:33" x14ac:dyDescent="0.2">
+        <v>180</v>
+      </c>
+      <c r="AG59" s="8">
+        <v>3.4472722790434688E-3</v>
+      </c>
+      <c r="AH59" s="9">
+        <v>0.31009156033452806</v>
+      </c>
+    </row>
+    <row r="60" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD60" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE60" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF60" t="s">
-        <v>185</v>
-      </c>
-      <c r="AG60" s="75">
-        <v>3.9215686274509803E-3</v>
-      </c>
-    </row>
-    <row r="61" spans="30:33" x14ac:dyDescent="0.2">
+        <v>181</v>
+      </c>
+      <c r="AG60" s="8">
+        <v>3.8185983771107991E-3</v>
+      </c>
+      <c r="AH60" s="9">
+        <v>0.23188419952210276</v>
+      </c>
+    </row>
+    <row r="61" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD61" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE61" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF61" t="s">
-        <v>186</v>
-      </c>
-      <c r="AG61" s="75">
-        <v>4.4444444444444444E-3</v>
-      </c>
-    </row>
-    <row r="62" spans="30:33" x14ac:dyDescent="0.2">
+        <v>182</v>
+      </c>
+      <c r="AG61" s="8">
+        <v>4.2486300009030951E-3</v>
+      </c>
+      <c r="AH61" s="9">
+        <v>0.13618056033452808</v>
+      </c>
+    </row>
+    <row r="62" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD62" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE62" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF62" t="s">
-        <v>187</v>
-      </c>
-      <c r="AG62" s="75">
-        <v>4.9019607843137254E-3</v>
-      </c>
-    </row>
-    <row r="63" spans="30:33" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+      <c r="AG62" s="8">
+        <v>4.5602314239953819E-3</v>
+      </c>
+      <c r="AH62" s="9">
+        <v>4.9357593787335743E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD63" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE63" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF63" t="s">
-        <v>188</v>
-      </c>
-      <c r="AG63" s="75">
-        <v>5.2941176470588233E-3</v>
-      </c>
-    </row>
-    <row r="64" spans="30:33" x14ac:dyDescent="0.2">
+        <v>184</v>
+      </c>
+      <c r="AG63" s="8">
+        <v>4.7366406344324643E-3</v>
+      </c>
+      <c r="AH63" s="9">
+        <v>7.5268817204301086E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD64" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE64" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF64" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG64" s="75">
-        <v>5.6209150326797389E-3</v>
-      </c>
-    </row>
-    <row r="65" spans="30:33" x14ac:dyDescent="0.2">
+        <v>185</v>
+      </c>
+      <c r="AG64" s="8">
+        <v>4.836532938944621E-3</v>
+      </c>
+      <c r="AH64" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD65" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE65" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF65" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG65" s="75">
-        <v>5.7516339869281043E-3</v>
-      </c>
-    </row>
-    <row r="66" spans="30:33" x14ac:dyDescent="0.2">
+        <v>186</v>
+      </c>
+      <c r="AG65" s="8">
+        <v>4.6939429624645087E-3</v>
+      </c>
+      <c r="AH65" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD66" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE66" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF66" t="s">
+        <v>187</v>
+      </c>
+      <c r="AG66" s="8">
+        <v>4.4878132380958523E-3</v>
+      </c>
+      <c r="AH66" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD67" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="AG66" s="75">
-        <v>5.6209150326797389E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD67" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="AE67" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF67" t="s">
-        <v>192</v>
-      </c>
-      <c r="AG67" s="75">
-        <v>5.3594771241830064E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="30:33" x14ac:dyDescent="0.2">
+        <v>188</v>
+      </c>
+      <c r="AG67" s="8">
+        <v>4.0447641835712027E-3</v>
+      </c>
+      <c r="AH67" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD68" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="AE68" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF68" t="s">
-        <v>193</v>
-      </c>
-      <c r="AG68" s="75">
-        <v>5.0980392156862748E-3</v>
-      </c>
-    </row>
-    <row r="69" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD69" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE69" s="16" t="str">
-        <f>S$27</f>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF69" s="8" t="str">
-        <f>AF21</f>
-        <v>W_01</v>
-      </c>
-      <c r="AG69" s="8">
+        <v>189</v>
+      </c>
+      <c r="AG68" s="8">
+        <v>3.5120337976736293E-3</v>
+      </c>
+      <c r="AH68" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD70" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE70" s="16" t="str">
-        <f t="shared" ref="AE70:AE116" si="1">S$27</f>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF70" s="8" t="str">
-        <f t="shared" ref="AF70:AF116" si="2">AF22</f>
-        <v>W_02</v>
-      </c>
-      <c r="AG70" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD71" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE71" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF71" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_03</v>
-      </c>
-      <c r="AG71" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD72" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE72" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF72" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_04</v>
-      </c>
-      <c r="AG72" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD73" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE73" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF73" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_05</v>
-      </c>
-      <c r="AG73" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD74" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE74" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF74" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_06</v>
-      </c>
-      <c r="AG74" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD75" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE75" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF75" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_07</v>
-      </c>
-      <c r="AG75" s="8">
-        <v>1.646798088410991E-2</v>
-      </c>
-    </row>
-    <row r="76" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD76" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE76" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF76" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_08</v>
-      </c>
-      <c r="AG76" s="8">
-        <v>0.1184353643966547</v>
-      </c>
-    </row>
-    <row r="77" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD77" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE77" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF77" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_09</v>
-      </c>
-      <c r="AG77" s="8">
-        <v>0.29891851851851847</v>
-      </c>
-    </row>
-    <row r="78" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD78" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE78" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF78" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_10</v>
-      </c>
-      <c r="AG78" s="8">
-        <v>0.49000167264038241</v>
-      </c>
-    </row>
-    <row r="79" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD79" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE79" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF79" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_11</v>
-      </c>
-      <c r="AG79" s="8">
-        <v>0.65401063321385899</v>
-      </c>
-    </row>
-    <row r="80" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD80" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE80" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF80" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_12</v>
-      </c>
-      <c r="AG80" s="8">
-        <v>0.77708183990442059</v>
-      </c>
-    </row>
-    <row r="81" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD81" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE81" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF81" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_13</v>
-      </c>
-      <c r="AG81" s="8">
-        <v>0.83970382317801662</v>
-      </c>
-    </row>
-    <row r="82" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD82" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE82" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF82" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_14</v>
-      </c>
-      <c r="AG82" s="8">
-        <v>0.81719127837514938</v>
-      </c>
-    </row>
-    <row r="83" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD83" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE83" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF83" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_15</v>
-      </c>
-      <c r="AG83" s="8">
-        <v>0.72164026284348859</v>
-      </c>
-    </row>
-    <row r="84" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD84" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE84" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF84" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_16</v>
-      </c>
-      <c r="AG84" s="8">
-        <v>0.55167574671445641</v>
-      </c>
-    </row>
-    <row r="85" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD85" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE85" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF85" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_17</v>
-      </c>
-      <c r="AG85" s="8">
-        <v>0.33744408602150539</v>
-      </c>
-    </row>
-    <row r="86" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD86" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE86" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF86" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_18</v>
-      </c>
-      <c r="AG86" s="8">
-        <v>0.1283225806451613</v>
-      </c>
-    </row>
-    <row r="87" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD87" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE87" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF87" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_19</v>
-      </c>
-      <c r="AG87" s="8">
-        <v>6.2623655913978497E-3</v>
-      </c>
-    </row>
-    <row r="88" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD88" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE88" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF88" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_20</v>
-      </c>
-      <c r="AG88" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD89" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE89" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF89" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_21</v>
-      </c>
-      <c r="AG89" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD90" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE90" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF90" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_22</v>
-      </c>
-      <c r="AG90" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD91" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE91" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF91" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_23</v>
-      </c>
-      <c r="AG91" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD92" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE92" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF92" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>W_24</v>
-      </c>
-      <c r="AG92" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD93" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE93" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF93" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_01</v>
-      </c>
-      <c r="AG93" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD94" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE94" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF94" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_02</v>
-      </c>
-      <c r="AG94" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD95" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE95" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF95" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_03</v>
-      </c>
-      <c r="AG95" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD96" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE96" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF96" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_04</v>
-      </c>
-      <c r="AG96" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD97" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE97" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF97" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_05</v>
-      </c>
-      <c r="AG97" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD98" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE98" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF98" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_06</v>
-      </c>
-      <c r="AG98" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD99" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE99" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF99" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_07</v>
-      </c>
-      <c r="AG99" s="8">
-        <v>1.528355236957387E-2</v>
-      </c>
-    </row>
-    <row r="100" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD100" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE100" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF100" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_08</v>
-      </c>
-      <c r="AG100" s="8">
-        <v>0.16866303407862551</v>
-      </c>
-    </row>
-    <row r="101" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD101" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE101" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF101" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_09</v>
-      </c>
-      <c r="AG101" s="8">
-        <v>0.38093878079308191</v>
-      </c>
-    </row>
-    <row r="102" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD102" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE102" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF102" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_10</v>
-      </c>
-      <c r="AG102" s="8">
-        <v>0.60340974284576432</v>
-      </c>
-    </row>
-    <row r="103" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD103" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE103" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF103" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_11</v>
-      </c>
-      <c r="AG103" s="8">
-        <v>0.7847666183080162</v>
-      </c>
-    </row>
-    <row r="104" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD104" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE104" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF104" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_12</v>
-      </c>
-      <c r="AG104" s="8">
-        <v>0.89506576776469238</v>
-      </c>
-    </row>
-    <row r="105" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD105" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE105" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF105" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_13</v>
-      </c>
-      <c r="AG105" s="8">
-        <v>0.92324038231780159</v>
-      </c>
-    </row>
-    <row r="106" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD106" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE106" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF106" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_14</v>
-      </c>
-      <c r="AG106" s="8">
-        <v>0.8673043750355578</v>
-      </c>
-    </row>
-    <row r="107" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD107" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE107" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF107" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_15</v>
-      </c>
-      <c r="AG107" s="8">
-        <v>0.7383132388917335</v>
-      </c>
-    </row>
-    <row r="108" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD108" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE108" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF108" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_16</v>
-      </c>
-      <c r="AG108" s="8">
-        <v>0.55210523695738756</v>
-      </c>
-    </row>
-    <row r="109" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD109" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE109" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF109" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_17</v>
-      </c>
-      <c r="AG109" s="8">
-        <v>0.32423942936792399</v>
-      </c>
-    </row>
-    <row r="110" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD110" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE110" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF110" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_18</v>
-      </c>
-      <c r="AG110" s="8">
-        <v>0.1175180804460375</v>
-      </c>
-    </row>
-    <row r="111" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD111" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE111" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF111" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_19</v>
-      </c>
-      <c r="AG111" s="8">
-        <v>1.7921146953405021E-5</v>
-      </c>
-    </row>
-    <row r="112" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD112" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE112" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF112" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_20</v>
-      </c>
-      <c r="AG112" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="113" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD113" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE113" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF113" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_21</v>
-      </c>
-      <c r="AG113" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD114" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE114" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF114" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_22</v>
-      </c>
-      <c r="AG114" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="115" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD115" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE115" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF115" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_23</v>
-      </c>
-      <c r="AG115" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="30:33" x14ac:dyDescent="0.2">
-      <c r="AD116" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="AE116" s="16" t="str">
-        <f t="shared" si="1"/>
-        <v>SOLPV</v>
-      </c>
-      <c r="AF116" s="8" t="str">
-        <f t="shared" si="2"/>
-        <v>D_24</v>
-      </c>
-      <c r="AG116" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="69" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD69" s="1"/>
+      <c r="AE69" s="16"/>
+    </row>
+    <row r="70" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD70" s="1"/>
+      <c r="AE70" s="16"/>
+    </row>
+    <row r="71" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD71" s="1"/>
+      <c r="AE71" s="16"/>
+    </row>
+    <row r="72" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD72" s="1"/>
+      <c r="AE72" s="16"/>
+    </row>
+    <row r="73" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD73" s="1"/>
+      <c r="AE73" s="16"/>
+    </row>
+    <row r="74" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD74" s="1"/>
+      <c r="AE74" s="16"/>
+    </row>
+    <row r="75" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD75" s="1"/>
+      <c r="AE75" s="16"/>
+    </row>
+    <row r="76" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD76" s="1"/>
+      <c r="AE76" s="16"/>
+    </row>
+    <row r="77" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD77" s="1"/>
+      <c r="AE77" s="16"/>
+    </row>
+    <row r="78" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD78" s="1"/>
+      <c r="AE78" s="16"/>
+    </row>
+    <row r="79" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD79" s="1"/>
+      <c r="AE79" s="16"/>
+    </row>
+    <row r="80" spans="30:34" x14ac:dyDescent="0.2">
+      <c r="AD80" s="1"/>
+      <c r="AE80" s="16"/>
+    </row>
+    <row r="81" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD81" s="1"/>
+      <c r="AE81" s="16"/>
+    </row>
+    <row r="82" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD82" s="1"/>
+      <c r="AE82" s="16"/>
+    </row>
+    <row r="83" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD83" s="1"/>
+      <c r="AE83" s="16"/>
+    </row>
+    <row r="84" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD84" s="1"/>
+      <c r="AE84" s="16"/>
+    </row>
+    <row r="85" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD85" s="1"/>
+      <c r="AE85" s="16"/>
+    </row>
+    <row r="86" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD86" s="1"/>
+      <c r="AE86" s="16"/>
+    </row>
+    <row r="87" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD87" s="1"/>
+      <c r="AE87" s="16"/>
+    </row>
+    <row r="88" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD88" s="1"/>
+      <c r="AE88" s="16"/>
+    </row>
+    <row r="89" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD89" s="1"/>
+      <c r="AE89" s="16"/>
+    </row>
+    <row r="90" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD90" s="1"/>
+      <c r="AE90" s="16"/>
+    </row>
+    <row r="91" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD91" s="1"/>
+      <c r="AE91" s="16"/>
+    </row>
+    <row r="92" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD92" s="1"/>
+      <c r="AE92" s="16"/>
+    </row>
+    <row r="93" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD93" s="1"/>
+      <c r="AE93" s="16"/>
+    </row>
+    <row r="94" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD94" s="1"/>
+      <c r="AE94" s="16"/>
+    </row>
+    <row r="95" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD95" s="1"/>
+      <c r="AE95" s="16"/>
+    </row>
+    <row r="96" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD96" s="1"/>
+      <c r="AE96" s="16"/>
+    </row>
+    <row r="97" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD97" s="1"/>
+      <c r="AE97" s="16"/>
+    </row>
+    <row r="98" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD98" s="1"/>
+      <c r="AE98" s="16"/>
+    </row>
+    <row r="99" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD99" s="1"/>
+      <c r="AE99" s="16"/>
+    </row>
+    <row r="100" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD100" s="1"/>
+      <c r="AE100" s="16"/>
+    </row>
+    <row r="101" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD101" s="1"/>
+      <c r="AE101" s="16"/>
+    </row>
+    <row r="102" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD102" s="1"/>
+      <c r="AE102" s="16"/>
+    </row>
+    <row r="103" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD103" s="1"/>
+      <c r="AE103" s="16"/>
+    </row>
+    <row r="104" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD104" s="1"/>
+      <c r="AE104" s="16"/>
+    </row>
+    <row r="105" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD105" s="1"/>
+      <c r="AE105" s="16"/>
+    </row>
+    <row r="106" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD106" s="1"/>
+      <c r="AE106" s="16"/>
+    </row>
+    <row r="107" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD107" s="1"/>
+      <c r="AE107" s="16"/>
+    </row>
+    <row r="108" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD108" s="1"/>
+      <c r="AE108" s="16"/>
+    </row>
+    <row r="109" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD109" s="1"/>
+      <c r="AE109" s="16"/>
+    </row>
+    <row r="110" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD110" s="1"/>
+      <c r="AE110" s="16"/>
+    </row>
+    <row r="111" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD111" s="1"/>
+      <c r="AE111" s="16"/>
+    </row>
+    <row r="112" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD112" s="1"/>
+      <c r="AE112" s="16"/>
+    </row>
+    <row r="113" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD113" s="1"/>
+      <c r="AE113" s="16"/>
+    </row>
+    <row r="114" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD114" s="1"/>
+      <c r="AE114" s="16"/>
+    </row>
+    <row r="115" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD115" s="1"/>
+      <c r="AE115" s="16"/>
+    </row>
+    <row r="116" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD116" s="1"/>
+      <c r="AE116" s="16"/>
+    </row>
+    <row r="117" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD117" s="1"/>
       <c r="AE117" s="16"/>
     </row>
-    <row r="118" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="118" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD118" s="1"/>
       <c r="AE118" s="16"/>
     </row>
-    <row r="119" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="119" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD119" s="1"/>
       <c r="AE119" s="16"/>
     </row>
-    <row r="120" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="120" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD120" s="1"/>
       <c r="AE120" s="16"/>
     </row>
-    <row r="121" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="121" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD121" s="1"/>
       <c r="AE121" s="16"/>
     </row>
-    <row r="122" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="122" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD122" s="1"/>
       <c r="AE122" s="16"/>
     </row>
-    <row r="123" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="123" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD123" s="1"/>
       <c r="AE123" s="16"/>
     </row>
-    <row r="124" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="124" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD124" s="1"/>
       <c r="AE124" s="16"/>
     </row>
-    <row r="125" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="125" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD125" s="1"/>
       <c r="AE125" s="16"/>
     </row>
-    <row r="126" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="126" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD126" s="1"/>
       <c r="AE126" s="16"/>
     </row>
-    <row r="127" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="127" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD127" s="1"/>
       <c r="AE127" s="16"/>
     </row>
-    <row r="128" spans="30:33" x14ac:dyDescent="0.2">
+    <row r="128" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD128" s="1"/>
       <c r="AE128" s="16"/>
     </row>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9867C29A-B4AF-4175-AA6C-314AC4164CA0}"/>
+  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C98F63E3-FCEB-4435-A16C-A3FB79675EE7}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="187">
   <si>
     <t>~FI_T</t>
   </si>
@@ -1799,9 +1799,6 @@
     <t>conversion factor from cap to act</t>
   </si>
   <si>
-    <t>TH2022USD/GWh</t>
-  </si>
-  <si>
     <t>*</t>
   </si>
   <si>
@@ -1859,19 +1856,7 @@
     <t>Mamufacturing</t>
   </si>
   <si>
-    <t>TH$2022</t>
-  </si>
-  <si>
     <t>Biomass boiler</t>
-  </si>
-  <si>
-    <t>Wind Energy</t>
-  </si>
-  <si>
-    <t>Solar Energy</t>
-  </si>
-  <si>
-    <t>SOLAR</t>
   </si>
   <si>
     <r>
@@ -1937,9 +1922,6 @@
     <t>Solar thermal for process heat</t>
   </si>
   <si>
-    <t>TH2022USD/MW</t>
-  </si>
-  <si>
     <t>VAROM</t>
   </si>
   <si>
@@ -1970,12 +1952,6 @@
     <t>RNWHEAT</t>
   </si>
   <si>
-    <t>DECELC</t>
-  </si>
-  <si>
-    <t>Decenteralized Renewable electricity</t>
-  </si>
-  <si>
     <t>Renewable Heat Aggrigator</t>
   </si>
   <si>
@@ -2142,6 +2118,15 @@
   </si>
   <si>
     <t>FLO_FR</t>
+  </si>
+  <si>
+    <t>TH2024USD/GWh</t>
+  </si>
+  <si>
+    <t>TH$2024</t>
+  </si>
+  <si>
+    <t>TH2024USD/MW</t>
   </si>
 </sst>
 </file>
@@ -2151,9 +2136,9 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2295,8 +2280,14 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2360,14 +2351,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -2424,6 +2409,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2450,7 +2446,7 @@
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2585,17 +2581,14 @@
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="16" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="15" fillId="8" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="22" fillId="12" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2608,6 +2601,10 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Accent5" xfId="22" builtinId="46"/>
@@ -3237,8 +3234,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="O39" sqref="O39"/>
+    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3294,7 +3291,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="18" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="G2" s="21"/>
       <c r="N2" s="11" t="s">
@@ -3320,7 +3317,7 @@
         <v>58</v>
       </c>
       <c r="F3" s="18" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="G3" s="21"/>
       <c r="N3" s="13" t="s">
@@ -3362,7 +3359,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="G4" s="21"/>
       <c r="N4" s="20" t="s">
@@ -3404,7 +3401,7 @@
         <v>58</v>
       </c>
       <c r="F5" s="18" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="G5" s="21"/>
       <c r="N5" s="19" t="s">
@@ -3439,7 +3436,7 @@
         <v>67</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R6" s="19" t="s">
         <v>58</v>
@@ -3808,17 +3805,17 @@
         <v>54</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="J25" s="27" t="s">
         <v>58</v>
       </c>
       <c r="K25" s="28"/>
       <c r="N25" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="O25" s="29" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="P25" s="29"/>
       <c r="Q25" s="29"/>
@@ -3851,7 +3848,7 @@
         <v>50</v>
       </c>
       <c r="I26" s="31">
-        <v>16.152193200065501</v>
+        <v>17.166319999999999</v>
       </c>
       <c r="J26" s="32"/>
       <c r="K26" s="33">
@@ -3862,7 +3859,7 @@
       </c>
       <c r="O26" s="69"/>
       <c r="P26" s="70" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="Q26" s="71" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
@@ -3897,7 +3894,7 @@
         <v>50</v>
       </c>
       <c r="I27" s="35">
-        <v>31.819820604129035</v>
+        <v>33.817659999999997</v>
       </c>
       <c r="J27" s="36"/>
       <c r="K27" s="33">
@@ -3908,7 +3905,7 @@
       </c>
       <c r="O27" s="69"/>
       <c r="P27" s="70" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="Q27" s="71" t="str">
         <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
@@ -4257,13 +4254,13 @@
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B55" s="30"/>
       <c r="C55" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B56" s="38"/>
       <c r="C56" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -4310,8 +4307,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AH144"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4360,15 +4357,15 @@
       </c>
       <c r="G1" s="3"/>
       <c r="H1" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:26" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>99</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>100</v>
       </c>
       <c r="D2" s="39" t="str">
         <f>"Demand Technologies"</f>
@@ -4378,11 +4375,11 @@
         <v>58</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="Q2" s="40" t="s">
         <v>7</v>
@@ -4472,10 +4469,10 @@
       </c>
       <c r="R5" s="76"/>
       <c r="S5" s="76" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="T5" s="76" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="U5" s="76" t="s">
         <v>58</v>
@@ -4498,10 +4495,10 @@
       </c>
       <c r="R6" s="76"/>
       <c r="S6" s="76" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="T6" s="76" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="U6" s="76" t="s">
         <v>58</v>
@@ -4524,10 +4521,10 @@
       </c>
       <c r="R7" s="77"/>
       <c r="S7" s="77" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="T7" s="77" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="U7" s="77" t="s">
         <v>58</v>
@@ -4545,15 +4542,6 @@
       <c r="E8" s="43"/>
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
-      <c r="Q8" s="77"/>
-      <c r="R8" s="77"/>
-      <c r="S8" s="77"/>
-      <c r="T8" s="77"/>
-      <c r="U8" s="77"/>
-      <c r="V8" s="59"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="59"/>
-      <c r="Y8" s="59"/>
       <c r="Z8" s="57"/>
     </row>
     <row r="9" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -4563,15 +4551,6 @@
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
-      <c r="Q9" s="77"/>
-      <c r="R9" s="77"/>
-      <c r="S9" s="77"/>
-      <c r="T9" s="77"/>
-      <c r="U9" s="77"/>
-      <c r="V9" s="59"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="59"/>
-      <c r="Y9" s="59"/>
       <c r="Z9" s="57"/>
     </row>
     <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
@@ -4581,63 +4560,10 @@
       <c r="E10" s="43"/>
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
-      <c r="Q10" s="77" t="s">
-        <v>69</v>
-      </c>
-      <c r="R10" s="77"/>
-      <c r="S10" s="77" t="s">
-        <v>134</v>
-      </c>
-      <c r="T10" s="77" t="s">
-        <v>135</v>
-      </c>
-      <c r="U10" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="V10" s="59"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="59"/>
-      <c r="Y10" s="59"/>
       <c r="Z10" s="57"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q11" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="R11" s="78"/>
-      <c r="S11" s="78" t="s">
-        <v>72</v>
-      </c>
-      <c r="T11" s="78" t="s">
-        <v>103</v>
-      </c>
-      <c r="U11" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-      <c r="Y11" s="78"/>
       <c r="Z11" s="57"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q12" s="78" t="s">
-        <v>59</v>
-      </c>
-      <c r="R12" s="78"/>
-      <c r="S12" s="78" t="s">
-        <v>105</v>
-      </c>
-      <c r="T12" s="78" t="s">
-        <v>104</v>
-      </c>
-      <c r="U12" s="78" t="s">
-        <v>58</v>
-      </c>
-      <c r="V12" s="78"/>
-      <c r="W12" s="78"/>
-      <c r="X12" s="78"/>
-      <c r="Y12" s="78"/>
     </row>
     <row r="13" spans="2:26" x14ac:dyDescent="0.2">
       <c r="Q13" s="16"/>
@@ -4700,7 +4626,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="46" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="G17" s="45" t="s">
         <v>16</v>
@@ -4718,13 +4644,13 @@
         <v>5</v>
       </c>
       <c r="L17" s="47" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="M17" s="45" t="s">
         <v>56</v>
       </c>
       <c r="N17" s="47" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="Q17" s="41" t="s">
         <v>15</v>
@@ -4753,11 +4679,11 @@
       <c r="Y17" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="AD17" s="80" t="s">
-        <v>190</v>
+      <c r="AD17" s="79" t="s">
+        <v>182</v>
       </c>
       <c r="AE17"/>
-      <c r="AF17" s="80"/>
+      <c r="AF17" s="79"/>
       <c r="AG17" s="1"/>
     </row>
     <row r="18" spans="2:34" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
@@ -4774,7 +4700,7 @@
         <v>54</v>
       </c>
       <c r="F18" s="48" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G18" s="48" t="s">
         <v>35</v>
@@ -4786,19 +4712,19 @@
         <v>57</v>
       </c>
       <c r="J18" s="48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="K18" s="49" t="s">
         <v>37</v>
       </c>
       <c r="L18" s="49" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M18" s="49" t="s">
         <v>80</v>
       </c>
       <c r="N18" s="49" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="Q18" s="44" t="s">
         <v>50</v>
@@ -4827,20 +4753,20 @@
       <c r="Y18" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="AD18" s="81" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE18" s="81" t="s">
+      <c r="AD18" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="AE18" s="80" t="s">
         <v>6</v>
       </c>
-      <c r="AF18" s="81" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG18" s="81" t="s">
+      <c r="AF18" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="AG18" s="80" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH18" s="80" t="s">
         <v>94</v>
-      </c>
-      <c r="AH18" s="81" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="2:34" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -4857,18 +4783,18 @@
         <v>54</v>
       </c>
       <c r="J19" s="51" t="s">
-        <v>123</v>
+        <v>186</v>
       </c>
       <c r="K19" s="52"/>
       <c r="L19" s="51" t="s">
-        <v>81</v>
+        <v>184</v>
       </c>
       <c r="M19" s="52"/>
       <c r="N19" s="52" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="Q19" s="44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="R19" s="44"/>
       <c r="S19" s="44"/>
@@ -4878,15 +4804,15 @@
       <c r="W19" s="44"/>
       <c r="X19" s="44"/>
       <c r="Y19" s="44"/>
-      <c r="AD19" s="82" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE19" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="AF19" s="82"/>
-      <c r="AG19" s="82"/>
-      <c r="AH19" s="82"/>
+      <c r="AD19" s="81" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE19" s="81" t="s">
+        <v>133</v>
+      </c>
+      <c r="AF19" s="81"/>
+      <c r="AG19" s="81"/>
+      <c r="AH19" s="81"/>
     </row>
     <row r="20" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="9" t="str">
@@ -4913,43 +4839,47 @@
       <c r="I20" s="56">
         <v>25</v>
       </c>
-      <c r="J20" s="56">
-        <v>55.97</v>
-      </c>
-      <c r="K20" s="56"/>
-      <c r="L20" s="57"/>
+      <c r="J20" s="84">
+        <v>81</v>
+      </c>
+      <c r="K20" s="56">
+        <v>0</v>
+      </c>
+      <c r="L20" s="84">
+        <v>0.24</v>
+      </c>
       <c r="M20" s="57">
         <v>8.76</v>
       </c>
       <c r="N20" s="57"/>
       <c r="Q20" s="67" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R20" s="66"/>
       <c r="S20" s="64" t="s">
         <v>66</v>
       </c>
       <c r="T20" s="68" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="U20" s="9" t="s">
         <v>58</v>
       </c>
       <c r="V20" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W20" s="78" t="s">
         <v>88</v>
-      </c>
-      <c r="W20" s="79" t="s">
-        <v>89</v>
       </c>
       <c r="X20" s="56"/>
       <c r="Y20" s="56"/>
-      <c r="AD20" s="83" t="s">
+      <c r="AD20" s="82" t="s">
         <v>53</v>
       </c>
-      <c r="AE20" s="83"/>
-      <c r="AF20" s="83"/>
-      <c r="AG20" s="83"/>
-      <c r="AH20" s="82"/>
+      <c r="AE20" s="82"/>
+      <c r="AF20" s="82"/>
+      <c r="AG20" s="82"/>
+      <c r="AH20" s="81"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="str">
@@ -4977,45 +4907,49 @@
       <c r="I21" s="56">
         <v>25</v>
       </c>
-      <c r="J21" s="56">
-        <v>660.44600000000003</v>
-      </c>
-      <c r="K21" s="56"/>
-      <c r="L21" s="57"/>
+      <c r="J21" s="84">
+        <v>797.9</v>
+      </c>
+      <c r="K21" s="56">
+        <v>48.48</v>
+      </c>
+      <c r="L21" s="57">
+        <v>3.75</v>
+      </c>
       <c r="M21" s="57">
         <v>8.76</v>
       </c>
       <c r="N21" s="57"/>
       <c r="Q21" s="66" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R21" s="66"/>
       <c r="S21" s="65" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="T21" s="68" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="U21" s="9" t="s">
         <v>58</v>
       </c>
       <c r="V21" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W21" s="78" t="s">
         <v>88</v>
-      </c>
-      <c r="W21" s="79" t="s">
-        <v>89</v>
       </c>
       <c r="X21" s="56"/>
       <c r="Y21" s="56"/>
       <c r="AD21" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE21" s="12" t="str">
         <f>S$26</f>
         <v>WNDTRBN</v>
       </c>
       <c r="AF21" s="8" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="AG21" s="8">
         <v>3.3051976250754521E-3</v>
@@ -5024,7 +4958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B22" s="9" t="str">
         <f>S24</f>
         <v>ELCBoiler</v>
@@ -5049,45 +4983,49 @@
       <c r="I22" s="56">
         <v>25</v>
       </c>
-      <c r="J22" s="56">
-        <v>212.68599999999998</v>
-      </c>
-      <c r="K22" s="56"/>
-      <c r="L22" s="57"/>
+      <c r="J22" s="84">
+        <v>112.9</v>
+      </c>
+      <c r="K22" s="56">
+        <v>14.26</v>
+      </c>
+      <c r="L22" s="57">
+        <v>1.22</v>
+      </c>
       <c r="M22" s="57">
         <v>8.76</v>
       </c>
       <c r="N22" s="57"/>
       <c r="Q22" s="66" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R22" s="66"/>
       <c r="S22" s="65" t="s">
+        <v>103</v>
+      </c>
+      <c r="T22" s="68" t="s">
         <v>108</v>
-      </c>
-      <c r="T22" s="68" t="s">
-        <v>113</v>
       </c>
       <c r="U22" s="9" t="s">
         <v>58</v>
       </c>
       <c r="V22" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W22" s="78" t="s">
         <v>88</v>
-      </c>
-      <c r="W22" s="79" t="s">
-        <v>89</v>
       </c>
       <c r="X22" s="56"/>
       <c r="Y22" s="56"/>
       <c r="AD22" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE22" s="12" t="str">
         <f t="shared" ref="AE22:AE68" si="0">S$26</f>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF22" s="84" t="s">
-        <v>143</v>
+      <c r="AF22" s="83" t="s">
+        <v>135</v>
       </c>
       <c r="AG22" s="8">
         <v>3.1618331753269246E-3</v>
@@ -5096,7 +5034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34" s="56" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B23" s="9" t="str">
         <f>S22</f>
         <v>BIOKiln</v>
@@ -5106,7 +5044,7 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D23" s="54" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E23" s="74">
         <v>2030</v>
@@ -5121,40 +5059,46 @@
       <c r="I23" s="56">
         <v>25</v>
       </c>
-      <c r="J23" s="56">
-        <v>67.164000000000001</v>
+      <c r="J23" s="84">
+        <v>297.10000000000002</v>
+      </c>
+      <c r="K23" s="85">
+        <v>4.46</v>
+      </c>
+      <c r="L23" s="85">
+        <v>0.45</v>
       </c>
       <c r="M23" s="57">
         <v>8.76</v>
       </c>
       <c r="Q23" s="66" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R23" s="66"/>
       <c r="S23" s="65" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="T23" s="68" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="U23" s="9" t="s">
         <v>58</v>
       </c>
       <c r="V23" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W23" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="W23" s="79" t="s">
-        <v>89</v>
-      </c>
       <c r="AD23" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE23" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF23" s="8" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="AG23" s="8">
         <v>2.8979409360310663E-3</v>
@@ -5173,7 +5117,7 @@
         <v>MANGASMIN</v>
       </c>
       <c r="D24" s="54" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E24" s="74">
         <v>2030</v>
@@ -5188,40 +5132,46 @@
       <c r="I24" s="56">
         <v>25</v>
       </c>
-      <c r="J24" s="56">
-        <v>50.372999999999998</v>
+      <c r="J24" s="84">
+        <v>61.4</v>
+      </c>
+      <c r="K24" s="56">
+        <v>2.57</v>
+      </c>
+      <c r="L24" s="56">
+        <v>1.35</v>
       </c>
       <c r="M24" s="57">
         <v>8.76</v>
       </c>
       <c r="Q24" s="66" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R24" s="66"/>
       <c r="S24" s="65" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="T24" s="68" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="U24" s="9" t="s">
         <v>58</v>
       </c>
       <c r="V24" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W24" s="78" t="s">
         <v>88</v>
       </c>
-      <c r="W24" s="79" t="s">
-        <v>89</v>
-      </c>
       <c r="AD24" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE24" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF24" s="84" t="s">
-        <v>145</v>
+      <c r="AF24" s="83" t="s">
+        <v>137</v>
       </c>
       <c r="AG24" s="8">
         <v>2.7156926103261707E-3</v>
@@ -5259,33 +5209,33 @@
         <v>8.76</v>
       </c>
       <c r="Q25" s="66" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R25" s="66"/>
       <c r="S25" s="65" t="s">
         <v>65</v>
       </c>
       <c r="T25" s="68" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="U25" s="9" t="s">
         <v>58</v>
       </c>
       <c r="V25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W25" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="W25" s="56" t="s">
-        <v>89</v>
-      </c>
       <c r="AD25" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE25" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF25" s="8" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="AG25" s="8">
         <v>2.5452192095824343E-3</v>
@@ -5327,29 +5277,29 @@
       </c>
       <c r="R26" s="66"/>
       <c r="S26" s="65" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="T26" s="68" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="U26" s="9" t="s">
         <v>58</v>
       </c>
       <c r="V26" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W26" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="W26" s="56" t="s">
-        <v>89</v>
-      </c>
       <c r="AD26" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE26" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF26" s="84" t="s">
-        <v>147</v>
+      <c r="AF26" s="83" t="s">
+        <v>139</v>
       </c>
       <c r="AG26" s="8">
         <v>2.5834450529081338E-3</v>
@@ -5392,29 +5342,29 @@
       </c>
       <c r="R27" s="66"/>
       <c r="S27" s="65" t="s">
+        <v>94</v>
+      </c>
+      <c r="T27" s="68" t="s">
         <v>95</v>
-      </c>
-      <c r="T27" s="68" t="s">
-        <v>96</v>
       </c>
       <c r="U27" s="9" t="s">
         <v>58</v>
       </c>
       <c r="V27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W27" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="W27" s="56" t="s">
-        <v>89</v>
-      </c>
       <c r="AD27" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE27" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF27" s="8" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AG27" s="8">
         <v>2.7432881310744317E-3</v>
@@ -5433,7 +5383,7 @@
         <v>ELCHEAT</v>
       </c>
       <c r="D28" s="54" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E28" s="74">
         <v>2030</v>
@@ -5453,35 +5403,35 @@
         <v>8.76</v>
       </c>
       <c r="Q28" s="8" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="R28" s="8"/>
       <c r="S28" s="8" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="T28" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="U28" s="8" t="s">
         <v>58</v>
       </c>
       <c r="V28" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="W28" s="56" t="s">
         <v>88</v>
-      </c>
-      <c r="W28" s="56" t="s">
-        <v>89</v>
       </c>
       <c r="X28" s="8"/>
       <c r="Y28" s="8"/>
       <c r="AD28" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE28" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF28" s="84" t="s">
-        <v>149</v>
+      <c r="AF28" s="83" t="s">
+        <v>141</v>
       </c>
       <c r="AG28" s="8">
         <v>2.8314721319216154E-3</v>
@@ -5500,7 +5450,7 @@
         <v>BIOHEAT</v>
       </c>
       <c r="D29" s="54" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E29" s="74">
         <v>2030</v>
@@ -5520,14 +5470,14 @@
         <v>8.76</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE29" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF29" s="8" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="AG29" s="8">
         <v>2.8141143326017269E-3</v>
@@ -5546,7 +5496,7 @@
         <v>SOLHEAT</v>
       </c>
       <c r="D30" s="54" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E30" s="74">
         <v>2030</v>
@@ -5575,14 +5525,14 @@
       <c r="X30" s="8"/>
       <c r="Y30" s="8"/>
       <c r="AD30" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE30" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF30" s="84" t="s">
-        <v>151</v>
+      <c r="AF30" s="83" t="s">
+        <v>143</v>
       </c>
       <c r="AG30" s="8">
         <v>2.6656478128544076E-3</v>
@@ -5598,7 +5548,7 @@
       </c>
       <c r="C31" s="16"/>
       <c r="D31" s="54" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E31" s="74">
         <v>2030</v>
@@ -5627,14 +5577,14 @@
       <c r="X31" s="8"/>
       <c r="Y31" s="8"/>
       <c r="AD31" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE31" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF31" s="8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="AG31" s="8">
         <v>2.4530677112863486E-3</v>
@@ -5661,14 +5611,14 @@
       <c r="X32" s="8"/>
       <c r="Y32" s="8"/>
       <c r="AD32" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE32" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF32" s="84" t="s">
-        <v>153</v>
+      <c r="AF32" s="83" t="s">
+        <v>145</v>
       </c>
       <c r="AG32" s="8">
         <v>2.1363241345921055E-3</v>
@@ -5695,14 +5645,14 @@
       <c r="X33" s="8"/>
       <c r="Y33" s="8"/>
       <c r="AD33" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE33" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF33" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="AG33" s="8">
         <v>1.8660639529435976E-3</v>
@@ -5728,14 +5678,14 @@
       <c r="X34" s="8"/>
       <c r="Y34" s="8"/>
       <c r="AD34" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE34" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF34" s="84" t="s">
-        <v>155</v>
+      <c r="AF34" s="83" t="s">
+        <v>147</v>
       </c>
       <c r="AG34" s="8">
         <v>1.7487528282965712E-3</v>
@@ -5762,14 +5712,14 @@
       <c r="X35" s="8"/>
       <c r="Y35" s="8"/>
       <c r="AD35" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE35" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF35" s="8" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="AG35" s="8">
         <v>1.6637860863902745E-3</v>
@@ -5799,14 +5749,14 @@
       <c r="X36" s="8"/>
       <c r="Y36" s="8"/>
       <c r="AD36" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE36" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF36" s="84" t="s">
-        <v>157</v>
+      <c r="AF36" s="83" t="s">
+        <v>149</v>
       </c>
       <c r="AG36" s="8">
         <v>1.8211742012316831E-3</v>
@@ -5836,14 +5786,14 @@
       <c r="X37" s="8"/>
       <c r="Y37" s="8"/>
       <c r="AD37" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE37" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF37" s="8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="AG37" s="8">
         <v>1.9153018835258307E-3</v>
@@ -5861,14 +5811,14 @@
       <c r="U38" s="59"/>
       <c r="V38" s="59"/>
       <c r="AD38" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE38" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF38" s="84" t="s">
-        <v>159</v>
+      <c r="AF38" s="83" t="s">
+        <v>151</v>
       </c>
       <c r="AG38" s="8">
         <v>1.9744590518638132E-3</v>
@@ -5880,14 +5830,14 @@
     <row r="39" spans="2:34" x14ac:dyDescent="0.2">
       <c r="H39" s="60"/>
       <c r="AD39" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE39" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF39" s="8" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="AG39" s="8">
         <v>2.1878436160058393E-3</v>
@@ -5899,18 +5849,18 @@
     <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B40" s="53"/>
       <c r="C40" s="8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H40" s="60"/>
       <c r="AD40" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE40" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF40" s="84" t="s">
-        <v>161</v>
+      <c r="AF40" s="83" t="s">
+        <v>153</v>
       </c>
       <c r="AG40" s="8">
         <v>2.3889741533883327E-3</v>
@@ -5922,18 +5872,18 @@
     <row r="41" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B41" s="61"/>
       <c r="C41" s="8" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H41" s="60"/>
       <c r="AD41" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE41" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF41" s="8" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="AG41" s="8">
         <v>2.4063426997311056E-3</v>
@@ -5944,21 +5894,21 @@
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.2">
       <c r="E42" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="F42" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="F42" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="H42" s="60"/>
       <c r="AD42" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE42" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF42" s="84" t="s">
-        <v>163</v>
+      <c r="AF42" s="83" t="s">
+        <v>155</v>
       </c>
       <c r="AG42" s="8">
         <v>2.5925256698099051E-3</v>
@@ -5969,14 +5919,14 @@
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD43" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE43" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF43" s="8" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="AG43" s="8">
         <v>2.9724559200622644E-3</v>
@@ -5987,21 +5937,21 @@
     </row>
     <row r="44" spans="2:34" x14ac:dyDescent="0.2">
       <c r="E44" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F44" s="8">
         <f>24*365</f>
         <v>8760</v>
       </c>
       <c r="AD44" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE44" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF44" s="84" t="s">
-        <v>165</v>
+      <c r="AF44" s="83" t="s">
+        <v>157</v>
       </c>
       <c r="AG44" s="8">
         <v>3.3823091606694387E-3</v>
@@ -6013,14 +5963,14 @@
     <row r="45" spans="2:34" x14ac:dyDescent="0.2">
       <c r="E45" s="10"/>
       <c r="AD45" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE45" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF45" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="AG45" s="8">
         <v>3.030827569122875E-3</v>
@@ -6031,14 +5981,14 @@
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD46" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE46" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF46" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="AG46" s="8">
         <v>2.7479296595765089E-3</v>
@@ -6049,14 +5999,14 @@
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD47" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE47" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF47" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="AG47" s="8">
         <v>2.5373694178364601E-3</v>
@@ -6067,14 +6017,14 @@
     </row>
     <row r="48" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD48" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE48" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF48" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="AG48" s="8">
         <v>2.3562266756271813E-3</v>
@@ -6085,14 +6035,14 @@
     </row>
     <row r="49" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD49" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE49" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF49" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="AG49" s="8">
         <v>2.2781297107044287E-3</v>
@@ -6103,14 +6053,14 @@
     </row>
     <row r="50" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD50" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE50" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF50" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="AG50" s="8">
         <v>2.3484464756202451E-3</v>
@@ -6121,14 +6071,14 @@
     </row>
     <row r="51" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD51" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE51" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF51" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="AG51" s="8">
         <v>2.4124360007773756E-3</v>
@@ -6139,14 +6089,14 @@
     </row>
     <row r="52" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD52" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE52" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF52" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="AG52" s="8">
         <v>2.2399725827334173E-3</v>
@@ -6157,14 +6107,14 @@
     </row>
     <row r="53" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD53" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE53" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF53" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="AG53" s="8">
         <v>2.3663331133225518E-3</v>
@@ -6175,14 +6125,14 @@
     </row>
     <row r="54" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD54" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE54" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF54" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="AG54" s="8">
         <v>2.8966005765197612E-3</v>
@@ -6193,14 +6143,14 @@
     </row>
     <row r="55" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD55" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE55" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF55" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="AG55" s="8">
         <v>3.1152079955055634E-3</v>
@@ -6211,14 +6161,14 @@
     </row>
     <row r="56" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD56" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE56" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF56" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="AG56" s="8">
         <v>3.1182259692196785E-3</v>
@@ -6229,14 +6179,14 @@
     </row>
     <row r="57" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD57" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE57" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF57" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="AG57" s="8">
         <v>3.0731870914146721E-3</v>
@@ -6247,14 +6197,14 @@
     </row>
     <row r="58" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD58" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE58" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF58" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="AG58" s="8">
         <v>3.1429734317050739E-3</v>
@@ -6265,14 +6215,14 @@
     </row>
     <row r="59" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD59" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE59" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF59" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="AG59" s="8">
         <v>3.4472722790434688E-3</v>
@@ -6283,14 +6233,14 @@
     </row>
     <row r="60" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD60" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE60" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF60" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="AG60" s="8">
         <v>3.8185983771107991E-3</v>
@@ -6301,14 +6251,14 @@
     </row>
     <row r="61" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD61" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE61" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF61" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="AG61" s="8">
         <v>4.2486300009030951E-3</v>
@@ -6319,14 +6269,14 @@
     </row>
     <row r="62" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD62" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE62" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF62" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="AG62" s="8">
         <v>4.5602314239953819E-3</v>
@@ -6337,14 +6287,14 @@
     </row>
     <row r="63" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD63" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE63" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF63" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="AG63" s="8">
         <v>4.7366406344324643E-3</v>
@@ -6355,14 +6305,14 @@
     </row>
     <row r="64" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD64" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE64" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF64" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="AG64" s="8">
         <v>4.836532938944621E-3</v>
@@ -6373,14 +6323,14 @@
     </row>
     <row r="65" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD65" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE65" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF65" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="AG65" s="8">
         <v>4.6939429624645087E-3</v>
@@ -6391,14 +6341,14 @@
     </row>
     <row r="66" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD66" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE66" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF66" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="AG66" s="8">
         <v>4.4878132380958523E-3</v>
@@ -6409,14 +6359,14 @@
     </row>
     <row r="67" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD67" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE67" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF67" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="AG67" s="8">
         <v>4.0447641835712027E-3</v>
@@ -6427,14 +6377,14 @@
     </row>
     <row r="68" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD68" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="AE68" s="12" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
       <c r="AF68" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="AG68" s="8">
         <v>3.5120337976736293E-3</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="141" documentId="13_ncr:1_{806E99E8-A010-4C95-B80D-4D66E313A9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C98F63E3-FCEB-4435-A16C-A3FB79675EE7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05F3E04-27BE-406A-BFA8-B0485EA6CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1859,21 +1859,6 @@
     <t>Biomass boiler</t>
   </si>
   <si>
-    <r>
-      <t>Share-I~UP</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>~2030</t>
-    </r>
-  </si>
-  <si>
     <t>BIOBoiler</t>
   </si>
   <si>
@@ -2127,6 +2112,9 @@
   </si>
   <si>
     <t>TH2024USD/MW</t>
+  </si>
+  <si>
+    <t>Share-I~UP~2030</t>
   </si>
 </sst>
 </file>
@@ -2138,10 +2126,17 @@
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -2262,13 +2257,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF00B050"/>
       <name val="Arial"/>
@@ -2281,10 +2269,19 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2352,7 +2349,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -2409,202 +2406,182 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="4"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="4" applyFont="1"/>
-    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4"/>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="18" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="18" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="19" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="1" fontId="16" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="19" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="17" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="6" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="16" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="17" fillId="7" borderId="0" xfId="19" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="15" fillId="3" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="3" borderId="1" xfId="20" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="3" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="3" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="4" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="16" fillId="8" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="5" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="21" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="4" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="5" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="15" fillId="8" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="8" borderId="0" xfId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="22" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="6" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="2" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="22" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="1" xfId="22" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="22" fillId="8" borderId="0" xfId="21" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="22" fillId="8" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Accent5" xfId="22" builtinId="46"/>
@@ -2941,10 +2918,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3234,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3263,259 +3236,259 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="6"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="38" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="38" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="18" t="s">
+      <c r="E2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="N2" s="11" t="s">
+      <c r="F2" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="G2" s="14"/>
+      <c r="N2" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-      <c r="R2" s="12"/>
-      <c r="S2" s="12"/>
-      <c r="T2" s="12"/>
-      <c r="U2" s="12"/>
-      <c r="V2" s="12"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
     </row>
     <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="38" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="38" t="s">
         <v>74</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="F3" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="N3" s="13" t="s">
+      <c r="F3" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="N3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="38" t="s">
         <v>61</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="F4" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G4" s="21"/>
-      <c r="N4" s="20" t="s">
+      <c r="F4" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="14"/>
+      <c r="N4" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="O4" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="P4" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="Q4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="S4" s="20" t="s">
+      <c r="S4" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="20" t="s">
+      <c r="T4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="U4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="20" t="s">
+      <c r="V4" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="38" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="F5" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="G5" s="21"/>
-      <c r="N5" s="19" t="s">
+      <c r="F5" s="78" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="14"/>
+      <c r="N5" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19" t="s">
+      <c r="O5" s="39"/>
+      <c r="P5" s="39" t="s">
         <v>68</v>
       </c>
-      <c r="Q5" s="19" t="s">
+      <c r="Q5" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
     </row>
     <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C6" s="21"/>
-      <c r="D6" s="21"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="21"/>
-      <c r="N6" s="19" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="14"/>
+      <c r="N6" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19" t="s">
+      <c r="O6" s="39"/>
+      <c r="P6" s="39" t="s">
         <v>67</v>
       </c>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
-      <c r="V6" s="19"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
     </row>
     <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="21"/>
-      <c r="N7" s="19"/>
-      <c r="O7" s="19"/>
-      <c r="P7" s="19"/>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19"/>
-      <c r="T7" s="19"/>
-      <c r="U7" s="19"/>
-      <c r="V7" s="19"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="14"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
     </row>
     <row r="8" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B8" s="21"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
-      <c r="P8" s="63"/>
-      <c r="Q8" s="63"/>
-      <c r="R8" s="63"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="N8" s="37"/>
+      <c r="O8" s="37"/>
+      <c r="P8" s="37"/>
+      <c r="Q8" s="37"/>
+      <c r="R8" s="37"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
     </row>
     <row r="9" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B9" s="21"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
-      <c r="P9" s="63"/>
-      <c r="Q9" s="63"/>
-      <c r="R9" s="63"/>
-      <c r="S9" s="19"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
-      <c r="V9" s="19"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="37"/>
+      <c r="R9" s="37"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
     </row>
     <row r="10" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B10" s="21"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="21"/>
-      <c r="G10" s="21"/>
-      <c r="H10" s="21"/>
-      <c r="N10" s="21"/>
-      <c r="O10" s="21"/>
-      <c r="P10" s="21"/>
-      <c r="Q10" s="21"/>
-      <c r="R10" s="21"/>
-      <c r="S10" s="19"/>
-      <c r="T10" s="19"/>
-      <c r="U10" s="19"/>
-      <c r="V10" s="19"/>
-    </row>
-    <row r="11" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
+      <c r="P10" s="14"/>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+    </row>
+    <row r="11" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
@@ -3523,12 +3496,12 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11" s="19"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
-      <c r="V11" s="19"/>
-    </row>
-    <row r="12" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+    </row>
+    <row r="12" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
@@ -3536,12 +3509,12 @@
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
-      <c r="S12" s="19"/>
-      <c r="T12" s="12"/>
-      <c r="U12" s="12"/>
-      <c r="V12" s="12"/>
-    </row>
-    <row r="13" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="S12" s="12"/>
+      <c r="T12" s="7"/>
+      <c r="U12" s="7"/>
+      <c r="V12" s="7"/>
+    </row>
+    <row r="13" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -3561,7 +3534,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="2:22" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -3571,81 +3544,81 @@
       <c r="H14"/>
       <c r="L14"/>
       <c r="M14"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="12"/>
-      <c r="U14" s="12"/>
-      <c r="V14" s="12"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N15" s="12"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-      <c r="R15" s="12"/>
-      <c r="S15" s="12"/>
-      <c r="T15" s="12"/>
-      <c r="U15" s="12"/>
-      <c r="V15" s="12"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
+      <c r="U15" s="7"/>
+      <c r="V15" s="7"/>
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N16" s="12"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-      <c r="R16" s="12"/>
-      <c r="S16" s="12"/>
-      <c r="T16" s="12"/>
-      <c r="U16" s="12"/>
-      <c r="V16" s="12"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
+      <c r="U16" s="7"/>
+      <c r="V16" s="7"/>
     </row>
     <row r="17" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N17" s="12"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="12"/>
-      <c r="T17" s="12"/>
-      <c r="U17" s="12"/>
-      <c r="V17" s="12"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
+      <c r="U17" s="7"/>
+      <c r="V17" s="7"/>
     </row>
     <row r="18" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N18" s="12"/>
-      <c r="O18" s="15"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="12"/>
-      <c r="T18" s="12"/>
-      <c r="U18" s="12"/>
-      <c r="V18" s="12"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
+      <c r="U18" s="7"/>
+      <c r="V18" s="7"/>
     </row>
     <row r="19" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N19" s="12"/>
-      <c r="O19" s="15"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="12"/>
-      <c r="T19" s="12"/>
-      <c r="U19" s="12"/>
-      <c r="V19" s="12"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
+      <c r="U19" s="7"/>
+      <c r="V19" s="7"/>
     </row>
     <row r="20" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="N20" s="12"/>
-      <c r="O20" s="15"/>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="12"/>
-      <c r="T20" s="12"/>
-      <c r="U20" s="12"/>
-      <c r="V20" s="12"/>
+      <c r="N20" s="7"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
+      <c r="U20" s="7"/>
+      <c r="V20" s="7"/>
     </row>
     <row r="21" spans="2:22" x14ac:dyDescent="0.2">
       <c r="N21" s="1"/>
@@ -3662,176 +3635,176 @@
         <v>0</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="15"/>
-      <c r="Q22" s="15"/>
-      <c r="R22" s="15"/>
-      <c r="S22" s="15"/>
-      <c r="T22" s="15"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
     </row>
     <row r="23" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C23" s="23" t="s">
+      <c r="C23" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="F23" s="22" t="s">
+      <c r="F23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G23" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H23" s="24" t="s">
+      <c r="H23" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="I23" s="24" t="s">
+      <c r="I23" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="J23" s="24" t="s">
+      <c r="J23" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="K23" s="24" t="s">
+      <c r="K23" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N23" s="13" t="s">
+      <c r="N23" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="O23" s="14" t="s">
+      <c r="O23" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="P23" s="13" t="s">
+      <c r="P23" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="Q23" s="13" t="s">
+      <c r="Q23" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="R23" s="13" t="s">
+      <c r="R23" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S23" s="13" t="s">
+      <c r="S23" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="T23" s="13" t="s">
+      <c r="T23" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U23" s="13" t="s">
+      <c r="U23" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="V23" s="13" t="s">
+      <c r="V23" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="25" t="s">
+      <c r="C24" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E24" s="25" t="s">
+      <c r="E24" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="F24" s="25" t="s">
+      <c r="F24" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="25" t="s">
+      <c r="G24" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="H24" s="25" t="s">
+      <c r="H24" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="I24" s="25" t="s">
+      <c r="I24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="25" t="s">
+      <c r="J24" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="K24" s="26" t="s">
+      <c r="K24" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="N24" s="20" t="s">
+      <c r="N24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="O24" s="20" t="s">
+      <c r="O24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="P24" s="20" t="s">
+      <c r="P24" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="Q24" s="20" t="s">
+      <c r="Q24" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="R24" s="20" t="s">
+      <c r="R24" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="S24" s="20" t="s">
+      <c r="S24" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="T24" s="20" t="s">
+      <c r="T24" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="U24" s="20" t="s">
+      <c r="U24" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="V24" s="20" t="s">
+      <c r="V24" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="25" t="s">
+      <c r="B25" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27" t="s">
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="27" t="s">
-        <v>184</v>
-      </c>
-      <c r="J25" s="27" t="s">
+      <c r="I25" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="J25" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="K25" s="28"/>
-      <c r="N25" s="20" t="s">
+      <c r="K25" s="21"/>
+      <c r="N25" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="O25" s="29" t="s">
-        <v>122</v>
-      </c>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="29"/>
-      <c r="V25" s="29"/>
+      <c r="O25" s="22" t="s">
+        <v>121</v>
+      </c>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+      <c r="U25" s="22"/>
+      <c r="V25" s="22"/>
     </row>
     <row r="26" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B26" s="12" t="str">
+      <c r="B26" s="7" t="str">
         <f>P26</f>
         <v>MINBIO</v>
       </c>
-      <c r="C26" s="15"/>
-      <c r="D26" s="12" t="str">
+      <c r="C26" s="10"/>
+      <c r="D26" s="7" t="str">
         <f>P5</f>
         <v>MANBIOMIN</v>
       </c>
@@ -3847,37 +3820,37 @@
       <c r="H26" s="1">
         <v>50</v>
       </c>
-      <c r="I26" s="31">
+      <c r="I26" s="24">
         <v>17.166319999999999</v>
       </c>
-      <c r="J26" s="32"/>
-      <c r="K26" s="33">
+      <c r="J26" s="25"/>
+      <c r="K26" s="26">
         <v>8.76</v>
       </c>
-      <c r="N26" s="69" t="s">
+      <c r="N26" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O26" s="69"/>
-      <c r="P26" s="70" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q26" s="71" t="str">
+      <c r="O26" s="38"/>
+      <c r="P26" s="39" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q26" s="40" t="str">
         <f>"Domestic Supply of "&amp;$D$4&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Biomass </v>
       </c>
-      <c r="R26" s="69" t="s">
+      <c r="R26" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="S26" s="69"/>
-      <c r="T26" s="69"/>
+      <c r="S26" s="38"/>
+      <c r="T26" s="38"/>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B27" s="12" t="str">
+      <c r="B27" s="7" t="str">
         <f>P27</f>
         <v>MINGAS</v>
       </c>
-      <c r="C27" s="15"/>
-      <c r="D27" s="12" t="str">
+      <c r="C27" s="10"/>
+      <c r="D27" s="7" t="str">
         <f>P6</f>
         <v>MANGASMIN</v>
       </c>
@@ -3893,126 +3866,126 @@
       <c r="H27" s="1">
         <v>50</v>
       </c>
-      <c r="I27" s="35">
+      <c r="I27" s="28">
         <v>33.817659999999997</v>
       </c>
-      <c r="J27" s="36"/>
-      <c r="K27" s="33">
+      <c r="J27" s="29"/>
+      <c r="K27" s="26">
         <v>8.76</v>
       </c>
-      <c r="N27" s="69" t="s">
+      <c r="N27" s="38" t="s">
         <v>64</v>
       </c>
-      <c r="O27" s="69"/>
-      <c r="P27" s="70" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q27" s="71" t="str">
+      <c r="O27" s="38"/>
+      <c r="P27" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q27" s="40" t="str">
         <f>"Domestic Supply of "&amp;$D$5&amp;" "</f>
         <v xml:space="preserve">Domestic Supply of Ngas </v>
       </c>
-      <c r="R27" s="69" t="s">
+      <c r="R27" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="S27" s="69"/>
-      <c r="T27" s="69"/>
+      <c r="S27" s="38"/>
+      <c r="T27" s="38"/>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="12"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="12"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="R28" s="69"/>
-      <c r="S28" s="69"/>
-      <c r="T28" s="69"/>
+      <c r="R28" s="38"/>
+      <c r="S28" s="38"/>
+      <c r="T28" s="38"/>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="12"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="12"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="7"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="N29" s="21"/>
-      <c r="O29" s="21"/>
-      <c r="P29" s="21"/>
-      <c r="Q29" s="21"/>
-      <c r="R29" s="69"/>
-      <c r="S29" s="69"/>
-      <c r="T29" s="69"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="38"/>
+      <c r="S29" s="38"/>
+      <c r="T29" s="38"/>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B30" s="12"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="12"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-      <c r="N30" s="21"/>
-      <c r="O30" s="21"/>
-      <c r="P30" s="21"/>
-      <c r="Q30" s="21"/>
-      <c r="R30" s="69"/>
-      <c r="S30" s="69"/>
-      <c r="T30" s="69"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="38"/>
+      <c r="S30" s="38"/>
+      <c r="T30" s="38"/>
     </row>
     <row r="31" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B31" s="12"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="12"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="7"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
-      <c r="N31" s="21"/>
-      <c r="O31" s="21"/>
-      <c r="P31" s="21"/>
-      <c r="Q31" s="21"/>
-      <c r="R31" s="69"/>
-      <c r="S31" s="69"/>
-      <c r="T31" s="69"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="38"/>
+      <c r="S31" s="38"/>
+      <c r="T31" s="38"/>
     </row>
     <row r="32" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B32" s="12"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="12"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="7"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
-      <c r="N32" s="21"/>
-      <c r="O32" s="21"/>
-      <c r="P32" s="21"/>
-      <c r="Q32" s="21"/>
-      <c r="R32" s="69"/>
-      <c r="S32" s="69"/>
-      <c r="T32" s="69"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="38"/>
+      <c r="S32" s="38"/>
+      <c r="T32" s="38"/>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B33" s="12"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="12"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="7"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
-      <c r="N33" s="21"/>
-      <c r="O33" s="21"/>
-      <c r="P33" s="21"/>
-      <c r="Q33" s="21"/>
-      <c r="R33" s="69"/>
-      <c r="S33" s="69"/>
-      <c r="T33" s="69"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="38"/>
+      <c r="S33" s="38"/>
+      <c r="T33" s="38"/>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B34" s="12"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="12"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="7"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
@@ -4020,14 +3993,14 @@
       <c r="N34" s="1"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
-      <c r="R34" s="69"/>
-      <c r="S34" s="69"/>
-      <c r="T34" s="69"/>
+      <c r="R34" s="38"/>
+      <c r="S34" s="38"/>
+      <c r="T34" s="38"/>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B35" s="12"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="12"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="7"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
@@ -4035,14 +4008,14 @@
       <c r="N35" s="1"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
-      <c r="R35" s="69"/>
-      <c r="S35" s="69"/>
-      <c r="T35" s="69"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="38"/>
+      <c r="T35" s="38"/>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B36" s="12"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="12"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="7"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
@@ -4050,9 +4023,9 @@
       <c r="N36" s="1"/>
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
-      <c r="R36" s="69"/>
-      <c r="S36" s="69"/>
-      <c r="T36" s="69"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="38"/>
+      <c r="T36" s="38"/>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="N37" s="1"/>
@@ -4060,84 +4033,84 @@
       <c r="Q37" s="1"/>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B38" s="19"/>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="21"/>
-      <c r="F38" s="21"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
+      <c r="B38" s="12"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="14"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="14"/>
       <c r="N38" s="1"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
-      <c r="R38" s="21"/>
-      <c r="S38" s="21"/>
-      <c r="T38" s="21"/>
+      <c r="R38" s="14"/>
+      <c r="S38" s="14"/>
+      <c r="T38" s="14"/>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="21"/>
-      <c r="F39" s="21"/>
-      <c r="G39" s="21"/>
-      <c r="H39" s="21"/>
+      <c r="B39" s="12"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="14"/>
+      <c r="G39" s="14"/>
+      <c r="H39" s="14"/>
       <c r="N39" s="1"/>
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
+      <c r="R39" s="14"/>
+      <c r="S39" s="14"/>
+      <c r="T39" s="14"/>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="21"/>
-      <c r="F40" s="21"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="21"/>
+      <c r="B40" s="12"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="G40" s="14"/>
+      <c r="H40" s="14"/>
       <c r="N40" s="1"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
+      <c r="R40" s="14"/>
+      <c r="S40" s="14"/>
+      <c r="T40" s="14"/>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="21"/>
-      <c r="F41" s="21"/>
-      <c r="G41" s="21"/>
-      <c r="H41" s="21"/>
+      <c r="B41" s="12"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="14"/>
+      <c r="F41" s="14"/>
+      <c r="G41" s="14"/>
+      <c r="H41" s="14"/>
       <c r="N41" s="1"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
+      <c r="R41" s="14"/>
+      <c r="S41" s="14"/>
+      <c r="T41" s="14"/>
     </row>
     <row r="42" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="21"/>
-      <c r="F42" s="21"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="21"/>
+      <c r="B42" s="12"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
       <c r="N42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
+      <c r="R42" s="14"/>
+      <c r="S42" s="14"/>
+      <c r="T42" s="14"/>
     </row>
     <row r="43" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B43" s="12"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="12"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="7"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
@@ -4146,9 +4119,9 @@
       <c r="Q43" s="1"/>
     </row>
     <row r="44" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B44" s="12"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="12"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="10"/>
+      <c r="D44" s="7"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
@@ -4157,108 +4130,108 @@
       <c r="Q44" s="1"/>
     </row>
     <row r="45" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B45" s="12"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="12"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="10"/>
+      <c r="D45" s="7"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
     <row r="46" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B46" s="12"/>
+      <c r="B46" s="7"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="12"/>
+      <c r="D46" s="7"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
     <row r="47" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B47" s="8"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
     <row r="48" spans="2:20" x14ac:dyDescent="0.2">
-      <c r="B48" s="8"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
     <row r="49" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B49" s="8"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
+      <c r="N49" s="14"/>
+      <c r="O49" s="14"/>
+      <c r="P49" s="14"/>
+      <c r="Q49" s="14"/>
     </row>
     <row r="50" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B50" s="8"/>
+      <c r="B50" s="5"/>
       <c r="C50" s="1"/>
-      <c r="D50" s="12"/>
+      <c r="D50" s="7"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
+      <c r="N50" s="14"/>
+      <c r="O50" s="14"/>
+      <c r="P50" s="14"/>
+      <c r="Q50" s="14"/>
     </row>
     <row r="51" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B51" s="12"/>
+      <c r="B51" s="7"/>
       <c r="C51" s="1"/>
-      <c r="D51" s="12"/>
+      <c r="D51" s="7"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
+      <c r="N51" s="14"/>
+      <c r="O51" s="14"/>
+      <c r="P51" s="14"/>
+      <c r="Q51" s="14"/>
     </row>
     <row r="52" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B52" s="12"/>
+      <c r="B52" s="7"/>
       <c r="C52" s="1"/>
-      <c r="D52" s="12"/>
+      <c r="D52" s="7"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="N52" s="21"/>
-      <c r="O52" s="21"/>
-      <c r="P52" s="21"/>
-      <c r="Q52" s="21"/>
+      <c r="N52" s="14"/>
+      <c r="O52" s="14"/>
+      <c r="P52" s="14"/>
+      <c r="Q52" s="14"/>
     </row>
     <row r="53" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B53" s="12"/>
-      <c r="D53" s="12"/>
+      <c r="B53" s="7"/>
+      <c r="D53" s="7"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="N53" s="21"/>
-      <c r="O53" s="21"/>
-      <c r="P53" s="21"/>
-      <c r="Q53" s="21"/>
+      <c r="N53" s="14"/>
+      <c r="O53" s="14"/>
+      <c r="P53" s="14"/>
+      <c r="Q53" s="14"/>
     </row>
     <row r="54" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="P54" s="15"/>
-      <c r="Q54" s="34"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="27"/>
     </row>
     <row r="55" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B55" s="30"/>
+      <c r="B55" s="23"/>
       <c r="C55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="56" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B56" s="38"/>
+      <c r="B56" s="30"/>
       <c r="C56" s="1" t="s">
         <v>83</v>
       </c>
@@ -4307,2395 +4280,2410 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AH144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3" style="8" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="8" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="8.140625" style="8" customWidth="1"/>
-    <col min="15" max="16" width="8.140625" style="57" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="8" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="8" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="63.85546875" style="8" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="8" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="8" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" style="8" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="8" customWidth="1"/>
-    <col min="26" max="30" width="8.85546875" style="8"/>
-    <col min="31" max="31" width="12.42578125" style="8" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="8"/>
+    <col min="1" max="1" width="3" style="48" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.85546875" style="48" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20" style="48" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="48" customWidth="1"/>
+    <col min="10" max="10" width="12.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="8.140625" style="48" customWidth="1"/>
+    <col min="15" max="16" width="8.140625" style="49" customWidth="1"/>
+    <col min="17" max="17" width="12.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.140625" style="48" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="63.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.7109375" style="48" customWidth="1"/>
+    <col min="23" max="23" width="13.42578125" style="48" customWidth="1"/>
+    <col min="24" max="24" width="13.85546875" style="48" customWidth="1"/>
+    <col min="25" max="25" width="8.42578125" style="48" customWidth="1"/>
+    <col min="26" max="30" width="8.85546875" style="48"/>
+    <col min="31" max="31" width="12.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="8.85546875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="15" x14ac:dyDescent="0.25">
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="47" t="s">
         <v>38</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3" t="s">
+      <c r="G1" s="47"/>
+      <c r="H1" s="47" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="2" spans="2:26" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="50" t="s">
         <v>98</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="50" t="s">
         <v>99</v>
       </c>
-      <c r="D2" s="39" t="str">
+      <c r="D2" s="51" t="str">
         <f>"Demand Technologies"</f>
         <v>Demand Technologies</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="50" t="s">
+        <v>184</v>
+      </c>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q2" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="52"/>
+      <c r="S2" s="53"/>
+      <c r="T2" s="53"/>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+      <c r="W2" s="53"/>
+      <c r="X2" s="53"/>
+      <c r="Y2" s="53"/>
+    </row>
+    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Q3" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="R3" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="T3" s="54" t="s">
+        <v>9</v>
+      </c>
+      <c r="U3" s="54" t="s">
+        <v>10</v>
+      </c>
+      <c r="V3" s="54" t="s">
+        <v>11</v>
+      </c>
+      <c r="W3" s="54" t="s">
+        <v>12</v>
+      </c>
+      <c r="X3" s="54" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y3" s="54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="56"/>
+      <c r="Q4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="T4" s="31" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="56"/>
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="Q5" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42" t="s">
+        <v>111</v>
+      </c>
+      <c r="T5" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="U5" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V5" s="41"/>
+      <c r="W5" s="41"/>
+      <c r="X5" s="41"/>
+      <c r="Y5" s="41"/>
+      <c r="Z5" s="49"/>
+    </row>
+    <row r="6" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="Q6" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42" t="s">
+        <v>113</v>
+      </c>
+      <c r="T6" s="42" t="s">
+        <v>115</v>
+      </c>
+      <c r="U6" s="42" t="s">
+        <v>58</v>
+      </c>
+      <c r="V6" s="57"/>
+      <c r="W6" s="57"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="57"/>
+      <c r="Z6" s="49"/>
+    </row>
+    <row r="7" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+      <c r="E7" s="56"/>
+      <c r="F7" s="56"/>
+      <c r="G7" s="56"/>
+      <c r="Q7" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="43"/>
+      <c r="S7" s="43" t="s">
+        <v>112</v>
+      </c>
+      <c r="T7" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="U7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="V7" s="57"/>
+      <c r="W7" s="57"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="57"/>
+      <c r="Z7" s="49"/>
+    </row>
+    <row r="8" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="56"/>
+      <c r="C8" s="56"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="56"/>
+      <c r="Z8" s="49"/>
+    </row>
+    <row r="9" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+      <c r="Z9" s="49"/>
+    </row>
+    <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="56"/>
+      <c r="C10" s="56"/>
+      <c r="D10" s="56"/>
+      <c r="E10" s="56"/>
+      <c r="F10" s="56"/>
+      <c r="G10" s="56"/>
+      <c r="Z10" s="49"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z11" s="49"/>
+    </row>
+    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="53"/>
+      <c r="T13" s="53"/>
+      <c r="U13" s="53"/>
+      <c r="V13" s="53"/>
+      <c r="W13" s="53"/>
+      <c r="X13" s="53"/>
+      <c r="Y13" s="53"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Q14" s="53"/>
+      <c r="R14" s="53"/>
+      <c r="S14" s="53"/>
+      <c r="T14" s="53"/>
+      <c r="U14" s="53"/>
+      <c r="V14" s="53"/>
+      <c r="W14" s="53"/>
+      <c r="X14" s="53"/>
+      <c r="Y14" s="53"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="D16" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="E16" s="58"/>
+      <c r="F16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="Q16" s="52" t="s">
+        <v>17</v>
+      </c>
+      <c r="R16" s="52"/>
+      <c r="S16" s="53"/>
+      <c r="T16" s="53"/>
+      <c r="U16" s="53"/>
+      <c r="V16" s="53"/>
+      <c r="W16" s="53"/>
+      <c r="X16" s="53"/>
+      <c r="Y16" s="53"/>
+    </row>
+    <row r="17" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="61" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="60" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="J17" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="K17" s="62" t="s">
+        <v>5</v>
+      </c>
+      <c r="L17" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="M17" s="60" t="s">
+        <v>56</v>
+      </c>
+      <c r="N17" s="62" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q17" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="R17" s="55" t="s">
+        <v>42</v>
+      </c>
+      <c r="S17" s="54" t="s">
+        <v>1</v>
+      </c>
+      <c r="T17" s="54" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="54" t="s">
+        <v>18</v>
+      </c>
+      <c r="V17" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="W17" s="54" t="s">
+        <v>20</v>
+      </c>
+      <c r="X17" s="54" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y17" s="54" t="s">
+        <v>22</v>
+      </c>
+      <c r="AD17" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="AE17" s="38"/>
+      <c r="AF17" s="63"/>
+      <c r="AG17" s="38"/>
+    </row>
+    <row r="18" spans="2:34" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="F18" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="32" t="s">
+        <v>86</v>
+      </c>
+      <c r="K18" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="L18" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="M18" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="N18" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q18" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="R18" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="S18" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="T18" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="U18" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="V18" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="W18" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="X18" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y18" s="31" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD18" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="AE18" s="64" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF18" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="AG18" s="64" t="s">
+        <v>93</v>
+      </c>
+      <c r="AH18" s="64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:34" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q2" s="40" t="s">
-        <v>7</v>
-      </c>
-      <c r="R2" s="40"/>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="16"/>
-      <c r="Y2" s="16"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q3" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="T3" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="U3" s="41" t="s">
-        <v>10</v>
-      </c>
-      <c r="V3" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="W3" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="X3" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="Y3" s="41" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="2:26" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="43"/>
-      <c r="C4" s="43"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="43"/>
-      <c r="F4" s="43"/>
-      <c r="G4" s="43"/>
-      <c r="Q4" s="44" t="s">
-        <v>43</v>
-      </c>
-      <c r="R4" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="S4" s="44" t="s">
-        <v>23</v>
-      </c>
-      <c r="T4" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" s="44" t="s">
-        <v>10</v>
-      </c>
-      <c r="V4" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="W4" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="X4" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="Y4" s="44" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="Q5" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76" t="s">
-        <v>112</v>
-      </c>
-      <c r="T5" s="76" t="s">
-        <v>115</v>
-      </c>
-      <c r="U5" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="V5" s="75"/>
-      <c r="W5" s="75"/>
-      <c r="X5" s="75"/>
-      <c r="Y5" s="75"/>
-      <c r="Z5" s="57"/>
-    </row>
-    <row r="6" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="Q6" s="76" t="s">
-        <v>59</v>
-      </c>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76" t="s">
-        <v>114</v>
-      </c>
-      <c r="T6" s="76" t="s">
-        <v>116</v>
-      </c>
-      <c r="U6" s="76" t="s">
-        <v>58</v>
-      </c>
-      <c r="V6" s="59"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="59"/>
-      <c r="Y6" s="59"/>
-      <c r="Z6" s="57"/>
-    </row>
-    <row r="7" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="Q7" s="77" t="s">
-        <v>59</v>
-      </c>
-      <c r="R7" s="77"/>
-      <c r="S7" s="77" t="s">
-        <v>113</v>
-      </c>
-      <c r="T7" s="77" t="s">
-        <v>117</v>
-      </c>
-      <c r="U7" s="77" t="s">
-        <v>58</v>
-      </c>
-      <c r="V7" s="59"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="59"/>
-      <c r="Y7" s="59"/>
-      <c r="Z7" s="57"/>
-    </row>
-    <row r="8" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="43"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="43"/>
-      <c r="Z8" s="57"/>
-    </row>
-    <row r="9" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="Z9" s="57"/>
-    </row>
-    <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="43"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="43"/>
-      <c r="Z10" s="57"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Z11" s="57"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q13" s="16"/>
-      <c r="R13" s="16"/>
-      <c r="S13" s="16"/>
-      <c r="T13" s="16"/>
-      <c r="U13" s="16"/>
-      <c r="V13" s="16"/>
-      <c r="W13" s="16"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16"/>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="16"/>
-      <c r="X14" s="16"/>
-      <c r="Y14" s="16"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="D16" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="9"/>
-      <c r="Q16" s="40" t="s">
-        <v>17</v>
-      </c>
-      <c r="R16" s="40"/>
-      <c r="S16" s="16"/>
-      <c r="T16" s="16"/>
-      <c r="U16" s="16"/>
-      <c r="V16" s="16"/>
-      <c r="W16" s="16"/>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-    </row>
-    <row r="17" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E17" s="45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I17" s="45" t="s">
-        <v>47</v>
-      </c>
-      <c r="J17" s="45" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="M17" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="N17" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q17" s="41" t="s">
-        <v>15</v>
-      </c>
-      <c r="R17" s="42" t="s">
-        <v>42</v>
-      </c>
-      <c r="S17" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="T17" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="U17" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="V17" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="W17" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="X17" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y17" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD17" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE17"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="1"/>
-    </row>
-    <row r="18" spans="2:34" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="48" t="s">
-        <v>32</v>
-      </c>
-      <c r="D18" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="E18" s="48" t="s">
-        <v>54</v>
-      </c>
-      <c r="F18" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="G18" s="48" t="s">
-        <v>35</v>
-      </c>
-      <c r="H18" s="49" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="48" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="48" t="s">
-        <v>86</v>
-      </c>
-      <c r="K18" s="49" t="s">
-        <v>37</v>
-      </c>
-      <c r="L18" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="M18" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="N18" s="49" t="s">
+      <c r="K19" s="36"/>
+      <c r="L19" s="35" t="s">
+        <v>183</v>
+      </c>
+      <c r="M19" s="36"/>
+      <c r="N19" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="Q18" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="R18" s="44" t="s">
-        <v>44</v>
-      </c>
-      <c r="S18" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="T18" s="44" t="s">
-        <v>28</v>
-      </c>
-      <c r="U18" s="44" t="s">
-        <v>29</v>
-      </c>
-      <c r="V18" s="44" t="s">
-        <v>30</v>
-      </c>
-      <c r="W18" s="44" t="s">
-        <v>51</v>
-      </c>
-      <c r="X18" s="44" t="s">
-        <v>52</v>
-      </c>
-      <c r="Y18" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="AD18" s="80" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE18" s="80" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF18" s="80" t="s">
+      <c r="Q19" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="R19" s="31"/>
+      <c r="S19" s="31"/>
+      <c r="T19" s="31"/>
+      <c r="U19" s="31"/>
+      <c r="V19" s="31"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="31"/>
+      <c r="Y19" s="31"/>
+      <c r="AD19" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="AE19" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="AG18" s="80" t="s">
-        <v>93</v>
-      </c>
-      <c r="AH18" s="80" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="2:34" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="50" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="52"/>
-      <c r="I19" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="J19" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="K19" s="52"/>
-      <c r="L19" s="51" t="s">
-        <v>184</v>
-      </c>
-      <c r="M19" s="52"/>
-      <c r="N19" s="52" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q19" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-      <c r="T19" s="44"/>
-      <c r="U19" s="44"/>
-      <c r="V19" s="44"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="44"/>
-      <c r="Y19" s="44"/>
-      <c r="AD19" s="81" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE19" s="81" t="s">
-        <v>133</v>
-      </c>
-      <c r="AF19" s="81"/>
-      <c r="AG19" s="81"/>
-      <c r="AH19" s="81"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="44"/>
+      <c r="AH19" s="44"/>
     </row>
     <row r="20" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="9" t="str">
+      <c r="B20" s="48" t="str">
         <f>S20</f>
         <v>Furnace</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D20" s="54" t="str">
+      <c r="D20" s="53" t="str">
         <f>S5</f>
         <v>ELCHEAT</v>
       </c>
-      <c r="E20" s="74">
+      <c r="E20" s="46">
         <v>2030</v>
       </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56">
+      <c r="F20" s="46"/>
+      <c r="G20" s="46">
         <v>1</v>
       </c>
-      <c r="H20" s="56">
+      <c r="H20" s="46">
         <v>1</v>
       </c>
-      <c r="I20" s="56">
+      <c r="I20" s="46">
         <v>25</v>
       </c>
-      <c r="J20" s="84">
+      <c r="J20" s="46">
         <v>81</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="46">
         <v>0</v>
       </c>
-      <c r="L20" s="84">
+      <c r="L20" s="46">
         <v>0.24</v>
       </c>
-      <c r="M20" s="57">
+      <c r="M20" s="46">
         <v>8.76</v>
       </c>
-      <c r="N20" s="57"/>
-      <c r="Q20" s="67" t="s">
-        <v>111</v>
-      </c>
-      <c r="R20" s="66"/>
-      <c r="S20" s="64" t="s">
+      <c r="N20" s="46"/>
+      <c r="Q20" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="R20" s="65"/>
+      <c r="S20" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="T20" s="68" t="s">
-        <v>109</v>
-      </c>
-      <c r="U20" s="9" t="s">
+      <c r="T20" s="67" t="s">
+        <v>108</v>
+      </c>
+      <c r="U20" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V20" s="9" t="s">
+      <c r="V20" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W20" s="78" t="s">
+      <c r="W20" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="X20" s="56"/>
-      <c r="Y20" s="56"/>
-      <c r="AD20" s="82" t="s">
+      <c r="X20" s="49"/>
+      <c r="Y20" s="49"/>
+      <c r="AD20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AE20" s="82"/>
-      <c r="AF20" s="82"/>
-      <c r="AG20" s="82"/>
-      <c r="AH20" s="81"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="44"/>
     </row>
     <row r="21" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B21" s="9" t="str">
+      <c r="B21" s="48" t="str">
         <f>S$21</f>
         <v>BIOBoiler</v>
       </c>
-      <c r="C21" s="9" t="str">
+      <c r="C21" s="48" t="str">
         <f>PRI_Sector_Fuels!P5</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D21" s="54" t="str">
+      <c r="D21" s="53" t="str">
         <f>S6</f>
         <v>BIOHEAT</v>
       </c>
-      <c r="E21" s="74">
+      <c r="E21" s="46">
         <v>2030</v>
       </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56">
+      <c r="F21" s="46"/>
+      <c r="G21" s="46">
         <v>0.8</v>
       </c>
-      <c r="H21" s="56">
+      <c r="H21" s="46">
         <v>1</v>
       </c>
-      <c r="I21" s="56">
+      <c r="I21" s="46">
         <v>25</v>
       </c>
-      <c r="J21" s="84">
+      <c r="J21" s="46">
         <v>797.9</v>
       </c>
-      <c r="K21" s="56">
+      <c r="K21" s="46">
         <v>48.48</v>
       </c>
-      <c r="L21" s="57">
+      <c r="L21" s="46">
         <v>3.75</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="46">
         <v>8.76</v>
       </c>
-      <c r="N21" s="57"/>
-      <c r="Q21" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="R21" s="66"/>
-      <c r="S21" s="65" t="s">
-        <v>102</v>
-      </c>
-      <c r="T21" s="68" t="s">
+      <c r="N21" s="46"/>
+      <c r="Q21" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="R21" s="65"/>
+      <c r="S21" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="T21" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="U21" s="9" t="s">
+      <c r="U21" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V21" s="9" t="s">
+      <c r="V21" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W21" s="78" t="s">
+      <c r="W21" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="X21" s="56"/>
-      <c r="Y21" s="56"/>
-      <c r="AD21" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE21" s="12" t="str">
+      <c r="X21" s="49"/>
+      <c r="Y21" s="49"/>
+      <c r="AD21" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE21" s="39" t="str">
         <f>S$26</f>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF21" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="AG21" s="8">
+      <c r="AF21" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG21" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AH21" s="9">
+      <c r="AH21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="9" t="str">
+    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B22" s="48" t="str">
         <f>S24</f>
         <v>ELCBoiler</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="54" t="str">
+      <c r="D22" s="53" t="str">
         <f>S5</f>
         <v>ELCHEAT</v>
       </c>
-      <c r="E22" s="74">
+      <c r="E22" s="46">
         <v>2030</v>
       </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56">
+      <c r="F22" s="46"/>
+      <c r="G22" s="46">
         <v>0.8</v>
       </c>
-      <c r="H22" s="56">
+      <c r="H22" s="46">
         <v>1</v>
       </c>
-      <c r="I22" s="56">
+      <c r="I22" s="46">
         <v>25</v>
       </c>
-      <c r="J22" s="84">
+      <c r="J22" s="46">
         <v>112.9</v>
       </c>
-      <c r="K22" s="56">
+      <c r="K22" s="46">
         <v>14.26</v>
       </c>
-      <c r="L22" s="57">
+      <c r="L22" s="46">
         <v>1.22</v>
       </c>
-      <c r="M22" s="57">
+      <c r="M22" s="46">
         <v>8.76</v>
       </c>
-      <c r="N22" s="57"/>
-      <c r="Q22" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="R22" s="66"/>
-      <c r="S22" s="65" t="s">
-        <v>103</v>
-      </c>
-      <c r="T22" s="68" t="s">
-        <v>108</v>
-      </c>
-      <c r="U22" s="9" t="s">
+      <c r="N22" s="46"/>
+      <c r="Q22" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="R22" s="65"/>
+      <c r="S22" s="66" t="s">
+        <v>102</v>
+      </c>
+      <c r="T22" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="U22" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V22" s="9" t="s">
+      <c r="V22" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W22" s="78" t="s">
+      <c r="W22" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="X22" s="56"/>
-      <c r="Y22" s="56"/>
-      <c r="AD22" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE22" s="12" t="str">
+      <c r="X22" s="49"/>
+      <c r="Y22" s="49"/>
+      <c r="AD22" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE22" s="39" t="str">
         <f t="shared" ref="AE22:AE68" si="0">S$26</f>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF22" s="83" t="s">
-        <v>135</v>
-      </c>
-      <c r="AG22" s="8">
+      <c r="AF22" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG22" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AH22" s="9">
+      <c r="AH22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:34" s="56" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="9" t="str">
+    <row r="23" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="48" t="str">
         <f>S22</f>
         <v>BIOKiln</v>
       </c>
-      <c r="C23" s="9" t="str">
+      <c r="C23" s="48" t="str">
         <f>PRI_Sector_Fuels!P5</f>
         <v>MANBIOMIN</v>
       </c>
-      <c r="D23" s="54" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="74">
+      <c r="D23" s="53" t="s">
+        <v>129</v>
+      </c>
+      <c r="E23" s="46">
         <v>2030</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56">
+      <c r="F23" s="46"/>
+      <c r="G23" s="46">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H23" s="56">
+      <c r="H23" s="46">
         <v>1</v>
       </c>
-      <c r="I23" s="56">
+      <c r="I23" s="46">
         <v>25</v>
       </c>
-      <c r="J23" s="84">
+      <c r="J23" s="46">
         <v>297.10000000000002</v>
       </c>
-      <c r="K23" s="85">
+      <c r="K23" s="46">
         <v>4.46</v>
       </c>
-      <c r="L23" s="85">
+      <c r="L23" s="46">
         <v>0.45</v>
       </c>
-      <c r="M23" s="57">
+      <c r="M23" s="46">
         <v>8.76</v>
       </c>
-      <c r="Q23" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="R23" s="66"/>
-      <c r="S23" s="65" t="s">
+      <c r="N23" s="46"/>
+      <c r="Q23" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="R23" s="65"/>
+      <c r="S23" s="66" t="s">
+        <v>103</v>
+      </c>
+      <c r="T23" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="T23" s="68" t="s">
-        <v>105</v>
-      </c>
-      <c r="U23" s="9" t="s">
+      <c r="U23" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V23" s="9" t="s">
+      <c r="V23" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W23" s="78" t="s">
+      <c r="W23" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="AD23" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE23" s="12" t="str">
+      <c r="AD23" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE23" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF23" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG23" s="8">
+      <c r="AF23" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AG23" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AH23" s="56">
+      <c r="AH23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="54" t="str">
+    <row r="24" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="53" t="str">
         <f>S23</f>
         <v>GASBoiler</v>
       </c>
-      <c r="C24" s="9" t="str">
+      <c r="C24" s="48" t="str">
         <f>PRI_Sector_Fuels!P6</f>
         <v>MANGASMIN</v>
       </c>
-      <c r="D24" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E24" s="74">
+      <c r="D24" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E24" s="46">
         <v>2030</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="56">
+      <c r="F24" s="46"/>
+      <c r="G24" s="46">
         <v>1</v>
       </c>
-      <c r="H24" s="56">
+      <c r="H24" s="46">
         <v>1</v>
       </c>
-      <c r="I24" s="56">
+      <c r="I24" s="46">
         <v>25</v>
       </c>
-      <c r="J24" s="84">
+      <c r="J24" s="46">
         <v>61.4</v>
       </c>
-      <c r="K24" s="56">
+      <c r="K24" s="46">
         <v>2.57</v>
       </c>
-      <c r="L24" s="56">
+      <c r="L24" s="46">
         <v>1.35</v>
       </c>
-      <c r="M24" s="57">
+      <c r="M24" s="46">
         <v>8.76</v>
       </c>
-      <c r="Q24" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="R24" s="66"/>
-      <c r="S24" s="65" t="s">
+      <c r="N24" s="46"/>
+      <c r="Q24" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="R24" s="65"/>
+      <c r="S24" s="66" t="s">
+        <v>105</v>
+      </c>
+      <c r="T24" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="T24" s="68" t="s">
-        <v>107</v>
-      </c>
-      <c r="U24" s="9" t="s">
+      <c r="U24" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V24" s="9" t="s">
+      <c r="V24" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W24" s="78" t="s">
+      <c r="W24" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="AD24" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE24" s="12" t="str">
+      <c r="AD24" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF24" s="83" t="s">
-        <v>137</v>
-      </c>
-      <c r="AG24" s="8">
+      <c r="AF24" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="AG24" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AH24" s="56">
+      <c r="AH24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="54" t="str">
+    <row r="25" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="53" t="str">
         <f>S26</f>
         <v>WNDTRBN</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="54" t="s">
+      <c r="C25" s="48"/>
+      <c r="D25" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E25" s="74">
+      <c r="E25" s="46">
         <v>2030</v>
       </c>
-      <c r="F25" s="55"/>
-      <c r="H25" s="56">
+      <c r="F25" s="46"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="46">
         <v>0.97</v>
       </c>
-      <c r="I25" s="56">
+      <c r="I25" s="46">
         <v>25</v>
       </c>
-      <c r="J25" s="56">
+      <c r="J25" s="46">
         <v>1041</v>
       </c>
-      <c r="K25" s="56">
+      <c r="K25" s="46">
         <v>38</v>
       </c>
-      <c r="M25" s="57">
+      <c r="L25" s="46"/>
+      <c r="M25" s="46">
         <v>8.76</v>
       </c>
-      <c r="Q25" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="R25" s="66"/>
-      <c r="S25" s="65" t="s">
+      <c r="N25" s="46"/>
+      <c r="Q25" s="65" t="s">
+        <v>110</v>
+      </c>
+      <c r="R25" s="65"/>
+      <c r="S25" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="T25" s="68" t="s">
-        <v>110</v>
-      </c>
-      <c r="U25" s="9" t="s">
+      <c r="T25" s="67" t="s">
+        <v>109</v>
+      </c>
+      <c r="U25" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V25" s="9" t="s">
+      <c r="V25" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W25" s="56" t="s">
+      <c r="W25" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AD25" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE25" s="12" t="str">
+      <c r="AD25" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE25" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF25" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="AG25" s="8">
+      <c r="AF25" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="AG25" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AH25" s="56">
+      <c r="AH25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="54" t="str">
+    <row r="26" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="53" t="str">
         <f>S27</f>
         <v>SOLPV</v>
       </c>
-      <c r="C26" s="9"/>
-      <c r="D26" s="54" t="s">
+      <c r="C26" s="48"/>
+      <c r="D26" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="E26" s="74">
+      <c r="E26" s="46">
         <v>2030</v>
       </c>
-      <c r="F26" s="55"/>
-      <c r="H26" s="56">
+      <c r="F26" s="46"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="46">
         <v>0.99</v>
       </c>
-      <c r="I26" s="56">
+      <c r="I26" s="46">
         <v>25</v>
       </c>
-      <c r="J26" s="56">
+      <c r="J26" s="46">
         <v>691</v>
       </c>
-      <c r="K26" s="56">
+      <c r="K26" s="46">
         <v>6.99</v>
       </c>
-      <c r="M26" s="57">
+      <c r="L26" s="46"/>
+      <c r="M26" s="46">
         <v>8.76</v>
       </c>
-      <c r="Q26" s="66" t="s">
+      <c r="N26" s="46"/>
+      <c r="Q26" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="R26" s="66"/>
-      <c r="S26" s="65" t="s">
+      <c r="R26" s="65"/>
+      <c r="S26" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="T26" s="68" t="s">
+      <c r="T26" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="U26" s="9" t="s">
+      <c r="U26" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V26" s="9" t="s">
+      <c r="V26" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W26" s="56" t="s">
+      <c r="W26" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AD26" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE26" s="12" t="str">
+      <c r="AD26" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE26" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF26" s="83" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG26" s="8">
+      <c r="AF26" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="AG26" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AH26" s="56">
+      <c r="AH26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="54" t="str">
+    <row r="27" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="53" t="str">
         <f>S25</f>
         <v>CSP</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="54" t="str">
+      <c r="C27" s="48"/>
+      <c r="D27" s="53" t="str">
         <f>S7</f>
         <v>SOLHEAT</v>
       </c>
-      <c r="E27" s="74">
+      <c r="E27" s="46">
         <v>2030</v>
       </c>
-      <c r="F27" s="55"/>
-      <c r="H27" s="56">
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46">
         <v>1</v>
       </c>
-      <c r="I27" s="56">
+      <c r="I27" s="46">
         <v>25</v>
       </c>
-      <c r="J27" s="56">
+      <c r="J27" s="46">
         <v>3677</v>
       </c>
-      <c r="L27" s="56">
+      <c r="K27" s="46"/>
+      <c r="L27" s="46">
         <v>14</v>
       </c>
-      <c r="M27" s="57">
+      <c r="M27" s="46">
         <v>8.76</v>
       </c>
-      <c r="Q27" s="66" t="s">
+      <c r="N27" s="46"/>
+      <c r="Q27" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="R27" s="66"/>
-      <c r="S27" s="65" t="s">
+      <c r="R27" s="65"/>
+      <c r="S27" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="T27" s="68" t="s">
+      <c r="T27" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="U27" s="9" t="s">
+      <c r="U27" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V27" s="9" t="s">
+      <c r="V27" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W27" s="56" t="s">
+      <c r="W27" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AD27" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE27" s="12" t="str">
+      <c r="AD27" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF27" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="AG27" s="8">
+      <c r="AF27" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG27" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AH27" s="56">
+      <c r="AH27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="8" t="str">
+    <row r="28" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="48" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
       </c>
-      <c r="C28" s="16" t="str">
+      <c r="C28" s="53" t="str">
         <f>S5</f>
         <v>ELCHEAT</v>
       </c>
-      <c r="D28" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E28" s="74">
+      <c r="D28" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="46">
         <v>2030</v>
       </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="56">
+      <c r="F28" s="46"/>
+      <c r="G28" s="46">
         <v>1</v>
       </c>
-      <c r="H28" s="56">
+      <c r="H28" s="46">
         <v>1</v>
       </c>
-      <c r="J28" s="56">
+      <c r="I28" s="46"/>
+      <c r="J28" s="46">
         <v>0</v>
       </c>
-      <c r="K28" s="8"/>
-      <c r="M28" s="57">
+      <c r="K28" s="46"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="46">
         <v>8.76</v>
       </c>
-      <c r="Q28" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="R28" s="8"/>
-      <c r="S28" s="8" t="s">
+      <c r="N28" s="46"/>
+      <c r="Q28" s="48" t="s">
+        <v>110</v>
+      </c>
+      <c r="R28" s="48"/>
+      <c r="S28" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="T28" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="T28" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="U28" s="8" t="s">
+      <c r="U28" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V28" s="9" t="s">
+      <c r="V28" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W28" s="56" t="s">
+      <c r="W28" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="X28" s="8"/>
-      <c r="Y28" s="8"/>
-      <c r="AD28" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE28" s="12" t="str">
+      <c r="X28" s="48"/>
+      <c r="Y28" s="48"/>
+      <c r="AD28" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE28" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF28" s="83" t="s">
-        <v>141</v>
-      </c>
-      <c r="AG28" s="8">
+      <c r="AF28" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="AG28" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AH28" s="56">
+      <c r="AH28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="8" t="str">
+    <row r="29" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="48" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
       </c>
-      <c r="C29" s="16" t="str">
+      <c r="C29" s="53" t="str">
         <f>S6</f>
         <v>BIOHEAT</v>
       </c>
-      <c r="D29" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="74">
+      <c r="D29" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="46">
         <v>2030</v>
       </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="56">
+      <c r="F29" s="46"/>
+      <c r="G29" s="46">
         <v>1</v>
       </c>
-      <c r="H29" s="56">
+      <c r="H29" s="46">
         <v>1</v>
       </c>
-      <c r="J29" s="56">
+      <c r="I29" s="46"/>
+      <c r="J29" s="46">
         <v>0</v>
       </c>
-      <c r="K29" s="8"/>
-      <c r="M29" s="57">
+      <c r="K29" s="46"/>
+      <c r="L29" s="46"/>
+      <c r="M29" s="46">
         <v>8.76</v>
       </c>
-      <c r="AD29" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE29" s="12" t="str">
+      <c r="N29" s="46"/>
+      <c r="AD29" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE29" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF29" s="8" t="s">
-        <v>142</v>
-      </c>
-      <c r="AG29" s="8">
+      <c r="AF29" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="AG29" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AH29" s="56">
+      <c r="AH29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="8" t="str">
+    <row r="30" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="48" t="str">
         <f>S28</f>
         <v>RNWHEAT</v>
       </c>
-      <c r="C30" s="16" t="str">
+      <c r="C30" s="53" t="str">
         <f>S7</f>
         <v>SOLHEAT</v>
       </c>
-      <c r="D30" s="54" t="s">
-        <v>129</v>
-      </c>
-      <c r="E30" s="74">
+      <c r="D30" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E30" s="46">
         <v>2030</v>
       </c>
-      <c r="F30" s="55"/>
-      <c r="G30" s="56">
+      <c r="F30" s="46"/>
+      <c r="G30" s="46">
         <v>1</v>
       </c>
-      <c r="H30" s="56">
+      <c r="H30" s="46">
         <v>1</v>
       </c>
-      <c r="J30" s="56">
+      <c r="I30" s="46"/>
+      <c r="J30" s="46">
         <v>0</v>
       </c>
-      <c r="K30" s="8"/>
-      <c r="M30" s="57">
+      <c r="K30" s="46"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="46">
         <v>8.76</v>
       </c>
-      <c r="Q30" s="8"/>
-      <c r="R30" s="8"/>
-      <c r="S30" s="8"/>
-      <c r="T30" s="8"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="8"/>
-      <c r="X30" s="8"/>
-      <c r="Y30" s="8"/>
-      <c r="AD30" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE30" s="12" t="str">
+      <c r="N30" s="46"/>
+      <c r="Q30" s="48"/>
+      <c r="R30" s="48"/>
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="AD30" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF30" s="83" t="s">
-        <v>143</v>
-      </c>
-      <c r="AG30" s="8">
+      <c r="AF30" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="AG30" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AH30" s="56">
+      <c r="AH30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="16" t="str">
+    <row r="31" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="53" t="str">
         <f>S23</f>
         <v>GASBoiler</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="54" t="s">
-        <v>126</v>
-      </c>
-      <c r="E31" s="74">
+      <c r="C31" s="53"/>
+      <c r="D31" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E31" s="46">
         <v>2030</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="H31" s="56">
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46">
         <v>1</v>
       </c>
-      <c r="J31" s="56">
+      <c r="I31" s="46"/>
+      <c r="J31" s="46">
         <v>0</v>
       </c>
-      <c r="K31" s="8"/>
-      <c r="M31" s="57">
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46">
         <v>8.76</v>
       </c>
-      <c r="N31" s="56">
+      <c r="N31" s="46">
         <v>0.20200000000000001</v>
       </c>
-      <c r="Q31" s="8"/>
-      <c r="R31" s="8"/>
-      <c r="S31" s="8"/>
-      <c r="T31" s="8"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="8"/>
-      <c r="X31" s="8"/>
-      <c r="Y31" s="8"/>
-      <c r="AD31" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE31" s="12" t="str">
+      <c r="Q31" s="48"/>
+      <c r="R31" s="48"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="AD31" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE31" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF31" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="AG31" s="8">
+      <c r="AF31" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="AG31" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AH31" s="56">
+      <c r="AH31" s="49">
         <v>0.27468446594982077</v>
       </c>
     </row>
-    <row r="32" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="55"/>
-      <c r="K32" s="8"/>
-      <c r="M32" s="57"/>
-      <c r="Q32" s="8"/>
-      <c r="R32" s="8"/>
-      <c r="S32" s="8"/>
-      <c r="T32" s="8"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="8"/>
-      <c r="X32" s="8"/>
-      <c r="Y32" s="8"/>
-      <c r="AD32" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE32" s="12" t="str">
+    <row r="32" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="53"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="71"/>
+      <c r="K32" s="48"/>
+      <c r="Q32" s="48"/>
+      <c r="R32" s="48"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="AD32" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE32" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF32" s="83" t="s">
-        <v>145</v>
-      </c>
-      <c r="AG32" s="8">
+      <c r="AF32" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="AG32" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AH32" s="56">
+      <c r="AH32" s="49">
         <v>0.32637437275985665</v>
       </c>
     </row>
-    <row r="33" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="16"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="17"/>
-      <c r="F33" s="55"/>
-      <c r="K33" s="8"/>
-      <c r="M33" s="57"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="8"/>
-      <c r="T33" s="8"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="8"/>
-      <c r="X33" s="8"/>
-      <c r="Y33" s="8"/>
-      <c r="AD33" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE33" s="12" t="str">
+    <row r="33" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="70"/>
+      <c r="F33" s="71"/>
+      <c r="K33" s="48"/>
+      <c r="Q33" s="48"/>
+      <c r="R33" s="48"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="AD33" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF33" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="AG33" s="8">
+      <c r="AF33" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="AG33" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AH33" s="56">
+      <c r="AH33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="8"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="54"/>
-      <c r="E34" s="17"/>
-      <c r="F34" s="55"/>
-      <c r="K34" s="8"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="8"/>
-      <c r="T34" s="8"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="8"/>
-      <c r="X34" s="8"/>
-      <c r="Y34" s="8"/>
-      <c r="AD34" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE34" s="12" t="str">
+    <row r="34" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="48"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="71"/>
+      <c r="K34" s="48"/>
+      <c r="Q34" s="48"/>
+      <c r="R34" s="48"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="AD34" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE34" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF34" s="83" t="s">
-        <v>147</v>
-      </c>
-      <c r="AG34" s="8">
+      <c r="AF34" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="AG34" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AH34" s="56">
+      <c r="AH34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="16"/>
-      <c r="C35" s="16"/>
-      <c r="D35" s="54"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="55"/>
+    <row r="35" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="53"/>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="70"/>
+      <c r="F35" s="71"/>
       <c r="J35" s="72"/>
-      <c r="K35" s="8"/>
-      <c r="Q35" s="21"/>
-      <c r="R35" s="21"/>
-      <c r="S35" s="19"/>
-      <c r="T35" s="37"/>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21"/>
-      <c r="W35" s="21"/>
-      <c r="X35" s="8"/>
-      <c r="Y35" s="8"/>
-      <c r="AD35" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE35" s="12" t="str">
+      <c r="K35" s="48"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="38"/>
+      <c r="S35" s="39"/>
+      <c r="T35" s="40"/>
+      <c r="U35" s="38"/>
+      <c r="V35" s="38"/>
+      <c r="W35" s="38"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="AD35" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF35" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="AG35" s="8">
+      <c r="AF35" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AG35" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AH35" s="56">
+      <c r="AH35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:34" s="56" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="16"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="17"/>
-      <c r="F36" s="58"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="8"/>
-      <c r="Q36" s="21"/>
-      <c r="R36" s="21"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="37"/>
-      <c r="U36" s="21"/>
-      <c r="V36" s="21"/>
-      <c r="W36" s="21"/>
-      <c r="X36" s="8"/>
-      <c r="Y36" s="8"/>
-      <c r="AD36" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE36" s="12" t="str">
+    <row r="36" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="53"/>
+      <c r="C36" s="48"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="48"/>
+      <c r="H36" s="48"/>
+      <c r="I36" s="48"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="48"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="38"/>
+      <c r="S36" s="39"/>
+      <c r="T36" s="40"/>
+      <c r="U36" s="38"/>
+      <c r="V36" s="38"/>
+      <c r="W36" s="38"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="AD36" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE36" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF36" s="83" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG36" s="8">
+      <c r="AF36" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG36" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AH36" s="56">
+      <c r="AH36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:34" s="57" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="8"/>
-      <c r="C37" s="8"/>
-      <c r="D37" s="8"/>
-      <c r="E37" s="17"/>
-      <c r="F37" s="58"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="8"/>
-      <c r="I37" s="8"/>
-      <c r="J37" s="73"/>
-      <c r="K37" s="8"/>
-      <c r="Q37" s="8"/>
-      <c r="R37" s="8"/>
-      <c r="S37" s="8"/>
-      <c r="T37" s="8"/>
-      <c r="U37" s="16"/>
-      <c r="V37" s="16"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="8"/>
-      <c r="Y37" s="8"/>
-      <c r="AD37" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE37" s="12" t="str">
+    <row r="37" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="48"/>
+      <c r="C37" s="48"/>
+      <c r="D37" s="48"/>
+      <c r="E37" s="70"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="48"/>
+      <c r="H37" s="48"/>
+      <c r="I37" s="48"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="48"/>
+      <c r="Q37" s="48"/>
+      <c r="R37" s="48"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="53"/>
+      <c r="V37" s="53"/>
+      <c r="W37" s="68"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="AD37" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE37" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF37" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="AG37" s="8">
+      <c r="AF37" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="AG37" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AH37" s="56">
+      <c r="AH37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
     <row r="38" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="F38" s="58"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="60"/>
-      <c r="R38" s="57"/>
-      <c r="T38" s="57"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="AD38" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE38" s="12" t="str">
+      <c r="F38" s="73"/>
+      <c r="G38" s="46"/>
+      <c r="H38" s="75"/>
+      <c r="R38" s="49"/>
+      <c r="T38" s="49"/>
+      <c r="U38" s="57"/>
+      <c r="V38" s="57"/>
+      <c r="AD38" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE38" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF38" s="83" t="s">
-        <v>151</v>
-      </c>
-      <c r="AG38" s="8">
+      <c r="AF38" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="AG38" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AH38" s="9">
+      <c r="AH38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
     <row r="39" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="H39" s="60"/>
-      <c r="AD39" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE39" s="12" t="str">
+      <c r="H39" s="75"/>
+      <c r="AD39" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE39" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF39" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="AG39" s="8">
+      <c r="AF39" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG39" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AH39" s="9">
+      <c r="AH39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
     <row r="40" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B40" s="53"/>
-      <c r="C40" s="8" t="s">
+      <c r="B40" s="76"/>
+      <c r="C40" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="H40" s="60"/>
-      <c r="AD40" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE40" s="12" t="str">
+      <c r="H40" s="75"/>
+      <c r="AD40" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE40" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF40" s="83" t="s">
-        <v>153</v>
-      </c>
-      <c r="AG40" s="8">
+      <c r="AF40" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="AG40" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AH40" s="9">
+      <c r="AH40" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B41" s="61"/>
-      <c r="C41" s="8" t="s">
+      <c r="B41" s="77"/>
+      <c r="C41" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="H41" s="60"/>
-      <c r="AD41" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE41" s="12" t="str">
+      <c r="H41" s="75"/>
+      <c r="AD41" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE41" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF41" s="8" t="s">
-        <v>154</v>
-      </c>
-      <c r="AG41" s="8">
+      <c r="AF41" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="AG41" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AH41" s="9">
+      <c r="AH41" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="F42" s="8" t="s">
+      <c r="F42" s="48" t="s">
         <v>90</v>
       </c>
-      <c r="H42" s="60"/>
-      <c r="AD42" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE42" s="12" t="str">
+      <c r="H42" s="75"/>
+      <c r="AD42" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE42" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF42" s="83" t="s">
-        <v>155</v>
-      </c>
-      <c r="AG42" s="8">
+      <c r="AF42" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="AG42" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AH42" s="9">
+      <c r="AH42" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD43" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE43" s="12" t="str">
+      <c r="AD43" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE43" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF43" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG43" s="8">
+      <c r="AF43" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AG43" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AH43" s="9">
+      <c r="AH43" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="E44" s="8" t="s">
+      <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
-      <c r="F44" s="8">
+      <c r="F44" s="48">
         <f>24*365</f>
         <v>8760</v>
       </c>
-      <c r="AD44" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE44" s="12" t="str">
+      <c r="AD44" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE44" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF44" s="83" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG44" s="8">
+      <c r="AF44" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="AG44" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AH44" s="9">
+      <c r="AH44" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="45" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="E45" s="10"/>
-      <c r="AD45" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE45" s="12" t="str">
+      <c r="E45" s="46"/>
+      <c r="AD45" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE45" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF45" t="s">
-        <v>158</v>
-      </c>
-      <c r="AG45" s="8">
+      <c r="AF45" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="AG45" s="48">
         <v>3.030827569122875E-3</v>
       </c>
-      <c r="AH45" s="9">
+      <c r="AH45" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="46" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD46" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE46" s="12" t="str">
+      <c r="AD46" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE46" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF46" t="s">
-        <v>159</v>
-      </c>
-      <c r="AG46" s="8">
+      <c r="AF46" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG46" s="48">
         <v>2.7479296595765089E-3</v>
       </c>
-      <c r="AH46" s="9">
+      <c r="AH46" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="47" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD47" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE47" s="12" t="str">
+      <c r="AD47" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE47" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF47" t="s">
-        <v>160</v>
-      </c>
-      <c r="AG47" s="8">
+      <c r="AF47" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AG47" s="48">
         <v>2.5373694178364601E-3</v>
       </c>
-      <c r="AH47" s="9">
+      <c r="AH47" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="48" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD48" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE48" s="12" t="str">
+      <c r="AD48" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE48" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF48" t="s">
-        <v>161</v>
-      </c>
-      <c r="AG48" s="8">
+      <c r="AF48" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AG48" s="48">
         <v>2.3562266756271813E-3</v>
       </c>
-      <c r="AH48" s="9">
+      <c r="AH48" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="49" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD49" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE49" s="12" t="str">
+      <c r="AD49" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE49" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF49" t="s">
-        <v>162</v>
-      </c>
-      <c r="AG49" s="8">
+      <c r="AF49" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AG49" s="48">
         <v>2.2781297107044287E-3</v>
       </c>
-      <c r="AH49" s="9">
+      <c r="AH49" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="50" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD50" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE50" s="12" t="str">
+      <c r="AD50" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE50" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF50" t="s">
-        <v>163</v>
-      </c>
-      <c r="AG50" s="8">
+      <c r="AF50" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AG50" s="48">
         <v>2.3484464756202451E-3</v>
       </c>
-      <c r="AH50" s="9">
+      <c r="AH50" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD51" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE51" s="12" t="str">
+      <c r="AD51" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE51" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF51" t="s">
-        <v>164</v>
-      </c>
-      <c r="AG51" s="8">
+      <c r="AF51" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="AG51" s="48">
         <v>2.4124360007773756E-3</v>
       </c>
-      <c r="AH51" s="9">
+      <c r="AH51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
     <row r="52" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD52" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE52" s="12" t="str">
+      <c r="AD52" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE52" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF52" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG52" s="8">
+      <c r="AF52" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="AG52" s="48">
         <v>2.2399725827334173E-3</v>
       </c>
-      <c r="AH52" s="9">
+      <c r="AH52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
     <row r="53" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD53" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE53" s="12" t="str">
+      <c r="AD53" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE53" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF53" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG53" s="8">
+      <c r="AF53" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="AG53" s="48">
         <v>2.3663331133225518E-3</v>
       </c>
-      <c r="AH53" s="9">
+      <c r="AH53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
     <row r="54" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD54" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE54" s="12" t="str">
+      <c r="AD54" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE54" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF54" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG54" s="8">
+      <c r="AF54" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AG54" s="48">
         <v>2.8966005765197612E-3</v>
       </c>
-      <c r="AH54" s="9">
+      <c r="AH54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
     <row r="55" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD55" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE55" s="12" t="str">
+      <c r="AD55" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE55" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF55" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG55" s="8">
+      <c r="AF55" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="AG55" s="48">
         <v>3.1152079955055634E-3</v>
       </c>
-      <c r="AH55" s="9">
+      <c r="AH55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
     <row r="56" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD56" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE56" s="12" t="str">
+      <c r="AD56" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE56" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF56" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG56" s="8">
+      <c r="AF56" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AG56" s="48">
         <v>3.1182259692196785E-3</v>
       </c>
-      <c r="AH56" s="9">
+      <c r="AH56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
     <row r="57" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD57" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE57" s="12" t="str">
+      <c r="AD57" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE57" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF57" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG57" s="8">
+      <c r="AF57" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AG57" s="48">
         <v>3.0731870914146721E-3</v>
       </c>
-      <c r="AH57" s="9">
+      <c r="AH57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
     <row r="58" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD58" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE58" s="12" t="str">
+      <c r="AD58" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE58" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF58" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG58" s="8">
+      <c r="AF58" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="AG58" s="48">
         <v>3.1429734317050739E-3</v>
       </c>
-      <c r="AH58" s="9">
+      <c r="AH58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
     <row r="59" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD59" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE59" s="12" t="str">
+      <c r="AD59" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE59" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF59" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG59" s="8">
+      <c r="AF59" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG59" s="48">
         <v>3.4472722790434688E-3</v>
       </c>
-      <c r="AH59" s="9">
+      <c r="AH59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
     <row r="60" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD60" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE60" s="12" t="str">
+      <c r="AD60" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE60" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF60" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG60" s="8">
+      <c r="AF60" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AG60" s="48">
         <v>3.8185983771107991E-3</v>
       </c>
-      <c r="AH60" s="9">
+      <c r="AH60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
     <row r="61" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD61" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE61" s="12" t="str">
+      <c r="AD61" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE61" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF61" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG61" s="8">
+      <c r="AF61" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AG61" s="48">
         <v>4.2486300009030951E-3</v>
       </c>
-      <c r="AH61" s="9">
+      <c r="AH61" s="48">
         <v>0.13618056033452808</v>
       </c>
     </row>
     <row r="62" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD62" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE62" s="12" t="str">
+      <c r="AD62" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE62" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF62" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG62" s="8">
+      <c r="AF62" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AG62" s="48">
         <v>4.5602314239953819E-3</v>
       </c>
-      <c r="AH62" s="9">
+      <c r="AH62" s="48">
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
     <row r="63" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD63" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE63" s="12" t="str">
+      <c r="AD63" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE63" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF63" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG63" s="8">
+      <c r="AF63" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AG63" s="48">
         <v>4.7366406344324643E-3</v>
       </c>
-      <c r="AH63" s="9">
+      <c r="AH63" s="48">
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
     <row r="64" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD64" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE64" s="12" t="str">
+      <c r="AD64" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE64" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF64" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG64" s="8">
+      <c r="AF64" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AG64" s="48">
         <v>4.836532938944621E-3</v>
       </c>
-      <c r="AH64" s="9">
+      <c r="AH64" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="65" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD65" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE65" s="12" t="str">
+      <c r="AD65" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE65" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF65" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG65" s="8">
+      <c r="AF65" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="AG65" s="48">
         <v>4.6939429624645087E-3</v>
       </c>
-      <c r="AH65" s="9">
+      <c r="AH65" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD66" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE66" s="12" t="str">
+      <c r="AD66" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE66" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF66" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG66" s="8">
+      <c r="AF66" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="AG66" s="48">
         <v>4.4878132380958523E-3</v>
       </c>
-      <c r="AH66" s="9">
+      <c r="AH66" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD67" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE67" s="12" t="str">
+      <c r="AD67" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE67" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF67" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG67" s="8">
+      <c r="AF67" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="AG67" s="48">
         <v>4.0447641835712027E-3</v>
       </c>
-      <c r="AH67" s="9">
+      <c r="AH67" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="68" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD68" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE68" s="12" t="str">
+      <c r="AD68" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE68" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF68" t="s">
-        <v>181</v>
-      </c>
-      <c r="AG68" s="8">
+      <c r="AF68" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG68" s="48">
         <v>3.5120337976736293E-3</v>
       </c>
-      <c r="AH68" s="9">
+      <c r="AH68" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD69" s="1"/>
-      <c r="AE69" s="16"/>
+      <c r="AD69" s="38"/>
+      <c r="AE69" s="53"/>
     </row>
     <row r="70" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD70" s="1"/>
-      <c r="AE70" s="16"/>
+      <c r="AD70" s="38"/>
+      <c r="AE70" s="53"/>
     </row>
     <row r="71" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD71" s="1"/>
-      <c r="AE71" s="16"/>
+      <c r="AD71" s="38"/>
+      <c r="AE71" s="53"/>
     </row>
     <row r="72" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD72" s="1"/>
-      <c r="AE72" s="16"/>
+      <c r="AD72" s="38"/>
+      <c r="AE72" s="53"/>
     </row>
     <row r="73" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD73" s="1"/>
-      <c r="AE73" s="16"/>
+      <c r="AD73" s="38"/>
+      <c r="AE73" s="53"/>
     </row>
     <row r="74" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD74" s="1"/>
-      <c r="AE74" s="16"/>
+      <c r="AD74" s="38"/>
+      <c r="AE74" s="53"/>
     </row>
     <row r="75" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="1"/>
-      <c r="AE75" s="16"/>
+      <c r="AD75" s="38"/>
+      <c r="AE75" s="53"/>
     </row>
     <row r="76" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD76" s="1"/>
-      <c r="AE76" s="16"/>
+      <c r="AD76" s="38"/>
+      <c r="AE76" s="53"/>
     </row>
     <row r="77" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD77" s="1"/>
-      <c r="AE77" s="16"/>
+      <c r="AD77" s="38"/>
+      <c r="AE77" s="53"/>
     </row>
     <row r="78" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD78" s="1"/>
-      <c r="AE78" s="16"/>
+      <c r="AD78" s="38"/>
+      <c r="AE78" s="53"/>
     </row>
     <row r="79" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD79" s="1"/>
-      <c r="AE79" s="16"/>
+      <c r="AD79" s="38"/>
+      <c r="AE79" s="53"/>
     </row>
     <row r="80" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="1"/>
-      <c r="AE80" s="16"/>
+      <c r="AD80" s="38"/>
+      <c r="AE80" s="53"/>
     </row>
     <row r="81" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD81" s="1"/>
-      <c r="AE81" s="16"/>
+      <c r="AD81" s="38"/>
+      <c r="AE81" s="53"/>
     </row>
     <row r="82" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD82" s="1"/>
-      <c r="AE82" s="16"/>
+      <c r="AD82" s="38"/>
+      <c r="AE82" s="53"/>
     </row>
     <row r="83" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD83" s="1"/>
-      <c r="AE83" s="16"/>
+      <c r="AD83" s="38"/>
+      <c r="AE83" s="53"/>
     </row>
     <row r="84" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD84" s="1"/>
-      <c r="AE84" s="16"/>
+      <c r="AD84" s="38"/>
+      <c r="AE84" s="53"/>
     </row>
     <row r="85" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD85" s="1"/>
-      <c r="AE85" s="16"/>
+      <c r="AD85" s="38"/>
+      <c r="AE85" s="53"/>
     </row>
     <row r="86" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD86" s="1"/>
-      <c r="AE86" s="16"/>
+      <c r="AD86" s="38"/>
+      <c r="AE86" s="53"/>
     </row>
     <row r="87" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD87" s="1"/>
-      <c r="AE87" s="16"/>
+      <c r="AD87" s="38"/>
+      <c r="AE87" s="53"/>
     </row>
     <row r="88" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD88" s="1"/>
-      <c r="AE88" s="16"/>
+      <c r="AD88" s="38"/>
+      <c r="AE88" s="53"/>
     </row>
     <row r="89" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD89" s="1"/>
-      <c r="AE89" s="16"/>
+      <c r="AD89" s="38"/>
+      <c r="AE89" s="53"/>
     </row>
     <row r="90" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD90" s="1"/>
-      <c r="AE90" s="16"/>
+      <c r="AD90" s="38"/>
+      <c r="AE90" s="53"/>
     </row>
     <row r="91" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD91" s="1"/>
-      <c r="AE91" s="16"/>
+      <c r="AD91" s="38"/>
+      <c r="AE91" s="53"/>
     </row>
     <row r="92" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD92" s="1"/>
-      <c r="AE92" s="16"/>
+      <c r="AD92" s="38"/>
+      <c r="AE92" s="53"/>
     </row>
     <row r="93" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD93" s="1"/>
-      <c r="AE93" s="16"/>
+      <c r="AD93" s="38"/>
+      <c r="AE93" s="53"/>
     </row>
     <row r="94" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD94" s="1"/>
-      <c r="AE94" s="16"/>
+      <c r="AD94" s="38"/>
+      <c r="AE94" s="53"/>
     </row>
     <row r="95" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD95" s="1"/>
-      <c r="AE95" s="16"/>
+      <c r="AD95" s="38"/>
+      <c r="AE95" s="53"/>
     </row>
     <row r="96" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD96" s="1"/>
-      <c r="AE96" s="16"/>
+      <c r="AD96" s="38"/>
+      <c r="AE96" s="53"/>
     </row>
     <row r="97" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD97" s="1"/>
-      <c r="AE97" s="16"/>
+      <c r="AD97" s="38"/>
+      <c r="AE97" s="53"/>
     </row>
     <row r="98" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD98" s="1"/>
-      <c r="AE98" s="16"/>
+      <c r="AD98" s="38"/>
+      <c r="AE98" s="53"/>
     </row>
     <row r="99" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD99" s="1"/>
-      <c r="AE99" s="16"/>
+      <c r="AD99" s="38"/>
+      <c r="AE99" s="53"/>
     </row>
     <row r="100" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD100" s="1"/>
-      <c r="AE100" s="16"/>
+      <c r="AD100" s="38"/>
+      <c r="AE100" s="53"/>
     </row>
     <row r="101" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD101" s="1"/>
-      <c r="AE101" s="16"/>
+      <c r="AD101" s="38"/>
+      <c r="AE101" s="53"/>
     </row>
     <row r="102" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD102" s="1"/>
-      <c r="AE102" s="16"/>
+      <c r="AD102" s="38"/>
+      <c r="AE102" s="53"/>
     </row>
     <row r="103" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD103" s="1"/>
-      <c r="AE103" s="16"/>
+      <c r="AD103" s="38"/>
+      <c r="AE103" s="53"/>
     </row>
     <row r="104" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD104" s="1"/>
-      <c r="AE104" s="16"/>
+      <c r="AD104" s="38"/>
+      <c r="AE104" s="53"/>
     </row>
     <row r="105" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD105" s="1"/>
-      <c r="AE105" s="16"/>
+      <c r="AD105" s="38"/>
+      <c r="AE105" s="53"/>
     </row>
     <row r="106" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD106" s="1"/>
-      <c r="AE106" s="16"/>
+      <c r="AD106" s="38"/>
+      <c r="AE106" s="53"/>
     </row>
     <row r="107" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD107" s="1"/>
-      <c r="AE107" s="16"/>
+      <c r="AD107" s="38"/>
+      <c r="AE107" s="53"/>
     </row>
     <row r="108" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD108" s="1"/>
-      <c r="AE108" s="16"/>
+      <c r="AD108" s="38"/>
+      <c r="AE108" s="53"/>
     </row>
     <row r="109" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD109" s="1"/>
-      <c r="AE109" s="16"/>
+      <c r="AD109" s="38"/>
+      <c r="AE109" s="53"/>
     </row>
     <row r="110" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD110" s="1"/>
-      <c r="AE110" s="16"/>
+      <c r="AD110" s="38"/>
+      <c r="AE110" s="53"/>
     </row>
     <row r="111" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD111" s="1"/>
-      <c r="AE111" s="16"/>
+      <c r="AD111" s="38"/>
+      <c r="AE111" s="53"/>
     </row>
     <row r="112" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD112" s="1"/>
-      <c r="AE112" s="16"/>
+      <c r="AD112" s="38"/>
+      <c r="AE112" s="53"/>
     </row>
     <row r="113" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD113" s="1"/>
-      <c r="AE113" s="16"/>
+      <c r="AD113" s="38"/>
+      <c r="AE113" s="53"/>
     </row>
     <row r="114" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD114" s="1"/>
-      <c r="AE114" s="16"/>
+      <c r="AD114" s="38"/>
+      <c r="AE114" s="53"/>
     </row>
     <row r="115" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD115" s="1"/>
-      <c r="AE115" s="16"/>
+      <c r="AD115" s="38"/>
+      <c r="AE115" s="53"/>
     </row>
     <row r="116" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD116" s="1"/>
-      <c r="AE116" s="16"/>
+      <c r="AD116" s="38"/>
+      <c r="AE116" s="53"/>
     </row>
     <row r="117" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD117" s="1"/>
-      <c r="AE117" s="16"/>
+      <c r="AD117" s="38"/>
+      <c r="AE117" s="53"/>
     </row>
     <row r="118" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD118" s="1"/>
-      <c r="AE118" s="16"/>
+      <c r="AD118" s="38"/>
+      <c r="AE118" s="53"/>
     </row>
     <row r="119" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD119" s="1"/>
-      <c r="AE119" s="16"/>
+      <c r="AD119" s="38"/>
+      <c r="AE119" s="53"/>
     </row>
     <row r="120" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD120" s="1"/>
-      <c r="AE120" s="16"/>
+      <c r="AD120" s="38"/>
+      <c r="AE120" s="53"/>
     </row>
     <row r="121" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD121" s="1"/>
-      <c r="AE121" s="16"/>
+      <c r="AD121" s="38"/>
+      <c r="AE121" s="53"/>
     </row>
     <row r="122" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD122" s="1"/>
-      <c r="AE122" s="16"/>
+      <c r="AD122" s="38"/>
+      <c r="AE122" s="53"/>
     </row>
     <row r="123" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD123" s="1"/>
-      <c r="AE123" s="16"/>
+      <c r="AD123" s="38"/>
+      <c r="AE123" s="53"/>
     </row>
     <row r="124" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD124" s="1"/>
-      <c r="AE124" s="16"/>
+      <c r="AD124" s="38"/>
+      <c r="AE124" s="53"/>
     </row>
     <row r="125" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD125" s="1"/>
-      <c r="AE125" s="16"/>
+      <c r="AD125" s="38"/>
+      <c r="AE125" s="53"/>
     </row>
     <row r="126" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD126" s="1"/>
-      <c r="AE126" s="16"/>
+      <c r="AD126" s="38"/>
+      <c r="AE126" s="53"/>
     </row>
     <row r="127" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD127" s="1"/>
-      <c r="AE127" s="16"/>
+      <c r="AD127" s="38"/>
+      <c r="AE127" s="53"/>
     </row>
     <row r="128" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD128" s="1"/>
-      <c r="AE128" s="16"/>
+      <c r="AD128" s="38"/>
+      <c r="AE128" s="53"/>
     </row>
     <row r="129" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD129" s="1"/>
-      <c r="AE129" s="16"/>
+      <c r="AD129" s="38"/>
+      <c r="AE129" s="53"/>
     </row>
     <row r="130" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD130" s="1"/>
-      <c r="AE130" s="16"/>
+      <c r="AD130" s="38"/>
+      <c r="AE130" s="53"/>
     </row>
     <row r="131" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD131" s="1"/>
-      <c r="AE131" s="16"/>
+      <c r="AD131" s="38"/>
+      <c r="AE131" s="53"/>
     </row>
     <row r="132" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD132" s="1"/>
-      <c r="AE132" s="16"/>
+      <c r="AD132" s="38"/>
+      <c r="AE132" s="53"/>
     </row>
     <row r="133" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD133" s="1"/>
-      <c r="AE133" s="16"/>
+      <c r="AD133" s="38"/>
+      <c r="AE133" s="53"/>
     </row>
     <row r="134" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD134" s="1"/>
-      <c r="AE134" s="16"/>
+      <c r="AD134" s="38"/>
+      <c r="AE134" s="53"/>
     </row>
     <row r="135" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD135" s="1"/>
-      <c r="AE135" s="16"/>
+      <c r="AD135" s="38"/>
+      <c r="AE135" s="53"/>
     </row>
     <row r="136" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD136" s="1"/>
-      <c r="AE136" s="16"/>
+      <c r="AD136" s="38"/>
+      <c r="AE136" s="53"/>
     </row>
     <row r="137" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD137" s="1"/>
-      <c r="AE137" s="16"/>
+      <c r="AD137" s="38"/>
+      <c r="AE137" s="53"/>
     </row>
     <row r="138" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD138" s="1"/>
-      <c r="AE138" s="16"/>
+      <c r="AD138" s="38"/>
+      <c r="AE138" s="53"/>
     </row>
     <row r="139" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD139" s="1"/>
-      <c r="AE139" s="16"/>
+      <c r="AD139" s="38"/>
+      <c r="AE139" s="53"/>
     </row>
     <row r="140" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD140" s="1"/>
-      <c r="AE140" s="16"/>
+      <c r="AD140" s="38"/>
+      <c r="AE140" s="53"/>
     </row>
     <row r="141" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD141" s="1"/>
-      <c r="AE141" s="16"/>
+      <c r="AD141" s="38"/>
+      <c r="AE141" s="53"/>
     </row>
     <row r="142" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD142" s="1"/>
-      <c r="AE142" s="16"/>
+      <c r="AD142" s="38"/>
+      <c r="AE142" s="53"/>
     </row>
     <row r="143" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD143" s="1"/>
-      <c r="AE143" s="16"/>
+      <c r="AD143" s="38"/>
+      <c r="AE143" s="53"/>
     </row>
     <row r="144" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD144" s="1"/>
-      <c r="AE144" s="16"/>
+      <c r="AD144" s="38"/>
+      <c r="AE144" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F05F3E04-27BE-406A-BFA8-B0485EA6CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F05F3E04-27BE-406A-BFA8-B0485EA6CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C52B341-A48A-4645-9B30-FAEB8373D5B8}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -3207,8 +3207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4280,8 +4280,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AH144"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4309,7 +4309,9 @@
     <col min="25" max="25" width="8.42578125" style="48" customWidth="1"/>
     <col min="26" max="30" width="8.85546875" style="48"/>
     <col min="31" max="31" width="12.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="32" max="16384" width="8.85546875" style="48"/>
+    <col min="32" max="32" width="8.85546875" style="48"/>
+    <col min="33" max="33" width="13.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="34" max="16384" width="8.85546875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:26" ht="15" x14ac:dyDescent="0.25">
@@ -4736,7 +4738,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="34.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:34" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{F05F3E04-27BE-406A-BFA8-B0485EA6CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7C52B341-A48A-4645-9B30-FAEB8373D5B8}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F05F3E04-27BE-406A-BFA8-B0485EA6CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E5618E-7BF0-4A94-9969-6B75782E6C79}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="192">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2115,6 +2115,21 @@
   </si>
   <si>
     <t>Share-I~UP~2030</t>
+  </si>
+  <si>
+    <t>~TFM_UPD</t>
+  </si>
+  <si>
+    <t>REG</t>
+  </si>
+  <si>
+    <t>PROCESS</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>BioBoiler</t>
   </si>
 </sst>
 </file>
@@ -2432,7 +2447,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2582,6 +2597,8 @@
     <xf numFmtId="0" fontId="22" fillId="7" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="10" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Accent5" xfId="22" builtinId="46"/>
@@ -2918,6 +2935,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3207,7 +3228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="C9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -4280,8 +4301,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AH144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="N56" sqref="N56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6023,7 +6044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD49" s="38" t="s">
         <v>182</v>
       </c>
@@ -6041,7 +6062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD50" s="38" t="s">
         <v>182</v>
       </c>
@@ -6059,7 +6080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD51" s="38" t="s">
         <v>182</v>
       </c>
@@ -6077,7 +6098,20 @@
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B52" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="C52" s="79"/>
+      <c r="D52"/>
+      <c r="E52"/>
+      <c r="F52"/>
+      <c r="G52"/>
+      <c r="H52"/>
+      <c r="I52"/>
+      <c r="J52"/>
+      <c r="K52"/>
+      <c r="L52"/>
       <c r="AD52" s="38" t="s">
         <v>182</v>
       </c>
@@ -6095,7 +6129,40 @@
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="80" t="s">
+        <v>188</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="80">
+        <v>2022</v>
+      </c>
+      <c r="G53" s="80">
+        <v>2025</v>
+      </c>
+      <c r="H53" s="80">
+        <v>2030</v>
+      </c>
+      <c r="I53" s="80">
+        <v>2035</v>
+      </c>
+      <c r="J53" s="80">
+        <v>2040</v>
+      </c>
+      <c r="K53" s="80">
+        <v>2045</v>
+      </c>
+      <c r="L53" s="80">
+        <v>2050</v>
+      </c>
       <c r="AD53" s="38" t="s">
         <v>182</v>
       </c>
@@ -6113,7 +6180,28 @@
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54"/>
+      <c r="E54" t="s">
+        <v>190</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
       <c r="AD54" s="38" t="s">
         <v>182</v>
       </c>
@@ -6131,7 +6219,28 @@
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" t="s">
+        <v>93</v>
+      </c>
+      <c r="D55"/>
+      <c r="E55" t="s">
+        <v>190</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>0</v>
+      </c>
+      <c r="H55"/>
+      <c r="I55"/>
+      <c r="J55"/>
+      <c r="K55"/>
+      <c r="L55"/>
       <c r="AD55" s="38" t="s">
         <v>182</v>
       </c>
@@ -6149,7 +6258,28 @@
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>121</v>
+      </c>
+      <c r="C56" t="s">
+        <v>65</v>
+      </c>
+      <c r="D56"/>
+      <c r="E56" t="s">
+        <v>190</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56"/>
+      <c r="I56"/>
+      <c r="J56"/>
+      <c r="K56"/>
+      <c r="L56"/>
       <c r="AD56" s="38" t="s">
         <v>182</v>
       </c>
@@ -6167,7 +6297,28 @@
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>121</v>
+      </c>
+      <c r="C57" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" t="s">
+        <v>190</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
       <c r="AD57" s="38" t="s">
         <v>182</v>
       </c>
@@ -6185,7 +6336,28 @@
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" t="s">
+        <v>102</v>
+      </c>
+      <c r="D58"/>
+      <c r="E58" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58"/>
+      <c r="I58"/>
+      <c r="J58"/>
+      <c r="K58"/>
+      <c r="L58"/>
       <c r="AD58" s="38" t="s">
         <v>182</v>
       </c>
@@ -6203,7 +6375,28 @@
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>121</v>
+      </c>
+      <c r="C59" t="s">
+        <v>105</v>
+      </c>
+      <c r="D59"/>
+      <c r="E59" t="s">
+        <v>190</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>0</v>
+      </c>
+      <c r="H59"/>
+      <c r="I59"/>
+      <c r="J59"/>
+      <c r="K59"/>
+      <c r="L59"/>
       <c r="AD59" s="38" t="s">
         <v>182</v>
       </c>
@@ -6221,7 +6414,28 @@
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>121</v>
+      </c>
+      <c r="C60" t="s">
+        <v>66</v>
+      </c>
+      <c r="D60"/>
+      <c r="E60" t="s">
+        <v>190</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60"/>
+      <c r="I60"/>
+      <c r="J60"/>
+      <c r="K60"/>
+      <c r="L60"/>
       <c r="AD60" s="38" t="s">
         <v>182</v>
       </c>
@@ -6239,7 +6453,28 @@
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+      <c r="C61" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61"/>
+      <c r="E61" t="s">
+        <v>190</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61"/>
+      <c r="I61"/>
+      <c r="J61"/>
+      <c r="K61"/>
+      <c r="L61"/>
       <c r="AD61" s="38" t="s">
         <v>182</v>
       </c>
@@ -6257,7 +6492,7 @@
         <v>0.13618056033452808</v>
       </c>
     </row>
-    <row r="62" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD62" s="38" t="s">
         <v>182</v>
       </c>
@@ -6275,7 +6510,7 @@
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
-    <row r="63" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD63" s="38" t="s">
         <v>182</v>
       </c>
@@ -6293,7 +6528,7 @@
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
-    <row r="64" spans="30:34" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
       <c r="AD64" s="38" t="s">
         <v>182</v>
       </c>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{F05F3E04-27BE-406A-BFA8-B0485EA6CA9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{03E5618E-7BF0-4A94-9969-6B75782E6C79}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C80D85-93D0-45BF-827E-BED42B062841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2126,10 +2126,10 @@
     <t>PROCESS</t>
   </si>
   <si>
-    <t>CAP</t>
-  </si>
-  <si>
     <t>BioBoiler</t>
+  </si>
+  <si>
+    <t>CAP_BND.UP</t>
   </si>
 </sst>
 </file>
@@ -2935,10 +2935,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -4301,8 +4297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AH144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="N56" sqref="N56"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6188,8 +6184,8 @@
         <v>94</v>
       </c>
       <c r="D54"/>
-      <c r="E54" t="s">
-        <v>190</v>
+      <c r="E54" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="F54">
         <v>0</v>
@@ -6227,8 +6223,8 @@
         <v>93</v>
       </c>
       <c r="D55"/>
-      <c r="E55" t="s">
-        <v>190</v>
+      <c r="E55" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -6266,8 +6262,8 @@
         <v>65</v>
       </c>
       <c r="D56"/>
-      <c r="E56" t="s">
-        <v>190</v>
+      <c r="E56" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -6302,11 +6298,11 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
+        <v>190</v>
+      </c>
+      <c r="D57"/>
+      <c r="E57" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="D57"/>
-      <c r="E57" t="s">
-        <v>190</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -6344,8 +6340,8 @@
         <v>102</v>
       </c>
       <c r="D58"/>
-      <c r="E58" t="s">
-        <v>190</v>
+      <c r="E58" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -6383,8 +6379,8 @@
         <v>105</v>
       </c>
       <c r="D59"/>
-      <c r="E59" t="s">
-        <v>190</v>
+      <c r="E59" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -6422,8 +6418,8 @@
         <v>66</v>
       </c>
       <c r="D60"/>
-      <c r="E60" t="s">
-        <v>190</v>
+      <c r="E60" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -6461,8 +6457,8 @@
         <v>103</v>
       </c>
       <c r="D61"/>
-      <c r="E61" t="s">
-        <v>190</v>
+      <c r="E61" s="1" t="s">
+        <v>191</v>
       </c>
       <c r="F61">
         <v>0</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C80D85-93D0-45BF-827E-BED42B062841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878AF598-F4EE-469E-B3C7-C3D17FBAB849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="194">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2129,7 +2129,13 @@
     <t>BioBoiler</t>
   </si>
   <si>
-    <t>CAP_BND.UP</t>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>NCAP_BND</t>
+  </si>
+  <si>
+    <t>START</t>
   </si>
 </sst>
 </file>
@@ -3224,7 +3230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="C9" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -4295,10 +4301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AH144"/>
+  <dimension ref="B1:AH145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4609,7 +4615,7 @@
         <v>4</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>55</v>
+        <v>193</v>
       </c>
       <c r="F17" s="61" t="s">
         <v>186</v>
@@ -5007,7 +5013,7 @@
         <v>182</v>
       </c>
       <c r="AE22" s="39" t="str">
-        <f t="shared" ref="AE22:AE68" si="0">S$26</f>
+        <f t="shared" ref="AE22:AE69" si="0">S$26</f>
         <v>WNDTRBN</v>
       </c>
       <c r="AF22" s="69" t="s">
@@ -6125,79 +6131,56 @@
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B53" s="80" t="s">
+    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B53" s="79"/>
+      <c r="C53" s="79"/>
+      <c r="D53"/>
+      <c r="E53"/>
+      <c r="F53"/>
+      <c r="G53"/>
+      <c r="H53"/>
+      <c r="I53"/>
+      <c r="J53"/>
+      <c r="K53"/>
+      <c r="L53"/>
+      <c r="AD53" s="38"/>
+      <c r="AE53" s="39"/>
+      <c r="AF53" s="38"/>
+    </row>
+    <row r="54" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="80" t="s">
         <v>188</v>
       </c>
-      <c r="C53" s="80" t="s">
+      <c r="C54" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="D53" s="80" t="s">
+      <c r="D54" s="80" t="s">
         <v>11</v>
       </c>
-      <c r="E53" s="80" t="s">
+      <c r="E54" s="80" t="s">
         <v>130</v>
       </c>
-      <c r="F53" s="80">
+      <c r="F54" s="80">
         <v>2022</v>
       </c>
-      <c r="G53" s="80">
+      <c r="G54" s="80">
         <v>2025</v>
       </c>
-      <c r="H53" s="80">
+      <c r="H54" s="80">
         <v>2030</v>
       </c>
-      <c r="I53" s="80">
+      <c r="I54" s="80">
         <v>2035</v>
       </c>
-      <c r="J53" s="80">
+      <c r="J54" s="80">
         <v>2040</v>
       </c>
-      <c r="K53" s="80">
+      <c r="K54" s="80">
         <v>2045</v>
       </c>
-      <c r="L53" s="80">
+      <c r="L54" s="80">
         <v>2050</v>
       </c>
-      <c r="AD53" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE53" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
-      </c>
-      <c r="AF53" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG53" s="48">
-        <v>2.3663331133225518E-3</v>
-      </c>
-      <c r="AH53" s="48">
-        <v>0.15999428793309439</v>
-      </c>
-    </row>
-    <row r="54" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B54" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" t="s">
-        <v>94</v>
-      </c>
-      <c r="D54"/>
-      <c r="E54" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="F54">
-        <v>0</v>
-      </c>
-      <c r="G54">
-        <v>0</v>
-      </c>
-      <c r="H54"/>
-      <c r="I54"/>
-      <c r="J54"/>
-      <c r="K54"/>
-      <c r="L54"/>
       <c r="AD54" s="38" t="s">
         <v>182</v>
       </c>
@@ -6206,13 +6189,13 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF54" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AG54" s="48">
-        <v>2.8966005765197612E-3</v>
+        <v>2.3663331133225518E-3</v>
       </c>
       <c r="AH54" s="48">
-        <v>0.25343209199522099</v>
+        <v>0.15999428793309439</v>
       </c>
     </row>
     <row r="55" spans="2:34" x14ac:dyDescent="0.2">
@@ -6220,11 +6203,13 @@
         <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>93</v>
-      </c>
-      <c r="D55"/>
+        <v>94</v>
+      </c>
+      <c r="D55" t="s">
+        <v>191</v>
+      </c>
       <c r="E55" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -6245,13 +6230,13 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF55" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AG55" s="48">
-        <v>3.1152079955055634E-3</v>
+        <v>2.8966005765197612E-3</v>
       </c>
       <c r="AH55" s="48">
-        <v>0.32960197968936678</v>
+        <v>0.25343209199522099</v>
       </c>
     </row>
     <row r="56" spans="2:34" x14ac:dyDescent="0.2">
@@ -6259,11 +6244,13 @@
         <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
-      </c>
-      <c r="D56"/>
+        <v>93</v>
+      </c>
+      <c r="D56" t="s">
+        <v>191</v>
+      </c>
       <c r="E56" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -6284,13 +6271,13 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF56" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AG56" s="48">
-        <v>3.1182259692196785E-3</v>
+        <v>3.1152079955055634E-3</v>
       </c>
       <c r="AH56" s="48">
-        <v>0.37592762246117079</v>
+        <v>0.32960197968936678</v>
       </c>
     </row>
     <row r="57" spans="2:34" x14ac:dyDescent="0.2">
@@ -6298,11 +6285,13 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
-      </c>
-      <c r="D57"/>
+        <v>65</v>
+      </c>
+      <c r="D57" t="s">
+        <v>191</v>
+      </c>
       <c r="E57" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -6323,13 +6312,13 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF57" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AG57" s="48">
-        <v>3.0731870914146721E-3</v>
+        <v>3.1182259692196785E-3</v>
       </c>
       <c r="AH57" s="48">
-        <v>0.38776096057347664</v>
+        <v>0.37592762246117079</v>
       </c>
     </row>
     <row r="58" spans="2:34" x14ac:dyDescent="0.2">
@@ -6337,11 +6326,13 @@
         <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>102</v>
-      </c>
-      <c r="D58"/>
+        <v>190</v>
+      </c>
+      <c r="D58" t="s">
+        <v>191</v>
+      </c>
       <c r="E58" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -6362,13 +6353,13 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF58" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AG58" s="48">
-        <v>3.1429734317050739E-3</v>
+        <v>3.0731870914146721E-3</v>
       </c>
       <c r="AH58" s="48">
-        <v>0.36426783751493425</v>
+        <v>0.38776096057347664</v>
       </c>
     </row>
     <row r="59" spans="2:34" x14ac:dyDescent="0.2">
@@ -6376,11 +6367,13 @@
         <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>105</v>
-      </c>
-      <c r="D59"/>
+        <v>102</v>
+      </c>
+      <c r="D59" t="s">
+        <v>191</v>
+      </c>
       <c r="E59" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -6401,13 +6394,13 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF59" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AG59" s="48">
-        <v>3.4472722790434688E-3</v>
+        <v>3.1429734317050739E-3</v>
       </c>
       <c r="AH59" s="48">
-        <v>0.31009156033452806</v>
+        <v>0.36426783751493425</v>
       </c>
     </row>
     <row r="60" spans="2:34" x14ac:dyDescent="0.2">
@@ -6415,11 +6408,13 @@
         <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>66</v>
-      </c>
-      <c r="D60"/>
+        <v>105</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
       <c r="E60" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -6440,13 +6435,13 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF60" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AG60" s="48">
-        <v>3.8185983771107991E-3</v>
+        <v>3.4472722790434688E-3</v>
       </c>
       <c r="AH60" s="48">
-        <v>0.23188419952210276</v>
+        <v>0.31009156033452806</v>
       </c>
     </row>
     <row r="61" spans="2:34" x14ac:dyDescent="0.2">
@@ -6454,11 +6449,13 @@
         <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>103</v>
-      </c>
-      <c r="D61"/>
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>191</v>
+      </c>
       <c r="E61" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -6479,16 +6476,39 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF61" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AG61" s="48">
-        <v>4.2486300009030951E-3</v>
+        <v>3.8185983771107991E-3</v>
       </c>
       <c r="AH61" s="48">
-        <v>0.13618056033452808</v>
+        <v>0.23188419952210276</v>
       </c>
     </row>
     <row r="62" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>121</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" t="s">
+        <v>191</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62"/>
+      <c r="J62"/>
+      <c r="K62"/>
+      <c r="L62"/>
       <c r="AD62" s="38" t="s">
         <v>182</v>
       </c>
@@ -6497,13 +6517,13 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF62" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AG62" s="48">
-        <v>4.5602314239953819E-3</v>
+        <v>4.2486300009030951E-3</v>
       </c>
       <c r="AH62" s="48">
-        <v>4.9357593787335743E-2</v>
+        <v>0.13618056033452808</v>
       </c>
     </row>
     <row r="63" spans="2:34" x14ac:dyDescent="0.2">
@@ -6515,13 +6535,13 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF63" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AG63" s="48">
-        <v>4.7366406344324643E-3</v>
+        <v>4.5602314239953819E-3</v>
       </c>
       <c r="AH63" s="48">
-        <v>7.5268817204301086E-6</v>
+        <v>4.9357593787335743E-2</v>
       </c>
     </row>
     <row r="64" spans="2:34" x14ac:dyDescent="0.2">
@@ -6533,13 +6553,13 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF64" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AG64" s="48">
-        <v>4.836532938944621E-3</v>
+        <v>4.7366406344324643E-3</v>
       </c>
       <c r="AH64" s="48">
-        <v>0</v>
+        <v>7.5268817204301086E-6</v>
       </c>
     </row>
     <row r="65" spans="30:34" x14ac:dyDescent="0.2">
@@ -6551,10 +6571,10 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF65" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AG65" s="48">
-        <v>4.6939429624645087E-3</v>
+        <v>4.836532938944621E-3</v>
       </c>
       <c r="AH65" s="48">
         <v>0</v>
@@ -6569,10 +6589,10 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF66" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG66" s="48">
-        <v>4.4878132380958523E-3</v>
+        <v>4.6939429624645087E-3</v>
       </c>
       <c r="AH66" s="48">
         <v>0</v>
@@ -6587,10 +6607,10 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF67" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AG67" s="48">
-        <v>4.0447641835712027E-3</v>
+        <v>4.4878132380958523E-3</v>
       </c>
       <c r="AH67" s="48">
         <v>0</v>
@@ -6605,18 +6625,32 @@
         <v>WNDTRBN</v>
       </c>
       <c r="AF68" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AG68" s="48">
-        <v>3.5120337976736293E-3</v>
+        <v>4.0447641835712027E-3</v>
       </c>
       <c r="AH68" s="48">
         <v>0</v>
       </c>
     </row>
     <row r="69" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD69" s="38"/>
-      <c r="AE69" s="53"/>
+      <c r="AD69" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE69" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AF69" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AG69" s="48">
+        <v>3.5120337976736293E-3</v>
+      </c>
+      <c r="AH69" s="48">
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="30:34" x14ac:dyDescent="0.2">
       <c r="AD70" s="38"/>
@@ -6917,6 +6951,10 @@
     <row r="144" spans="30:31" x14ac:dyDescent="0.2">
       <c r="AD144" s="38"/>
       <c r="AE144" s="53"/>
+    </row>
+    <row r="145" spans="30:31" x14ac:dyDescent="0.2">
+      <c r="AD145" s="38"/>
+      <c r="AE145" s="53"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{878AF598-F4EE-469E-B3C7-C3D17FBAB849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{878AF598-F4EE-469E-B3C7-C3D17FBAB849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16DE8231-BACE-45EE-AEB2-64B22136CE16}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -826,7 +826,7 @@
     <author>Maurizio Gargiulo</author>
   </authors>
   <commentList>
-    <comment ref="Q3" authorId="0" shapeId="0" xr:uid="{55A1C4CC-2CE1-4EC9-89C3-19F6C183A19B}">
+    <comment ref="V3" authorId="0" shapeId="0" xr:uid="{55A1C4CC-2CE1-4EC9-89C3-19F6C183A19B}">
       <text>
         <r>
           <rPr>
@@ -940,7 +940,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V3" authorId="1" shapeId="0" xr:uid="{B2B38135-7F48-40C5-9C6D-9368B3BD2092}">
+    <comment ref="AA3" authorId="1" shapeId="0" xr:uid="{B2B38135-7F48-40C5-9C6D-9368B3BD2092}">
       <text>
         <r>
           <rPr>
@@ -966,7 +966,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W3" authorId="2" shapeId="0" xr:uid="{345773E6-DE00-4CE0-B8BB-8B089B629421}">
+    <comment ref="AB3" authorId="2" shapeId="0" xr:uid="{345773E6-DE00-4CE0-B8BB-8B089B629421}">
       <text>
         <r>
           <rPr>
@@ -1039,7 +1039,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X3" authorId="2" shapeId="0" xr:uid="{31DAF2B0-786F-4E95-9CBB-D182F2EED3B5}">
+    <comment ref="AC3" authorId="2" shapeId="0" xr:uid="{31DAF2B0-786F-4E95-9CBB-D182F2EED3B5}">
       <text>
         <r>
           <rPr>
@@ -1092,7 +1092,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y3" authorId="2" shapeId="0" xr:uid="{555C1793-7B9E-49B9-8EB3-17347BDEF241}">
+    <comment ref="AD3" authorId="2" shapeId="0" xr:uid="{555C1793-7B9E-49B9-8EB3-17347BDEF241}">
       <text>
         <r>
           <rPr>
@@ -1125,7 +1125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W17" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
+    <comment ref="AB17" authorId="2" shapeId="0" xr:uid="{5EE58488-723F-4683-9026-2F0EE70F8071}">
       <text>
         <r>
           <rPr>
@@ -1218,7 +1218,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X17" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
+    <comment ref="AC17" authorId="1" shapeId="0" xr:uid="{308E9284-8F99-498B-A3DD-262799AF67EB}">
       <text>
         <r>
           <rPr>
@@ -1243,7 +1243,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y17" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
+    <comment ref="AD17" authorId="2" shapeId="0" xr:uid="{FD29F772-15B8-47C4-8D7A-88CCF8F71647}">
       <text>
         <r>
           <rPr>
@@ -1306,7 +1306,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q18" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
+    <comment ref="V18" authorId="2" shapeId="0" xr:uid="{BAA0F8AB-741B-4302-9E54-000CB5DC4ACF}">
       <text>
         <r>
           <rPr>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="199">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2136,6 +2136,21 @@
   </si>
   <si>
     <t>START</t>
+  </si>
+  <si>
+    <t>Bound on new capacity</t>
+  </si>
+  <si>
+    <t>Share-I~UP~UP~2035</t>
+  </si>
+  <si>
+    <t>Share-I~UP~UP~2040</t>
+  </si>
+  <si>
+    <t>Share-I~UP~UP~2045</t>
+  </si>
+  <si>
+    <t>Share-I~UP~UP~2050</t>
   </si>
 </sst>
 </file>
@@ -2147,7 +2162,7 @@
     <numFmt numFmtId="165" formatCode="\Te\x\t"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2304,6 +2319,10 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -2453,7 +2472,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2605,6 +2624,12 @@
     <xf numFmtId="0" fontId="23" fillId="8" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Accent5" xfId="22" builtinId="46"/>
@@ -2768,7 +2793,7 @@
       <xdr:rowOff>65943</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>3771674</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>142143</xdr:rowOff>
@@ -3230,7 +3255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
@@ -4301,10 +4326,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AH145"/>
+  <dimension ref="B1:AM144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4319,25 +4344,27 @@
     <col min="8" max="8" width="7.85546875" style="48" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.140625" style="48" customWidth="1"/>
     <col min="10" max="10" width="12.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="8.140625" style="48" customWidth="1"/>
-    <col min="15" max="16" width="8.140625" style="49" customWidth="1"/>
-    <col min="17" max="17" width="12.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.140625" style="48" customWidth="1"/>
-    <col min="19" max="19" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="63.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.7109375" style="48" customWidth="1"/>
-    <col min="23" max="23" width="13.42578125" style="48" customWidth="1"/>
-    <col min="24" max="24" width="13.85546875" style="48" customWidth="1"/>
-    <col min="25" max="25" width="8.42578125" style="48" customWidth="1"/>
-    <col min="26" max="30" width="8.85546875" style="48"/>
-    <col min="31" max="31" width="12.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.85546875" style="48"/>
-    <col min="33" max="33" width="13.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="8.85546875" style="48"/>
+    <col min="11" max="12" width="8.140625" style="48" customWidth="1"/>
+    <col min="13" max="13" width="10.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.140625" style="48" customWidth="1"/>
+    <col min="20" max="21" width="8.140625" style="49" customWidth="1"/>
+    <col min="22" max="22" width="12.7109375" style="48" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.140625" style="48" customWidth="1"/>
+    <col min="24" max="24" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="63.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.28515625" style="48" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7109375" style="48" customWidth="1"/>
+    <col min="28" max="28" width="13.42578125" style="48" customWidth="1"/>
+    <col min="29" max="29" width="13.85546875" style="48" customWidth="1"/>
+    <col min="30" max="30" width="8.42578125" style="48" customWidth="1"/>
+    <col min="31" max="35" width="8.85546875" style="48"/>
+    <col min="36" max="36" width="12.42578125" style="48" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.85546875" style="48"/>
+    <col min="38" max="38" width="13.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.85546875" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:26" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:31" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" s="47" t="s">
         <v>38</v>
       </c>
@@ -4358,7 +4385,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="2:26" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B2" s="50" t="s">
         <v>98</v>
       </c>
@@ -4379,232 +4406,232 @@
       <c r="H2" s="50" t="s">
         <v>97</v>
       </c>
-      <c r="Q2" s="52" t="s">
+      <c r="V2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="R2" s="52"/>
-      <c r="S2" s="53"/>
-      <c r="T2" s="53"/>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-      <c r="W2" s="53"/>
+      <c r="W2" s="52"/>
       <c r="X2" s="53"/>
       <c r="Y2" s="53"/>
-    </row>
-    <row r="3" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q3" s="54" t="s">
+      <c r="Z2" s="53"/>
+      <c r="AA2" s="53"/>
+      <c r="AB2" s="53"/>
+      <c r="AC2" s="53"/>
+      <c r="AD2" s="53"/>
+    </row>
+    <row r="3" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="V3" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="R3" s="55" t="s">
+      <c r="W3" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="54" t="s">
+      <c r="X3" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="T3" s="54" t="s">
+      <c r="Y3" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="U3" s="54" t="s">
+      <c r="Z3" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="V3" s="54" t="s">
+      <c r="AA3" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="W3" s="54" t="s">
+      <c r="AB3" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="X3" s="54" t="s">
+      <c r="AC3" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="54" t="s">
+      <c r="AD3" s="54" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:26" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" ht="24" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
       <c r="G4" s="56"/>
-      <c r="Q4" s="31" t="s">
+      <c r="V4" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="W4" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="X4" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="Y4" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="Z4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="AA4" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="AB4" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="AC4" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="AD4" s="31" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
       <c r="G5" s="56"/>
-      <c r="Q5" s="42" t="s">
+      <c r="V5" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="R5" s="42"/>
-      <c r="S5" s="42" t="s">
+      <c r="W5" s="42"/>
+      <c r="X5" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="T5" s="42" t="s">
+      <c r="Y5" s="42" t="s">
         <v>114</v>
       </c>
-      <c r="U5" s="42" t="s">
+      <c r="Z5" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="V5" s="41"/>
-      <c r="W5" s="41"/>
-      <c r="X5" s="41"/>
-      <c r="Y5" s="41"/>
-      <c r="Z5" s="49"/>
-    </row>
-    <row r="6" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA5" s="41"/>
+      <c r="AB5" s="41"/>
+      <c r="AC5" s="41"/>
+      <c r="AD5" s="41"/>
+      <c r="AE5" s="49"/>
+    </row>
+    <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
       <c r="G6" s="56"/>
-      <c r="Q6" s="42" t="s">
+      <c r="V6" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="R6" s="42"/>
-      <c r="S6" s="42" t="s">
+      <c r="W6" s="42"/>
+      <c r="X6" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="Y6" s="42" t="s">
         <v>115</v>
       </c>
-      <c r="U6" s="42" t="s">
+      <c r="Z6" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="V6" s="57"/>
-      <c r="W6" s="57"/>
-      <c r="X6" s="57"/>
-      <c r="Y6" s="57"/>
-      <c r="Z6" s="49"/>
-    </row>
-    <row r="7" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA6" s="57"/>
+      <c r="AB6" s="57"/>
+      <c r="AC6" s="57"/>
+      <c r="AD6" s="57"/>
+      <c r="AE6" s="49"/>
+    </row>
+    <row r="7" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
       <c r="E7" s="56"/>
       <c r="F7" s="56"/>
       <c r="G7" s="56"/>
-      <c r="Q7" s="43" t="s">
+      <c r="V7" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="R7" s="43"/>
-      <c r="S7" s="43" t="s">
+      <c r="W7" s="43"/>
+      <c r="X7" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="T7" s="43" t="s">
+      <c r="Y7" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="U7" s="43" t="s">
+      <c r="Z7" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="57"/>
-      <c r="W7" s="57"/>
-      <c r="X7" s="57"/>
-      <c r="Y7" s="57"/>
-      <c r="Z7" s="49"/>
-    </row>
-    <row r="8" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AA7" s="57"/>
+      <c r="AB7" s="57"/>
+      <c r="AC7" s="57"/>
+      <c r="AD7" s="57"/>
+      <c r="AE7" s="49"/>
+    </row>
+    <row r="8" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
       <c r="E8" s="56"/>
       <c r="F8" s="56"/>
       <c r="G8" s="56"/>
-      <c r="Z8" s="49"/>
-    </row>
-    <row r="9" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE8" s="49"/>
+    </row>
+    <row r="9" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
       <c r="G9" s="56"/>
-      <c r="Z9" s="49"/>
-    </row>
-    <row r="10" spans="2:26" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AE9" s="49"/>
+    </row>
+    <row r="10" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
       <c r="E10" s="56"/>
       <c r="F10" s="56"/>
       <c r="G10" s="56"/>
-      <c r="Z10" s="49"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Z11" s="49"/>
-    </row>
-    <row r="13" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="53"/>
-      <c r="U13" s="53"/>
+      <c r="AE10" s="49"/>
+    </row>
+    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+      <c r="AE11" s="49"/>
+    </row>
+    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
       <c r="V13" s="53"/>
       <c r="W13" s="53"/>
       <c r="X13" s="53"/>
       <c r="Y13" s="53"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
-      <c r="S14" s="53"/>
-      <c r="T14" s="53"/>
-      <c r="U14" s="53"/>
+      <c r="Z13" s="53"/>
+      <c r="AA13" s="53"/>
+      <c r="AB13" s="53"/>
+      <c r="AC13" s="53"/>
+      <c r="AD13" s="53"/>
+    </row>
+    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
       <c r="V14" s="53"/>
       <c r="W14" s="53"/>
       <c r="X14" s="53"/>
       <c r="Y14" s="53"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="Z14" s="53"/>
+      <c r="AA14" s="53"/>
+      <c r="AB14" s="53"/>
+      <c r="AC14" s="53"/>
+      <c r="AD14" s="53"/>
+    </row>
+    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
       <c r="D16" s="58" t="s">
         <v>0</v>
       </c>
       <c r="E16" s="58"/>
       <c r="F16" s="58"/>
       <c r="H16" s="58"/>
-      <c r="Q16" s="52" t="s">
+      <c r="V16" s="52" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="52"/>
-      <c r="S16" s="53"/>
-      <c r="T16" s="53"/>
-      <c r="U16" s="53"/>
-      <c r="V16" s="53"/>
-      <c r="W16" s="53"/>
+      <c r="W16" s="52"/>
       <c r="X16" s="53"/>
       <c r="Y16" s="53"/>
-    </row>
-    <row r="17" spans="2:34" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z16" s="53"/>
+      <c r="AA16" s="53"/>
+      <c r="AB16" s="53"/>
+      <c r="AC16" s="53"/>
+      <c r="AD16" s="53"/>
+    </row>
+    <row r="17" spans="2:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4644,41 +4671,54 @@
       <c r="N17" s="62" t="s">
         <v>122</v>
       </c>
-      <c r="Q17" s="54" t="s">
+      <c r="O17" s="62" t="s">
+        <v>195</v>
+      </c>
+      <c r="P17" s="62" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q17" s="62" t="s">
+        <v>197</v>
+      </c>
+      <c r="R17" s="62" t="s">
+        <v>198</v>
+      </c>
+      <c r="S17" s="62"/>
+      <c r="V17" s="54" t="s">
         <v>15</v>
       </c>
-      <c r="R17" s="55" t="s">
+      <c r="W17" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="S17" s="54" t="s">
+      <c r="X17" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="T17" s="54" t="s">
+      <c r="Y17" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="U17" s="54" t="s">
+      <c r="Z17" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="V17" s="54" t="s">
+      <c r="AA17" s="54" t="s">
         <v>19</v>
       </c>
-      <c r="W17" s="54" t="s">
+      <c r="AB17" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="X17" s="54" t="s">
+      <c r="AC17" s="54" t="s">
         <v>21</v>
       </c>
-      <c r="Y17" s="54" t="s">
+      <c r="AD17" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AD17" s="63" t="s">
+      <c r="AI17" s="63" t="s">
         <v>181</v>
       </c>
-      <c r="AE17" s="38"/>
-      <c r="AF17" s="63"/>
-      <c r="AG17" s="38"/>
-    </row>
-    <row r="18" spans="2:34" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="63"/>
+      <c r="AL17" s="38"/>
+    </row>
+    <row r="18" spans="2:39" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4718,50 +4758,63 @@
       <c r="N18" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="Q18" s="31" t="s">
+      <c r="O18" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="P18" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q18" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="R18" s="81" t="s">
+        <v>194</v>
+      </c>
+      <c r="S18" s="81"/>
+      <c r="V18" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="R18" s="31" t="s">
+      <c r="W18" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="S18" s="31" t="s">
+      <c r="X18" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="T18" s="31" t="s">
+      <c r="Y18" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="U18" s="31" t="s">
+      <c r="Z18" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="V18" s="31" t="s">
+      <c r="AA18" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="W18" s="31" t="s">
+      <c r="AB18" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="X18" s="31" t="s">
+      <c r="AC18" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="Y18" s="31" t="s">
+      <c r="AD18" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="AD18" s="64" t="s">
+      <c r="AI18" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="AE18" s="64" t="s">
+      <c r="AJ18" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AF18" s="64" t="s">
+      <c r="AK18" s="64" t="s">
         <v>131</v>
       </c>
-      <c r="AG18" s="64" t="s">
+      <c r="AL18" s="64" t="s">
         <v>93</v>
       </c>
-      <c r="AH18" s="64" t="s">
+      <c r="AM18" s="64" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="2:34" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -4785,97 +4838,107 @@
       <c r="N19" s="36" t="s">
         <v>124</v>
       </c>
-      <c r="Q19" s="31" t="s">
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="82"/>
+      <c r="V19" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="R19" s="31"/>
-      <c r="S19" s="31"/>
-      <c r="T19" s="31"/>
-      <c r="U19" s="31"/>
-      <c r="V19" s="31"/>
       <c r="W19" s="31"/>
       <c r="X19" s="31"/>
       <c r="Y19" s="31"/>
-      <c r="AD19" s="44" t="s">
+      <c r="Z19" s="31"/>
+      <c r="AA19" s="31"/>
+      <c r="AB19" s="31"/>
+      <c r="AC19" s="31"/>
+      <c r="AD19" s="31"/>
+      <c r="AI19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AE19" s="44" t="s">
+      <c r="AJ19" s="44" t="s">
         <v>132</v>
       </c>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="44"/>
-      <c r="AH19" s="44"/>
-    </row>
-    <row r="20" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AK19" s="44"/>
+      <c r="AL19" s="44"/>
+      <c r="AM19" s="44"/>
+    </row>
+    <row r="20" spans="2:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="48" t="str">
-        <f>S20</f>
+        <f>X20</f>
         <v>Furnace</v>
       </c>
       <c r="C20" s="48" t="s">
         <v>69</v>
       </c>
       <c r="D20" s="53" t="str">
-        <f>S5</f>
+        <f>X5</f>
         <v>ELCHEAT</v>
       </c>
       <c r="E20" s="46">
         <v>2030</v>
       </c>
-      <c r="F20" s="46"/>
-      <c r="G20" s="46">
+      <c r="F20" s="74"/>
+      <c r="G20" s="70">
         <v>1</v>
       </c>
-      <c r="H20" s="46">
+      <c r="H20" s="70">
         <v>1</v>
       </c>
       <c r="I20" s="46">
         <v>25</v>
       </c>
-      <c r="J20" s="46">
+      <c r="J20" s="70">
         <v>81</v>
       </c>
-      <c r="K20" s="46">
+      <c r="K20" s="70">
         <v>0</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="70">
         <v>0.24</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="70">
         <v>8.76</v>
       </c>
       <c r="N20" s="46"/>
-      <c r="Q20" s="65" t="s">
+      <c r="O20" s="46"/>
+      <c r="P20" s="46"/>
+      <c r="Q20" s="46"/>
+      <c r="R20" s="74"/>
+      <c r="S20" s="46"/>
+      <c r="V20" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="R20" s="65"/>
-      <c r="S20" s="66" t="s">
+      <c r="W20" s="65"/>
+      <c r="X20" s="66" t="s">
         <v>66</v>
       </c>
-      <c r="T20" s="67" t="s">
+      <c r="Y20" s="67" t="s">
         <v>108</v>
       </c>
-      <c r="U20" s="48" t="s">
+      <c r="Z20" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V20" s="48" t="s">
+      <c r="AA20" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W20" s="68" t="s">
+      <c r="AB20" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="X20" s="49"/>
-      <c r="Y20" s="49"/>
-      <c r="AD20" s="45" t="s">
+      <c r="AC20" s="49"/>
+      <c r="AD20" s="49"/>
+      <c r="AI20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AE20" s="45"/>
-      <c r="AF20" s="45"/>
-      <c r="AG20" s="45"/>
-      <c r="AH20" s="44"/>
-    </row>
-    <row r="21" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="44"/>
+    </row>
+    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B21" s="48" t="str">
-        <f>S$21</f>
+        <f>X$21</f>
         <v>BIOBoiler</v>
       </c>
       <c r="C21" s="48" t="str">
@@ -4883,152 +4946,162 @@
         <v>MANBIOMIN</v>
       </c>
       <c r="D21" s="53" t="str">
-        <f>S6</f>
+        <f>X6</f>
         <v>BIOHEAT</v>
       </c>
       <c r="E21" s="46">
         <v>2030</v>
       </c>
-      <c r="F21" s="46"/>
-      <c r="G21" s="46">
+      <c r="F21" s="74"/>
+      <c r="G21" s="70">
         <v>0.8</v>
       </c>
-      <c r="H21" s="46">
-        <v>1</v>
+      <c r="H21" s="70">
+        <v>0.98</v>
       </c>
       <c r="I21" s="46">
         <v>25</v>
       </c>
-      <c r="J21" s="46">
+      <c r="J21" s="70">
         <v>797.9</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="70">
         <v>48.48</v>
       </c>
-      <c r="L21" s="46">
+      <c r="L21" s="70">
         <v>3.75</v>
       </c>
-      <c r="M21" s="46">
+      <c r="M21" s="70">
         <v>8.76</v>
       </c>
       <c r="N21" s="46"/>
-      <c r="Q21" s="65" t="s">
+      <c r="O21" s="46"/>
+      <c r="P21" s="46"/>
+      <c r="Q21" s="46"/>
+      <c r="R21" s="46"/>
+      <c r="S21" s="46"/>
+      <c r="V21" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="R21" s="65"/>
-      <c r="S21" s="66" t="s">
+      <c r="W21" s="65"/>
+      <c r="X21" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="T21" s="67" t="s">
+      <c r="Y21" s="67" t="s">
         <v>100</v>
       </c>
-      <c r="U21" s="48" t="s">
+      <c r="Z21" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V21" s="48" t="s">
+      <c r="AA21" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W21" s="68" t="s">
+      <c r="AB21" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="X21" s="49"/>
-      <c r="Y21" s="49"/>
-      <c r="AD21" s="38" t="s">
+      <c r="AC21" s="49"/>
+      <c r="AD21" s="49"/>
+      <c r="AI21" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE21" s="39" t="str">
-        <f>S$26</f>
+      <c r="AJ21" s="39" t="str">
+        <f>X$26</f>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF21" s="48" t="s">
+      <c r="AK21" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AG21" s="48">
+      <c r="AL21" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AH21" s="48">
+      <c r="AM21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B22" s="48" t="str">
-        <f>S24</f>
+        <f>X24</f>
         <v>ELCBoiler</v>
       </c>
       <c r="C22" s="48" t="s">
         <v>69</v>
       </c>
       <c r="D22" s="53" t="str">
-        <f>S5</f>
+        <f>X5</f>
         <v>ELCHEAT</v>
       </c>
       <c r="E22" s="46">
         <v>2030</v>
       </c>
-      <c r="F22" s="46"/>
-      <c r="G22" s="46">
+      <c r="F22" s="74"/>
+      <c r="G22" s="70">
         <v>0.8</v>
       </c>
-      <c r="H22" s="46">
+      <c r="H22" s="70">
         <v>1</v>
       </c>
       <c r="I22" s="46">
         <v>25</v>
       </c>
-      <c r="J22" s="46">
+      <c r="J22" s="70">
         <v>112.9</v>
       </c>
-      <c r="K22" s="46">
+      <c r="K22" s="70">
         <v>14.26</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="70">
         <v>1.22</v>
       </c>
-      <c r="M22" s="46">
+      <c r="M22" s="70">
         <v>8.76</v>
       </c>
       <c r="N22" s="46"/>
-      <c r="Q22" s="65" t="s">
+      <c r="O22" s="46"/>
+      <c r="P22" s="46"/>
+      <c r="Q22" s="46"/>
+      <c r="R22" s="46"/>
+      <c r="S22" s="46"/>
+      <c r="V22" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="R22" s="65"/>
-      <c r="S22" s="66" t="s">
+      <c r="W22" s="65"/>
+      <c r="X22" s="66" t="s">
         <v>102</v>
       </c>
-      <c r="T22" s="67" t="s">
+      <c r="Y22" s="67" t="s">
         <v>107</v>
       </c>
-      <c r="U22" s="48" t="s">
+      <c r="Z22" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V22" s="48" t="s">
+      <c r="AA22" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W22" s="68" t="s">
+      <c r="AB22" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="X22" s="49"/>
-      <c r="Y22" s="49"/>
-      <c r="AD22" s="38" t="s">
+      <c r="AC22" s="49"/>
+      <c r="AD22" s="49"/>
+      <c r="AI22" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE22" s="39" t="str">
-        <f t="shared" ref="AE22:AE69" si="0">S$26</f>
+      <c r="AJ22" s="39" t="str">
+        <f t="shared" ref="AJ22:AJ68" si="0">X$26</f>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF22" s="69" t="s">
+      <c r="AK22" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="AG22" s="48">
+      <c r="AL22" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AH22" s="48">
+      <c r="AM22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="48" t="str">
-        <f>S22</f>
+        <f>X22</f>
         <v>BIOKiln</v>
       </c>
       <c r="C23" s="48" t="str">
@@ -5041,68 +5114,73 @@
       <c r="E23" s="46">
         <v>2030</v>
       </c>
-      <c r="F23" s="46"/>
-      <c r="G23" s="46">
+      <c r="F23" s="74"/>
+      <c r="G23" s="70">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H23" s="46">
-        <v>1</v>
+      <c r="H23" s="70">
+        <v>0.98</v>
       </c>
       <c r="I23" s="46">
         <v>25</v>
       </c>
-      <c r="J23" s="46">
+      <c r="J23" s="70">
         <v>297.10000000000002</v>
       </c>
-      <c r="K23" s="46">
+      <c r="K23" s="70">
         <v>4.46</v>
       </c>
-      <c r="L23" s="46">
+      <c r="L23" s="70">
         <v>0.45</v>
       </c>
-      <c r="M23" s="46">
+      <c r="M23" s="70">
         <v>8.76</v>
       </c>
       <c r="N23" s="46"/>
-      <c r="Q23" s="65" t="s">
+      <c r="O23" s="46"/>
+      <c r="P23" s="46"/>
+      <c r="Q23" s="46"/>
+      <c r="R23" s="46"/>
+      <c r="S23" s="46"/>
+      <c r="V23" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="R23" s="65"/>
-      <c r="S23" s="66" t="s">
+      <c r="W23" s="65"/>
+      <c r="X23" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="T23" s="67" t="s">
+      <c r="Y23" s="67" t="s">
         <v>104</v>
       </c>
-      <c r="U23" s="48" t="s">
+      <c r="Z23" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V23" s="48" t="s">
+      <c r="AA23" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W23" s="68" t="s">
+      <c r="AB23" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="AD23" s="38" t="s">
+      <c r="AI23" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE23" s="39" t="str">
+      <c r="AJ23" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF23" s="48" t="s">
+      <c r="AK23" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AG23" s="48">
+      <c r="AL23" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AH23" s="49">
+      <c r="AM23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="53" t="str">
-        <f>S23</f>
+        <f>X23</f>
         <v>GASBoiler</v>
       </c>
       <c r="C24" s="48" t="str">
@@ -5115,68 +5193,73 @@
       <c r="E24" s="46">
         <v>2030</v>
       </c>
-      <c r="F24" s="46"/>
-      <c r="G24" s="46">
+      <c r="F24" s="74"/>
+      <c r="G24" s="70">
         <v>1</v>
       </c>
-      <c r="H24" s="46">
-        <v>1</v>
+      <c r="H24" s="70">
+        <v>0.99</v>
       </c>
       <c r="I24" s="46">
         <v>25</v>
       </c>
-      <c r="J24" s="46">
+      <c r="J24" s="70">
         <v>61.4</v>
       </c>
-      <c r="K24" s="46">
+      <c r="K24" s="70">
         <v>2.57</v>
       </c>
-      <c r="L24" s="46">
+      <c r="L24" s="70">
         <v>1.35</v>
       </c>
-      <c r="M24" s="46">
+      <c r="M24" s="70">
         <v>8.76</v>
       </c>
       <c r="N24" s="46"/>
-      <c r="Q24" s="65" t="s">
+      <c r="O24" s="46"/>
+      <c r="P24" s="46"/>
+      <c r="Q24" s="46"/>
+      <c r="R24" s="46"/>
+      <c r="S24" s="46"/>
+      <c r="V24" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="R24" s="65"/>
-      <c r="S24" s="66" t="s">
+      <c r="W24" s="65"/>
+      <c r="X24" s="66" t="s">
         <v>105</v>
       </c>
-      <c r="T24" s="67" t="s">
+      <c r="Y24" s="67" t="s">
         <v>106</v>
       </c>
-      <c r="U24" s="48" t="s">
+      <c r="Z24" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V24" s="48" t="s">
+      <c r="AA24" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W24" s="68" t="s">
+      <c r="AB24" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="AD24" s="38" t="s">
+      <c r="AI24" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE24" s="39" t="str">
+      <c r="AJ24" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF24" s="69" t="s">
+      <c r="AK24" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="AG24" s="48">
+      <c r="AL24" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AH24" s="49">
+      <c r="AM24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="53" t="str">
-        <f>S26</f>
+        <f>X26</f>
         <v>WNDTRBN</v>
       </c>
       <c r="C25" s="48"/>
@@ -5186,64 +5269,79 @@
       <c r="E25" s="46">
         <v>2030</v>
       </c>
-      <c r="F25" s="46"/>
-      <c r="G25" s="46"/>
-      <c r="H25" s="46">
+      <c r="F25" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="G25" s="70"/>
+      <c r="H25" s="70">
         <v>0.97</v>
       </c>
       <c r="I25" s="46">
         <v>25</v>
       </c>
-      <c r="J25" s="46">
+      <c r="J25" s="70">
         <v>1041</v>
       </c>
-      <c r="K25" s="46">
+      <c r="K25" s="70">
         <v>38</v>
       </c>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46">
+      <c r="L25" s="70"/>
+      <c r="M25" s="70">
         <v>8.76</v>
       </c>
-      <c r="N25" s="46"/>
-      <c r="Q25" s="65" t="s">
+      <c r="N25" s="74"/>
+      <c r="O25" s="70">
+        <v>0.23</v>
+      </c>
+      <c r="P25" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q25" s="70">
+        <v>0.38</v>
+      </c>
+      <c r="R25" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="S25" s="46"/>
+      <c r="V25" s="65" t="s">
         <v>110</v>
       </c>
-      <c r="R25" s="65"/>
-      <c r="S25" s="66" t="s">
+      <c r="W25" s="65"/>
+      <c r="X25" s="66" t="s">
         <v>65</v>
       </c>
-      <c r="T25" s="67" t="s">
+      <c r="Y25" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="U25" s="48" t="s">
+      <c r="Z25" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V25" s="48" t="s">
+      <c r="AA25" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W25" s="49" t="s">
+      <c r="AB25" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AD25" s="38" t="s">
+      <c r="AI25" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE25" s="39" t="str">
+      <c r="AJ25" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF25" s="48" t="s">
+      <c r="AK25" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="AG25" s="48">
+      <c r="AL25" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AH25" s="49">
+      <c r="AM25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="53" t="str">
-        <f>S27</f>
+        <f>X27</f>
         <v>SOLPV</v>
       </c>
       <c r="C26" s="48"/>
@@ -5253,136 +5351,166 @@
       <c r="E26" s="46">
         <v>2030</v>
       </c>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="46">
+      <c r="F26" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70">
         <v>0.99</v>
       </c>
       <c r="I26" s="46">
         <v>25</v>
       </c>
-      <c r="J26" s="46">
+      <c r="J26" s="70">
         <v>691</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="70">
         <v>6.99</v>
       </c>
-      <c r="L26" s="46"/>
-      <c r="M26" s="46">
+      <c r="L26" s="70"/>
+      <c r="M26" s="70">
         <v>8.76</v>
       </c>
-      <c r="N26" s="46"/>
-      <c r="Q26" s="65" t="s">
+      <c r="N26" s="74"/>
+      <c r="O26" s="70">
+        <v>0.23</v>
+      </c>
+      <c r="P26" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q26" s="70">
+        <v>0.38</v>
+      </c>
+      <c r="R26" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="S26" s="46"/>
+      <c r="V26" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="R26" s="65"/>
-      <c r="S26" s="66" t="s">
+      <c r="W26" s="65"/>
+      <c r="X26" s="66" t="s">
         <v>93</v>
       </c>
-      <c r="T26" s="67" t="s">
+      <c r="Y26" s="67" t="s">
         <v>96</v>
       </c>
-      <c r="U26" s="48" t="s">
+      <c r="Z26" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V26" s="48" t="s">
+      <c r="AA26" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W26" s="49" t="s">
+      <c r="AB26" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AD26" s="38" t="s">
+      <c r="AI26" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE26" s="39" t="str">
+      <c r="AJ26" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF26" s="69" t="s">
+      <c r="AK26" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="AG26" s="48">
+      <c r="AL26" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AH26" s="49">
+      <c r="AM26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="53" t="str">
-        <f>S25</f>
+        <f>X25</f>
         <v>CSP</v>
       </c>
       <c r="C27" s="48"/>
       <c r="D27" s="53" t="str">
-        <f>S7</f>
+        <f>X7</f>
         <v>SOLHEAT</v>
       </c>
       <c r="E27" s="46">
         <v>2030</v>
       </c>
-      <c r="F27" s="46"/>
-      <c r="G27" s="46"/>
-      <c r="H27" s="46">
+      <c r="F27" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="G27" s="70"/>
+      <c r="H27" s="70">
         <v>1</v>
       </c>
       <c r="I27" s="46">
         <v>25</v>
       </c>
-      <c r="J27" s="46">
+      <c r="J27" s="70">
         <v>3677</v>
       </c>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46">
+      <c r="K27" s="70"/>
+      <c r="L27" s="70">
         <v>14</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="70">
         <v>8.76</v>
       </c>
-      <c r="N27" s="46"/>
-      <c r="Q27" s="65" t="s">
+      <c r="N27" s="74"/>
+      <c r="O27" s="70">
+        <v>0.23</v>
+      </c>
+      <c r="P27" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q27" s="70">
+        <v>0.38</v>
+      </c>
+      <c r="R27" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="S27" s="46"/>
+      <c r="V27" s="65" t="s">
         <v>69</v>
       </c>
-      <c r="R27" s="65"/>
-      <c r="S27" s="66" t="s">
+      <c r="W27" s="65"/>
+      <c r="X27" s="66" t="s">
         <v>94</v>
       </c>
-      <c r="T27" s="67" t="s">
+      <c r="Y27" s="67" t="s">
         <v>95</v>
       </c>
-      <c r="U27" s="48" t="s">
+      <c r="Z27" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V27" s="48" t="s">
+      <c r="AA27" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W27" s="49" t="s">
+      <c r="AB27" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="AD27" s="38" t="s">
+      <c r="AI27" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE27" s="39" t="str">
+      <c r="AJ27" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF27" s="48" t="s">
+      <c r="AK27" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="AG27" s="48">
+      <c r="AL27" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AH27" s="49">
+      <c r="AM27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="48" t="str">
-        <f>S28</f>
+        <f>X28</f>
         <v>RNWHEAT</v>
       </c>
       <c r="C28" s="53" t="str">
-        <f>S5</f>
+        <f>X5</f>
         <v>ELCHEAT</v>
       </c>
       <c r="D28" s="53" t="s">
@@ -5391,68 +5519,83 @@
       <c r="E28" s="46">
         <v>2030</v>
       </c>
-      <c r="F28" s="46"/>
-      <c r="G28" s="46">
+      <c r="F28" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="70">
         <v>1</v>
       </c>
-      <c r="H28" s="46">
+      <c r="H28" s="70">
         <v>1</v>
       </c>
       <c r="I28" s="46"/>
-      <c r="J28" s="46">
+      <c r="J28" s="70">
         <v>0</v>
       </c>
-      <c r="K28" s="46"/>
-      <c r="L28" s="46"/>
-      <c r="M28" s="46">
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70">
         <v>8.76</v>
       </c>
-      <c r="N28" s="46"/>
-      <c r="Q28" s="48" t="s">
+      <c r="N28" s="74"/>
+      <c r="O28" s="70">
+        <v>0.23</v>
+      </c>
+      <c r="P28" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q28" s="70">
+        <v>0.38</v>
+      </c>
+      <c r="R28" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="S28" s="46"/>
+      <c r="V28" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="R28" s="48"/>
-      <c r="S28" s="48" t="s">
+      <c r="W28" s="48"/>
+      <c r="X28" s="48" t="s">
         <v>126</v>
       </c>
-      <c r="T28" s="48" t="s">
+      <c r="Y28" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="U28" s="48" t="s">
+      <c r="Z28" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="V28" s="48" t="s">
+      <c r="AA28" s="48" t="s">
         <v>87</v>
       </c>
-      <c r="W28" s="49" t="s">
+      <c r="AB28" s="49" t="s">
         <v>88</v>
       </c>
-      <c r="X28" s="48"/>
-      <c r="Y28" s="48"/>
-      <c r="AD28" s="38" t="s">
+      <c r="AC28" s="48"/>
+      <c r="AD28" s="48"/>
+      <c r="AI28" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE28" s="39" t="str">
+      <c r="AJ28" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF28" s="69" t="s">
+      <c r="AK28" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AG28" s="48">
+      <c r="AL28" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AH28" s="49">
+      <c r="AM28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="48" t="str">
-        <f>S28</f>
+        <f>X28</f>
         <v>RNWHEAT</v>
       </c>
       <c r="C29" s="53" t="str">
-        <f>S6</f>
+        <f>X6</f>
         <v>BIOHEAT</v>
       </c>
       <c r="D29" s="53" t="s">
@@ -5461,47 +5604,62 @@
       <c r="E29" s="46">
         <v>2030</v>
       </c>
-      <c r="F29" s="46"/>
-      <c r="G29" s="46">
+      <c r="F29" s="74">
+        <v>0.1</v>
+      </c>
+      <c r="G29" s="70">
         <v>1</v>
       </c>
-      <c r="H29" s="46">
+      <c r="H29" s="70">
         <v>1</v>
       </c>
       <c r="I29" s="46"/>
-      <c r="J29" s="46">
+      <c r="J29" s="70">
         <v>0</v>
       </c>
-      <c r="K29" s="46"/>
-      <c r="L29" s="46"/>
-      <c r="M29" s="46">
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70">
         <v>8.76</v>
       </c>
-      <c r="N29" s="46"/>
-      <c r="AD29" s="38" t="s">
+      <c r="N29" s="74"/>
+      <c r="O29" s="70">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="P29" s="70">
+        <v>0.22</v>
+      </c>
+      <c r="Q29" s="70">
+        <v>0.34</v>
+      </c>
+      <c r="R29" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="S29" s="46"/>
+      <c r="AI29" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE29" s="39" t="str">
+      <c r="AJ29" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF29" s="48" t="s">
+      <c r="AK29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="AG29" s="48">
+      <c r="AL29" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AH29" s="49">
+      <c r="AM29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="48" t="str">
-        <f>S28</f>
+        <f>X28</f>
         <v>RNWHEAT</v>
       </c>
       <c r="C30" s="53" t="str">
-        <f>S7</f>
+        <f>X7</f>
         <v>SOLHEAT</v>
       </c>
       <c r="D30" s="53" t="s">
@@ -5510,52 +5668,67 @@
       <c r="E30" s="46">
         <v>2030</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46">
+      <c r="F30" s="74">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="70">
         <v>1</v>
       </c>
-      <c r="H30" s="46">
+      <c r="H30" s="70">
         <v>1</v>
       </c>
       <c r="I30" s="46"/>
-      <c r="J30" s="46">
+      <c r="J30" s="70">
         <v>0</v>
       </c>
-      <c r="K30" s="46"/>
-      <c r="L30" s="46"/>
-      <c r="M30" s="46">
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70">
         <v>8.76</v>
       </c>
-      <c r="N30" s="46"/>
-      <c r="Q30" s="48"/>
-      <c r="R30" s="48"/>
-      <c r="S30" s="48"/>
-      <c r="T30" s="48"/>
-      <c r="U30" s="48"/>
+      <c r="N30" s="74"/>
+      <c r="O30" s="70">
+        <v>0.23</v>
+      </c>
+      <c r="P30" s="70">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="Q30" s="70">
+        <v>0.38</v>
+      </c>
+      <c r="R30" s="74">
+        <v>0.5</v>
+      </c>
+      <c r="S30" s="46"/>
       <c r="V30" s="48"/>
       <c r="W30" s="48"/>
       <c r="X30" s="48"/>
       <c r="Y30" s="48"/>
-      <c r="AD30" s="38" t="s">
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AI30" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE30" s="39" t="str">
+      <c r="AJ30" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF30" s="69" t="s">
+      <c r="AK30" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="AG30" s="48">
+      <c r="AL30" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AH30" s="49">
+      <c r="AM30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="53" t="str">
-        <f>S23</f>
+        <f>X23</f>
         <v>GASBoiler</v>
       </c>
       <c r="C31" s="53"/>
@@ -5565,149 +5738,152 @@
       <c r="E31" s="46">
         <v>2030</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46">
+      <c r="F31" s="74"/>
+      <c r="G31" s="70"/>
+      <c r="H31" s="70">
         <v>1</v>
       </c>
       <c r="I31" s="46"/>
-      <c r="J31" s="46">
+      <c r="J31" s="70">
         <v>0</v>
       </c>
-      <c r="K31" s="46"/>
-      <c r="L31" s="46"/>
-      <c r="M31" s="46">
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70">
         <v>8.76</v>
       </c>
-      <c r="N31" s="46">
-        <v>0.20200000000000001</v>
-      </c>
-      <c r="Q31" s="48"/>
-      <c r="R31" s="48"/>
-      <c r="S31" s="48"/>
-      <c r="T31" s="48"/>
-      <c r="U31" s="48"/>
+      <c r="N31" s="46"/>
+      <c r="O31" s="46"/>
+      <c r="P31" s="46"/>
+      <c r="Q31" s="46"/>
+      <c r="R31" s="46"/>
+      <c r="S31" s="46"/>
       <c r="V31" s="48"/>
       <c r="W31" s="48"/>
       <c r="X31" s="48"/>
       <c r="Y31" s="48"/>
-      <c r="AD31" s="38" t="s">
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AI31" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE31" s="39" t="str">
+      <c r="AJ31" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF31" s="48" t="s">
+      <c r="AK31" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="AG31" s="48">
+      <c r="AL31" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AH31" s="49">
+      <c r="AM31" s="49">
         <v>0.27468446594982077</v>
       </c>
     </row>
-    <row r="32" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
       <c r="E32" s="70"/>
       <c r="F32" s="71"/>
       <c r="K32" s="48"/>
-      <c r="Q32" s="48"/>
-      <c r="R32" s="48"/>
-      <c r="S32" s="48"/>
-      <c r="T32" s="48"/>
-      <c r="U32" s="48"/>
       <c r="V32" s="48"/>
       <c r="W32" s="48"/>
       <c r="X32" s="48"/>
       <c r="Y32" s="48"/>
-      <c r="AD32" s="38" t="s">
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AI32" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE32" s="39" t="str">
+      <c r="AJ32" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF32" s="69" t="s">
+      <c r="AK32" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="AG32" s="48">
+      <c r="AL32" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AH32" s="49">
+      <c r="AM32" s="49">
         <v>0.32637437275985665</v>
       </c>
     </row>
-    <row r="33" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
       <c r="E33" s="70"/>
       <c r="F33" s="71"/>
       <c r="K33" s="48"/>
-      <c r="Q33" s="48"/>
-      <c r="R33" s="48"/>
-      <c r="S33" s="48"/>
-      <c r="T33" s="48"/>
-      <c r="U33" s="48"/>
       <c r="V33" s="48"/>
       <c r="W33" s="48"/>
       <c r="X33" s="48"/>
       <c r="Y33" s="48"/>
-      <c r="AD33" s="38" t="s">
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AI33" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE33" s="39" t="str">
+      <c r="AJ33" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF33" s="48" t="s">
+      <c r="AK33" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="AG33" s="48">
+      <c r="AL33" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AH33" s="49">
+      <c r="AM33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
       <c r="E34" s="70"/>
       <c r="F34" s="71"/>
       <c r="K34" s="48"/>
-      <c r="Q34" s="48"/>
-      <c r="R34" s="48"/>
-      <c r="S34" s="48"/>
-      <c r="T34" s="48"/>
-      <c r="U34" s="48"/>
       <c r="V34" s="48"/>
       <c r="W34" s="48"/>
       <c r="X34" s="48"/>
       <c r="Y34" s="48"/>
-      <c r="AD34" s="38" t="s">
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AI34" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE34" s="39" t="str">
+      <c r="AJ34" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF34" s="69" t="s">
+      <c r="AK34" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="AG34" s="48">
+      <c r="AL34" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AH34" s="49">
+      <c r="AM34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -5715,33 +5891,33 @@
       <c r="F35" s="71"/>
       <c r="J35" s="72"/>
       <c r="K35" s="48"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="38"/>
-      <c r="S35" s="39"/>
-      <c r="T35" s="40"/>
-      <c r="U35" s="38"/>
       <c r="V35" s="38"/>
       <c r="W35" s="38"/>
-      <c r="X35" s="48"/>
-      <c r="Y35" s="48"/>
-      <c r="AD35" s="38" t="s">
+      <c r="X35" s="39"/>
+      <c r="Y35" s="40"/>
+      <c r="Z35" s="38"/>
+      <c r="AA35" s="38"/>
+      <c r="AB35" s="38"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AI35" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE35" s="39" t="str">
+      <c r="AJ35" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF35" s="48" t="s">
+      <c r="AK35" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="AG35" s="48">
+      <c r="AL35" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AH35" s="49">
+      <c r="AM35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -5752,33 +5928,33 @@
       <c r="I36" s="48"/>
       <c r="J36" s="74"/>
       <c r="K36" s="48"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="38"/>
-      <c r="S36" s="39"/>
-      <c r="T36" s="40"/>
-      <c r="U36" s="38"/>
       <c r="V36" s="38"/>
       <c r="W36" s="38"/>
-      <c r="X36" s="48"/>
-      <c r="Y36" s="48"/>
-      <c r="AD36" s="38" t="s">
+      <c r="X36" s="39"/>
+      <c r="Y36" s="40"/>
+      <c r="Z36" s="38"/>
+      <c r="AA36" s="38"/>
+      <c r="AB36" s="38"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="48"/>
+      <c r="AI36" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE36" s="39" t="str">
+      <c r="AJ36" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF36" s="69" t="s">
+      <c r="AK36" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="AG36" s="48">
+      <c r="AL36" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AH36" s="49">
+      <c r="AM36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:34" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -5789,123 +5965,123 @@
       <c r="I37" s="48"/>
       <c r="J37" s="74"/>
       <c r="K37" s="48"/>
-      <c r="Q37" s="48"/>
-      <c r="R37" s="48"/>
-      <c r="S37" s="48"/>
-      <c r="T37" s="48"/>
-      <c r="U37" s="53"/>
-      <c r="V37" s="53"/>
-      <c r="W37" s="68"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
       <c r="X37" s="48"/>
       <c r="Y37" s="48"/>
-      <c r="AD37" s="38" t="s">
+      <c r="Z37" s="53"/>
+      <c r="AA37" s="53"/>
+      <c r="AB37" s="68"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AI37" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE37" s="39" t="str">
+      <c r="AJ37" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF37" s="48" t="s">
+      <c r="AK37" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AG37" s="48">
+      <c r="AL37" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AH37" s="49">
+      <c r="AM37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
-      <c r="R38" s="49"/>
-      <c r="T38" s="49"/>
-      <c r="U38" s="57"/>
-      <c r="V38" s="57"/>
-      <c r="AD38" s="38" t="s">
+      <c r="W38" s="49"/>
+      <c r="Y38" s="49"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="57"/>
+      <c r="AI38" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE38" s="39" t="str">
+      <c r="AJ38" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF38" s="69" t="s">
+      <c r="AK38" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="AG38" s="48">
+      <c r="AL38" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AH38" s="48">
+      <c r="AM38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
       <c r="H39" s="75"/>
-      <c r="AD39" s="38" t="s">
+      <c r="AI39" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE39" s="39" t="str">
+      <c r="AJ39" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF39" s="48" t="s">
+      <c r="AK39" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="AG39" s="48">
+      <c r="AL39" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AH39" s="48">
+      <c r="AM39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
       </c>
       <c r="H40" s="75"/>
-      <c r="AD40" s="38" t="s">
+      <c r="AI40" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE40" s="39" t="str">
+      <c r="AJ40" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF40" s="69" t="s">
+      <c r="AK40" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="AG40" s="48">
+      <c r="AL40" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AH40" s="48">
+      <c r="AM40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="75"/>
-      <c r="AD41" s="38" t="s">
+      <c r="AI41" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE41" s="39" t="str">
+      <c r="AJ41" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF41" s="48" t="s">
+      <c r="AK41" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="AG41" s="48">
+      <c r="AL41" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AH41" s="48">
+      <c r="AM41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -5913,42 +6089,42 @@
         <v>90</v>
       </c>
       <c r="H42" s="75"/>
-      <c r="AD42" s="38" t="s">
+      <c r="AI42" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE42" s="39" t="str">
+      <c r="AJ42" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF42" s="69" t="s">
+      <c r="AK42" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="AG42" s="48">
+      <c r="AL42" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AH42" s="48">
+      <c r="AM42" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD43" s="38" t="s">
+    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AI43" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE43" s="39" t="str">
+      <c r="AJ43" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF43" s="48" t="s">
+      <c r="AK43" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AG43" s="48">
+      <c r="AL43" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AH43" s="48">
+      <c r="AM43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -5956,151 +6132,151 @@
         <f>24*365</f>
         <v>8760</v>
       </c>
-      <c r="AD44" s="38" t="s">
+      <c r="AI44" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE44" s="39" t="str">
+      <c r="AJ44" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF44" s="69" t="s">
+      <c r="AK44" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="AG44" s="48">
+      <c r="AL44" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AH44" s="48">
+      <c r="AM44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
       <c r="E45" s="46"/>
-      <c r="AD45" s="38" t="s">
+      <c r="AI45" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE45" s="39" t="str">
+      <c r="AJ45" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF45" s="38" t="s">
+      <c r="AK45" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AG45" s="48">
-        <v>3.030827569122875E-3</v>
-      </c>
-      <c r="AH45" s="48">
+      <c r="AL45" s="48">
+        <v>3.3051976250754521E-3</v>
+      </c>
+      <c r="AM45" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD46" s="38" t="s">
+    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AI46" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE46" s="39" t="str">
+      <c r="AJ46" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF46" s="38" t="s">
+      <c r="AK46" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AG46" s="48">
-        <v>2.7479296595765089E-3</v>
-      </c>
-      <c r="AH46" s="48">
+      <c r="AL46" s="48">
+        <v>3.1618331753269246E-3</v>
+      </c>
+      <c r="AM46" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD47" s="38" t="s">
+    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AI47" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE47" s="39" t="str">
+      <c r="AJ47" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF47" s="38" t="s">
+      <c r="AK47" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AG47" s="48">
-        <v>2.5373694178364601E-3</v>
-      </c>
-      <c r="AH47" s="48">
+      <c r="AL47" s="48">
+        <v>2.8979409360310663E-3</v>
+      </c>
+      <c r="AM47" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD48" s="38" t="s">
+    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AI48" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE48" s="39" t="str">
+      <c r="AJ48" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF48" s="38" t="s">
+      <c r="AK48" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AG48" s="48">
-        <v>2.3562266756271813E-3</v>
-      </c>
-      <c r="AH48" s="48">
+      <c r="AL48" s="48">
+        <v>2.7156926103261707E-3</v>
+      </c>
+      <c r="AM48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD49" s="38" t="s">
+    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AI49" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE49" s="39" t="str">
+      <c r="AJ49" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF49" s="38" t="s">
+      <c r="AK49" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AG49" s="48">
-        <v>2.2781297107044287E-3</v>
-      </c>
-      <c r="AH49" s="48">
+      <c r="AL49" s="48">
+        <v>2.5452192095824343E-3</v>
+      </c>
+      <c r="AM49" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD50" s="38" t="s">
+    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AI50" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE50" s="39" t="str">
+      <c r="AJ50" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF50" s="38" t="s">
+      <c r="AK50" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AG50" s="48">
-        <v>2.3484464756202451E-3</v>
-      </c>
-      <c r="AH50" s="48">
+      <c r="AL50" s="48">
+        <v>2.5834450529081338E-3</v>
+      </c>
+      <c r="AM50" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD51" s="38" t="s">
+    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AI51" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE51" s="39" t="str">
+      <c r="AJ51" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF51" s="38" t="s">
+      <c r="AK51" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AG51" s="48">
-        <v>2.4124360007773756E-3</v>
-      </c>
-      <c r="AH51" s="48">
+      <c r="AL51" s="48">
+        <v>2.7432881310744317E-3</v>
+      </c>
+      <c r="AM51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B52" s="79" t="s">
         <v>187</v>
       </c>
@@ -6114,24 +6290,24 @@
       <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
-      <c r="AD52" s="38" t="s">
+      <c r="AI52" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE52" s="39" t="str">
+      <c r="AJ52" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF52" s="38" t="s">
+      <c r="AK52" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AG52" s="48">
-        <v>2.2399725827334173E-3</v>
-      </c>
-      <c r="AH52" s="48">
+      <c r="AL52" s="48">
+        <v>2.8314721319216154E-3</v>
+      </c>
+      <c r="AM52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
       <c r="D53"/>
@@ -6143,11 +6319,24 @@
       <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
-      <c r="AD53" s="38"/>
-      <c r="AE53" s="39"/>
-      <c r="AF53" s="38"/>
-    </row>
-    <row r="54" spans="2:34" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AI53" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AJ53" s="39" t="str">
+        <f t="shared" si="0"/>
+        <v>WNDTRBN</v>
+      </c>
+      <c r="AK53" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL53" s="48">
+        <v>2.8141143326017269E-3</v>
+      </c>
+      <c r="AM53" s="48">
+        <v>0.15999428793309439</v>
+      </c>
+    </row>
+    <row r="54" spans="2:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="80" t="s">
         <v>188</v>
       </c>
@@ -6181,24 +6370,24 @@
       <c r="L54" s="80">
         <v>2050</v>
       </c>
-      <c r="AD54" s="38" t="s">
+      <c r="AI54" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE54" s="39" t="str">
+      <c r="AJ54" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF54" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="AG54" s="48">
-        <v>2.3663331133225518E-3</v>
-      </c>
-      <c r="AH54" s="48">
-        <v>0.15999428793309439</v>
-      </c>
-    </row>
-    <row r="55" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK54" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL54" s="48">
+        <v>2.6656478128544076E-3</v>
+      </c>
+      <c r="AM54" s="48">
+        <v>0.25343209199522099</v>
+      </c>
+    </row>
+    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -6222,24 +6411,24 @@
       <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
-      <c r="AD55" s="38" t="s">
+      <c r="AI55" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE55" s="39" t="str">
+      <c r="AJ55" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF55" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="AG55" s="48">
-        <v>2.8966005765197612E-3</v>
-      </c>
-      <c r="AH55" s="48">
-        <v>0.25343209199522099</v>
-      </c>
-    </row>
-    <row r="56" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK55" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL55" s="48">
+        <v>2.4530677112863486E-3</v>
+      </c>
+      <c r="AM55" s="48">
+        <v>0.32960197968936678</v>
+      </c>
+    </row>
+    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -6263,24 +6452,24 @@
       <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
-      <c r="AD56" s="38" t="s">
+      <c r="AI56" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE56" s="39" t="str">
+      <c r="AJ56" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF56" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="AG56" s="48">
-        <v>3.1152079955055634E-3</v>
-      </c>
-      <c r="AH56" s="48">
-        <v>0.32960197968936678</v>
-      </c>
-    </row>
-    <row r="57" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK56" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL56" s="48">
+        <v>2.1363241345921055E-3</v>
+      </c>
+      <c r="AM56" s="48">
+        <v>0.37592762246117079</v>
+      </c>
+    </row>
+    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -6304,24 +6493,24 @@
       <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
-      <c r="AD57" s="38" t="s">
+      <c r="AI57" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE57" s="39" t="str">
+      <c r="AJ57" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF57" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="AG57" s="48">
-        <v>3.1182259692196785E-3</v>
-      </c>
-      <c r="AH57" s="48">
-        <v>0.37592762246117079</v>
-      </c>
-    </row>
-    <row r="58" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK57" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL57" s="48">
+        <v>1.8660639529435976E-3</v>
+      </c>
+      <c r="AM57" s="48">
+        <v>0.38776096057347664</v>
+      </c>
+    </row>
+    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -6345,24 +6534,24 @@
       <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
-      <c r="AD58" s="38" t="s">
+      <c r="AI58" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE58" s="39" t="str">
+      <c r="AJ58" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF58" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="AG58" s="48">
-        <v>3.0731870914146721E-3</v>
-      </c>
-      <c r="AH58" s="48">
-        <v>0.38776096057347664</v>
-      </c>
-    </row>
-    <row r="59" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK58" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL58" s="48">
+        <v>1.7487528282965712E-3</v>
+      </c>
+      <c r="AM58" s="48">
+        <v>0.36426783751493425</v>
+      </c>
+    </row>
+    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -6386,24 +6575,24 @@
       <c r="J59"/>
       <c r="K59"/>
       <c r="L59"/>
-      <c r="AD59" s="38" t="s">
+      <c r="AI59" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE59" s="39" t="str">
+      <c r="AJ59" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF59" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="AG59" s="48">
-        <v>3.1429734317050739E-3</v>
-      </c>
-      <c r="AH59" s="48">
-        <v>0.36426783751493425</v>
-      </c>
-    </row>
-    <row r="60" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK59" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL59" s="48">
+        <v>1.6637860863902745E-3</v>
+      </c>
+      <c r="AM59" s="48">
+        <v>0.31009156033452806</v>
+      </c>
+    </row>
+    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -6427,24 +6616,24 @@
       <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
-      <c r="AD60" s="38" t="s">
+      <c r="AI60" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE60" s="39" t="str">
+      <c r="AJ60" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF60" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="AG60" s="48">
-        <v>3.4472722790434688E-3</v>
-      </c>
-      <c r="AH60" s="48">
-        <v>0.31009156033452806</v>
-      </c>
-    </row>
-    <row r="61" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK60" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL60" s="48">
+        <v>1.8211742012316831E-3</v>
+      </c>
+      <c r="AM60" s="48">
+        <v>0.23188419952210276</v>
+      </c>
+    </row>
+    <row r="61" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -6468,24 +6657,24 @@
       <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
-      <c r="AD61" s="38" t="s">
+      <c r="AI61" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE61" s="39" t="str">
+      <c r="AJ61" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF61" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AG61" s="48">
-        <v>3.8185983771107991E-3</v>
-      </c>
-      <c r="AH61" s="48">
-        <v>0.23188419952210276</v>
-      </c>
-    </row>
-    <row r="62" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="AK61" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL61" s="48">
+        <v>1.9153018835258307E-3</v>
+      </c>
+      <c r="AM61" s="48">
+        <v>0.13618056033452808</v>
+      </c>
+    </row>
+    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>121</v>
       </c>
@@ -6509,454 +6698,437 @@
       <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
-      <c r="AD62" s="38" t="s">
+      <c r="AI62" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE62" s="39" t="str">
+      <c r="AJ62" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF62" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="AG62" s="48">
-        <v>4.2486300009030951E-3</v>
-      </c>
-      <c r="AH62" s="48">
-        <v>0.13618056033452808</v>
-      </c>
-    </row>
-    <row r="63" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD63" s="38" t="s">
+      <c r="AK62" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL62" s="48">
+        <v>1.9744590518638132E-3</v>
+      </c>
+      <c r="AM62" s="48">
+        <v>4.9357593787335743E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AI63" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE63" s="39" t="str">
+      <c r="AJ63" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF63" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="AG63" s="48">
-        <v>4.5602314239953819E-3</v>
-      </c>
-      <c r="AH63" s="48">
-        <v>4.9357593787335743E-2</v>
-      </c>
-    </row>
-    <row r="64" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="AD64" s="38" t="s">
+      <c r="AK63" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL63" s="48">
+        <v>2.1878436160058393E-3</v>
+      </c>
+      <c r="AM63" s="48">
+        <v>7.5268817204301086E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AI64" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE64" s="39" t="str">
+      <c r="AJ64" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF64" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="AG64" s="48">
-        <v>4.7366406344324643E-3</v>
-      </c>
-      <c r="AH64" s="48">
-        <v>7.5268817204301086E-6</v>
-      </c>
-    </row>
-    <row r="65" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD65" s="38" t="s">
+      <c r="AK64" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL64" s="48">
+        <v>2.3889741533883327E-3</v>
+      </c>
+      <c r="AM64" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI65" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE65" s="39" t="str">
+      <c r="AJ65" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF65" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="AG65" s="48">
-        <v>4.836532938944621E-3</v>
-      </c>
-      <c r="AH65" s="48">
+      <c r="AK65" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL65" s="48">
+        <v>2.4063426997311056E-3</v>
+      </c>
+      <c r="AM65" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD66" s="38" t="s">
+    <row r="66" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI66" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE66" s="39" t="str">
+      <c r="AJ66" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF66" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="AG66" s="48">
-        <v>4.6939429624645087E-3</v>
-      </c>
-      <c r="AH66" s="48">
+      <c r="AK66" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL66" s="48">
+        <v>2.5925256698099051E-3</v>
+      </c>
+      <c r="AM66" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD67" s="38" t="s">
+    <row r="67" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI67" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE67" s="39" t="str">
+      <c r="AJ67" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF67" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="AG67" s="48">
-        <v>4.4878132380958523E-3</v>
-      </c>
-      <c r="AH67" s="48">
+      <c r="AK67" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL67" s="48">
+        <v>2.9724559200622644E-3</v>
+      </c>
+      <c r="AM67" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD68" s="38" t="s">
+    <row r="68" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI68" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AE68" s="39" t="str">
+      <c r="AJ68" s="39" t="str">
         <f t="shared" si="0"/>
         <v>WNDTRBN</v>
       </c>
-      <c r="AF68" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="AG68" s="48">
-        <v>4.0447641835712027E-3</v>
-      </c>
-      <c r="AH68" s="48">
+      <c r="AK68" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AL68" s="48">
+        <v>3.3823091606694387E-3</v>
+      </c>
+      <c r="AM68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD69" s="38" t="s">
-        <v>182</v>
-      </c>
-      <c r="AE69" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
-      </c>
-      <c r="AF69" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AG69" s="48">
-        <v>3.5120337976736293E-3</v>
-      </c>
-      <c r="AH69" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD70" s="38"/>
-      <c r="AE70" s="53"/>
-    </row>
-    <row r="71" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD71" s="38"/>
-      <c r="AE71" s="53"/>
-    </row>
-    <row r="72" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD72" s="38"/>
-      <c r="AE72" s="53"/>
-    </row>
-    <row r="73" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD73" s="38"/>
-      <c r="AE73" s="53"/>
-    </row>
-    <row r="74" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD74" s="38"/>
-      <c r="AE74" s="53"/>
-    </row>
-    <row r="75" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD75" s="38"/>
-      <c r="AE75" s="53"/>
-    </row>
-    <row r="76" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD76" s="38"/>
-      <c r="AE76" s="53"/>
-    </row>
-    <row r="77" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD77" s="38"/>
-      <c r="AE77" s="53"/>
-    </row>
-    <row r="78" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD78" s="38"/>
-      <c r="AE78" s="53"/>
-    </row>
-    <row r="79" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD79" s="38"/>
-      <c r="AE79" s="53"/>
-    </row>
-    <row r="80" spans="30:34" x14ac:dyDescent="0.2">
-      <c r="AD80" s="38"/>
-      <c r="AE80" s="53"/>
-    </row>
-    <row r="81" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD81" s="38"/>
-      <c r="AE81" s="53"/>
-    </row>
-    <row r="82" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD82" s="38"/>
-      <c r="AE82" s="53"/>
-    </row>
-    <row r="83" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD83" s="38"/>
-      <c r="AE83" s="53"/>
-    </row>
-    <row r="84" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD84" s="38"/>
-      <c r="AE84" s="53"/>
-    </row>
-    <row r="85" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD85" s="38"/>
-      <c r="AE85" s="53"/>
-    </row>
-    <row r="86" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD86" s="38"/>
-      <c r="AE86" s="53"/>
-    </row>
-    <row r="87" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD87" s="38"/>
-      <c r="AE87" s="53"/>
-    </row>
-    <row r="88" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD88" s="38"/>
-      <c r="AE88" s="53"/>
-    </row>
-    <row r="89" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD89" s="38"/>
-      <c r="AE89" s="53"/>
-    </row>
-    <row r="90" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD90" s="38"/>
-      <c r="AE90" s="53"/>
-    </row>
-    <row r="91" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD91" s="38"/>
-      <c r="AE91" s="53"/>
-    </row>
-    <row r="92" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD92" s="38"/>
-      <c r="AE92" s="53"/>
-    </row>
-    <row r="93" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD93" s="38"/>
-      <c r="AE93" s="53"/>
-    </row>
-    <row r="94" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD94" s="38"/>
-      <c r="AE94" s="53"/>
-    </row>
-    <row r="95" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD95" s="38"/>
-      <c r="AE95" s="53"/>
-    </row>
-    <row r="96" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD96" s="38"/>
-      <c r="AE96" s="53"/>
-    </row>
-    <row r="97" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD97" s="38"/>
-      <c r="AE97" s="53"/>
-    </row>
-    <row r="98" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD98" s="38"/>
-      <c r="AE98" s="53"/>
-    </row>
-    <row r="99" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD99" s="38"/>
-      <c r="AE99" s="53"/>
-    </row>
-    <row r="100" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD100" s="38"/>
-      <c r="AE100" s="53"/>
-    </row>
-    <row r="101" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD101" s="38"/>
-      <c r="AE101" s="53"/>
-    </row>
-    <row r="102" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD102" s="38"/>
-      <c r="AE102" s="53"/>
-    </row>
-    <row r="103" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD103" s="38"/>
-      <c r="AE103" s="53"/>
-    </row>
-    <row r="104" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD104" s="38"/>
-      <c r="AE104" s="53"/>
-    </row>
-    <row r="105" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD105" s="38"/>
-      <c r="AE105" s="53"/>
-    </row>
-    <row r="106" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD106" s="38"/>
-      <c r="AE106" s="53"/>
-    </row>
-    <row r="107" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD107" s="38"/>
-      <c r="AE107" s="53"/>
-    </row>
-    <row r="108" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD108" s="38"/>
-      <c r="AE108" s="53"/>
-    </row>
-    <row r="109" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD109" s="38"/>
-      <c r="AE109" s="53"/>
-    </row>
-    <row r="110" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD110" s="38"/>
-      <c r="AE110" s="53"/>
-    </row>
-    <row r="111" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD111" s="38"/>
-      <c r="AE111" s="53"/>
-    </row>
-    <row r="112" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD112" s="38"/>
-      <c r="AE112" s="53"/>
-    </row>
-    <row r="113" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD113" s="38"/>
-      <c r="AE113" s="53"/>
-    </row>
-    <row r="114" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD114" s="38"/>
-      <c r="AE114" s="53"/>
-    </row>
-    <row r="115" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD115" s="38"/>
-      <c r="AE115" s="53"/>
-    </row>
-    <row r="116" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD116" s="38"/>
-      <c r="AE116" s="53"/>
-    </row>
-    <row r="117" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD117" s="38"/>
-      <c r="AE117" s="53"/>
-    </row>
-    <row r="118" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD118" s="38"/>
-      <c r="AE118" s="53"/>
-    </row>
-    <row r="119" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD119" s="38"/>
-      <c r="AE119" s="53"/>
-    </row>
-    <row r="120" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD120" s="38"/>
-      <c r="AE120" s="53"/>
-    </row>
-    <row r="121" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD121" s="38"/>
-      <c r="AE121" s="53"/>
-    </row>
-    <row r="122" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD122" s="38"/>
-      <c r="AE122" s="53"/>
-    </row>
-    <row r="123" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD123" s="38"/>
-      <c r="AE123" s="53"/>
-    </row>
-    <row r="124" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD124" s="38"/>
-      <c r="AE124" s="53"/>
-    </row>
-    <row r="125" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD125" s="38"/>
-      <c r="AE125" s="53"/>
-    </row>
-    <row r="126" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD126" s="38"/>
-      <c r="AE126" s="53"/>
-    </row>
-    <row r="127" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD127" s="38"/>
-      <c r="AE127" s="53"/>
-    </row>
-    <row r="128" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD128" s="38"/>
-      <c r="AE128" s="53"/>
-    </row>
-    <row r="129" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD129" s="38"/>
-      <c r="AE129" s="53"/>
-    </row>
-    <row r="130" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD130" s="38"/>
-      <c r="AE130" s="53"/>
-    </row>
-    <row r="131" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD131" s="38"/>
-      <c r="AE131" s="53"/>
-    </row>
-    <row r="132" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD132" s="38"/>
-      <c r="AE132" s="53"/>
-    </row>
-    <row r="133" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD133" s="38"/>
-      <c r="AE133" s="53"/>
-    </row>
-    <row r="134" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD134" s="38"/>
-      <c r="AE134" s="53"/>
-    </row>
-    <row r="135" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD135" s="38"/>
-      <c r="AE135" s="53"/>
-    </row>
-    <row r="136" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD136" s="38"/>
-      <c r="AE136" s="53"/>
-    </row>
-    <row r="137" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD137" s="38"/>
-      <c r="AE137" s="53"/>
-    </row>
-    <row r="138" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD138" s="38"/>
-      <c r="AE138" s="53"/>
-    </row>
-    <row r="139" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD139" s="38"/>
-      <c r="AE139" s="53"/>
-    </row>
-    <row r="140" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD140" s="38"/>
-      <c r="AE140" s="53"/>
-    </row>
-    <row r="141" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD141" s="38"/>
-      <c r="AE141" s="53"/>
-    </row>
-    <row r="142" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD142" s="38"/>
-      <c r="AE142" s="53"/>
-    </row>
-    <row r="143" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD143" s="38"/>
-      <c r="AE143" s="53"/>
-    </row>
-    <row r="144" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD144" s="38"/>
-      <c r="AE144" s="53"/>
-    </row>
-    <row r="145" spans="30:31" x14ac:dyDescent="0.2">
-      <c r="AD145" s="38"/>
-      <c r="AE145" s="53"/>
+    <row r="69" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI69" s="38"/>
+      <c r="AJ69" s="53"/>
+    </row>
+    <row r="70" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI70" s="38"/>
+      <c r="AJ70" s="53"/>
+    </row>
+    <row r="71" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI71" s="38"/>
+      <c r="AJ71" s="53"/>
+    </row>
+    <row r="72" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI72" s="38"/>
+      <c r="AJ72" s="53"/>
+    </row>
+    <row r="73" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI73" s="38"/>
+      <c r="AJ73" s="53"/>
+    </row>
+    <row r="74" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI74" s="38"/>
+      <c r="AJ74" s="53"/>
+    </row>
+    <row r="75" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI75" s="38"/>
+      <c r="AJ75" s="53"/>
+    </row>
+    <row r="76" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI76" s="38"/>
+      <c r="AJ76" s="53"/>
+    </row>
+    <row r="77" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI77" s="38"/>
+      <c r="AJ77" s="53"/>
+    </row>
+    <row r="78" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI78" s="38"/>
+      <c r="AJ78" s="53"/>
+    </row>
+    <row r="79" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI79" s="38"/>
+      <c r="AJ79" s="53"/>
+    </row>
+    <row r="80" spans="35:39" x14ac:dyDescent="0.2">
+      <c r="AI80" s="38"/>
+      <c r="AJ80" s="53"/>
+    </row>
+    <row r="81" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI81" s="38"/>
+      <c r="AJ81" s="53"/>
+    </row>
+    <row r="82" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI82" s="38"/>
+      <c r="AJ82" s="53"/>
+    </row>
+    <row r="83" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI83" s="38"/>
+      <c r="AJ83" s="53"/>
+    </row>
+    <row r="84" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI84" s="38"/>
+      <c r="AJ84" s="53"/>
+    </row>
+    <row r="85" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI85" s="38"/>
+      <c r="AJ85" s="53"/>
+    </row>
+    <row r="86" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI86" s="38"/>
+      <c r="AJ86" s="53"/>
+    </row>
+    <row r="87" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI87" s="38"/>
+      <c r="AJ87" s="53"/>
+    </row>
+    <row r="88" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI88" s="38"/>
+      <c r="AJ88" s="53"/>
+    </row>
+    <row r="89" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI89" s="38"/>
+      <c r="AJ89" s="53"/>
+    </row>
+    <row r="90" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI90" s="38"/>
+      <c r="AJ90" s="53"/>
+    </row>
+    <row r="91" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI91" s="38"/>
+      <c r="AJ91" s="53"/>
+    </row>
+    <row r="92" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI92" s="38"/>
+      <c r="AJ92" s="53"/>
+    </row>
+    <row r="93" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI93" s="38"/>
+      <c r="AJ93" s="53"/>
+    </row>
+    <row r="94" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI94" s="38"/>
+      <c r="AJ94" s="53"/>
+    </row>
+    <row r="95" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI95" s="38"/>
+      <c r="AJ95" s="53"/>
+    </row>
+    <row r="96" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI96" s="38"/>
+      <c r="AJ96" s="53"/>
+    </row>
+    <row r="97" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI97" s="38"/>
+      <c r="AJ97" s="53"/>
+    </row>
+    <row r="98" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI98" s="38"/>
+      <c r="AJ98" s="53"/>
+    </row>
+    <row r="99" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI99" s="38"/>
+      <c r="AJ99" s="53"/>
+    </row>
+    <row r="100" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI100" s="38"/>
+      <c r="AJ100" s="53"/>
+    </row>
+    <row r="101" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI101" s="38"/>
+      <c r="AJ101" s="53"/>
+    </row>
+    <row r="102" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI102" s="38"/>
+      <c r="AJ102" s="53"/>
+    </row>
+    <row r="103" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI103" s="38"/>
+      <c r="AJ103" s="53"/>
+    </row>
+    <row r="104" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI104" s="38"/>
+      <c r="AJ104" s="53"/>
+    </row>
+    <row r="105" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI105" s="38"/>
+      <c r="AJ105" s="53"/>
+    </row>
+    <row r="106" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI106" s="38"/>
+      <c r="AJ106" s="53"/>
+    </row>
+    <row r="107" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI107" s="38"/>
+      <c r="AJ107" s="53"/>
+    </row>
+    <row r="108" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI108" s="38"/>
+      <c r="AJ108" s="53"/>
+    </row>
+    <row r="109" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI109" s="38"/>
+      <c r="AJ109" s="53"/>
+    </row>
+    <row r="110" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI110" s="38"/>
+      <c r="AJ110" s="53"/>
+    </row>
+    <row r="111" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI111" s="38"/>
+      <c r="AJ111" s="53"/>
+    </row>
+    <row r="112" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI112" s="38"/>
+      <c r="AJ112" s="53"/>
+    </row>
+    <row r="113" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI113" s="38"/>
+      <c r="AJ113" s="53"/>
+    </row>
+    <row r="114" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI114" s="38"/>
+      <c r="AJ114" s="53"/>
+    </row>
+    <row r="115" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI115" s="38"/>
+      <c r="AJ115" s="53"/>
+    </row>
+    <row r="116" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI116" s="38"/>
+      <c r="AJ116" s="53"/>
+    </row>
+    <row r="117" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI117" s="38"/>
+      <c r="AJ117" s="53"/>
+    </row>
+    <row r="118" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI118" s="38"/>
+      <c r="AJ118" s="53"/>
+    </row>
+    <row r="119" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI119" s="38"/>
+      <c r="AJ119" s="53"/>
+    </row>
+    <row r="120" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI120" s="38"/>
+      <c r="AJ120" s="53"/>
+    </row>
+    <row r="121" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI121" s="38"/>
+      <c r="AJ121" s="53"/>
+    </row>
+    <row r="122" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI122" s="38"/>
+      <c r="AJ122" s="53"/>
+    </row>
+    <row r="123" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI123" s="38"/>
+      <c r="AJ123" s="53"/>
+    </row>
+    <row r="124" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI124" s="38"/>
+      <c r="AJ124" s="53"/>
+    </row>
+    <row r="125" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI125" s="38"/>
+      <c r="AJ125" s="53"/>
+    </row>
+    <row r="126" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI126" s="38"/>
+      <c r="AJ126" s="53"/>
+    </row>
+    <row r="127" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI127" s="38"/>
+      <c r="AJ127" s="53"/>
+    </row>
+    <row r="128" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI128" s="38"/>
+      <c r="AJ128" s="53"/>
+    </row>
+    <row r="129" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI129" s="38"/>
+      <c r="AJ129" s="53"/>
+    </row>
+    <row r="130" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI130" s="38"/>
+      <c r="AJ130" s="53"/>
+    </row>
+    <row r="131" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI131" s="38"/>
+      <c r="AJ131" s="53"/>
+    </row>
+    <row r="132" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI132" s="38"/>
+      <c r="AJ132" s="53"/>
+    </row>
+    <row r="133" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI133" s="38"/>
+      <c r="AJ133" s="53"/>
+    </row>
+    <row r="134" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI134" s="38"/>
+      <c r="AJ134" s="53"/>
+    </row>
+    <row r="135" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI135" s="38"/>
+      <c r="AJ135" s="53"/>
+    </row>
+    <row r="136" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI136" s="38"/>
+      <c r="AJ136" s="53"/>
+    </row>
+    <row r="137" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI137" s="38"/>
+      <c r="AJ137" s="53"/>
+    </row>
+    <row r="138" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI138" s="38"/>
+      <c r="AJ138" s="53"/>
+    </row>
+    <row r="139" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI139" s="38"/>
+      <c r="AJ139" s="53"/>
+    </row>
+    <row r="140" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI140" s="38"/>
+      <c r="AJ140" s="53"/>
+    </row>
+    <row r="141" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI141" s="38"/>
+      <c r="AJ141" s="53"/>
+    </row>
+    <row r="142" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI142" s="38"/>
+      <c r="AJ142" s="53"/>
+    </row>
+    <row r="143" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI143" s="38"/>
+      <c r="AJ143" s="53"/>
+    </row>
+    <row r="144" spans="35:36" x14ac:dyDescent="0.2">
+      <c r="AI144" s="38"/>
+      <c r="AJ144" s="53"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="25" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{878AF598-F4EE-469E-B3C7-C3D17FBAB849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16DE8231-BACE-45EE-AEB2-64B22136CE16}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA25818A-C6EF-4475-A94E-9EAB02DC3A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="199">
   <si>
     <t>~FI_T</t>
   </si>
@@ -3255,8 +3255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+    <sheetView topLeftCell="C4" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="T26" sqref="T26:T27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3439,7 +3439,9 @@
         <v>58</v>
       </c>
       <c r="S5" s="12"/>
-      <c r="T5" s="12"/>
+      <c r="T5" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
     </row>
@@ -3463,7 +3465,9 @@
         <v>58</v>
       </c>
       <c r="S6" s="12"/>
-      <c r="T6" s="12"/>
+      <c r="T6" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
@@ -3890,7 +3894,9 @@
         <v>58</v>
       </c>
       <c r="S26" s="38"/>
-      <c r="T26" s="38"/>
+      <c r="T26" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="27" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B27" s="7" t="str">
@@ -3936,7 +3942,9 @@
         <v>58</v>
       </c>
       <c r="S27" s="38"/>
-      <c r="T27" s="38"/>
+      <c r="T27" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B28" s="7"/>
@@ -4328,8 +4336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AM144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AB5" sqref="AB5:AB7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4503,7 +4511,9 @@
         <v>58</v>
       </c>
       <c r="AA5" s="41"/>
-      <c r="AB5" s="41"/>
+      <c r="AB5" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="AC5" s="41"/>
       <c r="AD5" s="41"/>
       <c r="AE5" s="49"/>
@@ -4529,7 +4539,9 @@
         <v>58</v>
       </c>
       <c r="AA6" s="57"/>
-      <c r="AB6" s="57"/>
+      <c r="AB6" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="AC6" s="57"/>
       <c r="AD6" s="57"/>
       <c r="AE6" s="49"/>
@@ -4555,7 +4567,9 @@
         <v>58</v>
       </c>
       <c r="AA7" s="57"/>
-      <c r="AB7" s="57"/>
+      <c r="AB7" s="68" t="s">
+        <v>88</v>
+      </c>
       <c r="AC7" s="57"/>
       <c r="AD7" s="57"/>
       <c r="AE7" s="49"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA25818A-C6EF-4475-A94E-9EAB02DC3A60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB63687-61E5-4C78-8181-5A78606B148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="199">
   <si>
     <t>~FI_T</t>
   </si>
@@ -3255,7 +3255,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="C4" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView topLeftCell="F5" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="T26" sqref="T26:T27"/>
     </sheetView>
   </sheetViews>
@@ -4336,8 +4336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AM144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AB5" sqref="AB5:AB7"/>
+    <sheetView tabSelected="1" topLeftCell="X42" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AJ21" sqref="AJ21:AJ68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5018,9 +5018,8 @@
       <c r="AI21" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ21" s="39" t="str">
-        <f>X$26</f>
-        <v>WNDTRBN</v>
+      <c r="AJ21" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK21" s="48" t="s">
         <v>133</v>
@@ -5099,9 +5098,8 @@
       <c r="AI22" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ22" s="39" t="str">
-        <f t="shared" ref="AJ22:AJ68" si="0">X$26</f>
-        <v>WNDTRBN</v>
+      <c r="AJ22" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK22" s="69" t="s">
         <v>134</v>
@@ -5178,9 +5176,8 @@
       <c r="AI23" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ23" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ23" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK23" s="48" t="s">
         <v>135</v>
@@ -5257,9 +5254,8 @@
       <c r="AI24" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ24" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ24" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK24" s="69" t="s">
         <v>136</v>
@@ -5339,9 +5335,8 @@
       <c r="AI25" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ25" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ25" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK25" s="48" t="s">
         <v>137</v>
@@ -5421,9 +5416,8 @@
       <c r="AI26" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ26" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ26" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK26" s="69" t="s">
         <v>138</v>
@@ -5504,9 +5498,8 @@
       <c r="AI27" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ27" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ27" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK27" s="48" t="s">
         <v>139</v>
@@ -5589,9 +5582,8 @@
       <c r="AI28" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ28" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ28" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK28" s="69" t="s">
         <v>140</v>
@@ -5653,9 +5645,8 @@
       <c r="AI29" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ29" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ29" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK29" s="48" t="s">
         <v>141</v>
@@ -5726,9 +5717,8 @@
       <c r="AI30" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ30" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ30" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK30" s="69" t="s">
         <v>142</v>
@@ -5784,9 +5774,8 @@
       <c r="AI31" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ31" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ31" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK31" s="48" t="s">
         <v>143</v>
@@ -5817,9 +5806,8 @@
       <c r="AI32" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ32" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ32" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK32" s="69" t="s">
         <v>144</v>
@@ -5850,9 +5838,8 @@
       <c r="AI33" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ33" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ33" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK33" s="48" t="s">
         <v>145</v>
@@ -5883,9 +5870,8 @@
       <c r="AI34" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ34" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ34" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK34" s="69" t="s">
         <v>146</v>
@@ -5917,9 +5903,8 @@
       <c r="AI35" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ35" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ35" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK35" s="48" t="s">
         <v>147</v>
@@ -5954,9 +5939,8 @@
       <c r="AI36" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ36" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ36" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK36" s="69" t="s">
         <v>148</v>
@@ -5991,9 +5975,8 @@
       <c r="AI37" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ37" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ37" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK37" s="48" t="s">
         <v>149</v>
@@ -6016,9 +5999,8 @@
       <c r="AI38" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ38" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ38" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK38" s="69" t="s">
         <v>150</v>
@@ -6035,9 +6017,8 @@
       <c r="AI39" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ39" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ39" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK39" s="48" t="s">
         <v>151</v>
@@ -6058,9 +6039,8 @@
       <c r="AI40" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ40" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ40" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK40" s="69" t="s">
         <v>152</v>
@@ -6081,9 +6061,8 @@
       <c r="AI41" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ41" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ41" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK41" s="48" t="s">
         <v>153</v>
@@ -6106,9 +6085,8 @@
       <c r="AI42" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ42" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ42" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK42" s="69" t="s">
         <v>154</v>
@@ -6124,9 +6102,8 @@
       <c r="AI43" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ43" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ43" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK43" s="48" t="s">
         <v>155</v>
@@ -6149,9 +6126,8 @@
       <c r="AI44" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ44" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ44" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK44" s="69" t="s">
         <v>156</v>
@@ -6168,9 +6144,8 @@
       <c r="AI45" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ45" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ45" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK45" s="38" t="s">
         <v>157</v>
@@ -6186,9 +6161,8 @@
       <c r="AI46" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ46" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ46" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK46" s="38" t="s">
         <v>158</v>
@@ -6204,9 +6178,8 @@
       <c r="AI47" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ47" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ47" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK47" s="38" t="s">
         <v>159</v>
@@ -6222,9 +6195,8 @@
       <c r="AI48" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ48" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ48" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK48" s="38" t="s">
         <v>160</v>
@@ -6240,9 +6212,8 @@
       <c r="AI49" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ49" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ49" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK49" s="38" t="s">
         <v>161</v>
@@ -6258,9 +6229,8 @@
       <c r="AI50" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ50" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ50" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK50" s="38" t="s">
         <v>162</v>
@@ -6276,9 +6246,8 @@
       <c r="AI51" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ51" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ51" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK51" s="38" t="s">
         <v>163</v>
@@ -6307,9 +6276,8 @@
       <c r="AI52" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ52" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ52" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK52" s="38" t="s">
         <v>164</v>
@@ -6336,9 +6304,8 @@
       <c r="AI53" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ53" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ53" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK53" s="38" t="s">
         <v>165</v>
@@ -6387,9 +6354,8 @@
       <c r="AI54" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ54" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ54" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK54" s="38" t="s">
         <v>166</v>
@@ -6428,9 +6394,8 @@
       <c r="AI55" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ55" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ55" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK55" s="38" t="s">
         <v>167</v>
@@ -6469,9 +6434,8 @@
       <c r="AI56" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ56" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ56" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK56" s="38" t="s">
         <v>168</v>
@@ -6510,9 +6474,8 @@
       <c r="AI57" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ57" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ57" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK57" s="38" t="s">
         <v>169</v>
@@ -6551,9 +6514,8 @@
       <c r="AI58" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ58" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ58" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK58" s="38" t="s">
         <v>170</v>
@@ -6592,9 +6554,8 @@
       <c r="AI59" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ59" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ59" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK59" s="38" t="s">
         <v>171</v>
@@ -6633,9 +6594,8 @@
       <c r="AI60" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ60" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ60" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK60" s="38" t="s">
         <v>172</v>
@@ -6674,9 +6634,8 @@
       <c r="AI61" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ61" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ61" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK61" s="38" t="s">
         <v>173</v>
@@ -6715,9 +6674,8 @@
       <c r="AI62" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ62" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ62" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK62" s="38" t="s">
         <v>174</v>
@@ -6733,9 +6691,8 @@
       <c r="AI63" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ63" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ63" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK63" s="38" t="s">
         <v>175</v>
@@ -6751,9 +6708,8 @@
       <c r="AI64" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ64" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ64" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK64" s="38" t="s">
         <v>176</v>
@@ -6769,9 +6725,8 @@
       <c r="AI65" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ65" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ65" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK65" s="38" t="s">
         <v>177</v>
@@ -6787,9 +6742,8 @@
       <c r="AI66" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ66" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ66" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK66" s="38" t="s">
         <v>178</v>
@@ -6805,9 +6759,8 @@
       <c r="AI67" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ67" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ67" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK67" s="38" t="s">
         <v>179</v>
@@ -6823,9 +6776,8 @@
       <c r="AI68" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="AJ68" s="39" t="str">
-        <f t="shared" si="0"/>
-        <v>WNDTRBN</v>
+      <c r="AJ68" s="39" t="s">
+        <v>69</v>
       </c>
       <c r="AK68" s="38" t="s">
         <v>180</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB63687-61E5-4C78-8181-5A78606B148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{ADB63687-61E5-4C78-8181-5A78606B148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BCCDBB5-5B56-458C-BCEF-7800FCDB1352}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="203">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2151,6 +2151,18 @@
   </si>
   <si>
     <t>Share-I~UP~UP~2050</t>
+  </si>
+  <si>
+    <t>Pset_PN</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>AllRegions</t>
   </si>
 </sst>
 </file>
@@ -4334,10 +4346,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AM144"/>
+  <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X42" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AJ21" sqref="AJ21:AJ68"/>
+    <sheetView tabSelected="1" topLeftCell="AA55" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21:AT68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4367,9 +4379,9 @@
     <col min="30" max="30" width="8.42578125" style="48" customWidth="1"/>
     <col min="31" max="35" width="8.85546875" style="48"/>
     <col min="36" max="36" width="12.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="8.85546875" style="48"/>
-    <col min="38" max="38" width="13.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="39" max="16384" width="8.85546875" style="48"/>
+    <col min="37" max="39" width="8.85546875" style="48"/>
+    <col min="40" max="40" width="13.140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.85546875" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="15" x14ac:dyDescent="0.25">
@@ -4645,7 +4657,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:39" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4730,9 +4742,18 @@
       </c>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="63"/>
-      <c r="AL17" s="38"/>
-    </row>
-    <row r="18" spans="2:39" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AL17" s="63"/>
+      <c r="AM17" s="63"/>
+      <c r="AN17" s="38"/>
+      <c r="AP17" s="63" t="s">
+        <v>181</v>
+      </c>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="63"/>
+      <c r="AS17" s="63"/>
+      <c r="AT17" s="63"/>
+    </row>
+    <row r="18" spans="2:47" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4816,19 +4837,40 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
-        <v>6</v>
+        <v>200</v>
       </c>
       <c r="AK18" s="64" t="s">
         <v>131</v>
       </c>
       <c r="AL18" s="64" t="s">
-        <v>93</v>
+        <v>11</v>
       </c>
       <c r="AM18" s="64" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="2:39" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+      <c r="AN18" s="64" t="s">
+        <v>202</v>
+      </c>
+      <c r="AP18" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ18" s="64" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR18" s="64" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS18" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="AT18" s="64" t="s">
+        <v>199</v>
+      </c>
+      <c r="AU18" s="64" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -4877,8 +4919,19 @@
       <c r="AK19" s="44"/>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
-    </row>
-    <row r="20" spans="2:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="AN19" s="44"/>
+      <c r="AP19" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="AQ19" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44"/>
+      <c r="AT19" s="44"/>
+      <c r="AU19" s="44"/>
+    </row>
+    <row r="20" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B20" s="48" t="str">
         <f>X20</f>
         <v>Furnace</v>
@@ -4948,9 +5001,18 @@
       <c r="AJ20" s="45"/>
       <c r="AK20" s="45"/>
       <c r="AL20" s="45"/>
-      <c r="AM20" s="44"/>
-    </row>
-    <row r="21" spans="2:39" x14ac:dyDescent="0.2">
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AP20" s="45" t="s">
+        <v>53</v>
+      </c>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="44"/>
+    </row>
+    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B21" s="48" t="str">
         <f>X$21</f>
         <v>BIOBoiler</v>
@@ -5024,14 +5086,35 @@
       <c r="AK21" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="AL21" s="48">
+      <c r="AL21" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM21" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN21" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AM21" s="48">
+      <c r="AP21" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ21" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR21" s="48" t="s">
+        <v>133</v>
+      </c>
+      <c r="AS21" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT21" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B22" s="48" t="str">
         <f>X24</f>
         <v>ELCBoiler</v>
@@ -5104,14 +5187,35 @@
       <c r="AK22" s="69" t="s">
         <v>134</v>
       </c>
-      <c r="AL22" s="48">
+      <c r="AL22" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM22" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN22" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AM22" s="48">
+      <c r="AP22" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ22" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR22" s="69" t="s">
+        <v>134</v>
+      </c>
+      <c r="AS22" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT22" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="48" t="str">
         <f>X22</f>
         <v>BIOKiln</v>
@@ -5182,14 +5286,35 @@
       <c r="AK23" s="48" t="s">
         <v>135</v>
       </c>
-      <c r="AL23" s="48">
+      <c r="AL23" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM23" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN23" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AM23" s="49">
+      <c r="AP23" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ23" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR23" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="AS23" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT23" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5260,14 +5385,35 @@
       <c r="AK24" s="69" t="s">
         <v>136</v>
       </c>
-      <c r="AL24" s="48">
+      <c r="AL24" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM24" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN24" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AM24" s="49">
+      <c r="AP24" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ24" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR24" s="69" t="s">
+        <v>136</v>
+      </c>
+      <c r="AS24" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT24" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="53" t="str">
         <f>X26</f>
         <v>WNDTRBN</v>
@@ -5341,14 +5487,35 @@
       <c r="AK25" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="AL25" s="48">
+      <c r="AL25" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM25" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN25" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AM25" s="49">
+      <c r="AP25" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ25" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR25" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="AS25" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT25" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B26" s="53" t="str">
         <f>X27</f>
         <v>SOLPV</v>
@@ -5422,14 +5589,35 @@
       <c r="AK26" s="69" t="s">
         <v>138</v>
       </c>
-      <c r="AL26" s="48">
+      <c r="AL26" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM26" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN26" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AM26" s="49">
+      <c r="AP26" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ26" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR26" s="69" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS26" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT26" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="53" t="str">
         <f>X25</f>
         <v>CSP</v>
@@ -5504,14 +5692,35 @@
       <c r="AK27" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="AL27" s="48">
+      <c r="AL27" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM27" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN27" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AM27" s="49">
+      <c r="AP27" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ27" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR27" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="AS27" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT27" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5588,14 +5797,35 @@
       <c r="AK28" s="69" t="s">
         <v>140</v>
       </c>
-      <c r="AL28" s="48">
+      <c r="AL28" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM28" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN28" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AM28" s="49">
+      <c r="AP28" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ28" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR28" s="69" t="s">
+        <v>140</v>
+      </c>
+      <c r="AS28" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT28" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B29" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5651,14 +5881,35 @@
       <c r="AK29" s="48" t="s">
         <v>141</v>
       </c>
-      <c r="AL29" s="48">
+      <c r="AL29" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM29" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN29" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AM29" s="49">
+      <c r="AP29" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ29" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR29" s="48" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS29" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT29" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B30" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5723,14 +5974,35 @@
       <c r="AK30" s="69" t="s">
         <v>142</v>
       </c>
-      <c r="AL30" s="48">
+      <c r="AL30" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM30" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN30" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AM30" s="49">
+      <c r="AP30" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ30" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR30" s="69" t="s">
+        <v>142</v>
+      </c>
+      <c r="AS30" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT30" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B31" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5780,14 +6052,35 @@
       <c r="AK31" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="AL31" s="48">
+      <c r="AL31" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM31" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN31" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AM31" s="49">
+      <c r="AP31" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ31" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR31" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="AS31" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT31" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU31" s="49">
         <v>0.27468446594982077</v>
       </c>
     </row>
-    <row r="32" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -5812,14 +6105,35 @@
       <c r="AK32" s="69" t="s">
         <v>144</v>
       </c>
-      <c r="AL32" s="48">
+      <c r="AL32" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM32" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN32" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AM32" s="49">
+      <c r="AP32" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ32" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR32" s="69" t="s">
+        <v>144</v>
+      </c>
+      <c r="AS32" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT32" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU32" s="49">
         <v>0.32637437275985665</v>
       </c>
     </row>
-    <row r="33" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
@@ -5844,14 +6158,35 @@
       <c r="AK33" s="48" t="s">
         <v>145</v>
       </c>
-      <c r="AL33" s="48">
+      <c r="AL33" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM33" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN33" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AM33" s="49">
+      <c r="AP33" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ33" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR33" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="AS33" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT33" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -5876,14 +6211,35 @@
       <c r="AK34" s="69" t="s">
         <v>146</v>
       </c>
-      <c r="AL34" s="48">
+      <c r="AL34" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM34" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN34" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AM34" s="49">
+      <c r="AP34" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ34" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR34" s="69" t="s">
+        <v>146</v>
+      </c>
+      <c r="AS34" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT34" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -5909,14 +6265,35 @@
       <c r="AK35" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="AL35" s="48">
+      <c r="AL35" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM35" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN35" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AM35" s="49">
+      <c r="AP35" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ35" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR35" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AS35" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT35" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -5945,14 +6322,35 @@
       <c r="AK36" s="69" t="s">
         <v>148</v>
       </c>
-      <c r="AL36" s="48">
+      <c r="AL36" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM36" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN36" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AM36" s="49">
+      <c r="AP36" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ36" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR36" s="69" t="s">
+        <v>148</v>
+      </c>
+      <c r="AS36" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT36" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:39" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -5981,14 +6379,35 @@
       <c r="AK37" s="48" t="s">
         <v>149</v>
       </c>
-      <c r="AL37" s="48">
+      <c r="AL37" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM37" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN37" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AM37" s="49">
+      <c r="AP37" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ37" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR37" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="AS37" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT37" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.2">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
@@ -6005,14 +6424,35 @@
       <c r="AK38" s="69" t="s">
         <v>150</v>
       </c>
-      <c r="AL38" s="48">
+      <c r="AL38" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM38" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN38" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AM38" s="48">
+      <c r="AP38" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ38" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR38" s="69" t="s">
+        <v>150</v>
+      </c>
+      <c r="AS38" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT38" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:47" x14ac:dyDescent="0.2">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
         <v>182</v>
@@ -6023,14 +6463,35 @@
       <c r="AK39" s="48" t="s">
         <v>151</v>
       </c>
-      <c r="AL39" s="48">
+      <c r="AL39" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM39" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN39" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AM39" s="48">
+      <c r="AP39" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ39" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR39" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="AS39" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT39" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
@@ -6045,14 +6506,35 @@
       <c r="AK40" s="69" t="s">
         <v>152</v>
       </c>
-      <c r="AL40" s="48">
+      <c r="AL40" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM40" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN40" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AM40" s="48">
+      <c r="AP40" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ40" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR40" s="69" t="s">
+        <v>152</v>
+      </c>
+      <c r="AS40" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT40" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
@@ -6067,14 +6549,35 @@
       <c r="AK41" s="48" t="s">
         <v>153</v>
       </c>
-      <c r="AL41" s="48">
+      <c r="AL41" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM41" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN41" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AM41" s="48">
+      <c r="AP41" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ41" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR41" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS41" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT41" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -6091,14 +6594,35 @@
       <c r="AK42" s="69" t="s">
         <v>154</v>
       </c>
-      <c r="AL42" s="48">
+      <c r="AL42" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM42" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN42" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AM42" s="48">
+      <c r="AP42" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ42" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR42" s="69" t="s">
+        <v>154</v>
+      </c>
+      <c r="AS42" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT42" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU42" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI43" s="38" t="s">
         <v>182</v>
       </c>
@@ -6108,14 +6632,35 @@
       <c r="AK43" s="48" t="s">
         <v>155</v>
       </c>
-      <c r="AL43" s="48">
+      <c r="AL43" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM43" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN43" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AM43" s="48">
+      <c r="AP43" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ43" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR43" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS43" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT43" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -6132,14 +6677,35 @@
       <c r="AK44" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="AL44" s="48">
+      <c r="AL44" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM44" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN44" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AM44" s="48">
+      <c r="AP44" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ44" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR44" s="69" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS44" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT44" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
         <v>182</v>
@@ -6150,14 +6716,35 @@
       <c r="AK45" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AL45" s="48">
+      <c r="AL45" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM45" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN45" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AM45" s="48">
+      <c r="AP45" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ45" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR45" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS45" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT45" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU45" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI46" s="38" t="s">
         <v>182</v>
       </c>
@@ -6167,14 +6754,35 @@
       <c r="AK46" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AL46" s="48">
+      <c r="AL46" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM46" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN46" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AM46" s="48">
+      <c r="AP46" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ46" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR46" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS46" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT46" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU46" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI47" s="38" t="s">
         <v>182</v>
       </c>
@@ -6184,14 +6792,35 @@
       <c r="AK47" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AL47" s="48">
+      <c r="AL47" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM47" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN47" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AM47" s="48">
+      <c r="AP47" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ47" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR47" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS47" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT47" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU47" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI48" s="38" t="s">
         <v>182</v>
       </c>
@@ -6201,14 +6830,35 @@
       <c r="AK48" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AL48" s="48">
+      <c r="AL48" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM48" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN48" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AM48" s="48">
+      <c r="AP48" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ48" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR48" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS48" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT48" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI49" s="38" t="s">
         <v>182</v>
       </c>
@@ -6218,14 +6868,35 @@
       <c r="AK49" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AL49" s="48">
+      <c r="AL49" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM49" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN49" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AM49" s="48">
+      <c r="AP49" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ49" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR49" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS49" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT49" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU49" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI50" s="38" t="s">
         <v>182</v>
       </c>
@@ -6235,14 +6906,35 @@
       <c r="AK50" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AL50" s="48">
+      <c r="AL50" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM50" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN50" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AM50" s="48">
+      <c r="AP50" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ50" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR50" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AS50" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT50" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU50" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI51" s="38" t="s">
         <v>182</v>
       </c>
@@ -6252,14 +6944,35 @@
       <c r="AK51" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AL51" s="48">
+      <c r="AL51" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM51" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN51" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AM51" s="48">
+      <c r="AP51" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ51" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR51" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="AS51" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT51" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B52" s="79" t="s">
         <v>187</v>
       </c>
@@ -6282,14 +6995,35 @@
       <c r="AK52" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AL52" s="48">
+      <c r="AL52" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM52" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN52" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AM52" s="48">
+      <c r="AP52" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ52" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR52" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="AS52" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT52" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
       <c r="D53"/>
@@ -6310,14 +7044,35 @@
       <c r="AK53" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AL53" s="48">
+      <c r="AL53" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM53" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN53" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AM53" s="48">
+      <c r="AP53" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ53" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR53" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="AS53" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT53" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:39" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="80" t="s">
         <v>188</v>
       </c>
@@ -6360,14 +7115,35 @@
       <c r="AK54" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AL54" s="48">
+      <c r="AL54" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM54" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN54" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AM54" s="48">
+      <c r="AP54" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ54" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR54" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AS54" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT54" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -6400,14 +7176,35 @@
       <c r="AK55" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AL55" s="48">
+      <c r="AL55" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM55" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN55" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AM55" s="48">
+      <c r="AP55" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ55" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR55" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="AS55" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT55" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -6440,14 +7237,35 @@
       <c r="AK56" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AL56" s="48">
+      <c r="AL56" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM56" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN56" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AM56" s="48">
+      <c r="AP56" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ56" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR56" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AS56" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT56" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -6480,14 +7298,35 @@
       <c r="AK57" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AL57" s="48">
+      <c r="AL57" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM57" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN57" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AM57" s="48">
+      <c r="AP57" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ57" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR57" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AS57" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT57" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -6520,14 +7359,35 @@
       <c r="AK58" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AL58" s="48">
+      <c r="AL58" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM58" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN58" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AM58" s="48">
+      <c r="AP58" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ58" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR58" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="AS58" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT58" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -6560,14 +7420,35 @@
       <c r="AK59" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AL59" s="48">
+      <c r="AL59" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM59" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN59" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AM59" s="48">
+      <c r="AP59" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ59" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR59" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AS59" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT59" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -6600,14 +7481,35 @@
       <c r="AK60" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AL60" s="48">
+      <c r="AL60" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM60" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN60" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AM60" s="48">
+      <c r="AP60" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ60" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR60" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS60" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT60" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -6640,14 +7542,35 @@
       <c r="AK61" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AL61" s="48">
+      <c r="AL61" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM61" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN61" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AM61" s="48">
+      <c r="AP61" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ61" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR61" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS61" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT61" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU61" s="48">
         <v>0.13618056033452808</v>
       </c>
     </row>
-    <row r="62" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B62" t="s">
         <v>121</v>
       </c>
@@ -6680,14 +7603,35 @@
       <c r="AK62" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AL62" s="48">
+      <c r="AL62" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM62" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN62" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AM62" s="48">
+      <c r="AP62" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ62" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR62" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS62" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT62" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU62" s="48">
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI63" s="38" t="s">
         <v>182</v>
       </c>
@@ -6697,14 +7641,35 @@
       <c r="AK63" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AL63" s="48">
+      <c r="AL63" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM63" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN63" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AM63" s="48">
+      <c r="AP63" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ63" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR63" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS63" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT63" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU63" s="48">
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:39" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI64" s="38" t="s">
         <v>182</v>
       </c>
@@ -6714,14 +7679,35 @@
       <c r="AK64" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AL64" s="48">
+      <c r="AL64" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM64" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN64" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AM64" s="48">
+      <c r="AP64" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ64" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR64" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS64" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT64" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU64" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="65" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI65" s="38" t="s">
         <v>182</v>
       </c>
@@ -6731,14 +7717,35 @@
       <c r="AK65" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AL65" s="48">
+      <c r="AL65" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM65" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN65" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AM65" s="48">
+      <c r="AP65" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ65" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR65" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS65" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT65" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU65" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="66" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI66" s="38" t="s">
         <v>182</v>
       </c>
@@ -6748,14 +7755,35 @@
       <c r="AK66" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AL66" s="48">
+      <c r="AL66" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM66" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN66" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AM66" s="48">
+      <c r="AP66" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ66" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR66" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS66" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT66" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU66" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="67" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI67" s="38" t="s">
         <v>182</v>
       </c>
@@ -6765,14 +7793,35 @@
       <c r="AK67" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AL67" s="48">
+      <c r="AL67" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM67" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN67" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AM67" s="48">
+      <c r="AP67" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ67" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR67" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="AS67" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT67" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU67" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="68" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI68" s="38" t="s">
         <v>182</v>
       </c>
@@ -6782,58 +7831,79 @@
       <c r="AK68" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AL68" s="48">
+      <c r="AL68" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AM68" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN68" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AM68" s="48">
+      <c r="AP68" s="38" t="s">
+        <v>182</v>
+      </c>
+      <c r="AQ68" s="39" t="s">
+        <v>69</v>
+      </c>
+      <c r="AR68" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AS68" s="48" t="s">
+        <v>201</v>
+      </c>
+      <c r="AT68" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="69" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI69" s="38"/>
       <c r="AJ69" s="53"/>
     </row>
-    <row r="70" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="70" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI70" s="38"/>
       <c r="AJ70" s="53"/>
     </row>
-    <row r="71" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="71" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI71" s="38"/>
       <c r="AJ71" s="53"/>
     </row>
-    <row r="72" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="72" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI72" s="38"/>
       <c r="AJ72" s="53"/>
     </row>
-    <row r="73" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="73" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI73" s="38"/>
       <c r="AJ73" s="53"/>
     </row>
-    <row r="74" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="74" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI74" s="38"/>
       <c r="AJ74" s="53"/>
     </row>
-    <row r="75" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="75" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI75" s="38"/>
       <c r="AJ75" s="53"/>
     </row>
-    <row r="76" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="76" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI76" s="38"/>
       <c r="AJ76" s="53"/>
     </row>
-    <row r="77" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="77" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI77" s="38"/>
       <c r="AJ77" s="53"/>
     </row>
-    <row r="78" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="78" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI78" s="38"/>
       <c r="AJ78" s="53"/>
     </row>
-    <row r="79" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="79" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI79" s="38"/>
       <c r="AJ79" s="53"/>
     </row>
-    <row r="80" spans="35:39" x14ac:dyDescent="0.2">
+    <row r="80" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI80" s="38"/>
       <c r="AJ80" s="53"/>
     </row>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{ADB63687-61E5-4C78-8181-5A78606B148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BCCDBB5-5B56-458C-BCEF-7800FCDB1352}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -2334,6 +2334,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="12">
@@ -2978,6 +2979,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -4348,8 +4353,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA55" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AT21" sqref="AT21:AT68"/>
+    <sheetView tabSelected="1" topLeftCell="AA12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AN18" sqref="AN18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{ADB63687-61E5-4C78-8181-5A78606B148B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7BCCDBB5-5B56-458C-BCEF-7800FCDB1352}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D415F092-68A6-4BE3-9257-6BEB0E0DB702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1949,9 +1949,6 @@
     <t>Attribute</t>
   </si>
   <si>
-    <t>Timeslices</t>
-  </si>
-  <si>
     <t>Demand Commodity Name</t>
   </si>
   <si>
@@ -2163,6 +2160,9 @@
   </si>
   <si>
     <t>AllRegions</t>
+  </si>
+  <si>
+    <t>TimeSlices</t>
   </si>
 </sst>
 </file>
@@ -2979,10 +2979,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3329,7 +3325,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="14"/>
       <c r="N2" s="6" t="s">
@@ -3355,7 +3351,7 @@
         <v>58</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G3" s="14"/>
       <c r="N3" s="8" t="s">
@@ -3397,7 +3393,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G4" s="14"/>
       <c r="N4" s="13" t="s">
@@ -3439,7 +3435,7 @@
         <v>58</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G5" s="14"/>
       <c r="N5" s="39" t="s">
@@ -3847,7 +3843,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>58</v>
@@ -4353,8 +4349,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA12" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AN18" sqref="AN18"/>
+    <sheetView tabSelected="1" topLeftCell="AE11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AN14" sqref="AN14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4425,7 +4421,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50" t="s">
@@ -4673,10 +4669,10 @@
         <v>4</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G17" s="60" t="s">
         <v>16</v>
@@ -4703,16 +4699,16 @@
         <v>122</v>
       </c>
       <c r="O17" s="62" t="s">
+        <v>194</v>
+      </c>
+      <c r="P17" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="P17" s="62" t="s">
+      <c r="Q17" s="62" t="s">
         <v>196</v>
       </c>
-      <c r="Q17" s="62" t="s">
+      <c r="R17" s="62" t="s">
         <v>197</v>
-      </c>
-      <c r="R17" s="62" t="s">
-        <v>198</v>
       </c>
       <c r="S17" s="62"/>
       <c r="V17" s="54" t="s">
@@ -4743,7 +4739,7 @@
         <v>22</v>
       </c>
       <c r="AI17" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="63"/>
@@ -4751,7 +4747,7 @@
       <c r="AM17" s="63"/>
       <c r="AN17" s="38"/>
       <c r="AP17" s="63" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ17" s="38"/>
       <c r="AR17" s="63"/>
@@ -4799,16 +4795,16 @@
         <v>123</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="R18" s="81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="S18" s="81"/>
       <c r="V18" s="31" t="s">
@@ -4842,37 +4838,37 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AK18" s="64" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="AL18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="AM18" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AN18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AP18" s="64" t="s">
         <v>130</v>
       </c>
       <c r="AQ18" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AR18" s="64" t="s">
-        <v>131</v>
+        <v>202</v>
       </c>
       <c r="AS18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="AT18" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AU18" s="64" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4889,11 +4885,11 @@
         <v>54</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K19" s="36"/>
       <c r="L19" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M19" s="36"/>
       <c r="N19" s="36" t="s">
@@ -4919,7 +4915,7 @@
         <v>81</v>
       </c>
       <c r="AJ19" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AK19" s="44"/>
       <c r="AL19" s="44"/>
@@ -4929,7 +4925,7 @@
         <v>81</v>
       </c>
       <c r="AQ19" s="44" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AR19" s="44"/>
       <c r="AS19" s="44"/>
@@ -5083,16 +5079,16 @@
       <c r="AC21" s="49"/>
       <c r="AD21" s="49"/>
       <c r="AI21" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ21" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK21" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AL21" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM21" s="48" t="s">
         <v>93</v>
@@ -5101,16 +5097,16 @@
         <v>3.3051976250754521E-3</v>
       </c>
       <c r="AP21" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ21" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR21" s="48" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AS21" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT21" s="48" t="s">
         <v>94</v>
@@ -5184,16 +5180,16 @@
       <c r="AC22" s="49"/>
       <c r="AD22" s="49"/>
       <c r="AI22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ22" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK22" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AL22" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM22" s="48" t="s">
         <v>93</v>
@@ -5202,16 +5198,16 @@
         <v>3.1618331753269246E-3</v>
       </c>
       <c r="AP22" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ22" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR22" s="69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AS22" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT22" s="48" t="s">
         <v>94</v>
@@ -5283,16 +5279,16 @@
         <v>88</v>
       </c>
       <c r="AI23" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ23" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK23" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AL23" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM23" s="48" t="s">
         <v>93</v>
@@ -5301,16 +5297,16 @@
         <v>2.8979409360310663E-3</v>
       </c>
       <c r="AP23" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ23" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR23" s="48" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AS23" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT23" s="48" t="s">
         <v>94</v>
@@ -5382,16 +5378,16 @@
         <v>88</v>
       </c>
       <c r="AI24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ24" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK24" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AL24" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM24" s="48" t="s">
         <v>93</v>
@@ -5400,16 +5396,16 @@
         <v>2.7156926103261707E-3</v>
       </c>
       <c r="AP24" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ24" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR24" s="69" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AS24" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT24" s="48" t="s">
         <v>94</v>
@@ -5484,16 +5480,16 @@
         <v>88</v>
       </c>
       <c r="AI25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ25" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK25" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AL25" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM25" s="48" t="s">
         <v>93</v>
@@ -5502,16 +5498,16 @@
         <v>2.5452192095824343E-3</v>
       </c>
       <c r="AP25" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ25" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR25" s="48" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AS25" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT25" s="48" t="s">
         <v>94</v>
@@ -5586,16 +5582,16 @@
         <v>88</v>
       </c>
       <c r="AI26" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ26" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK26" s="69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL26" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM26" s="48" t="s">
         <v>93</v>
@@ -5604,16 +5600,16 @@
         <v>2.5834450529081338E-3</v>
       </c>
       <c r="AP26" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ26" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR26" s="69" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AS26" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT26" s="48" t="s">
         <v>94</v>
@@ -5689,16 +5685,16 @@
         <v>88</v>
       </c>
       <c r="AI27" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ27" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK27" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AL27" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM27" s="48" t="s">
         <v>93</v>
@@ -5707,16 +5703,16 @@
         <v>2.7432881310744317E-3</v>
       </c>
       <c r="AP27" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ27" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR27" s="48" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AS27" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT27" s="48" t="s">
         <v>94</v>
@@ -5794,16 +5790,16 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AI28" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ28" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK28" s="69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AL28" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM28" s="48" t="s">
         <v>93</v>
@@ -5812,16 +5808,16 @@
         <v>2.8314721319216154E-3</v>
       </c>
       <c r="AP28" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ28" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR28" s="69" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AS28" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT28" s="48" t="s">
         <v>94</v>
@@ -5878,16 +5874,16 @@
       </c>
       <c r="S29" s="46"/>
       <c r="AI29" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ29" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK29" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AL29" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM29" s="48" t="s">
         <v>93</v>
@@ -5896,16 +5892,16 @@
         <v>2.8141143326017269E-3</v>
       </c>
       <c r="AP29" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ29" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR29" s="48" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AS29" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT29" s="48" t="s">
         <v>94</v>
@@ -5971,16 +5967,16 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
       <c r="AI30" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ30" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK30" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AL30" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM30" s="48" t="s">
         <v>93</v>
@@ -5989,16 +5985,16 @@
         <v>2.6656478128544076E-3</v>
       </c>
       <c r="AP30" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ30" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR30" s="69" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AS30" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT30" s="48" t="s">
         <v>94</v>
@@ -6049,16 +6045,16 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
       <c r="AI31" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ31" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK31" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AL31" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM31" s="48" t="s">
         <v>93</v>
@@ -6067,16 +6063,16 @@
         <v>2.4530677112863486E-3</v>
       </c>
       <c r="AP31" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ31" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR31" s="48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AS31" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT31" s="48" t="s">
         <v>94</v>
@@ -6102,16 +6098,16 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
       <c r="AI32" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ32" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK32" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AL32" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM32" s="48" t="s">
         <v>93</v>
@@ -6120,16 +6116,16 @@
         <v>2.1363241345921055E-3</v>
       </c>
       <c r="AP32" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ32" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR32" s="69" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AS32" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT32" s="48" t="s">
         <v>94</v>
@@ -6155,16 +6151,16 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
       <c r="AI33" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ33" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK33" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AL33" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM33" s="48" t="s">
         <v>93</v>
@@ -6173,16 +6169,16 @@
         <v>1.8660639529435976E-3</v>
       </c>
       <c r="AP33" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ33" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR33" s="48" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AS33" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT33" s="48" t="s">
         <v>94</v>
@@ -6208,16 +6204,16 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
       <c r="AI34" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ34" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK34" s="69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AL34" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM34" s="48" t="s">
         <v>93</v>
@@ -6226,16 +6222,16 @@
         <v>1.7487528282965712E-3</v>
       </c>
       <c r="AP34" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ34" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR34" s="69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AS34" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT34" s="48" t="s">
         <v>94</v>
@@ -6262,16 +6258,16 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
       <c r="AI35" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ35" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK35" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AL35" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM35" s="48" t="s">
         <v>93</v>
@@ -6280,16 +6276,16 @@
         <v>1.6637860863902745E-3</v>
       </c>
       <c r="AP35" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ35" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR35" s="48" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AS35" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT35" s="48" t="s">
         <v>94</v>
@@ -6319,16 +6315,16 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
       <c r="AI36" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ36" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK36" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AL36" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM36" s="48" t="s">
         <v>93</v>
@@ -6337,16 +6333,16 @@
         <v>1.8211742012316831E-3</v>
       </c>
       <c r="AP36" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ36" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR36" s="69" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AS36" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT36" s="48" t="s">
         <v>94</v>
@@ -6376,16 +6372,16 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
       <c r="AI37" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ37" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK37" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AL37" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM37" s="48" t="s">
         <v>93</v>
@@ -6394,16 +6390,16 @@
         <v>1.9153018835258307E-3</v>
       </c>
       <c r="AP37" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ37" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR37" s="48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AS37" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT37" s="48" t="s">
         <v>94</v>
@@ -6421,16 +6417,16 @@
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
       <c r="AI38" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ38" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK38" s="69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AL38" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM38" s="48" t="s">
         <v>93</v>
@@ -6439,16 +6435,16 @@
         <v>1.9744590518638132E-3</v>
       </c>
       <c r="AP38" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ38" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR38" s="69" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AS38" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT38" s="48" t="s">
         <v>94</v>
@@ -6460,16 +6456,16 @@
     <row r="39" spans="2:47" x14ac:dyDescent="0.2">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ39" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK39" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AL39" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM39" s="48" t="s">
         <v>93</v>
@@ -6478,16 +6474,16 @@
         <v>2.1878436160058393E-3</v>
       </c>
       <c r="AP39" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ39" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR39" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS39" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT39" s="48" t="s">
         <v>94</v>
@@ -6503,16 +6499,16 @@
       </c>
       <c r="H40" s="75"/>
       <c r="AI40" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ40" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK40" s="69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AL40" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM40" s="48" t="s">
         <v>93</v>
@@ -6521,16 +6517,16 @@
         <v>2.3889741533883327E-3</v>
       </c>
       <c r="AP40" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ40" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR40" s="69" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AS40" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT40" s="48" t="s">
         <v>94</v>
@@ -6546,16 +6542,16 @@
       </c>
       <c r="H41" s="75"/>
       <c r="AI41" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ41" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK41" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AL41" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM41" s="48" t="s">
         <v>93</v>
@@ -6564,16 +6560,16 @@
         <v>2.4063426997311056E-3</v>
       </c>
       <c r="AP41" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ41" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR41" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AS41" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT41" s="48" t="s">
         <v>94</v>
@@ -6591,16 +6587,16 @@
       </c>
       <c r="H42" s="75"/>
       <c r="AI42" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ42" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK42" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AL42" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM42" s="48" t="s">
         <v>93</v>
@@ -6609,16 +6605,16 @@
         <v>2.5925256698099051E-3</v>
       </c>
       <c r="AP42" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ42" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR42" s="69" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AS42" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT42" s="48" t="s">
         <v>94</v>
@@ -6629,16 +6625,16 @@
     </row>
     <row r="43" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI43" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ43" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK43" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AL43" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM43" s="48" t="s">
         <v>93</v>
@@ -6647,16 +6643,16 @@
         <v>2.9724559200622644E-3</v>
       </c>
       <c r="AP43" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ43" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR43" s="48" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AS43" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT43" s="48" t="s">
         <v>94</v>
@@ -6674,16 +6670,16 @@
         <v>8760</v>
       </c>
       <c r="AI44" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ44" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK44" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AL44" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM44" s="48" t="s">
         <v>93</v>
@@ -6692,16 +6688,16 @@
         <v>3.3823091606694387E-3</v>
       </c>
       <c r="AP44" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ44" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR44" s="69" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AS44" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT44" s="48" t="s">
         <v>94</v>
@@ -6713,16 +6709,16 @@
     <row r="45" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ45" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK45" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AL45" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM45" s="48" t="s">
         <v>93</v>
@@ -6731,16 +6727,16 @@
         <v>3.3051976250754521E-3</v>
       </c>
       <c r="AP45" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ45" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR45" s="38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AS45" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT45" s="48" t="s">
         <v>94</v>
@@ -6751,16 +6747,16 @@
     </row>
     <row r="46" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI46" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ46" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK46" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AL46" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM46" s="48" t="s">
         <v>93</v>
@@ -6769,16 +6765,16 @@
         <v>3.1618331753269246E-3</v>
       </c>
       <c r="AP46" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ46" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR46" s="38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AS46" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT46" s="48" t="s">
         <v>94</v>
@@ -6789,16 +6785,16 @@
     </row>
     <row r="47" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI47" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ47" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK47" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AL47" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM47" s="48" t="s">
         <v>93</v>
@@ -6807,16 +6803,16 @@
         <v>2.8979409360310663E-3</v>
       </c>
       <c r="AP47" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ47" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR47" s="38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="AS47" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT47" s="48" t="s">
         <v>94</v>
@@ -6827,16 +6823,16 @@
     </row>
     <row r="48" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI48" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ48" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK48" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AL48" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM48" s="48" t="s">
         <v>93</v>
@@ -6845,16 +6841,16 @@
         <v>2.7156926103261707E-3</v>
       </c>
       <c r="AP48" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ48" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR48" s="38" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AS48" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT48" s="48" t="s">
         <v>94</v>
@@ -6865,16 +6861,16 @@
     </row>
     <row r="49" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI49" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ49" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK49" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL49" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM49" s="48" t="s">
         <v>93</v>
@@ -6883,16 +6879,16 @@
         <v>2.5452192095824343E-3</v>
       </c>
       <c r="AP49" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ49" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR49" s="38" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AS49" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT49" s="48" t="s">
         <v>94</v>
@@ -6903,16 +6899,16 @@
     </row>
     <row r="50" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI50" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ50" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK50" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AL50" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM50" s="48" t="s">
         <v>93</v>
@@ -6921,16 +6917,16 @@
         <v>2.5834450529081338E-3</v>
       </c>
       <c r="AP50" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ50" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR50" s="38" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AS50" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT50" s="48" t="s">
         <v>94</v>
@@ -6941,16 +6937,16 @@
     </row>
     <row r="51" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI51" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ51" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK51" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AL51" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM51" s="48" t="s">
         <v>93</v>
@@ -6959,16 +6955,16 @@
         <v>2.7432881310744317E-3</v>
       </c>
       <c r="AP51" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ51" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR51" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="AS51" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT51" s="48" t="s">
         <v>94</v>
@@ -6979,7 +6975,7 @@
     </row>
     <row r="52" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B52" s="79" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C52" s="79"/>
       <c r="D52"/>
@@ -6992,16 +6988,16 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="AI52" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ52" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK52" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AL52" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM52" s="48" t="s">
         <v>93</v>
@@ -7010,16 +7006,16 @@
         <v>2.8314721319216154E-3</v>
       </c>
       <c r="AP52" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ52" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR52" s="38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="AS52" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT52" s="48" t="s">
         <v>94</v>
@@ -7041,16 +7037,16 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="AI53" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ53" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK53" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AL53" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM53" s="48" t="s">
         <v>93</v>
@@ -7059,16 +7055,16 @@
         <v>2.8141143326017269E-3</v>
       </c>
       <c r="AP53" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ53" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR53" s="38" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="AS53" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT53" s="48" t="s">
         <v>94</v>
@@ -7079,10 +7075,10 @@
     </row>
     <row r="54" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="80" t="s">
+        <v>187</v>
+      </c>
+      <c r="C54" s="80" t="s">
         <v>188</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>189</v>
       </c>
       <c r="D54" s="80" t="s">
         <v>11</v>
@@ -7112,16 +7108,16 @@
         <v>2050</v>
       </c>
       <c r="AI54" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ54" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK54" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AL54" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM54" s="48" t="s">
         <v>93</v>
@@ -7130,16 +7126,16 @@
         <v>2.6656478128544076E-3</v>
       </c>
       <c r="AP54" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ54" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR54" s="38" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AS54" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT54" s="48" t="s">
         <v>94</v>
@@ -7156,10 +7152,10 @@
         <v>94</v>
       </c>
       <c r="D55" t="s">
+        <v>190</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7173,16 +7169,16 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="AI55" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ55" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK55" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AL55" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM55" s="48" t="s">
         <v>93</v>
@@ -7191,16 +7187,16 @@
         <v>2.4530677112863486E-3</v>
       </c>
       <c r="AP55" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ55" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR55" s="38" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AS55" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT55" s="48" t="s">
         <v>94</v>
@@ -7217,10 +7213,10 @@
         <v>93</v>
       </c>
       <c r="D56" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7234,16 +7230,16 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="AI56" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ56" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK56" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AL56" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM56" s="48" t="s">
         <v>93</v>
@@ -7252,16 +7248,16 @@
         <v>2.1363241345921055E-3</v>
       </c>
       <c r="AP56" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ56" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR56" s="38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="AS56" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT56" s="48" t="s">
         <v>94</v>
@@ -7278,10 +7274,10 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7295,16 +7291,16 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="AI57" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ57" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK57" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AL57" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM57" s="48" t="s">
         <v>93</v>
@@ -7313,16 +7309,16 @@
         <v>1.8660639529435976E-3</v>
       </c>
       <c r="AP57" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ57" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR57" s="38" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="AS57" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT57" s="48" t="s">
         <v>94</v>
@@ -7336,13 +7332,13 @@
         <v>121</v>
       </c>
       <c r="C58" t="s">
+        <v>189</v>
+      </c>
+      <c r="D58" t="s">
         <v>190</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -7356,16 +7352,16 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="AI58" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ58" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK58" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AL58" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM58" s="48" t="s">
         <v>93</v>
@@ -7374,16 +7370,16 @@
         <v>1.7487528282965712E-3</v>
       </c>
       <c r="AP58" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ58" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR58" s="38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AS58" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT58" s="48" t="s">
         <v>94</v>
@@ -7400,10 +7396,10 @@
         <v>102</v>
       </c>
       <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -7417,16 +7413,16 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="AI59" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ59" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK59" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AL59" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM59" s="48" t="s">
         <v>93</v>
@@ -7435,16 +7431,16 @@
         <v>1.6637860863902745E-3</v>
       </c>
       <c r="AP59" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ59" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR59" s="38" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AS59" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT59" s="48" t="s">
         <v>94</v>
@@ -7461,10 +7457,10 @@
         <v>105</v>
       </c>
       <c r="D60" t="s">
+        <v>190</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -7478,16 +7474,16 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="AI60" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ60" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK60" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AL60" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM60" s="48" t="s">
         <v>93</v>
@@ -7496,16 +7492,16 @@
         <v>1.8211742012316831E-3</v>
       </c>
       <c r="AP60" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ60" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR60" s="38" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AS60" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT60" s="48" t="s">
         <v>94</v>
@@ -7522,10 +7518,10 @@
         <v>66</v>
       </c>
       <c r="D61" t="s">
+        <v>190</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -7539,16 +7535,16 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="AI61" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ61" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK61" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AL61" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM61" s="48" t="s">
         <v>93</v>
@@ -7557,16 +7553,16 @@
         <v>1.9153018835258307E-3</v>
       </c>
       <c r="AP61" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ61" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR61" s="38" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AS61" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT61" s="48" t="s">
         <v>94</v>
@@ -7583,10 +7579,10 @@
         <v>103</v>
       </c>
       <c r="D62" t="s">
+        <v>190</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>192</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -7600,16 +7596,16 @@
       <c r="K62"/>
       <c r="L62"/>
       <c r="AI62" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ62" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK62" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AL62" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM62" s="48" t="s">
         <v>93</v>
@@ -7618,16 +7614,16 @@
         <v>1.9744590518638132E-3</v>
       </c>
       <c r="AP62" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ62" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR62" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="AS62" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT62" s="48" t="s">
         <v>94</v>
@@ -7638,16 +7634,16 @@
     </row>
     <row r="63" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI63" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ63" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK63" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AL63" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM63" s="48" t="s">
         <v>93</v>
@@ -7656,16 +7652,16 @@
         <v>2.1878436160058393E-3</v>
       </c>
       <c r="AP63" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ63" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR63" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AS63" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT63" s="48" t="s">
         <v>94</v>
@@ -7676,16 +7672,16 @@
     </row>
     <row r="64" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI64" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ64" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK64" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AL64" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM64" s="48" t="s">
         <v>93</v>
@@ -7694,16 +7690,16 @@
         <v>2.3889741533883327E-3</v>
       </c>
       <c r="AP64" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ64" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR64" s="38" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AS64" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT64" s="48" t="s">
         <v>94</v>
@@ -7714,16 +7710,16 @@
     </row>
     <row r="65" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI65" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ65" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK65" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AL65" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM65" s="48" t="s">
         <v>93</v>
@@ -7732,16 +7728,16 @@
         <v>2.4063426997311056E-3</v>
       </c>
       <c r="AP65" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ65" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR65" s="38" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AS65" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT65" s="48" t="s">
         <v>94</v>
@@ -7752,16 +7748,16 @@
     </row>
     <row r="66" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI66" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ66" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK66" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AL66" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM66" s="48" t="s">
         <v>93</v>
@@ -7770,16 +7766,16 @@
         <v>2.5925256698099051E-3</v>
       </c>
       <c r="AP66" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ66" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR66" s="38" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AS66" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT66" s="48" t="s">
         <v>94</v>
@@ -7790,16 +7786,16 @@
     </row>
     <row r="67" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI67" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ67" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK67" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AL67" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM67" s="48" t="s">
         <v>93</v>
@@ -7808,16 +7804,16 @@
         <v>2.9724559200622644E-3</v>
       </c>
       <c r="AP67" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ67" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR67" s="38" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AS67" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT67" s="48" t="s">
         <v>94</v>
@@ -7828,16 +7824,16 @@
     </row>
     <row r="68" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI68" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AJ68" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AK68" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AL68" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AM68" s="48" t="s">
         <v>93</v>
@@ -7846,16 +7842,16 @@
         <v>3.3823091606694387E-3</v>
       </c>
       <c r="AP68" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AQ68" s="39" t="s">
         <v>69</v>
       </c>
       <c r="AR68" s="38" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="AS68" s="48" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AT68" s="48" t="s">
         <v>94</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D415F092-68A6-4BE3-9257-6BEB0E0DB702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C30E30-F94B-441F-9C9E-5FF239EF9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="210">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2163,6 +2163,27 @@
   </si>
   <si>
     <t>TimeSlices</t>
+  </si>
+  <si>
+    <t>Wind Resource</t>
+  </si>
+  <si>
+    <t>SOLAR</t>
+  </si>
+  <si>
+    <t>Sollar Radation</t>
+  </si>
+  <si>
+    <t>MINWIND</t>
+  </si>
+  <si>
+    <t>MINSOLAR</t>
+  </si>
+  <si>
+    <t>Solar Radation-Harnessed</t>
+  </si>
+  <si>
+    <t>Wind Resource-Harnessed</t>
   </si>
 </sst>
 </file>
@@ -3268,8 +3289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="F5" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="T26" sqref="T26:T27"/>
+    <sheetView topLeftCell="A7" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3490,13 +3511,23 @@
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="14"/>
-      <c r="N7" s="12"/>
+      <c r="N7" s="12" t="s">
+        <v>59</v>
+      </c>
       <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-      <c r="R7" s="12"/>
+      <c r="P7" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="S7" s="12"/>
-      <c r="T7" s="12"/>
+      <c r="T7" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
     </row>
@@ -3507,13 +3538,23 @@
       <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
-      <c r="N8" s="37"/>
+      <c r="N8" s="37" t="s">
+        <v>59</v>
+      </c>
       <c r="O8" s="37"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="37"/>
-      <c r="R8" s="37"/>
+      <c r="P8" s="37" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q8" s="37" t="s">
+        <v>205</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>58</v>
+      </c>
       <c r="S8" s="12"/>
-      <c r="T8" s="12"/>
+      <c r="T8" s="12" t="s">
+        <v>88</v>
+      </c>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
     </row>
@@ -3960,32 +4001,83 @@
       </c>
     </row>
     <row r="28" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B28" s="7"/>
+      <c r="B28" s="7" t="str">
+        <f t="shared" ref="B28:B29" si="0">P28</f>
+        <v>MINWIND</v>
+      </c>
       <c r="C28" s="10"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="R28" s="38"/>
+      <c r="D28" s="7" t="str">
+        <f t="shared" ref="D28:D29" si="1">P7</f>
+        <v>WIND</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2030</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>100</v>
+      </c>
+      <c r="N28" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q28" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="R28" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="S28" s="38"/>
-      <c r="T28" s="38"/>
+      <c r="T28" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="29" spans="2:22" x14ac:dyDescent="0.2">
-      <c r="B29" s="7"/>
+      <c r="B29" s="7" t="str">
+        <f t="shared" si="0"/>
+        <v>MINSOLAR</v>
+      </c>
       <c r="C29" s="10"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="N29" s="14"/>
+      <c r="D29" s="7" t="str">
+        <f t="shared" si="1"/>
+        <v>SOLAR</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2030</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+      <c r="G29" s="1">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>100</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>64</v>
+      </c>
       <c r="O29" s="14"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="14"/>
-      <c r="R29" s="38"/>
+      <c r="P29" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q29" s="14" t="s">
+        <v>208</v>
+      </c>
+      <c r="R29" s="38" t="s">
+        <v>58</v>
+      </c>
       <c r="S29" s="38"/>
-      <c r="T29" s="38"/>
+      <c r="T29" s="12" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="30" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B30" s="7"/>
@@ -4349,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AN14" sqref="AN14"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5419,7 +5511,10 @@
         <f>X26</f>
         <v>WNDTRBN</v>
       </c>
-      <c r="C25" s="48"/>
+      <c r="C25" s="48" t="str">
+        <f>PRI_Sector_Fuels!D28</f>
+        <v>WIND</v>
+      </c>
       <c r="D25" s="53" t="s">
         <v>69</v>
       </c>
@@ -5521,7 +5616,10 @@
         <f>X27</f>
         <v>SOLPV</v>
       </c>
-      <c r="C26" s="48"/>
+      <c r="C26" s="48" t="str">
+        <f>PRI_Sector_Fuels!D29</f>
+        <v>SOLAR</v>
+      </c>
       <c r="D26" s="53" t="s">
         <v>69</v>
       </c>
@@ -5623,7 +5721,10 @@
         <f>X25</f>
         <v>CSP</v>
       </c>
-      <c r="C27" s="48"/>
+      <c r="C27" s="48" t="str">
+        <f>PRI_Sector_Fuels!D29</f>
+        <v>SOLAR</v>
+      </c>
       <c r="D27" s="53" t="str">
         <f>X7</f>
         <v>SOLHEAT</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09C30E30-F94B-441F-9C9E-5FF239EF9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{09C30E30-F94B-441F-9C9E-5FF239EF9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC3762C-F439-4413-95BC-949683992547}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -2150,12 +2150,6 @@
     <t>Share-I~UP~UP~2050</t>
   </si>
   <si>
-    <t>Pset_PN</t>
-  </si>
-  <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
     <t>FX</t>
   </si>
   <si>
@@ -2184,6 +2178,12 @@
   </si>
   <si>
     <t>Wind Resource-Harnessed</t>
+  </si>
+  <si>
+    <t>CSET_CN</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
   </si>
 </sst>
 </file>
@@ -3519,7 +3519,7 @@
         <v>72</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>58</v>
@@ -3543,10 +3543,10 @@
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="Q8" s="37" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>58</v>
@@ -4026,10 +4026,10 @@
         <v>64</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="R28" s="38" t="s">
         <v>58</v>
@@ -4066,10 +4066,10 @@
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="Q29" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="R29" s="38" t="s">
         <v>58</v>
@@ -4441,8 +4441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="Y14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AT18" sqref="AT18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4930,37 +4930,37 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AK18" s="64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AL18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="AM18" s="64" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AN18" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="AP18" s="64" t="s">
         <v>130</v>
       </c>
       <c r="AQ18" s="64" t="s">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="AR18" s="64" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="AS18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="AT18" s="64" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="AU18" s="64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5180,7 +5180,7 @@
         <v>132</v>
       </c>
       <c r="AL21" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM21" s="48" t="s">
         <v>93</v>
@@ -5198,7 +5198,7 @@
         <v>132</v>
       </c>
       <c r="AS21" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT21" s="48" t="s">
         <v>94</v>
@@ -5281,7 +5281,7 @@
         <v>133</v>
       </c>
       <c r="AL22" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM22" s="48" t="s">
         <v>93</v>
@@ -5299,7 +5299,7 @@
         <v>133</v>
       </c>
       <c r="AS22" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT22" s="48" t="s">
         <v>94</v>
@@ -5380,7 +5380,7 @@
         <v>134</v>
       </c>
       <c r="AL23" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM23" s="48" t="s">
         <v>93</v>
@@ -5398,7 +5398,7 @@
         <v>134</v>
       </c>
       <c r="AS23" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT23" s="48" t="s">
         <v>94</v>
@@ -5479,7 +5479,7 @@
         <v>135</v>
       </c>
       <c r="AL24" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM24" s="48" t="s">
         <v>93</v>
@@ -5497,7 +5497,7 @@
         <v>135</v>
       </c>
       <c r="AS24" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT24" s="48" t="s">
         <v>94</v>
@@ -5584,7 +5584,7 @@
         <v>136</v>
       </c>
       <c r="AL25" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM25" s="48" t="s">
         <v>93</v>
@@ -5602,7 +5602,7 @@
         <v>136</v>
       </c>
       <c r="AS25" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT25" s="48" t="s">
         <v>94</v>
@@ -5689,7 +5689,7 @@
         <v>137</v>
       </c>
       <c r="AL26" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM26" s="48" t="s">
         <v>93</v>
@@ -5707,7 +5707,7 @@
         <v>137</v>
       </c>
       <c r="AS26" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT26" s="48" t="s">
         <v>94</v>
@@ -5795,7 +5795,7 @@
         <v>138</v>
       </c>
       <c r="AL27" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM27" s="48" t="s">
         <v>93</v>
@@ -5813,7 +5813,7 @@
         <v>138</v>
       </c>
       <c r="AS27" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT27" s="48" t="s">
         <v>94</v>
@@ -5900,7 +5900,7 @@
         <v>139</v>
       </c>
       <c r="AL28" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM28" s="48" t="s">
         <v>93</v>
@@ -5918,7 +5918,7 @@
         <v>139</v>
       </c>
       <c r="AS28" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT28" s="48" t="s">
         <v>94</v>
@@ -5984,7 +5984,7 @@
         <v>140</v>
       </c>
       <c r="AL29" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM29" s="48" t="s">
         <v>93</v>
@@ -6002,7 +6002,7 @@
         <v>140</v>
       </c>
       <c r="AS29" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT29" s="48" t="s">
         <v>94</v>
@@ -6077,7 +6077,7 @@
         <v>141</v>
       </c>
       <c r="AL30" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM30" s="48" t="s">
         <v>93</v>
@@ -6095,7 +6095,7 @@
         <v>141</v>
       </c>
       <c r="AS30" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT30" s="48" t="s">
         <v>94</v>
@@ -6155,7 +6155,7 @@
         <v>142</v>
       </c>
       <c r="AL31" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM31" s="48" t="s">
         <v>93</v>
@@ -6173,7 +6173,7 @@
         <v>142</v>
       </c>
       <c r="AS31" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT31" s="48" t="s">
         <v>94</v>
@@ -6208,7 +6208,7 @@
         <v>143</v>
       </c>
       <c r="AL32" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM32" s="48" t="s">
         <v>93</v>
@@ -6226,7 +6226,7 @@
         <v>143</v>
       </c>
       <c r="AS32" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT32" s="48" t="s">
         <v>94</v>
@@ -6261,7 +6261,7 @@
         <v>144</v>
       </c>
       <c r="AL33" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM33" s="48" t="s">
         <v>93</v>
@@ -6279,7 +6279,7 @@
         <v>144</v>
       </c>
       <c r="AS33" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT33" s="48" t="s">
         <v>94</v>
@@ -6314,7 +6314,7 @@
         <v>145</v>
       </c>
       <c r="AL34" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM34" s="48" t="s">
         <v>93</v>
@@ -6332,7 +6332,7 @@
         <v>145</v>
       </c>
       <c r="AS34" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT34" s="48" t="s">
         <v>94</v>
@@ -6368,7 +6368,7 @@
         <v>146</v>
       </c>
       <c r="AL35" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM35" s="48" t="s">
         <v>93</v>
@@ -6386,7 +6386,7 @@
         <v>146</v>
       </c>
       <c r="AS35" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT35" s="48" t="s">
         <v>94</v>
@@ -6425,7 +6425,7 @@
         <v>147</v>
       </c>
       <c r="AL36" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM36" s="48" t="s">
         <v>93</v>
@@ -6443,7 +6443,7 @@
         <v>147</v>
       </c>
       <c r="AS36" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT36" s="48" t="s">
         <v>94</v>
@@ -6482,7 +6482,7 @@
         <v>148</v>
       </c>
       <c r="AL37" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM37" s="48" t="s">
         <v>93</v>
@@ -6500,7 +6500,7 @@
         <v>148</v>
       </c>
       <c r="AS37" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT37" s="48" t="s">
         <v>94</v>
@@ -6527,7 +6527,7 @@
         <v>149</v>
       </c>
       <c r="AL38" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM38" s="48" t="s">
         <v>93</v>
@@ -6545,7 +6545,7 @@
         <v>149</v>
       </c>
       <c r="AS38" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT38" s="48" t="s">
         <v>94</v>
@@ -6566,7 +6566,7 @@
         <v>150</v>
       </c>
       <c r="AL39" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM39" s="48" t="s">
         <v>93</v>
@@ -6584,7 +6584,7 @@
         <v>150</v>
       </c>
       <c r="AS39" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT39" s="48" t="s">
         <v>94</v>
@@ -6609,7 +6609,7 @@
         <v>151</v>
       </c>
       <c r="AL40" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM40" s="48" t="s">
         <v>93</v>
@@ -6627,7 +6627,7 @@
         <v>151</v>
       </c>
       <c r="AS40" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT40" s="48" t="s">
         <v>94</v>
@@ -6652,7 +6652,7 @@
         <v>152</v>
       </c>
       <c r="AL41" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM41" s="48" t="s">
         <v>93</v>
@@ -6670,7 +6670,7 @@
         <v>152</v>
       </c>
       <c r="AS41" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT41" s="48" t="s">
         <v>94</v>
@@ -6697,7 +6697,7 @@
         <v>153</v>
       </c>
       <c r="AL42" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM42" s="48" t="s">
         <v>93</v>
@@ -6715,7 +6715,7 @@
         <v>153</v>
       </c>
       <c r="AS42" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT42" s="48" t="s">
         <v>94</v>
@@ -6735,7 +6735,7 @@
         <v>154</v>
       </c>
       <c r="AL43" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM43" s="48" t="s">
         <v>93</v>
@@ -6753,7 +6753,7 @@
         <v>154</v>
       </c>
       <c r="AS43" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT43" s="48" t="s">
         <v>94</v>
@@ -6780,7 +6780,7 @@
         <v>155</v>
       </c>
       <c r="AL44" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM44" s="48" t="s">
         <v>93</v>
@@ -6798,7 +6798,7 @@
         <v>155</v>
       </c>
       <c r="AS44" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT44" s="48" t="s">
         <v>94</v>
@@ -6819,7 +6819,7 @@
         <v>156</v>
       </c>
       <c r="AL45" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM45" s="48" t="s">
         <v>93</v>
@@ -6837,7 +6837,7 @@
         <v>156</v>
       </c>
       <c r="AS45" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT45" s="48" t="s">
         <v>94</v>
@@ -6857,7 +6857,7 @@
         <v>157</v>
       </c>
       <c r="AL46" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM46" s="48" t="s">
         <v>93</v>
@@ -6875,7 +6875,7 @@
         <v>157</v>
       </c>
       <c r="AS46" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT46" s="48" t="s">
         <v>94</v>
@@ -6895,7 +6895,7 @@
         <v>158</v>
       </c>
       <c r="AL47" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM47" s="48" t="s">
         <v>93</v>
@@ -6913,7 +6913,7 @@
         <v>158</v>
       </c>
       <c r="AS47" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT47" s="48" t="s">
         <v>94</v>
@@ -6933,7 +6933,7 @@
         <v>159</v>
       </c>
       <c r="AL48" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM48" s="48" t="s">
         <v>93</v>
@@ -6951,7 +6951,7 @@
         <v>159</v>
       </c>
       <c r="AS48" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT48" s="48" t="s">
         <v>94</v>
@@ -6971,7 +6971,7 @@
         <v>160</v>
       </c>
       <c r="AL49" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM49" s="48" t="s">
         <v>93</v>
@@ -6989,7 +6989,7 @@
         <v>160</v>
       </c>
       <c r="AS49" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT49" s="48" t="s">
         <v>94</v>
@@ -7009,7 +7009,7 @@
         <v>161</v>
       </c>
       <c r="AL50" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM50" s="48" t="s">
         <v>93</v>
@@ -7027,7 +7027,7 @@
         <v>161</v>
       </c>
       <c r="AS50" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT50" s="48" t="s">
         <v>94</v>
@@ -7047,7 +7047,7 @@
         <v>162</v>
       </c>
       <c r="AL51" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM51" s="48" t="s">
         <v>93</v>
@@ -7065,7 +7065,7 @@
         <v>162</v>
       </c>
       <c r="AS51" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT51" s="48" t="s">
         <v>94</v>
@@ -7098,7 +7098,7 @@
         <v>163</v>
       </c>
       <c r="AL52" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM52" s="48" t="s">
         <v>93</v>
@@ -7116,7 +7116,7 @@
         <v>163</v>
       </c>
       <c r="AS52" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT52" s="48" t="s">
         <v>94</v>
@@ -7147,7 +7147,7 @@
         <v>164</v>
       </c>
       <c r="AL53" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM53" s="48" t="s">
         <v>93</v>
@@ -7165,7 +7165,7 @@
         <v>164</v>
       </c>
       <c r="AS53" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT53" s="48" t="s">
         <v>94</v>
@@ -7218,7 +7218,7 @@
         <v>165</v>
       </c>
       <c r="AL54" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM54" s="48" t="s">
         <v>93</v>
@@ -7236,7 +7236,7 @@
         <v>165</v>
       </c>
       <c r="AS54" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT54" s="48" t="s">
         <v>94</v>
@@ -7279,7 +7279,7 @@
         <v>166</v>
       </c>
       <c r="AL55" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM55" s="48" t="s">
         <v>93</v>
@@ -7297,7 +7297,7 @@
         <v>166</v>
       </c>
       <c r="AS55" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT55" s="48" t="s">
         <v>94</v>
@@ -7340,7 +7340,7 @@
         <v>167</v>
       </c>
       <c r="AL56" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM56" s="48" t="s">
         <v>93</v>
@@ -7358,7 +7358,7 @@
         <v>167</v>
       </c>
       <c r="AS56" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT56" s="48" t="s">
         <v>94</v>
@@ -7401,7 +7401,7 @@
         <v>168</v>
       </c>
       <c r="AL57" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM57" s="48" t="s">
         <v>93</v>
@@ -7419,7 +7419,7 @@
         <v>168</v>
       </c>
       <c r="AS57" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT57" s="48" t="s">
         <v>94</v>
@@ -7462,7 +7462,7 @@
         <v>169</v>
       </c>
       <c r="AL58" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM58" s="48" t="s">
         <v>93</v>
@@ -7480,7 +7480,7 @@
         <v>169</v>
       </c>
       <c r="AS58" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT58" s="48" t="s">
         <v>94</v>
@@ -7523,7 +7523,7 @@
         <v>170</v>
       </c>
       <c r="AL59" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM59" s="48" t="s">
         <v>93</v>
@@ -7541,7 +7541,7 @@
         <v>170</v>
       </c>
       <c r="AS59" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT59" s="48" t="s">
         <v>94</v>
@@ -7584,7 +7584,7 @@
         <v>171</v>
       </c>
       <c r="AL60" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM60" s="48" t="s">
         <v>93</v>
@@ -7602,7 +7602,7 @@
         <v>171</v>
       </c>
       <c r="AS60" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT60" s="48" t="s">
         <v>94</v>
@@ -7645,7 +7645,7 @@
         <v>172</v>
       </c>
       <c r="AL61" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM61" s="48" t="s">
         <v>93</v>
@@ -7663,7 +7663,7 @@
         <v>172</v>
       </c>
       <c r="AS61" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT61" s="48" t="s">
         <v>94</v>
@@ -7706,7 +7706,7 @@
         <v>173</v>
       </c>
       <c r="AL62" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM62" s="48" t="s">
         <v>93</v>
@@ -7724,7 +7724,7 @@
         <v>173</v>
       </c>
       <c r="AS62" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT62" s="48" t="s">
         <v>94</v>
@@ -7744,7 +7744,7 @@
         <v>174</v>
       </c>
       <c r="AL63" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM63" s="48" t="s">
         <v>93</v>
@@ -7762,7 +7762,7 @@
         <v>174</v>
       </c>
       <c r="AS63" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT63" s="48" t="s">
         <v>94</v>
@@ -7782,7 +7782,7 @@
         <v>175</v>
       </c>
       <c r="AL64" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM64" s="48" t="s">
         <v>93</v>
@@ -7800,7 +7800,7 @@
         <v>175</v>
       </c>
       <c r="AS64" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT64" s="48" t="s">
         <v>94</v>
@@ -7820,7 +7820,7 @@
         <v>176</v>
       </c>
       <c r="AL65" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM65" s="48" t="s">
         <v>93</v>
@@ -7838,7 +7838,7 @@
         <v>176</v>
       </c>
       <c r="AS65" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT65" s="48" t="s">
         <v>94</v>
@@ -7858,7 +7858,7 @@
         <v>177</v>
       </c>
       <c r="AL66" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM66" s="48" t="s">
         <v>93</v>
@@ -7876,7 +7876,7 @@
         <v>177</v>
       </c>
       <c r="AS66" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT66" s="48" t="s">
         <v>94</v>
@@ -7896,7 +7896,7 @@
         <v>178</v>
       </c>
       <c r="AL67" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM67" s="48" t="s">
         <v>93</v>
@@ -7914,7 +7914,7 @@
         <v>178</v>
       </c>
       <c r="AS67" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT67" s="48" t="s">
         <v>94</v>
@@ -7934,7 +7934,7 @@
         <v>179</v>
       </c>
       <c r="AL68" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AM68" s="48" t="s">
         <v>93</v>
@@ -7952,7 +7952,7 @@
         <v>179</v>
       </c>
       <c r="AS68" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AT68" s="48" t="s">
         <v>94</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{09C30E30-F94B-441F-9C9E-5FF239EF9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EC3762C-F439-4413-95BC-949683992547}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{09C30E30-F94B-441F-9C9E-5FF239EF9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B66A05-E117-47BA-9868-B8AE4B85497F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -2096,9 +2096,6 @@
     <t>D_24</t>
   </si>
   <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
     <t>FLO_FR</t>
   </si>
   <si>
@@ -2184,6 +2181,9 @@
   </si>
   <si>
     <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>~TFM_DINS</t>
   </si>
 </sst>
 </file>
@@ -3000,6 +3000,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3346,7 +3350,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="14"/>
       <c r="N2" s="6" t="s">
@@ -3372,7 +3376,7 @@
         <v>58</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G3" s="14"/>
       <c r="N3" s="8" t="s">
@@ -3414,7 +3418,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G4" s="14"/>
       <c r="N4" s="13" t="s">
@@ -3456,7 +3460,7 @@
         <v>58</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G5" s="14"/>
       <c r="N5" s="39" t="s">
@@ -3519,7 +3523,7 @@
         <v>72</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>58</v>
@@ -3543,10 +3547,10 @@
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q8" s="37" t="s">
         <v>202</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>203</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>58</v>
@@ -3884,7 +3888,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>58</v>
@@ -4026,10 +4030,10 @@
         <v>64</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="R28" s="38" t="s">
         <v>58</v>
@@ -4066,10 +4070,10 @@
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q29" s="14" t="s">
         <v>205</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>206</v>
       </c>
       <c r="R29" s="38" t="s">
         <v>58</v>
@@ -4442,7 +4446,7 @@
   <dimension ref="B1:AU144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AT18" sqref="AT18"/>
+      <selection activeCell="AP29" sqref="AP29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4513,7 +4517,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50" t="s">
@@ -4761,10 +4765,10 @@
         <v>4</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G17" s="60" t="s">
         <v>16</v>
@@ -4791,16 +4795,16 @@
         <v>122</v>
       </c>
       <c r="O17" s="62" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="P17" s="62" t="s">
+      <c r="Q17" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="Q17" s="62" t="s">
+      <c r="R17" s="62" t="s">
         <v>196</v>
-      </c>
-      <c r="R17" s="62" t="s">
-        <v>197</v>
       </c>
       <c r="S17" s="62"/>
       <c r="V17" s="54" t="s">
@@ -4831,7 +4835,7 @@
         <v>22</v>
       </c>
       <c r="AI17" s="63" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="63"/>
@@ -4839,7 +4843,7 @@
       <c r="AM17" s="63"/>
       <c r="AN17" s="38"/>
       <c r="AP17" s="63" t="s">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="AQ17" s="38"/>
       <c r="AR17" s="63"/>
@@ -4887,16 +4891,16 @@
         <v>123</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="R18" s="81" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S18" s="81"/>
       <c r="V18" s="31" t="s">
@@ -4930,37 +4934,37 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AK18" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AL18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="AM18" s="64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AN18" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AP18" s="64" t="s">
         <v>130</v>
       </c>
       <c r="AQ18" s="64" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AR18" s="64" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="AS18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="AT18" s="64" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AU18" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -4977,11 +4981,11 @@
         <v>54</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K19" s="36"/>
       <c r="L19" s="35" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M19" s="36"/>
       <c r="N19" s="36" t="s">
@@ -5171,7 +5175,7 @@
       <c r="AC21" s="49"/>
       <c r="AD21" s="49"/>
       <c r="AI21" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ21" s="39" t="s">
         <v>69</v>
@@ -5180,7 +5184,7 @@
         <v>132</v>
       </c>
       <c r="AL21" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM21" s="48" t="s">
         <v>93</v>
@@ -5189,7 +5193,7 @@
         <v>3.3051976250754521E-3</v>
       </c>
       <c r="AP21" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ21" s="39" t="s">
         <v>69</v>
@@ -5198,7 +5202,7 @@
         <v>132</v>
       </c>
       <c r="AS21" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT21" s="48" t="s">
         <v>94</v>
@@ -5272,7 +5276,7 @@
       <c r="AC22" s="49"/>
       <c r="AD22" s="49"/>
       <c r="AI22" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ22" s="39" t="s">
         <v>69</v>
@@ -5281,7 +5285,7 @@
         <v>133</v>
       </c>
       <c r="AL22" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM22" s="48" t="s">
         <v>93</v>
@@ -5290,7 +5294,7 @@
         <v>3.1618331753269246E-3</v>
       </c>
       <c r="AP22" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ22" s="39" t="s">
         <v>69</v>
@@ -5299,7 +5303,7 @@
         <v>133</v>
       </c>
       <c r="AS22" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT22" s="48" t="s">
         <v>94</v>
@@ -5371,7 +5375,7 @@
         <v>88</v>
       </c>
       <c r="AI23" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ23" s="39" t="s">
         <v>69</v>
@@ -5380,7 +5384,7 @@
         <v>134</v>
       </c>
       <c r="AL23" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM23" s="48" t="s">
         <v>93</v>
@@ -5389,7 +5393,7 @@
         <v>2.8979409360310663E-3</v>
       </c>
       <c r="AP23" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ23" s="39" t="s">
         <v>69</v>
@@ -5398,7 +5402,7 @@
         <v>134</v>
       </c>
       <c r="AS23" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT23" s="48" t="s">
         <v>94</v>
@@ -5470,7 +5474,7 @@
         <v>88</v>
       </c>
       <c r="AI24" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ24" s="39" t="s">
         <v>69</v>
@@ -5479,7 +5483,7 @@
         <v>135</v>
       </c>
       <c r="AL24" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM24" s="48" t="s">
         <v>93</v>
@@ -5488,7 +5492,7 @@
         <v>2.7156926103261707E-3</v>
       </c>
       <c r="AP24" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ24" s="39" t="s">
         <v>69</v>
@@ -5497,7 +5501,7 @@
         <v>135</v>
       </c>
       <c r="AS24" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT24" s="48" t="s">
         <v>94</v>
@@ -5575,7 +5579,7 @@
         <v>88</v>
       </c>
       <c r="AI25" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ25" s="39" t="s">
         <v>69</v>
@@ -5584,7 +5588,7 @@
         <v>136</v>
       </c>
       <c r="AL25" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM25" s="48" t="s">
         <v>93</v>
@@ -5593,7 +5597,7 @@
         <v>2.5452192095824343E-3</v>
       </c>
       <c r="AP25" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ25" s="39" t="s">
         <v>69</v>
@@ -5602,7 +5606,7 @@
         <v>136</v>
       </c>
       <c r="AS25" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT25" s="48" t="s">
         <v>94</v>
@@ -5680,7 +5684,7 @@
         <v>88</v>
       </c>
       <c r="AI26" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ26" s="39" t="s">
         <v>69</v>
@@ -5689,7 +5693,7 @@
         <v>137</v>
       </c>
       <c r="AL26" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM26" s="48" t="s">
         <v>93</v>
@@ -5698,7 +5702,7 @@
         <v>2.5834450529081338E-3</v>
       </c>
       <c r="AP26" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ26" s="39" t="s">
         <v>69</v>
@@ -5707,7 +5711,7 @@
         <v>137</v>
       </c>
       <c r="AS26" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT26" s="48" t="s">
         <v>94</v>
@@ -5786,7 +5790,7 @@
         <v>88</v>
       </c>
       <c r="AI27" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ27" s="39" t="s">
         <v>69</v>
@@ -5795,7 +5799,7 @@
         <v>138</v>
       </c>
       <c r="AL27" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM27" s="48" t="s">
         <v>93</v>
@@ -5804,7 +5808,7 @@
         <v>2.7432881310744317E-3</v>
       </c>
       <c r="AP27" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ27" s="39" t="s">
         <v>69</v>
@@ -5813,7 +5817,7 @@
         <v>138</v>
       </c>
       <c r="AS27" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT27" s="48" t="s">
         <v>94</v>
@@ -5891,7 +5895,7 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AI28" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ28" s="39" t="s">
         <v>69</v>
@@ -5900,7 +5904,7 @@
         <v>139</v>
       </c>
       <c r="AL28" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM28" s="48" t="s">
         <v>93</v>
@@ -5909,7 +5913,7 @@
         <v>2.8314721319216154E-3</v>
       </c>
       <c r="AP28" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ28" s="39" t="s">
         <v>69</v>
@@ -5918,7 +5922,7 @@
         <v>139</v>
       </c>
       <c r="AS28" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT28" s="48" t="s">
         <v>94</v>
@@ -5975,7 +5979,7 @@
       </c>
       <c r="S29" s="46"/>
       <c r="AI29" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ29" s="39" t="s">
         <v>69</v>
@@ -5984,7 +5988,7 @@
         <v>140</v>
       </c>
       <c r="AL29" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM29" s="48" t="s">
         <v>93</v>
@@ -5993,7 +5997,7 @@
         <v>2.8141143326017269E-3</v>
       </c>
       <c r="AP29" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ29" s="39" t="s">
         <v>69</v>
@@ -6002,7 +6006,7 @@
         <v>140</v>
       </c>
       <c r="AS29" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT29" s="48" t="s">
         <v>94</v>
@@ -6068,7 +6072,7 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
       <c r="AI30" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ30" s="39" t="s">
         <v>69</v>
@@ -6077,7 +6081,7 @@
         <v>141</v>
       </c>
       <c r="AL30" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM30" s="48" t="s">
         <v>93</v>
@@ -6086,7 +6090,7 @@
         <v>2.6656478128544076E-3</v>
       </c>
       <c r="AP30" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ30" s="39" t="s">
         <v>69</v>
@@ -6095,7 +6099,7 @@
         <v>141</v>
       </c>
       <c r="AS30" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT30" s="48" t="s">
         <v>94</v>
@@ -6146,7 +6150,7 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
       <c r="AI31" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ31" s="39" t="s">
         <v>69</v>
@@ -6155,7 +6159,7 @@
         <v>142</v>
       </c>
       <c r="AL31" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM31" s="48" t="s">
         <v>93</v>
@@ -6164,7 +6168,7 @@
         <v>2.4530677112863486E-3</v>
       </c>
       <c r="AP31" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ31" s="39" t="s">
         <v>69</v>
@@ -6173,7 +6177,7 @@
         <v>142</v>
       </c>
       <c r="AS31" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT31" s="48" t="s">
         <v>94</v>
@@ -6199,7 +6203,7 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
       <c r="AI32" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ32" s="39" t="s">
         <v>69</v>
@@ -6208,7 +6212,7 @@
         <v>143</v>
       </c>
       <c r="AL32" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM32" s="48" t="s">
         <v>93</v>
@@ -6217,7 +6221,7 @@
         <v>2.1363241345921055E-3</v>
       </c>
       <c r="AP32" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ32" s="39" t="s">
         <v>69</v>
@@ -6226,7 +6230,7 @@
         <v>143</v>
       </c>
       <c r="AS32" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT32" s="48" t="s">
         <v>94</v>
@@ -6252,7 +6256,7 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
       <c r="AI33" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ33" s="39" t="s">
         <v>69</v>
@@ -6261,7 +6265,7 @@
         <v>144</v>
       </c>
       <c r="AL33" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM33" s="48" t="s">
         <v>93</v>
@@ -6270,7 +6274,7 @@
         <v>1.8660639529435976E-3</v>
       </c>
       <c r="AP33" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ33" s="39" t="s">
         <v>69</v>
@@ -6279,7 +6283,7 @@
         <v>144</v>
       </c>
       <c r="AS33" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT33" s="48" t="s">
         <v>94</v>
@@ -6305,7 +6309,7 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
       <c r="AI34" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ34" s="39" t="s">
         <v>69</v>
@@ -6314,7 +6318,7 @@
         <v>145</v>
       </c>
       <c r="AL34" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM34" s="48" t="s">
         <v>93</v>
@@ -6323,7 +6327,7 @@
         <v>1.7487528282965712E-3</v>
       </c>
       <c r="AP34" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ34" s="39" t="s">
         <v>69</v>
@@ -6332,7 +6336,7 @@
         <v>145</v>
       </c>
       <c r="AS34" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT34" s="48" t="s">
         <v>94</v>
@@ -6359,7 +6363,7 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
       <c r="AI35" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ35" s="39" t="s">
         <v>69</v>
@@ -6368,7 +6372,7 @@
         <v>146</v>
       </c>
       <c r="AL35" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM35" s="48" t="s">
         <v>93</v>
@@ -6377,7 +6381,7 @@
         <v>1.6637860863902745E-3</v>
       </c>
       <c r="AP35" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ35" s="39" t="s">
         <v>69</v>
@@ -6386,7 +6390,7 @@
         <v>146</v>
       </c>
       <c r="AS35" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT35" s="48" t="s">
         <v>94</v>
@@ -6416,7 +6420,7 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
       <c r="AI36" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ36" s="39" t="s">
         <v>69</v>
@@ -6425,7 +6429,7 @@
         <v>147</v>
       </c>
       <c r="AL36" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM36" s="48" t="s">
         <v>93</v>
@@ -6434,7 +6438,7 @@
         <v>1.8211742012316831E-3</v>
       </c>
       <c r="AP36" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ36" s="39" t="s">
         <v>69</v>
@@ -6443,7 +6447,7 @@
         <v>147</v>
       </c>
       <c r="AS36" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT36" s="48" t="s">
         <v>94</v>
@@ -6473,7 +6477,7 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
       <c r="AI37" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ37" s="39" t="s">
         <v>69</v>
@@ -6482,7 +6486,7 @@
         <v>148</v>
       </c>
       <c r="AL37" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM37" s="48" t="s">
         <v>93</v>
@@ -6491,7 +6495,7 @@
         <v>1.9153018835258307E-3</v>
       </c>
       <c r="AP37" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ37" s="39" t="s">
         <v>69</v>
@@ -6500,7 +6504,7 @@
         <v>148</v>
       </c>
       <c r="AS37" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT37" s="48" t="s">
         <v>94</v>
@@ -6518,7 +6522,7 @@
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
       <c r="AI38" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ38" s="39" t="s">
         <v>69</v>
@@ -6527,7 +6531,7 @@
         <v>149</v>
       </c>
       <c r="AL38" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM38" s="48" t="s">
         <v>93</v>
@@ -6536,7 +6540,7 @@
         <v>1.9744590518638132E-3</v>
       </c>
       <c r="AP38" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ38" s="39" t="s">
         <v>69</v>
@@ -6545,7 +6549,7 @@
         <v>149</v>
       </c>
       <c r="AS38" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT38" s="48" t="s">
         <v>94</v>
@@ -6557,7 +6561,7 @@
     <row r="39" spans="2:47" x14ac:dyDescent="0.2">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ39" s="39" t="s">
         <v>69</v>
@@ -6566,7 +6570,7 @@
         <v>150</v>
       </c>
       <c r="AL39" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM39" s="48" t="s">
         <v>93</v>
@@ -6575,7 +6579,7 @@
         <v>2.1878436160058393E-3</v>
       </c>
       <c r="AP39" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ39" s="39" t="s">
         <v>69</v>
@@ -6584,7 +6588,7 @@
         <v>150</v>
       </c>
       <c r="AS39" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT39" s="48" t="s">
         <v>94</v>
@@ -6600,7 +6604,7 @@
       </c>
       <c r="H40" s="75"/>
       <c r="AI40" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ40" s="39" t="s">
         <v>69</v>
@@ -6609,7 +6613,7 @@
         <v>151</v>
       </c>
       <c r="AL40" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM40" s="48" t="s">
         <v>93</v>
@@ -6618,7 +6622,7 @@
         <v>2.3889741533883327E-3</v>
       </c>
       <c r="AP40" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ40" s="39" t="s">
         <v>69</v>
@@ -6627,7 +6631,7 @@
         <v>151</v>
       </c>
       <c r="AS40" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT40" s="48" t="s">
         <v>94</v>
@@ -6643,7 +6647,7 @@
       </c>
       <c r="H41" s="75"/>
       <c r="AI41" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ41" s="39" t="s">
         <v>69</v>
@@ -6652,7 +6656,7 @@
         <v>152</v>
       </c>
       <c r="AL41" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM41" s="48" t="s">
         <v>93</v>
@@ -6661,7 +6665,7 @@
         <v>2.4063426997311056E-3</v>
       </c>
       <c r="AP41" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ41" s="39" t="s">
         <v>69</v>
@@ -6670,7 +6674,7 @@
         <v>152</v>
       </c>
       <c r="AS41" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT41" s="48" t="s">
         <v>94</v>
@@ -6688,7 +6692,7 @@
       </c>
       <c r="H42" s="75"/>
       <c r="AI42" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ42" s="39" t="s">
         <v>69</v>
@@ -6697,7 +6701,7 @@
         <v>153</v>
       </c>
       <c r="AL42" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM42" s="48" t="s">
         <v>93</v>
@@ -6706,7 +6710,7 @@
         <v>2.5925256698099051E-3</v>
       </c>
       <c r="AP42" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ42" s="39" t="s">
         <v>69</v>
@@ -6715,7 +6719,7 @@
         <v>153</v>
       </c>
       <c r="AS42" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT42" s="48" t="s">
         <v>94</v>
@@ -6726,7 +6730,7 @@
     </row>
     <row r="43" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI43" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ43" s="39" t="s">
         <v>69</v>
@@ -6735,7 +6739,7 @@
         <v>154</v>
       </c>
       <c r="AL43" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM43" s="48" t="s">
         <v>93</v>
@@ -6744,7 +6748,7 @@
         <v>2.9724559200622644E-3</v>
       </c>
       <c r="AP43" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ43" s="39" t="s">
         <v>69</v>
@@ -6753,7 +6757,7 @@
         <v>154</v>
       </c>
       <c r="AS43" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT43" s="48" t="s">
         <v>94</v>
@@ -6771,7 +6775,7 @@
         <v>8760</v>
       </c>
       <c r="AI44" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ44" s="39" t="s">
         <v>69</v>
@@ -6780,7 +6784,7 @@
         <v>155</v>
       </c>
       <c r="AL44" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM44" s="48" t="s">
         <v>93</v>
@@ -6789,7 +6793,7 @@
         <v>3.3823091606694387E-3</v>
       </c>
       <c r="AP44" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ44" s="39" t="s">
         <v>69</v>
@@ -6798,7 +6802,7 @@
         <v>155</v>
       </c>
       <c r="AS44" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT44" s="48" t="s">
         <v>94</v>
@@ -6810,7 +6814,7 @@
     <row r="45" spans="2:47" x14ac:dyDescent="0.2">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ45" s="39" t="s">
         <v>69</v>
@@ -6819,7 +6823,7 @@
         <v>156</v>
       </c>
       <c r="AL45" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM45" s="48" t="s">
         <v>93</v>
@@ -6828,7 +6832,7 @@
         <v>3.3051976250754521E-3</v>
       </c>
       <c r="AP45" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ45" s="39" t="s">
         <v>69</v>
@@ -6837,7 +6841,7 @@
         <v>156</v>
       </c>
       <c r="AS45" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT45" s="48" t="s">
         <v>94</v>
@@ -6848,7 +6852,7 @@
     </row>
     <row r="46" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI46" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ46" s="39" t="s">
         <v>69</v>
@@ -6857,7 +6861,7 @@
         <v>157</v>
       </c>
       <c r="AL46" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM46" s="48" t="s">
         <v>93</v>
@@ -6866,7 +6870,7 @@
         <v>3.1618331753269246E-3</v>
       </c>
       <c r="AP46" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ46" s="39" t="s">
         <v>69</v>
@@ -6875,7 +6879,7 @@
         <v>157</v>
       </c>
       <c r="AS46" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT46" s="48" t="s">
         <v>94</v>
@@ -6886,7 +6890,7 @@
     </row>
     <row r="47" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI47" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ47" s="39" t="s">
         <v>69</v>
@@ -6895,7 +6899,7 @@
         <v>158</v>
       </c>
       <c r="AL47" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM47" s="48" t="s">
         <v>93</v>
@@ -6904,7 +6908,7 @@
         <v>2.8979409360310663E-3</v>
       </c>
       <c r="AP47" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ47" s="39" t="s">
         <v>69</v>
@@ -6913,7 +6917,7 @@
         <v>158</v>
       </c>
       <c r="AS47" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT47" s="48" t="s">
         <v>94</v>
@@ -6924,7 +6928,7 @@
     </row>
     <row r="48" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI48" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ48" s="39" t="s">
         <v>69</v>
@@ -6933,7 +6937,7 @@
         <v>159</v>
       </c>
       <c r="AL48" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM48" s="48" t="s">
         <v>93</v>
@@ -6942,7 +6946,7 @@
         <v>2.7156926103261707E-3</v>
       </c>
       <c r="AP48" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ48" s="39" t="s">
         <v>69</v>
@@ -6951,7 +6955,7 @@
         <v>159</v>
       </c>
       <c r="AS48" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT48" s="48" t="s">
         <v>94</v>
@@ -6962,7 +6966,7 @@
     </row>
     <row r="49" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI49" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ49" s="39" t="s">
         <v>69</v>
@@ -6971,7 +6975,7 @@
         <v>160</v>
       </c>
       <c r="AL49" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM49" s="48" t="s">
         <v>93</v>
@@ -6980,7 +6984,7 @@
         <v>2.5452192095824343E-3</v>
       </c>
       <c r="AP49" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ49" s="39" t="s">
         <v>69</v>
@@ -6989,7 +6993,7 @@
         <v>160</v>
       </c>
       <c r="AS49" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT49" s="48" t="s">
         <v>94</v>
@@ -7000,7 +7004,7 @@
     </row>
     <row r="50" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI50" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ50" s="39" t="s">
         <v>69</v>
@@ -7009,7 +7013,7 @@
         <v>161</v>
       </c>
       <c r="AL50" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM50" s="48" t="s">
         <v>93</v>
@@ -7018,7 +7022,7 @@
         <v>2.5834450529081338E-3</v>
       </c>
       <c r="AP50" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ50" s="39" t="s">
         <v>69</v>
@@ -7027,7 +7031,7 @@
         <v>161</v>
       </c>
       <c r="AS50" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT50" s="48" t="s">
         <v>94</v>
@@ -7038,7 +7042,7 @@
     </row>
     <row r="51" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI51" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ51" s="39" t="s">
         <v>69</v>
@@ -7047,7 +7051,7 @@
         <v>162</v>
       </c>
       <c r="AL51" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM51" s="48" t="s">
         <v>93</v>
@@ -7056,7 +7060,7 @@
         <v>2.7432881310744317E-3</v>
       </c>
       <c r="AP51" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ51" s="39" t="s">
         <v>69</v>
@@ -7065,7 +7069,7 @@
         <v>162</v>
       </c>
       <c r="AS51" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT51" s="48" t="s">
         <v>94</v>
@@ -7076,7 +7080,7 @@
     </row>
     <row r="52" spans="2:47" x14ac:dyDescent="0.2">
       <c r="B52" s="79" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C52" s="79"/>
       <c r="D52"/>
@@ -7089,7 +7093,7 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="AI52" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ52" s="39" t="s">
         <v>69</v>
@@ -7098,7 +7102,7 @@
         <v>163</v>
       </c>
       <c r="AL52" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM52" s="48" t="s">
         <v>93</v>
@@ -7107,7 +7111,7 @@
         <v>2.8314721319216154E-3</v>
       </c>
       <c r="AP52" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ52" s="39" t="s">
         <v>69</v>
@@ -7116,7 +7120,7 @@
         <v>163</v>
       </c>
       <c r="AS52" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT52" s="48" t="s">
         <v>94</v>
@@ -7138,7 +7142,7 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="AI53" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ53" s="39" t="s">
         <v>69</v>
@@ -7147,7 +7151,7 @@
         <v>164</v>
       </c>
       <c r="AL53" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM53" s="48" t="s">
         <v>93</v>
@@ -7156,7 +7160,7 @@
         <v>2.8141143326017269E-3</v>
       </c>
       <c r="AP53" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ53" s="39" t="s">
         <v>69</v>
@@ -7165,7 +7169,7 @@
         <v>164</v>
       </c>
       <c r="AS53" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT53" s="48" t="s">
         <v>94</v>
@@ -7176,10 +7180,10 @@
     </row>
     <row r="54" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B54" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="C54" s="80" t="s">
         <v>187</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>188</v>
       </c>
       <c r="D54" s="80" t="s">
         <v>11</v>
@@ -7209,7 +7213,7 @@
         <v>2050</v>
       </c>
       <c r="AI54" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ54" s="39" t="s">
         <v>69</v>
@@ -7218,7 +7222,7 @@
         <v>165</v>
       </c>
       <c r="AL54" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM54" s="48" t="s">
         <v>93</v>
@@ -7227,7 +7231,7 @@
         <v>2.6656478128544076E-3</v>
       </c>
       <c r="AP54" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ54" s="39" t="s">
         <v>69</v>
@@ -7236,7 +7240,7 @@
         <v>165</v>
       </c>
       <c r="AS54" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT54" s="48" t="s">
         <v>94</v>
@@ -7253,10 +7257,10 @@
         <v>94</v>
       </c>
       <c r="D55" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7270,7 +7274,7 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="AI55" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ55" s="39" t="s">
         <v>69</v>
@@ -7279,7 +7283,7 @@
         <v>166</v>
       </c>
       <c r="AL55" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM55" s="48" t="s">
         <v>93</v>
@@ -7288,7 +7292,7 @@
         <v>2.4530677112863486E-3</v>
       </c>
       <c r="AP55" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ55" s="39" t="s">
         <v>69</v>
@@ -7297,7 +7301,7 @@
         <v>166</v>
       </c>
       <c r="AS55" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT55" s="48" t="s">
         <v>94</v>
@@ -7314,10 +7318,10 @@
         <v>93</v>
       </c>
       <c r="D56" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7331,7 +7335,7 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="AI56" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ56" s="39" t="s">
         <v>69</v>
@@ -7340,7 +7344,7 @@
         <v>167</v>
       </c>
       <c r="AL56" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM56" s="48" t="s">
         <v>93</v>
@@ -7349,7 +7353,7 @@
         <v>2.1363241345921055E-3</v>
       </c>
       <c r="AP56" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ56" s="39" t="s">
         <v>69</v>
@@ -7358,7 +7362,7 @@
         <v>167</v>
       </c>
       <c r="AS56" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT56" s="48" t="s">
         <v>94</v>
@@ -7375,10 +7379,10 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
+        <v>189</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7392,7 +7396,7 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="AI57" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ57" s="39" t="s">
         <v>69</v>
@@ -7401,7 +7405,7 @@
         <v>168</v>
       </c>
       <c r="AL57" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM57" s="48" t="s">
         <v>93</v>
@@ -7410,7 +7414,7 @@
         <v>1.8660639529435976E-3</v>
       </c>
       <c r="AP57" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ57" s="39" t="s">
         <v>69</v>
@@ -7419,7 +7423,7 @@
         <v>168</v>
       </c>
       <c r="AS57" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT57" s="48" t="s">
         <v>94</v>
@@ -7433,13 +7437,13 @@
         <v>121</v>
       </c>
       <c r="C58" t="s">
+        <v>188</v>
+      </c>
+      <c r="D58" t="s">
         <v>189</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -7453,7 +7457,7 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="AI58" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ58" s="39" t="s">
         <v>69</v>
@@ -7462,7 +7466,7 @@
         <v>169</v>
       </c>
       <c r="AL58" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM58" s="48" t="s">
         <v>93</v>
@@ -7471,7 +7475,7 @@
         <v>1.7487528282965712E-3</v>
       </c>
       <c r="AP58" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ58" s="39" t="s">
         <v>69</v>
@@ -7480,7 +7484,7 @@
         <v>169</v>
       </c>
       <c r="AS58" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT58" s="48" t="s">
         <v>94</v>
@@ -7497,10 +7501,10 @@
         <v>102</v>
       </c>
       <c r="D59" t="s">
+        <v>189</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -7514,7 +7518,7 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="AI59" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ59" s="39" t="s">
         <v>69</v>
@@ -7523,7 +7527,7 @@
         <v>170</v>
       </c>
       <c r="AL59" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM59" s="48" t="s">
         <v>93</v>
@@ -7532,7 +7536,7 @@
         <v>1.6637860863902745E-3</v>
       </c>
       <c r="AP59" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ59" s="39" t="s">
         <v>69</v>
@@ -7541,7 +7545,7 @@
         <v>170</v>
       </c>
       <c r="AS59" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT59" s="48" t="s">
         <v>94</v>
@@ -7558,10 +7562,10 @@
         <v>105</v>
       </c>
       <c r="D60" t="s">
+        <v>189</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -7575,7 +7579,7 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="AI60" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ60" s="39" t="s">
         <v>69</v>
@@ -7584,7 +7588,7 @@
         <v>171</v>
       </c>
       <c r="AL60" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM60" s="48" t="s">
         <v>93</v>
@@ -7593,7 +7597,7 @@
         <v>1.8211742012316831E-3</v>
       </c>
       <c r="AP60" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ60" s="39" t="s">
         <v>69</v>
@@ -7602,7 +7606,7 @@
         <v>171</v>
       </c>
       <c r="AS60" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT60" s="48" t="s">
         <v>94</v>
@@ -7619,10 +7623,10 @@
         <v>66</v>
       </c>
       <c r="D61" t="s">
+        <v>189</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -7636,7 +7640,7 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="AI61" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ61" s="39" t="s">
         <v>69</v>
@@ -7645,7 +7649,7 @@
         <v>172</v>
       </c>
       <c r="AL61" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM61" s="48" t="s">
         <v>93</v>
@@ -7654,7 +7658,7 @@
         <v>1.9153018835258307E-3</v>
       </c>
       <c r="AP61" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ61" s="39" t="s">
         <v>69</v>
@@ -7663,7 +7667,7 @@
         <v>172</v>
       </c>
       <c r="AS61" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT61" s="48" t="s">
         <v>94</v>
@@ -7680,10 +7684,10 @@
         <v>103</v>
       </c>
       <c r="D62" t="s">
+        <v>189</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>190</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>191</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -7697,7 +7701,7 @@
       <c r="K62"/>
       <c r="L62"/>
       <c r="AI62" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ62" s="39" t="s">
         <v>69</v>
@@ -7706,7 +7710,7 @@
         <v>173</v>
       </c>
       <c r="AL62" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM62" s="48" t="s">
         <v>93</v>
@@ -7715,7 +7719,7 @@
         <v>1.9744590518638132E-3</v>
       </c>
       <c r="AP62" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ62" s="39" t="s">
         <v>69</v>
@@ -7724,7 +7728,7 @@
         <v>173</v>
       </c>
       <c r="AS62" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT62" s="48" t="s">
         <v>94</v>
@@ -7735,7 +7739,7 @@
     </row>
     <row r="63" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI63" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ63" s="39" t="s">
         <v>69</v>
@@ -7744,7 +7748,7 @@
         <v>174</v>
       </c>
       <c r="AL63" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM63" s="48" t="s">
         <v>93</v>
@@ -7753,7 +7757,7 @@
         <v>2.1878436160058393E-3</v>
       </c>
       <c r="AP63" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ63" s="39" t="s">
         <v>69</v>
@@ -7762,7 +7766,7 @@
         <v>174</v>
       </c>
       <c r="AS63" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT63" s="48" t="s">
         <v>94</v>
@@ -7773,7 +7777,7 @@
     </row>
     <row r="64" spans="2:47" x14ac:dyDescent="0.2">
       <c r="AI64" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ64" s="39" t="s">
         <v>69</v>
@@ -7782,7 +7786,7 @@
         <v>175</v>
       </c>
       <c r="AL64" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM64" s="48" t="s">
         <v>93</v>
@@ -7791,7 +7795,7 @@
         <v>2.3889741533883327E-3</v>
       </c>
       <c r="AP64" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ64" s="39" t="s">
         <v>69</v>
@@ -7800,7 +7804,7 @@
         <v>175</v>
       </c>
       <c r="AS64" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT64" s="48" t="s">
         <v>94</v>
@@ -7811,7 +7815,7 @@
     </row>
     <row r="65" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI65" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ65" s="39" t="s">
         <v>69</v>
@@ -7820,7 +7824,7 @@
         <v>176</v>
       </c>
       <c r="AL65" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM65" s="48" t="s">
         <v>93</v>
@@ -7829,7 +7833,7 @@
         <v>2.4063426997311056E-3</v>
       </c>
       <c r="AP65" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ65" s="39" t="s">
         <v>69</v>
@@ -7838,7 +7842,7 @@
         <v>176</v>
       </c>
       <c r="AS65" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT65" s="48" t="s">
         <v>94</v>
@@ -7849,7 +7853,7 @@
     </row>
     <row r="66" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI66" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ66" s="39" t="s">
         <v>69</v>
@@ -7858,7 +7862,7 @@
         <v>177</v>
       </c>
       <c r="AL66" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM66" s="48" t="s">
         <v>93</v>
@@ -7867,7 +7871,7 @@
         <v>2.5925256698099051E-3</v>
       </c>
       <c r="AP66" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ66" s="39" t="s">
         <v>69</v>
@@ -7876,7 +7880,7 @@
         <v>177</v>
       </c>
       <c r="AS66" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT66" s="48" t="s">
         <v>94</v>
@@ -7887,7 +7891,7 @@
     </row>
     <row r="67" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI67" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ67" s="39" t="s">
         <v>69</v>
@@ -7896,7 +7900,7 @@
         <v>178</v>
       </c>
       <c r="AL67" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM67" s="48" t="s">
         <v>93</v>
@@ -7905,7 +7909,7 @@
         <v>2.9724559200622644E-3</v>
       </c>
       <c r="AP67" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ67" s="39" t="s">
         <v>69</v>
@@ -7914,7 +7918,7 @@
         <v>178</v>
       </c>
       <c r="AS67" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT67" s="48" t="s">
         <v>94</v>
@@ -7925,7 +7929,7 @@
     </row>
     <row r="68" spans="35:47" x14ac:dyDescent="0.2">
       <c r="AI68" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AJ68" s="39" t="s">
         <v>69</v>
@@ -7934,7 +7938,7 @@
         <v>179</v>
       </c>
       <c r="AL68" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AM68" s="48" t="s">
         <v>93</v>
@@ -7943,7 +7947,7 @@
         <v>3.3823091606694387E-3</v>
       </c>
       <c r="AP68" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AQ68" s="39" t="s">
         <v>69</v>
@@ -7952,7 +7956,7 @@
         <v>179</v>
       </c>
       <c r="AS68" s="48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AT68" s="48" t="s">
         <v>94</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{09C30E30-F94B-441F-9C9E-5FF239EF9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68B66A05-E117-47BA-9868-B8AE4B85497F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613202AB-0027-4E43-832F-BCA9F8650323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="211">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2150,9 +2150,6 @@
     <t>FX</t>
   </si>
   <si>
-    <t>AllRegions</t>
-  </si>
-  <si>
     <t>TimeSlices</t>
   </si>
   <si>
@@ -2177,13 +2174,19 @@
     <t>Wind Resource-Harnessed</t>
   </si>
   <si>
-    <t>CSET_CN</t>
-  </si>
-  <si>
-    <t>PSET_PN</t>
-  </si>
-  <si>
     <t>~TFM_DINS</t>
+  </si>
+  <si>
+    <t>Cset_CN</t>
+  </si>
+  <si>
+    <t>Pset_CN</t>
+  </si>
+  <si>
+    <t>CSet_CN</t>
+  </si>
+  <si>
+    <t>CSET_ELC</t>
   </si>
 </sst>
 </file>
@@ -3000,10 +3003,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3523,7 +3522,7 @@
         <v>72</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>58</v>
@@ -3547,10 +3546,10 @@
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q8" s="37" t="s">
         <v>201</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>202</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>58</v>
@@ -4030,10 +4029,10 @@
         <v>64</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="R28" s="38" t="s">
         <v>58</v>
@@ -4070,10 +4069,10 @@
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="Q29" s="14" t="s">
         <v>204</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>205</v>
       </c>
       <c r="R29" s="38" t="s">
         <v>58</v>
@@ -4445,8 +4444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AP29" sqref="AP29"/>
+    <sheetView tabSelected="1" topLeftCell="Z47" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AQ75" sqref="AQ75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4835,7 +4834,7 @@
         <v>22</v>
       </c>
       <c r="AI17" s="63" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="63"/>
@@ -4843,7 +4842,7 @@
       <c r="AM17" s="63"/>
       <c r="AN17" s="38"/>
       <c r="AP17" s="63" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="AQ17" s="38"/>
       <c r="AR17" s="63"/>
@@ -4937,7 +4936,7 @@
         <v>207</v>
       </c>
       <c r="AK18" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AL18" s="64" t="s">
         <v>11</v>
@@ -4946,16 +4945,16 @@
         <v>208</v>
       </c>
       <c r="AN18" s="64" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
       <c r="AP18" s="64" t="s">
         <v>130</v>
       </c>
       <c r="AQ18" s="64" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AR18" s="64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="AS18" s="64" t="s">
         <v>11</v>
@@ -4964,7 +4963,7 @@
         <v>208</v>
       </c>
       <c r="AU18" s="64" t="s">
-        <v>198</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -5178,7 +5177,7 @@
         <v>180</v>
       </c>
       <c r="AJ21" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK21" s="48" t="s">
         <v>132</v>
@@ -5196,7 +5195,7 @@
         <v>180</v>
       </c>
       <c r="AQ21" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR21" s="48" t="s">
         <v>132</v>
@@ -5279,7 +5278,7 @@
         <v>180</v>
       </c>
       <c r="AJ22" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK22" s="69" t="s">
         <v>133</v>
@@ -5297,7 +5296,7 @@
         <v>180</v>
       </c>
       <c r="AQ22" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR22" s="69" t="s">
         <v>133</v>
@@ -5378,7 +5377,7 @@
         <v>180</v>
       </c>
       <c r="AJ23" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK23" s="48" t="s">
         <v>134</v>
@@ -5396,7 +5395,7 @@
         <v>180</v>
       </c>
       <c r="AQ23" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR23" s="48" t="s">
         <v>134</v>
@@ -5477,7 +5476,7 @@
         <v>180</v>
       </c>
       <c r="AJ24" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK24" s="69" t="s">
         <v>135</v>
@@ -5495,7 +5494,7 @@
         <v>180</v>
       </c>
       <c r="AQ24" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR24" s="69" t="s">
         <v>135</v>
@@ -5582,7 +5581,7 @@
         <v>180</v>
       </c>
       <c r="AJ25" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK25" s="48" t="s">
         <v>136</v>
@@ -5600,7 +5599,7 @@
         <v>180</v>
       </c>
       <c r="AQ25" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR25" s="48" t="s">
         <v>136</v>
@@ -5687,7 +5686,7 @@
         <v>180</v>
       </c>
       <c r="AJ26" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK26" s="69" t="s">
         <v>137</v>
@@ -5705,7 +5704,7 @@
         <v>180</v>
       </c>
       <c r="AQ26" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR26" s="69" t="s">
         <v>137</v>
@@ -5793,7 +5792,7 @@
         <v>180</v>
       </c>
       <c r="AJ27" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK27" s="48" t="s">
         <v>138</v>
@@ -5811,7 +5810,7 @@
         <v>180</v>
       </c>
       <c r="AQ27" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR27" s="48" t="s">
         <v>138</v>
@@ -5898,7 +5897,7 @@
         <v>180</v>
       </c>
       <c r="AJ28" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK28" s="69" t="s">
         <v>139</v>
@@ -5916,7 +5915,7 @@
         <v>180</v>
       </c>
       <c r="AQ28" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR28" s="69" t="s">
         <v>139</v>
@@ -5982,7 +5981,7 @@
         <v>180</v>
       </c>
       <c r="AJ29" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK29" s="48" t="s">
         <v>140</v>
@@ -6000,7 +5999,7 @@
         <v>180</v>
       </c>
       <c r="AQ29" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR29" s="48" t="s">
         <v>140</v>
@@ -6075,7 +6074,7 @@
         <v>180</v>
       </c>
       <c r="AJ30" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK30" s="69" t="s">
         <v>141</v>
@@ -6093,7 +6092,7 @@
         <v>180</v>
       </c>
       <c r="AQ30" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR30" s="69" t="s">
         <v>141</v>
@@ -6153,7 +6152,7 @@
         <v>180</v>
       </c>
       <c r="AJ31" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK31" s="48" t="s">
         <v>142</v>
@@ -6171,7 +6170,7 @@
         <v>180</v>
       </c>
       <c r="AQ31" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR31" s="48" t="s">
         <v>142</v>
@@ -6206,7 +6205,7 @@
         <v>180</v>
       </c>
       <c r="AJ32" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK32" s="69" t="s">
         <v>143</v>
@@ -6224,7 +6223,7 @@
         <v>180</v>
       </c>
       <c r="AQ32" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR32" s="69" t="s">
         <v>143</v>
@@ -6259,7 +6258,7 @@
         <v>180</v>
       </c>
       <c r="AJ33" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK33" s="48" t="s">
         <v>144</v>
@@ -6277,7 +6276,7 @@
         <v>180</v>
       </c>
       <c r="AQ33" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR33" s="48" t="s">
         <v>144</v>
@@ -6312,7 +6311,7 @@
         <v>180</v>
       </c>
       <c r="AJ34" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK34" s="69" t="s">
         <v>145</v>
@@ -6330,7 +6329,7 @@
         <v>180</v>
       </c>
       <c r="AQ34" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR34" s="69" t="s">
         <v>145</v>
@@ -6366,7 +6365,7 @@
         <v>180</v>
       </c>
       <c r="AJ35" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK35" s="48" t="s">
         <v>146</v>
@@ -6384,7 +6383,7 @@
         <v>180</v>
       </c>
       <c r="AQ35" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR35" s="48" t="s">
         <v>146</v>
@@ -6423,7 +6422,7 @@
         <v>180</v>
       </c>
       <c r="AJ36" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK36" s="69" t="s">
         <v>147</v>
@@ -6441,7 +6440,7 @@
         <v>180</v>
       </c>
       <c r="AQ36" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR36" s="69" t="s">
         <v>147</v>
@@ -6480,7 +6479,7 @@
         <v>180</v>
       </c>
       <c r="AJ37" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK37" s="48" t="s">
         <v>148</v>
@@ -6498,7 +6497,7 @@
         <v>180</v>
       </c>
       <c r="AQ37" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR37" s="48" t="s">
         <v>148</v>
@@ -6525,7 +6524,7 @@
         <v>180</v>
       </c>
       <c r="AJ38" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK38" s="69" t="s">
         <v>149</v>
@@ -6543,7 +6542,7 @@
         <v>180</v>
       </c>
       <c r="AQ38" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR38" s="69" t="s">
         <v>149</v>
@@ -6564,7 +6563,7 @@
         <v>180</v>
       </c>
       <c r="AJ39" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK39" s="48" t="s">
         <v>150</v>
@@ -6582,7 +6581,7 @@
         <v>180</v>
       </c>
       <c r="AQ39" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR39" s="48" t="s">
         <v>150</v>
@@ -6607,7 +6606,7 @@
         <v>180</v>
       </c>
       <c r="AJ40" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK40" s="69" t="s">
         <v>151</v>
@@ -6625,7 +6624,7 @@
         <v>180</v>
       </c>
       <c r="AQ40" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR40" s="69" t="s">
         <v>151</v>
@@ -6650,7 +6649,7 @@
         <v>180</v>
       </c>
       <c r="AJ41" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK41" s="48" t="s">
         <v>152</v>
@@ -6668,7 +6667,7 @@
         <v>180</v>
       </c>
       <c r="AQ41" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR41" s="48" t="s">
         <v>152</v>
@@ -6695,7 +6694,7 @@
         <v>180</v>
       </c>
       <c r="AJ42" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK42" s="69" t="s">
         <v>153</v>
@@ -6713,7 +6712,7 @@
         <v>180</v>
       </c>
       <c r="AQ42" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR42" s="69" t="s">
         <v>153</v>
@@ -6733,7 +6732,7 @@
         <v>180</v>
       </c>
       <c r="AJ43" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK43" s="48" t="s">
         <v>154</v>
@@ -6751,7 +6750,7 @@
         <v>180</v>
       </c>
       <c r="AQ43" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR43" s="48" t="s">
         <v>154</v>
@@ -6778,7 +6777,7 @@
         <v>180</v>
       </c>
       <c r="AJ44" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK44" s="69" t="s">
         <v>155</v>
@@ -6796,7 +6795,7 @@
         <v>180</v>
       </c>
       <c r="AQ44" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR44" s="69" t="s">
         <v>155</v>
@@ -6817,7 +6816,7 @@
         <v>180</v>
       </c>
       <c r="AJ45" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK45" s="38" t="s">
         <v>156</v>
@@ -6835,7 +6834,7 @@
         <v>180</v>
       </c>
       <c r="AQ45" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR45" s="38" t="s">
         <v>156</v>
@@ -6855,7 +6854,7 @@
         <v>180</v>
       </c>
       <c r="AJ46" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK46" s="38" t="s">
         <v>157</v>
@@ -6873,7 +6872,7 @@
         <v>180</v>
       </c>
       <c r="AQ46" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR46" s="38" t="s">
         <v>157</v>
@@ -6893,7 +6892,7 @@
         <v>180</v>
       </c>
       <c r="AJ47" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK47" s="38" t="s">
         <v>158</v>
@@ -6911,7 +6910,7 @@
         <v>180</v>
       </c>
       <c r="AQ47" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR47" s="38" t="s">
         <v>158</v>
@@ -6931,7 +6930,7 @@
         <v>180</v>
       </c>
       <c r="AJ48" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK48" s="38" t="s">
         <v>159</v>
@@ -6949,7 +6948,7 @@
         <v>180</v>
       </c>
       <c r="AQ48" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR48" s="38" t="s">
         <v>159</v>
@@ -6969,7 +6968,7 @@
         <v>180</v>
       </c>
       <c r="AJ49" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK49" s="38" t="s">
         <v>160</v>
@@ -6987,7 +6986,7 @@
         <v>180</v>
       </c>
       <c r="AQ49" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR49" s="38" t="s">
         <v>160</v>
@@ -7007,7 +7006,7 @@
         <v>180</v>
       </c>
       <c r="AJ50" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK50" s="38" t="s">
         <v>161</v>
@@ -7025,7 +7024,7 @@
         <v>180</v>
       </c>
       <c r="AQ50" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR50" s="38" t="s">
         <v>161</v>
@@ -7045,7 +7044,7 @@
         <v>180</v>
       </c>
       <c r="AJ51" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK51" s="38" t="s">
         <v>162</v>
@@ -7063,7 +7062,7 @@
         <v>180</v>
       </c>
       <c r="AQ51" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR51" s="38" t="s">
         <v>162</v>
@@ -7096,7 +7095,7 @@
         <v>180</v>
       </c>
       <c r="AJ52" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK52" s="38" t="s">
         <v>163</v>
@@ -7114,7 +7113,7 @@
         <v>180</v>
       </c>
       <c r="AQ52" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR52" s="38" t="s">
         <v>163</v>
@@ -7145,7 +7144,7 @@
         <v>180</v>
       </c>
       <c r="AJ53" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK53" s="38" t="s">
         <v>164</v>
@@ -7163,7 +7162,7 @@
         <v>180</v>
       </c>
       <c r="AQ53" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR53" s="38" t="s">
         <v>164</v>
@@ -7216,7 +7215,7 @@
         <v>180</v>
       </c>
       <c r="AJ54" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK54" s="38" t="s">
         <v>165</v>
@@ -7234,7 +7233,7 @@
         <v>180</v>
       </c>
       <c r="AQ54" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR54" s="38" t="s">
         <v>165</v>
@@ -7277,7 +7276,7 @@
         <v>180</v>
       </c>
       <c r="AJ55" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK55" s="38" t="s">
         <v>166</v>
@@ -7295,7 +7294,7 @@
         <v>180</v>
       </c>
       <c r="AQ55" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR55" s="38" t="s">
         <v>166</v>
@@ -7338,7 +7337,7 @@
         <v>180</v>
       </c>
       <c r="AJ56" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK56" s="38" t="s">
         <v>167</v>
@@ -7356,7 +7355,7 @@
         <v>180</v>
       </c>
       <c r="AQ56" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR56" s="38" t="s">
         <v>167</v>
@@ -7399,7 +7398,7 @@
         <v>180</v>
       </c>
       <c r="AJ57" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK57" s="38" t="s">
         <v>168</v>
@@ -7417,7 +7416,7 @@
         <v>180</v>
       </c>
       <c r="AQ57" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR57" s="38" t="s">
         <v>168</v>
@@ -7460,7 +7459,7 @@
         <v>180</v>
       </c>
       <c r="AJ58" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK58" s="38" t="s">
         <v>169</v>
@@ -7478,7 +7477,7 @@
         <v>180</v>
       </c>
       <c r="AQ58" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR58" s="38" t="s">
         <v>169</v>
@@ -7521,7 +7520,7 @@
         <v>180</v>
       </c>
       <c r="AJ59" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK59" s="38" t="s">
         <v>170</v>
@@ -7539,7 +7538,7 @@
         <v>180</v>
       </c>
       <c r="AQ59" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR59" s="38" t="s">
         <v>170</v>
@@ -7582,7 +7581,7 @@
         <v>180</v>
       </c>
       <c r="AJ60" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK60" s="38" t="s">
         <v>171</v>
@@ -7600,7 +7599,7 @@
         <v>180</v>
       </c>
       <c r="AQ60" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR60" s="38" t="s">
         <v>171</v>
@@ -7643,7 +7642,7 @@
         <v>180</v>
       </c>
       <c r="AJ61" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK61" s="38" t="s">
         <v>172</v>
@@ -7661,7 +7660,7 @@
         <v>180</v>
       </c>
       <c r="AQ61" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR61" s="38" t="s">
         <v>172</v>
@@ -7704,7 +7703,7 @@
         <v>180</v>
       </c>
       <c r="AJ62" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK62" s="38" t="s">
         <v>173</v>
@@ -7722,7 +7721,7 @@
         <v>180</v>
       </c>
       <c r="AQ62" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR62" s="38" t="s">
         <v>173</v>
@@ -7742,7 +7741,7 @@
         <v>180</v>
       </c>
       <c r="AJ63" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK63" s="38" t="s">
         <v>174</v>
@@ -7760,7 +7759,7 @@
         <v>180</v>
       </c>
       <c r="AQ63" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR63" s="38" t="s">
         <v>174</v>
@@ -7780,7 +7779,7 @@
         <v>180</v>
       </c>
       <c r="AJ64" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK64" s="38" t="s">
         <v>175</v>
@@ -7798,7 +7797,7 @@
         <v>180</v>
       </c>
       <c r="AQ64" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR64" s="38" t="s">
         <v>175</v>
@@ -7818,7 +7817,7 @@
         <v>180</v>
       </c>
       <c r="AJ65" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK65" s="38" t="s">
         <v>176</v>
@@ -7836,7 +7835,7 @@
         <v>180</v>
       </c>
       <c r="AQ65" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR65" s="38" t="s">
         <v>176</v>
@@ -7856,7 +7855,7 @@
         <v>180</v>
       </c>
       <c r="AJ66" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK66" s="38" t="s">
         <v>177</v>
@@ -7874,7 +7873,7 @@
         <v>180</v>
       </c>
       <c r="AQ66" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR66" s="38" t="s">
         <v>177</v>
@@ -7894,7 +7893,7 @@
         <v>180</v>
       </c>
       <c r="AJ67" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK67" s="38" t="s">
         <v>178</v>
@@ -7912,7 +7911,7 @@
         <v>180</v>
       </c>
       <c r="AQ67" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR67" s="38" t="s">
         <v>178</v>
@@ -7932,7 +7931,7 @@
         <v>180</v>
       </c>
       <c r="AJ68" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AK68" s="38" t="s">
         <v>179</v>
@@ -7950,7 +7949,7 @@
         <v>180</v>
       </c>
       <c r="AQ68" s="39" t="s">
-        <v>69</v>
+        <v>210</v>
       </c>
       <c r="AR68" s="38" t="s">
         <v>179</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{613202AB-0027-4E43-832F-BCA9F8650323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{09C30E30-F94B-441F-9C9E-5FF239EF9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A8481E-FA34-4481-B6BC-218405F25171}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="209">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2181,12 +2181,6 @@
   </si>
   <si>
     <t>Pset_CN</t>
-  </si>
-  <si>
-    <t>CSet_CN</t>
-  </si>
-  <si>
-    <t>CSET_ELC</t>
   </si>
 </sst>
 </file>
@@ -3003,6 +2997,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3292,8 +3290,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView topLeftCell="K2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4444,8 +4442,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z47" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AQ75" sqref="AQ75"/>
+    <sheetView tabSelected="1" topLeftCell="Y33" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21:AT68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -4951,7 +4949,7 @@
         <v>130</v>
       </c>
       <c r="AQ18" s="64" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="AR18" s="64" t="s">
         <v>198</v>
@@ -5177,7 +5175,7 @@
         <v>180</v>
       </c>
       <c r="AJ21" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK21" s="48" t="s">
         <v>132</v>
@@ -5186,7 +5184,7 @@
         <v>197</v>
       </c>
       <c r="AM21" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN21" s="48">
         <v>3.3051976250754521E-3</v>
@@ -5195,7 +5193,7 @@
         <v>180</v>
       </c>
       <c r="AQ21" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR21" s="48" t="s">
         <v>132</v>
@@ -5204,7 +5202,7 @@
         <v>197</v>
       </c>
       <c r="AT21" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU21" s="48">
         <v>0</v>
@@ -5278,7 +5276,7 @@
         <v>180</v>
       </c>
       <c r="AJ22" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK22" s="69" t="s">
         <v>133</v>
@@ -5287,7 +5285,7 @@
         <v>197</v>
       </c>
       <c r="AM22" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN22" s="48">
         <v>3.1618331753269246E-3</v>
@@ -5296,7 +5294,7 @@
         <v>180</v>
       </c>
       <c r="AQ22" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR22" s="69" t="s">
         <v>133</v>
@@ -5305,7 +5303,7 @@
         <v>197</v>
       </c>
       <c r="AT22" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU22" s="48">
         <v>0</v>
@@ -5377,7 +5375,7 @@
         <v>180</v>
       </c>
       <c r="AJ23" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK23" s="48" t="s">
         <v>134</v>
@@ -5386,7 +5384,7 @@
         <v>197</v>
       </c>
       <c r="AM23" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN23" s="48">
         <v>2.8979409360310663E-3</v>
@@ -5395,7 +5393,7 @@
         <v>180</v>
       </c>
       <c r="AQ23" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR23" s="48" t="s">
         <v>134</v>
@@ -5404,7 +5402,7 @@
         <v>197</v>
       </c>
       <c r="AT23" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU23" s="49">
         <v>0</v>
@@ -5476,7 +5474,7 @@
         <v>180</v>
       </c>
       <c r="AJ24" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK24" s="69" t="s">
         <v>135</v>
@@ -5485,7 +5483,7 @@
         <v>197</v>
       </c>
       <c r="AM24" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN24" s="48">
         <v>2.7156926103261707E-3</v>
@@ -5494,7 +5492,7 @@
         <v>180</v>
       </c>
       <c r="AQ24" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR24" s="69" t="s">
         <v>135</v>
@@ -5503,7 +5501,7 @@
         <v>197</v>
       </c>
       <c r="AT24" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU24" s="49">
         <v>0</v>
@@ -5581,7 +5579,7 @@
         <v>180</v>
       </c>
       <c r="AJ25" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK25" s="48" t="s">
         <v>136</v>
@@ -5590,7 +5588,7 @@
         <v>197</v>
       </c>
       <c r="AM25" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN25" s="48">
         <v>2.5452192095824343E-3</v>
@@ -5599,7 +5597,7 @@
         <v>180</v>
       </c>
       <c r="AQ25" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR25" s="48" t="s">
         <v>136</v>
@@ -5608,7 +5606,7 @@
         <v>197</v>
       </c>
       <c r="AT25" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU25" s="49">
         <v>0</v>
@@ -5686,7 +5684,7 @@
         <v>180</v>
       </c>
       <c r="AJ26" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK26" s="69" t="s">
         <v>137</v>
@@ -5695,7 +5693,7 @@
         <v>197</v>
       </c>
       <c r="AM26" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN26" s="48">
         <v>2.5834450529081338E-3</v>
@@ -5704,7 +5702,7 @@
         <v>180</v>
       </c>
       <c r="AQ26" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR26" s="69" t="s">
         <v>137</v>
@@ -5713,7 +5711,7 @@
         <v>197</v>
       </c>
       <c r="AT26" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU26" s="49">
         <v>0</v>
@@ -5792,7 +5790,7 @@
         <v>180</v>
       </c>
       <c r="AJ27" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK27" s="48" t="s">
         <v>138</v>
@@ -5801,7 +5799,7 @@
         <v>197</v>
       </c>
       <c r="AM27" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN27" s="48">
         <v>2.7432881310744317E-3</v>
@@ -5810,7 +5808,7 @@
         <v>180</v>
       </c>
       <c r="AQ27" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR27" s="48" t="s">
         <v>138</v>
@@ -5819,7 +5817,7 @@
         <v>197</v>
       </c>
       <c r="AT27" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU27" s="49">
         <v>6.9165519713261618E-3</v>
@@ -5897,7 +5895,7 @@
         <v>180</v>
       </c>
       <c r="AJ28" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK28" s="69" t="s">
         <v>139</v>
@@ -5906,7 +5904,7 @@
         <v>197</v>
       </c>
       <c r="AM28" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN28" s="48">
         <v>2.8314721319216154E-3</v>
@@ -5915,7 +5913,7 @@
         <v>180</v>
       </c>
       <c r="AQ28" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR28" s="69" t="s">
         <v>139</v>
@@ -5924,7 +5922,7 @@
         <v>197</v>
       </c>
       <c r="AT28" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU28" s="49">
         <v>4.9742853046594968E-2</v>
@@ -5981,7 +5979,7 @@
         <v>180</v>
       </c>
       <c r="AJ29" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK29" s="48" t="s">
         <v>140</v>
@@ -5990,7 +5988,7 @@
         <v>197</v>
       </c>
       <c r="AM29" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN29" s="48">
         <v>2.8141143326017269E-3</v>
@@ -5999,7 +5997,7 @@
         <v>180</v>
       </c>
       <c r="AQ29" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR29" s="48" t="s">
         <v>140</v>
@@ -6008,7 +6006,7 @@
         <v>197</v>
       </c>
       <c r="AT29" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU29" s="49">
         <v>0.12554577777777776</v>
@@ -6074,7 +6072,7 @@
         <v>180</v>
       </c>
       <c r="AJ30" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK30" s="69" t="s">
         <v>141</v>
@@ -6083,7 +6081,7 @@
         <v>197</v>
       </c>
       <c r="AM30" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN30" s="48">
         <v>2.6656478128544076E-3</v>
@@ -6092,7 +6090,7 @@
         <v>180</v>
       </c>
       <c r="AQ30" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR30" s="69" t="s">
         <v>141</v>
@@ -6101,7 +6099,7 @@
         <v>197</v>
       </c>
       <c r="AT30" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU30" s="49">
         <v>0.2058007025089606</v>
@@ -6152,7 +6150,7 @@
         <v>180</v>
       </c>
       <c r="AJ31" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK31" s="48" t="s">
         <v>142</v>
@@ -6161,7 +6159,7 @@
         <v>197</v>
       </c>
       <c r="AM31" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN31" s="48">
         <v>2.4530677112863486E-3</v>
@@ -6170,7 +6168,7 @@
         <v>180</v>
       </c>
       <c r="AQ31" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR31" s="48" t="s">
         <v>142</v>
@@ -6179,7 +6177,7 @@
         <v>197</v>
       </c>
       <c r="AT31" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU31" s="49">
         <v>0.27468446594982077</v>
@@ -6205,7 +6203,7 @@
         <v>180</v>
       </c>
       <c r="AJ32" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK32" s="69" t="s">
         <v>143</v>
@@ -6214,7 +6212,7 @@
         <v>197</v>
       </c>
       <c r="AM32" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN32" s="48">
         <v>2.1363241345921055E-3</v>
@@ -6223,7 +6221,7 @@
         <v>180</v>
       </c>
       <c r="AQ32" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR32" s="69" t="s">
         <v>143</v>
@@ -6232,7 +6230,7 @@
         <v>197</v>
       </c>
       <c r="AT32" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU32" s="49">
         <v>0.32637437275985665</v>
@@ -6258,7 +6256,7 @@
         <v>180</v>
       </c>
       <c r="AJ33" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK33" s="48" t="s">
         <v>144</v>
@@ -6267,7 +6265,7 @@
         <v>197</v>
       </c>
       <c r="AM33" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN33" s="48">
         <v>1.8660639529435976E-3</v>
@@ -6276,7 +6274,7 @@
         <v>180</v>
       </c>
       <c r="AQ33" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR33" s="48" t="s">
         <v>144</v>
@@ -6285,7 +6283,7 @@
         <v>197</v>
       </c>
       <c r="AT33" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU33" s="49">
         <v>0.35267560573476697</v>
@@ -6311,7 +6309,7 @@
         <v>180</v>
       </c>
       <c r="AJ34" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK34" s="69" t="s">
         <v>145</v>
@@ -6320,7 +6318,7 @@
         <v>197</v>
       </c>
       <c r="AM34" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN34" s="48">
         <v>1.7487528282965712E-3</v>
@@ -6329,7 +6327,7 @@
         <v>180</v>
       </c>
       <c r="AQ34" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR34" s="69" t="s">
         <v>145</v>
@@ -6338,7 +6336,7 @@
         <v>197</v>
       </c>
       <c r="AT34" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU34" s="49">
         <v>0.34322033691756271</v>
@@ -6365,7 +6363,7 @@
         <v>180</v>
       </c>
       <c r="AJ35" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK35" s="48" t="s">
         <v>146</v>
@@ -6374,7 +6372,7 @@
         <v>197</v>
       </c>
       <c r="AM35" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN35" s="48">
         <v>1.6637860863902745E-3</v>
@@ -6383,7 +6381,7 @@
         <v>180</v>
       </c>
       <c r="AQ35" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR35" s="48" t="s">
         <v>146</v>
@@ -6392,7 +6390,7 @@
         <v>197</v>
       </c>
       <c r="AT35" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU35" s="49">
         <v>0.30308891039426522</v>
@@ -6422,7 +6420,7 @@
         <v>180</v>
       </c>
       <c r="AJ36" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK36" s="69" t="s">
         <v>147</v>
@@ -6431,7 +6429,7 @@
         <v>197</v>
       </c>
       <c r="AM36" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN36" s="48">
         <v>1.8211742012316831E-3</v>
@@ -6440,7 +6438,7 @@
         <v>180</v>
       </c>
       <c r="AQ36" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR36" s="69" t="s">
         <v>147</v>
@@ -6449,7 +6447,7 @@
         <v>197</v>
       </c>
       <c r="AT36" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU36" s="49">
         <v>0.23170381362007167</v>
@@ -6479,7 +6477,7 @@
         <v>180</v>
       </c>
       <c r="AJ37" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK37" s="48" t="s">
         <v>148</v>
@@ -6488,7 +6486,7 @@
         <v>197</v>
       </c>
       <c r="AM37" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN37" s="48">
         <v>1.9153018835258307E-3</v>
@@ -6497,7 +6495,7 @@
         <v>180</v>
       </c>
       <c r="AQ37" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR37" s="48" t="s">
         <v>148</v>
@@ -6506,7 +6504,7 @@
         <v>197</v>
       </c>
       <c r="AT37" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU37" s="49">
         <v>0.14172651612903225</v>
@@ -6524,7 +6522,7 @@
         <v>180</v>
       </c>
       <c r="AJ38" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK38" s="69" t="s">
         <v>149</v>
@@ -6533,7 +6531,7 @@
         <v>197</v>
       </c>
       <c r="AM38" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN38" s="48">
         <v>1.9744590518638132E-3</v>
@@ -6542,7 +6540,7 @@
         <v>180</v>
       </c>
       <c r="AQ38" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR38" s="69" t="s">
         <v>149</v>
@@ -6551,7 +6549,7 @@
         <v>197</v>
       </c>
       <c r="AT38" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU38" s="48">
         <v>5.3895483870967743E-2</v>
@@ -6563,7 +6561,7 @@
         <v>180</v>
       </c>
       <c r="AJ39" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK39" s="48" t="s">
         <v>150</v>
@@ -6572,7 +6570,7 @@
         <v>197</v>
       </c>
       <c r="AM39" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN39" s="48">
         <v>2.1878436160058393E-3</v>
@@ -6581,7 +6579,7 @@
         <v>180</v>
       </c>
       <c r="AQ39" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR39" s="48" t="s">
         <v>150</v>
@@ -6590,7 +6588,7 @@
         <v>197</v>
       </c>
       <c r="AT39" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU39" s="48">
         <v>2.6301935483870969E-3</v>
@@ -6606,7 +6604,7 @@
         <v>180</v>
       </c>
       <c r="AJ40" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK40" s="69" t="s">
         <v>151</v>
@@ -6615,7 +6613,7 @@
         <v>197</v>
       </c>
       <c r="AM40" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN40" s="48">
         <v>2.3889741533883327E-3</v>
@@ -6624,7 +6622,7 @@
         <v>180</v>
       </c>
       <c r="AQ40" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR40" s="69" t="s">
         <v>151</v>
@@ -6633,7 +6631,7 @@
         <v>197</v>
       </c>
       <c r="AT40" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU40" s="48">
         <v>0</v>
@@ -6649,7 +6647,7 @@
         <v>180</v>
       </c>
       <c r="AJ41" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK41" s="48" t="s">
         <v>152</v>
@@ -6658,7 +6656,7 @@
         <v>197</v>
       </c>
       <c r="AM41" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN41" s="48">
         <v>2.4063426997311056E-3</v>
@@ -6667,7 +6665,7 @@
         <v>180</v>
       </c>
       <c r="AQ41" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR41" s="48" t="s">
         <v>152</v>
@@ -6676,7 +6674,7 @@
         <v>197</v>
       </c>
       <c r="AT41" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU41" s="48">
         <v>0</v>
@@ -6694,7 +6692,7 @@
         <v>180</v>
       </c>
       <c r="AJ42" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK42" s="69" t="s">
         <v>153</v>
@@ -6703,7 +6701,7 @@
         <v>197</v>
       </c>
       <c r="AM42" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN42" s="48">
         <v>2.5925256698099051E-3</v>
@@ -6712,7 +6710,7 @@
         <v>180</v>
       </c>
       <c r="AQ42" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR42" s="69" t="s">
         <v>153</v>
@@ -6721,7 +6719,7 @@
         <v>197</v>
       </c>
       <c r="AT42" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU42" s="48">
         <v>0</v>
@@ -6732,7 +6730,7 @@
         <v>180</v>
       </c>
       <c r="AJ43" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK43" s="48" t="s">
         <v>154</v>
@@ -6741,7 +6739,7 @@
         <v>197</v>
       </c>
       <c r="AM43" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN43" s="48">
         <v>2.9724559200622644E-3</v>
@@ -6750,7 +6748,7 @@
         <v>180</v>
       </c>
       <c r="AQ43" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR43" s="48" t="s">
         <v>154</v>
@@ -6759,7 +6757,7 @@
         <v>197</v>
       </c>
       <c r="AT43" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU43" s="48">
         <v>0</v>
@@ -6777,7 +6775,7 @@
         <v>180</v>
       </c>
       <c r="AJ44" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK44" s="69" t="s">
         <v>155</v>
@@ -6786,7 +6784,7 @@
         <v>197</v>
       </c>
       <c r="AM44" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN44" s="48">
         <v>3.3823091606694387E-3</v>
@@ -6795,7 +6793,7 @@
         <v>180</v>
       </c>
       <c r="AQ44" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR44" s="69" t="s">
         <v>155</v>
@@ -6804,7 +6802,7 @@
         <v>197</v>
       </c>
       <c r="AT44" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU44" s="48">
         <v>0</v>
@@ -6816,7 +6814,7 @@
         <v>180</v>
       </c>
       <c r="AJ45" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK45" s="38" t="s">
         <v>156</v>
@@ -6825,7 +6823,7 @@
         <v>197</v>
       </c>
       <c r="AM45" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN45" s="48">
         <v>3.3051976250754521E-3</v>
@@ -6834,7 +6832,7 @@
         <v>180</v>
       </c>
       <c r="AQ45" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR45" s="38" t="s">
         <v>156</v>
@@ -6843,7 +6841,7 @@
         <v>197</v>
       </c>
       <c r="AT45" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU45" s="48">
         <v>0</v>
@@ -6854,7 +6852,7 @@
         <v>180</v>
       </c>
       <c r="AJ46" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK46" s="38" t="s">
         <v>157</v>
@@ -6863,7 +6861,7 @@
         <v>197</v>
       </c>
       <c r="AM46" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN46" s="48">
         <v>3.1618331753269246E-3</v>
@@ -6872,7 +6870,7 @@
         <v>180</v>
       </c>
       <c r="AQ46" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR46" s="38" t="s">
         <v>157</v>
@@ -6881,7 +6879,7 @@
         <v>197</v>
       </c>
       <c r="AT46" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU46" s="48">
         <v>0</v>
@@ -6892,7 +6890,7 @@
         <v>180</v>
       </c>
       <c r="AJ47" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK47" s="38" t="s">
         <v>158</v>
@@ -6901,7 +6899,7 @@
         <v>197</v>
       </c>
       <c r="AM47" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN47" s="48">
         <v>2.8979409360310663E-3</v>
@@ -6910,7 +6908,7 @@
         <v>180</v>
       </c>
       <c r="AQ47" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR47" s="38" t="s">
         <v>158</v>
@@ -6919,7 +6917,7 @@
         <v>197</v>
       </c>
       <c r="AT47" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU47" s="48">
         <v>0</v>
@@ -6930,7 +6928,7 @@
         <v>180</v>
       </c>
       <c r="AJ48" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK48" s="38" t="s">
         <v>159</v>
@@ -6939,7 +6937,7 @@
         <v>197</v>
       </c>
       <c r="AM48" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN48" s="48">
         <v>2.7156926103261707E-3</v>
@@ -6948,7 +6946,7 @@
         <v>180</v>
       </c>
       <c r="AQ48" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR48" s="38" t="s">
         <v>159</v>
@@ -6957,7 +6955,7 @@
         <v>197</v>
       </c>
       <c r="AT48" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU48" s="48">
         <v>0</v>
@@ -6968,7 +6966,7 @@
         <v>180</v>
       </c>
       <c r="AJ49" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK49" s="38" t="s">
         <v>160</v>
@@ -6977,7 +6975,7 @@
         <v>197</v>
       </c>
       <c r="AM49" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN49" s="48">
         <v>2.5452192095824343E-3</v>
@@ -6986,7 +6984,7 @@
         <v>180</v>
       </c>
       <c r="AQ49" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR49" s="38" t="s">
         <v>160</v>
@@ -6995,7 +6993,7 @@
         <v>197</v>
       </c>
       <c r="AT49" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU49" s="48">
         <v>0</v>
@@ -7006,7 +7004,7 @@
         <v>180</v>
       </c>
       <c r="AJ50" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK50" s="38" t="s">
         <v>161</v>
@@ -7015,7 +7013,7 @@
         <v>197</v>
       </c>
       <c r="AM50" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN50" s="48">
         <v>2.5834450529081338E-3</v>
@@ -7024,7 +7022,7 @@
         <v>180</v>
       </c>
       <c r="AQ50" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR50" s="38" t="s">
         <v>161</v>
@@ -7033,7 +7031,7 @@
         <v>197</v>
       </c>
       <c r="AT50" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU50" s="48">
         <v>0</v>
@@ -7044,7 +7042,7 @@
         <v>180</v>
       </c>
       <c r="AJ51" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK51" s="38" t="s">
         <v>162</v>
@@ -7053,7 +7051,7 @@
         <v>197</v>
       </c>
       <c r="AM51" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN51" s="48">
         <v>2.7432881310744317E-3</v>
@@ -7062,7 +7060,7 @@
         <v>180</v>
       </c>
       <c r="AQ51" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR51" s="38" t="s">
         <v>162</v>
@@ -7071,7 +7069,7 @@
         <v>197</v>
       </c>
       <c r="AT51" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU51" s="48">
         <v>6.4190919952210254E-3</v>
@@ -7095,7 +7093,7 @@
         <v>180</v>
       </c>
       <c r="AJ52" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK52" s="38" t="s">
         <v>163</v>
@@ -7104,7 +7102,7 @@
         <v>197</v>
       </c>
       <c r="AM52" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN52" s="48">
         <v>2.8314721319216154E-3</v>
@@ -7113,7 +7111,7 @@
         <v>180</v>
       </c>
       <c r="AQ52" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR52" s="38" t="s">
         <v>163</v>
@@ -7122,7 +7120,7 @@
         <v>197</v>
       </c>
       <c r="AT52" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU52" s="48">
         <v>7.0838474313022717E-2</v>
@@ -7144,7 +7142,7 @@
         <v>180</v>
       </c>
       <c r="AJ53" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK53" s="38" t="s">
         <v>164</v>
@@ -7153,7 +7151,7 @@
         <v>197</v>
       </c>
       <c r="AM53" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN53" s="48">
         <v>2.8141143326017269E-3</v>
@@ -7162,7 +7160,7 @@
         <v>180</v>
       </c>
       <c r="AQ53" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR53" s="38" t="s">
         <v>164</v>
@@ -7171,7 +7169,7 @@
         <v>197</v>
       </c>
       <c r="AT53" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU53" s="48">
         <v>0.15999428793309439</v>
@@ -7215,7 +7213,7 @@
         <v>180</v>
       </c>
       <c r="AJ54" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK54" s="38" t="s">
         <v>165</v>
@@ -7224,7 +7222,7 @@
         <v>197</v>
       </c>
       <c r="AM54" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN54" s="48">
         <v>2.6656478128544076E-3</v>
@@ -7233,7 +7231,7 @@
         <v>180</v>
       </c>
       <c r="AQ54" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR54" s="38" t="s">
         <v>165</v>
@@ -7242,7 +7240,7 @@
         <v>197</v>
       </c>
       <c r="AT54" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU54" s="48">
         <v>0.25343209199522099</v>
@@ -7276,7 +7274,7 @@
         <v>180</v>
       </c>
       <c r="AJ55" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK55" s="38" t="s">
         <v>166</v>
@@ -7285,7 +7283,7 @@
         <v>197</v>
       </c>
       <c r="AM55" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN55" s="48">
         <v>2.4530677112863486E-3</v>
@@ -7294,7 +7292,7 @@
         <v>180</v>
       </c>
       <c r="AQ55" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR55" s="38" t="s">
         <v>166</v>
@@ -7303,7 +7301,7 @@
         <v>197</v>
       </c>
       <c r="AT55" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU55" s="48">
         <v>0.32960197968936678</v>
@@ -7337,7 +7335,7 @@
         <v>180</v>
       </c>
       <c r="AJ56" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK56" s="38" t="s">
         <v>167</v>
@@ -7346,7 +7344,7 @@
         <v>197</v>
       </c>
       <c r="AM56" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN56" s="48">
         <v>2.1363241345921055E-3</v>
@@ -7355,7 +7353,7 @@
         <v>180</v>
       </c>
       <c r="AQ56" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR56" s="38" t="s">
         <v>167</v>
@@ -7364,7 +7362,7 @@
         <v>197</v>
       </c>
       <c r="AT56" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU56" s="48">
         <v>0.37592762246117079</v>
@@ -7398,7 +7396,7 @@
         <v>180</v>
       </c>
       <c r="AJ57" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK57" s="38" t="s">
         <v>168</v>
@@ -7407,7 +7405,7 @@
         <v>197</v>
       </c>
       <c r="AM57" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN57" s="48">
         <v>1.8660639529435976E-3</v>
@@ -7416,7 +7414,7 @@
         <v>180</v>
       </c>
       <c r="AQ57" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR57" s="38" t="s">
         <v>168</v>
@@ -7425,7 +7423,7 @@
         <v>197</v>
       </c>
       <c r="AT57" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU57" s="48">
         <v>0.38776096057347664</v>
@@ -7459,7 +7457,7 @@
         <v>180</v>
       </c>
       <c r="AJ58" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK58" s="38" t="s">
         <v>169</v>
@@ -7468,7 +7466,7 @@
         <v>197</v>
       </c>
       <c r="AM58" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN58" s="48">
         <v>1.7487528282965712E-3</v>
@@ -7477,7 +7475,7 @@
         <v>180</v>
       </c>
       <c r="AQ58" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR58" s="38" t="s">
         <v>169</v>
@@ -7486,7 +7484,7 @@
         <v>197</v>
       </c>
       <c r="AT58" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU58" s="48">
         <v>0.36426783751493425</v>
@@ -7520,7 +7518,7 @@
         <v>180</v>
       </c>
       <c r="AJ59" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK59" s="38" t="s">
         <v>170</v>
@@ -7529,7 +7527,7 @@
         <v>197</v>
       </c>
       <c r="AM59" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN59" s="48">
         <v>1.6637860863902745E-3</v>
@@ -7538,7 +7536,7 @@
         <v>180</v>
       </c>
       <c r="AQ59" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR59" s="38" t="s">
         <v>170</v>
@@ -7547,7 +7545,7 @@
         <v>197</v>
       </c>
       <c r="AT59" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU59" s="48">
         <v>0.31009156033452806</v>
@@ -7581,7 +7579,7 @@
         <v>180</v>
       </c>
       <c r="AJ60" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK60" s="38" t="s">
         <v>171</v>
@@ -7590,7 +7588,7 @@
         <v>197</v>
       </c>
       <c r="AM60" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN60" s="48">
         <v>1.8211742012316831E-3</v>
@@ -7599,7 +7597,7 @@
         <v>180</v>
       </c>
       <c r="AQ60" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR60" s="38" t="s">
         <v>171</v>
@@ -7608,7 +7606,7 @@
         <v>197</v>
       </c>
       <c r="AT60" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU60" s="48">
         <v>0.23188419952210276</v>
@@ -7642,7 +7640,7 @@
         <v>180</v>
       </c>
       <c r="AJ61" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK61" s="38" t="s">
         <v>172</v>
@@ -7651,7 +7649,7 @@
         <v>197</v>
       </c>
       <c r="AM61" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN61" s="48">
         <v>1.9153018835258307E-3</v>
@@ -7660,7 +7658,7 @@
         <v>180</v>
       </c>
       <c r="AQ61" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR61" s="38" t="s">
         <v>172</v>
@@ -7669,7 +7667,7 @@
         <v>197</v>
       </c>
       <c r="AT61" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU61" s="48">
         <v>0.13618056033452808</v>
@@ -7703,7 +7701,7 @@
         <v>180</v>
       </c>
       <c r="AJ62" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK62" s="38" t="s">
         <v>173</v>
@@ -7712,7 +7710,7 @@
         <v>197</v>
       </c>
       <c r="AM62" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN62" s="48">
         <v>1.9744590518638132E-3</v>
@@ -7721,7 +7719,7 @@
         <v>180</v>
       </c>
       <c r="AQ62" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR62" s="38" t="s">
         <v>173</v>
@@ -7730,7 +7728,7 @@
         <v>197</v>
       </c>
       <c r="AT62" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU62" s="48">
         <v>4.9357593787335743E-2</v>
@@ -7741,7 +7739,7 @@
         <v>180</v>
       </c>
       <c r="AJ63" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK63" s="38" t="s">
         <v>174</v>
@@ -7750,7 +7748,7 @@
         <v>197</v>
       </c>
       <c r="AM63" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN63" s="48">
         <v>2.1878436160058393E-3</v>
@@ -7759,7 +7757,7 @@
         <v>180</v>
       </c>
       <c r="AQ63" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR63" s="38" t="s">
         <v>174</v>
@@ -7768,7 +7766,7 @@
         <v>197</v>
       </c>
       <c r="AT63" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU63" s="48">
         <v>7.5268817204301086E-6</v>
@@ -7779,7 +7777,7 @@
         <v>180</v>
       </c>
       <c r="AJ64" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK64" s="38" t="s">
         <v>175</v>
@@ -7788,7 +7786,7 @@
         <v>197</v>
       </c>
       <c r="AM64" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN64" s="48">
         <v>2.3889741533883327E-3</v>
@@ -7797,7 +7795,7 @@
         <v>180</v>
       </c>
       <c r="AQ64" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR64" s="38" t="s">
         <v>175</v>
@@ -7806,7 +7804,7 @@
         <v>197</v>
       </c>
       <c r="AT64" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU64" s="48">
         <v>0</v>
@@ -7817,7 +7815,7 @@
         <v>180</v>
       </c>
       <c r="AJ65" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK65" s="38" t="s">
         <v>176</v>
@@ -7826,7 +7824,7 @@
         <v>197</v>
       </c>
       <c r="AM65" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN65" s="48">
         <v>2.4063426997311056E-3</v>
@@ -7835,7 +7833,7 @@
         <v>180</v>
       </c>
       <c r="AQ65" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR65" s="38" t="s">
         <v>176</v>
@@ -7844,7 +7842,7 @@
         <v>197</v>
       </c>
       <c r="AT65" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU65" s="48">
         <v>0</v>
@@ -7855,7 +7853,7 @@
         <v>180</v>
       </c>
       <c r="AJ66" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK66" s="38" t="s">
         <v>177</v>
@@ -7864,7 +7862,7 @@
         <v>197</v>
       </c>
       <c r="AM66" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN66" s="48">
         <v>2.5925256698099051E-3</v>
@@ -7873,7 +7871,7 @@
         <v>180</v>
       </c>
       <c r="AQ66" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR66" s="38" t="s">
         <v>177</v>
@@ -7882,7 +7880,7 @@
         <v>197</v>
       </c>
       <c r="AT66" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU66" s="48">
         <v>0</v>
@@ -7893,7 +7891,7 @@
         <v>180</v>
       </c>
       <c r="AJ67" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK67" s="38" t="s">
         <v>178</v>
@@ -7902,7 +7900,7 @@
         <v>197</v>
       </c>
       <c r="AM67" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN67" s="48">
         <v>2.9724559200622644E-3</v>
@@ -7911,7 +7909,7 @@
         <v>180</v>
       </c>
       <c r="AQ67" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR67" s="38" t="s">
         <v>178</v>
@@ -7920,7 +7918,7 @@
         <v>197</v>
       </c>
       <c r="AT67" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU67" s="48">
         <v>0</v>
@@ -7931,7 +7929,7 @@
         <v>180</v>
       </c>
       <c r="AJ68" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK68" s="38" t="s">
         <v>179</v>
@@ -7940,7 +7938,7 @@
         <v>197</v>
       </c>
       <c r="AM68" s="48" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="AN68" s="48">
         <v>3.3823091606694387E-3</v>
@@ -7949,7 +7947,7 @@
         <v>180</v>
       </c>
       <c r="AQ68" s="39" t="s">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="AR68" s="38" t="s">
         <v>179</v>
@@ -7958,7 +7956,7 @@
         <v>197</v>
       </c>
       <c r="AT68" s="48" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="AU68" s="48">
         <v>0</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{09C30E30-F94B-441F-9C9E-5FF239EF9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2A8481E-FA34-4481-B6BC-218405F25171}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C6C596-7697-452F-AAA6-BEC02DC74D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="212">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2181,6 +2181,15 @@
   </si>
   <si>
     <t>Pset_CN</t>
+  </si>
+  <si>
+    <t>CSET_ELC</t>
+  </si>
+  <si>
+    <t>PSET_WNDTRBN</t>
+  </si>
+  <si>
+    <t>PSET_SOLPV</t>
   </si>
 </sst>
 </file>
@@ -2997,10 +3006,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3290,7 +3295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="K2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView topLeftCell="H4" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -4442,8 +4447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y33" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AT21" sqref="AT21:AT68"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AQ21" sqref="AQ21:AQ68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5175,7 +5180,7 @@
         <v>180</v>
       </c>
       <c r="AJ21" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK21" s="48" t="s">
         <v>132</v>
@@ -5184,7 +5189,7 @@
         <v>197</v>
       </c>
       <c r="AM21" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN21" s="48">
         <v>3.3051976250754521E-3</v>
@@ -5193,7 +5198,7 @@
         <v>180</v>
       </c>
       <c r="AQ21" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR21" s="48" t="s">
         <v>132</v>
@@ -5202,7 +5207,7 @@
         <v>197</v>
       </c>
       <c r="AT21" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU21" s="48">
         <v>0</v>
@@ -5276,7 +5281,7 @@
         <v>180</v>
       </c>
       <c r="AJ22" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK22" s="69" t="s">
         <v>133</v>
@@ -5285,7 +5290,7 @@
         <v>197</v>
       </c>
       <c r="AM22" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN22" s="48">
         <v>3.1618331753269246E-3</v>
@@ -5294,7 +5299,7 @@
         <v>180</v>
       </c>
       <c r="AQ22" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR22" s="69" t="s">
         <v>133</v>
@@ -5303,7 +5308,7 @@
         <v>197</v>
       </c>
       <c r="AT22" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU22" s="48">
         <v>0</v>
@@ -5375,7 +5380,7 @@
         <v>180</v>
       </c>
       <c r="AJ23" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK23" s="48" t="s">
         <v>134</v>
@@ -5384,7 +5389,7 @@
         <v>197</v>
       </c>
       <c r="AM23" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN23" s="48">
         <v>2.8979409360310663E-3</v>
@@ -5393,7 +5398,7 @@
         <v>180</v>
       </c>
       <c r="AQ23" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR23" s="48" t="s">
         <v>134</v>
@@ -5402,7 +5407,7 @@
         <v>197</v>
       </c>
       <c r="AT23" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU23" s="49">
         <v>0</v>
@@ -5474,7 +5479,7 @@
         <v>180</v>
       </c>
       <c r="AJ24" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK24" s="69" t="s">
         <v>135</v>
@@ -5483,7 +5488,7 @@
         <v>197</v>
       </c>
       <c r="AM24" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN24" s="48">
         <v>2.7156926103261707E-3</v>
@@ -5492,7 +5497,7 @@
         <v>180</v>
       </c>
       <c r="AQ24" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR24" s="69" t="s">
         <v>135</v>
@@ -5501,7 +5506,7 @@
         <v>197</v>
       </c>
       <c r="AT24" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU24" s="49">
         <v>0</v>
@@ -5579,7 +5584,7 @@
         <v>180</v>
       </c>
       <c r="AJ25" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK25" s="48" t="s">
         <v>136</v>
@@ -5588,7 +5593,7 @@
         <v>197</v>
       </c>
       <c r="AM25" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN25" s="48">
         <v>2.5452192095824343E-3</v>
@@ -5597,7 +5602,7 @@
         <v>180</v>
       </c>
       <c r="AQ25" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR25" s="48" t="s">
         <v>136</v>
@@ -5606,7 +5611,7 @@
         <v>197</v>
       </c>
       <c r="AT25" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU25" s="49">
         <v>0</v>
@@ -5684,7 +5689,7 @@
         <v>180</v>
       </c>
       <c r="AJ26" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK26" s="69" t="s">
         <v>137</v>
@@ -5693,7 +5698,7 @@
         <v>197</v>
       </c>
       <c r="AM26" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN26" s="48">
         <v>2.5834450529081338E-3</v>
@@ -5702,7 +5707,7 @@
         <v>180</v>
       </c>
       <c r="AQ26" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR26" s="69" t="s">
         <v>137</v>
@@ -5711,7 +5716,7 @@
         <v>197</v>
       </c>
       <c r="AT26" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU26" s="49">
         <v>0</v>
@@ -5790,7 +5795,7 @@
         <v>180</v>
       </c>
       <c r="AJ27" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK27" s="48" t="s">
         <v>138</v>
@@ -5799,7 +5804,7 @@
         <v>197</v>
       </c>
       <c r="AM27" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN27" s="48">
         <v>2.7432881310744317E-3</v>
@@ -5808,7 +5813,7 @@
         <v>180</v>
       </c>
       <c r="AQ27" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR27" s="48" t="s">
         <v>138</v>
@@ -5817,7 +5822,7 @@
         <v>197</v>
       </c>
       <c r="AT27" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU27" s="49">
         <v>6.9165519713261618E-3</v>
@@ -5895,7 +5900,7 @@
         <v>180</v>
       </c>
       <c r="AJ28" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK28" s="69" t="s">
         <v>139</v>
@@ -5904,7 +5909,7 @@
         <v>197</v>
       </c>
       <c r="AM28" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN28" s="48">
         <v>2.8314721319216154E-3</v>
@@ -5913,7 +5918,7 @@
         <v>180</v>
       </c>
       <c r="AQ28" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR28" s="69" t="s">
         <v>139</v>
@@ -5922,7 +5927,7 @@
         <v>197</v>
       </c>
       <c r="AT28" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU28" s="49">
         <v>4.9742853046594968E-2</v>
@@ -5979,7 +5984,7 @@
         <v>180</v>
       </c>
       <c r="AJ29" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK29" s="48" t="s">
         <v>140</v>
@@ -5988,7 +5993,7 @@
         <v>197</v>
       </c>
       <c r="AM29" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN29" s="48">
         <v>2.8141143326017269E-3</v>
@@ -5997,7 +6002,7 @@
         <v>180</v>
       </c>
       <c r="AQ29" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR29" s="48" t="s">
         <v>140</v>
@@ -6006,7 +6011,7 @@
         <v>197</v>
       </c>
       <c r="AT29" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU29" s="49">
         <v>0.12554577777777776</v>
@@ -6072,7 +6077,7 @@
         <v>180</v>
       </c>
       <c r="AJ30" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK30" s="69" t="s">
         <v>141</v>
@@ -6081,7 +6086,7 @@
         <v>197</v>
       </c>
       <c r="AM30" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN30" s="48">
         <v>2.6656478128544076E-3</v>
@@ -6090,7 +6095,7 @@
         <v>180</v>
       </c>
       <c r="AQ30" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR30" s="69" t="s">
         <v>141</v>
@@ -6099,7 +6104,7 @@
         <v>197</v>
       </c>
       <c r="AT30" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU30" s="49">
         <v>0.2058007025089606</v>
@@ -6150,7 +6155,7 @@
         <v>180</v>
       </c>
       <c r="AJ31" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK31" s="48" t="s">
         <v>142</v>
@@ -6159,7 +6164,7 @@
         <v>197</v>
       </c>
       <c r="AM31" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN31" s="48">
         <v>2.4530677112863486E-3</v>
@@ -6168,7 +6173,7 @@
         <v>180</v>
       </c>
       <c r="AQ31" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR31" s="48" t="s">
         <v>142</v>
@@ -6177,7 +6182,7 @@
         <v>197</v>
       </c>
       <c r="AT31" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU31" s="49">
         <v>0.27468446594982077</v>
@@ -6203,7 +6208,7 @@
         <v>180</v>
       </c>
       <c r="AJ32" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK32" s="69" t="s">
         <v>143</v>
@@ -6212,7 +6217,7 @@
         <v>197</v>
       </c>
       <c r="AM32" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN32" s="48">
         <v>2.1363241345921055E-3</v>
@@ -6221,7 +6226,7 @@
         <v>180</v>
       </c>
       <c r="AQ32" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR32" s="69" t="s">
         <v>143</v>
@@ -6230,7 +6235,7 @@
         <v>197</v>
       </c>
       <c r="AT32" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU32" s="49">
         <v>0.32637437275985665</v>
@@ -6256,7 +6261,7 @@
         <v>180</v>
       </c>
       <c r="AJ33" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK33" s="48" t="s">
         <v>144</v>
@@ -6265,7 +6270,7 @@
         <v>197</v>
       </c>
       <c r="AM33" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN33" s="48">
         <v>1.8660639529435976E-3</v>
@@ -6274,7 +6279,7 @@
         <v>180</v>
       </c>
       <c r="AQ33" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR33" s="48" t="s">
         <v>144</v>
@@ -6283,7 +6288,7 @@
         <v>197</v>
       </c>
       <c r="AT33" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU33" s="49">
         <v>0.35267560573476697</v>
@@ -6309,7 +6314,7 @@
         <v>180</v>
       </c>
       <c r="AJ34" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK34" s="69" t="s">
         <v>145</v>
@@ -6318,7 +6323,7 @@
         <v>197</v>
       </c>
       <c r="AM34" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN34" s="48">
         <v>1.7487528282965712E-3</v>
@@ -6327,7 +6332,7 @@
         <v>180</v>
       </c>
       <c r="AQ34" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR34" s="69" t="s">
         <v>145</v>
@@ -6336,7 +6341,7 @@
         <v>197</v>
       </c>
       <c r="AT34" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU34" s="49">
         <v>0.34322033691756271</v>
@@ -6363,7 +6368,7 @@
         <v>180</v>
       </c>
       <c r="AJ35" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK35" s="48" t="s">
         <v>146</v>
@@ -6372,7 +6377,7 @@
         <v>197</v>
       </c>
       <c r="AM35" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN35" s="48">
         <v>1.6637860863902745E-3</v>
@@ -6381,7 +6386,7 @@
         <v>180</v>
       </c>
       <c r="AQ35" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR35" s="48" t="s">
         <v>146</v>
@@ -6390,7 +6395,7 @@
         <v>197</v>
       </c>
       <c r="AT35" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU35" s="49">
         <v>0.30308891039426522</v>
@@ -6420,7 +6425,7 @@
         <v>180</v>
       </c>
       <c r="AJ36" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK36" s="69" t="s">
         <v>147</v>
@@ -6429,7 +6434,7 @@
         <v>197</v>
       </c>
       <c r="AM36" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN36" s="48">
         <v>1.8211742012316831E-3</v>
@@ -6438,7 +6443,7 @@
         <v>180</v>
       </c>
       <c r="AQ36" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR36" s="69" t="s">
         <v>147</v>
@@ -6447,7 +6452,7 @@
         <v>197</v>
       </c>
       <c r="AT36" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU36" s="49">
         <v>0.23170381362007167</v>
@@ -6477,7 +6482,7 @@
         <v>180</v>
       </c>
       <c r="AJ37" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK37" s="48" t="s">
         <v>148</v>
@@ -6486,7 +6491,7 @@
         <v>197</v>
       </c>
       <c r="AM37" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN37" s="48">
         <v>1.9153018835258307E-3</v>
@@ -6495,7 +6500,7 @@
         <v>180</v>
       </c>
       <c r="AQ37" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR37" s="48" t="s">
         <v>148</v>
@@ -6504,7 +6509,7 @@
         <v>197</v>
       </c>
       <c r="AT37" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU37" s="49">
         <v>0.14172651612903225</v>
@@ -6522,7 +6527,7 @@
         <v>180</v>
       </c>
       <c r="AJ38" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK38" s="69" t="s">
         <v>149</v>
@@ -6531,7 +6536,7 @@
         <v>197</v>
       </c>
       <c r="AM38" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN38" s="48">
         <v>1.9744590518638132E-3</v>
@@ -6540,7 +6545,7 @@
         <v>180</v>
       </c>
       <c r="AQ38" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR38" s="69" t="s">
         <v>149</v>
@@ -6549,7 +6554,7 @@
         <v>197</v>
       </c>
       <c r="AT38" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU38" s="48">
         <v>5.3895483870967743E-2</v>
@@ -6561,7 +6566,7 @@
         <v>180</v>
       </c>
       <c r="AJ39" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK39" s="48" t="s">
         <v>150</v>
@@ -6570,7 +6575,7 @@
         <v>197</v>
       </c>
       <c r="AM39" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN39" s="48">
         <v>2.1878436160058393E-3</v>
@@ -6579,7 +6584,7 @@
         <v>180</v>
       </c>
       <c r="AQ39" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR39" s="48" t="s">
         <v>150</v>
@@ -6588,7 +6593,7 @@
         <v>197</v>
       </c>
       <c r="AT39" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU39" s="48">
         <v>2.6301935483870969E-3</v>
@@ -6604,7 +6609,7 @@
         <v>180</v>
       </c>
       <c r="AJ40" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK40" s="69" t="s">
         <v>151</v>
@@ -6613,7 +6618,7 @@
         <v>197</v>
       </c>
       <c r="AM40" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN40" s="48">
         <v>2.3889741533883327E-3</v>
@@ -6622,7 +6627,7 @@
         <v>180</v>
       </c>
       <c r="AQ40" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR40" s="69" t="s">
         <v>151</v>
@@ -6631,7 +6636,7 @@
         <v>197</v>
       </c>
       <c r="AT40" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU40" s="48">
         <v>0</v>
@@ -6647,7 +6652,7 @@
         <v>180</v>
       </c>
       <c r="AJ41" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK41" s="48" t="s">
         <v>152</v>
@@ -6656,7 +6661,7 @@
         <v>197</v>
       </c>
       <c r="AM41" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN41" s="48">
         <v>2.4063426997311056E-3</v>
@@ -6665,7 +6670,7 @@
         <v>180</v>
       </c>
       <c r="AQ41" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR41" s="48" t="s">
         <v>152</v>
@@ -6674,7 +6679,7 @@
         <v>197</v>
       </c>
       <c r="AT41" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU41" s="48">
         <v>0</v>
@@ -6692,7 +6697,7 @@
         <v>180</v>
       </c>
       <c r="AJ42" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK42" s="69" t="s">
         <v>153</v>
@@ -6701,7 +6706,7 @@
         <v>197</v>
       </c>
       <c r="AM42" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN42" s="48">
         <v>2.5925256698099051E-3</v>
@@ -6710,7 +6715,7 @@
         <v>180</v>
       </c>
       <c r="AQ42" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR42" s="69" t="s">
         <v>153</v>
@@ -6719,7 +6724,7 @@
         <v>197</v>
       </c>
       <c r="AT42" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU42" s="48">
         <v>0</v>
@@ -6730,7 +6735,7 @@
         <v>180</v>
       </c>
       <c r="AJ43" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK43" s="48" t="s">
         <v>154</v>
@@ -6739,7 +6744,7 @@
         <v>197</v>
       </c>
       <c r="AM43" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN43" s="48">
         <v>2.9724559200622644E-3</v>
@@ -6748,7 +6753,7 @@
         <v>180</v>
       </c>
       <c r="AQ43" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR43" s="48" t="s">
         <v>154</v>
@@ -6757,7 +6762,7 @@
         <v>197</v>
       </c>
       <c r="AT43" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU43" s="48">
         <v>0</v>
@@ -6775,7 +6780,7 @@
         <v>180</v>
       </c>
       <c r="AJ44" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK44" s="69" t="s">
         <v>155</v>
@@ -6784,7 +6789,7 @@
         <v>197</v>
       </c>
       <c r="AM44" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN44" s="48">
         <v>3.3823091606694387E-3</v>
@@ -6793,7 +6798,7 @@
         <v>180</v>
       </c>
       <c r="AQ44" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR44" s="69" t="s">
         <v>155</v>
@@ -6802,7 +6807,7 @@
         <v>197</v>
       </c>
       <c r="AT44" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU44" s="48">
         <v>0</v>
@@ -6814,7 +6819,7 @@
         <v>180</v>
       </c>
       <c r="AJ45" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK45" s="38" t="s">
         <v>156</v>
@@ -6823,7 +6828,7 @@
         <v>197</v>
       </c>
       <c r="AM45" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN45" s="48">
         <v>3.3051976250754521E-3</v>
@@ -6832,7 +6837,7 @@
         <v>180</v>
       </c>
       <c r="AQ45" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR45" s="38" t="s">
         <v>156</v>
@@ -6841,7 +6846,7 @@
         <v>197</v>
       </c>
       <c r="AT45" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU45" s="48">
         <v>0</v>
@@ -6852,7 +6857,7 @@
         <v>180</v>
       </c>
       <c r="AJ46" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK46" s="38" t="s">
         <v>157</v>
@@ -6861,7 +6866,7 @@
         <v>197</v>
       </c>
       <c r="AM46" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN46" s="48">
         <v>3.1618331753269246E-3</v>
@@ -6870,7 +6875,7 @@
         <v>180</v>
       </c>
       <c r="AQ46" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR46" s="38" t="s">
         <v>157</v>
@@ -6879,7 +6884,7 @@
         <v>197</v>
       </c>
       <c r="AT46" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU46" s="48">
         <v>0</v>
@@ -6890,7 +6895,7 @@
         <v>180</v>
       </c>
       <c r="AJ47" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK47" s="38" t="s">
         <v>158</v>
@@ -6899,7 +6904,7 @@
         <v>197</v>
       </c>
       <c r="AM47" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN47" s="48">
         <v>2.8979409360310663E-3</v>
@@ -6908,7 +6913,7 @@
         <v>180</v>
       </c>
       <c r="AQ47" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR47" s="38" t="s">
         <v>158</v>
@@ -6917,7 +6922,7 @@
         <v>197</v>
       </c>
       <c r="AT47" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU47" s="48">
         <v>0</v>
@@ -6928,7 +6933,7 @@
         <v>180</v>
       </c>
       <c r="AJ48" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK48" s="38" t="s">
         <v>159</v>
@@ -6937,7 +6942,7 @@
         <v>197</v>
       </c>
       <c r="AM48" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN48" s="48">
         <v>2.7156926103261707E-3</v>
@@ -6946,7 +6951,7 @@
         <v>180</v>
       </c>
       <c r="AQ48" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR48" s="38" t="s">
         <v>159</v>
@@ -6955,7 +6960,7 @@
         <v>197</v>
       </c>
       <c r="AT48" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU48" s="48">
         <v>0</v>
@@ -6966,7 +6971,7 @@
         <v>180</v>
       </c>
       <c r="AJ49" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK49" s="38" t="s">
         <v>160</v>
@@ -6975,7 +6980,7 @@
         <v>197</v>
       </c>
       <c r="AM49" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN49" s="48">
         <v>2.5452192095824343E-3</v>
@@ -6984,7 +6989,7 @@
         <v>180</v>
       </c>
       <c r="AQ49" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR49" s="38" t="s">
         <v>160</v>
@@ -6993,7 +6998,7 @@
         <v>197</v>
       </c>
       <c r="AT49" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU49" s="48">
         <v>0</v>
@@ -7004,7 +7009,7 @@
         <v>180</v>
       </c>
       <c r="AJ50" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK50" s="38" t="s">
         <v>161</v>
@@ -7013,7 +7018,7 @@
         <v>197</v>
       </c>
       <c r="AM50" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN50" s="48">
         <v>2.5834450529081338E-3</v>
@@ -7022,7 +7027,7 @@
         <v>180</v>
       </c>
       <c r="AQ50" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR50" s="38" t="s">
         <v>161</v>
@@ -7031,7 +7036,7 @@
         <v>197</v>
       </c>
       <c r="AT50" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU50" s="48">
         <v>0</v>
@@ -7042,7 +7047,7 @@
         <v>180</v>
       </c>
       <c r="AJ51" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK51" s="38" t="s">
         <v>162</v>
@@ -7051,7 +7056,7 @@
         <v>197</v>
       </c>
       <c r="AM51" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN51" s="48">
         <v>2.7432881310744317E-3</v>
@@ -7060,7 +7065,7 @@
         <v>180</v>
       </c>
       <c r="AQ51" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR51" s="38" t="s">
         <v>162</v>
@@ -7069,7 +7074,7 @@
         <v>197</v>
       </c>
       <c r="AT51" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU51" s="48">
         <v>6.4190919952210254E-3</v>
@@ -7093,7 +7098,7 @@
         <v>180</v>
       </c>
       <c r="AJ52" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK52" s="38" t="s">
         <v>163</v>
@@ -7102,7 +7107,7 @@
         <v>197</v>
       </c>
       <c r="AM52" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN52" s="48">
         <v>2.8314721319216154E-3</v>
@@ -7111,7 +7116,7 @@
         <v>180</v>
       </c>
       <c r="AQ52" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR52" s="38" t="s">
         <v>163</v>
@@ -7120,7 +7125,7 @@
         <v>197</v>
       </c>
       <c r="AT52" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU52" s="48">
         <v>7.0838474313022717E-2</v>
@@ -7142,7 +7147,7 @@
         <v>180</v>
       </c>
       <c r="AJ53" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK53" s="38" t="s">
         <v>164</v>
@@ -7151,7 +7156,7 @@
         <v>197</v>
       </c>
       <c r="AM53" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN53" s="48">
         <v>2.8141143326017269E-3</v>
@@ -7160,7 +7165,7 @@
         <v>180</v>
       </c>
       <c r="AQ53" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR53" s="38" t="s">
         <v>164</v>
@@ -7169,7 +7174,7 @@
         <v>197</v>
       </c>
       <c r="AT53" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU53" s="48">
         <v>0.15999428793309439</v>
@@ -7213,7 +7218,7 @@
         <v>180</v>
       </c>
       <c r="AJ54" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK54" s="38" t="s">
         <v>165</v>
@@ -7222,7 +7227,7 @@
         <v>197</v>
       </c>
       <c r="AM54" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN54" s="48">
         <v>2.6656478128544076E-3</v>
@@ -7231,7 +7236,7 @@
         <v>180</v>
       </c>
       <c r="AQ54" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR54" s="38" t="s">
         <v>165</v>
@@ -7240,7 +7245,7 @@
         <v>197</v>
       </c>
       <c r="AT54" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU54" s="48">
         <v>0.25343209199522099</v>
@@ -7274,7 +7279,7 @@
         <v>180</v>
       </c>
       <c r="AJ55" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK55" s="38" t="s">
         <v>166</v>
@@ -7283,7 +7288,7 @@
         <v>197</v>
       </c>
       <c r="AM55" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN55" s="48">
         <v>2.4530677112863486E-3</v>
@@ -7292,7 +7297,7 @@
         <v>180</v>
       </c>
       <c r="AQ55" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR55" s="38" t="s">
         <v>166</v>
@@ -7301,7 +7306,7 @@
         <v>197</v>
       </c>
       <c r="AT55" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU55" s="48">
         <v>0.32960197968936678</v>
@@ -7335,7 +7340,7 @@
         <v>180</v>
       </c>
       <c r="AJ56" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK56" s="38" t="s">
         <v>167</v>
@@ -7344,7 +7349,7 @@
         <v>197</v>
       </c>
       <c r="AM56" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN56" s="48">
         <v>2.1363241345921055E-3</v>
@@ -7353,7 +7358,7 @@
         <v>180</v>
       </c>
       <c r="AQ56" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR56" s="38" t="s">
         <v>167</v>
@@ -7362,7 +7367,7 @@
         <v>197</v>
       </c>
       <c r="AT56" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU56" s="48">
         <v>0.37592762246117079</v>
@@ -7396,7 +7401,7 @@
         <v>180</v>
       </c>
       <c r="AJ57" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK57" s="38" t="s">
         <v>168</v>
@@ -7405,7 +7410,7 @@
         <v>197</v>
       </c>
       <c r="AM57" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN57" s="48">
         <v>1.8660639529435976E-3</v>
@@ -7414,7 +7419,7 @@
         <v>180</v>
       </c>
       <c r="AQ57" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR57" s="38" t="s">
         <v>168</v>
@@ -7423,7 +7428,7 @@
         <v>197</v>
       </c>
       <c r="AT57" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU57" s="48">
         <v>0.38776096057347664</v>
@@ -7457,7 +7462,7 @@
         <v>180</v>
       </c>
       <c r="AJ58" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK58" s="38" t="s">
         <v>169</v>
@@ -7466,7 +7471,7 @@
         <v>197</v>
       </c>
       <c r="AM58" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN58" s="48">
         <v>1.7487528282965712E-3</v>
@@ -7475,7 +7480,7 @@
         <v>180</v>
       </c>
       <c r="AQ58" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR58" s="38" t="s">
         <v>169</v>
@@ -7484,7 +7489,7 @@
         <v>197</v>
       </c>
       <c r="AT58" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU58" s="48">
         <v>0.36426783751493425</v>
@@ -7518,7 +7523,7 @@
         <v>180</v>
       </c>
       <c r="AJ59" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK59" s="38" t="s">
         <v>170</v>
@@ -7527,7 +7532,7 @@
         <v>197</v>
       </c>
       <c r="AM59" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN59" s="48">
         <v>1.6637860863902745E-3</v>
@@ -7536,7 +7541,7 @@
         <v>180</v>
       </c>
       <c r="AQ59" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR59" s="38" t="s">
         <v>170</v>
@@ -7545,7 +7550,7 @@
         <v>197</v>
       </c>
       <c r="AT59" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU59" s="48">
         <v>0.31009156033452806</v>
@@ -7579,7 +7584,7 @@
         <v>180</v>
       </c>
       <c r="AJ60" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK60" s="38" t="s">
         <v>171</v>
@@ -7588,7 +7593,7 @@
         <v>197</v>
       </c>
       <c r="AM60" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN60" s="48">
         <v>1.8211742012316831E-3</v>
@@ -7597,7 +7602,7 @@
         <v>180</v>
       </c>
       <c r="AQ60" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR60" s="38" t="s">
         <v>171</v>
@@ -7606,7 +7611,7 @@
         <v>197</v>
       </c>
       <c r="AT60" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU60" s="48">
         <v>0.23188419952210276</v>
@@ -7640,7 +7645,7 @@
         <v>180</v>
       </c>
       <c r="AJ61" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK61" s="38" t="s">
         <v>172</v>
@@ -7649,7 +7654,7 @@
         <v>197</v>
       </c>
       <c r="AM61" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN61" s="48">
         <v>1.9153018835258307E-3</v>
@@ -7658,7 +7663,7 @@
         <v>180</v>
       </c>
       <c r="AQ61" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR61" s="38" t="s">
         <v>172</v>
@@ -7667,7 +7672,7 @@
         <v>197</v>
       </c>
       <c r="AT61" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU61" s="48">
         <v>0.13618056033452808</v>
@@ -7701,7 +7706,7 @@
         <v>180</v>
       </c>
       <c r="AJ62" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK62" s="38" t="s">
         <v>173</v>
@@ -7710,7 +7715,7 @@
         <v>197</v>
       </c>
       <c r="AM62" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN62" s="48">
         <v>1.9744590518638132E-3</v>
@@ -7719,7 +7724,7 @@
         <v>180</v>
       </c>
       <c r="AQ62" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR62" s="38" t="s">
         <v>173</v>
@@ -7728,7 +7733,7 @@
         <v>197</v>
       </c>
       <c r="AT62" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU62" s="48">
         <v>4.9357593787335743E-2</v>
@@ -7739,7 +7744,7 @@
         <v>180</v>
       </c>
       <c r="AJ63" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK63" s="38" t="s">
         <v>174</v>
@@ -7748,7 +7753,7 @@
         <v>197</v>
       </c>
       <c r="AM63" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN63" s="48">
         <v>2.1878436160058393E-3</v>
@@ -7757,7 +7762,7 @@
         <v>180</v>
       </c>
       <c r="AQ63" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR63" s="38" t="s">
         <v>174</v>
@@ -7766,7 +7771,7 @@
         <v>197</v>
       </c>
       <c r="AT63" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU63" s="48">
         <v>7.5268817204301086E-6</v>
@@ -7777,7 +7782,7 @@
         <v>180</v>
       </c>
       <c r="AJ64" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK64" s="38" t="s">
         <v>175</v>
@@ -7786,7 +7791,7 @@
         <v>197</v>
       </c>
       <c r="AM64" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN64" s="48">
         <v>2.3889741533883327E-3</v>
@@ -7795,7 +7800,7 @@
         <v>180</v>
       </c>
       <c r="AQ64" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR64" s="38" t="s">
         <v>175</v>
@@ -7804,7 +7809,7 @@
         <v>197</v>
       </c>
       <c r="AT64" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU64" s="48">
         <v>0</v>
@@ -7815,7 +7820,7 @@
         <v>180</v>
       </c>
       <c r="AJ65" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK65" s="38" t="s">
         <v>176</v>
@@ -7824,7 +7829,7 @@
         <v>197</v>
       </c>
       <c r="AM65" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN65" s="48">
         <v>2.4063426997311056E-3</v>
@@ -7833,7 +7838,7 @@
         <v>180</v>
       </c>
       <c r="AQ65" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR65" s="38" t="s">
         <v>176</v>
@@ -7842,7 +7847,7 @@
         <v>197</v>
       </c>
       <c r="AT65" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU65" s="48">
         <v>0</v>
@@ -7853,7 +7858,7 @@
         <v>180</v>
       </c>
       <c r="AJ66" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK66" s="38" t="s">
         <v>177</v>
@@ -7862,7 +7867,7 @@
         <v>197</v>
       </c>
       <c r="AM66" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN66" s="48">
         <v>2.5925256698099051E-3</v>
@@ -7871,7 +7876,7 @@
         <v>180</v>
       </c>
       <c r="AQ66" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR66" s="38" t="s">
         <v>177</v>
@@ -7880,7 +7885,7 @@
         <v>197</v>
       </c>
       <c r="AT66" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU66" s="48">
         <v>0</v>
@@ -7891,7 +7896,7 @@
         <v>180</v>
       </c>
       <c r="AJ67" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK67" s="38" t="s">
         <v>178</v>
@@ -7900,7 +7905,7 @@
         <v>197</v>
       </c>
       <c r="AM67" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN67" s="48">
         <v>2.9724559200622644E-3</v>
@@ -7909,7 +7914,7 @@
         <v>180</v>
       </c>
       <c r="AQ67" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR67" s="38" t="s">
         <v>178</v>
@@ -7918,7 +7923,7 @@
         <v>197</v>
       </c>
       <c r="AT67" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU67" s="48">
         <v>0</v>
@@ -7929,7 +7934,7 @@
         <v>180</v>
       </c>
       <c r="AJ68" s="39" t="s">
-        <v>93</v>
+        <v>210</v>
       </c>
       <c r="AK68" s="38" t="s">
         <v>179</v>
@@ -7938,7 +7943,7 @@
         <v>197</v>
       </c>
       <c r="AM68" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AN68" s="48">
         <v>3.3823091606694387E-3</v>
@@ -7947,7 +7952,7 @@
         <v>180</v>
       </c>
       <c r="AQ68" s="39" t="s">
-        <v>94</v>
+        <v>211</v>
       </c>
       <c r="AR68" s="38" t="s">
         <v>179</v>
@@ -7956,7 +7961,7 @@
         <v>197</v>
       </c>
       <c r="AT68" s="48" t="s">
-        <v>69</v>
+        <v>209</v>
       </c>
       <c r="AU68" s="48">
         <v>0</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C6C596-7697-452F-AAA6-BEC02DC74D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{09C30E30-F94B-441F-9C9E-5FF239EF9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1972A3F0-7201-4D01-B590-C935F37EF6A4}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="837" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="211">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2183,13 +2183,10 @@
     <t>Pset_CN</t>
   </si>
   <si>
-    <t>CSET_ELC</t>
-  </si>
-  <si>
-    <t>PSET_WNDTRBN</t>
-  </si>
-  <si>
-    <t>PSET_SOLPV</t>
+    <t>Timeslices</t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
@@ -3006,6 +3003,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3295,35 +3296,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="H4" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView topLeftCell="K2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.140625" customWidth="1"/>
-    <col min="16" max="16" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.140625" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.26953125" customWidth="1"/>
+    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.7265625" customWidth="1"/>
+    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1796875" customWidth="1"/>
+    <col min="16" max="16" width="21.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.81640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.1796875" customWidth="1"/>
+    <col min="19" max="19" width="11.54296875" customWidth="1"/>
+    <col min="20" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:22" ht="29" x14ac:dyDescent="0.35">
       <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
@@ -3341,7 +3342,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C2" s="38" t="s">
         <v>72</v>
       </c>
@@ -3367,7 +3368,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C3" s="38" t="s">
         <v>63</v>
       </c>
@@ -3409,7 +3410,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:22" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C4" s="38" t="s">
         <v>61</v>
       </c>
@@ -3451,7 +3452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C5" s="38" t="s">
         <v>60</v>
       </c>
@@ -3485,7 +3486,7 @@
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
     </row>
-    <row r="6" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="11"/>
@@ -3511,7 +3512,7 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="2:22" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="11"/>
@@ -3537,7 +3538,7 @@
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
     </row>
-    <row r="8" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
       <c r="D8" s="14"/>
@@ -3564,7 +3565,7 @@
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
     </row>
-    <row r="9" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
@@ -3582,7 +3583,7 @@
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
     </row>
-    <row r="10" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
       <c r="D10" s="14"/>
@@ -3600,7 +3601,7 @@
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
     </row>
-    <row r="11" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L11"/>
       <c r="M11"/>
       <c r="N11"/>
@@ -3613,7 +3614,7 @@
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
     </row>
-    <row r="12" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
@@ -3626,7 +3627,7 @@
       <c r="U12" s="7"/>
       <c r="V12" s="7"/>
     </row>
-    <row r="13" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13"/>
@@ -3646,7 +3647,7 @@
       <c r="U13"/>
       <c r="V13"/>
     </row>
-    <row r="14" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:22" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14"/>
@@ -3666,7 +3667,7 @@
       <c r="U14" s="7"/>
       <c r="V14" s="7"/>
     </row>
-    <row r="15" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N15" s="7"/>
       <c r="O15" s="10"/>
       <c r="P15" s="7"/>
@@ -3677,7 +3678,7 @@
       <c r="U15" s="7"/>
       <c r="V15" s="7"/>
     </row>
-    <row r="16" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N16" s="7"/>
       <c r="O16" s="10"/>
       <c r="P16" s="7"/>
@@ -3688,7 +3689,7 @@
       <c r="U16" s="7"/>
       <c r="V16" s="7"/>
     </row>
-    <row r="17" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N17" s="7"/>
       <c r="O17" s="10"/>
       <c r="P17" s="7"/>
@@ -3699,7 +3700,7 @@
       <c r="U17" s="7"/>
       <c r="V17" s="7"/>
     </row>
-    <row r="18" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N18" s="7"/>
       <c r="O18" s="10"/>
       <c r="P18" s="7"/>
@@ -3710,7 +3711,7 @@
       <c r="U18" s="7"/>
       <c r="V18" s="7"/>
     </row>
-    <row r="19" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N19" s="7"/>
       <c r="O19" s="10"/>
       <c r="P19" s="7"/>
@@ -3721,7 +3722,7 @@
       <c r="U19" s="7"/>
       <c r="V19" s="7"/>
     </row>
-    <row r="20" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N20" s="7"/>
       <c r="O20" s="10"/>
       <c r="P20" s="7"/>
@@ -3732,7 +3733,7 @@
       <c r="U20" s="7"/>
       <c r="V20" s="7"/>
     </row>
-    <row r="21" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:22" x14ac:dyDescent="0.25">
       <c r="N21" s="1"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
@@ -3742,7 +3743,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="F22" s="2" t="s">
         <v>0</v>
       </c>
@@ -3759,7 +3760,7 @@
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
     </row>
-    <row r="23" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:22" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="15" t="s">
         <v>1</v>
       </c>
@@ -3818,7 +3819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>48</v>
       </c>
@@ -3877,7 +3878,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="23.25" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>53</v>
       </c>
@@ -3910,7 +3911,7 @@
       <c r="U25" s="22"/>
       <c r="V25" s="22"/>
     </row>
-    <row r="26" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="str">
         <f>P26</f>
         <v>MINBIO</v>
@@ -3958,7 +3959,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="str">
         <f>P27</f>
         <v>MINGAS</v>
@@ -4006,7 +4007,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="str">
         <f t="shared" ref="B28:B29" si="0">P28</f>
         <v>MINWIND</v>
@@ -4045,7 +4046,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="29" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="str">
         <f t="shared" si="0"/>
         <v>MINSOLAR</v>
@@ -4085,7 +4086,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B30" s="7"/>
       <c r="C30" s="10"/>
       <c r="D30" s="7"/>
@@ -4101,7 +4102,7 @@
       <c r="S30" s="38"/>
       <c r="T30" s="38"/>
     </row>
-    <row r="31" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B31" s="7"/>
       <c r="C31" s="10"/>
       <c r="D31" s="7"/>
@@ -4117,7 +4118,7 @@
       <c r="S31" s="38"/>
       <c r="T31" s="38"/>
     </row>
-    <row r="32" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B32" s="7"/>
       <c r="C32" s="10"/>
       <c r="D32" s="7"/>
@@ -4133,7 +4134,7 @@
       <c r="S32" s="38"/>
       <c r="T32" s="38"/>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="7"/>
       <c r="C33" s="10"/>
       <c r="D33" s="7"/>
@@ -4149,7 +4150,7 @@
       <c r="S33" s="38"/>
       <c r="T33" s="38"/>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B34" s="7"/>
       <c r="C34" s="10"/>
       <c r="D34" s="7"/>
@@ -4164,7 +4165,7 @@
       <c r="S34" s="38"/>
       <c r="T34" s="38"/>
     </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B35" s="7"/>
       <c r="C35" s="10"/>
       <c r="D35" s="7"/>
@@ -4179,7 +4180,7 @@
       <c r="S35" s="38"/>
       <c r="T35" s="38"/>
     </row>
-    <row r="36" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B36" s="7"/>
       <c r="C36" s="10"/>
       <c r="D36" s="7"/>
@@ -4194,12 +4195,12 @@
       <c r="S36" s="38"/>
       <c r="T36" s="38"/>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
       <c r="N37" s="1"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B38" s="12"/>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -4214,7 +4215,7 @@
       <c r="S38" s="14"/>
       <c r="T38" s="14"/>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -4229,7 +4230,7 @@
       <c r="S39" s="14"/>
       <c r="T39" s="14"/>
     </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B40" s="12"/>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -4244,7 +4245,7 @@
       <c r="S40" s="14"/>
       <c r="T40" s="14"/>
     </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -4259,7 +4260,7 @@
       <c r="S41" s="14"/>
       <c r="T41" s="14"/>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B42" s="12"/>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -4274,7 +4275,7 @@
       <c r="S42" s="14"/>
       <c r="T42" s="14"/>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B43" s="7"/>
       <c r="C43" s="10"/>
       <c r="D43" s="7"/>
@@ -4285,7 +4286,7 @@
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B44" s="7"/>
       <c r="C44" s="10"/>
       <c r="D44" s="7"/>
@@ -4296,7 +4297,7 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B45" s="7"/>
       <c r="C45" s="10"/>
       <c r="D45" s="7"/>
@@ -4304,7 +4305,7 @@
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B46" s="7"/>
       <c r="C46" s="1"/>
       <c r="D46" s="7"/>
@@ -4312,7 +4313,7 @@
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
@@ -4320,7 +4321,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
@@ -4328,7 +4329,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
@@ -4340,7 +4341,7 @@
       <c r="P49" s="14"/>
       <c r="Q49" s="14"/>
     </row>
-    <row r="50" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="1"/>
       <c r="D50" s="7"/>
@@ -4352,7 +4353,7 @@
       <c r="P50" s="14"/>
       <c r="Q50" s="14"/>
     </row>
-    <row r="51" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B51" s="7"/>
       <c r="C51" s="1"/>
       <c r="D51" s="7"/>
@@ -4364,7 +4365,7 @@
       <c r="P51" s="14"/>
       <c r="Q51" s="14"/>
     </row>
-    <row r="52" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B52" s="7"/>
       <c r="C52" s="1"/>
       <c r="D52" s="7"/>
@@ -4376,7 +4377,7 @@
       <c r="P52" s="14"/>
       <c r="Q52" s="14"/>
     </row>
-    <row r="53" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B53" s="7"/>
       <c r="D53" s="7"/>
       <c r="E53" s="1"/>
@@ -4387,23 +4388,23 @@
       <c r="P53" s="14"/>
       <c r="Q53" s="14"/>
     </row>
-    <row r="54" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:17" x14ac:dyDescent="0.25">
       <c r="P54" s="10"/>
       <c r="Q54" s="27"/>
     </row>
-    <row r="55" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B55" s="23"/>
       <c r="C55" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B56" s="30"/>
       <c r="C56" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65"/>
       <c r="B65"/>
       <c r="C65"/>
@@ -4428,10 +4429,10 @@
       <c r="V65"/>
       <c r="W65"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.25">
       <c r="W66" s="1"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A67" s="1"/>
     </row>
   </sheetData>
@@ -4447,43 +4448,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AQ21" sqref="AQ21:AQ68"/>
+    <sheetView tabSelected="1" topLeftCell="AF17" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AU20" sqref="AU20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.85546875" style="48" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.81640625" style="48" customWidth="1"/>
+    <col min="4" max="4" width="13.81640625" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="48" customWidth="1"/>
-    <col min="10" max="10" width="12.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.140625" style="48" customWidth="1"/>
-    <col min="13" max="13" width="10.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="8.140625" style="48" customWidth="1"/>
-    <col min="20" max="21" width="8.140625" style="49" customWidth="1"/>
-    <col min="22" max="22" width="12.7109375" style="48" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.140625" style="48" customWidth="1"/>
-    <col min="24" max="24" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="63.85546875" style="48" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.28515625" style="48" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7109375" style="48" customWidth="1"/>
-    <col min="28" max="28" width="13.42578125" style="48" customWidth="1"/>
-    <col min="29" max="29" width="13.85546875" style="48" customWidth="1"/>
-    <col min="30" max="30" width="8.42578125" style="48" customWidth="1"/>
-    <col min="31" max="35" width="8.85546875" style="48"/>
-    <col min="36" max="36" width="12.42578125" style="48" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="8.85546875" style="48"/>
-    <col min="40" max="40" width="13.140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.85546875" style="48"/>
+    <col min="6" max="6" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.54296875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.81640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.1796875" style="48" customWidth="1"/>
+    <col min="10" max="10" width="12.81640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.1796875" style="48" customWidth="1"/>
+    <col min="13" max="13" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.1796875" style="48" customWidth="1"/>
+    <col min="20" max="21" width="8.1796875" style="49" customWidth="1"/>
+    <col min="22" max="22" width="12.7265625" style="48" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.1796875" style="48" customWidth="1"/>
+    <col min="24" max="24" width="11.453125" style="48" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="63.81640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.26953125" style="48" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.7265625" style="48" customWidth="1"/>
+    <col min="28" max="28" width="13.453125" style="48" customWidth="1"/>
+    <col min="29" max="29" width="13.81640625" style="48" customWidth="1"/>
+    <col min="30" max="30" width="8.453125" style="48" customWidth="1"/>
+    <col min="31" max="35" width="8.81640625" style="48"/>
+    <col min="36" max="36" width="12.453125" style="48" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="8.81640625" style="48"/>
+    <col min="40" max="40" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.81640625" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:31" ht="14.5" x14ac:dyDescent="0.35">
       <c r="B1" s="47" t="s">
         <v>38</v>
       </c>
@@ -4504,7 +4505,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="2:31" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:31" ht="31" x14ac:dyDescent="0.35">
       <c r="B2" s="50" t="s">
         <v>98</v>
       </c>
@@ -4537,7 +4538,7 @@
       <c r="AC2" s="53"/>
       <c r="AD2" s="53"/>
     </row>
-    <row r="3" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:31" ht="13" x14ac:dyDescent="0.3">
       <c r="V3" s="54" t="s">
         <v>8</v>
       </c>
@@ -4566,7 +4567,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:31" ht="22" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -4601,7 +4602,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
@@ -4629,7 +4630,7 @@
       <c r="AD5" s="41"/>
       <c r="AE5" s="49"/>
     </row>
-    <row r="6" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -4657,7 +4658,7 @@
       <c r="AD6" s="57"/>
       <c r="AE6" s="49"/>
     </row>
-    <row r="7" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
@@ -4685,7 +4686,7 @@
       <c r="AD7" s="57"/>
       <c r="AE7" s="49"/>
     </row>
-    <row r="8" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B8" s="56"/>
       <c r="C8" s="56"/>
       <c r="D8" s="56"/>
@@ -4694,7 +4695,7 @@
       <c r="G8" s="56"/>
       <c r="AE8" s="49"/>
     </row>
-    <row r="9" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B9" s="56"/>
       <c r="C9" s="56"/>
       <c r="D9" s="56"/>
@@ -4703,7 +4704,7 @@
       <c r="G9" s="56"/>
       <c r="AE9" s="49"/>
     </row>
-    <row r="10" spans="2:31" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -4712,10 +4713,10 @@
       <c r="G10" s="56"/>
       <c r="AE10" s="49"/>
     </row>
-    <row r="11" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:31" x14ac:dyDescent="0.25">
       <c r="AE11" s="49"/>
     </row>
-    <row r="13" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:31" x14ac:dyDescent="0.25">
       <c r="V13" s="53"/>
       <c r="W13" s="53"/>
       <c r="X13" s="53"/>
@@ -4726,7 +4727,7 @@
       <c r="AC13" s="53"/>
       <c r="AD13" s="53"/>
     </row>
-    <row r="14" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:31" x14ac:dyDescent="0.25">
       <c r="V14" s="53"/>
       <c r="W14" s="53"/>
       <c r="X14" s="53"/>
@@ -4737,7 +4738,7 @@
       <c r="AC14" s="53"/>
       <c r="AD14" s="53"/>
     </row>
-    <row r="16" spans="2:31" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:31" ht="13" x14ac:dyDescent="0.3">
       <c r="D16" s="58" t="s">
         <v>0</v>
       </c>
@@ -4756,7 +4757,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4852,7 +4853,7 @@
       <c r="AS17" s="63"/>
       <c r="AT17" s="63"/>
     </row>
-    <row r="18" spans="2:47" ht="45.75" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:47" ht="31" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4948,7 +4949,7 @@
         <v>208</v>
       </c>
       <c r="AN18" s="64" t="s">
-        <v>121</v>
+        <v>210</v>
       </c>
       <c r="AP18" s="64" t="s">
         <v>130</v>
@@ -4966,10 +4967,10 @@
         <v>208</v>
       </c>
       <c r="AU18" s="64" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -5030,7 +5031,7 @@
       <c r="AT19" s="44"/>
       <c r="AU19" s="44"/>
     </row>
-    <row r="20" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="str">
         <f>X20</f>
         <v>Furnace</v>
@@ -5098,7 +5099,9 @@
         <v>53</v>
       </c>
       <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
+      <c r="AK20" s="45" t="s">
+        <v>209</v>
+      </c>
       <c r="AL20" s="45"/>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45"/>
@@ -5106,12 +5109,14 @@
         <v>53</v>
       </c>
       <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
+      <c r="AR20" s="45" t="s">
+        <v>209</v>
+      </c>
       <c r="AS20" s="45"/>
       <c r="AT20" s="45"/>
       <c r="AU20" s="44"/>
     </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="str">
         <f>X$21</f>
         <v>BIOBoiler</v>
@@ -5180,7 +5185,7 @@
         <v>180</v>
       </c>
       <c r="AJ21" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK21" s="48" t="s">
         <v>132</v>
@@ -5189,7 +5194,7 @@
         <v>197</v>
       </c>
       <c r="AM21" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN21" s="48">
         <v>3.3051976250754521E-3</v>
@@ -5198,7 +5203,7 @@
         <v>180</v>
       </c>
       <c r="AQ21" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR21" s="48" t="s">
         <v>132</v>
@@ -5207,13 +5212,13 @@
         <v>197</v>
       </c>
       <c r="AT21" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="str">
         <f>X24</f>
         <v>ELCBoiler</v>
@@ -5281,7 +5286,7 @@
         <v>180</v>
       </c>
       <c r="AJ22" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK22" s="69" t="s">
         <v>133</v>
@@ -5290,7 +5295,7 @@
         <v>197</v>
       </c>
       <c r="AM22" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN22" s="48">
         <v>3.1618331753269246E-3</v>
@@ -5299,7 +5304,7 @@
         <v>180</v>
       </c>
       <c r="AQ22" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR22" s="69" t="s">
         <v>133</v>
@@ -5308,13 +5313,13 @@
         <v>197</v>
       </c>
       <c r="AT22" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="48" t="str">
         <f>X22</f>
         <v>BIOKiln</v>
@@ -5380,7 +5385,7 @@
         <v>180</v>
       </c>
       <c r="AJ23" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK23" s="48" t="s">
         <v>134</v>
@@ -5389,7 +5394,7 @@
         <v>197</v>
       </c>
       <c r="AM23" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN23" s="48">
         <v>2.8979409360310663E-3</v>
@@ -5398,7 +5403,7 @@
         <v>180</v>
       </c>
       <c r="AQ23" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR23" s="48" t="s">
         <v>134</v>
@@ -5407,13 +5412,13 @@
         <v>197</v>
       </c>
       <c r="AT23" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5479,7 +5484,7 @@
         <v>180</v>
       </c>
       <c r="AJ24" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK24" s="69" t="s">
         <v>135</v>
@@ -5488,7 +5493,7 @@
         <v>197</v>
       </c>
       <c r="AM24" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN24" s="48">
         <v>2.7156926103261707E-3</v>
@@ -5497,7 +5502,7 @@
         <v>180</v>
       </c>
       <c r="AQ24" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR24" s="69" t="s">
         <v>135</v>
@@ -5506,13 +5511,13 @@
         <v>197</v>
       </c>
       <c r="AT24" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="str">
         <f>X26</f>
         <v>WNDTRBN</v>
@@ -5584,7 +5589,7 @@
         <v>180</v>
       </c>
       <c r="AJ25" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK25" s="48" t="s">
         <v>136</v>
@@ -5593,7 +5598,7 @@
         <v>197</v>
       </c>
       <c r="AM25" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN25" s="48">
         <v>2.5452192095824343E-3</v>
@@ -5602,7 +5607,7 @@
         <v>180</v>
       </c>
       <c r="AQ25" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR25" s="48" t="s">
         <v>136</v>
@@ -5611,13 +5616,13 @@
         <v>197</v>
       </c>
       <c r="AT25" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="str">
         <f>X27</f>
         <v>SOLPV</v>
@@ -5689,7 +5694,7 @@
         <v>180</v>
       </c>
       <c r="AJ26" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK26" s="69" t="s">
         <v>137</v>
@@ -5698,7 +5703,7 @@
         <v>197</v>
       </c>
       <c r="AM26" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN26" s="48">
         <v>2.5834450529081338E-3</v>
@@ -5707,7 +5712,7 @@
         <v>180</v>
       </c>
       <c r="AQ26" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR26" s="69" t="s">
         <v>137</v>
@@ -5716,13 +5721,13 @@
         <v>197</v>
       </c>
       <c r="AT26" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="str">
         <f>X25</f>
         <v>CSP</v>
@@ -5795,7 +5800,7 @@
         <v>180</v>
       </c>
       <c r="AJ27" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK27" s="48" t="s">
         <v>138</v>
@@ -5804,7 +5809,7 @@
         <v>197</v>
       </c>
       <c r="AM27" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN27" s="48">
         <v>2.7432881310744317E-3</v>
@@ -5813,7 +5818,7 @@
         <v>180</v>
       </c>
       <c r="AQ27" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR27" s="48" t="s">
         <v>138</v>
@@ -5822,13 +5827,13 @@
         <v>197</v>
       </c>
       <c r="AT27" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5900,7 +5905,7 @@
         <v>180</v>
       </c>
       <c r="AJ28" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK28" s="69" t="s">
         <v>139</v>
@@ -5909,7 +5914,7 @@
         <v>197</v>
       </c>
       <c r="AM28" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN28" s="48">
         <v>2.8314721319216154E-3</v>
@@ -5918,7 +5923,7 @@
         <v>180</v>
       </c>
       <c r="AQ28" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR28" s="69" t="s">
         <v>139</v>
@@ -5927,13 +5932,13 @@
         <v>197</v>
       </c>
       <c r="AT28" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5984,7 +5989,7 @@
         <v>180</v>
       </c>
       <c r="AJ29" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK29" s="48" t="s">
         <v>140</v>
@@ -5993,7 +5998,7 @@
         <v>197</v>
       </c>
       <c r="AM29" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN29" s="48">
         <v>2.8141143326017269E-3</v>
@@ -6002,7 +6007,7 @@
         <v>180</v>
       </c>
       <c r="AQ29" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR29" s="48" t="s">
         <v>140</v>
@@ -6011,13 +6016,13 @@
         <v>197</v>
       </c>
       <c r="AT29" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6077,7 +6082,7 @@
         <v>180</v>
       </c>
       <c r="AJ30" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK30" s="69" t="s">
         <v>141</v>
@@ -6086,7 +6091,7 @@
         <v>197</v>
       </c>
       <c r="AM30" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN30" s="48">
         <v>2.6656478128544076E-3</v>
@@ -6095,7 +6100,7 @@
         <v>180</v>
       </c>
       <c r="AQ30" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR30" s="69" t="s">
         <v>141</v>
@@ -6104,13 +6109,13 @@
         <v>197</v>
       </c>
       <c r="AT30" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -6155,7 +6160,7 @@
         <v>180</v>
       </c>
       <c r="AJ31" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK31" s="48" t="s">
         <v>142</v>
@@ -6164,7 +6169,7 @@
         <v>197</v>
       </c>
       <c r="AM31" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN31" s="48">
         <v>2.4530677112863486E-3</v>
@@ -6173,7 +6178,7 @@
         <v>180</v>
       </c>
       <c r="AQ31" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR31" s="48" t="s">
         <v>142</v>
@@ -6182,13 +6187,13 @@
         <v>197</v>
       </c>
       <c r="AT31" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU31" s="49">
         <v>0.27468446594982077</v>
       </c>
     </row>
-    <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -6208,7 +6213,7 @@
         <v>180</v>
       </c>
       <c r="AJ32" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK32" s="69" t="s">
         <v>143</v>
@@ -6217,7 +6222,7 @@
         <v>197</v>
       </c>
       <c r="AM32" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN32" s="48">
         <v>2.1363241345921055E-3</v>
@@ -6226,7 +6231,7 @@
         <v>180</v>
       </c>
       <c r="AQ32" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR32" s="69" t="s">
         <v>143</v>
@@ -6235,13 +6240,13 @@
         <v>197</v>
       </c>
       <c r="AT32" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU32" s="49">
         <v>0.32637437275985665</v>
       </c>
     </row>
-    <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
@@ -6261,7 +6266,7 @@
         <v>180</v>
       </c>
       <c r="AJ33" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK33" s="48" t="s">
         <v>144</v>
@@ -6270,7 +6275,7 @@
         <v>197</v>
       </c>
       <c r="AM33" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN33" s="48">
         <v>1.8660639529435976E-3</v>
@@ -6279,7 +6284,7 @@
         <v>180</v>
       </c>
       <c r="AQ33" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR33" s="48" t="s">
         <v>144</v>
@@ -6288,13 +6293,13 @@
         <v>197</v>
       </c>
       <c r="AT33" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -6314,7 +6319,7 @@
         <v>180</v>
       </c>
       <c r="AJ34" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK34" s="69" t="s">
         <v>145</v>
@@ -6323,7 +6328,7 @@
         <v>197</v>
       </c>
       <c r="AM34" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN34" s="48">
         <v>1.7487528282965712E-3</v>
@@ -6332,7 +6337,7 @@
         <v>180</v>
       </c>
       <c r="AQ34" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR34" s="69" t="s">
         <v>145</v>
@@ -6341,13 +6346,13 @@
         <v>197</v>
       </c>
       <c r="AT34" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -6368,7 +6373,7 @@
         <v>180</v>
       </c>
       <c r="AJ35" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK35" s="48" t="s">
         <v>146</v>
@@ -6377,7 +6382,7 @@
         <v>197</v>
       </c>
       <c r="AM35" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN35" s="48">
         <v>1.6637860863902745E-3</v>
@@ -6386,7 +6391,7 @@
         <v>180</v>
       </c>
       <c r="AQ35" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR35" s="48" t="s">
         <v>146</v>
@@ -6395,13 +6400,13 @@
         <v>197</v>
       </c>
       <c r="AT35" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -6425,7 +6430,7 @@
         <v>180</v>
       </c>
       <c r="AJ36" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK36" s="69" t="s">
         <v>147</v>
@@ -6434,7 +6439,7 @@
         <v>197</v>
       </c>
       <c r="AM36" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN36" s="48">
         <v>1.8211742012316831E-3</v>
@@ -6443,7 +6448,7 @@
         <v>180</v>
       </c>
       <c r="AQ36" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR36" s="69" t="s">
         <v>147</v>
@@ -6452,13 +6457,13 @@
         <v>197</v>
       </c>
       <c r="AT36" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -6482,7 +6487,7 @@
         <v>180</v>
       </c>
       <c r="AJ37" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK37" s="48" t="s">
         <v>148</v>
@@ -6491,7 +6496,7 @@
         <v>197</v>
       </c>
       <c r="AM37" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN37" s="48">
         <v>1.9153018835258307E-3</v>
@@ -6500,7 +6505,7 @@
         <v>180</v>
       </c>
       <c r="AQ37" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR37" s="48" t="s">
         <v>148</v>
@@ -6509,13 +6514,13 @@
         <v>197</v>
       </c>
       <c r="AT37" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
@@ -6527,7 +6532,7 @@
         <v>180</v>
       </c>
       <c r="AJ38" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK38" s="69" t="s">
         <v>149</v>
@@ -6536,7 +6541,7 @@
         <v>197</v>
       </c>
       <c r="AM38" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN38" s="48">
         <v>1.9744590518638132E-3</v>
@@ -6545,7 +6550,7 @@
         <v>180</v>
       </c>
       <c r="AQ38" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR38" s="69" t="s">
         <v>149</v>
@@ -6554,19 +6559,19 @@
         <v>197</v>
       </c>
       <c r="AT38" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ39" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK39" s="48" t="s">
         <v>150</v>
@@ -6575,7 +6580,7 @@
         <v>197</v>
       </c>
       <c r="AM39" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN39" s="48">
         <v>2.1878436160058393E-3</v>
@@ -6584,7 +6589,7 @@
         <v>180</v>
       </c>
       <c r="AQ39" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR39" s="48" t="s">
         <v>150</v>
@@ -6593,13 +6598,13 @@
         <v>197</v>
       </c>
       <c r="AT39" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
@@ -6609,7 +6614,7 @@
         <v>180</v>
       </c>
       <c r="AJ40" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK40" s="69" t="s">
         <v>151</v>
@@ -6618,7 +6623,7 @@
         <v>197</v>
       </c>
       <c r="AM40" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN40" s="48">
         <v>2.3889741533883327E-3</v>
@@ -6627,7 +6632,7 @@
         <v>180</v>
       </c>
       <c r="AQ40" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR40" s="69" t="s">
         <v>151</v>
@@ -6636,13 +6641,13 @@
         <v>197</v>
       </c>
       <c r="AT40" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
@@ -6652,7 +6657,7 @@
         <v>180</v>
       </c>
       <c r="AJ41" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK41" s="48" t="s">
         <v>152</v>
@@ -6661,7 +6666,7 @@
         <v>197</v>
       </c>
       <c r="AM41" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN41" s="48">
         <v>2.4063426997311056E-3</v>
@@ -6670,7 +6675,7 @@
         <v>180</v>
       </c>
       <c r="AQ41" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR41" s="48" t="s">
         <v>152</v>
@@ -6679,13 +6684,13 @@
         <v>197</v>
       </c>
       <c r="AT41" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -6697,7 +6702,7 @@
         <v>180</v>
       </c>
       <c r="AJ42" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK42" s="69" t="s">
         <v>153</v>
@@ -6706,7 +6711,7 @@
         <v>197</v>
       </c>
       <c r="AM42" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN42" s="48">
         <v>2.5925256698099051E-3</v>
@@ -6715,7 +6720,7 @@
         <v>180</v>
       </c>
       <c r="AQ42" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR42" s="69" t="s">
         <v>153</v>
@@ -6724,18 +6729,18 @@
         <v>197</v>
       </c>
       <c r="AT42" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU42" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI43" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ43" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK43" s="48" t="s">
         <v>154</v>
@@ -6744,7 +6749,7 @@
         <v>197</v>
       </c>
       <c r="AM43" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN43" s="48">
         <v>2.9724559200622644E-3</v>
@@ -6753,7 +6758,7 @@
         <v>180</v>
       </c>
       <c r="AQ43" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR43" s="48" t="s">
         <v>154</v>
@@ -6762,13 +6767,13 @@
         <v>197</v>
       </c>
       <c r="AT43" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -6780,7 +6785,7 @@
         <v>180</v>
       </c>
       <c r="AJ44" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK44" s="69" t="s">
         <v>155</v>
@@ -6789,7 +6794,7 @@
         <v>197</v>
       </c>
       <c r="AM44" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN44" s="48">
         <v>3.3823091606694387E-3</v>
@@ -6798,7 +6803,7 @@
         <v>180</v>
       </c>
       <c r="AQ44" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR44" s="69" t="s">
         <v>155</v>
@@ -6807,19 +6812,19 @@
         <v>197</v>
       </c>
       <c r="AT44" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ45" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK45" s="38" t="s">
         <v>156</v>
@@ -6828,7 +6833,7 @@
         <v>197</v>
       </c>
       <c r="AM45" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN45" s="48">
         <v>3.3051976250754521E-3</v>
@@ -6837,7 +6842,7 @@
         <v>180</v>
       </c>
       <c r="AQ45" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR45" s="38" t="s">
         <v>156</v>
@@ -6846,18 +6851,18 @@
         <v>197</v>
       </c>
       <c r="AT45" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU45" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI46" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ46" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK46" s="38" t="s">
         <v>157</v>
@@ -6866,7 +6871,7 @@
         <v>197</v>
       </c>
       <c r="AM46" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN46" s="48">
         <v>3.1618331753269246E-3</v>
@@ -6875,7 +6880,7 @@
         <v>180</v>
       </c>
       <c r="AQ46" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR46" s="38" t="s">
         <v>157</v>
@@ -6884,18 +6889,18 @@
         <v>197</v>
       </c>
       <c r="AT46" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU46" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI47" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ47" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK47" s="38" t="s">
         <v>158</v>
@@ -6904,7 +6909,7 @@
         <v>197</v>
       </c>
       <c r="AM47" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN47" s="48">
         <v>2.8979409360310663E-3</v>
@@ -6913,7 +6918,7 @@
         <v>180</v>
       </c>
       <c r="AQ47" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR47" s="38" t="s">
         <v>158</v>
@@ -6922,18 +6927,18 @@
         <v>197</v>
       </c>
       <c r="AT47" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU47" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI48" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ48" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK48" s="38" t="s">
         <v>159</v>
@@ -6942,7 +6947,7 @@
         <v>197</v>
       </c>
       <c r="AM48" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN48" s="48">
         <v>2.7156926103261707E-3</v>
@@ -6951,7 +6956,7 @@
         <v>180</v>
       </c>
       <c r="AQ48" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR48" s="38" t="s">
         <v>159</v>
@@ -6960,18 +6965,18 @@
         <v>197</v>
       </c>
       <c r="AT48" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI49" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ49" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK49" s="38" t="s">
         <v>160</v>
@@ -6980,7 +6985,7 @@
         <v>197</v>
       </c>
       <c r="AM49" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN49" s="48">
         <v>2.5452192095824343E-3</v>
@@ -6989,7 +6994,7 @@
         <v>180</v>
       </c>
       <c r="AQ49" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR49" s="38" t="s">
         <v>160</v>
@@ -6998,18 +7003,18 @@
         <v>197</v>
       </c>
       <c r="AT49" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU49" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI50" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ50" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK50" s="38" t="s">
         <v>161</v>
@@ -7018,7 +7023,7 @@
         <v>197</v>
       </c>
       <c r="AM50" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN50" s="48">
         <v>2.5834450529081338E-3</v>
@@ -7027,7 +7032,7 @@
         <v>180</v>
       </c>
       <c r="AQ50" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR50" s="38" t="s">
         <v>161</v>
@@ -7036,18 +7041,18 @@
         <v>197</v>
       </c>
       <c r="AT50" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU50" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI51" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ51" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK51" s="38" t="s">
         <v>162</v>
@@ -7056,7 +7061,7 @@
         <v>197</v>
       </c>
       <c r="AM51" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN51" s="48">
         <v>2.7432881310744317E-3</v>
@@ -7065,7 +7070,7 @@
         <v>180</v>
       </c>
       <c r="AQ51" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR51" s="38" t="s">
         <v>162</v>
@@ -7074,13 +7079,13 @@
         <v>197</v>
       </c>
       <c r="AT51" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="79" t="s">
         <v>185</v>
       </c>
@@ -7098,7 +7103,7 @@
         <v>180</v>
       </c>
       <c r="AJ52" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK52" s="38" t="s">
         <v>163</v>
@@ -7107,7 +7112,7 @@
         <v>197</v>
       </c>
       <c r="AM52" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN52" s="48">
         <v>2.8314721319216154E-3</v>
@@ -7116,7 +7121,7 @@
         <v>180</v>
       </c>
       <c r="AQ52" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR52" s="38" t="s">
         <v>163</v>
@@ -7125,13 +7130,13 @@
         <v>197</v>
       </c>
       <c r="AT52" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
       <c r="D53"/>
@@ -7147,7 +7152,7 @@
         <v>180</v>
       </c>
       <c r="AJ53" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK53" s="38" t="s">
         <v>164</v>
@@ -7156,7 +7161,7 @@
         <v>197</v>
       </c>
       <c r="AM53" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN53" s="48">
         <v>2.8141143326017269E-3</v>
@@ -7165,7 +7170,7 @@
         <v>180</v>
       </c>
       <c r="AQ53" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR53" s="38" t="s">
         <v>164</v>
@@ -7174,13 +7179,13 @@
         <v>197</v>
       </c>
       <c r="AT53" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:47" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="80" t="s">
         <v>186</v>
       </c>
@@ -7218,7 +7223,7 @@
         <v>180</v>
       </c>
       <c r="AJ54" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK54" s="38" t="s">
         <v>165</v>
@@ -7227,7 +7232,7 @@
         <v>197</v>
       </c>
       <c r="AM54" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN54" s="48">
         <v>2.6656478128544076E-3</v>
@@ -7236,7 +7241,7 @@
         <v>180</v>
       </c>
       <c r="AQ54" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR54" s="38" t="s">
         <v>165</v>
@@ -7245,13 +7250,13 @@
         <v>197</v>
       </c>
       <c r="AT54" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -7279,7 +7284,7 @@
         <v>180</v>
       </c>
       <c r="AJ55" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK55" s="38" t="s">
         <v>166</v>
@@ -7288,7 +7293,7 @@
         <v>197</v>
       </c>
       <c r="AM55" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN55" s="48">
         <v>2.4530677112863486E-3</v>
@@ -7297,7 +7302,7 @@
         <v>180</v>
       </c>
       <c r="AQ55" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR55" s="38" t="s">
         <v>166</v>
@@ -7306,13 +7311,13 @@
         <v>197</v>
       </c>
       <c r="AT55" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -7340,7 +7345,7 @@
         <v>180</v>
       </c>
       <c r="AJ56" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK56" s="38" t="s">
         <v>167</v>
@@ -7349,7 +7354,7 @@
         <v>197</v>
       </c>
       <c r="AM56" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN56" s="48">
         <v>2.1363241345921055E-3</v>
@@ -7358,7 +7363,7 @@
         <v>180</v>
       </c>
       <c r="AQ56" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR56" s="38" t="s">
         <v>167</v>
@@ -7367,13 +7372,13 @@
         <v>197</v>
       </c>
       <c r="AT56" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -7401,7 +7406,7 @@
         <v>180</v>
       </c>
       <c r="AJ57" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK57" s="38" t="s">
         <v>168</v>
@@ -7410,7 +7415,7 @@
         <v>197</v>
       </c>
       <c r="AM57" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN57" s="48">
         <v>1.8660639529435976E-3</v>
@@ -7419,7 +7424,7 @@
         <v>180</v>
       </c>
       <c r="AQ57" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR57" s="38" t="s">
         <v>168</v>
@@ -7428,13 +7433,13 @@
         <v>197</v>
       </c>
       <c r="AT57" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -7462,7 +7467,7 @@
         <v>180</v>
       </c>
       <c r="AJ58" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK58" s="38" t="s">
         <v>169</v>
@@ -7471,7 +7476,7 @@
         <v>197</v>
       </c>
       <c r="AM58" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN58" s="48">
         <v>1.7487528282965712E-3</v>
@@ -7480,7 +7485,7 @@
         <v>180</v>
       </c>
       <c r="AQ58" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR58" s="38" t="s">
         <v>169</v>
@@ -7489,13 +7494,13 @@
         <v>197</v>
       </c>
       <c r="AT58" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -7523,7 +7528,7 @@
         <v>180</v>
       </c>
       <c r="AJ59" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK59" s="38" t="s">
         <v>170</v>
@@ -7532,7 +7537,7 @@
         <v>197</v>
       </c>
       <c r="AM59" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN59" s="48">
         <v>1.6637860863902745E-3</v>
@@ -7541,7 +7546,7 @@
         <v>180</v>
       </c>
       <c r="AQ59" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR59" s="38" t="s">
         <v>170</v>
@@ -7550,13 +7555,13 @@
         <v>197</v>
       </c>
       <c r="AT59" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -7584,7 +7589,7 @@
         <v>180</v>
       </c>
       <c r="AJ60" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK60" s="38" t="s">
         <v>171</v>
@@ -7593,7 +7598,7 @@
         <v>197</v>
       </c>
       <c r="AM60" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN60" s="48">
         <v>1.8211742012316831E-3</v>
@@ -7602,7 +7607,7 @@
         <v>180</v>
       </c>
       <c r="AQ60" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR60" s="38" t="s">
         <v>171</v>
@@ -7611,13 +7616,13 @@
         <v>197</v>
       </c>
       <c r="AT60" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -7645,7 +7650,7 @@
         <v>180</v>
       </c>
       <c r="AJ61" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK61" s="38" t="s">
         <v>172</v>
@@ -7654,7 +7659,7 @@
         <v>197</v>
       </c>
       <c r="AM61" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN61" s="48">
         <v>1.9153018835258307E-3</v>
@@ -7663,7 +7668,7 @@
         <v>180</v>
       </c>
       <c r="AQ61" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR61" s="38" t="s">
         <v>172</v>
@@ -7672,13 +7677,13 @@
         <v>197</v>
       </c>
       <c r="AT61" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU61" s="48">
         <v>0.13618056033452808</v>
       </c>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>121</v>
       </c>
@@ -7706,7 +7711,7 @@
         <v>180</v>
       </c>
       <c r="AJ62" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK62" s="38" t="s">
         <v>173</v>
@@ -7715,7 +7720,7 @@
         <v>197</v>
       </c>
       <c r="AM62" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN62" s="48">
         <v>1.9744590518638132E-3</v>
@@ -7724,7 +7729,7 @@
         <v>180</v>
       </c>
       <c r="AQ62" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR62" s="38" t="s">
         <v>173</v>
@@ -7733,18 +7738,18 @@
         <v>197</v>
       </c>
       <c r="AT62" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU62" s="48">
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI63" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ63" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK63" s="38" t="s">
         <v>174</v>
@@ -7753,7 +7758,7 @@
         <v>197</v>
       </c>
       <c r="AM63" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN63" s="48">
         <v>2.1878436160058393E-3</v>
@@ -7762,7 +7767,7 @@
         <v>180</v>
       </c>
       <c r="AQ63" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR63" s="38" t="s">
         <v>174</v>
@@ -7771,18 +7776,18 @@
         <v>197</v>
       </c>
       <c r="AT63" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU63" s="48">
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:47" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI64" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ64" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK64" s="38" t="s">
         <v>175</v>
@@ -7791,7 +7796,7 @@
         <v>197</v>
       </c>
       <c r="AM64" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN64" s="48">
         <v>2.3889741533883327E-3</v>
@@ -7800,7 +7805,7 @@
         <v>180</v>
       </c>
       <c r="AQ64" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR64" s="38" t="s">
         <v>175</v>
@@ -7809,18 +7814,18 @@
         <v>197</v>
       </c>
       <c r="AT64" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU64" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="65" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI65" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ65" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK65" s="38" t="s">
         <v>176</v>
@@ -7829,7 +7834,7 @@
         <v>197</v>
       </c>
       <c r="AM65" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN65" s="48">
         <v>2.4063426997311056E-3</v>
@@ -7838,7 +7843,7 @@
         <v>180</v>
       </c>
       <c r="AQ65" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR65" s="38" t="s">
         <v>176</v>
@@ -7847,18 +7852,18 @@
         <v>197</v>
       </c>
       <c r="AT65" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU65" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="66" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI66" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ66" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK66" s="38" t="s">
         <v>177</v>
@@ -7867,7 +7872,7 @@
         <v>197</v>
       </c>
       <c r="AM66" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN66" s="48">
         <v>2.5925256698099051E-3</v>
@@ -7876,7 +7881,7 @@
         <v>180</v>
       </c>
       <c r="AQ66" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR66" s="38" t="s">
         <v>177</v>
@@ -7885,18 +7890,18 @@
         <v>197</v>
       </c>
       <c r="AT66" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU66" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="67" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI67" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ67" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK67" s="38" t="s">
         <v>178</v>
@@ -7905,7 +7910,7 @@
         <v>197</v>
       </c>
       <c r="AM67" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN67" s="48">
         <v>2.9724559200622644E-3</v>
@@ -7914,7 +7919,7 @@
         <v>180</v>
       </c>
       <c r="AQ67" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR67" s="38" t="s">
         <v>178</v>
@@ -7923,18 +7928,18 @@
         <v>197</v>
       </c>
       <c r="AT67" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU67" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="68" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI68" s="38" t="s">
         <v>180</v>
       </c>
       <c r="AJ68" s="39" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="AK68" s="38" t="s">
         <v>179</v>
@@ -7943,7 +7948,7 @@
         <v>197</v>
       </c>
       <c r="AM68" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AN68" s="48">
         <v>3.3823091606694387E-3</v>
@@ -7952,7 +7957,7 @@
         <v>180</v>
       </c>
       <c r="AQ68" s="39" t="s">
-        <v>211</v>
+        <v>94</v>
       </c>
       <c r="AR68" s="38" t="s">
         <v>179</v>
@@ -7961,313 +7966,313 @@
         <v>197</v>
       </c>
       <c r="AT68" s="48" t="s">
-        <v>209</v>
+        <v>69</v>
       </c>
       <c r="AU68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="69" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI69" s="38"/>
       <c r="AJ69" s="53"/>
     </row>
-    <row r="70" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="70" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI70" s="38"/>
       <c r="AJ70" s="53"/>
     </row>
-    <row r="71" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="71" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI71" s="38"/>
       <c r="AJ71" s="53"/>
     </row>
-    <row r="72" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="72" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI72" s="38"/>
       <c r="AJ72" s="53"/>
     </row>
-    <row r="73" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="73" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI73" s="38"/>
       <c r="AJ73" s="53"/>
     </row>
-    <row r="74" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="74" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI74" s="38"/>
       <c r="AJ74" s="53"/>
     </row>
-    <row r="75" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="75" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI75" s="38"/>
       <c r="AJ75" s="53"/>
     </row>
-    <row r="76" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="76" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI76" s="38"/>
       <c r="AJ76" s="53"/>
     </row>
-    <row r="77" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="77" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI77" s="38"/>
       <c r="AJ77" s="53"/>
     </row>
-    <row r="78" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="78" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI78" s="38"/>
       <c r="AJ78" s="53"/>
     </row>
-    <row r="79" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="79" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI79" s="38"/>
       <c r="AJ79" s="53"/>
     </row>
-    <row r="80" spans="35:47" x14ac:dyDescent="0.2">
+    <row r="80" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI80" s="38"/>
       <c r="AJ80" s="53"/>
     </row>
-    <row r="81" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="81" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI81" s="38"/>
       <c r="AJ81" s="53"/>
     </row>
-    <row r="82" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="82" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI82" s="38"/>
       <c r="AJ82" s="53"/>
     </row>
-    <row r="83" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="83" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI83" s="38"/>
       <c r="AJ83" s="53"/>
     </row>
-    <row r="84" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="84" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI84" s="38"/>
       <c r="AJ84" s="53"/>
     </row>
-    <row r="85" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="85" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI85" s="38"/>
       <c r="AJ85" s="53"/>
     </row>
-    <row r="86" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="86" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI86" s="38"/>
       <c r="AJ86" s="53"/>
     </row>
-    <row r="87" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="87" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI87" s="38"/>
       <c r="AJ87" s="53"/>
     </row>
-    <row r="88" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="88" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI88" s="38"/>
       <c r="AJ88" s="53"/>
     </row>
-    <row r="89" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="89" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI89" s="38"/>
       <c r="AJ89" s="53"/>
     </row>
-    <row r="90" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="90" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI90" s="38"/>
       <c r="AJ90" s="53"/>
     </row>
-    <row r="91" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="91" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI91" s="38"/>
       <c r="AJ91" s="53"/>
     </row>
-    <row r="92" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="92" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI92" s="38"/>
       <c r="AJ92" s="53"/>
     </row>
-    <row r="93" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="93" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI93" s="38"/>
       <c r="AJ93" s="53"/>
     </row>
-    <row r="94" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="94" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI94" s="38"/>
       <c r="AJ94" s="53"/>
     </row>
-    <row r="95" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="95" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI95" s="38"/>
       <c r="AJ95" s="53"/>
     </row>
-    <row r="96" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="96" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI96" s="38"/>
       <c r="AJ96" s="53"/>
     </row>
-    <row r="97" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="97" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI97" s="38"/>
       <c r="AJ97" s="53"/>
     </row>
-    <row r="98" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="98" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI98" s="38"/>
       <c r="AJ98" s="53"/>
     </row>
-    <row r="99" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="99" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI99" s="38"/>
       <c r="AJ99" s="53"/>
     </row>
-    <row r="100" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="100" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI100" s="38"/>
       <c r="AJ100" s="53"/>
     </row>
-    <row r="101" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="101" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI101" s="38"/>
       <c r="AJ101" s="53"/>
     </row>
-    <row r="102" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="102" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI102" s="38"/>
       <c r="AJ102" s="53"/>
     </row>
-    <row r="103" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="103" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI103" s="38"/>
       <c r="AJ103" s="53"/>
     </row>
-    <row r="104" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="104" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI104" s="38"/>
       <c r="AJ104" s="53"/>
     </row>
-    <row r="105" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="105" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI105" s="38"/>
       <c r="AJ105" s="53"/>
     </row>
-    <row r="106" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="106" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI106" s="38"/>
       <c r="AJ106" s="53"/>
     </row>
-    <row r="107" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="107" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI107" s="38"/>
       <c r="AJ107" s="53"/>
     </row>
-    <row r="108" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="108" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI108" s="38"/>
       <c r="AJ108" s="53"/>
     </row>
-    <row r="109" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="109" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI109" s="38"/>
       <c r="AJ109" s="53"/>
     </row>
-    <row r="110" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="110" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI110" s="38"/>
       <c r="AJ110" s="53"/>
     </row>
-    <row r="111" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="111" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI111" s="38"/>
       <c r="AJ111" s="53"/>
     </row>
-    <row r="112" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="112" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI112" s="38"/>
       <c r="AJ112" s="53"/>
     </row>
-    <row r="113" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="113" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI113" s="38"/>
       <c r="AJ113" s="53"/>
     </row>
-    <row r="114" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="114" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI114" s="38"/>
       <c r="AJ114" s="53"/>
     </row>
-    <row r="115" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="115" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI115" s="38"/>
       <c r="AJ115" s="53"/>
     </row>
-    <row r="116" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="116" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI116" s="38"/>
       <c r="AJ116" s="53"/>
     </row>
-    <row r="117" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="117" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI117" s="38"/>
       <c r="AJ117" s="53"/>
     </row>
-    <row r="118" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="118" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI118" s="38"/>
       <c r="AJ118" s="53"/>
     </row>
-    <row r="119" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="119" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI119" s="38"/>
       <c r="AJ119" s="53"/>
     </row>
-    <row r="120" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="120" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI120" s="38"/>
       <c r="AJ120" s="53"/>
     </row>
-    <row r="121" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="121" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI121" s="38"/>
       <c r="AJ121" s="53"/>
     </row>
-    <row r="122" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="122" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI122" s="38"/>
       <c r="AJ122" s="53"/>
     </row>
-    <row r="123" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="123" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI123" s="38"/>
       <c r="AJ123" s="53"/>
     </row>
-    <row r="124" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="124" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI124" s="38"/>
       <c r="AJ124" s="53"/>
     </row>
-    <row r="125" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="125" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI125" s="38"/>
       <c r="AJ125" s="53"/>
     </row>
-    <row r="126" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="126" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI126" s="38"/>
       <c r="AJ126" s="53"/>
     </row>
-    <row r="127" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="127" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI127" s="38"/>
       <c r="AJ127" s="53"/>
     </row>
-    <row r="128" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="128" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI128" s="38"/>
       <c r="AJ128" s="53"/>
     </row>
-    <row r="129" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="129" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI129" s="38"/>
       <c r="AJ129" s="53"/>
     </row>
-    <row r="130" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="130" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI130" s="38"/>
       <c r="AJ130" s="53"/>
     </row>
-    <row r="131" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="131" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI131" s="38"/>
       <c r="AJ131" s="53"/>
     </row>
-    <row r="132" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="132" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI132" s="38"/>
       <c r="AJ132" s="53"/>
     </row>
-    <row r="133" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="133" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI133" s="38"/>
       <c r="AJ133" s="53"/>
     </row>
-    <row r="134" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="134" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI134" s="38"/>
       <c r="AJ134" s="53"/>
     </row>
-    <row r="135" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="135" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI135" s="38"/>
       <c r="AJ135" s="53"/>
     </row>
-    <row r="136" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="136" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI136" s="38"/>
       <c r="AJ136" s="53"/>
     </row>
-    <row r="137" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="137" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI137" s="38"/>
       <c r="AJ137" s="53"/>
     </row>
-    <row r="138" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="138" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI138" s="38"/>
       <c r="AJ138" s="53"/>
     </row>
-    <row r="139" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="139" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI139" s="38"/>
       <c r="AJ139" s="53"/>
     </row>
-    <row r="140" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="140" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI140" s="38"/>
       <c r="AJ140" s="53"/>
     </row>
-    <row r="141" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="141" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI141" s="38"/>
       <c r="AJ141" s="53"/>
     </row>
-    <row r="142" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="142" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI142" s="38"/>
       <c r="AJ142" s="53"/>
     </row>
-    <row r="143" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="143" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI143" s="38"/>
       <c r="AJ143" s="53"/>
     </row>
-    <row r="144" spans="35:36" x14ac:dyDescent="0.2">
+    <row r="144" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI144" s="38"/>
       <c r="AJ144" s="53"/>
     </row>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{09C30E30-F94B-441F-9C9E-5FF239EF9DB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1972A3F0-7201-4D01-B590-C935F37EF6A4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAACE04-90E1-4098-BD94-6542DBC9A720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="839" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="211">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2186,7 +2186,7 @@
     <t>Timeslices</t>
   </si>
   <si>
-    <t>All</t>
+    <t>AllRegions</t>
   </si>
 </sst>
 </file>
@@ -3003,10 +3003,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -4446,10 +4442,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AU144"/>
+  <dimension ref="B1:AW144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF17" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AU20" sqref="AU20"/>
+    <sheetView tabSelected="1" topLeftCell="AH54" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AR21" sqref="AR21:AR68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4477,11 +4473,11 @@
     <col min="28" max="28" width="13.453125" style="48" customWidth="1"/>
     <col min="29" max="29" width="13.81640625" style="48" customWidth="1"/>
     <col min="30" max="30" width="8.453125" style="48" customWidth="1"/>
-    <col min="31" max="35" width="8.81640625" style="48"/>
-    <col min="36" max="36" width="12.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="8.81640625" style="48"/>
-    <col min="40" max="40" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.81640625" style="48"/>
+    <col min="31" max="36" width="8.81640625" style="48"/>
+    <col min="37" max="37" width="12.453125" style="48" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="8.81640625" style="48"/>
+    <col min="41" max="41" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.81640625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="14.5" x14ac:dyDescent="0.35">
@@ -4757,7 +4753,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:49" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4840,20 +4836,22 @@
       <c r="AI17" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="38"/>
       <c r="AL17" s="63"/>
       <c r="AM17" s="63"/>
-      <c r="AN17" s="38"/>
-      <c r="AP17" s="63" t="s">
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="38"/>
+      <c r="AQ17" s="63" t="s">
         <v>206</v>
       </c>
-      <c r="AQ17" s="38"/>
       <c r="AR17" s="63"/>
-      <c r="AS17" s="63"/>
+      <c r="AS17" s="38"/>
       <c r="AT17" s="63"/>
-    </row>
-    <row r="18" spans="2:47" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+    </row>
+    <row r="18" spans="2:49" ht="31" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4937,40 +4935,46 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK18" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="AK18" s="64" t="s">
+      <c r="AL18" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="AL18" s="64" t="s">
+      <c r="AM18" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AM18" s="64" t="s">
+      <c r="AN18" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="AN18" s="64" t="s">
+      <c r="AO18" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="AP18" s="64" t="s">
+      <c r="AQ18" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="AQ18" s="64" t="s">
+      <c r="AR18" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS18" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="AR18" s="64" t="s">
+      <c r="AT18" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="AS18" s="64" t="s">
+      <c r="AU18" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AT18" s="64" t="s">
+      <c r="AV18" s="64" t="s">
         <v>208</v>
       </c>
-      <c r="AU18" s="64" t="s">
+      <c r="AW18" s="64" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:49" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -5013,25 +5017,27 @@
       <c r="AI19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AJ19" s="44" t="s">
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="AK19" s="44"/>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
-      <c r="AP19" s="44" t="s">
+      <c r="AO19" s="44"/>
+      <c r="AQ19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AQ19" s="44" t="s">
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
       <c r="AT19" s="44"/>
       <c r="AU19" s="44"/>
-    </row>
-    <row r="20" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+    </row>
+    <row r="20" spans="2:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="str">
         <f>X20</f>
         <v>Furnace</v>
@@ -5099,24 +5105,26 @@
         <v>53</v>
       </c>
       <c r="AJ20" s="45"/>
-      <c r="AK20" s="45" t="s">
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="AL20" s="45"/>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45"/>
-      <c r="AP20" s="45" t="s">
+      <c r="AO20" s="45"/>
+      <c r="AQ20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45" t="s">
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45" t="s">
         <v>209</v>
       </c>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="44"/>
-    </row>
-    <row r="21" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="44"/>
+    </row>
+    <row r="21" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="str">
         <f>X$21</f>
         <v>BIOBoiler</v>
@@ -5184,41 +5192,47 @@
       <c r="AI21" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ21" s="39" t="s">
+      <c r="AJ21" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK21" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK21" s="48" t="s">
+      <c r="AL21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AL21" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM21" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN21" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN21" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO21" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AP21" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ21" s="39" t="s">
+      <c r="AQ21" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR21" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS21" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR21" s="48" t="s">
+      <c r="AT21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AS21" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT21" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU21" s="48">
+      <c r="AU21" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV21" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="str">
         <f>X24</f>
         <v>ELCBoiler</v>
@@ -5285,41 +5299,47 @@
       <c r="AI22" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ22" s="39" t="s">
+      <c r="AJ22" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK22" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK22" s="69" t="s">
+      <c r="AL22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AL22" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM22" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN22" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN22" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO22" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AP22" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ22" s="39" t="s">
+      <c r="AQ22" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR22" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS22" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR22" s="69" t="s">
+      <c r="AT22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AS22" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT22" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU22" s="48">
+      <c r="AU22" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV22" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="48" t="str">
         <f>X22</f>
         <v>BIOKiln</v>
@@ -5384,41 +5404,47 @@
       <c r="AI23" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ23" s="39" t="s">
+      <c r="AJ23" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK23" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK23" s="48" t="s">
+      <c r="AL23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AL23" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM23" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN23" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN23" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO23" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AP23" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ23" s="39" t="s">
+      <c r="AQ23" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR23" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS23" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR23" s="48" t="s">
+      <c r="AT23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AS23" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT23" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU23" s="49">
+      <c r="AU23" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV23" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5483,41 +5509,47 @@
       <c r="AI24" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ24" s="39" t="s">
+      <c r="AJ24" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK24" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK24" s="69" t="s">
+      <c r="AL24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AL24" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM24" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN24" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN24" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO24" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AP24" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ24" s="39" t="s">
+      <c r="AQ24" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR24" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS24" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR24" s="69" t="s">
+      <c r="AT24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AS24" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT24" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU24" s="49">
+      <c r="AU24" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV24" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="str">
         <f>X26</f>
         <v>WNDTRBN</v>
@@ -5588,41 +5620,47 @@
       <c r="AI25" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ25" s="39" t="s">
+      <c r="AJ25" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK25" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK25" s="48" t="s">
+      <c r="AL25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AL25" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM25" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN25" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN25" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO25" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AP25" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ25" s="39" t="s">
+      <c r="AQ25" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR25" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS25" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR25" s="48" t="s">
+      <c r="AT25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AS25" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT25" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU25" s="49">
+      <c r="AU25" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV25" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="str">
         <f>X27</f>
         <v>SOLPV</v>
@@ -5693,41 +5731,47 @@
       <c r="AI26" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ26" s="39" t="s">
+      <c r="AJ26" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK26" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK26" s="69" t="s">
+      <c r="AL26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AL26" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM26" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN26" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN26" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO26" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AP26" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ26" s="39" t="s">
+      <c r="AQ26" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR26" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS26" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR26" s="69" t="s">
+      <c r="AT26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AS26" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT26" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU26" s="49">
+      <c r="AU26" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV26" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="str">
         <f>X25</f>
         <v>CSP</v>
@@ -5799,41 +5843,47 @@
       <c r="AI27" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ27" s="39" t="s">
+      <c r="AJ27" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK27" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK27" s="48" t="s">
+      <c r="AL27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AL27" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM27" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN27" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN27" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO27" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AP27" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ27" s="39" t="s">
+      <c r="AQ27" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR27" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS27" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR27" s="48" t="s">
+      <c r="AT27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AS27" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT27" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU27" s="49">
+      <c r="AU27" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV27" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5904,41 +5954,47 @@
       <c r="AI28" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ28" s="39" t="s">
+      <c r="AJ28" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK28" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK28" s="69" t="s">
+      <c r="AL28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AL28" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM28" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN28" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN28" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO28" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AP28" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ28" s="39" t="s">
+      <c r="AQ28" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR28" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS28" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR28" s="69" t="s">
+      <c r="AT28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AS28" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT28" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU28" s="49">
+      <c r="AU28" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV28" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5988,41 +6044,47 @@
       <c r="AI29" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ29" s="39" t="s">
+      <c r="AJ29" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK29" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK29" s="48" t="s">
+      <c r="AL29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AL29" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM29" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN29" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN29" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO29" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AP29" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ29" s="39" t="s">
+      <c r="AQ29" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR29" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR29" s="48" t="s">
+      <c r="AT29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AS29" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT29" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU29" s="49">
+      <c r="AU29" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV29" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6081,41 +6143,47 @@
       <c r="AI30" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ30" s="39" t="s">
+      <c r="AJ30" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK30" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK30" s="69" t="s">
+      <c r="AL30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AL30" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM30" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN30" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN30" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO30" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AP30" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ30" s="39" t="s">
+      <c r="AQ30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR30" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS30" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR30" s="69" t="s">
+      <c r="AT30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AS30" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT30" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU30" s="49">
+      <c r="AU30" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV30" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -6159,41 +6227,47 @@
       <c r="AI31" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ31" s="39" t="s">
+      <c r="AJ31" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK31" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK31" s="48" t="s">
+      <c r="AL31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AL31" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM31" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN31" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN31" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO31" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AP31" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ31" s="39" t="s">
+      <c r="AQ31" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR31" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS31" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR31" s="48" t="s">
+      <c r="AT31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AS31" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT31" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU31" s="49">
+      <c r="AU31" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV31" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW31" s="49">
         <v>0.27468446594982077</v>
       </c>
     </row>
-    <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53"/>
       <c r="C32" s="53"/>
       <c r="D32" s="53"/>
@@ -6212,41 +6286,47 @@
       <c r="AI32" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ32" s="39" t="s">
+      <c r="AJ32" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK32" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK32" s="69" t="s">
+      <c r="AL32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AL32" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM32" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN32" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN32" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO32" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AP32" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ32" s="39" t="s">
+      <c r="AQ32" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR32" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS32" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR32" s="69" t="s">
+      <c r="AT32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AS32" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT32" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU32" s="49">
+      <c r="AU32" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV32" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW32" s="49">
         <v>0.32637437275985665</v>
       </c>
     </row>
-    <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53"/>
       <c r="C33" s="53"/>
       <c r="D33" s="53"/>
@@ -6265,41 +6345,47 @@
       <c r="AI33" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ33" s="39" t="s">
+      <c r="AJ33" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK33" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK33" s="48" t="s">
+      <c r="AL33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AL33" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM33" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN33" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN33" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO33" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AP33" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ33" s="39" t="s">
+      <c r="AQ33" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR33" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS33" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR33" s="48" t="s">
+      <c r="AT33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AS33" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT33" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU33" s="49">
+      <c r="AU33" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV33" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -6318,41 +6404,47 @@
       <c r="AI34" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ34" s="39" t="s">
+      <c r="AJ34" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK34" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK34" s="69" t="s">
+      <c r="AL34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AL34" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM34" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN34" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN34" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO34" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AP34" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ34" s="39" t="s">
+      <c r="AQ34" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR34" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS34" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR34" s="69" t="s">
+      <c r="AT34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AS34" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT34" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU34" s="49">
+      <c r="AU34" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV34" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -6372,41 +6464,47 @@
       <c r="AI35" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ35" s="39" t="s">
+      <c r="AJ35" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK35" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK35" s="48" t="s">
+      <c r="AL35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AL35" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM35" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN35" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN35" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO35" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AP35" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ35" s="39" t="s">
+      <c r="AQ35" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR35" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS35" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR35" s="48" t="s">
+      <c r="AT35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AS35" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT35" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU35" s="49">
+      <c r="AU35" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV35" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -6429,41 +6527,47 @@
       <c r="AI36" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ36" s="39" t="s">
+      <c r="AJ36" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK36" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK36" s="69" t="s">
+      <c r="AL36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AL36" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM36" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN36" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN36" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO36" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AP36" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ36" s="39" t="s">
+      <c r="AQ36" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR36" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS36" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR36" s="69" t="s">
+      <c r="AT36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AS36" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT36" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU36" s="49">
+      <c r="AU36" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV36" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -6486,41 +6590,47 @@
       <c r="AI37" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ37" s="39" t="s">
+      <c r="AJ37" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK37" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK37" s="48" t="s">
+      <c r="AL37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AL37" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM37" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN37" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN37" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO37" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AP37" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ37" s="39" t="s">
+      <c r="AQ37" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR37" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS37" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR37" s="48" t="s">
+      <c r="AT37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AS37" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT37" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU37" s="49">
+      <c r="AU37" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV37" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:49" x14ac:dyDescent="0.25">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
@@ -6531,80 +6641,92 @@
       <c r="AI38" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ38" s="39" t="s">
+      <c r="AJ38" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK38" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK38" s="69" t="s">
+      <c r="AL38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AL38" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM38" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN38" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN38" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO38" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AP38" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ38" s="39" t="s">
+      <c r="AQ38" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR38" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS38" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR38" s="69" t="s">
+      <c r="AT38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AS38" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT38" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU38" s="48">
+      <c r="AU38" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV38" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:49" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ39" s="39" t="s">
+      <c r="AJ39" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK39" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK39" s="48" t="s">
+      <c r="AL39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AL39" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM39" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN39" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN39" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO39" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AP39" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ39" s="39" t="s">
+      <c r="AQ39" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR39" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS39" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR39" s="48" t="s">
+      <c r="AT39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AS39" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT39" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU39" s="48">
+      <c r="AU39" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV39" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
@@ -6613,41 +6735,47 @@
       <c r="AI40" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ40" s="39" t="s">
+      <c r="AJ40" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK40" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK40" s="69" t="s">
+      <c r="AL40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AL40" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM40" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN40" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN40" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO40" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AP40" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ40" s="39" t="s">
+      <c r="AQ40" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR40" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS40" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR40" s="69" t="s">
+      <c r="AT40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AS40" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT40" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU40" s="48">
+      <c r="AU40" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV40" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
@@ -6656,41 +6784,47 @@
       <c r="AI41" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ41" s="39" t="s">
+      <c r="AJ41" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK41" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK41" s="48" t="s">
+      <c r="AL41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AL41" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM41" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN41" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN41" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO41" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AP41" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ41" s="39" t="s">
+      <c r="AQ41" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR41" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS41" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR41" s="48" t="s">
+      <c r="AT41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AS41" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT41" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU41" s="48">
+      <c r="AU41" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV41" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -6701,79 +6835,91 @@
       <c r="AI42" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ42" s="39" t="s">
+      <c r="AJ42" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK42" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK42" s="69" t="s">
+      <c r="AL42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AL42" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM42" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN42" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN42" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO42" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AP42" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ42" s="39" t="s">
+      <c r="AQ42" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR42" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS42" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR42" s="69" t="s">
+      <c r="AT42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AS42" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT42" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU42" s="48">
+      <c r="AU42" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV42" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW42" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI43" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ43" s="39" t="s">
+      <c r="AJ43" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK43" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK43" s="48" t="s">
+      <c r="AL43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AL43" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM43" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN43" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN43" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO43" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AP43" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ43" s="39" t="s">
+      <c r="AQ43" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR43" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS43" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR43" s="48" t="s">
+      <c r="AT43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AS43" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT43" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU43" s="48">
+      <c r="AU43" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV43" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -6784,308 +6930,356 @@
       <c r="AI44" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ44" s="39" t="s">
+      <c r="AJ44" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK44" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK44" s="69" t="s">
+      <c r="AL44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AL44" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM44" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN44" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN44" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO44" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AP44" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ44" s="39" t="s">
+      <c r="AQ44" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR44" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS44" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR44" s="69" t="s">
+      <c r="AT44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AS44" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT44" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU44" s="48">
+      <c r="AU44" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV44" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ45" s="39" t="s">
+      <c r="AJ45" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK45" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK45" s="38" t="s">
+      <c r="AL45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AL45" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM45" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN45" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN45" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO45" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AP45" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ45" s="39" t="s">
+      <c r="AQ45" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR45" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS45" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR45" s="38" t="s">
+      <c r="AT45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AS45" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT45" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU45" s="48">
+      <c r="AU45" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV45" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW45" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI46" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ46" s="39" t="s">
+      <c r="AJ46" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK46" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK46" s="38" t="s">
+      <c r="AL46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AL46" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM46" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN46" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN46" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO46" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AP46" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ46" s="39" t="s">
+      <c r="AQ46" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR46" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS46" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR46" s="38" t="s">
+      <c r="AT46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AS46" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT46" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU46" s="48">
+      <c r="AU46" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV46" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW46" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI47" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ47" s="39" t="s">
+      <c r="AJ47" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK47" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK47" s="38" t="s">
+      <c r="AL47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AL47" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM47" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN47" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN47" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO47" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AP47" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ47" s="39" t="s">
+      <c r="AQ47" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR47" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS47" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR47" s="38" t="s">
+      <c r="AT47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AS47" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT47" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU47" s="48">
+      <c r="AU47" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV47" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW47" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI48" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ48" s="39" t="s">
+      <c r="AJ48" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK48" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK48" s="38" t="s">
+      <c r="AL48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AL48" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM48" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN48" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN48" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO48" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AP48" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ48" s="39" t="s">
+      <c r="AQ48" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR48" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS48" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR48" s="38" t="s">
+      <c r="AT48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AS48" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT48" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU48" s="48">
+      <c r="AU48" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV48" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI49" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ49" s="39" t="s">
+      <c r="AJ49" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK49" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK49" s="38" t="s">
+      <c r="AL49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AL49" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM49" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN49" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN49" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO49" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AP49" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ49" s="39" t="s">
+      <c r="AQ49" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR49" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS49" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR49" s="38" t="s">
+      <c r="AT49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AS49" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT49" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU49" s="48">
+      <c r="AU49" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV49" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW49" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI50" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ50" s="39" t="s">
+      <c r="AJ50" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK50" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK50" s="38" t="s">
+      <c r="AL50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AL50" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM50" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN50" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN50" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO50" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AP50" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ50" s="39" t="s">
+      <c r="AQ50" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR50" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS50" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR50" s="38" t="s">
+      <c r="AT50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AS50" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT50" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU50" s="48">
+      <c r="AU50" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV50" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW50" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI51" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ51" s="39" t="s">
+      <c r="AJ51" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK51" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK51" s="38" t="s">
+      <c r="AL51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AL51" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM51" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN51" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN51" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO51" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AP51" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ51" s="39" t="s">
+      <c r="AQ51" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR51" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS51" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR51" s="38" t="s">
+      <c r="AT51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AS51" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT51" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU51" s="48">
+      <c r="AU51" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV51" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="79" t="s">
         <v>185</v>
       </c>
@@ -7102,41 +7296,47 @@
       <c r="AI52" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ52" s="39" t="s">
+      <c r="AJ52" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK52" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK52" s="38" t="s">
+      <c r="AL52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AL52" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM52" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN52" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN52" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO52" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AP52" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ52" s="39" t="s">
+      <c r="AQ52" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR52" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS52" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR52" s="38" t="s">
+      <c r="AT52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AS52" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT52" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU52" s="48">
+      <c r="AU52" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV52" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
       <c r="D53"/>
@@ -7151,41 +7351,47 @@
       <c r="AI53" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ53" s="39" t="s">
+      <c r="AJ53" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK53" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK53" s="38" t="s">
+      <c r="AL53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AL53" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM53" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN53" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN53" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO53" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AP53" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ53" s="39" t="s">
+      <c r="AQ53" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR53" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS53" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR53" s="38" t="s">
+      <c r="AT53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AS53" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT53" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU53" s="48">
+      <c r="AU53" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV53" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:47" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:49" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="80" t="s">
         <v>186</v>
       </c>
@@ -7222,41 +7428,47 @@
       <c r="AI54" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ54" s="39" t="s">
+      <c r="AJ54" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK54" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK54" s="38" t="s">
+      <c r="AL54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AL54" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM54" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN54" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN54" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO54" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AP54" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ54" s="39" t="s">
+      <c r="AQ54" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR54" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS54" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR54" s="38" t="s">
+      <c r="AT54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AS54" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT54" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU54" s="48">
+      <c r="AU54" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV54" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -7283,41 +7495,47 @@
       <c r="AI55" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ55" s="39" t="s">
+      <c r="AJ55" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK55" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK55" s="38" t="s">
+      <c r="AL55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AL55" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM55" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN55" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN55" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO55" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AP55" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ55" s="39" t="s">
+      <c r="AQ55" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR55" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS55" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR55" s="38" t="s">
+      <c r="AT55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AS55" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT55" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU55" s="48">
+      <c r="AU55" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV55" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -7344,41 +7562,47 @@
       <c r="AI56" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ56" s="39" t="s">
+      <c r="AJ56" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK56" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK56" s="38" t="s">
+      <c r="AL56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AL56" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM56" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN56" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN56" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO56" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AP56" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ56" s="39" t="s">
+      <c r="AQ56" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR56" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS56" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR56" s="38" t="s">
+      <c r="AT56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AS56" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT56" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU56" s="48">
+      <c r="AU56" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV56" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -7405,41 +7629,47 @@
       <c r="AI57" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ57" s="39" t="s">
+      <c r="AJ57" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK57" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK57" s="38" t="s">
+      <c r="AL57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AL57" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM57" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN57" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN57" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO57" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AP57" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ57" s="39" t="s">
+      <c r="AQ57" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR57" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS57" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR57" s="38" t="s">
+      <c r="AT57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AS57" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT57" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU57" s="48">
+      <c r="AU57" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV57" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -7466,41 +7696,47 @@
       <c r="AI58" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ58" s="39" t="s">
+      <c r="AJ58" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK58" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK58" s="38" t="s">
+      <c r="AL58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AL58" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM58" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN58" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN58" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO58" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AP58" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ58" s="39" t="s">
+      <c r="AQ58" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR58" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS58" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR58" s="38" t="s">
+      <c r="AT58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AS58" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT58" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU58" s="48">
+      <c r="AU58" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV58" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -7527,41 +7763,47 @@
       <c r="AI59" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ59" s="39" t="s">
+      <c r="AJ59" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK59" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK59" s="38" t="s">
+      <c r="AL59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AL59" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM59" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN59" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN59" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO59" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AP59" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ59" s="39" t="s">
+      <c r="AQ59" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR59" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS59" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR59" s="38" t="s">
+      <c r="AT59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AS59" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT59" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU59" s="48">
+      <c r="AU59" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV59" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -7588,41 +7830,47 @@
       <c r="AI60" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ60" s="39" t="s">
+      <c r="AJ60" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK60" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK60" s="38" t="s">
+      <c r="AL60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AL60" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM60" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN60" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN60" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO60" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AP60" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ60" s="39" t="s">
+      <c r="AQ60" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR60" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS60" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR60" s="38" t="s">
+      <c r="AT60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AS60" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT60" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU60" s="48">
+      <c r="AU60" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV60" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -7649,41 +7897,47 @@
       <c r="AI61" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ61" s="39" t="s">
+      <c r="AJ61" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK61" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK61" s="38" t="s">
+      <c r="AL61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AL61" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM61" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN61" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN61" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO61" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AP61" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ61" s="39" t="s">
+      <c r="AQ61" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR61" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS61" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR61" s="38" t="s">
+      <c r="AT61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AS61" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT61" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU61" s="48">
+      <c r="AU61" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV61" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW61" s="48">
         <v>0.13618056033452808</v>
       </c>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>121</v>
       </c>
@@ -7710,571 +7964,689 @@
       <c r="AI62" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ62" s="39" t="s">
+      <c r="AJ62" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK62" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK62" s="38" t="s">
+      <c r="AL62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AL62" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM62" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN62" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN62" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO62" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AP62" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ62" s="39" t="s">
+      <c r="AQ62" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR62" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS62" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR62" s="38" t="s">
+      <c r="AT62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AS62" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT62" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU62" s="48">
+      <c r="AU62" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV62" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW62" s="48">
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI63" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ63" s="39" t="s">
+      <c r="AJ63" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK63" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK63" s="38" t="s">
+      <c r="AL63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AL63" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM63" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN63" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN63" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO63" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AP63" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ63" s="39" t="s">
+      <c r="AQ63" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR63" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS63" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR63" s="38" t="s">
+      <c r="AT63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AS63" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT63" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU63" s="48">
+      <c r="AU63" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV63" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW63" s="48">
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI64" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ64" s="39" t="s">
+      <c r="AJ64" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK64" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK64" s="38" t="s">
+      <c r="AL64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AL64" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM64" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN64" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN64" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO64" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AP64" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ64" s="39" t="s">
+      <c r="AQ64" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR64" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS64" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR64" s="38" t="s">
+      <c r="AT64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AS64" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT64" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU64" s="48">
+      <c r="AU64" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV64" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW64" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI65" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ65" s="39" t="s">
+      <c r="AJ65" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK65" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK65" s="38" t="s">
+      <c r="AL65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AL65" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM65" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN65" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN65" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO65" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AP65" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ65" s="39" t="s">
+      <c r="AQ65" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR65" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS65" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR65" s="38" t="s">
+      <c r="AT65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AS65" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT65" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU65" s="48">
+      <c r="AU65" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV65" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW65" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI66" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ66" s="39" t="s">
+      <c r="AJ66" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK66" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK66" s="38" t="s">
+      <c r="AL66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AL66" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM66" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN66" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN66" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO66" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AP66" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ66" s="39" t="s">
+      <c r="AQ66" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR66" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS66" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR66" s="38" t="s">
+      <c r="AT66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AS66" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT66" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU66" s="48">
+      <c r="AU66" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV66" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW66" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI67" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ67" s="39" t="s">
+      <c r="AJ67" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK67" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK67" s="38" t="s">
+      <c r="AL67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AL67" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM67" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN67" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN67" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO67" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AP67" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ67" s="39" t="s">
+      <c r="AQ67" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR67" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS67" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR67" s="38" t="s">
+      <c r="AT67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AS67" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT67" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU67" s="48">
+      <c r="AU67" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV67" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW67" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI68" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ68" s="39" t="s">
+      <c r="AJ68" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AK68" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AK68" s="38" t="s">
+      <c r="AL68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AL68" s="48" t="s">
-        <v>197</v>
-      </c>
       <c r="AM68" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AN68" s="48">
+        <v>197</v>
+      </c>
+      <c r="AN68" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO68" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AP68" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AQ68" s="39" t="s">
+      <c r="AQ68" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AR68" s="38">
+        <v>2022</v>
+      </c>
+      <c r="AS68" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR68" s="38" t="s">
+      <c r="AT68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AS68" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AT68" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AU68" s="48">
+      <c r="AU68" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AV68" s="48" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI69" s="38"/>
-      <c r="AJ69" s="53"/>
-    </row>
-    <row r="70" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="38"/>
+      <c r="AK69" s="53"/>
+    </row>
+    <row r="70" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI70" s="38"/>
-      <c r="AJ70" s="53"/>
-    </row>
-    <row r="71" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="38"/>
+      <c r="AK70" s="53"/>
+    </row>
+    <row r="71" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI71" s="38"/>
-      <c r="AJ71" s="53"/>
-    </row>
-    <row r="72" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="38"/>
+      <c r="AK71" s="53"/>
+    </row>
+    <row r="72" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI72" s="38"/>
-      <c r="AJ72" s="53"/>
-    </row>
-    <row r="73" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="53"/>
+    </row>
+    <row r="73" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI73" s="38"/>
-      <c r="AJ73" s="53"/>
-    </row>
-    <row r="74" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="38"/>
+      <c r="AK73" s="53"/>
+    </row>
+    <row r="74" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI74" s="38"/>
-      <c r="AJ74" s="53"/>
-    </row>
-    <row r="75" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="38"/>
+      <c r="AK74" s="53"/>
+    </row>
+    <row r="75" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI75" s="38"/>
-      <c r="AJ75" s="53"/>
-    </row>
-    <row r="76" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="38"/>
+      <c r="AK75" s="53"/>
+    </row>
+    <row r="76" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI76" s="38"/>
-      <c r="AJ76" s="53"/>
-    </row>
-    <row r="77" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="38"/>
+      <c r="AK76" s="53"/>
+    </row>
+    <row r="77" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI77" s="38"/>
-      <c r="AJ77" s="53"/>
-    </row>
-    <row r="78" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="38"/>
+      <c r="AK77" s="53"/>
+    </row>
+    <row r="78" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI78" s="38"/>
-      <c r="AJ78" s="53"/>
-    </row>
-    <row r="79" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="38"/>
+      <c r="AK78" s="53"/>
+    </row>
+    <row r="79" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI79" s="38"/>
-      <c r="AJ79" s="53"/>
-    </row>
-    <row r="80" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="38"/>
+      <c r="AK79" s="53"/>
+    </row>
+    <row r="80" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI80" s="38"/>
-      <c r="AJ80" s="53"/>
-    </row>
-    <row r="81" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="38"/>
+      <c r="AK80" s="53"/>
+    </row>
+    <row r="81" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI81" s="38"/>
-      <c r="AJ81" s="53"/>
-    </row>
-    <row r="82" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="38"/>
+      <c r="AK81" s="53"/>
+    </row>
+    <row r="82" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI82" s="38"/>
-      <c r="AJ82" s="53"/>
-    </row>
-    <row r="83" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="38"/>
+      <c r="AK82" s="53"/>
+    </row>
+    <row r="83" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI83" s="38"/>
-      <c r="AJ83" s="53"/>
-    </row>
-    <row r="84" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="38"/>
+      <c r="AK83" s="53"/>
+    </row>
+    <row r="84" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI84" s="38"/>
-      <c r="AJ84" s="53"/>
-    </row>
-    <row r="85" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="38"/>
+      <c r="AK84" s="53"/>
+    </row>
+    <row r="85" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI85" s="38"/>
-      <c r="AJ85" s="53"/>
-    </row>
-    <row r="86" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="38"/>
+      <c r="AK85" s="53"/>
+    </row>
+    <row r="86" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI86" s="38"/>
-      <c r="AJ86" s="53"/>
-    </row>
-    <row r="87" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="38"/>
+      <c r="AK86" s="53"/>
+    </row>
+    <row r="87" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI87" s="38"/>
-      <c r="AJ87" s="53"/>
-    </row>
-    <row r="88" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="38"/>
+      <c r="AK87" s="53"/>
+    </row>
+    <row r="88" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI88" s="38"/>
-      <c r="AJ88" s="53"/>
-    </row>
-    <row r="89" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="53"/>
+    </row>
+    <row r="89" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI89" s="38"/>
-      <c r="AJ89" s="53"/>
-    </row>
-    <row r="90" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="38"/>
+      <c r="AK89" s="53"/>
+    </row>
+    <row r="90" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI90" s="38"/>
-      <c r="AJ90" s="53"/>
-    </row>
-    <row r="91" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="38"/>
+      <c r="AK90" s="53"/>
+    </row>
+    <row r="91" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI91" s="38"/>
-      <c r="AJ91" s="53"/>
-    </row>
-    <row r="92" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="38"/>
+      <c r="AK91" s="53"/>
+    </row>
+    <row r="92" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI92" s="38"/>
-      <c r="AJ92" s="53"/>
-    </row>
-    <row r="93" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="38"/>
+      <c r="AK92" s="53"/>
+    </row>
+    <row r="93" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI93" s="38"/>
-      <c r="AJ93" s="53"/>
-    </row>
-    <row r="94" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="38"/>
+      <c r="AK93" s="53"/>
+    </row>
+    <row r="94" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI94" s="38"/>
-      <c r="AJ94" s="53"/>
-    </row>
-    <row r="95" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="38"/>
+      <c r="AK94" s="53"/>
+    </row>
+    <row r="95" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI95" s="38"/>
-      <c r="AJ95" s="53"/>
-    </row>
-    <row r="96" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="38"/>
+      <c r="AK95" s="53"/>
+    </row>
+    <row r="96" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI96" s="38"/>
-      <c r="AJ96" s="53"/>
-    </row>
-    <row r="97" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="38"/>
+      <c r="AK96" s="53"/>
+    </row>
+    <row r="97" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI97" s="38"/>
-      <c r="AJ97" s="53"/>
-    </row>
-    <row r="98" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="38"/>
+      <c r="AK97" s="53"/>
+    </row>
+    <row r="98" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI98" s="38"/>
-      <c r="AJ98" s="53"/>
-    </row>
-    <row r="99" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="38"/>
+      <c r="AK98" s="53"/>
+    </row>
+    <row r="99" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI99" s="38"/>
-      <c r="AJ99" s="53"/>
-    </row>
-    <row r="100" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="38"/>
+      <c r="AK99" s="53"/>
+    </row>
+    <row r="100" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI100" s="38"/>
-      <c r="AJ100" s="53"/>
-    </row>
-    <row r="101" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="38"/>
+      <c r="AK100" s="53"/>
+    </row>
+    <row r="101" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI101" s="38"/>
-      <c r="AJ101" s="53"/>
-    </row>
-    <row r="102" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ101" s="38"/>
+      <c r="AK101" s="53"/>
+    </row>
+    <row r="102" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI102" s="38"/>
-      <c r="AJ102" s="53"/>
-    </row>
-    <row r="103" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ102" s="38"/>
+      <c r="AK102" s="53"/>
+    </row>
+    <row r="103" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI103" s="38"/>
-      <c r="AJ103" s="53"/>
-    </row>
-    <row r="104" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ103" s="38"/>
+      <c r="AK103" s="53"/>
+    </row>
+    <row r="104" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI104" s="38"/>
-      <c r="AJ104" s="53"/>
-    </row>
-    <row r="105" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ104" s="38"/>
+      <c r="AK104" s="53"/>
+    </row>
+    <row r="105" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI105" s="38"/>
-      <c r="AJ105" s="53"/>
-    </row>
-    <row r="106" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ105" s="38"/>
+      <c r="AK105" s="53"/>
+    </row>
+    <row r="106" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI106" s="38"/>
-      <c r="AJ106" s="53"/>
-    </row>
-    <row r="107" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ106" s="38"/>
+      <c r="AK106" s="53"/>
+    </row>
+    <row r="107" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI107" s="38"/>
-      <c r="AJ107" s="53"/>
-    </row>
-    <row r="108" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ107" s="38"/>
+      <c r="AK107" s="53"/>
+    </row>
+    <row r="108" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI108" s="38"/>
-      <c r="AJ108" s="53"/>
-    </row>
-    <row r="109" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ108" s="38"/>
+      <c r="AK108" s="53"/>
+    </row>
+    <row r="109" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI109" s="38"/>
-      <c r="AJ109" s="53"/>
-    </row>
-    <row r="110" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ109" s="38"/>
+      <c r="AK109" s="53"/>
+    </row>
+    <row r="110" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI110" s="38"/>
-      <c r="AJ110" s="53"/>
-    </row>
-    <row r="111" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ110" s="38"/>
+      <c r="AK110" s="53"/>
+    </row>
+    <row r="111" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI111" s="38"/>
-      <c r="AJ111" s="53"/>
-    </row>
-    <row r="112" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ111" s="38"/>
+      <c r="AK111" s="53"/>
+    </row>
+    <row r="112" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI112" s="38"/>
-      <c r="AJ112" s="53"/>
-    </row>
-    <row r="113" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ112" s="38"/>
+      <c r="AK112" s="53"/>
+    </row>
+    <row r="113" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI113" s="38"/>
-      <c r="AJ113" s="53"/>
-    </row>
-    <row r="114" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ113" s="38"/>
+      <c r="AK113" s="53"/>
+    </row>
+    <row r="114" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI114" s="38"/>
-      <c r="AJ114" s="53"/>
-    </row>
-    <row r="115" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ114" s="38"/>
+      <c r="AK114" s="53"/>
+    </row>
+    <row r="115" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI115" s="38"/>
-      <c r="AJ115" s="53"/>
-    </row>
-    <row r="116" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ115" s="38"/>
+      <c r="AK115" s="53"/>
+    </row>
+    <row r="116" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI116" s="38"/>
-      <c r="AJ116" s="53"/>
-    </row>
-    <row r="117" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ116" s="38"/>
+      <c r="AK116" s="53"/>
+    </row>
+    <row r="117" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI117" s="38"/>
-      <c r="AJ117" s="53"/>
-    </row>
-    <row r="118" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ117" s="38"/>
+      <c r="AK117" s="53"/>
+    </row>
+    <row r="118" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI118" s="38"/>
-      <c r="AJ118" s="53"/>
-    </row>
-    <row r="119" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ118" s="38"/>
+      <c r="AK118" s="53"/>
+    </row>
+    <row r="119" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI119" s="38"/>
-      <c r="AJ119" s="53"/>
-    </row>
-    <row r="120" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ119" s="38"/>
+      <c r="AK119" s="53"/>
+    </row>
+    <row r="120" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI120" s="38"/>
-      <c r="AJ120" s="53"/>
-    </row>
-    <row r="121" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ120" s="38"/>
+      <c r="AK120" s="53"/>
+    </row>
+    <row r="121" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI121" s="38"/>
-      <c r="AJ121" s="53"/>
-    </row>
-    <row r="122" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ121" s="38"/>
+      <c r="AK121" s="53"/>
+    </row>
+    <row r="122" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI122" s="38"/>
-      <c r="AJ122" s="53"/>
-    </row>
-    <row r="123" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ122" s="38"/>
+      <c r="AK122" s="53"/>
+    </row>
+    <row r="123" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI123" s="38"/>
-      <c r="AJ123" s="53"/>
-    </row>
-    <row r="124" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ123" s="38"/>
+      <c r="AK123" s="53"/>
+    </row>
+    <row r="124" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI124" s="38"/>
-      <c r="AJ124" s="53"/>
-    </row>
-    <row r="125" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ124" s="38"/>
+      <c r="AK124" s="53"/>
+    </row>
+    <row r="125" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI125" s="38"/>
-      <c r="AJ125" s="53"/>
-    </row>
-    <row r="126" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ125" s="38"/>
+      <c r="AK125" s="53"/>
+    </row>
+    <row r="126" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI126" s="38"/>
-      <c r="AJ126" s="53"/>
-    </row>
-    <row r="127" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ126" s="38"/>
+      <c r="AK126" s="53"/>
+    </row>
+    <row r="127" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI127" s="38"/>
-      <c r="AJ127" s="53"/>
-    </row>
-    <row r="128" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ127" s="38"/>
+      <c r="AK127" s="53"/>
+    </row>
+    <row r="128" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI128" s="38"/>
-      <c r="AJ128" s="53"/>
-    </row>
-    <row r="129" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ128" s="38"/>
+      <c r="AK128" s="53"/>
+    </row>
+    <row r="129" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI129" s="38"/>
-      <c r="AJ129" s="53"/>
-    </row>
-    <row r="130" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ129" s="38"/>
+      <c r="AK129" s="53"/>
+    </row>
+    <row r="130" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI130" s="38"/>
-      <c r="AJ130" s="53"/>
-    </row>
-    <row r="131" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ130" s="38"/>
+      <c r="AK130" s="53"/>
+    </row>
+    <row r="131" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI131" s="38"/>
-      <c r="AJ131" s="53"/>
-    </row>
-    <row r="132" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ131" s="38"/>
+      <c r="AK131" s="53"/>
+    </row>
+    <row r="132" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI132" s="38"/>
-      <c r="AJ132" s="53"/>
-    </row>
-    <row r="133" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ132" s="38"/>
+      <c r="AK132" s="53"/>
+    </row>
+    <row r="133" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI133" s="38"/>
-      <c r="AJ133" s="53"/>
-    </row>
-    <row r="134" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ133" s="38"/>
+      <c r="AK133" s="53"/>
+    </row>
+    <row r="134" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI134" s="38"/>
-      <c r="AJ134" s="53"/>
-    </row>
-    <row r="135" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ134" s="38"/>
+      <c r="AK134" s="53"/>
+    </row>
+    <row r="135" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI135" s="38"/>
-      <c r="AJ135" s="53"/>
-    </row>
-    <row r="136" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ135" s="38"/>
+      <c r="AK135" s="53"/>
+    </row>
+    <row r="136" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI136" s="38"/>
-      <c r="AJ136" s="53"/>
-    </row>
-    <row r="137" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ136" s="38"/>
+      <c r="AK136" s="53"/>
+    </row>
+    <row r="137" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI137" s="38"/>
-      <c r="AJ137" s="53"/>
-    </row>
-    <row r="138" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ137" s="38"/>
+      <c r="AK137" s="53"/>
+    </row>
+    <row r="138" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI138" s="38"/>
-      <c r="AJ138" s="53"/>
-    </row>
-    <row r="139" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ138" s="38"/>
+      <c r="AK138" s="53"/>
+    </row>
+    <row r="139" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI139" s="38"/>
-      <c r="AJ139" s="53"/>
-    </row>
-    <row r="140" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ139" s="38"/>
+      <c r="AK139" s="53"/>
+    </row>
+    <row r="140" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI140" s="38"/>
-      <c r="AJ140" s="53"/>
-    </row>
-    <row r="141" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ140" s="38"/>
+      <c r="AK140" s="53"/>
+    </row>
+    <row r="141" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI141" s="38"/>
-      <c r="AJ141" s="53"/>
-    </row>
-    <row r="142" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ141" s="38"/>
+      <c r="AK141" s="53"/>
+    </row>
+    <row r="142" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI142" s="38"/>
-      <c r="AJ142" s="53"/>
-    </row>
-    <row r="143" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ142" s="38"/>
+      <c r="AK142" s="53"/>
+    </row>
+    <row r="143" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI143" s="38"/>
-      <c r="AJ143" s="53"/>
-    </row>
-    <row r="144" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ143" s="38"/>
+      <c r="AK143" s="53"/>
+    </row>
+    <row r="144" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI144" s="38"/>
-      <c r="AJ144" s="53"/>
+      <c r="AJ144" s="38"/>
+      <c r="AK144" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAACE04-90E1-4098-BD94-6542DBC9A720}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A8663F-B175-40A4-B6FE-D805C7EA7842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="841" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="217">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2174,9 +2174,6 @@
     <t>Wind Resource-Harnessed</t>
   </si>
   <si>
-    <t>~TFM_DINS</t>
-  </si>
-  <si>
     <t>Cset_CN</t>
   </si>
   <si>
@@ -2186,7 +2183,28 @@
     <t>Timeslices</t>
   </si>
   <si>
+    <t>~TFM_INS</t>
+  </si>
+  <si>
     <t>AllRegions</t>
+  </si>
+  <si>
+    <t>SOLELC</t>
+  </si>
+  <si>
+    <t>Electricity from solar</t>
+  </si>
+  <si>
+    <t>Electrcity from wind</t>
+  </si>
+  <si>
+    <t>WNDELC</t>
+  </si>
+  <si>
+    <t>DECELC</t>
+  </si>
+  <si>
+    <t>Decenteralized electricity</t>
   </si>
 </sst>
 </file>
@@ -2509,7 +2527,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
@@ -2667,6 +2685,9 @@
     <xf numFmtId="0" fontId="16" fillId="3" borderId="0" xfId="20" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="4" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="4" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="23">
     <cellStyle name="20% - Accent5" xfId="22" builtinId="46"/>
@@ -3292,7 +3313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="K2" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView topLeftCell="D15" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -4442,10 +4463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AW144"/>
+  <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH54" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AR21" sqref="AR21:AR68"/>
+    <sheetView tabSelected="1" topLeftCell="AG61" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AT21" sqref="AT21:AT68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4473,11 +4494,11 @@
     <col min="28" max="28" width="13.453125" style="48" customWidth="1"/>
     <col min="29" max="29" width="13.81640625" style="48" customWidth="1"/>
     <col min="30" max="30" width="8.453125" style="48" customWidth="1"/>
-    <col min="31" max="36" width="8.81640625" style="48"/>
-    <col min="37" max="37" width="12.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="8.81640625" style="48"/>
-    <col min="41" max="41" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.81640625" style="48"/>
+    <col min="31" max="35" width="8.81640625" style="48"/>
+    <col min="36" max="36" width="12.453125" style="48" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="8.81640625" style="48"/>
+    <col min="40" max="40" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.81640625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="14.5" x14ac:dyDescent="0.35">
@@ -4682,23 +4703,57 @@
       <c r="AD7" s="57"/>
       <c r="AE7" s="49"/>
     </row>
-    <row r="8" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B8" s="56"/>
-      <c r="C8" s="56"/>
-      <c r="D8" s="56"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="56"/>
-      <c r="AE8" s="49"/>
-    </row>
-    <row r="9" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="B9" s="56"/>
-      <c r="C9" s="56"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="56"/>
-      <c r="AE9" s="49"/>
+    <row r="8" spans="2:31" s="84" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B8" s="83"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="83"/>
+      <c r="E8" s="83"/>
+      <c r="F8" s="83"/>
+      <c r="G8" s="83"/>
+      <c r="T8" s="85"/>
+      <c r="U8" s="85"/>
+      <c r="V8" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="X8" s="84" t="s">
+        <v>211</v>
+      </c>
+      <c r="Y8" s="84" t="s">
+        <v>212</v>
+      </c>
+      <c r="Z8" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB8" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE8" s="85"/>
+    </row>
+    <row r="9" spans="2:31" s="84" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="83"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
+      <c r="T9" s="85"/>
+      <c r="U9" s="85"/>
+      <c r="V9" s="84" t="s">
+        <v>59</v>
+      </c>
+      <c r="X9" s="84" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y9" s="84" t="s">
+        <v>213</v>
+      </c>
+      <c r="Z9" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB9" s="84" t="s">
+        <v>88</v>
+      </c>
+      <c r="AE9" s="85"/>
     </row>
     <row r="10" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
       <c r="B10" s="56"/>
@@ -4753,7 +4808,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:49" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4834,24 +4889,22 @@
         <v>22</v>
       </c>
       <c r="AI17" s="63" t="s">
-        <v>206</v>
-      </c>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="38"/>
+        <v>209</v>
+      </c>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="63"/>
       <c r="AL17" s="63"/>
       <c r="AM17" s="63"/>
-      <c r="AN17" s="63"/>
-      <c r="AO17" s="38"/>
-      <c r="AQ17" s="63" t="s">
-        <v>206</v>
-      </c>
+      <c r="AN17" s="38"/>
+      <c r="AP17" s="63" t="s">
+        <v>209</v>
+      </c>
+      <c r="AQ17" s="38"/>
       <c r="AR17" s="63"/>
-      <c r="AS17" s="38"/>
+      <c r="AS17" s="63"/>
       <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-    </row>
-    <row r="18" spans="2:49" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:47" ht="31" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4935,46 +4988,40 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="AK18" s="64" t="s">
+        <v>198</v>
+      </c>
+      <c r="AL18" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM18" s="64" t="s">
         <v>207</v>
       </c>
-      <c r="AL18" s="64" t="s">
+      <c r="AN18" s="64" t="s">
+        <v>210</v>
+      </c>
+      <c r="AP18" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ18" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="AR18" s="64" t="s">
         <v>198</v>
       </c>
-      <c r="AM18" s="64" t="s">
+      <c r="AS18" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AN18" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="AO18" s="64" t="s">
+      <c r="AT18" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="AU18" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="AQ18" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR18" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS18" s="64" t="s">
-        <v>207</v>
-      </c>
-      <c r="AT18" s="64" t="s">
-        <v>198</v>
-      </c>
-      <c r="AU18" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV18" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="AW18" s="64" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="2:49" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -5017,27 +5064,25 @@
       <c r="AI19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="44" t="s">
+      <c r="AJ19" s="44" t="s">
         <v>131</v>
       </c>
+      <c r="AK19" s="44"/>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
+      <c r="AP19" s="44" t="s">
+        <v>81</v>
+      </c>
       <c r="AQ19" s="44" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AR19" s="44"/>
-      <c r="AS19" s="44" t="s">
-        <v>131</v>
-      </c>
+      <c r="AS19" s="44"/>
       <c r="AT19" s="44"/>
       <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-    </row>
-    <row r="20" spans="2:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="str">
         <f>X20</f>
         <v>Furnace</v>
@@ -5105,26 +5150,24 @@
         <v>53</v>
       </c>
       <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45" t="s">
-        <v>209</v>
-      </c>
+      <c r="AK20" s="45" t="s">
+        <v>208</v>
+      </c>
+      <c r="AL20" s="45"/>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AQ20" s="45" t="s">
+      <c r="AP20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AR20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45" t="s">
+        <v>208</v>
+      </c>
       <c r="AS20" s="45"/>
-      <c r="AT20" s="45" t="s">
-        <v>209</v>
-      </c>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="44"/>
-    </row>
-    <row r="21" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="44"/>
+    </row>
+    <row r="21" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="str">
         <f>X$21</f>
         <v>BIOBoiler</v>
@@ -5192,47 +5235,41 @@
       <c r="AI21" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ21" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK21" s="39" t="s">
+      <c r="AJ21" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK21" s="48" t="s">
+        <v>132</v>
+      </c>
+      <c r="AL21" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM21" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL21" s="48" t="s">
+      <c r="AN21" s="48">
+        <v>3.3051976250754521E-3</v>
+      </c>
+      <c r="AP21" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ21" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AM21" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN21" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO21" s="48">
-        <v>3.3051976250754521E-3</v>
-      </c>
-      <c r="AQ21" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR21" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS21" s="39" t="s">
+      <c r="AS21" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT21" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT21" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU21" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV21" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW21" s="48">
+      <c r="AU21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="str">
         <f>X24</f>
         <v>ELCBoiler</v>
@@ -5299,47 +5336,41 @@
       <c r="AI22" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ22" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK22" s="39" t="s">
+      <c r="AJ22" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK22" s="69" t="s">
+        <v>133</v>
+      </c>
+      <c r="AL22" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM22" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL22" s="69" t="s">
+      <c r="AN22" s="48">
+        <v>3.1618331753269246E-3</v>
+      </c>
+      <c r="AP22" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ22" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AM22" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN22" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO22" s="48">
-        <v>3.1618331753269246E-3</v>
-      </c>
-      <c r="AQ22" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR22" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS22" s="39" t="s">
+      <c r="AS22" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT22" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT22" s="69" t="s">
-        <v>133</v>
-      </c>
-      <c r="AU22" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV22" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW22" s="48">
+      <c r="AU22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="48" t="str">
         <f>X22</f>
         <v>BIOKiln</v>
@@ -5404,47 +5435,41 @@
       <c r="AI23" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ23" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK23" s="39" t="s">
+      <c r="AJ23" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK23" s="48" t="s">
+        <v>134</v>
+      </c>
+      <c r="AL23" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM23" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL23" s="48" t="s">
+      <c r="AN23" s="48">
+        <v>2.8979409360310663E-3</v>
+      </c>
+      <c r="AP23" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ23" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AM23" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN23" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO23" s="48">
-        <v>2.8979409360310663E-3</v>
-      </c>
-      <c r="AQ23" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR23" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS23" s="39" t="s">
+      <c r="AS23" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT23" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT23" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU23" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV23" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW23" s="49">
+      <c r="AU23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5509,47 +5534,41 @@
       <c r="AI24" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ24" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK24" s="39" t="s">
+      <c r="AJ24" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK24" s="69" t="s">
+        <v>135</v>
+      </c>
+      <c r="AL24" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM24" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL24" s="69" t="s">
+      <c r="AN24" s="48">
+        <v>2.7156926103261707E-3</v>
+      </c>
+      <c r="AP24" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ24" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AM24" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN24" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO24" s="48">
-        <v>2.7156926103261707E-3</v>
-      </c>
-      <c r="AQ24" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR24" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS24" s="39" t="s">
+      <c r="AS24" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT24" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT24" s="69" t="s">
-        <v>135</v>
-      </c>
-      <c r="AU24" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV24" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW24" s="49">
+      <c r="AU24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="str">
         <f>X26</f>
         <v>WNDTRBN</v>
@@ -5559,7 +5578,7 @@
         <v>WIND</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>69</v>
+        <v>214</v>
       </c>
       <c r="E25" s="46">
         <v>2030</v>
@@ -5620,47 +5639,41 @@
       <c r="AI25" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ25" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK25" s="39" t="s">
+      <c r="AJ25" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK25" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="AL25" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM25" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL25" s="48" t="s">
+      <c r="AN25" s="48">
+        <v>2.5452192095824343E-3</v>
+      </c>
+      <c r="AP25" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ25" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AM25" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN25" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO25" s="48">
-        <v>2.5452192095824343E-3</v>
-      </c>
-      <c r="AQ25" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR25" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS25" s="39" t="s">
+      <c r="AS25" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT25" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT25" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU25" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV25" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW25" s="49">
+      <c r="AU25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="str">
         <f>X27</f>
         <v>SOLPV</v>
@@ -5670,7 +5683,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>69</v>
+        <v>211</v>
       </c>
       <c r="E26" s="46">
         <v>2030</v>
@@ -5731,47 +5744,41 @@
       <c r="AI26" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ26" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK26" s="39" t="s">
+      <c r="AJ26" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK26" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="AL26" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM26" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL26" s="69" t="s">
+      <c r="AN26" s="48">
+        <v>2.5834450529081338E-3</v>
+      </c>
+      <c r="AP26" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ26" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AM26" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN26" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO26" s="48">
-        <v>2.5834450529081338E-3</v>
-      </c>
-      <c r="AQ26" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR26" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS26" s="39" t="s">
+      <c r="AS26" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT26" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT26" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="AU26" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV26" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW26" s="49">
+      <c r="AU26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="str">
         <f>X25</f>
         <v>CSP</v>
@@ -5843,47 +5850,41 @@
       <c r="AI27" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ27" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK27" s="39" t="s">
+      <c r="AJ27" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK27" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="AL27" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM27" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL27" s="48" t="s">
+      <c r="AN27" s="48">
+        <v>2.7432881310744317E-3</v>
+      </c>
+      <c r="AP27" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ27" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AM27" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN27" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO27" s="48">
-        <v>2.7432881310744317E-3</v>
-      </c>
-      <c r="AQ27" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR27" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS27" s="39" t="s">
+      <c r="AS27" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT27" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT27" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU27" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV27" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW27" s="49">
+      <c r="AU27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5907,7 +5908,9 @@
       <c r="H28" s="70">
         <v>1</v>
       </c>
-      <c r="I28" s="46"/>
+      <c r="I28" s="46">
+        <v>100</v>
+      </c>
       <c r="J28" s="70">
         <v>0</v>
       </c>
@@ -5954,47 +5957,41 @@
       <c r="AI28" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ28" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK28" s="39" t="s">
+      <c r="AJ28" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK28" s="69" t="s">
+        <v>139</v>
+      </c>
+      <c r="AL28" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM28" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL28" s="69" t="s">
+      <c r="AN28" s="48">
+        <v>2.8314721319216154E-3</v>
+      </c>
+      <c r="AP28" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ28" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AM28" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN28" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO28" s="48">
-        <v>2.8314721319216154E-3</v>
-      </c>
-      <c r="AQ28" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR28" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS28" s="39" t="s">
+      <c r="AS28" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT28" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT28" s="69" t="s">
-        <v>139</v>
-      </c>
-      <c r="AU28" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV28" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW28" s="49">
+      <c r="AU28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6018,7 +6015,9 @@
       <c r="H29" s="70">
         <v>1</v>
       </c>
-      <c r="I29" s="46"/>
+      <c r="I29" s="46">
+        <v>100</v>
+      </c>
       <c r="J29" s="70">
         <v>0</v>
       </c>
@@ -6041,50 +6040,62 @@
         <v>0.5</v>
       </c>
       <c r="S29" s="46"/>
+      <c r="V29" s="49" t="s">
+        <v>69</v>
+      </c>
+      <c r="X29" s="49" t="s">
+        <v>215</v>
+      </c>
+      <c r="Y29" s="49" t="s">
+        <v>216</v>
+      </c>
+      <c r="Z29" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA29" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB29" s="49" t="s">
+        <v>88</v>
+      </c>
       <c r="AI29" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ29" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK29" s="39" t="s">
+      <c r="AJ29" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK29" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="AL29" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM29" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL29" s="48" t="s">
+      <c r="AN29" s="48">
+        <v>2.8141143326017269E-3</v>
+      </c>
+      <c r="AP29" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ29" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AM29" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN29" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO29" s="48">
-        <v>2.8141143326017269E-3</v>
-      </c>
-      <c r="AQ29" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR29" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS29" s="39" t="s">
+      <c r="AS29" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT29" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT29" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU29" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV29" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW29" s="49">
+      <c r="AU29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6108,7 +6119,9 @@
       <c r="H30" s="70">
         <v>1</v>
       </c>
-      <c r="I30" s="46"/>
+      <c r="I30" s="46">
+        <v>100</v>
+      </c>
       <c r="J30" s="70">
         <v>0</v>
       </c>
@@ -6143,47 +6156,41 @@
       <c r="AI30" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ30" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK30" s="39" t="s">
+      <c r="AJ30" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK30" s="69" t="s">
+        <v>141</v>
+      </c>
+      <c r="AL30" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM30" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL30" s="69" t="s">
+      <c r="AN30" s="48">
+        <v>2.6656478128544076E-3</v>
+      </c>
+      <c r="AP30" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ30" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AM30" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN30" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO30" s="48">
-        <v>2.6656478128544076E-3</v>
-      </c>
-      <c r="AQ30" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR30" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS30" s="39" t="s">
+      <c r="AS30" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT30" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT30" s="69" t="s">
-        <v>141</v>
-      </c>
-      <c r="AU30" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV30" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW30" s="49">
+      <c r="AU30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -6200,7 +6207,9 @@
       <c r="H31" s="70">
         <v>1</v>
       </c>
-      <c r="I31" s="46"/>
+      <c r="I31" s="46">
+        <v>100</v>
+      </c>
       <c r="J31" s="70">
         <v>0</v>
       </c>
@@ -6227,53 +6236,70 @@
       <c r="AI31" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ31" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK31" s="39" t="s">
+      <c r="AJ31" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK31" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AL31" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM31" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL31" s="48" t="s">
+      <c r="AN31" s="48">
+        <v>2.4530677112863486E-3</v>
+      </c>
+      <c r="AP31" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ31" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AM31" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN31" s="48" t="s">
+      <c r="AS31" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT31" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU31" s="49">
+        <v>0.27468446594982077</v>
+      </c>
+    </row>
+    <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C32" s="53" t="s">
+        <v>214</v>
+      </c>
+      <c r="D32" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AO31" s="48">
-        <v>2.4530677112863486E-3</v>
-      </c>
-      <c r="AQ31" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR31" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS31" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT31" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU31" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV31" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW31" s="49">
-        <v>0.27468446594982077</v>
-      </c>
-    </row>
-    <row r="32" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="53"/>
-      <c r="C32" s="53"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="70"/>
+      <c r="E32" s="46">
+        <v>2030</v>
+      </c>
       <c r="F32" s="71"/>
+      <c r="G32" s="49">
+        <v>1</v>
+      </c>
+      <c r="H32" s="49">
+        <v>1</v>
+      </c>
+      <c r="I32" s="46">
+        <v>100</v>
+      </c>
+      <c r="J32" s="70">
+        <v>0</v>
+      </c>
       <c r="K32" s="48"/>
+      <c r="M32" s="70">
+        <v>8.76</v>
+      </c>
       <c r="V32" s="48"/>
       <c r="W32" s="48"/>
       <c r="X32" s="48"/>
@@ -6286,53 +6312,70 @@
       <c r="AI32" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ32" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK32" s="39" t="s">
+      <c r="AJ32" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK32" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="AL32" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM32" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL32" s="69" t="s">
+      <c r="AN32" s="48">
+        <v>2.1363241345921055E-3</v>
+      </c>
+      <c r="AP32" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ32" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AM32" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN32" s="48" t="s">
+      <c r="AS32" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT32" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AU32" s="49">
+        <v>0.32637437275985665</v>
+      </c>
+    </row>
+    <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="C33" s="53" t="s">
+        <v>211</v>
+      </c>
+      <c r="D33" s="53" t="s">
         <v>69</v>
       </c>
-      <c r="AO32" s="48">
-        <v>2.1363241345921055E-3</v>
-      </c>
-      <c r="AQ32" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR32" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS32" s="39" t="s">
-        <v>94</v>
-      </c>
-      <c r="AT32" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="AU32" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV32" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW32" s="49">
-        <v>0.32637437275985665</v>
-      </c>
-    </row>
-    <row r="33" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="70"/>
+      <c r="E33" s="46">
+        <v>2030</v>
+      </c>
       <c r="F33" s="71"/>
+      <c r="G33" s="49">
+        <v>1</v>
+      </c>
+      <c r="H33" s="49">
+        <v>1</v>
+      </c>
+      <c r="I33" s="46">
+        <v>100</v>
+      </c>
+      <c r="J33" s="70">
+        <v>0</v>
+      </c>
       <c r="K33" s="48"/>
+      <c r="M33" s="70">
+        <v>8.76</v>
+      </c>
       <c r="V33" s="48"/>
       <c r="W33" s="48"/>
       <c r="X33" s="48"/>
@@ -6345,47 +6388,41 @@
       <c r="AI33" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ33" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK33" s="39" t="s">
+      <c r="AJ33" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK33" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="AL33" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM33" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL33" s="48" t="s">
+      <c r="AN33" s="48">
+        <v>1.8660639529435976E-3</v>
+      </c>
+      <c r="AP33" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ33" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AM33" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN33" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO33" s="48">
-        <v>1.8660639529435976E-3</v>
-      </c>
-      <c r="AQ33" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR33" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS33" s="39" t="s">
+      <c r="AS33" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT33" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT33" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU33" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV33" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW33" s="49">
+      <c r="AU33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -6404,47 +6441,41 @@
       <c r="AI34" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ34" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK34" s="39" t="s">
+      <c r="AJ34" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK34" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="AL34" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM34" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL34" s="69" t="s">
+      <c r="AN34" s="48">
+        <v>1.7487528282965712E-3</v>
+      </c>
+      <c r="AP34" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ34" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AM34" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN34" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO34" s="48">
-        <v>1.7487528282965712E-3</v>
-      </c>
-      <c r="AQ34" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR34" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS34" s="39" t="s">
+      <c r="AS34" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT34" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT34" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="AU34" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV34" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW34" s="49">
+      <c r="AU34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -6464,47 +6495,41 @@
       <c r="AI35" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ35" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK35" s="39" t="s">
+      <c r="AJ35" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK35" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="AL35" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM35" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL35" s="48" t="s">
+      <c r="AN35" s="48">
+        <v>1.6637860863902745E-3</v>
+      </c>
+      <c r="AP35" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ35" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AM35" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN35" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO35" s="48">
-        <v>1.6637860863902745E-3</v>
-      </c>
-      <c r="AQ35" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR35" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS35" s="39" t="s">
+      <c r="AS35" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT35" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT35" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU35" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV35" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW35" s="49">
+      <c r="AU35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -6527,47 +6552,41 @@
       <c r="AI36" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ36" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK36" s="39" t="s">
+      <c r="AJ36" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK36" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="AL36" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM36" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL36" s="69" t="s">
+      <c r="AN36" s="48">
+        <v>1.8211742012316831E-3</v>
+      </c>
+      <c r="AP36" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ36" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AM36" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN36" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO36" s="48">
-        <v>1.8211742012316831E-3</v>
-      </c>
-      <c r="AQ36" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR36" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS36" s="39" t="s">
+      <c r="AS36" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT36" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT36" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="AU36" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV36" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW36" s="49">
+      <c r="AU36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -6590,47 +6609,41 @@
       <c r="AI37" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ37" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK37" s="39" t="s">
+      <c r="AJ37" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK37" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="AL37" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM37" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL37" s="48" t="s">
+      <c r="AN37" s="48">
+        <v>1.9153018835258307E-3</v>
+      </c>
+      <c r="AP37" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ37" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AM37" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN37" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO37" s="48">
-        <v>1.9153018835258307E-3</v>
-      </c>
-      <c r="AQ37" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR37" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS37" s="39" t="s">
+      <c r="AS37" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT37" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT37" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU37" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV37" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW37" s="49">
+      <c r="AU37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
@@ -6641,92 +6654,80 @@
       <c r="AI38" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ38" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK38" s="39" t="s">
+      <c r="AJ38" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK38" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="AL38" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM38" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL38" s="69" t="s">
+      <c r="AN38" s="48">
+        <v>1.9744590518638132E-3</v>
+      </c>
+      <c r="AP38" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ38" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AM38" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN38" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO38" s="48">
-        <v>1.9744590518638132E-3</v>
-      </c>
-      <c r="AQ38" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR38" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS38" s="39" t="s">
+      <c r="AS38" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT38" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT38" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU38" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV38" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW38" s="48">
+      <c r="AU38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ39" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK39" s="39" t="s">
+      <c r="AJ39" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK39" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="AL39" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM39" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL39" s="48" t="s">
+      <c r="AN39" s="48">
+        <v>2.1878436160058393E-3</v>
+      </c>
+      <c r="AP39" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ39" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AM39" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN39" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO39" s="48">
-        <v>2.1878436160058393E-3</v>
-      </c>
-      <c r="AQ39" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR39" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS39" s="39" t="s">
+      <c r="AS39" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT39" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT39" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU39" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV39" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW39" s="48">
+      <c r="AU39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
@@ -6735,47 +6736,41 @@
       <c r="AI40" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ40" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK40" s="39" t="s">
+      <c r="AJ40" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK40" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="AL40" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM40" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL40" s="69" t="s">
+      <c r="AN40" s="48">
+        <v>2.3889741533883327E-3</v>
+      </c>
+      <c r="AP40" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ40" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AM40" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN40" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO40" s="48">
-        <v>2.3889741533883327E-3</v>
-      </c>
-      <c r="AQ40" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR40" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS40" s="39" t="s">
+      <c r="AS40" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT40" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT40" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="AU40" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV40" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW40" s="48">
+      <c r="AU40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
@@ -6784,47 +6779,41 @@
       <c r="AI41" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ41" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK41" s="39" t="s">
+      <c r="AJ41" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK41" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL41" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM41" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL41" s="48" t="s">
+      <c r="AN41" s="48">
+        <v>2.4063426997311056E-3</v>
+      </c>
+      <c r="AP41" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ41" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AM41" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN41" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO41" s="48">
-        <v>2.4063426997311056E-3</v>
-      </c>
-      <c r="AQ41" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR41" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS41" s="39" t="s">
+      <c r="AS41" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT41" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT41" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU41" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV41" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW41" s="48">
+      <c r="AU41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -6835,91 +6824,79 @@
       <c r="AI42" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ42" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK42" s="39" t="s">
+      <c r="AJ42" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK42" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="AL42" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM42" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL42" s="69" t="s">
+      <c r="AN42" s="48">
+        <v>2.5925256698099051E-3</v>
+      </c>
+      <c r="AP42" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ42" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AM42" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN42" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO42" s="48">
-        <v>2.5925256698099051E-3</v>
-      </c>
-      <c r="AQ42" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR42" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS42" s="39" t="s">
+      <c r="AS42" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT42" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT42" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="AU42" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV42" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW42" s="48">
+      <c r="AU42" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI43" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ43" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK43" s="39" t="s">
+      <c r="AJ43" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK43" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="AL43" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM43" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL43" s="48" t="s">
+      <c r="AN43" s="48">
+        <v>2.9724559200622644E-3</v>
+      </c>
+      <c r="AP43" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ43" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AM43" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN43" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO43" s="48">
-        <v>2.9724559200622644E-3</v>
-      </c>
-      <c r="AQ43" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR43" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS43" s="39" t="s">
+      <c r="AS43" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT43" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT43" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU43" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV43" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW43" s="48">
+      <c r="AU43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -6930,356 +6907,308 @@
       <c r="AI44" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ44" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK44" s="39" t="s">
+      <c r="AJ44" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK44" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="AL44" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM44" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL44" s="69" t="s">
+      <c r="AN44" s="48">
+        <v>3.3823091606694387E-3</v>
+      </c>
+      <c r="AP44" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ44" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AM44" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN44" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO44" s="48">
-        <v>3.3823091606694387E-3</v>
-      </c>
-      <c r="AQ44" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR44" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS44" s="39" t="s">
+      <c r="AS44" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT44" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT44" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU44" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV44" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW44" s="48">
+      <c r="AU44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ45" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK45" s="39" t="s">
+      <c r="AJ45" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK45" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="AL45" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM45" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL45" s="38" t="s">
+      <c r="AN45" s="48">
+        <v>3.3051976250754521E-3</v>
+      </c>
+      <c r="AP45" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ45" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AM45" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN45" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO45" s="48">
-        <v>3.3051976250754521E-3</v>
-      </c>
-      <c r="AQ45" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR45" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS45" s="39" t="s">
+      <c r="AS45" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT45" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT45" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="AU45" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV45" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW45" s="48">
+      <c r="AU45" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI46" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ46" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK46" s="39" t="s">
+      <c r="AJ46" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK46" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="AL46" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM46" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL46" s="38" t="s">
+      <c r="AN46" s="48">
+        <v>3.1618331753269246E-3</v>
+      </c>
+      <c r="AP46" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ46" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AM46" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN46" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO46" s="48">
-        <v>3.1618331753269246E-3</v>
-      </c>
-      <c r="AQ46" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR46" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS46" s="39" t="s">
+      <c r="AS46" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT46" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT46" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="AU46" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV46" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW46" s="48">
+      <c r="AU46" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI47" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ47" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK47" s="39" t="s">
+      <c r="AJ47" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK47" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AL47" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM47" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL47" s="38" t="s">
+      <c r="AN47" s="48">
+        <v>2.8979409360310663E-3</v>
+      </c>
+      <c r="AP47" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ47" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AM47" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN47" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO47" s="48">
-        <v>2.8979409360310663E-3</v>
-      </c>
-      <c r="AQ47" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR47" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS47" s="39" t="s">
+      <c r="AS47" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT47" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT47" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="AU47" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV47" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW47" s="48">
+      <c r="AU47" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI48" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ48" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK48" s="39" t="s">
+      <c r="AJ48" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK48" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AL48" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM48" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL48" s="38" t="s">
+      <c r="AN48" s="48">
+        <v>2.7156926103261707E-3</v>
+      </c>
+      <c r="AP48" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ48" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AM48" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN48" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO48" s="48">
-        <v>2.7156926103261707E-3</v>
-      </c>
-      <c r="AQ48" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR48" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS48" s="39" t="s">
+      <c r="AS48" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT48" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT48" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="AU48" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV48" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW48" s="48">
+      <c r="AU48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI49" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ49" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK49" s="39" t="s">
+      <c r="AJ49" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK49" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AL49" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM49" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL49" s="38" t="s">
+      <c r="AN49" s="48">
+        <v>2.5452192095824343E-3</v>
+      </c>
+      <c r="AP49" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ49" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AM49" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN49" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO49" s="48">
-        <v>2.5452192095824343E-3</v>
-      </c>
-      <c r="AQ49" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR49" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS49" s="39" t="s">
+      <c r="AS49" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT49" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT49" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="AU49" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV49" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW49" s="48">
+      <c r="AU49" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI50" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ50" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK50" s="39" t="s">
+      <c r="AJ50" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK50" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AL50" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM50" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL50" s="38" t="s">
+      <c r="AN50" s="48">
+        <v>2.5834450529081338E-3</v>
+      </c>
+      <c r="AP50" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ50" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AM50" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN50" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO50" s="48">
-        <v>2.5834450529081338E-3</v>
-      </c>
-      <c r="AQ50" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR50" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS50" s="39" t="s">
+      <c r="AS50" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT50" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT50" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="AU50" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV50" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW50" s="48">
+      <c r="AU50" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI51" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ51" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK51" s="39" t="s">
+      <c r="AJ51" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK51" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL51" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM51" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL51" s="38" t="s">
+      <c r="AN51" s="48">
+        <v>2.7432881310744317E-3</v>
+      </c>
+      <c r="AP51" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ51" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AM51" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN51" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO51" s="48">
-        <v>2.7432881310744317E-3</v>
-      </c>
-      <c r="AQ51" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR51" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS51" s="39" t="s">
+      <c r="AS51" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT51" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT51" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="AU51" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV51" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW51" s="48">
+      <c r="AU51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="79" t="s">
         <v>185</v>
       </c>
@@ -7296,47 +7225,41 @@
       <c r="AI52" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ52" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK52" s="39" t="s">
+      <c r="AJ52" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK52" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="AL52" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM52" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL52" s="38" t="s">
+      <c r="AN52" s="48">
+        <v>2.8314721319216154E-3</v>
+      </c>
+      <c r="AP52" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ52" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AM52" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN52" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO52" s="48">
-        <v>2.8314721319216154E-3</v>
-      </c>
-      <c r="AQ52" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR52" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS52" s="39" t="s">
+      <c r="AS52" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT52" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT52" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="AU52" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV52" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW52" s="48">
+      <c r="AU52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
       <c r="D53"/>
@@ -7351,47 +7274,41 @@
       <c r="AI53" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ53" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK53" s="39" t="s">
+      <c r="AJ53" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK53" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL53" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM53" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL53" s="38" t="s">
+      <c r="AN53" s="48">
+        <v>2.8141143326017269E-3</v>
+      </c>
+      <c r="AP53" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ53" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AM53" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN53" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO53" s="48">
-        <v>2.8141143326017269E-3</v>
-      </c>
-      <c r="AQ53" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR53" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS53" s="39" t="s">
+      <c r="AS53" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT53" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT53" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="AU53" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV53" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW53" s="48">
+      <c r="AU53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:49" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:47" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="80" t="s">
         <v>186</v>
       </c>
@@ -7428,47 +7345,41 @@
       <c r="AI54" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ54" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK54" s="39" t="s">
+      <c r="AJ54" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK54" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="AL54" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM54" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL54" s="38" t="s">
+      <c r="AN54" s="48">
+        <v>2.6656478128544076E-3</v>
+      </c>
+      <c r="AP54" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ54" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AM54" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN54" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO54" s="48">
-        <v>2.6656478128544076E-3</v>
-      </c>
-      <c r="AQ54" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR54" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS54" s="39" t="s">
+      <c r="AS54" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT54" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT54" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="AU54" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV54" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW54" s="48">
+      <c r="AU54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -7495,47 +7406,41 @@
       <c r="AI55" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ55" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK55" s="39" t="s">
+      <c r="AJ55" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK55" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AL55" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM55" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL55" s="38" t="s">
+      <c r="AN55" s="48">
+        <v>2.4530677112863486E-3</v>
+      </c>
+      <c r="AP55" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ55" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AM55" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN55" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO55" s="48">
-        <v>2.4530677112863486E-3</v>
-      </c>
-      <c r="AQ55" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR55" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS55" s="39" t="s">
+      <c r="AS55" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT55" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT55" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="AU55" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV55" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW55" s="48">
+      <c r="AU55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -7562,47 +7467,41 @@
       <c r="AI56" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ56" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK56" s="39" t="s">
+      <c r="AJ56" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK56" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="AL56" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM56" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL56" s="38" t="s">
+      <c r="AN56" s="48">
+        <v>2.1363241345921055E-3</v>
+      </c>
+      <c r="AP56" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ56" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AM56" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN56" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO56" s="48">
-        <v>2.1363241345921055E-3</v>
-      </c>
-      <c r="AQ56" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR56" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS56" s="39" t="s">
+      <c r="AS56" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT56" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT56" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="AU56" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV56" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW56" s="48">
+      <c r="AU56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -7629,47 +7528,41 @@
       <c r="AI57" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ57" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK57" s="39" t="s">
+      <c r="AJ57" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK57" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="AL57" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM57" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL57" s="38" t="s">
+      <c r="AN57" s="48">
+        <v>1.8660639529435976E-3</v>
+      </c>
+      <c r="AP57" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ57" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AM57" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN57" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO57" s="48">
-        <v>1.8660639529435976E-3</v>
-      </c>
-      <c r="AQ57" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR57" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS57" s="39" t="s">
+      <c r="AS57" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT57" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT57" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="AU57" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV57" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW57" s="48">
+      <c r="AU57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -7696,47 +7589,41 @@
       <c r="AI58" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ58" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK58" s="39" t="s">
+      <c r="AJ58" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK58" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="AL58" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM58" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL58" s="38" t="s">
+      <c r="AN58" s="48">
+        <v>1.7487528282965712E-3</v>
+      </c>
+      <c r="AP58" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ58" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AM58" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN58" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO58" s="48">
-        <v>1.7487528282965712E-3</v>
-      </c>
-      <c r="AQ58" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR58" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS58" s="39" t="s">
+      <c r="AS58" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT58" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT58" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="AU58" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV58" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW58" s="48">
+      <c r="AU58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -7763,47 +7650,41 @@
       <c r="AI59" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ59" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK59" s="39" t="s">
+      <c r="AJ59" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK59" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="AL59" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM59" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL59" s="38" t="s">
+      <c r="AN59" s="48">
+        <v>1.6637860863902745E-3</v>
+      </c>
+      <c r="AP59" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ59" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AM59" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN59" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO59" s="48">
-        <v>1.6637860863902745E-3</v>
-      </c>
-      <c r="AQ59" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR59" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS59" s="39" t="s">
+      <c r="AS59" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT59" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT59" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="AU59" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV59" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW59" s="48">
+      <c r="AU59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -7830,47 +7711,41 @@
       <c r="AI60" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ60" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK60" s="39" t="s">
+      <c r="AJ60" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK60" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="AL60" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM60" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL60" s="38" t="s">
+      <c r="AN60" s="48">
+        <v>1.8211742012316831E-3</v>
+      </c>
+      <c r="AP60" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ60" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AM60" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN60" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO60" s="48">
-        <v>1.8211742012316831E-3</v>
-      </c>
-      <c r="AQ60" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR60" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS60" s="39" t="s">
+      <c r="AS60" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT60" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT60" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="AU60" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV60" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW60" s="48">
+      <c r="AU60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -7897,47 +7772,41 @@
       <c r="AI61" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ61" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK61" s="39" t="s">
+      <c r="AJ61" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK61" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AL61" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM61" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL61" s="38" t="s">
+      <c r="AN61" s="48">
+        <v>1.9153018835258307E-3</v>
+      </c>
+      <c r="AP61" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ61" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AM61" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN61" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO61" s="48">
-        <v>1.9153018835258307E-3</v>
-      </c>
-      <c r="AQ61" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR61" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS61" s="39" t="s">
+      <c r="AS61" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT61" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT61" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AU61" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV61" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW61" s="48">
+      <c r="AU61" s="48">
         <v>0.13618056033452808</v>
       </c>
     </row>
-    <row r="62" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>121</v>
       </c>
@@ -7964,689 +7833,571 @@
       <c r="AI62" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ62" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK62" s="39" t="s">
+      <c r="AJ62" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK62" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AL62" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM62" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL62" s="38" t="s">
+      <c r="AN62" s="48">
+        <v>1.9744590518638132E-3</v>
+      </c>
+      <c r="AP62" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ62" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AM62" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN62" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO62" s="48">
-        <v>1.9744590518638132E-3</v>
-      </c>
-      <c r="AQ62" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR62" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS62" s="39" t="s">
+      <c r="AS62" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT62" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT62" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="AU62" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV62" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW62" s="48">
+      <c r="AU62" s="48">
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI63" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ63" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK63" s="39" t="s">
+      <c r="AJ63" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK63" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AL63" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM63" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL63" s="38" t="s">
+      <c r="AN63" s="48">
+        <v>2.1878436160058393E-3</v>
+      </c>
+      <c r="AP63" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ63" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AM63" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN63" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO63" s="48">
-        <v>2.1878436160058393E-3</v>
-      </c>
-      <c r="AQ63" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR63" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS63" s="39" t="s">
+      <c r="AS63" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT63" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT63" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="AU63" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV63" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW63" s="48">
+      <c r="AU63" s="48">
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI64" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ64" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK64" s="39" t="s">
+      <c r="AJ64" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK64" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AL64" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM64" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL64" s="38" t="s">
+      <c r="AN64" s="48">
+        <v>2.3889741533883327E-3</v>
+      </c>
+      <c r="AP64" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ64" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AM64" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN64" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO64" s="48">
-        <v>2.3889741533883327E-3</v>
-      </c>
-      <c r="AQ64" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR64" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS64" s="39" t="s">
+      <c r="AS64" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT64" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT64" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="AU64" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV64" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW64" s="48">
+      <c r="AU64" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="65" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI65" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ65" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK65" s="39" t="s">
+      <c r="AJ65" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK65" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AL65" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM65" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL65" s="38" t="s">
+      <c r="AN65" s="48">
+        <v>2.4063426997311056E-3</v>
+      </c>
+      <c r="AP65" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ65" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AM65" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN65" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO65" s="48">
-        <v>2.4063426997311056E-3</v>
-      </c>
-      <c r="AQ65" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR65" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS65" s="39" t="s">
+      <c r="AS65" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT65" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT65" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="AU65" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV65" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW65" s="48">
+      <c r="AU65" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI66" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ66" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK66" s="39" t="s">
+      <c r="AJ66" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK66" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="AL66" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM66" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL66" s="38" t="s">
+      <c r="AN66" s="48">
+        <v>2.5925256698099051E-3</v>
+      </c>
+      <c r="AP66" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ66" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AM66" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN66" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO66" s="48">
-        <v>2.5925256698099051E-3</v>
-      </c>
-      <c r="AQ66" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR66" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS66" s="39" t="s">
+      <c r="AS66" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT66" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT66" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="AU66" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV66" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW66" s="48">
+      <c r="AU66" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI67" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ67" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK67" s="39" t="s">
+      <c r="AJ67" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK67" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="AL67" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM67" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL67" s="38" t="s">
+      <c r="AN67" s="48">
+        <v>2.9724559200622644E-3</v>
+      </c>
+      <c r="AP67" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ67" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AM67" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN67" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO67" s="48">
-        <v>2.9724559200622644E-3</v>
-      </c>
-      <c r="AQ67" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR67" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS67" s="39" t="s">
+      <c r="AS67" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT67" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT67" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="AU67" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV67" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW67" s="48">
+      <c r="AU67" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI68" s="38" t="s">
         <v>180</v>
       </c>
-      <c r="AJ68" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AK68" s="39" t="s">
+      <c r="AJ68" s="39" t="s">
+        <v>214</v>
+      </c>
+      <c r="AK68" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="AL68" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AM68" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AL68" s="38" t="s">
+      <c r="AN68" s="48">
+        <v>3.3823091606694387E-3</v>
+      </c>
+      <c r="AP68" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="AQ68" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AR68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AM68" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AN68" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AO68" s="48">
-        <v>3.3823091606694387E-3</v>
-      </c>
-      <c r="AQ68" s="38" t="s">
-        <v>180</v>
-      </c>
-      <c r="AR68" s="38">
-        <v>2022</v>
-      </c>
-      <c r="AS68" s="39" t="s">
+      <c r="AS68" s="48" t="s">
+        <v>197</v>
+      </c>
+      <c r="AT68" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AT68" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="AU68" s="48" t="s">
-        <v>197</v>
-      </c>
-      <c r="AV68" s="48" t="s">
-        <v>69</v>
-      </c>
-      <c r="AW68" s="48">
+      <c r="AU68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="53"/>
-    </row>
-    <row r="70" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="53"/>
+    </row>
+    <row r="70" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI70" s="38"/>
-      <c r="AJ70" s="38"/>
-      <c r="AK70" s="53"/>
-    </row>
-    <row r="71" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="53"/>
+    </row>
+    <row r="71" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI71" s="38"/>
-      <c r="AJ71" s="38"/>
-      <c r="AK71" s="53"/>
-    </row>
-    <row r="72" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="53"/>
+    </row>
+    <row r="72" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
-      <c r="AK72" s="53"/>
-    </row>
-    <row r="73" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="53"/>
+    </row>
+    <row r="73" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI73" s="38"/>
-      <c r="AJ73" s="38"/>
-      <c r="AK73" s="53"/>
-    </row>
-    <row r="74" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="53"/>
+    </row>
+    <row r="74" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI74" s="38"/>
-      <c r="AJ74" s="38"/>
-      <c r="AK74" s="53"/>
-    </row>
-    <row r="75" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="53"/>
+    </row>
+    <row r="75" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI75" s="38"/>
-      <c r="AJ75" s="38"/>
-      <c r="AK75" s="53"/>
-    </row>
-    <row r="76" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="53"/>
+    </row>
+    <row r="76" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI76" s="38"/>
-      <c r="AJ76" s="38"/>
-      <c r="AK76" s="53"/>
-    </row>
-    <row r="77" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="53"/>
+    </row>
+    <row r="77" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI77" s="38"/>
-      <c r="AJ77" s="38"/>
-      <c r="AK77" s="53"/>
-    </row>
-    <row r="78" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="53"/>
+    </row>
+    <row r="78" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI78" s="38"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="53"/>
-    </row>
-    <row r="79" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="53"/>
+    </row>
+    <row r="79" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI79" s="38"/>
-      <c r="AJ79" s="38"/>
-      <c r="AK79" s="53"/>
-    </row>
-    <row r="80" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="53"/>
+    </row>
+    <row r="80" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI80" s="38"/>
-      <c r="AJ80" s="38"/>
-      <c r="AK80" s="53"/>
-    </row>
-    <row r="81" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="53"/>
+    </row>
+    <row r="81" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI81" s="38"/>
-      <c r="AJ81" s="38"/>
-      <c r="AK81" s="53"/>
-    </row>
-    <row r="82" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="53"/>
+    </row>
+    <row r="82" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI82" s="38"/>
-      <c r="AJ82" s="38"/>
-      <c r="AK82" s="53"/>
-    </row>
-    <row r="83" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="53"/>
+    </row>
+    <row r="83" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI83" s="38"/>
-      <c r="AJ83" s="38"/>
-      <c r="AK83" s="53"/>
-    </row>
-    <row r="84" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="53"/>
+    </row>
+    <row r="84" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI84" s="38"/>
-      <c r="AJ84" s="38"/>
-      <c r="AK84" s="53"/>
-    </row>
-    <row r="85" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="53"/>
+    </row>
+    <row r="85" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI85" s="38"/>
-      <c r="AJ85" s="38"/>
-      <c r="AK85" s="53"/>
-    </row>
-    <row r="86" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="53"/>
+    </row>
+    <row r="86" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI86" s="38"/>
-      <c r="AJ86" s="38"/>
-      <c r="AK86" s="53"/>
-    </row>
-    <row r="87" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="53"/>
+    </row>
+    <row r="87" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI87" s="38"/>
-      <c r="AJ87" s="38"/>
-      <c r="AK87" s="53"/>
-    </row>
-    <row r="88" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="53"/>
+    </row>
+    <row r="88" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI88" s="38"/>
-      <c r="AJ88" s="38"/>
-      <c r="AK88" s="53"/>
-    </row>
-    <row r="89" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="53"/>
+    </row>
+    <row r="89" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI89" s="38"/>
-      <c r="AJ89" s="38"/>
-      <c r="AK89" s="53"/>
-    </row>
-    <row r="90" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="53"/>
+    </row>
+    <row r="90" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI90" s="38"/>
-      <c r="AJ90" s="38"/>
-      <c r="AK90" s="53"/>
-    </row>
-    <row r="91" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="53"/>
+    </row>
+    <row r="91" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI91" s="38"/>
-      <c r="AJ91" s="38"/>
-      <c r="AK91" s="53"/>
-    </row>
-    <row r="92" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="53"/>
+    </row>
+    <row r="92" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI92" s="38"/>
-      <c r="AJ92" s="38"/>
-      <c r="AK92" s="53"/>
-    </row>
-    <row r="93" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="53"/>
+    </row>
+    <row r="93" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI93" s="38"/>
-      <c r="AJ93" s="38"/>
-      <c r="AK93" s="53"/>
-    </row>
-    <row r="94" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="53"/>
+    </row>
+    <row r="94" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI94" s="38"/>
-      <c r="AJ94" s="38"/>
-      <c r="AK94" s="53"/>
-    </row>
-    <row r="95" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="53"/>
+    </row>
+    <row r="95" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI95" s="38"/>
-      <c r="AJ95" s="38"/>
-      <c r="AK95" s="53"/>
-    </row>
-    <row r="96" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="53"/>
+    </row>
+    <row r="96" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI96" s="38"/>
-      <c r="AJ96" s="38"/>
-      <c r="AK96" s="53"/>
-    </row>
-    <row r="97" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="53"/>
+    </row>
+    <row r="97" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI97" s="38"/>
-      <c r="AJ97" s="38"/>
-      <c r="AK97" s="53"/>
-    </row>
-    <row r="98" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="53"/>
+    </row>
+    <row r="98" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI98" s="38"/>
-      <c r="AJ98" s="38"/>
-      <c r="AK98" s="53"/>
-    </row>
-    <row r="99" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="53"/>
+    </row>
+    <row r="99" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI99" s="38"/>
-      <c r="AJ99" s="38"/>
-      <c r="AK99" s="53"/>
-    </row>
-    <row r="100" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="53"/>
+    </row>
+    <row r="100" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI100" s="38"/>
-      <c r="AJ100" s="38"/>
-      <c r="AK100" s="53"/>
-    </row>
-    <row r="101" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="53"/>
+    </row>
+    <row r="101" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI101" s="38"/>
-      <c r="AJ101" s="38"/>
-      <c r="AK101" s="53"/>
-    </row>
-    <row r="102" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ101" s="53"/>
+    </row>
+    <row r="102" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI102" s="38"/>
-      <c r="AJ102" s="38"/>
-      <c r="AK102" s="53"/>
-    </row>
-    <row r="103" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ102" s="53"/>
+    </row>
+    <row r="103" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI103" s="38"/>
-      <c r="AJ103" s="38"/>
-      <c r="AK103" s="53"/>
-    </row>
-    <row r="104" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ103" s="53"/>
+    </row>
+    <row r="104" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI104" s="38"/>
-      <c r="AJ104" s="38"/>
-      <c r="AK104" s="53"/>
-    </row>
-    <row r="105" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ104" s="53"/>
+    </row>
+    <row r="105" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI105" s="38"/>
-      <c r="AJ105" s="38"/>
-      <c r="AK105" s="53"/>
-    </row>
-    <row r="106" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ105" s="53"/>
+    </row>
+    <row r="106" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI106" s="38"/>
-      <c r="AJ106" s="38"/>
-      <c r="AK106" s="53"/>
-    </row>
-    <row r="107" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ106" s="53"/>
+    </row>
+    <row r="107" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI107" s="38"/>
-      <c r="AJ107" s="38"/>
-      <c r="AK107" s="53"/>
-    </row>
-    <row r="108" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ107" s="53"/>
+    </row>
+    <row r="108" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI108" s="38"/>
-      <c r="AJ108" s="38"/>
-      <c r="AK108" s="53"/>
-    </row>
-    <row r="109" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ108" s="53"/>
+    </row>
+    <row r="109" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI109" s="38"/>
-      <c r="AJ109" s="38"/>
-      <c r="AK109" s="53"/>
-    </row>
-    <row r="110" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ109" s="53"/>
+    </row>
+    <row r="110" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI110" s="38"/>
-      <c r="AJ110" s="38"/>
-      <c r="AK110" s="53"/>
-    </row>
-    <row r="111" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ110" s="53"/>
+    </row>
+    <row r="111" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI111" s="38"/>
-      <c r="AJ111" s="38"/>
-      <c r="AK111" s="53"/>
-    </row>
-    <row r="112" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ111" s="53"/>
+    </row>
+    <row r="112" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI112" s="38"/>
-      <c r="AJ112" s="38"/>
-      <c r="AK112" s="53"/>
-    </row>
-    <row r="113" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ112" s="53"/>
+    </row>
+    <row r="113" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI113" s="38"/>
-      <c r="AJ113" s="38"/>
-      <c r="AK113" s="53"/>
-    </row>
-    <row r="114" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ113" s="53"/>
+    </row>
+    <row r="114" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI114" s="38"/>
-      <c r="AJ114" s="38"/>
-      <c r="AK114" s="53"/>
-    </row>
-    <row r="115" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ114" s="53"/>
+    </row>
+    <row r="115" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI115" s="38"/>
-      <c r="AJ115" s="38"/>
-      <c r="AK115" s="53"/>
-    </row>
-    <row r="116" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ115" s="53"/>
+    </row>
+    <row r="116" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI116" s="38"/>
-      <c r="AJ116" s="38"/>
-      <c r="AK116" s="53"/>
-    </row>
-    <row r="117" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ116" s="53"/>
+    </row>
+    <row r="117" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI117" s="38"/>
-      <c r="AJ117" s="38"/>
-      <c r="AK117" s="53"/>
-    </row>
-    <row r="118" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ117" s="53"/>
+    </row>
+    <row r="118" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI118" s="38"/>
-      <c r="AJ118" s="38"/>
-      <c r="AK118" s="53"/>
-    </row>
-    <row r="119" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ118" s="53"/>
+    </row>
+    <row r="119" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI119" s="38"/>
-      <c r="AJ119" s="38"/>
-      <c r="AK119" s="53"/>
-    </row>
-    <row r="120" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ119" s="53"/>
+    </row>
+    <row r="120" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI120" s="38"/>
-      <c r="AJ120" s="38"/>
-      <c r="AK120" s="53"/>
-    </row>
-    <row r="121" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ120" s="53"/>
+    </row>
+    <row r="121" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI121" s="38"/>
-      <c r="AJ121" s="38"/>
-      <c r="AK121" s="53"/>
-    </row>
-    <row r="122" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ121" s="53"/>
+    </row>
+    <row r="122" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI122" s="38"/>
-      <c r="AJ122" s="38"/>
-      <c r="AK122" s="53"/>
-    </row>
-    <row r="123" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ122" s="53"/>
+    </row>
+    <row r="123" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI123" s="38"/>
-      <c r="AJ123" s="38"/>
-      <c r="AK123" s="53"/>
-    </row>
-    <row r="124" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ123" s="53"/>
+    </row>
+    <row r="124" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI124" s="38"/>
-      <c r="AJ124" s="38"/>
-      <c r="AK124" s="53"/>
-    </row>
-    <row r="125" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ124" s="53"/>
+    </row>
+    <row r="125" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI125" s="38"/>
-      <c r="AJ125" s="38"/>
-      <c r="AK125" s="53"/>
-    </row>
-    <row r="126" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ125" s="53"/>
+    </row>
+    <row r="126" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI126" s="38"/>
-      <c r="AJ126" s="38"/>
-      <c r="AK126" s="53"/>
-    </row>
-    <row r="127" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ126" s="53"/>
+    </row>
+    <row r="127" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI127" s="38"/>
-      <c r="AJ127" s="38"/>
-      <c r="AK127" s="53"/>
-    </row>
-    <row r="128" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ127" s="53"/>
+    </row>
+    <row r="128" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI128" s="38"/>
-      <c r="AJ128" s="38"/>
-      <c r="AK128" s="53"/>
-    </row>
-    <row r="129" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ128" s="53"/>
+    </row>
+    <row r="129" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI129" s="38"/>
-      <c r="AJ129" s="38"/>
-      <c r="AK129" s="53"/>
-    </row>
-    <row r="130" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ129" s="53"/>
+    </row>
+    <row r="130" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI130" s="38"/>
-      <c r="AJ130" s="38"/>
-      <c r="AK130" s="53"/>
-    </row>
-    <row r="131" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ130" s="53"/>
+    </row>
+    <row r="131" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI131" s="38"/>
-      <c r="AJ131" s="38"/>
-      <c r="AK131" s="53"/>
-    </row>
-    <row r="132" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ131" s="53"/>
+    </row>
+    <row r="132" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI132" s="38"/>
-      <c r="AJ132" s="38"/>
-      <c r="AK132" s="53"/>
-    </row>
-    <row r="133" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ132" s="53"/>
+    </row>
+    <row r="133" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI133" s="38"/>
-      <c r="AJ133" s="38"/>
-      <c r="AK133" s="53"/>
-    </row>
-    <row r="134" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ133" s="53"/>
+    </row>
+    <row r="134" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI134" s="38"/>
-      <c r="AJ134" s="38"/>
-      <c r="AK134" s="53"/>
-    </row>
-    <row r="135" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ134" s="53"/>
+    </row>
+    <row r="135" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI135" s="38"/>
-      <c r="AJ135" s="38"/>
-      <c r="AK135" s="53"/>
-    </row>
-    <row r="136" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ135" s="53"/>
+    </row>
+    <row r="136" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI136" s="38"/>
-      <c r="AJ136" s="38"/>
-      <c r="AK136" s="53"/>
-    </row>
-    <row r="137" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ136" s="53"/>
+    </row>
+    <row r="137" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI137" s="38"/>
-      <c r="AJ137" s="38"/>
-      <c r="AK137" s="53"/>
-    </row>
-    <row r="138" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ137" s="53"/>
+    </row>
+    <row r="138" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI138" s="38"/>
-      <c r="AJ138" s="38"/>
-      <c r="AK138" s="53"/>
-    </row>
-    <row r="139" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ138" s="53"/>
+    </row>
+    <row r="139" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI139" s="38"/>
-      <c r="AJ139" s="38"/>
-      <c r="AK139" s="53"/>
-    </row>
-    <row r="140" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ139" s="53"/>
+    </row>
+    <row r="140" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI140" s="38"/>
-      <c r="AJ140" s="38"/>
-      <c r="AK140" s="53"/>
-    </row>
-    <row r="141" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ140" s="53"/>
+    </row>
+    <row r="141" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI141" s="38"/>
-      <c r="AJ141" s="38"/>
-      <c r="AK141" s="53"/>
-    </row>
-    <row r="142" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ141" s="53"/>
+    </row>
+    <row r="142" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI142" s="38"/>
-      <c r="AJ142" s="38"/>
-      <c r="AK142" s="53"/>
-    </row>
-    <row r="143" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ142" s="53"/>
+    </row>
+    <row r="143" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI143" s="38"/>
-      <c r="AJ143" s="38"/>
-      <c r="AK143" s="53"/>
-    </row>
-    <row r="144" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ143" s="53"/>
+    </row>
+    <row r="144" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI144" s="38"/>
-      <c r="AJ144" s="38"/>
-      <c r="AK144" s="53"/>
+      <c r="AJ144" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50A8663F-B175-40A4-B6FE-D805C7EA7842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0BD18C-1713-4515-81EA-41B88FD7BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2096,9 +2096,6 @@
     <t>D_24</t>
   </si>
   <si>
-    <t>FLO_FR</t>
-  </si>
-  <si>
     <t>TH2024USD/GWh</t>
   </si>
   <si>
@@ -2205,6 +2202,9 @@
   </si>
   <si>
     <t>Decenteralized electricity</t>
+  </si>
+  <si>
+    <t>AF</t>
   </si>
 </sst>
 </file>
@@ -3370,7 +3370,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G2" s="14"/>
       <c r="N2" s="6" t="s">
@@ -3396,7 +3396,7 @@
         <v>58</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G3" s="14"/>
       <c r="N3" s="8" t="s">
@@ -3438,7 +3438,7 @@
         <v>58</v>
       </c>
       <c r="F4" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G4" s="14"/>
       <c r="N4" s="13" t="s">
@@ -3480,7 +3480,7 @@
         <v>58</v>
       </c>
       <c r="F5" s="78" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G5" s="14"/>
       <c r="N5" s="39" t="s">
@@ -3543,7 +3543,7 @@
         <v>72</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>58</v>
@@ -3567,10 +3567,10 @@
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q8" s="37" t="s">
         <v>200</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>201</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>58</v>
@@ -3908,7 +3908,7 @@
         <v>54</v>
       </c>
       <c r="I25" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J25" s="20" t="s">
         <v>58</v>
@@ -4050,10 +4050,10 @@
         <v>64</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="R28" s="38" t="s">
         <v>58</v>
@@ -4090,10 +4090,10 @@
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q29" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>204</v>
       </c>
       <c r="R29" s="38" t="s">
         <v>58</v>
@@ -4466,7 +4466,7 @@
   <dimension ref="B1:AU144"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AG61" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AT21" sqref="AT21:AT68"/>
+      <selection activeCell="AP21" sqref="AP21:AP68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4537,7 +4537,7 @@
         <v>58</v>
       </c>
       <c r="F2" s="50" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="G2" s="50"/>
       <c r="H2" s="50" t="s">
@@ -4716,10 +4716,10 @@
         <v>59</v>
       </c>
       <c r="X8" s="84" t="s">
+        <v>210</v>
+      </c>
+      <c r="Y8" s="84" t="s">
         <v>211</v>
-      </c>
-      <c r="Y8" s="84" t="s">
-        <v>212</v>
       </c>
       <c r="Z8" s="84" t="s">
         <v>58</v>
@@ -4742,10 +4742,10 @@
         <v>59</v>
       </c>
       <c r="X9" s="84" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Y9" s="84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Z9" s="84" t="s">
         <v>58</v>
@@ -4819,10 +4819,10 @@
         <v>4</v>
       </c>
       <c r="E17" s="60" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F17" s="61" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G17" s="60" t="s">
         <v>16</v>
@@ -4849,16 +4849,16 @@
         <v>122</v>
       </c>
       <c r="O17" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="P17" s="62" t="s">
         <v>193</v>
       </c>
-      <c r="P17" s="62" t="s">
+      <c r="Q17" s="62" t="s">
         <v>194</v>
       </c>
-      <c r="Q17" s="62" t="s">
+      <c r="R17" s="62" t="s">
         <v>195</v>
-      </c>
-      <c r="R17" s="62" t="s">
-        <v>196</v>
       </c>
       <c r="S17" s="62"/>
       <c r="V17" s="54" t="s">
@@ -4889,7 +4889,7 @@
         <v>22</v>
       </c>
       <c r="AI17" s="63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AJ17" s="38"/>
       <c r="AK17" s="63"/>
@@ -4897,7 +4897,7 @@
       <c r="AM17" s="63"/>
       <c r="AN17" s="38"/>
       <c r="AP17" s="63" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AQ17" s="38"/>
       <c r="AR17" s="63"/>
@@ -4945,16 +4945,16 @@
         <v>123</v>
       </c>
       <c r="O18" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="P18" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q18" s="33" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="R18" s="81" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="S18" s="81"/>
       <c r="V18" s="31" t="s">
@@ -4988,37 +4988,37 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AK18" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AL18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="AM18" s="64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AN18" s="64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="AP18" s="64" t="s">
         <v>130</v>
       </c>
       <c r="AQ18" s="64" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="AR18" s="64" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AS18" s="64" t="s">
         <v>11</v>
       </c>
       <c r="AT18" s="64" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AU18" s="64" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -5035,11 +5035,11 @@
         <v>54</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K19" s="36"/>
       <c r="L19" s="35" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="M19" s="36"/>
       <c r="N19" s="36" t="s">
@@ -5151,7 +5151,7 @@
       </c>
       <c r="AJ20" s="45"/>
       <c r="AK20" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AL20" s="45"/>
       <c r="AM20" s="45"/>
@@ -5161,7 +5161,7 @@
       </c>
       <c r="AQ20" s="45"/>
       <c r="AR20" s="45" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AS20" s="45"/>
       <c r="AT20" s="45"/>
@@ -5233,16 +5233,16 @@
       <c r="AC21" s="49"/>
       <c r="AD21" s="49"/>
       <c r="AI21" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ21" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK21" s="48" t="s">
         <v>132</v>
       </c>
       <c r="AL21" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM21" s="48" t="s">
         <v>93</v>
@@ -5251,16 +5251,16 @@
         <v>3.3051976250754521E-3</v>
       </c>
       <c r="AP21" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ21" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR21" s="48" t="s">
         <v>132</v>
       </c>
       <c r="AS21" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT21" s="48" t="s">
         <v>94</v>
@@ -5334,16 +5334,16 @@
       <c r="AC22" s="49"/>
       <c r="AD22" s="49"/>
       <c r="AI22" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ22" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK22" s="69" t="s">
         <v>133</v>
       </c>
       <c r="AL22" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM22" s="48" t="s">
         <v>93</v>
@@ -5352,16 +5352,16 @@
         <v>3.1618331753269246E-3</v>
       </c>
       <c r="AP22" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ22" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR22" s="69" t="s">
         <v>133</v>
       </c>
       <c r="AS22" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT22" s="48" t="s">
         <v>94</v>
@@ -5433,16 +5433,16 @@
         <v>88</v>
       </c>
       <c r="AI23" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ23" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK23" s="48" t="s">
         <v>134</v>
       </c>
       <c r="AL23" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM23" s="48" t="s">
         <v>93</v>
@@ -5451,16 +5451,16 @@
         <v>2.8979409360310663E-3</v>
       </c>
       <c r="AP23" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ23" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR23" s="48" t="s">
         <v>134</v>
       </c>
       <c r="AS23" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT23" s="48" t="s">
         <v>94</v>
@@ -5532,16 +5532,16 @@
         <v>88</v>
       </c>
       <c r="AI24" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ24" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK24" s="69" t="s">
         <v>135</v>
       </c>
       <c r="AL24" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM24" s="48" t="s">
         <v>93</v>
@@ -5550,16 +5550,16 @@
         <v>2.7156926103261707E-3</v>
       </c>
       <c r="AP24" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ24" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR24" s="69" t="s">
         <v>135</v>
       </c>
       <c r="AS24" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT24" s="48" t="s">
         <v>94</v>
@@ -5578,7 +5578,7 @@
         <v>WIND</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E25" s="46">
         <v>2030</v>
@@ -5637,16 +5637,16 @@
         <v>88</v>
       </c>
       <c r="AI25" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ25" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK25" s="48" t="s">
         <v>136</v>
       </c>
       <c r="AL25" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM25" s="48" t="s">
         <v>93</v>
@@ -5655,16 +5655,16 @@
         <v>2.5452192095824343E-3</v>
       </c>
       <c r="AP25" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ25" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR25" s="48" t="s">
         <v>136</v>
       </c>
       <c r="AS25" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT25" s="48" t="s">
         <v>94</v>
@@ -5683,7 +5683,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E26" s="46">
         <v>2030</v>
@@ -5742,16 +5742,16 @@
         <v>88</v>
       </c>
       <c r="AI26" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ26" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK26" s="69" t="s">
         <v>137</v>
       </c>
       <c r="AL26" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM26" s="48" t="s">
         <v>93</v>
@@ -5760,16 +5760,16 @@
         <v>2.5834450529081338E-3</v>
       </c>
       <c r="AP26" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ26" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR26" s="69" t="s">
         <v>137</v>
       </c>
       <c r="AS26" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT26" s="48" t="s">
         <v>94</v>
@@ -5848,16 +5848,16 @@
         <v>88</v>
       </c>
       <c r="AI27" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ27" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK27" s="48" t="s">
         <v>138</v>
       </c>
       <c r="AL27" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM27" s="48" t="s">
         <v>93</v>
@@ -5866,16 +5866,16 @@
         <v>2.7432881310744317E-3</v>
       </c>
       <c r="AP27" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ27" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR27" s="48" t="s">
         <v>138</v>
       </c>
       <c r="AS27" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT27" s="48" t="s">
         <v>94</v>
@@ -5955,16 +5955,16 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AI28" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ28" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK28" s="69" t="s">
         <v>139</v>
       </c>
       <c r="AL28" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM28" s="48" t="s">
         <v>93</v>
@@ -5973,16 +5973,16 @@
         <v>2.8314721319216154E-3</v>
       </c>
       <c r="AP28" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ28" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR28" s="69" t="s">
         <v>139</v>
       </c>
       <c r="AS28" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT28" s="48" t="s">
         <v>94</v>
@@ -6044,10 +6044,10 @@
         <v>69</v>
       </c>
       <c r="X29" s="49" t="s">
+        <v>214</v>
+      </c>
+      <c r="Y29" s="49" t="s">
         <v>215</v>
-      </c>
-      <c r="Y29" s="49" t="s">
-        <v>216</v>
       </c>
       <c r="Z29" s="49" t="s">
         <v>58</v>
@@ -6059,16 +6059,16 @@
         <v>88</v>
       </c>
       <c r="AI29" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ29" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK29" s="48" t="s">
         <v>140</v>
       </c>
       <c r="AL29" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM29" s="48" t="s">
         <v>93</v>
@@ -6077,16 +6077,16 @@
         <v>2.8141143326017269E-3</v>
       </c>
       <c r="AP29" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ29" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR29" s="48" t="s">
         <v>140</v>
       </c>
       <c r="AS29" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT29" s="48" t="s">
         <v>94</v>
@@ -6154,16 +6154,16 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
       <c r="AI30" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ30" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK30" s="69" t="s">
         <v>141</v>
       </c>
       <c r="AL30" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM30" s="48" t="s">
         <v>93</v>
@@ -6172,16 +6172,16 @@
         <v>2.6656478128544076E-3</v>
       </c>
       <c r="AP30" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ30" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR30" s="69" t="s">
         <v>141</v>
       </c>
       <c r="AS30" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT30" s="48" t="s">
         <v>94</v>
@@ -6234,16 +6234,16 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
       <c r="AI31" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ31" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK31" s="48" t="s">
         <v>142</v>
       </c>
       <c r="AL31" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM31" s="48" t="s">
         <v>93</v>
@@ -6252,16 +6252,16 @@
         <v>2.4530677112863486E-3</v>
       </c>
       <c r="AP31" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ31" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR31" s="48" t="s">
         <v>142</v>
       </c>
       <c r="AS31" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT31" s="48" t="s">
         <v>94</v>
@@ -6272,10 +6272,10 @@
     </row>
     <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D32" s="53" t="s">
         <v>69</v>
@@ -6310,16 +6310,16 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
       <c r="AI32" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ32" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK32" s="69" t="s">
         <v>143</v>
       </c>
       <c r="AL32" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM32" s="48" t="s">
         <v>93</v>
@@ -6328,16 +6328,16 @@
         <v>2.1363241345921055E-3</v>
       </c>
       <c r="AP32" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ32" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR32" s="69" t="s">
         <v>143</v>
       </c>
       <c r="AS32" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT32" s="48" t="s">
         <v>94</v>
@@ -6348,10 +6348,10 @@
     </row>
     <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D33" s="53" t="s">
         <v>69</v>
@@ -6386,16 +6386,16 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
       <c r="AI33" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ33" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK33" s="48" t="s">
         <v>144</v>
       </c>
       <c r="AL33" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM33" s="48" t="s">
         <v>93</v>
@@ -6404,16 +6404,16 @@
         <v>1.8660639529435976E-3</v>
       </c>
       <c r="AP33" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ33" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR33" s="48" t="s">
         <v>144</v>
       </c>
       <c r="AS33" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT33" s="48" t="s">
         <v>94</v>
@@ -6439,16 +6439,16 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
       <c r="AI34" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ34" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK34" s="69" t="s">
         <v>145</v>
       </c>
       <c r="AL34" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM34" s="48" t="s">
         <v>93</v>
@@ -6457,16 +6457,16 @@
         <v>1.7487528282965712E-3</v>
       </c>
       <c r="AP34" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ34" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR34" s="69" t="s">
         <v>145</v>
       </c>
       <c r="AS34" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT34" s="48" t="s">
         <v>94</v>
@@ -6493,16 +6493,16 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
       <c r="AI35" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ35" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK35" s="48" t="s">
         <v>146</v>
       </c>
       <c r="AL35" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM35" s="48" t="s">
         <v>93</v>
@@ -6511,16 +6511,16 @@
         <v>1.6637860863902745E-3</v>
       </c>
       <c r="AP35" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ35" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR35" s="48" t="s">
         <v>146</v>
       </c>
       <c r="AS35" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT35" s="48" t="s">
         <v>94</v>
@@ -6550,16 +6550,16 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
       <c r="AI36" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ36" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK36" s="69" t="s">
         <v>147</v>
       </c>
       <c r="AL36" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM36" s="48" t="s">
         <v>93</v>
@@ -6568,16 +6568,16 @@
         <v>1.8211742012316831E-3</v>
       </c>
       <c r="AP36" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ36" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR36" s="69" t="s">
         <v>147</v>
       </c>
       <c r="AS36" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT36" s="48" t="s">
         <v>94</v>
@@ -6607,16 +6607,16 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
       <c r="AI37" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ37" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK37" s="48" t="s">
         <v>148</v>
       </c>
       <c r="AL37" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM37" s="48" t="s">
         <v>93</v>
@@ -6625,16 +6625,16 @@
         <v>1.9153018835258307E-3</v>
       </c>
       <c r="AP37" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ37" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR37" s="48" t="s">
         <v>148</v>
       </c>
       <c r="AS37" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT37" s="48" t="s">
         <v>94</v>
@@ -6652,16 +6652,16 @@
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
       <c r="AI38" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ38" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK38" s="69" t="s">
         <v>149</v>
       </c>
       <c r="AL38" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM38" s="48" t="s">
         <v>93</v>
@@ -6670,16 +6670,16 @@
         <v>1.9744590518638132E-3</v>
       </c>
       <c r="AP38" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ38" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR38" s="69" t="s">
         <v>149</v>
       </c>
       <c r="AS38" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT38" s="48" t="s">
         <v>94</v>
@@ -6691,16 +6691,16 @@
     <row r="39" spans="2:47" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ39" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK39" s="48" t="s">
         <v>150</v>
       </c>
       <c r="AL39" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM39" s="48" t="s">
         <v>93</v>
@@ -6709,16 +6709,16 @@
         <v>2.1878436160058393E-3</v>
       </c>
       <c r="AP39" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ39" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR39" s="48" t="s">
         <v>150</v>
       </c>
       <c r="AS39" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT39" s="48" t="s">
         <v>94</v>
@@ -6734,16 +6734,16 @@
       </c>
       <c r="H40" s="75"/>
       <c r="AI40" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ40" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK40" s="69" t="s">
         <v>151</v>
       </c>
       <c r="AL40" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM40" s="48" t="s">
         <v>93</v>
@@ -6752,16 +6752,16 @@
         <v>2.3889741533883327E-3</v>
       </c>
       <c r="AP40" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ40" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR40" s="69" t="s">
         <v>151</v>
       </c>
       <c r="AS40" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT40" s="48" t="s">
         <v>94</v>
@@ -6777,16 +6777,16 @@
       </c>
       <c r="H41" s="75"/>
       <c r="AI41" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ41" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK41" s="48" t="s">
         <v>152</v>
       </c>
       <c r="AL41" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM41" s="48" t="s">
         <v>93</v>
@@ -6795,16 +6795,16 @@
         <v>2.4063426997311056E-3</v>
       </c>
       <c r="AP41" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ41" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR41" s="48" t="s">
         <v>152</v>
       </c>
       <c r="AS41" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT41" s="48" t="s">
         <v>94</v>
@@ -6822,16 +6822,16 @@
       </c>
       <c r="H42" s="75"/>
       <c r="AI42" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ42" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK42" s="69" t="s">
         <v>153</v>
       </c>
       <c r="AL42" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM42" s="48" t="s">
         <v>93</v>
@@ -6840,16 +6840,16 @@
         <v>2.5925256698099051E-3</v>
       </c>
       <c r="AP42" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ42" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR42" s="69" t="s">
         <v>153</v>
       </c>
       <c r="AS42" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT42" s="48" t="s">
         <v>94</v>
@@ -6860,16 +6860,16 @@
     </row>
     <row r="43" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI43" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ43" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK43" s="48" t="s">
         <v>154</v>
       </c>
       <c r="AL43" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM43" s="48" t="s">
         <v>93</v>
@@ -6878,16 +6878,16 @@
         <v>2.9724559200622644E-3</v>
       </c>
       <c r="AP43" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ43" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR43" s="48" t="s">
         <v>154</v>
       </c>
       <c r="AS43" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT43" s="48" t="s">
         <v>94</v>
@@ -6905,16 +6905,16 @@
         <v>8760</v>
       </c>
       <c r="AI44" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ44" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK44" s="69" t="s">
         <v>155</v>
       </c>
       <c r="AL44" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM44" s="48" t="s">
         <v>93</v>
@@ -6923,16 +6923,16 @@
         <v>3.3823091606694387E-3</v>
       </c>
       <c r="AP44" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ44" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR44" s="69" t="s">
         <v>155</v>
       </c>
       <c r="AS44" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT44" s="48" t="s">
         <v>94</v>
@@ -6944,16 +6944,16 @@
     <row r="45" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ45" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK45" s="38" t="s">
         <v>156</v>
       </c>
       <c r="AL45" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM45" s="48" t="s">
         <v>93</v>
@@ -6962,16 +6962,16 @@
         <v>3.3051976250754521E-3</v>
       </c>
       <c r="AP45" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ45" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR45" s="38" t="s">
         <v>156</v>
       </c>
       <c r="AS45" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT45" s="48" t="s">
         <v>94</v>
@@ -6982,16 +6982,16 @@
     </row>
     <row r="46" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI46" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ46" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK46" s="38" t="s">
         <v>157</v>
       </c>
       <c r="AL46" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM46" s="48" t="s">
         <v>93</v>
@@ -7000,16 +7000,16 @@
         <v>3.1618331753269246E-3</v>
       </c>
       <c r="AP46" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ46" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR46" s="38" t="s">
         <v>157</v>
       </c>
       <c r="AS46" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT46" s="48" t="s">
         <v>94</v>
@@ -7020,16 +7020,16 @@
     </row>
     <row r="47" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI47" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ47" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK47" s="38" t="s">
         <v>158</v>
       </c>
       <c r="AL47" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM47" s="48" t="s">
         <v>93</v>
@@ -7038,16 +7038,16 @@
         <v>2.8979409360310663E-3</v>
       </c>
       <c r="AP47" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ47" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR47" s="38" t="s">
         <v>158</v>
       </c>
       <c r="AS47" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT47" s="48" t="s">
         <v>94</v>
@@ -7058,16 +7058,16 @@
     </row>
     <row r="48" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI48" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ48" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK48" s="38" t="s">
         <v>159</v>
       </c>
       <c r="AL48" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM48" s="48" t="s">
         <v>93</v>
@@ -7076,16 +7076,16 @@
         <v>2.7156926103261707E-3</v>
       </c>
       <c r="AP48" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ48" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR48" s="38" t="s">
         <v>159</v>
       </c>
       <c r="AS48" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT48" s="48" t="s">
         <v>94</v>
@@ -7096,16 +7096,16 @@
     </row>
     <row r="49" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI49" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ49" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK49" s="38" t="s">
         <v>160</v>
       </c>
       <c r="AL49" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM49" s="48" t="s">
         <v>93</v>
@@ -7114,16 +7114,16 @@
         <v>2.5452192095824343E-3</v>
       </c>
       <c r="AP49" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ49" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR49" s="38" t="s">
         <v>160</v>
       </c>
       <c r="AS49" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT49" s="48" t="s">
         <v>94</v>
@@ -7134,16 +7134,16 @@
     </row>
     <row r="50" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI50" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ50" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK50" s="38" t="s">
         <v>161</v>
       </c>
       <c r="AL50" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM50" s="48" t="s">
         <v>93</v>
@@ -7152,16 +7152,16 @@
         <v>2.5834450529081338E-3</v>
       </c>
       <c r="AP50" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ50" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR50" s="38" t="s">
         <v>161</v>
       </c>
       <c r="AS50" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT50" s="48" t="s">
         <v>94</v>
@@ -7172,16 +7172,16 @@
     </row>
     <row r="51" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI51" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ51" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK51" s="38" t="s">
         <v>162</v>
       </c>
       <c r="AL51" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM51" s="48" t="s">
         <v>93</v>
@@ -7190,16 +7190,16 @@
         <v>2.7432881310744317E-3</v>
       </c>
       <c r="AP51" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ51" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR51" s="38" t="s">
         <v>162</v>
       </c>
       <c r="AS51" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT51" s="48" t="s">
         <v>94</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="52" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="79" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C52" s="79"/>
       <c r="D52"/>
@@ -7223,16 +7223,16 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="AI52" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ52" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK52" s="38" t="s">
         <v>163</v>
       </c>
       <c r="AL52" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM52" s="48" t="s">
         <v>93</v>
@@ -7241,16 +7241,16 @@
         <v>2.8314721319216154E-3</v>
       </c>
       <c r="AP52" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ52" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR52" s="38" t="s">
         <v>163</v>
       </c>
       <c r="AS52" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT52" s="48" t="s">
         <v>94</v>
@@ -7272,16 +7272,16 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="AI53" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ53" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK53" s="38" t="s">
         <v>164</v>
       </c>
       <c r="AL53" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM53" s="48" t="s">
         <v>93</v>
@@ -7290,16 +7290,16 @@
         <v>2.8141143326017269E-3</v>
       </c>
       <c r="AP53" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ53" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR53" s="38" t="s">
         <v>164</v>
       </c>
       <c r="AS53" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT53" s="48" t="s">
         <v>94</v>
@@ -7310,10 +7310,10 @@
     </row>
     <row r="54" spans="2:47" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C54" s="80" t="s">
         <v>186</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>187</v>
       </c>
       <c r="D54" s="80" t="s">
         <v>11</v>
@@ -7343,16 +7343,16 @@
         <v>2050</v>
       </c>
       <c r="AI54" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ54" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK54" s="38" t="s">
         <v>165</v>
       </c>
       <c r="AL54" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM54" s="48" t="s">
         <v>93</v>
@@ -7361,16 +7361,16 @@
         <v>2.6656478128544076E-3</v>
       </c>
       <c r="AP54" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ54" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR54" s="38" t="s">
         <v>165</v>
       </c>
       <c r="AS54" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT54" s="48" t="s">
         <v>94</v>
@@ -7387,10 +7387,10 @@
         <v>94</v>
       </c>
       <c r="D55" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E55" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F55">
         <v>0</v>
@@ -7404,16 +7404,16 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="AI55" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ55" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK55" s="38" t="s">
         <v>166</v>
       </c>
       <c r="AL55" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM55" s="48" t="s">
         <v>93</v>
@@ -7422,16 +7422,16 @@
         <v>2.4530677112863486E-3</v>
       </c>
       <c r="AP55" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ55" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR55" s="38" t="s">
         <v>166</v>
       </c>
       <c r="AS55" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT55" s="48" t="s">
         <v>94</v>
@@ -7448,10 +7448,10 @@
         <v>93</v>
       </c>
       <c r="D56" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F56">
         <v>0</v>
@@ -7465,16 +7465,16 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="AI56" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ56" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK56" s="38" t="s">
         <v>167</v>
       </c>
       <c r="AL56" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM56" s="48" t="s">
         <v>93</v>
@@ -7483,16 +7483,16 @@
         <v>2.1363241345921055E-3</v>
       </c>
       <c r="AP56" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ56" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR56" s="38" t="s">
         <v>167</v>
       </c>
       <c r="AS56" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT56" s="48" t="s">
         <v>94</v>
@@ -7509,10 +7509,10 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F57">
         <v>0</v>
@@ -7526,16 +7526,16 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="AI57" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ57" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK57" s="38" t="s">
         <v>168</v>
       </c>
       <c r="AL57" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM57" s="48" t="s">
         <v>93</v>
@@ -7544,16 +7544,16 @@
         <v>1.8660639529435976E-3</v>
       </c>
       <c r="AP57" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ57" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR57" s="38" t="s">
         <v>168</v>
       </c>
       <c r="AS57" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT57" s="48" t="s">
         <v>94</v>
@@ -7567,13 +7567,13 @@
         <v>121</v>
       </c>
       <c r="C58" t="s">
+        <v>187</v>
+      </c>
+      <c r="D58" t="s">
         <v>188</v>
       </c>
-      <c r="D58" t="s">
+      <c r="E58" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E58" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F58">
         <v>0</v>
@@ -7587,16 +7587,16 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="AI58" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ58" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK58" s="38" t="s">
         <v>169</v>
       </c>
       <c r="AL58" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM58" s="48" t="s">
         <v>93</v>
@@ -7605,16 +7605,16 @@
         <v>1.7487528282965712E-3</v>
       </c>
       <c r="AP58" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ58" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR58" s="38" t="s">
         <v>169</v>
       </c>
       <c r="AS58" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT58" s="48" t="s">
         <v>94</v>
@@ -7631,10 +7631,10 @@
         <v>102</v>
       </c>
       <c r="D59" t="s">
+        <v>188</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F59">
         <v>0</v>
@@ -7648,16 +7648,16 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="AI59" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ59" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK59" s="38" t="s">
         <v>170</v>
       </c>
       <c r="AL59" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM59" s="48" t="s">
         <v>93</v>
@@ -7666,16 +7666,16 @@
         <v>1.6637860863902745E-3</v>
       </c>
       <c r="AP59" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ59" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR59" s="38" t="s">
         <v>170</v>
       </c>
       <c r="AS59" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT59" s="48" t="s">
         <v>94</v>
@@ -7692,10 +7692,10 @@
         <v>105</v>
       </c>
       <c r="D60" t="s">
+        <v>188</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -7709,16 +7709,16 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="AI60" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ60" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK60" s="38" t="s">
         <v>171</v>
       </c>
       <c r="AL60" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM60" s="48" t="s">
         <v>93</v>
@@ -7727,16 +7727,16 @@
         <v>1.8211742012316831E-3</v>
       </c>
       <c r="AP60" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ60" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR60" s="38" t="s">
         <v>171</v>
       </c>
       <c r="AS60" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT60" s="48" t="s">
         <v>94</v>
@@ -7753,10 +7753,10 @@
         <v>66</v>
       </c>
       <c r="D61" t="s">
+        <v>188</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E61" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -7770,16 +7770,16 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="AI61" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ61" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK61" s="38" t="s">
         <v>172</v>
       </c>
       <c r="AL61" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM61" s="48" t="s">
         <v>93</v>
@@ -7788,16 +7788,16 @@
         <v>1.9153018835258307E-3</v>
       </c>
       <c r="AP61" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ61" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR61" s="38" t="s">
         <v>172</v>
       </c>
       <c r="AS61" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT61" s="48" t="s">
         <v>94</v>
@@ -7814,10 +7814,10 @@
         <v>103</v>
       </c>
       <c r="D62" t="s">
+        <v>188</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>189</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="F62">
         <v>0</v>
@@ -7831,16 +7831,16 @@
       <c r="K62"/>
       <c r="L62"/>
       <c r="AI62" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ62" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK62" s="38" t="s">
         <v>173</v>
       </c>
       <c r="AL62" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM62" s="48" t="s">
         <v>93</v>
@@ -7849,16 +7849,16 @@
         <v>1.9744590518638132E-3</v>
       </c>
       <c r="AP62" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ62" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR62" s="38" t="s">
         <v>173</v>
       </c>
       <c r="AS62" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT62" s="48" t="s">
         <v>94</v>
@@ -7869,16 +7869,16 @@
     </row>
     <row r="63" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI63" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ63" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK63" s="38" t="s">
         <v>174</v>
       </c>
       <c r="AL63" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM63" s="48" t="s">
         <v>93</v>
@@ -7887,16 +7887,16 @@
         <v>2.1878436160058393E-3</v>
       </c>
       <c r="AP63" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ63" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR63" s="38" t="s">
         <v>174</v>
       </c>
       <c r="AS63" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT63" s="48" t="s">
         <v>94</v>
@@ -7907,16 +7907,16 @@
     </row>
     <row r="64" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI64" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ64" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK64" s="38" t="s">
         <v>175</v>
       </c>
       <c r="AL64" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM64" s="48" t="s">
         <v>93</v>
@@ -7925,16 +7925,16 @@
         <v>2.3889741533883327E-3</v>
       </c>
       <c r="AP64" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ64" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR64" s="38" t="s">
         <v>175</v>
       </c>
       <c r="AS64" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT64" s="48" t="s">
         <v>94</v>
@@ -7945,16 +7945,16 @@
     </row>
     <row r="65" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI65" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ65" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK65" s="38" t="s">
         <v>176</v>
       </c>
       <c r="AL65" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM65" s="48" t="s">
         <v>93</v>
@@ -7963,16 +7963,16 @@
         <v>2.4063426997311056E-3</v>
       </c>
       <c r="AP65" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ65" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR65" s="38" t="s">
         <v>176</v>
       </c>
       <c r="AS65" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT65" s="48" t="s">
         <v>94</v>
@@ -7983,16 +7983,16 @@
     </row>
     <row r="66" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI66" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ66" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK66" s="38" t="s">
         <v>177</v>
       </c>
       <c r="AL66" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM66" s="48" t="s">
         <v>93</v>
@@ -8001,16 +8001,16 @@
         <v>2.5925256698099051E-3</v>
       </c>
       <c r="AP66" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ66" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR66" s="38" t="s">
         <v>177</v>
       </c>
       <c r="AS66" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT66" s="48" t="s">
         <v>94</v>
@@ -8021,16 +8021,16 @@
     </row>
     <row r="67" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI67" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ67" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK67" s="38" t="s">
         <v>178</v>
       </c>
       <c r="AL67" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM67" s="48" t="s">
         <v>93</v>
@@ -8039,16 +8039,16 @@
         <v>2.9724559200622644E-3</v>
       </c>
       <c r="AP67" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ67" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR67" s="38" t="s">
         <v>178</v>
       </c>
       <c r="AS67" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT67" s="48" t="s">
         <v>94</v>
@@ -8059,16 +8059,16 @@
     </row>
     <row r="68" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI68" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AJ68" s="39" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AK68" s="38" t="s">
         <v>179</v>
       </c>
       <c r="AL68" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AM68" s="48" t="s">
         <v>93</v>
@@ -8077,16 +8077,16 @@
         <v>3.3823091606694387E-3</v>
       </c>
       <c r="AP68" s="38" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="AQ68" s="39" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="AR68" s="38" t="s">
         <v>179</v>
       </c>
       <c r="AS68" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AT68" s="48" t="s">
         <v>94</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0BD18C-1713-4515-81EA-41B88FD7BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CCC7E5-E0EC-4EDB-85B5-FE26D96F2C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="217">
   <si>
     <t>~FI_T</t>
   </si>
@@ -3313,7 +3313,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="D15" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
       <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
@@ -4463,10 +4463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AU144"/>
+  <dimension ref="B1:AW144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG61" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AP21" sqref="AP21:AP68"/>
+    <sheetView tabSelected="1" topLeftCell="AH50" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AR21" sqref="AR21:AR68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4494,11 +4494,11 @@
     <col min="28" max="28" width="13.453125" style="48" customWidth="1"/>
     <col min="29" max="29" width="13.81640625" style="48" customWidth="1"/>
     <col min="30" max="30" width="8.453125" style="48" customWidth="1"/>
-    <col min="31" max="35" width="8.81640625" style="48"/>
-    <col min="36" max="36" width="12.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="8.81640625" style="48"/>
-    <col min="40" max="40" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.81640625" style="48"/>
+    <col min="31" max="36" width="8.81640625" style="48"/>
+    <col min="37" max="37" width="12.453125" style="48" bestFit="1" customWidth="1"/>
+    <col min="38" max="40" width="8.81640625" style="48"/>
+    <col min="41" max="41" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.81640625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="14.5" x14ac:dyDescent="0.35">
@@ -4808,7 +4808,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:49" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4891,20 +4891,22 @@
       <c r="AI17" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="63"/>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="38"/>
       <c r="AL17" s="63"/>
       <c r="AM17" s="63"/>
-      <c r="AN17" s="38"/>
-      <c r="AP17" s="63" t="s">
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="38"/>
+      <c r="AQ17" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="AQ17" s="38"/>
       <c r="AR17" s="63"/>
-      <c r="AS17" s="63"/>
+      <c r="AS17" s="38"/>
       <c r="AT17" s="63"/>
-    </row>
-    <row r="18" spans="2:47" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+    </row>
+    <row r="18" spans="2:49" ht="31" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4988,40 +4990,46 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK18" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="AK18" s="64" t="s">
+      <c r="AL18" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="AL18" s="64" t="s">
+      <c r="AM18" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AM18" s="64" t="s">
+      <c r="AN18" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="AN18" s="64" t="s">
+      <c r="AO18" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="AP18" s="64" t="s">
+      <c r="AQ18" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="AQ18" s="64" t="s">
+      <c r="AR18" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS18" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="AR18" s="64" t="s">
+      <c r="AT18" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="AS18" s="64" t="s">
+      <c r="AU18" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AT18" s="64" t="s">
+      <c r="AV18" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="AU18" s="64" t="s">
+      <c r="AW18" s="64" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:49" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -5064,25 +5072,27 @@
       <c r="AI19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AJ19" s="44" t="s">
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="AK19" s="44"/>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
-      <c r="AP19" s="44" t="s">
+      <c r="AO19" s="44"/>
+      <c r="AQ19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AQ19" s="44" t="s">
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
       <c r="AT19" s="44"/>
       <c r="AU19" s="44"/>
-    </row>
-    <row r="20" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+    </row>
+    <row r="20" spans="2:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="str">
         <f>X20</f>
         <v>Furnace</v>
@@ -5150,24 +5160,26 @@
         <v>53</v>
       </c>
       <c r="AJ20" s="45"/>
-      <c r="AK20" s="45" t="s">
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="AL20" s="45"/>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45"/>
-      <c r="AP20" s="45" t="s">
+      <c r="AO20" s="45"/>
+      <c r="AQ20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45" t="s">
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="44"/>
-    </row>
-    <row r="21" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="44"/>
+    </row>
+    <row r="21" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="str">
         <f>X$21</f>
         <v>BIOBoiler</v>
@@ -5235,41 +5247,47 @@
       <c r="AI21" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ21" s="39" t="s">
+      <c r="AJ21" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK21" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK21" s="48" t="s">
+      <c r="AL21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AL21" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM21" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN21" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN21" s="48">
+      <c r="AO21" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AP21" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ21" s="39" t="s">
+      <c r="AQ21" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR21" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS21" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR21" s="48" t="s">
+      <c r="AT21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AS21" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT21" s="48" t="s">
+      <c r="AU21" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV21" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU21" s="48">
+      <c r="AW21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="str">
         <f>X24</f>
         <v>ELCBoiler</v>
@@ -5336,41 +5354,47 @@
       <c r="AI22" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ22" s="39" t="s">
+      <c r="AJ22" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK22" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK22" s="69" t="s">
+      <c r="AL22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AL22" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM22" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN22" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN22" s="48">
+      <c r="AO22" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AP22" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ22" s="39" t="s">
+      <c r="AQ22" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR22" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS22" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR22" s="69" t="s">
+      <c r="AT22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AS22" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT22" s="48" t="s">
+      <c r="AU22" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV22" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU22" s="48">
+      <c r="AW22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="48" t="str">
         <f>X22</f>
         <v>BIOKiln</v>
@@ -5435,41 +5459,47 @@
       <c r="AI23" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ23" s="39" t="s">
+      <c r="AJ23" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK23" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK23" s="48" t="s">
+      <c r="AL23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AL23" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM23" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN23" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN23" s="48">
+      <c r="AO23" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AP23" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ23" s="39" t="s">
+      <c r="AQ23" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR23" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS23" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR23" s="48" t="s">
+      <c r="AT23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AS23" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT23" s="48" t="s">
+      <c r="AU23" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV23" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU23" s="49">
+      <c r="AW23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5534,41 +5564,47 @@
       <c r="AI24" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ24" s="39" t="s">
+      <c r="AJ24" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK24" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK24" s="69" t="s">
+      <c r="AL24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AL24" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM24" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN24" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN24" s="48">
+      <c r="AO24" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AP24" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ24" s="39" t="s">
+      <c r="AQ24" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR24" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS24" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR24" s="69" t="s">
+      <c r="AT24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AS24" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT24" s="48" t="s">
+      <c r="AU24" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV24" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU24" s="49">
+      <c r="AW24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="str">
         <f>X26</f>
         <v>WNDTRBN</v>
@@ -5639,41 +5675,47 @@
       <c r="AI25" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ25" s="39" t="s">
+      <c r="AJ25" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK25" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK25" s="48" t="s">
+      <c r="AL25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AL25" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM25" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN25" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN25" s="48">
+      <c r="AO25" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AP25" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ25" s="39" t="s">
+      <c r="AQ25" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR25" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS25" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR25" s="48" t="s">
+      <c r="AT25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AS25" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT25" s="48" t="s">
+      <c r="AU25" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV25" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU25" s="49">
+      <c r="AW25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="str">
         <f>X27</f>
         <v>SOLPV</v>
@@ -5744,41 +5786,47 @@
       <c r="AI26" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ26" s="39" t="s">
+      <c r="AJ26" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK26" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK26" s="69" t="s">
+      <c r="AL26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AL26" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN26" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN26" s="48">
+      <c r="AO26" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AP26" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ26" s="39" t="s">
+      <c r="AQ26" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR26" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS26" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR26" s="69" t="s">
+      <c r="AT26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AS26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT26" s="48" t="s">
+      <c r="AU26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV26" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU26" s="49">
+      <c r="AW26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="str">
         <f>X25</f>
         <v>CSP</v>
@@ -5850,41 +5898,47 @@
       <c r="AI27" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ27" s="39" t="s">
+      <c r="AJ27" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK27" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK27" s="48" t="s">
+      <c r="AL27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AL27" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM27" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN27" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN27" s="48">
+      <c r="AO27" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AP27" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ27" s="39" t="s">
+      <c r="AQ27" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR27" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS27" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR27" s="48" t="s">
+      <c r="AT27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AS27" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT27" s="48" t="s">
+      <c r="AU27" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV27" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU27" s="49">
+      <c r="AW27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5957,41 +6011,47 @@
       <c r="AI28" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ28" s="39" t="s">
+      <c r="AJ28" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK28" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK28" s="69" t="s">
+      <c r="AL28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AL28" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM28" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN28" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN28" s="48">
+      <c r="AO28" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AP28" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ28" s="39" t="s">
+      <c r="AQ28" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR28" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS28" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR28" s="69" t="s">
+      <c r="AT28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AS28" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT28" s="48" t="s">
+      <c r="AU28" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV28" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU28" s="49">
+      <c r="AW28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6061,41 +6121,47 @@
       <c r="AI29" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ29" s="39" t="s">
+      <c r="AJ29" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK29" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK29" s="48" t="s">
+      <c r="AL29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AL29" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM29" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN29" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN29" s="48">
+      <c r="AO29" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AP29" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ29" s="39" t="s">
+      <c r="AQ29" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR29" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS29" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR29" s="48" t="s">
+      <c r="AT29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AS29" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT29" s="48" t="s">
+      <c r="AU29" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV29" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU29" s="49">
+      <c r="AW29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6156,41 +6222,47 @@
       <c r="AI30" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ30" s="39" t="s">
+      <c r="AJ30" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK30" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK30" s="69" t="s">
+      <c r="AL30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AL30" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM30" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN30" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN30" s="48">
+      <c r="AO30" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AP30" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ30" s="39" t="s">
+      <c r="AQ30" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR30" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS30" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR30" s="69" t="s">
+      <c r="AT30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AS30" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT30" s="48" t="s">
+      <c r="AU30" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV30" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU30" s="49">
+      <c r="AW30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -6236,41 +6308,47 @@
       <c r="AI31" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ31" s="39" t="s">
+      <c r="AJ31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK31" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK31" s="48" t="s">
+      <c r="AL31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AL31" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM31" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN31" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN31" s="48">
+      <c r="AO31" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AP31" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ31" s="39" t="s">
+      <c r="AQ31" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS31" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR31" s="48" t="s">
+      <c r="AT31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AS31" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT31" s="48" t="s">
+      <c r="AU31" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV31" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU31" s="49">
+      <c r="AW31" s="49">
         <v>0.27468446594982077</v>
       </c>
     </row>
-    <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53" t="s">
         <v>214</v>
       </c>
@@ -6312,41 +6390,47 @@
       <c r="AI32" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ32" s="39" t="s">
+      <c r="AJ32" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK32" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK32" s="69" t="s">
+      <c r="AL32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AL32" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM32" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN32" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN32" s="48">
+      <c r="AO32" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AP32" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ32" s="39" t="s">
+      <c r="AQ32" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR32" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS32" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR32" s="69" t="s">
+      <c r="AT32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AS32" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT32" s="48" t="s">
+      <c r="AU32" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV32" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU32" s="49">
+      <c r="AW32" s="49">
         <v>0.32637437275985665</v>
       </c>
     </row>
-    <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53" t="s">
         <v>214</v>
       </c>
@@ -6388,41 +6472,47 @@
       <c r="AI33" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ33" s="39" t="s">
+      <c r="AJ33" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK33" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK33" s="48" t="s">
+      <c r="AL33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AL33" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM33" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN33" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN33" s="48">
+      <c r="AO33" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AP33" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ33" s="39" t="s">
+      <c r="AQ33" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR33" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS33" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR33" s="48" t="s">
+      <c r="AT33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AS33" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT33" s="48" t="s">
+      <c r="AU33" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV33" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU33" s="49">
+      <c r="AW33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -6441,41 +6531,47 @@
       <c r="AI34" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ34" s="39" t="s">
+      <c r="AJ34" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK34" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK34" s="69" t="s">
+      <c r="AL34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AL34" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM34" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN34" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN34" s="48">
+      <c r="AO34" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AP34" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ34" s="39" t="s">
+      <c r="AQ34" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR34" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS34" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR34" s="69" t="s">
+      <c r="AT34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AS34" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT34" s="48" t="s">
+      <c r="AU34" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV34" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU34" s="49">
+      <c r="AW34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -6495,41 +6591,47 @@
       <c r="AI35" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ35" s="39" t="s">
+      <c r="AJ35" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK35" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK35" s="48" t="s">
+      <c r="AL35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AL35" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM35" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN35" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN35" s="48">
+      <c r="AO35" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AP35" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ35" s="39" t="s">
+      <c r="AQ35" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR35" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS35" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR35" s="48" t="s">
+      <c r="AT35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AS35" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT35" s="48" t="s">
+      <c r="AU35" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV35" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU35" s="49">
+      <c r="AW35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -6552,41 +6654,47 @@
       <c r="AI36" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ36" s="39" t="s">
+      <c r="AJ36" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK36" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK36" s="69" t="s">
+      <c r="AL36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AL36" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM36" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN36" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN36" s="48">
+      <c r="AO36" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AP36" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ36" s="39" t="s">
+      <c r="AQ36" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR36" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS36" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR36" s="69" t="s">
+      <c r="AT36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AS36" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT36" s="48" t="s">
+      <c r="AU36" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV36" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU36" s="49">
+      <c r="AW36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -6609,41 +6717,47 @@
       <c r="AI37" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ37" s="39" t="s">
+      <c r="AJ37" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK37" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK37" s="48" t="s">
+      <c r="AL37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AL37" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM37" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN37" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN37" s="48">
+      <c r="AO37" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AP37" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ37" s="39" t="s">
+      <c r="AQ37" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR37" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS37" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR37" s="48" t="s">
+      <c r="AT37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AS37" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT37" s="48" t="s">
+      <c r="AU37" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV37" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU37" s="49">
+      <c r="AW37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:49" x14ac:dyDescent="0.25">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
@@ -6654,80 +6768,92 @@
       <c r="AI38" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ38" s="39" t="s">
+      <c r="AJ38" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK38" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK38" s="69" t="s">
+      <c r="AL38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AL38" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM38" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN38" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN38" s="48">
+      <c r="AO38" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AP38" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ38" s="39" t="s">
+      <c r="AQ38" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR38" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS38" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR38" s="69" t="s">
+      <c r="AT38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AS38" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT38" s="48" t="s">
+      <c r="AU38" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV38" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU38" s="48">
+      <c r="AW38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:49" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ39" s="39" t="s">
+      <c r="AJ39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK39" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK39" s="48" t="s">
+      <c r="AL39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AL39" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM39" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN39" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN39" s="48">
+      <c r="AO39" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AP39" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ39" s="39" t="s">
+      <c r="AQ39" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS39" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR39" s="48" t="s">
+      <c r="AT39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AS39" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT39" s="48" t="s">
+      <c r="AU39" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV39" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU39" s="48">
+      <c r="AW39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
@@ -6736,41 +6862,47 @@
       <c r="AI40" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ40" s="39" t="s">
+      <c r="AJ40" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK40" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK40" s="69" t="s">
+      <c r="AL40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AL40" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM40" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN40" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN40" s="48">
+      <c r="AO40" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AP40" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ40" s="39" t="s">
+      <c r="AQ40" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR40" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS40" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR40" s="69" t="s">
+      <c r="AT40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AS40" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT40" s="48" t="s">
+      <c r="AU40" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV40" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU40" s="48">
+      <c r="AW40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
@@ -6779,41 +6911,47 @@
       <c r="AI41" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ41" s="39" t="s">
+      <c r="AJ41" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK41" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK41" s="48" t="s">
+      <c r="AL41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AL41" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM41" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN41" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN41" s="48">
+      <c r="AO41" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AP41" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ41" s="39" t="s">
+      <c r="AQ41" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR41" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS41" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR41" s="48" t="s">
+      <c r="AT41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AS41" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT41" s="48" t="s">
+      <c r="AU41" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV41" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU41" s="48">
+      <c r="AW41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -6824,79 +6962,91 @@
       <c r="AI42" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ42" s="39" t="s">
+      <c r="AJ42" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK42" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK42" s="69" t="s">
+      <c r="AL42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AL42" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM42" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN42" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN42" s="48">
+      <c r="AO42" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AP42" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ42" s="39" t="s">
+      <c r="AQ42" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR42" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS42" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR42" s="69" t="s">
+      <c r="AT42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AS42" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT42" s="48" t="s">
+      <c r="AU42" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV42" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU42" s="48">
+      <c r="AW42" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI43" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ43" s="39" t="s">
+      <c r="AJ43" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK43" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK43" s="48" t="s">
+      <c r="AL43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AL43" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM43" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN43" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN43" s="48">
+      <c r="AO43" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AP43" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ43" s="39" t="s">
+      <c r="AQ43" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR43" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS43" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR43" s="48" t="s">
+      <c r="AT43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AS43" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT43" s="48" t="s">
+      <c r="AU43" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV43" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU43" s="48">
+      <c r="AW43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -6907,308 +7057,356 @@
       <c r="AI44" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ44" s="39" t="s">
+      <c r="AJ44" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK44" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK44" s="69" t="s">
+      <c r="AL44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AL44" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM44" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN44" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN44" s="48">
+      <c r="AO44" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AP44" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ44" s="39" t="s">
+      <c r="AQ44" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR44" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS44" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR44" s="69" t="s">
+      <c r="AT44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AS44" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT44" s="48" t="s">
+      <c r="AU44" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV44" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU44" s="48">
+      <c r="AW44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ45" s="39" t="s">
+      <c r="AJ45" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK45" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK45" s="38" t="s">
+      <c r="AL45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AL45" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM45" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN45" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN45" s="48">
+      <c r="AO45" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AP45" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ45" s="39" t="s">
+      <c r="AQ45" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR45" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS45" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR45" s="38" t="s">
+      <c r="AT45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AS45" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT45" s="48" t="s">
+      <c r="AU45" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV45" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU45" s="48">
+      <c r="AW45" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI46" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ46" s="39" t="s">
+      <c r="AJ46" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK46" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK46" s="38" t="s">
+      <c r="AL46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AL46" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM46" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN46" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN46" s="48">
+      <c r="AO46" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AP46" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ46" s="39" t="s">
+      <c r="AQ46" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR46" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS46" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR46" s="38" t="s">
+      <c r="AT46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AS46" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT46" s="48" t="s">
+      <c r="AU46" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV46" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU46" s="48">
+      <c r="AW46" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI47" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ47" s="39" t="s">
+      <c r="AJ47" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK47" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK47" s="38" t="s">
+      <c r="AL47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AL47" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM47" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN47" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN47" s="48">
+      <c r="AO47" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AP47" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ47" s="39" t="s">
+      <c r="AQ47" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR47" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS47" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR47" s="38" t="s">
+      <c r="AT47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AS47" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT47" s="48" t="s">
+      <c r="AU47" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV47" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU47" s="48">
+      <c r="AW47" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI48" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ48" s="39" t="s">
+      <c r="AJ48" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK48" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK48" s="38" t="s">
+      <c r="AL48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AL48" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM48" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN48" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN48" s="48">
+      <c r="AO48" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AP48" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ48" s="39" t="s">
+      <c r="AQ48" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR48" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS48" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR48" s="38" t="s">
+      <c r="AT48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AS48" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT48" s="48" t="s">
+      <c r="AU48" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV48" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU48" s="48">
+      <c r="AW48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI49" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ49" s="39" t="s">
+      <c r="AJ49" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK49" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK49" s="38" t="s">
+      <c r="AL49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AL49" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM49" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN49" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN49" s="48">
+      <c r="AO49" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AP49" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ49" s="39" t="s">
+      <c r="AQ49" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR49" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS49" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR49" s="38" t="s">
+      <c r="AT49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AS49" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT49" s="48" t="s">
+      <c r="AU49" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV49" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU49" s="48">
+      <c r="AW49" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI50" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ50" s="39" t="s">
+      <c r="AJ50" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK50" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK50" s="38" t="s">
+      <c r="AL50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AL50" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM50" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN50" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN50" s="48">
+      <c r="AO50" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AP50" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ50" s="39" t="s">
+      <c r="AQ50" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR50" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS50" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR50" s="38" t="s">
+      <c r="AT50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AS50" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT50" s="48" t="s">
+      <c r="AU50" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV50" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU50" s="48">
+      <c r="AW50" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI51" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ51" s="39" t="s">
+      <c r="AJ51" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK51" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK51" s="38" t="s">
+      <c r="AL51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AL51" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM51" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN51" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN51" s="48">
+      <c r="AO51" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AP51" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ51" s="39" t="s">
+      <c r="AQ51" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR51" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS51" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR51" s="38" t="s">
+      <c r="AT51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AS51" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT51" s="48" t="s">
+      <c r="AU51" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV51" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU51" s="48">
+      <c r="AW51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="79" t="s">
         <v>184</v>
       </c>
@@ -7225,41 +7423,47 @@
       <c r="AI52" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ52" s="39" t="s">
+      <c r="AJ52" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK52" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK52" s="38" t="s">
+      <c r="AL52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AL52" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM52" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN52" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN52" s="48">
+      <c r="AO52" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AP52" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ52" s="39" t="s">
+      <c r="AQ52" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR52" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS52" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR52" s="38" t="s">
+      <c r="AT52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AS52" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT52" s="48" t="s">
+      <c r="AU52" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV52" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU52" s="48">
+      <c r="AW52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
       <c r="D53"/>
@@ -7274,41 +7478,47 @@
       <c r="AI53" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ53" s="39" t="s">
+      <c r="AJ53" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK53" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK53" s="38" t="s">
+      <c r="AL53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AL53" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM53" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN53" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN53" s="48">
+      <c r="AO53" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AP53" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ53" s="39" t="s">
+      <c r="AQ53" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR53" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS53" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR53" s="38" t="s">
+      <c r="AT53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AS53" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT53" s="48" t="s">
+      <c r="AU53" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV53" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU53" s="48">
+      <c r="AW53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:47" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:49" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="80" t="s">
         <v>185</v>
       </c>
@@ -7345,41 +7555,47 @@
       <c r="AI54" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ54" s="39" t="s">
+      <c r="AJ54" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK54" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK54" s="38" t="s">
+      <c r="AL54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AL54" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM54" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN54" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN54" s="48">
+      <c r="AO54" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AP54" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ54" s="39" t="s">
+      <c r="AQ54" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR54" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS54" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR54" s="38" t="s">
+      <c r="AT54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AS54" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT54" s="48" t="s">
+      <c r="AU54" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV54" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU54" s="48">
+      <c r="AW54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -7406,41 +7622,47 @@
       <c r="AI55" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ55" s="39" t="s">
+      <c r="AJ55" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK55" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK55" s="38" t="s">
+      <c r="AL55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AL55" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM55" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN55" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN55" s="48">
+      <c r="AO55" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AP55" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ55" s="39" t="s">
+      <c r="AQ55" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR55" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS55" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR55" s="38" t="s">
+      <c r="AT55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AS55" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT55" s="48" t="s">
+      <c r="AU55" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV55" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU55" s="48">
+      <c r="AW55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -7467,41 +7689,47 @@
       <c r="AI56" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ56" s="39" t="s">
+      <c r="AJ56" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK56" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK56" s="38" t="s">
+      <c r="AL56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AL56" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM56" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN56" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN56" s="48">
+      <c r="AO56" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AP56" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ56" s="39" t="s">
+      <c r="AQ56" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR56" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS56" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR56" s="38" t="s">
+      <c r="AT56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AS56" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT56" s="48" t="s">
+      <c r="AU56" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV56" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU56" s="48">
+      <c r="AW56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -7528,41 +7756,47 @@
       <c r="AI57" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ57" s="39" t="s">
+      <c r="AJ57" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK57" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK57" s="38" t="s">
+      <c r="AL57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AL57" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM57" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN57" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN57" s="48">
+      <c r="AO57" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AP57" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ57" s="39" t="s">
+      <c r="AQ57" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR57" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS57" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR57" s="38" t="s">
+      <c r="AT57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AS57" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT57" s="48" t="s">
+      <c r="AU57" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV57" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU57" s="48">
+      <c r="AW57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -7589,41 +7823,47 @@
       <c r="AI58" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ58" s="39" t="s">
+      <c r="AJ58" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK58" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK58" s="38" t="s">
+      <c r="AL58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AL58" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM58" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN58" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN58" s="48">
+      <c r="AO58" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AP58" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ58" s="39" t="s">
+      <c r="AQ58" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR58" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS58" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR58" s="38" t="s">
+      <c r="AT58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AS58" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT58" s="48" t="s">
+      <c r="AU58" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV58" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU58" s="48">
+      <c r="AW58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -7650,41 +7890,47 @@
       <c r="AI59" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ59" s="39" t="s">
+      <c r="AJ59" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK59" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK59" s="38" t="s">
+      <c r="AL59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AL59" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM59" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN59" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN59" s="48">
+      <c r="AO59" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AP59" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ59" s="39" t="s">
+      <c r="AQ59" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR59" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS59" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR59" s="38" t="s">
+      <c r="AT59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AS59" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT59" s="48" t="s">
+      <c r="AU59" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV59" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU59" s="48">
+      <c r="AW59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -7711,41 +7957,47 @@
       <c r="AI60" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ60" s="39" t="s">
+      <c r="AJ60" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK60" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK60" s="38" t="s">
+      <c r="AL60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AL60" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM60" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN60" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN60" s="48">
+      <c r="AO60" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AP60" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ60" s="39" t="s">
+      <c r="AQ60" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR60" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS60" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR60" s="38" t="s">
+      <c r="AT60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AS60" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT60" s="48" t="s">
+      <c r="AU60" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV60" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU60" s="48">
+      <c r="AW60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -7772,41 +8024,47 @@
       <c r="AI61" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ61" s="39" t="s">
+      <c r="AJ61" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK61" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK61" s="38" t="s">
+      <c r="AL61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AL61" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM61" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN61" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN61" s="48">
+      <c r="AO61" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AP61" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ61" s="39" t="s">
+      <c r="AQ61" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR61" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS61" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR61" s="38" t="s">
+      <c r="AT61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AS61" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT61" s="48" t="s">
+      <c r="AU61" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV61" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU61" s="48">
+      <c r="AW61" s="48">
         <v>0.13618056033452808</v>
       </c>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>121</v>
       </c>
@@ -7833,571 +8091,689 @@
       <c r="AI62" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ62" s="39" t="s">
+      <c r="AJ62" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK62" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK62" s="38" t="s">
+      <c r="AL62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AL62" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM62" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN62" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN62" s="48">
+      <c r="AO62" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AP62" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ62" s="39" t="s">
+      <c r="AQ62" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR62" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS62" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR62" s="38" t="s">
+      <c r="AT62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AS62" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT62" s="48" t="s">
+      <c r="AU62" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV62" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU62" s="48">
+      <c r="AW62" s="48">
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI63" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ63" s="39" t="s">
+      <c r="AJ63" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK63" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK63" s="38" t="s">
+      <c r="AL63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AL63" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM63" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN63" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN63" s="48">
+      <c r="AO63" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AP63" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ63" s="39" t="s">
+      <c r="AQ63" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR63" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS63" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR63" s="38" t="s">
+      <c r="AT63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AS63" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT63" s="48" t="s">
+      <c r="AU63" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV63" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU63" s="48">
+      <c r="AW63" s="48">
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI64" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ64" s="39" t="s">
+      <c r="AJ64" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK64" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK64" s="38" t="s">
+      <c r="AL64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AL64" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM64" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN64" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN64" s="48">
+      <c r="AO64" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AP64" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ64" s="39" t="s">
+      <c r="AQ64" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR64" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS64" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR64" s="38" t="s">
+      <c r="AT64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AS64" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT64" s="48" t="s">
+      <c r="AU64" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV64" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU64" s="48">
+      <c r="AW64" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI65" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ65" s="39" t="s">
+      <c r="AJ65" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK65" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK65" s="38" t="s">
+      <c r="AL65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AL65" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM65" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN65" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN65" s="48">
+      <c r="AO65" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AP65" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ65" s="39" t="s">
+      <c r="AQ65" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR65" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS65" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR65" s="38" t="s">
+      <c r="AT65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AS65" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT65" s="48" t="s">
+      <c r="AU65" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV65" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU65" s="48">
+      <c r="AW65" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI66" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ66" s="39" t="s">
+      <c r="AJ66" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK66" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK66" s="38" t="s">
+      <c r="AL66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AL66" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM66" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN66" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN66" s="48">
+      <c r="AO66" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AP66" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ66" s="39" t="s">
+      <c r="AQ66" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR66" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS66" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR66" s="38" t="s">
+      <c r="AT66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AS66" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT66" s="48" t="s">
+      <c r="AU66" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV66" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU66" s="48">
+      <c r="AW66" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI67" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ67" s="39" t="s">
+      <c r="AJ67" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK67" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK67" s="38" t="s">
+      <c r="AL67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AL67" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM67" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN67" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN67" s="48">
+      <c r="AO67" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AP67" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ67" s="39" t="s">
+      <c r="AQ67" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR67" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS67" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR67" s="38" t="s">
+      <c r="AT67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AS67" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT67" s="48" t="s">
+      <c r="AU67" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV67" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU67" s="48">
+      <c r="AW67" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI68" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ68" s="39" t="s">
+      <c r="AJ68" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK68" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AK68" s="38" t="s">
+      <c r="AL68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AL68" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM68" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN68" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN68" s="48">
+      <c r="AO68" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AP68" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ68" s="39" t="s">
+      <c r="AQ68" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AR68" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS68" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AR68" s="38" t="s">
+      <c r="AT68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AS68" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT68" s="48" t="s">
+      <c r="AU68" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV68" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU68" s="48">
+      <c r="AW68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI69" s="38"/>
-      <c r="AJ69" s="53"/>
-    </row>
-    <row r="70" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="38"/>
+      <c r="AK69" s="53"/>
+    </row>
+    <row r="70" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI70" s="38"/>
-      <c r="AJ70" s="53"/>
-    </row>
-    <row r="71" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="38"/>
+      <c r="AK70" s="53"/>
+    </row>
+    <row r="71" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI71" s="38"/>
-      <c r="AJ71" s="53"/>
-    </row>
-    <row r="72" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="38"/>
+      <c r="AK71" s="53"/>
+    </row>
+    <row r="72" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI72" s="38"/>
-      <c r="AJ72" s="53"/>
-    </row>
-    <row r="73" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="53"/>
+    </row>
+    <row r="73" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI73" s="38"/>
-      <c r="AJ73" s="53"/>
-    </row>
-    <row r="74" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="38"/>
+      <c r="AK73" s="53"/>
+    </row>
+    <row r="74" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI74" s="38"/>
-      <c r="AJ74" s="53"/>
-    </row>
-    <row r="75" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="38"/>
+      <c r="AK74" s="53"/>
+    </row>
+    <row r="75" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI75" s="38"/>
-      <c r="AJ75" s="53"/>
-    </row>
-    <row r="76" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="38"/>
+      <c r="AK75" s="53"/>
+    </row>
+    <row r="76" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI76" s="38"/>
-      <c r="AJ76" s="53"/>
-    </row>
-    <row r="77" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="38"/>
+      <c r="AK76" s="53"/>
+    </row>
+    <row r="77" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI77" s="38"/>
-      <c r="AJ77" s="53"/>
-    </row>
-    <row r="78" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="38"/>
+      <c r="AK77" s="53"/>
+    </row>
+    <row r="78" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI78" s="38"/>
-      <c r="AJ78" s="53"/>
-    </row>
-    <row r="79" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="38"/>
+      <c r="AK78" s="53"/>
+    </row>
+    <row r="79" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI79" s="38"/>
-      <c r="AJ79" s="53"/>
-    </row>
-    <row r="80" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="38"/>
+      <c r="AK79" s="53"/>
+    </row>
+    <row r="80" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI80" s="38"/>
-      <c r="AJ80" s="53"/>
-    </row>
-    <row r="81" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="38"/>
+      <c r="AK80" s="53"/>
+    </row>
+    <row r="81" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI81" s="38"/>
-      <c r="AJ81" s="53"/>
-    </row>
-    <row r="82" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="38"/>
+      <c r="AK81" s="53"/>
+    </row>
+    <row r="82" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI82" s="38"/>
-      <c r="AJ82" s="53"/>
-    </row>
-    <row r="83" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="38"/>
+      <c r="AK82" s="53"/>
+    </row>
+    <row r="83" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI83" s="38"/>
-      <c r="AJ83" s="53"/>
-    </row>
-    <row r="84" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="38"/>
+      <c r="AK83" s="53"/>
+    </row>
+    <row r="84" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI84" s="38"/>
-      <c r="AJ84" s="53"/>
-    </row>
-    <row r="85" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="38"/>
+      <c r="AK84" s="53"/>
+    </row>
+    <row r="85" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI85" s="38"/>
-      <c r="AJ85" s="53"/>
-    </row>
-    <row r="86" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="38"/>
+      <c r="AK85" s="53"/>
+    </row>
+    <row r="86" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI86" s="38"/>
-      <c r="AJ86" s="53"/>
-    </row>
-    <row r="87" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="38"/>
+      <c r="AK86" s="53"/>
+    </row>
+    <row r="87" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI87" s="38"/>
-      <c r="AJ87" s="53"/>
-    </row>
-    <row r="88" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="38"/>
+      <c r="AK87" s="53"/>
+    </row>
+    <row r="88" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI88" s="38"/>
-      <c r="AJ88" s="53"/>
-    </row>
-    <row r="89" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="53"/>
+    </row>
+    <row r="89" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI89" s="38"/>
-      <c r="AJ89" s="53"/>
-    </row>
-    <row r="90" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="38"/>
+      <c r="AK89" s="53"/>
+    </row>
+    <row r="90" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI90" s="38"/>
-      <c r="AJ90" s="53"/>
-    </row>
-    <row r="91" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="38"/>
+      <c r="AK90" s="53"/>
+    </row>
+    <row r="91" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI91" s="38"/>
-      <c r="AJ91" s="53"/>
-    </row>
-    <row r="92" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="38"/>
+      <c r="AK91" s="53"/>
+    </row>
+    <row r="92" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI92" s="38"/>
-      <c r="AJ92" s="53"/>
-    </row>
-    <row r="93" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="38"/>
+      <c r="AK92" s="53"/>
+    </row>
+    <row r="93" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI93" s="38"/>
-      <c r="AJ93" s="53"/>
-    </row>
-    <row r="94" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="38"/>
+      <c r="AK93" s="53"/>
+    </row>
+    <row r="94" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI94" s="38"/>
-      <c r="AJ94" s="53"/>
-    </row>
-    <row r="95" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="38"/>
+      <c r="AK94" s="53"/>
+    </row>
+    <row r="95" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI95" s="38"/>
-      <c r="AJ95" s="53"/>
-    </row>
-    <row r="96" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="38"/>
+      <c r="AK95" s="53"/>
+    </row>
+    <row r="96" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI96" s="38"/>
-      <c r="AJ96" s="53"/>
-    </row>
-    <row r="97" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="38"/>
+      <c r="AK96" s="53"/>
+    </row>
+    <row r="97" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI97" s="38"/>
-      <c r="AJ97" s="53"/>
-    </row>
-    <row r="98" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="38"/>
+      <c r="AK97" s="53"/>
+    </row>
+    <row r="98" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI98" s="38"/>
-      <c r="AJ98" s="53"/>
-    </row>
-    <row r="99" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="38"/>
+      <c r="AK98" s="53"/>
+    </row>
+    <row r="99" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI99" s="38"/>
-      <c r="AJ99" s="53"/>
-    </row>
-    <row r="100" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="38"/>
+      <c r="AK99" s="53"/>
+    </row>
+    <row r="100" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI100" s="38"/>
-      <c r="AJ100" s="53"/>
-    </row>
-    <row r="101" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="38"/>
+      <c r="AK100" s="53"/>
+    </row>
+    <row r="101" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI101" s="38"/>
-      <c r="AJ101" s="53"/>
-    </row>
-    <row r="102" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ101" s="38"/>
+      <c r="AK101" s="53"/>
+    </row>
+    <row r="102" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI102" s="38"/>
-      <c r="AJ102" s="53"/>
-    </row>
-    <row r="103" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ102" s="38"/>
+      <c r="AK102" s="53"/>
+    </row>
+    <row r="103" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI103" s="38"/>
-      <c r="AJ103" s="53"/>
-    </row>
-    <row r="104" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ103" s="38"/>
+      <c r="AK103" s="53"/>
+    </row>
+    <row r="104" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI104" s="38"/>
-      <c r="AJ104" s="53"/>
-    </row>
-    <row r="105" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ104" s="38"/>
+      <c r="AK104" s="53"/>
+    </row>
+    <row r="105" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI105" s="38"/>
-      <c r="AJ105" s="53"/>
-    </row>
-    <row r="106" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ105" s="38"/>
+      <c r="AK105" s="53"/>
+    </row>
+    <row r="106" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI106" s="38"/>
-      <c r="AJ106" s="53"/>
-    </row>
-    <row r="107" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ106" s="38"/>
+      <c r="AK106" s="53"/>
+    </row>
+    <row r="107" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI107" s="38"/>
-      <c r="AJ107" s="53"/>
-    </row>
-    <row r="108" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ107" s="38"/>
+      <c r="AK107" s="53"/>
+    </row>
+    <row r="108" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI108" s="38"/>
-      <c r="AJ108" s="53"/>
-    </row>
-    <row r="109" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ108" s="38"/>
+      <c r="AK108" s="53"/>
+    </row>
+    <row r="109" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI109" s="38"/>
-      <c r="AJ109" s="53"/>
-    </row>
-    <row r="110" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ109" s="38"/>
+      <c r="AK109" s="53"/>
+    </row>
+    <row r="110" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI110" s="38"/>
-      <c r="AJ110" s="53"/>
-    </row>
-    <row r="111" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ110" s="38"/>
+      <c r="AK110" s="53"/>
+    </row>
+    <row r="111" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI111" s="38"/>
-      <c r="AJ111" s="53"/>
-    </row>
-    <row r="112" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ111" s="38"/>
+      <c r="AK111" s="53"/>
+    </row>
+    <row r="112" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI112" s="38"/>
-      <c r="AJ112" s="53"/>
-    </row>
-    <row r="113" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ112" s="38"/>
+      <c r="AK112" s="53"/>
+    </row>
+    <row r="113" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI113" s="38"/>
-      <c r="AJ113" s="53"/>
-    </row>
-    <row r="114" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ113" s="38"/>
+      <c r="AK113" s="53"/>
+    </row>
+    <row r="114" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI114" s="38"/>
-      <c r="AJ114" s="53"/>
-    </row>
-    <row r="115" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ114" s="38"/>
+      <c r="AK114" s="53"/>
+    </row>
+    <row r="115" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI115" s="38"/>
-      <c r="AJ115" s="53"/>
-    </row>
-    <row r="116" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ115" s="38"/>
+      <c r="AK115" s="53"/>
+    </row>
+    <row r="116" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI116" s="38"/>
-      <c r="AJ116" s="53"/>
-    </row>
-    <row r="117" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ116" s="38"/>
+      <c r="AK116" s="53"/>
+    </row>
+    <row r="117" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI117" s="38"/>
-      <c r="AJ117" s="53"/>
-    </row>
-    <row r="118" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ117" s="38"/>
+      <c r="AK117" s="53"/>
+    </row>
+    <row r="118" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI118" s="38"/>
-      <c r="AJ118" s="53"/>
-    </row>
-    <row r="119" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ118" s="38"/>
+      <c r="AK118" s="53"/>
+    </row>
+    <row r="119" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI119" s="38"/>
-      <c r="AJ119" s="53"/>
-    </row>
-    <row r="120" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ119" s="38"/>
+      <c r="AK119" s="53"/>
+    </row>
+    <row r="120" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI120" s="38"/>
-      <c r="AJ120" s="53"/>
-    </row>
-    <row r="121" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ120" s="38"/>
+      <c r="AK120" s="53"/>
+    </row>
+    <row r="121" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI121" s="38"/>
-      <c r="AJ121" s="53"/>
-    </row>
-    <row r="122" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ121" s="38"/>
+      <c r="AK121" s="53"/>
+    </row>
+    <row r="122" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI122" s="38"/>
-      <c r="AJ122" s="53"/>
-    </row>
-    <row r="123" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ122" s="38"/>
+      <c r="AK122" s="53"/>
+    </row>
+    <row r="123" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI123" s="38"/>
-      <c r="AJ123" s="53"/>
-    </row>
-    <row r="124" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ123" s="38"/>
+      <c r="AK123" s="53"/>
+    </row>
+    <row r="124" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI124" s="38"/>
-      <c r="AJ124" s="53"/>
-    </row>
-    <row r="125" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ124" s="38"/>
+      <c r="AK124" s="53"/>
+    </row>
+    <row r="125" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI125" s="38"/>
-      <c r="AJ125" s="53"/>
-    </row>
-    <row r="126" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ125" s="38"/>
+      <c r="AK125" s="53"/>
+    </row>
+    <row r="126" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI126" s="38"/>
-      <c r="AJ126" s="53"/>
-    </row>
-    <row r="127" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ126" s="38"/>
+      <c r="AK126" s="53"/>
+    </row>
+    <row r="127" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI127" s="38"/>
-      <c r="AJ127" s="53"/>
-    </row>
-    <row r="128" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ127" s="38"/>
+      <c r="AK127" s="53"/>
+    </row>
+    <row r="128" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI128" s="38"/>
-      <c r="AJ128" s="53"/>
-    </row>
-    <row r="129" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ128" s="38"/>
+      <c r="AK128" s="53"/>
+    </row>
+    <row r="129" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI129" s="38"/>
-      <c r="AJ129" s="53"/>
-    </row>
-    <row r="130" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ129" s="38"/>
+      <c r="AK129" s="53"/>
+    </row>
+    <row r="130" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI130" s="38"/>
-      <c r="AJ130" s="53"/>
-    </row>
-    <row r="131" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ130" s="38"/>
+      <c r="AK130" s="53"/>
+    </row>
+    <row r="131" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI131" s="38"/>
-      <c r="AJ131" s="53"/>
-    </row>
-    <row r="132" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ131" s="38"/>
+      <c r="AK131" s="53"/>
+    </row>
+    <row r="132" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI132" s="38"/>
-      <c r="AJ132" s="53"/>
-    </row>
-    <row r="133" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ132" s="38"/>
+      <c r="AK132" s="53"/>
+    </row>
+    <row r="133" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI133" s="38"/>
-      <c r="AJ133" s="53"/>
-    </row>
-    <row r="134" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ133" s="38"/>
+      <c r="AK133" s="53"/>
+    </row>
+    <row r="134" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI134" s="38"/>
-      <c r="AJ134" s="53"/>
-    </row>
-    <row r="135" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ134" s="38"/>
+      <c r="AK134" s="53"/>
+    </row>
+    <row r="135" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI135" s="38"/>
-      <c r="AJ135" s="53"/>
-    </row>
-    <row r="136" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ135" s="38"/>
+      <c r="AK135" s="53"/>
+    </row>
+    <row r="136" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI136" s="38"/>
-      <c r="AJ136" s="53"/>
-    </row>
-    <row r="137" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ136" s="38"/>
+      <c r="AK136" s="53"/>
+    </row>
+    <row r="137" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI137" s="38"/>
-      <c r="AJ137" s="53"/>
-    </row>
-    <row r="138" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ137" s="38"/>
+      <c r="AK137" s="53"/>
+    </row>
+    <row r="138" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI138" s="38"/>
-      <c r="AJ138" s="53"/>
-    </row>
-    <row r="139" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ138" s="38"/>
+      <c r="AK138" s="53"/>
+    </row>
+    <row r="139" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI139" s="38"/>
-      <c r="AJ139" s="53"/>
-    </row>
-    <row r="140" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ139" s="38"/>
+      <c r="AK139" s="53"/>
+    </row>
+    <row r="140" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI140" s="38"/>
-      <c r="AJ140" s="53"/>
-    </row>
-    <row r="141" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ140" s="38"/>
+      <c r="AK140" s="53"/>
+    </row>
+    <row r="141" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI141" s="38"/>
-      <c r="AJ141" s="53"/>
-    </row>
-    <row r="142" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ141" s="38"/>
+      <c r="AK141" s="53"/>
+    </row>
+    <row r="142" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI142" s="38"/>
-      <c r="AJ142" s="53"/>
-    </row>
-    <row r="143" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ142" s="38"/>
+      <c r="AK142" s="53"/>
+    </row>
+    <row r="143" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI143" s="38"/>
-      <c r="AJ143" s="53"/>
-    </row>
-    <row r="144" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ143" s="38"/>
+      <c r="AK143" s="53"/>
+    </row>
+    <row r="144" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI144" s="38"/>
-      <c r="AJ144" s="53"/>
+      <c r="AJ144" s="38"/>
+      <c r="AK144" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\memellak\OneDrive - Norwegian University of Life Sciences\Documents\GitHub\MANU2025\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5CCC7E5-E0EC-4EDB-85B5-FE26D96F2C16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0BD18C-1713-4515-81EA-41B88FD7BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="217">
   <si>
     <t>~FI_T</t>
   </si>
@@ -4463,10 +4463,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AW144"/>
+  <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH50" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AR21" sqref="AR21:AR68"/>
+    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AN20" sqref="AN20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4494,11 +4494,11 @@
     <col min="28" max="28" width="13.453125" style="48" customWidth="1"/>
     <col min="29" max="29" width="13.81640625" style="48" customWidth="1"/>
     <col min="30" max="30" width="8.453125" style="48" customWidth="1"/>
-    <col min="31" max="36" width="8.81640625" style="48"/>
-    <col min="37" max="37" width="12.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="38" max="40" width="8.81640625" style="48"/>
-    <col min="41" max="41" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.81640625" style="48"/>
+    <col min="31" max="35" width="8.81640625" style="48"/>
+    <col min="36" max="36" width="12.453125" style="48" bestFit="1" customWidth="1"/>
+    <col min="37" max="39" width="8.81640625" style="48"/>
+    <col min="40" max="40" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.81640625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="14.5" x14ac:dyDescent="0.35">
@@ -4808,7 +4808,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:49" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4891,22 +4891,20 @@
       <c r="AI17" s="63" t="s">
         <v>208</v>
       </c>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="38"/>
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="63"/>
       <c r="AL17" s="63"/>
       <c r="AM17" s="63"/>
-      <c r="AN17" s="63"/>
-      <c r="AO17" s="38"/>
-      <c r="AQ17" s="63" t="s">
+      <c r="AN17" s="38"/>
+      <c r="AP17" s="63" t="s">
         <v>208</v>
       </c>
+      <c r="AQ17" s="38"/>
       <c r="AR17" s="63"/>
-      <c r="AS17" s="38"/>
+      <c r="AS17" s="63"/>
       <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-    </row>
-    <row r="18" spans="2:49" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:47" ht="31" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4990,46 +4988,40 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
-        <v>55</v>
+        <v>205</v>
       </c>
       <c r="AK18" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="AL18" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="AM18" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="AN18" s="64" t="s">
+        <v>209</v>
+      </c>
+      <c r="AP18" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ18" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="AL18" s="64" t="s">
+      <c r="AR18" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="AM18" s="64" t="s">
+      <c r="AS18" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AN18" s="64" t="s">
+      <c r="AT18" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="AO18" s="64" t="s">
+      <c r="AU18" s="64" t="s">
         <v>209</v>
       </c>
-      <c r="AQ18" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR18" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS18" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT18" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="AU18" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV18" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW18" s="64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="2:49" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -5072,27 +5064,25 @@
       <c r="AI19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="44" t="s">
+      <c r="AJ19" s="44" t="s">
         <v>131</v>
       </c>
+      <c r="AK19" s="44"/>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
+      <c r="AP19" s="44" t="s">
+        <v>81</v>
+      </c>
       <c r="AQ19" s="44" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AR19" s="44"/>
-      <c r="AS19" s="44" t="s">
-        <v>131</v>
-      </c>
+      <c r="AS19" s="44"/>
       <c r="AT19" s="44"/>
       <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-    </row>
-    <row r="20" spans="2:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="str">
         <f>X20</f>
         <v>Furnace</v>
@@ -5160,26 +5150,24 @@
         <v>53</v>
       </c>
       <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45" t="s">
+      <c r="AK20" s="45" t="s">
         <v>207</v>
       </c>
+      <c r="AL20" s="45"/>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AQ20" s="45" t="s">
+      <c r="AP20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AR20" s="45"/>
+      <c r="AQ20" s="45"/>
+      <c r="AR20" s="45" t="s">
+        <v>207</v>
+      </c>
       <c r="AS20" s="45"/>
-      <c r="AT20" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="44"/>
-    </row>
-    <row r="21" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="44"/>
+    </row>
+    <row r="21" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="str">
         <f>X$21</f>
         <v>BIOBoiler</v>
@@ -5247,47 +5235,41 @@
       <c r="AI21" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ21" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK21" s="39" t="s">
+      <c r="AJ21" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK21" s="48" t="s">
+        <v>132</v>
+      </c>
       <c r="AL21" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM21" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN21" s="48">
+        <v>3.3051976250754521E-3</v>
+      </c>
+      <c r="AP21" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ21" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AM21" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN21" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO21" s="48">
-        <v>3.3051976250754521E-3</v>
-      </c>
-      <c r="AQ21" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR21" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS21" s="39" t="s">
-        <v>210</v>
+      <c r="AS21" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT21" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU21" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV21" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW21" s="48">
+      <c r="AU21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="str">
         <f>X24</f>
         <v>ELCBoiler</v>
@@ -5354,47 +5336,41 @@
       <c r="AI22" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ22" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK22" s="39" t="s">
+      <c r="AJ22" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL22" s="69" t="s">
+      <c r="AK22" s="69" t="s">
         <v>133</v>
       </c>
+      <c r="AL22" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM22" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN22" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO22" s="48">
+      <c r="AN22" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AQ22" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR22" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS22" s="39" t="s">
+      <c r="AP22" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ22" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT22" s="69" t="s">
+      <c r="AR22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AU22" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV22" s="48" t="s">
+      <c r="AS22" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT22" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW22" s="48">
+      <c r="AU22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="48" t="str">
         <f>X22</f>
         <v>BIOKiln</v>
@@ -5459,47 +5435,41 @@
       <c r="AI23" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ23" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK23" s="39" t="s">
+      <c r="AJ23" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK23" s="48" t="s">
+        <v>134</v>
+      </c>
       <c r="AL23" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM23" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN23" s="48">
+        <v>2.8979409360310663E-3</v>
+      </c>
+      <c r="AP23" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ23" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AM23" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN23" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO23" s="48">
-        <v>2.8979409360310663E-3</v>
-      </c>
-      <c r="AQ23" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR23" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS23" s="39" t="s">
-        <v>210</v>
+      <c r="AS23" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT23" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU23" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV23" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW23" s="49">
+      <c r="AU23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5564,47 +5534,41 @@
       <c r="AI24" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ24" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK24" s="39" t="s">
+      <c r="AJ24" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL24" s="69" t="s">
+      <c r="AK24" s="69" t="s">
         <v>135</v>
       </c>
+      <c r="AL24" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM24" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN24" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO24" s="48">
+      <c r="AN24" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AQ24" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR24" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS24" s="39" t="s">
+      <c r="AP24" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ24" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT24" s="69" t="s">
+      <c r="AR24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AU24" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV24" s="48" t="s">
+      <c r="AS24" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT24" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW24" s="49">
+      <c r="AU24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="str">
         <f>X26</f>
         <v>WNDTRBN</v>
@@ -5675,47 +5639,41 @@
       <c r="AI25" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ25" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK25" s="39" t="s">
+      <c r="AJ25" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK25" s="48" t="s">
+        <v>136</v>
+      </c>
       <c r="AL25" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM25" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN25" s="48">
+        <v>2.5452192095824343E-3</v>
+      </c>
+      <c r="AP25" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ25" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AM25" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN25" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO25" s="48">
-        <v>2.5452192095824343E-3</v>
-      </c>
-      <c r="AQ25" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR25" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS25" s="39" t="s">
-        <v>210</v>
+      <c r="AS25" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT25" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU25" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV25" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW25" s="49">
+      <c r="AU25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="str">
         <f>X27</f>
         <v>SOLPV</v>
@@ -5786,47 +5744,41 @@
       <c r="AI26" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ26" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK26" s="39" t="s">
+      <c r="AJ26" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL26" s="69" t="s">
+      <c r="AK26" s="69" t="s">
         <v>137</v>
       </c>
+      <c r="AL26" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN26" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO26" s="48">
+      <c r="AN26" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AQ26" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR26" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS26" s="39" t="s">
+      <c r="AP26" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ26" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT26" s="69" t="s">
+      <c r="AR26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AU26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV26" s="48" t="s">
+      <c r="AS26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT26" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW26" s="49">
+      <c r="AU26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="str">
         <f>X25</f>
         <v>CSP</v>
@@ -5898,47 +5850,41 @@
       <c r="AI27" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ27" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK27" s="39" t="s">
+      <c r="AJ27" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK27" s="48" t="s">
+        <v>138</v>
+      </c>
       <c r="AL27" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM27" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN27" s="48">
+        <v>2.7432881310744317E-3</v>
+      </c>
+      <c r="AP27" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ27" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AM27" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN27" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO27" s="48">
-        <v>2.7432881310744317E-3</v>
-      </c>
-      <c r="AQ27" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR27" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS27" s="39" t="s">
-        <v>210</v>
+      <c r="AS27" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT27" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU27" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV27" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW27" s="49">
+      <c r="AU27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6011,47 +5957,41 @@
       <c r="AI28" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ28" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK28" s="39" t="s">
+      <c r="AJ28" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL28" s="69" t="s">
+      <c r="AK28" s="69" t="s">
         <v>139</v>
       </c>
+      <c r="AL28" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM28" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN28" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO28" s="48">
+      <c r="AN28" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AQ28" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR28" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS28" s="39" t="s">
+      <c r="AP28" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ28" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT28" s="69" t="s">
+      <c r="AR28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AU28" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV28" s="48" t="s">
+      <c r="AS28" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT28" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW28" s="49">
+      <c r="AU28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6121,47 +6061,41 @@
       <c r="AI29" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ29" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK29" s="39" t="s">
+      <c r="AJ29" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK29" s="48" t="s">
+        <v>140</v>
+      </c>
       <c r="AL29" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM29" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN29" s="48">
+        <v>2.8141143326017269E-3</v>
+      </c>
+      <c r="AP29" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ29" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AM29" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN29" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO29" s="48">
-        <v>2.8141143326017269E-3</v>
-      </c>
-      <c r="AQ29" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR29" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS29" s="39" t="s">
-        <v>210</v>
+      <c r="AS29" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT29" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU29" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV29" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW29" s="49">
+      <c r="AU29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6222,47 +6156,41 @@
       <c r="AI30" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ30" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK30" s="39" t="s">
+      <c r="AJ30" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL30" s="69" t="s">
+      <c r="AK30" s="69" t="s">
         <v>141</v>
       </c>
+      <c r="AL30" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM30" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN30" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO30" s="48">
+      <c r="AN30" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AQ30" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR30" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS30" s="39" t="s">
+      <c r="AP30" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ30" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT30" s="69" t="s">
+      <c r="AR30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AU30" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV30" s="48" t="s">
+      <c r="AS30" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT30" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW30" s="49">
+      <c r="AU30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -6308,47 +6236,41 @@
       <c r="AI31" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ31" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK31" s="39" t="s">
+      <c r="AJ31" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK31" s="48" t="s">
+        <v>142</v>
+      </c>
       <c r="AL31" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM31" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN31" s="48">
+        <v>2.4530677112863486E-3</v>
+      </c>
+      <c r="AP31" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ31" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AM31" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN31" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO31" s="48">
-        <v>2.4530677112863486E-3</v>
-      </c>
-      <c r="AQ31" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR31" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS31" s="39" t="s">
-        <v>210</v>
+      <c r="AS31" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT31" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU31" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV31" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW31" s="49">
+      <c r="AU31" s="49">
         <v>0.27468446594982077</v>
       </c>
     </row>
-    <row r="32" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53" t="s">
         <v>214</v>
       </c>
@@ -6390,47 +6312,41 @@
       <c r="AI32" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ32" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK32" s="39" t="s">
+      <c r="AJ32" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL32" s="69" t="s">
+      <c r="AK32" s="69" t="s">
         <v>143</v>
       </c>
+      <c r="AL32" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM32" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN32" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO32" s="48">
+      <c r="AN32" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AQ32" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR32" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS32" s="39" t="s">
+      <c r="AP32" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ32" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT32" s="69" t="s">
+      <c r="AR32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AU32" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV32" s="48" t="s">
+      <c r="AS32" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT32" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW32" s="49">
+      <c r="AU32" s="49">
         <v>0.32637437275985665</v>
       </c>
     </row>
-    <row r="33" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53" t="s">
         <v>214</v>
       </c>
@@ -6472,47 +6388,41 @@
       <c r="AI33" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ33" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK33" s="39" t="s">
+      <c r="AJ33" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK33" s="48" t="s">
+        <v>144</v>
+      </c>
       <c r="AL33" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM33" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN33" s="48">
+        <v>1.8660639529435976E-3</v>
+      </c>
+      <c r="AP33" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ33" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AM33" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN33" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO33" s="48">
-        <v>1.8660639529435976E-3</v>
-      </c>
-      <c r="AQ33" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR33" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS33" s="39" t="s">
-        <v>210</v>
+      <c r="AS33" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT33" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU33" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV33" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW33" s="49">
+      <c r="AU33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -6531,47 +6441,41 @@
       <c r="AI34" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ34" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK34" s="39" t="s">
+      <c r="AJ34" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL34" s="69" t="s">
+      <c r="AK34" s="69" t="s">
         <v>145</v>
       </c>
+      <c r="AL34" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM34" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN34" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO34" s="48">
+      <c r="AN34" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AQ34" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR34" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS34" s="39" t="s">
+      <c r="AP34" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ34" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT34" s="69" t="s">
+      <c r="AR34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AU34" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV34" s="48" t="s">
+      <c r="AS34" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT34" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW34" s="49">
+      <c r="AU34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -6591,47 +6495,41 @@
       <c r="AI35" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ35" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK35" s="39" t="s">
+      <c r="AJ35" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK35" s="48" t="s">
+        <v>146</v>
+      </c>
       <c r="AL35" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM35" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN35" s="48">
+        <v>1.6637860863902745E-3</v>
+      </c>
+      <c r="AP35" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ35" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AM35" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN35" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO35" s="48">
-        <v>1.6637860863902745E-3</v>
-      </c>
-      <c r="AQ35" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR35" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS35" s="39" t="s">
-        <v>210</v>
+      <c r="AS35" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT35" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU35" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV35" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW35" s="49">
+      <c r="AU35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -6654,47 +6552,41 @@
       <c r="AI36" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ36" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK36" s="39" t="s">
+      <c r="AJ36" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL36" s="69" t="s">
+      <c r="AK36" s="69" t="s">
         <v>147</v>
       </c>
+      <c r="AL36" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM36" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN36" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO36" s="48">
+      <c r="AN36" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AQ36" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR36" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS36" s="39" t="s">
+      <c r="AP36" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ36" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT36" s="69" t="s">
+      <c r="AR36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AU36" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV36" s="48" t="s">
+      <c r="AS36" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT36" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW36" s="49">
+      <c r="AU36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -6717,47 +6609,41 @@
       <c r="AI37" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ37" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK37" s="39" t="s">
+      <c r="AJ37" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK37" s="48" t="s">
+        <v>148</v>
+      </c>
       <c r="AL37" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM37" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN37" s="48">
+        <v>1.9153018835258307E-3</v>
+      </c>
+      <c r="AP37" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ37" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AM37" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN37" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO37" s="48">
-        <v>1.9153018835258307E-3</v>
-      </c>
-      <c r="AQ37" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR37" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS37" s="39" t="s">
-        <v>210</v>
+      <c r="AS37" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT37" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU37" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV37" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW37" s="49">
+      <c r="AU37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
@@ -6768,92 +6654,80 @@
       <c r="AI38" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ38" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK38" s="39" t="s">
+      <c r="AJ38" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL38" s="69" t="s">
+      <c r="AK38" s="69" t="s">
         <v>149</v>
       </c>
+      <c r="AL38" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM38" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN38" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO38" s="48">
+      <c r="AN38" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AQ38" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR38" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS38" s="39" t="s">
+      <c r="AP38" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ38" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT38" s="69" t="s">
+      <c r="AR38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AU38" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV38" s="48" t="s">
+      <c r="AS38" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT38" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW38" s="48">
+      <c r="AU38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ39" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK39" s="39" t="s">
+      <c r="AJ39" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK39" s="48" t="s">
+        <v>150</v>
+      </c>
       <c r="AL39" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM39" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN39" s="48">
+        <v>2.1878436160058393E-3</v>
+      </c>
+      <c r="AP39" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ39" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AM39" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN39" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO39" s="48">
-        <v>2.1878436160058393E-3</v>
-      </c>
-      <c r="AQ39" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR39" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS39" s="39" t="s">
-        <v>210</v>
+      <c r="AS39" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT39" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU39" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV39" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW39" s="48">
+      <c r="AU39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
@@ -6862,47 +6736,41 @@
       <c r="AI40" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ40" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK40" s="39" t="s">
+      <c r="AJ40" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL40" s="69" t="s">
+      <c r="AK40" s="69" t="s">
         <v>151</v>
       </c>
+      <c r="AL40" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM40" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN40" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO40" s="48">
+      <c r="AN40" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AQ40" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR40" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS40" s="39" t="s">
+      <c r="AP40" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ40" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT40" s="69" t="s">
+      <c r="AR40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AU40" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV40" s="48" t="s">
+      <c r="AS40" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT40" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW40" s="48">
+      <c r="AU40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
@@ -6911,47 +6779,41 @@
       <c r="AI41" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ41" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK41" s="39" t="s">
+      <c r="AJ41" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK41" s="48" t="s">
+        <v>152</v>
+      </c>
       <c r="AL41" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM41" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN41" s="48">
+        <v>2.4063426997311056E-3</v>
+      </c>
+      <c r="AP41" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ41" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AM41" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN41" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO41" s="48">
-        <v>2.4063426997311056E-3</v>
-      </c>
-      <c r="AQ41" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR41" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS41" s="39" t="s">
-        <v>210</v>
+      <c r="AS41" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT41" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU41" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV41" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW41" s="48">
+      <c r="AU41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -6962,91 +6824,79 @@
       <c r="AI42" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ42" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK42" s="39" t="s">
+      <c r="AJ42" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL42" s="69" t="s">
+      <c r="AK42" s="69" t="s">
         <v>153</v>
       </c>
+      <c r="AL42" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM42" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN42" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO42" s="48">
+      <c r="AN42" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AQ42" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR42" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS42" s="39" t="s">
+      <c r="AP42" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ42" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT42" s="69" t="s">
+      <c r="AR42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AU42" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV42" s="48" t="s">
+      <c r="AS42" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT42" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW42" s="48">
+      <c r="AU42" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI43" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ43" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK43" s="39" t="s">
+      <c r="AJ43" s="39" t="s">
         <v>213</v>
       </c>
+      <c r="AK43" s="48" t="s">
+        <v>154</v>
+      </c>
       <c r="AL43" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM43" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AN43" s="48">
+        <v>2.9724559200622644E-3</v>
+      </c>
+      <c r="AP43" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ43" s="39" t="s">
+        <v>210</v>
+      </c>
+      <c r="AR43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AM43" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN43" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO43" s="48">
-        <v>2.9724559200622644E-3</v>
-      </c>
-      <c r="AQ43" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR43" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS43" s="39" t="s">
-        <v>210</v>
+      <c r="AS43" s="48" t="s">
+        <v>196</v>
       </c>
       <c r="AT43" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU43" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV43" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW43" s="48">
+      <c r="AU43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -7057,356 +6907,308 @@
       <c r="AI44" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ44" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK44" s="39" t="s">
+      <c r="AJ44" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL44" s="69" t="s">
+      <c r="AK44" s="69" t="s">
         <v>155</v>
       </c>
+      <c r="AL44" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM44" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN44" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO44" s="48">
+      <c r="AN44" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AQ44" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR44" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS44" s="39" t="s">
+      <c r="AP44" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ44" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT44" s="69" t="s">
+      <c r="AR44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AU44" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV44" s="48" t="s">
+      <c r="AS44" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT44" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW44" s="48">
+      <c r="AU44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ45" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK45" s="39" t="s">
+      <c r="AJ45" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL45" s="38" t="s">
+      <c r="AK45" s="38" t="s">
         <v>156</v>
       </c>
+      <c r="AL45" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM45" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN45" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO45" s="48">
+      <c r="AN45" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AQ45" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR45" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS45" s="39" t="s">
+      <c r="AP45" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ45" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT45" s="38" t="s">
+      <c r="AR45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AU45" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV45" s="48" t="s">
+      <c r="AS45" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT45" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW45" s="48">
+      <c r="AU45" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI46" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ46" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK46" s="39" t="s">
+      <c r="AJ46" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL46" s="38" t="s">
+      <c r="AK46" s="38" t="s">
         <v>157</v>
       </c>
+      <c r="AL46" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM46" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN46" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO46" s="48">
+      <c r="AN46" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AQ46" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR46" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS46" s="39" t="s">
+      <c r="AP46" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ46" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT46" s="38" t="s">
+      <c r="AR46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AU46" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV46" s="48" t="s">
+      <c r="AS46" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT46" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW46" s="48">
+      <c r="AU46" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI47" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ47" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK47" s="39" t="s">
+      <c r="AJ47" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL47" s="38" t="s">
+      <c r="AK47" s="38" t="s">
         <v>158</v>
       </c>
+      <c r="AL47" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM47" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN47" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO47" s="48">
+      <c r="AN47" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AQ47" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR47" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS47" s="39" t="s">
+      <c r="AP47" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ47" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT47" s="38" t="s">
+      <c r="AR47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AU47" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV47" s="48" t="s">
+      <c r="AS47" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT47" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW47" s="48">
+      <c r="AU47" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI48" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ48" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK48" s="39" t="s">
+      <c r="AJ48" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL48" s="38" t="s">
+      <c r="AK48" s="38" t="s">
         <v>159</v>
       </c>
+      <c r="AL48" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM48" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN48" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO48" s="48">
+      <c r="AN48" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AQ48" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR48" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS48" s="39" t="s">
+      <c r="AP48" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ48" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT48" s="38" t="s">
+      <c r="AR48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AU48" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV48" s="48" t="s">
+      <c r="AS48" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT48" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW48" s="48">
+      <c r="AU48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI49" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ49" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK49" s="39" t="s">
+      <c r="AJ49" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL49" s="38" t="s">
+      <c r="AK49" s="38" t="s">
         <v>160</v>
       </c>
+      <c r="AL49" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM49" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN49" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO49" s="48">
+      <c r="AN49" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AQ49" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR49" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS49" s="39" t="s">
+      <c r="AP49" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ49" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT49" s="38" t="s">
+      <c r="AR49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AU49" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV49" s="48" t="s">
+      <c r="AS49" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT49" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW49" s="48">
+      <c r="AU49" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI50" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ50" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK50" s="39" t="s">
+      <c r="AJ50" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL50" s="38" t="s">
+      <c r="AK50" s="38" t="s">
         <v>161</v>
       </c>
+      <c r="AL50" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM50" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN50" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO50" s="48">
+      <c r="AN50" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AQ50" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR50" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS50" s="39" t="s">
+      <c r="AP50" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ50" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT50" s="38" t="s">
+      <c r="AR50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AU50" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV50" s="48" t="s">
+      <c r="AS50" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT50" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW50" s="48">
+      <c r="AU50" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI51" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ51" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK51" s="39" t="s">
+      <c r="AJ51" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL51" s="38" t="s">
+      <c r="AK51" s="38" t="s">
         <v>162</v>
       </c>
+      <c r="AL51" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM51" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN51" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO51" s="48">
+      <c r="AN51" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AQ51" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR51" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS51" s="39" t="s">
+      <c r="AP51" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ51" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT51" s="38" t="s">
+      <c r="AR51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AU51" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV51" s="48" t="s">
+      <c r="AS51" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT51" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW51" s="48">
+      <c r="AU51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="79" t="s">
         <v>184</v>
       </c>
@@ -7423,47 +7225,41 @@
       <c r="AI52" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ52" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK52" s="39" t="s">
+      <c r="AJ52" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL52" s="38" t="s">
+      <c r="AK52" s="38" t="s">
         <v>163</v>
       </c>
+      <c r="AL52" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM52" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN52" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO52" s="48">
+      <c r="AN52" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AQ52" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR52" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS52" s="39" t="s">
+      <c r="AP52" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ52" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT52" s="38" t="s">
+      <c r="AR52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AU52" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV52" s="48" t="s">
+      <c r="AS52" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT52" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW52" s="48">
+      <c r="AU52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:47" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
       <c r="D53"/>
@@ -7478,47 +7274,41 @@
       <c r="AI53" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ53" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK53" s="39" t="s">
+      <c r="AJ53" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL53" s="38" t="s">
+      <c r="AK53" s="38" t="s">
         <v>164</v>
       </c>
+      <c r="AL53" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM53" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN53" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO53" s="48">
+      <c r="AN53" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AQ53" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR53" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS53" s="39" t="s">
+      <c r="AP53" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ53" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT53" s="38" t="s">
+      <c r="AR53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AU53" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV53" s="48" t="s">
+      <c r="AS53" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT53" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW53" s="48">
+      <c r="AU53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:49" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:47" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="80" t="s">
         <v>185</v>
       </c>
@@ -7555,47 +7345,41 @@
       <c r="AI54" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ54" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK54" s="39" t="s">
+      <c r="AJ54" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL54" s="38" t="s">
+      <c r="AK54" s="38" t="s">
         <v>165</v>
       </c>
+      <c r="AL54" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM54" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN54" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO54" s="48">
+      <c r="AN54" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AQ54" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR54" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS54" s="39" t="s">
+      <c r="AP54" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ54" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT54" s="38" t="s">
+      <c r="AR54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AU54" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV54" s="48" t="s">
+      <c r="AS54" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT54" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW54" s="48">
+      <c r="AU54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -7622,47 +7406,41 @@
       <c r="AI55" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ55" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK55" s="39" t="s">
+      <c r="AJ55" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL55" s="38" t="s">
+      <c r="AK55" s="38" t="s">
         <v>166</v>
       </c>
+      <c r="AL55" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM55" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN55" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO55" s="48">
+      <c r="AN55" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AQ55" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR55" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS55" s="39" t="s">
+      <c r="AP55" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ55" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT55" s="38" t="s">
+      <c r="AR55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AU55" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV55" s="48" t="s">
+      <c r="AS55" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT55" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW55" s="48">
+      <c r="AU55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -7689,47 +7467,41 @@
       <c r="AI56" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ56" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK56" s="39" t="s">
+      <c r="AJ56" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL56" s="38" t="s">
+      <c r="AK56" s="38" t="s">
         <v>167</v>
       </c>
+      <c r="AL56" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM56" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN56" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO56" s="48">
+      <c r="AN56" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AQ56" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR56" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS56" s="39" t="s">
+      <c r="AP56" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ56" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT56" s="38" t="s">
+      <c r="AR56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AU56" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV56" s="48" t="s">
+      <c r="AS56" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT56" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW56" s="48">
+      <c r="AU56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -7756,47 +7528,41 @@
       <c r="AI57" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ57" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK57" s="39" t="s">
+      <c r="AJ57" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL57" s="38" t="s">
+      <c r="AK57" s="38" t="s">
         <v>168</v>
       </c>
+      <c r="AL57" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM57" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN57" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO57" s="48">
+      <c r="AN57" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AQ57" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR57" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS57" s="39" t="s">
+      <c r="AP57" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ57" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT57" s="38" t="s">
+      <c r="AR57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AU57" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV57" s="48" t="s">
+      <c r="AS57" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT57" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW57" s="48">
+      <c r="AU57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -7823,47 +7589,41 @@
       <c r="AI58" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ58" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK58" s="39" t="s">
+      <c r="AJ58" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL58" s="38" t="s">
+      <c r="AK58" s="38" t="s">
         <v>169</v>
       </c>
+      <c r="AL58" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM58" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN58" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO58" s="48">
+      <c r="AN58" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AQ58" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR58" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS58" s="39" t="s">
+      <c r="AP58" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ58" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT58" s="38" t="s">
+      <c r="AR58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AU58" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV58" s="48" t="s">
+      <c r="AS58" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT58" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW58" s="48">
+      <c r="AU58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -7890,47 +7650,41 @@
       <c r="AI59" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ59" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK59" s="39" t="s">
+      <c r="AJ59" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL59" s="38" t="s">
+      <c r="AK59" s="38" t="s">
         <v>170</v>
       </c>
+      <c r="AL59" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM59" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN59" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO59" s="48">
+      <c r="AN59" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AQ59" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR59" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS59" s="39" t="s">
+      <c r="AP59" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ59" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT59" s="38" t="s">
+      <c r="AR59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AU59" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV59" s="48" t="s">
+      <c r="AS59" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT59" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW59" s="48">
+      <c r="AU59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -7957,47 +7711,41 @@
       <c r="AI60" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ60" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK60" s="39" t="s">
+      <c r="AJ60" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL60" s="38" t="s">
+      <c r="AK60" s="38" t="s">
         <v>171</v>
       </c>
+      <c r="AL60" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM60" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN60" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO60" s="48">
+      <c r="AN60" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AQ60" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR60" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS60" s="39" t="s">
+      <c r="AP60" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ60" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT60" s="38" t="s">
+      <c r="AR60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AU60" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV60" s="48" t="s">
+      <c r="AS60" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT60" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW60" s="48">
+      <c r="AU60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -8024,47 +7772,41 @@
       <c r="AI61" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ61" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK61" s="39" t="s">
+      <c r="AJ61" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL61" s="38" t="s">
+      <c r="AK61" s="38" t="s">
         <v>172</v>
       </c>
+      <c r="AL61" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM61" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN61" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO61" s="48">
+      <c r="AN61" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AQ61" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR61" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS61" s="39" t="s">
+      <c r="AP61" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ61" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT61" s="38" t="s">
+      <c r="AR61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AU61" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV61" s="48" t="s">
+      <c r="AS61" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT61" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW61" s="48">
+      <c r="AU61" s="48">
         <v>0.13618056033452808</v>
       </c>
     </row>
-    <row r="62" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>121</v>
       </c>
@@ -8091,689 +7833,571 @@
       <c r="AI62" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ62" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK62" s="39" t="s">
+      <c r="AJ62" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL62" s="38" t="s">
+      <c r="AK62" s="38" t="s">
         <v>173</v>
       </c>
+      <c r="AL62" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM62" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN62" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO62" s="48">
+      <c r="AN62" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AQ62" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR62" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS62" s="39" t="s">
+      <c r="AP62" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ62" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT62" s="38" t="s">
+      <c r="AR62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AU62" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV62" s="48" t="s">
+      <c r="AS62" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT62" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW62" s="48">
+      <c r="AU62" s="48">
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI63" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ63" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK63" s="39" t="s">
+      <c r="AJ63" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL63" s="38" t="s">
+      <c r="AK63" s="38" t="s">
         <v>174</v>
       </c>
+      <c r="AL63" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM63" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN63" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO63" s="48">
+      <c r="AN63" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AQ63" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR63" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS63" s="39" t="s">
+      <c r="AP63" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ63" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT63" s="38" t="s">
+      <c r="AR63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AU63" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV63" s="48" t="s">
+      <c r="AS63" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT63" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW63" s="48">
+      <c r="AU63" s="48">
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI64" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ64" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK64" s="39" t="s">
+      <c r="AJ64" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL64" s="38" t="s">
+      <c r="AK64" s="38" t="s">
         <v>175</v>
       </c>
+      <c r="AL64" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM64" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN64" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO64" s="48">
+      <c r="AN64" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AQ64" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR64" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS64" s="39" t="s">
+      <c r="AP64" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ64" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT64" s="38" t="s">
+      <c r="AR64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AU64" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV64" s="48" t="s">
+      <c r="AS64" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT64" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW64" s="48">
+      <c r="AU64" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="65" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI65" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ65" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK65" s="39" t="s">
+      <c r="AJ65" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL65" s="38" t="s">
+      <c r="AK65" s="38" t="s">
         <v>176</v>
       </c>
+      <c r="AL65" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM65" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN65" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO65" s="48">
+      <c r="AN65" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AQ65" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR65" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS65" s="39" t="s">
+      <c r="AP65" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ65" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT65" s="38" t="s">
+      <c r="AR65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AU65" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV65" s="48" t="s">
+      <c r="AS65" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT65" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW65" s="48">
+      <c r="AU65" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI66" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ66" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK66" s="39" t="s">
+      <c r="AJ66" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL66" s="38" t="s">
+      <c r="AK66" s="38" t="s">
         <v>177</v>
       </c>
+      <c r="AL66" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM66" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN66" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO66" s="48">
+      <c r="AN66" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AQ66" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR66" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS66" s="39" t="s">
+      <c r="AP66" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ66" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT66" s="38" t="s">
+      <c r="AR66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AU66" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV66" s="48" t="s">
+      <c r="AS66" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT66" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW66" s="48">
+      <c r="AU66" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI67" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ67" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK67" s="39" t="s">
+      <c r="AJ67" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL67" s="38" t="s">
+      <c r="AK67" s="38" t="s">
         <v>178</v>
       </c>
+      <c r="AL67" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM67" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN67" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO67" s="48">
+      <c r="AN67" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AQ67" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR67" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS67" s="39" t="s">
+      <c r="AP67" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ67" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT67" s="38" t="s">
+      <c r="AR67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AU67" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV67" s="48" t="s">
+      <c r="AS67" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT67" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW67" s="48">
+      <c r="AU67" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI68" s="38" t="s">
         <v>216</v>
       </c>
-      <c r="AJ68" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK68" s="39" t="s">
+      <c r="AJ68" s="39" t="s">
         <v>213</v>
       </c>
-      <c r="AL68" s="38" t="s">
+      <c r="AK68" s="38" t="s">
         <v>179</v>
       </c>
+      <c r="AL68" s="48" t="s">
+        <v>196</v>
+      </c>
       <c r="AM68" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN68" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO68" s="48">
+      <c r="AN68" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AQ68" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR68" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS68" s="39" t="s">
+      <c r="AP68" s="38" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ68" s="39" t="s">
         <v>210</v>
       </c>
-      <c r="AT68" s="38" t="s">
+      <c r="AR68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AU68" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV68" s="48" t="s">
+      <c r="AS68" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT68" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW68" s="48">
+      <c r="AU68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="53"/>
-    </row>
-    <row r="70" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="53"/>
+    </row>
+    <row r="70" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI70" s="38"/>
-      <c r="AJ70" s="38"/>
-      <c r="AK70" s="53"/>
-    </row>
-    <row r="71" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="53"/>
+    </row>
+    <row r="71" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI71" s="38"/>
-      <c r="AJ71" s="38"/>
-      <c r="AK71" s="53"/>
-    </row>
-    <row r="72" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="53"/>
+    </row>
+    <row r="72" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
-      <c r="AK72" s="53"/>
-    </row>
-    <row r="73" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="53"/>
+    </row>
+    <row r="73" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI73" s="38"/>
-      <c r="AJ73" s="38"/>
-      <c r="AK73" s="53"/>
-    </row>
-    <row r="74" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="53"/>
+    </row>
+    <row r="74" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI74" s="38"/>
-      <c r="AJ74" s="38"/>
-      <c r="AK74" s="53"/>
-    </row>
-    <row r="75" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="53"/>
+    </row>
+    <row r="75" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI75" s="38"/>
-      <c r="AJ75" s="38"/>
-      <c r="AK75" s="53"/>
-    </row>
-    <row r="76" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="53"/>
+    </row>
+    <row r="76" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI76" s="38"/>
-      <c r="AJ76" s="38"/>
-      <c r="AK76" s="53"/>
-    </row>
-    <row r="77" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="53"/>
+    </row>
+    <row r="77" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI77" s="38"/>
-      <c r="AJ77" s="38"/>
-      <c r="AK77" s="53"/>
-    </row>
-    <row r="78" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="53"/>
+    </row>
+    <row r="78" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI78" s="38"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="53"/>
-    </row>
-    <row r="79" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="53"/>
+    </row>
+    <row r="79" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI79" s="38"/>
-      <c r="AJ79" s="38"/>
-      <c r="AK79" s="53"/>
-    </row>
-    <row r="80" spans="35:49" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="53"/>
+    </row>
+    <row r="80" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI80" s="38"/>
-      <c r="AJ80" s="38"/>
-      <c r="AK80" s="53"/>
-    </row>
-    <row r="81" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="53"/>
+    </row>
+    <row r="81" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI81" s="38"/>
-      <c r="AJ81" s="38"/>
-      <c r="AK81" s="53"/>
-    </row>
-    <row r="82" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="53"/>
+    </row>
+    <row r="82" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI82" s="38"/>
-      <c r="AJ82" s="38"/>
-      <c r="AK82" s="53"/>
-    </row>
-    <row r="83" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="53"/>
+    </row>
+    <row r="83" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI83" s="38"/>
-      <c r="AJ83" s="38"/>
-      <c r="AK83" s="53"/>
-    </row>
-    <row r="84" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="53"/>
+    </row>
+    <row r="84" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI84" s="38"/>
-      <c r="AJ84" s="38"/>
-      <c r="AK84" s="53"/>
-    </row>
-    <row r="85" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="53"/>
+    </row>
+    <row r="85" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI85" s="38"/>
-      <c r="AJ85" s="38"/>
-      <c r="AK85" s="53"/>
-    </row>
-    <row r="86" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="53"/>
+    </row>
+    <row r="86" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI86" s="38"/>
-      <c r="AJ86" s="38"/>
-      <c r="AK86" s="53"/>
-    </row>
-    <row r="87" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="53"/>
+    </row>
+    <row r="87" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI87" s="38"/>
-      <c r="AJ87" s="38"/>
-      <c r="AK87" s="53"/>
-    </row>
-    <row r="88" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="53"/>
+    </row>
+    <row r="88" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI88" s="38"/>
-      <c r="AJ88" s="38"/>
-      <c r="AK88" s="53"/>
-    </row>
-    <row r="89" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="53"/>
+    </row>
+    <row r="89" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI89" s="38"/>
-      <c r="AJ89" s="38"/>
-      <c r="AK89" s="53"/>
-    </row>
-    <row r="90" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="53"/>
+    </row>
+    <row r="90" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI90" s="38"/>
-      <c r="AJ90" s="38"/>
-      <c r="AK90" s="53"/>
-    </row>
-    <row r="91" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="53"/>
+    </row>
+    <row r="91" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI91" s="38"/>
-      <c r="AJ91" s="38"/>
-      <c r="AK91" s="53"/>
-    </row>
-    <row r="92" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="53"/>
+    </row>
+    <row r="92" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI92" s="38"/>
-      <c r="AJ92" s="38"/>
-      <c r="AK92" s="53"/>
-    </row>
-    <row r="93" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="53"/>
+    </row>
+    <row r="93" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI93" s="38"/>
-      <c r="AJ93" s="38"/>
-      <c r="AK93" s="53"/>
-    </row>
-    <row r="94" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="53"/>
+    </row>
+    <row r="94" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI94" s="38"/>
-      <c r="AJ94" s="38"/>
-      <c r="AK94" s="53"/>
-    </row>
-    <row r="95" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="53"/>
+    </row>
+    <row r="95" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI95" s="38"/>
-      <c r="AJ95" s="38"/>
-      <c r="AK95" s="53"/>
-    </row>
-    <row r="96" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="53"/>
+    </row>
+    <row r="96" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI96" s="38"/>
-      <c r="AJ96" s="38"/>
-      <c r="AK96" s="53"/>
-    </row>
-    <row r="97" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="53"/>
+    </row>
+    <row r="97" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI97" s="38"/>
-      <c r="AJ97" s="38"/>
-      <c r="AK97" s="53"/>
-    </row>
-    <row r="98" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="53"/>
+    </row>
+    <row r="98" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI98" s="38"/>
-      <c r="AJ98" s="38"/>
-      <c r="AK98" s="53"/>
-    </row>
-    <row r="99" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="53"/>
+    </row>
+    <row r="99" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI99" s="38"/>
-      <c r="AJ99" s="38"/>
-      <c r="AK99" s="53"/>
-    </row>
-    <row r="100" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="53"/>
+    </row>
+    <row r="100" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI100" s="38"/>
-      <c r="AJ100" s="38"/>
-      <c r="AK100" s="53"/>
-    </row>
-    <row r="101" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="53"/>
+    </row>
+    <row r="101" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI101" s="38"/>
-      <c r="AJ101" s="38"/>
-      <c r="AK101" s="53"/>
-    </row>
-    <row r="102" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ101" s="53"/>
+    </row>
+    <row r="102" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI102" s="38"/>
-      <c r="AJ102" s="38"/>
-      <c r="AK102" s="53"/>
-    </row>
-    <row r="103" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ102" s="53"/>
+    </row>
+    <row r="103" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI103" s="38"/>
-      <c r="AJ103" s="38"/>
-      <c r="AK103" s="53"/>
-    </row>
-    <row r="104" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ103" s="53"/>
+    </row>
+    <row r="104" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI104" s="38"/>
-      <c r="AJ104" s="38"/>
-      <c r="AK104" s="53"/>
-    </row>
-    <row r="105" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ104" s="53"/>
+    </row>
+    <row r="105" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI105" s="38"/>
-      <c r="AJ105" s="38"/>
-      <c r="AK105" s="53"/>
-    </row>
-    <row r="106" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ105" s="53"/>
+    </row>
+    <row r="106" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI106" s="38"/>
-      <c r="AJ106" s="38"/>
-      <c r="AK106" s="53"/>
-    </row>
-    <row r="107" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ106" s="53"/>
+    </row>
+    <row r="107" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI107" s="38"/>
-      <c r="AJ107" s="38"/>
-      <c r="AK107" s="53"/>
-    </row>
-    <row r="108" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ107" s="53"/>
+    </row>
+    <row r="108" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI108" s="38"/>
-      <c r="AJ108" s="38"/>
-      <c r="AK108" s="53"/>
-    </row>
-    <row r="109" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ108" s="53"/>
+    </row>
+    <row r="109" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI109" s="38"/>
-      <c r="AJ109" s="38"/>
-      <c r="AK109" s="53"/>
-    </row>
-    <row r="110" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ109" s="53"/>
+    </row>
+    <row r="110" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI110" s="38"/>
-      <c r="AJ110" s="38"/>
-      <c r="AK110" s="53"/>
-    </row>
-    <row r="111" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ110" s="53"/>
+    </row>
+    <row r="111" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI111" s="38"/>
-      <c r="AJ111" s="38"/>
-      <c r="AK111" s="53"/>
-    </row>
-    <row r="112" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ111" s="53"/>
+    </row>
+    <row r="112" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI112" s="38"/>
-      <c r="AJ112" s="38"/>
-      <c r="AK112" s="53"/>
-    </row>
-    <row r="113" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ112" s="53"/>
+    </row>
+    <row r="113" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI113" s="38"/>
-      <c r="AJ113" s="38"/>
-      <c r="AK113" s="53"/>
-    </row>
-    <row r="114" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ113" s="53"/>
+    </row>
+    <row r="114" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI114" s="38"/>
-      <c r="AJ114" s="38"/>
-      <c r="AK114" s="53"/>
-    </row>
-    <row r="115" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ114" s="53"/>
+    </row>
+    <row r="115" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI115" s="38"/>
-      <c r="AJ115" s="38"/>
-      <c r="AK115" s="53"/>
-    </row>
-    <row r="116" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ115" s="53"/>
+    </row>
+    <row r="116" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI116" s="38"/>
-      <c r="AJ116" s="38"/>
-      <c r="AK116" s="53"/>
-    </row>
-    <row r="117" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ116" s="53"/>
+    </row>
+    <row r="117" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI117" s="38"/>
-      <c r="AJ117" s="38"/>
-      <c r="AK117" s="53"/>
-    </row>
-    <row r="118" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ117" s="53"/>
+    </row>
+    <row r="118" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI118" s="38"/>
-      <c r="AJ118" s="38"/>
-      <c r="AK118" s="53"/>
-    </row>
-    <row r="119" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ118" s="53"/>
+    </row>
+    <row r="119" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI119" s="38"/>
-      <c r="AJ119" s="38"/>
-      <c r="AK119" s="53"/>
-    </row>
-    <row r="120" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ119" s="53"/>
+    </row>
+    <row r="120" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI120" s="38"/>
-      <c r="AJ120" s="38"/>
-      <c r="AK120" s="53"/>
-    </row>
-    <row r="121" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ120" s="53"/>
+    </row>
+    <row r="121" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI121" s="38"/>
-      <c r="AJ121" s="38"/>
-      <c r="AK121" s="53"/>
-    </row>
-    <row r="122" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ121" s="53"/>
+    </row>
+    <row r="122" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI122" s="38"/>
-      <c r="AJ122" s="38"/>
-      <c r="AK122" s="53"/>
-    </row>
-    <row r="123" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ122" s="53"/>
+    </row>
+    <row r="123" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI123" s="38"/>
-      <c r="AJ123" s="38"/>
-      <c r="AK123" s="53"/>
-    </row>
-    <row r="124" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ123" s="53"/>
+    </row>
+    <row r="124" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI124" s="38"/>
-      <c r="AJ124" s="38"/>
-      <c r="AK124" s="53"/>
-    </row>
-    <row r="125" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ124" s="53"/>
+    </row>
+    <row r="125" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI125" s="38"/>
-      <c r="AJ125" s="38"/>
-      <c r="AK125" s="53"/>
-    </row>
-    <row r="126" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ125" s="53"/>
+    </row>
+    <row r="126" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI126" s="38"/>
-      <c r="AJ126" s="38"/>
-      <c r="AK126" s="53"/>
-    </row>
-    <row r="127" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ126" s="53"/>
+    </row>
+    <row r="127" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI127" s="38"/>
-      <c r="AJ127" s="38"/>
-      <c r="AK127" s="53"/>
-    </row>
-    <row r="128" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ127" s="53"/>
+    </row>
+    <row r="128" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI128" s="38"/>
-      <c r="AJ128" s="38"/>
-      <c r="AK128" s="53"/>
-    </row>
-    <row r="129" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ128" s="53"/>
+    </row>
+    <row r="129" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI129" s="38"/>
-      <c r="AJ129" s="38"/>
-      <c r="AK129" s="53"/>
-    </row>
-    <row r="130" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ129" s="53"/>
+    </row>
+    <row r="130" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI130" s="38"/>
-      <c r="AJ130" s="38"/>
-      <c r="AK130" s="53"/>
-    </row>
-    <row r="131" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ130" s="53"/>
+    </row>
+    <row r="131" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI131" s="38"/>
-      <c r="AJ131" s="38"/>
-      <c r="AK131" s="53"/>
-    </row>
-    <row r="132" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ131" s="53"/>
+    </row>
+    <row r="132" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI132" s="38"/>
-      <c r="AJ132" s="38"/>
-      <c r="AK132" s="53"/>
-    </row>
-    <row r="133" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ132" s="53"/>
+    </row>
+    <row r="133" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI133" s="38"/>
-      <c r="AJ133" s="38"/>
-      <c r="AK133" s="53"/>
-    </row>
-    <row r="134" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ133" s="53"/>
+    </row>
+    <row r="134" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI134" s="38"/>
-      <c r="AJ134" s="38"/>
-      <c r="AK134" s="53"/>
-    </row>
-    <row r="135" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ134" s="53"/>
+    </row>
+    <row r="135" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI135" s="38"/>
-      <c r="AJ135" s="38"/>
-      <c r="AK135" s="53"/>
-    </row>
-    <row r="136" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ135" s="53"/>
+    </row>
+    <row r="136" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI136" s="38"/>
-      <c r="AJ136" s="38"/>
-      <c r="AK136" s="53"/>
-    </row>
-    <row r="137" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ136" s="53"/>
+    </row>
+    <row r="137" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI137" s="38"/>
-      <c r="AJ137" s="38"/>
-      <c r="AK137" s="53"/>
-    </row>
-    <row r="138" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ137" s="53"/>
+    </row>
+    <row r="138" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI138" s="38"/>
-      <c r="AJ138" s="38"/>
-      <c r="AK138" s="53"/>
-    </row>
-    <row r="139" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ138" s="53"/>
+    </row>
+    <row r="139" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI139" s="38"/>
-      <c r="AJ139" s="38"/>
-      <c r="AK139" s="53"/>
-    </row>
-    <row r="140" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ139" s="53"/>
+    </row>
+    <row r="140" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI140" s="38"/>
-      <c r="AJ140" s="38"/>
-      <c r="AK140" s="53"/>
-    </row>
-    <row r="141" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ140" s="53"/>
+    </row>
+    <row r="141" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI141" s="38"/>
-      <c r="AJ141" s="38"/>
-      <c r="AK141" s="53"/>
-    </row>
-    <row r="142" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ141" s="53"/>
+    </row>
+    <row r="142" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI142" s="38"/>
-      <c r="AJ142" s="38"/>
-      <c r="AK142" s="53"/>
-    </row>
-    <row r="143" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ142" s="53"/>
+    </row>
+    <row r="143" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI143" s="38"/>
-      <c r="AJ143" s="38"/>
-      <c r="AK143" s="53"/>
-    </row>
-    <row r="144" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ143" s="53"/>
+    </row>
+    <row r="144" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI144" s="38"/>
-      <c r="AJ144" s="38"/>
-      <c r="AK144" s="53"/>
+      <c r="AJ144" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF0BD18C-1713-4515-81EA-41B88FD7BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{AF0BD18C-1713-4515-81EA-41B88FD7BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{131FFFCF-3747-4C83-B5A1-38500FA5EFE8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="217">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2180,9 +2180,6 @@
     <t>Timeslices</t>
   </si>
   <si>
-    <t>~TFM_INS</t>
-  </si>
-  <si>
     <t>AllRegions</t>
   </si>
   <si>
@@ -2204,7 +2201,10 @@
     <t>Decenteralized electricity</t>
   </si>
   <si>
-    <t>AF</t>
+    <t>FLO_FR</t>
+  </si>
+  <si>
+    <t>~TFM_DINS</t>
   </si>
 </sst>
 </file>
@@ -3024,6 +3024,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3313,8 +3317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F289C8C-2E2A-4CC1-9EB1-31AFA36FA445}">
   <dimension ref="A1:W67"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView topLeftCell="A15" zoomScale="142" zoomScaleNormal="142" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4463,10 +4467,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AU144"/>
+  <dimension ref="B1:AW144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AN20" sqref="AN20"/>
+    <sheetView tabSelected="1" topLeftCell="AH15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AR20" sqref="AR20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -4494,11 +4498,12 @@
     <col min="28" max="28" width="13.453125" style="48" customWidth="1"/>
     <col min="29" max="29" width="13.81640625" style="48" customWidth="1"/>
     <col min="30" max="30" width="8.453125" style="48" customWidth="1"/>
-    <col min="31" max="35" width="8.81640625" style="48"/>
-    <col min="36" max="36" width="12.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="37" max="39" width="8.81640625" style="48"/>
-    <col min="40" max="40" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.81640625" style="48"/>
+    <col min="31" max="36" width="8.81640625" style="48"/>
+    <col min="37" max="37" width="12.453125" style="48" bestFit="1" customWidth="1"/>
+    <col min="38" max="39" width="8.81640625" style="48"/>
+    <col min="40" max="40" width="10.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="42" max="16384" width="8.81640625" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="14.5" x14ac:dyDescent="0.35">
@@ -4716,10 +4721,10 @@
         <v>59</v>
       </c>
       <c r="X8" s="84" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y8" s="84" t="s">
         <v>210</v>
-      </c>
-      <c r="Y8" s="84" t="s">
-        <v>211</v>
       </c>
       <c r="Z8" s="84" t="s">
         <v>58</v>
@@ -4742,10 +4747,10 @@
         <v>59</v>
       </c>
       <c r="X9" s="84" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y9" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Z9" s="84" t="s">
         <v>58</v>
@@ -4808,7 +4813,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:49" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4889,22 +4894,24 @@
         <v>22</v>
       </c>
       <c r="AI17" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="AJ17" s="38"/>
-      <c r="AK17" s="63"/>
+        <v>216</v>
+      </c>
+      <c r="AJ17" s="63"/>
+      <c r="AK17" s="38"/>
       <c r="AL17" s="63"/>
       <c r="AM17" s="63"/>
-      <c r="AN17" s="38"/>
-      <c r="AP17" s="63" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ17" s="38"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="38"/>
+      <c r="AQ17" s="63" t="s">
+        <v>216</v>
+      </c>
       <c r="AR17" s="63"/>
-      <c r="AS17" s="63"/>
+      <c r="AS17" s="38"/>
       <c r="AT17" s="63"/>
-    </row>
-    <row r="18" spans="2:47" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AU17" s="63"/>
+      <c r="AV17" s="63"/>
+    </row>
+    <row r="18" spans="2:49" ht="31" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4988,40 +4995,46 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="AK18" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="AK18" s="64" t="s">
+      <c r="AL18" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="AL18" s="64" t="s">
+      <c r="AM18" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AM18" s="64" t="s">
+      <c r="AN18" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="AN18" s="64" t="s">
-        <v>209</v>
-      </c>
-      <c r="AP18" s="64" t="s">
+      <c r="AO18" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="AQ18" s="64" t="s">
         <v>130</v>
       </c>
-      <c r="AQ18" s="64" t="s">
+      <c r="AR18" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="AS18" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="AR18" s="64" t="s">
+      <c r="AT18" s="64" t="s">
         <v>197</v>
       </c>
-      <c r="AS18" s="64" t="s">
+      <c r="AU18" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="AT18" s="64" t="s">
+      <c r="AV18" s="64" t="s">
         <v>206</v>
       </c>
-      <c r="AU18" s="64" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AW18" s="64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="2:49" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -5064,25 +5077,27 @@
       <c r="AI19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AJ19" s="44" t="s">
+      <c r="AJ19" s="44"/>
+      <c r="AK19" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="AK19" s="44"/>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
-      <c r="AP19" s="44" t="s">
+      <c r="AO19" s="44"/>
+      <c r="AQ19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AQ19" s="44" t="s">
+      <c r="AR19" s="44"/>
+      <c r="AS19" s="44" t="s">
         <v>131</v>
       </c>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
       <c r="AT19" s="44"/>
       <c r="AU19" s="44"/>
-    </row>
-    <row r="20" spans="2:47" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="AV19" s="44"/>
+      <c r="AW19" s="44"/>
+    </row>
+    <row r="20" spans="2:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="48" t="str">
         <f>X20</f>
         <v>Furnace</v>
@@ -5150,24 +5165,26 @@
         <v>53</v>
       </c>
       <c r="AJ20" s="45"/>
-      <c r="AK20" s="45" t="s">
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="AL20" s="45"/>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45"/>
-      <c r="AP20" s="45" t="s">
+      <c r="AO20" s="45"/>
+      <c r="AQ20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45" t="s">
+      <c r="AR20" s="45"/>
+      <c r="AS20" s="45"/>
+      <c r="AT20" s="45" t="s">
         <v>207</v>
       </c>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="44"/>
-    </row>
-    <row r="21" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+      <c r="AU20" s="45"/>
+      <c r="AV20" s="45"/>
+      <c r="AW20" s="44"/>
+    </row>
+    <row r="21" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B21" s="48" t="str">
         <f>X$21</f>
         <v>BIOBoiler</v>
@@ -5233,43 +5250,49 @@
       <c r="AC21" s="49"/>
       <c r="AD21" s="49"/>
       <c r="AI21" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ21" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK21" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ21" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK21" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AL21" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM21" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN21" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN21" s="48">
+      <c r="AO21" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AP21" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ21" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR21" s="48" t="s">
+      <c r="AQ21" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR21" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS21" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AS21" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT21" s="48" t="s">
+      <c r="AU21" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV21" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU21" s="48">
+      <c r="AW21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B22" s="48" t="str">
         <f>X24</f>
         <v>ELCBoiler</v>
@@ -5334,43 +5357,49 @@
       <c r="AC22" s="49"/>
       <c r="AD22" s="49"/>
       <c r="AI22" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ22" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK22" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ22" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK22" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AL22" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM22" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN22" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN22" s="48">
+      <c r="AO22" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AP22" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ22" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR22" s="69" t="s">
+      <c r="AQ22" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR22" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS22" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AS22" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT22" s="48" t="s">
+      <c r="AU22" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV22" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU22" s="48">
+      <c r="AW22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B23" s="48" t="str">
         <f>X22</f>
         <v>BIOKiln</v>
@@ -5433,43 +5462,49 @@
         <v>88</v>
       </c>
       <c r="AI23" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ23" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK23" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ23" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK23" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AL23" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM23" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN23" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN23" s="48">
+      <c r="AO23" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AP23" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ23" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR23" s="48" t="s">
+      <c r="AQ23" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR23" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS23" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AS23" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT23" s="48" t="s">
+      <c r="AU23" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV23" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU23" s="49">
+      <c r="AW23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B24" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5532,43 +5567,49 @@
         <v>88</v>
       </c>
       <c r="AI24" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ24" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK24" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ24" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK24" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AL24" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM24" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN24" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN24" s="48">
+      <c r="AO24" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AP24" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ24" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR24" s="69" t="s">
+      <c r="AQ24" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR24" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS24" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AS24" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT24" s="48" t="s">
+      <c r="AU24" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV24" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU24" s="49">
+      <c r="AW24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="str">
         <f>X26</f>
         <v>WNDTRBN</v>
@@ -5578,7 +5619,7 @@
         <v>WIND</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E25" s="46">
         <v>2030</v>
@@ -5637,43 +5678,49 @@
         <v>88</v>
       </c>
       <c r="AI25" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ25" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK25" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ25" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK25" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AL25" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM25" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN25" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN25" s="48">
+      <c r="AO25" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AP25" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ25" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR25" s="48" t="s">
+      <c r="AQ25" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR25" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS25" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AS25" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT25" s="48" t="s">
+      <c r="AU25" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV25" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU25" s="49">
+      <c r="AW25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="str">
         <f>X27</f>
         <v>SOLPV</v>
@@ -5683,7 +5730,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E26" s="46">
         <v>2030</v>
@@ -5742,43 +5789,49 @@
         <v>88</v>
       </c>
       <c r="AI26" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ26" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK26" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ26" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK26" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AL26" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN26" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN26" s="48">
+      <c r="AO26" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AP26" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ26" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR26" s="69" t="s">
+      <c r="AQ26" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR26" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS26" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AS26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT26" s="48" t="s">
+      <c r="AU26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV26" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU26" s="49">
+      <c r="AW26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="str">
         <f>X25</f>
         <v>CSP</v>
@@ -5848,43 +5901,49 @@
         <v>88</v>
       </c>
       <c r="AI27" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ27" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK27" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ27" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK27" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AL27" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM27" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN27" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN27" s="48">
+      <c r="AO27" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AP27" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ27" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR27" s="48" t="s">
+      <c r="AQ27" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR27" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS27" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AS27" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT27" s="48" t="s">
+      <c r="AU27" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV27" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU27" s="49">
+      <c r="AW27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5955,43 +6014,49 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AI28" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ28" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK28" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ28" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK28" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AL28" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM28" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN28" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN28" s="48">
+      <c r="AO28" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AP28" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ28" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR28" s="69" t="s">
+      <c r="AQ28" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR28" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS28" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AS28" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT28" s="48" t="s">
+      <c r="AU28" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV28" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU28" s="49">
+      <c r="AW28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6044,10 +6109,10 @@
         <v>69</v>
       </c>
       <c r="X29" s="49" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y29" s="49" t="s">
         <v>214</v>
-      </c>
-      <c r="Y29" s="49" t="s">
-        <v>215</v>
       </c>
       <c r="Z29" s="49" t="s">
         <v>58</v>
@@ -6059,43 +6124,49 @@
         <v>88</v>
       </c>
       <c r="AI29" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ29" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK29" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ29" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK29" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AL29" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM29" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN29" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN29" s="48">
+      <c r="AO29" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AP29" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ29" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR29" s="48" t="s">
+      <c r="AQ29" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR29" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS29" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AS29" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT29" s="48" t="s">
+      <c r="AU29" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV29" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU29" s="49">
+      <c r="AW29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6154,43 +6225,49 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
       <c r="AI30" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ30" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK30" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ30" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK30" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AL30" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM30" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN30" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN30" s="48">
+      <c r="AO30" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AP30" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ30" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR30" s="69" t="s">
+      <c r="AQ30" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR30" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS30" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AS30" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT30" s="48" t="s">
+      <c r="AU30" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV30" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU30" s="49">
+      <c r="AW30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -6234,48 +6311,54 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
       <c r="AI31" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ31" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK31" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL31" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AM31" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN31" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO31" s="48">
+        <v>2.4530677112863486E-3</v>
+      </c>
+      <c r="AQ31" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS31" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT31" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="AU31" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV31" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW31" s="49">
+        <v>0.27468446594982077</v>
+      </c>
+    </row>
+    <row r="32" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B32" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="AK31" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="AL31" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM31" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN31" s="48">
-        <v>2.4530677112863486E-3</v>
-      </c>
-      <c r="AP31" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ31" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR31" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="AS31" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT31" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU31" s="49">
-        <v>0.27468446594982077</v>
-      </c>
-    </row>
-    <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B32" s="53" t="s">
-        <v>214</v>
-      </c>
       <c r="C32" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D32" s="53" t="s">
         <v>69</v>
@@ -6310,48 +6393,54 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
       <c r="AI32" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ32" s="39" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ32" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK32" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL32" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="AM32" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN32" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO32" s="48">
+        <v>2.1363241345921055E-3</v>
+      </c>
+      <c r="AQ32" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR32" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS32" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT32" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="AU32" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV32" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="AW32" s="49">
+        <v>0.32637437275985665</v>
+      </c>
+    </row>
+    <row r="33" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B33" s="53" t="s">
         <v>213</v>
       </c>
-      <c r="AK32" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="AL32" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AM32" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN32" s="48">
-        <v>2.1363241345921055E-3</v>
-      </c>
-      <c r="AP32" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ32" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR32" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="AS32" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT32" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU32" s="49">
-        <v>0.32637437275985665</v>
-      </c>
-    </row>
-    <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="53" t="s">
-        <v>214</v>
-      </c>
       <c r="C33" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D33" s="53" t="s">
         <v>69</v>
@@ -6386,43 +6475,49 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
       <c r="AI33" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ33" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK33" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ33" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK33" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AL33" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM33" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN33" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN33" s="48">
+      <c r="AO33" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AP33" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ33" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR33" s="48" t="s">
+      <c r="AQ33" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR33" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS33" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AS33" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT33" s="48" t="s">
+      <c r="AU33" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV33" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU33" s="49">
+      <c r="AW33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -6439,43 +6534,49 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
       <c r="AI34" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ34" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK34" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ34" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK34" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AL34" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM34" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN34" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN34" s="48">
+      <c r="AO34" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AP34" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ34" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR34" s="69" t="s">
+      <c r="AQ34" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR34" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS34" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AS34" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT34" s="48" t="s">
+      <c r="AU34" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV34" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU34" s="49">
+      <c r="AW34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -6493,43 +6594,49 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
       <c r="AI35" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ35" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK35" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ35" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK35" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AL35" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM35" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN35" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN35" s="48">
+      <c r="AO35" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AP35" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ35" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR35" s="48" t="s">
+      <c r="AQ35" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR35" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS35" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AS35" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT35" s="48" t="s">
+      <c r="AU35" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV35" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU35" s="49">
+      <c r="AW35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -6550,43 +6657,49 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
       <c r="AI36" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ36" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK36" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ36" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK36" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AL36" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM36" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN36" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN36" s="48">
+      <c r="AO36" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AP36" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ36" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR36" s="69" t="s">
+      <c r="AQ36" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR36" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS36" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AS36" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT36" s="48" t="s">
+      <c r="AU36" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV36" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU36" s="49">
+      <c r="AW36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:47" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -6607,43 +6720,49 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
       <c r="AI37" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ37" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK37" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ37" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK37" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AL37" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM37" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN37" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN37" s="48">
+      <c r="AO37" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AP37" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ37" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR37" s="48" t="s">
+      <c r="AQ37" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR37" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS37" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AS37" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT37" s="48" t="s">
+      <c r="AU37" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV37" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU37" s="49">
+      <c r="AW37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:49" x14ac:dyDescent="0.25">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
@@ -6652,168 +6771,192 @@
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
       <c r="AI38" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ38" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK38" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ38" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK38" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AL38" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM38" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN38" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN38" s="48">
+      <c r="AO38" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AP38" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ38" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR38" s="69" t="s">
+      <c r="AQ38" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR38" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS38" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AS38" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT38" s="48" t="s">
+      <c r="AU38" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV38" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU38" s="48">
+      <c r="AW38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:49" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ39" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK39" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK39" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AL39" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM39" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN39" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN39" s="48">
+      <c r="AO39" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AP39" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ39" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR39" s="48" t="s">
+      <c r="AQ39" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS39" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AS39" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT39" s="48" t="s">
+      <c r="AU39" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV39" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU39" s="48">
+      <c r="AW39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
       </c>
       <c r="H40" s="75"/>
       <c r="AI40" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ40" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK40" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ40" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK40" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AL40" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM40" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN40" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN40" s="48">
+      <c r="AO40" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AP40" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ40" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR40" s="69" t="s">
+      <c r="AQ40" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR40" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS40" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AS40" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT40" s="48" t="s">
+      <c r="AU40" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV40" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU40" s="48">
+      <c r="AW40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="75"/>
       <c r="AI41" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ41" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK41" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ41" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK41" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AL41" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM41" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN41" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN41" s="48">
+      <c r="AO41" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AP41" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ41" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR41" s="48" t="s">
+      <c r="AQ41" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR41" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS41" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AS41" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT41" s="48" t="s">
+      <c r="AU41" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV41" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU41" s="48">
+      <c r="AW41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -6822,81 +6965,93 @@
       </c>
       <c r="H42" s="75"/>
       <c r="AI42" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ42" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK42" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ42" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK42" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AL42" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM42" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN42" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN42" s="48">
+      <c r="AO42" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AP42" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ42" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR42" s="69" t="s">
+      <c r="AQ42" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR42" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS42" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AS42" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT42" s="48" t="s">
+      <c r="AU42" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV42" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU42" s="48">
+      <c r="AW42" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI43" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ43" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK43" s="48" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ43" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK43" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AL43" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM43" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN43" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN43" s="48">
+      <c r="AO43" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AP43" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ43" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR43" s="48" t="s">
+      <c r="AQ43" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR43" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS43" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AS43" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT43" s="48" t="s">
+      <c r="AU43" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV43" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU43" s="48">
+      <c r="AW43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -6905,310 +7060,358 @@
         <v>8760</v>
       </c>
       <c r="AI44" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ44" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK44" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ44" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK44" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AL44" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM44" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN44" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN44" s="48">
+      <c r="AO44" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AP44" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ44" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR44" s="69" t="s">
+      <c r="AQ44" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR44" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS44" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AS44" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT44" s="48" t="s">
+      <c r="AU44" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV44" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU44" s="48">
+      <c r="AW44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:49" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ45" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK45" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ45" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK45" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AL45" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM45" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN45" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN45" s="48">
+      <c r="AO45" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AP45" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ45" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR45" s="38" t="s">
+      <c r="AQ45" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR45" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS45" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AS45" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT45" s="48" t="s">
+      <c r="AU45" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV45" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU45" s="48">
+      <c r="AW45" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI46" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ46" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK46" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ46" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK46" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AL46" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM46" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN46" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN46" s="48">
+      <c r="AO46" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AP46" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ46" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR46" s="38" t="s">
+      <c r="AQ46" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR46" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS46" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AS46" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT46" s="48" t="s">
+      <c r="AU46" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV46" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU46" s="48">
+      <c r="AW46" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI47" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ47" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK47" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ47" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK47" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AL47" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM47" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN47" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN47" s="48">
+      <c r="AO47" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AP47" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ47" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR47" s="38" t="s">
+      <c r="AQ47" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR47" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS47" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AS47" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT47" s="48" t="s">
+      <c r="AU47" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV47" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU47" s="48">
+      <c r="AW47" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI48" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ48" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK48" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ48" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK48" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AL48" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM48" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN48" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN48" s="48">
+      <c r="AO48" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AP48" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ48" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR48" s="38" t="s">
+      <c r="AQ48" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR48" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS48" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AS48" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT48" s="48" t="s">
+      <c r="AU48" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV48" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU48" s="48">
+      <c r="AW48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI49" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ49" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK49" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ49" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK49" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AL49" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM49" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN49" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN49" s="48">
+      <c r="AO49" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AP49" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ49" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR49" s="38" t="s">
+      <c r="AQ49" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR49" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS49" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AS49" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT49" s="48" t="s">
+      <c r="AU49" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV49" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU49" s="48">
+      <c r="AW49" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI50" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ50" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK50" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ50" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK50" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AL50" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM50" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN50" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN50" s="48">
+      <c r="AO50" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AP50" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ50" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR50" s="38" t="s">
+      <c r="AQ50" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR50" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS50" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AS50" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT50" s="48" t="s">
+      <c r="AU50" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV50" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU50" s="48">
+      <c r="AW50" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI51" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ51" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK51" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ51" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK51" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AL51" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM51" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN51" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN51" s="48">
+      <c r="AO51" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AP51" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ51" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR51" s="38" t="s">
+      <c r="AQ51" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR51" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS51" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AS51" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT51" s="48" t="s">
+      <c r="AU51" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV51" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU51" s="48">
+      <c r="AW51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B52" s="79" t="s">
         <v>184</v>
       </c>
@@ -7223,43 +7426,49 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="AI52" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ52" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK52" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ52" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK52" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AL52" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM52" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN52" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN52" s="48">
+      <c r="AO52" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AP52" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ52" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR52" s="38" t="s">
+      <c r="AQ52" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR52" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS52" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AS52" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT52" s="48" t="s">
+      <c r="AU52" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV52" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU52" s="48">
+      <c r="AW52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:47" ht="13" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:49" ht="13" x14ac:dyDescent="0.3">
       <c r="B53" s="79"/>
       <c r="C53" s="79"/>
       <c r="D53"/>
@@ -7272,43 +7481,49 @@
       <c r="K53"/>
       <c r="L53"/>
       <c r="AI53" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ53" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK53" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ53" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK53" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AL53" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM53" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN53" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN53" s="48">
+      <c r="AO53" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AP53" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ53" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR53" s="38" t="s">
+      <c r="AQ53" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR53" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS53" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AS53" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT53" s="48" t="s">
+      <c r="AU53" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV53" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU53" s="48">
+      <c r="AW53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:47" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:49" ht="13" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B54" s="80" t="s">
         <v>185</v>
       </c>
@@ -7343,43 +7558,49 @@
         <v>2050</v>
       </c>
       <c r="AI54" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ54" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK54" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ54" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK54" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AL54" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM54" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN54" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN54" s="48">
+      <c r="AO54" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AP54" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ54" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR54" s="38" t="s">
+      <c r="AQ54" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR54" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS54" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AS54" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT54" s="48" t="s">
+      <c r="AU54" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV54" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU54" s="48">
+      <c r="AW54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -7404,43 +7625,49 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="AI55" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ55" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK55" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ55" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK55" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AL55" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM55" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN55" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN55" s="48">
+      <c r="AO55" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AP55" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ55" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR55" s="38" t="s">
+      <c r="AQ55" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR55" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS55" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AS55" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT55" s="48" t="s">
+      <c r="AU55" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV55" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU55" s="48">
+      <c r="AW55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -7465,43 +7692,49 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="AI56" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ56" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK56" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ56" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK56" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AL56" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM56" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN56" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN56" s="48">
+      <c r="AO56" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AP56" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ56" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR56" s="38" t="s">
+      <c r="AQ56" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR56" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS56" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AS56" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT56" s="48" t="s">
+      <c r="AU56" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV56" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU56" s="48">
+      <c r="AW56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -7526,43 +7759,49 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="AI57" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ57" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK57" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ57" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK57" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AL57" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM57" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN57" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN57" s="48">
+      <c r="AO57" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AP57" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ57" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR57" s="38" t="s">
+      <c r="AQ57" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR57" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS57" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AS57" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT57" s="48" t="s">
+      <c r="AU57" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV57" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU57" s="48">
+      <c r="AW57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -7587,43 +7826,49 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="AI58" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ58" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK58" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ58" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK58" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AL58" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM58" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN58" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN58" s="48">
+      <c r="AO58" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AP58" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ58" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR58" s="38" t="s">
+      <c r="AQ58" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR58" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS58" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AS58" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT58" s="48" t="s">
+      <c r="AU58" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV58" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU58" s="48">
+      <c r="AW58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -7648,43 +7893,49 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="AI59" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ59" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK59" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ59" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK59" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AL59" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM59" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN59" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN59" s="48">
+      <c r="AO59" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AP59" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ59" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR59" s="38" t="s">
+      <c r="AQ59" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR59" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS59" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AS59" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT59" s="48" t="s">
+      <c r="AU59" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV59" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU59" s="48">
+      <c r="AW59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -7709,43 +7960,49 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="AI60" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ60" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK60" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ60" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK60" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AL60" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM60" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN60" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN60" s="48">
+      <c r="AO60" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AP60" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ60" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR60" s="38" t="s">
+      <c r="AQ60" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR60" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS60" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AS60" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT60" s="48" t="s">
+      <c r="AU60" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV60" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU60" s="48">
+      <c r="AW60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -7770,43 +8027,49 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="AI61" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ61" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK61" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ61" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK61" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AL61" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM61" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN61" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN61" s="48">
+      <c r="AO61" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AP61" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ61" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR61" s="38" t="s">
+      <c r="AQ61" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR61" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS61" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AS61" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT61" s="48" t="s">
+      <c r="AU61" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV61" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU61" s="48">
+      <c r="AW61" s="48">
         <v>0.13618056033452808</v>
       </c>
     </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:49" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>121</v>
       </c>
@@ -7831,573 +8094,691 @@
       <c r="K62"/>
       <c r="L62"/>
       <c r="AI62" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ62" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK62" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ62" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK62" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AL62" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM62" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN62" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN62" s="48">
+      <c r="AO62" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AP62" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ62" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR62" s="38" t="s">
+      <c r="AQ62" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR62" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS62" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AS62" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT62" s="48" t="s">
+      <c r="AU62" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV62" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU62" s="48">
+      <c r="AW62" s="48">
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI63" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ63" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK63" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ63" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK63" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AL63" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM63" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN63" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN63" s="48">
+      <c r="AO63" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AP63" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ63" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR63" s="38" t="s">
+      <c r="AQ63" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR63" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS63" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AS63" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT63" s="48" t="s">
+      <c r="AU63" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV63" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU63" s="48">
+      <c r="AW63" s="48">
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:49" x14ac:dyDescent="0.25">
       <c r="AI64" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ64" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK64" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ64" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK64" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AL64" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM64" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN64" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN64" s="48">
+      <c r="AO64" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AP64" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ64" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR64" s="38" t="s">
+      <c r="AQ64" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR64" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS64" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AS64" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT64" s="48" t="s">
+      <c r="AU64" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV64" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU64" s="48">
+      <c r="AW64" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="65" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI65" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ65" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK65" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ65" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK65" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AL65" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM65" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN65" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN65" s="48">
+      <c r="AO65" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AP65" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ65" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR65" s="38" t="s">
+      <c r="AQ65" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR65" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS65" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AS65" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT65" s="48" t="s">
+      <c r="AU65" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV65" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU65" s="48">
+      <c r="AW65" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="66" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI66" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ66" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK66" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ66" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK66" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AL66" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM66" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN66" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN66" s="48">
+      <c r="AO66" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AP66" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ66" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR66" s="38" t="s">
+      <c r="AQ66" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR66" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS66" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AS66" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT66" s="48" t="s">
+      <c r="AU66" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV66" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU66" s="48">
+      <c r="AW66" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="67" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI67" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ67" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK67" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ67" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK67" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AL67" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM67" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN67" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN67" s="48">
+      <c r="AO67" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AP67" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ67" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR67" s="38" t="s">
+      <c r="AQ67" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR67" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS67" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AS67" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT67" s="48" t="s">
+      <c r="AU67" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV67" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU67" s="48">
+      <c r="AW67" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="68" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI68" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AJ68" s="39" t="s">
-        <v>213</v>
-      </c>
-      <c r="AK68" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AJ68" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK68" s="39" t="s">
+        <v>212</v>
+      </c>
+      <c r="AL68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AL68" s="48" t="s">
-        <v>196</v>
-      </c>
       <c r="AM68" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN68" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AN68" s="48">
+      <c r="AO68" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AP68" s="38" t="s">
-        <v>216</v>
-      </c>
-      <c r="AQ68" s="39" t="s">
-        <v>210</v>
-      </c>
-      <c r="AR68" s="38" t="s">
+      <c r="AQ68" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="AR68" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AS68" s="39" t="s">
+        <v>209</v>
+      </c>
+      <c r="AT68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AS68" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT68" s="48" t="s">
+      <c r="AU68" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="AV68" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AU68" s="48">
+      <c r="AW68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI69" s="38"/>
-      <c r="AJ69" s="53"/>
-    </row>
-    <row r="70" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="38"/>
+      <c r="AK69" s="53"/>
+    </row>
+    <row r="70" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI70" s="38"/>
-      <c r="AJ70" s="53"/>
-    </row>
-    <row r="71" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="38"/>
+      <c r="AK70" s="53"/>
+    </row>
+    <row r="71" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI71" s="38"/>
-      <c r="AJ71" s="53"/>
-    </row>
-    <row r="72" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="38"/>
+      <c r="AK71" s="53"/>
+    </row>
+    <row r="72" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI72" s="38"/>
-      <c r="AJ72" s="53"/>
-    </row>
-    <row r="73" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="38"/>
+      <c r="AK72" s="53"/>
+    </row>
+    <row r="73" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI73" s="38"/>
-      <c r="AJ73" s="53"/>
-    </row>
-    <row r="74" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="38"/>
+      <c r="AK73" s="53"/>
+    </row>
+    <row r="74" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI74" s="38"/>
-      <c r="AJ74" s="53"/>
-    </row>
-    <row r="75" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="38"/>
+      <c r="AK74" s="53"/>
+    </row>
+    <row r="75" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI75" s="38"/>
-      <c r="AJ75" s="53"/>
-    </row>
-    <row r="76" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="38"/>
+      <c r="AK75" s="53"/>
+    </row>
+    <row r="76" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI76" s="38"/>
-      <c r="AJ76" s="53"/>
-    </row>
-    <row r="77" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="38"/>
+      <c r="AK76" s="53"/>
+    </row>
+    <row r="77" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI77" s="38"/>
-      <c r="AJ77" s="53"/>
-    </row>
-    <row r="78" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="38"/>
+      <c r="AK77" s="53"/>
+    </row>
+    <row r="78" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI78" s="38"/>
-      <c r="AJ78" s="53"/>
-    </row>
-    <row r="79" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="38"/>
+      <c r="AK78" s="53"/>
+    </row>
+    <row r="79" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI79" s="38"/>
-      <c r="AJ79" s="53"/>
-    </row>
-    <row r="80" spans="35:47" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="38"/>
+      <c r="AK79" s="53"/>
+    </row>
+    <row r="80" spans="35:49" x14ac:dyDescent="0.25">
       <c r="AI80" s="38"/>
-      <c r="AJ80" s="53"/>
-    </row>
-    <row r="81" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="38"/>
+      <c r="AK80" s="53"/>
+    </row>
+    <row r="81" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI81" s="38"/>
-      <c r="AJ81" s="53"/>
-    </row>
-    <row r="82" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="38"/>
+      <c r="AK81" s="53"/>
+    </row>
+    <row r="82" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI82" s="38"/>
-      <c r="AJ82" s="53"/>
-    </row>
-    <row r="83" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ82" s="38"/>
+      <c r="AK82" s="53"/>
+    </row>
+    <row r="83" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI83" s="38"/>
-      <c r="AJ83" s="53"/>
-    </row>
-    <row r="84" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ83" s="38"/>
+      <c r="AK83" s="53"/>
+    </row>
+    <row r="84" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI84" s="38"/>
-      <c r="AJ84" s="53"/>
-    </row>
-    <row r="85" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ84" s="38"/>
+      <c r="AK84" s="53"/>
+    </row>
+    <row r="85" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI85" s="38"/>
-      <c r="AJ85" s="53"/>
-    </row>
-    <row r="86" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ85" s="38"/>
+      <c r="AK85" s="53"/>
+    </row>
+    <row r="86" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI86" s="38"/>
-      <c r="AJ86" s="53"/>
-    </row>
-    <row r="87" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ86" s="38"/>
+      <c r="AK86" s="53"/>
+    </row>
+    <row r="87" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI87" s="38"/>
-      <c r="AJ87" s="53"/>
-    </row>
-    <row r="88" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ87" s="38"/>
+      <c r="AK87" s="53"/>
+    </row>
+    <row r="88" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI88" s="38"/>
-      <c r="AJ88" s="53"/>
-    </row>
-    <row r="89" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ88" s="38"/>
+      <c r="AK88" s="53"/>
+    </row>
+    <row r="89" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI89" s="38"/>
-      <c r="AJ89" s="53"/>
-    </row>
-    <row r="90" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ89" s="38"/>
+      <c r="AK89" s="53"/>
+    </row>
+    <row r="90" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI90" s="38"/>
-      <c r="AJ90" s="53"/>
-    </row>
-    <row r="91" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ90" s="38"/>
+      <c r="AK90" s="53"/>
+    </row>
+    <row r="91" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI91" s="38"/>
-      <c r="AJ91" s="53"/>
-    </row>
-    <row r="92" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ91" s="38"/>
+      <c r="AK91" s="53"/>
+    </row>
+    <row r="92" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI92" s="38"/>
-      <c r="AJ92" s="53"/>
-    </row>
-    <row r="93" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ92" s="38"/>
+      <c r="AK92" s="53"/>
+    </row>
+    <row r="93" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI93" s="38"/>
-      <c r="AJ93" s="53"/>
-    </row>
-    <row r="94" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ93" s="38"/>
+      <c r="AK93" s="53"/>
+    </row>
+    <row r="94" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI94" s="38"/>
-      <c r="AJ94" s="53"/>
-    </row>
-    <row r="95" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ94" s="38"/>
+      <c r="AK94" s="53"/>
+    </row>
+    <row r="95" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI95" s="38"/>
-      <c r="AJ95" s="53"/>
-    </row>
-    <row r="96" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ95" s="38"/>
+      <c r="AK95" s="53"/>
+    </row>
+    <row r="96" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI96" s="38"/>
-      <c r="AJ96" s="53"/>
-    </row>
-    <row r="97" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ96" s="38"/>
+      <c r="AK96" s="53"/>
+    </row>
+    <row r="97" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI97" s="38"/>
-      <c r="AJ97" s="53"/>
-    </row>
-    <row r="98" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ97" s="38"/>
+      <c r="AK97" s="53"/>
+    </row>
+    <row r="98" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI98" s="38"/>
-      <c r="AJ98" s="53"/>
-    </row>
-    <row r="99" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ98" s="38"/>
+      <c r="AK98" s="53"/>
+    </row>
+    <row r="99" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI99" s="38"/>
-      <c r="AJ99" s="53"/>
-    </row>
-    <row r="100" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ99" s="38"/>
+      <c r="AK99" s="53"/>
+    </row>
+    <row r="100" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI100" s="38"/>
-      <c r="AJ100" s="53"/>
-    </row>
-    <row r="101" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ100" s="38"/>
+      <c r="AK100" s="53"/>
+    </row>
+    <row r="101" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI101" s="38"/>
-      <c r="AJ101" s="53"/>
-    </row>
-    <row r="102" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ101" s="38"/>
+      <c r="AK101" s="53"/>
+    </row>
+    <row r="102" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI102" s="38"/>
-      <c r="AJ102" s="53"/>
-    </row>
-    <row r="103" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ102" s="38"/>
+      <c r="AK102" s="53"/>
+    </row>
+    <row r="103" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI103" s="38"/>
-      <c r="AJ103" s="53"/>
-    </row>
-    <row r="104" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ103" s="38"/>
+      <c r="AK103" s="53"/>
+    </row>
+    <row r="104" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI104" s="38"/>
-      <c r="AJ104" s="53"/>
-    </row>
-    <row r="105" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ104" s="38"/>
+      <c r="AK104" s="53"/>
+    </row>
+    <row r="105" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI105" s="38"/>
-      <c r="AJ105" s="53"/>
-    </row>
-    <row r="106" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ105" s="38"/>
+      <c r="AK105" s="53"/>
+    </row>
+    <row r="106" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI106" s="38"/>
-      <c r="AJ106" s="53"/>
-    </row>
-    <row r="107" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ106" s="38"/>
+      <c r="AK106" s="53"/>
+    </row>
+    <row r="107" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI107" s="38"/>
-      <c r="AJ107" s="53"/>
-    </row>
-    <row r="108" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ107" s="38"/>
+      <c r="AK107" s="53"/>
+    </row>
+    <row r="108" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI108" s="38"/>
-      <c r="AJ108" s="53"/>
-    </row>
-    <row r="109" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ108" s="38"/>
+      <c r="AK108" s="53"/>
+    </row>
+    <row r="109" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI109" s="38"/>
-      <c r="AJ109" s="53"/>
-    </row>
-    <row r="110" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ109" s="38"/>
+      <c r="AK109" s="53"/>
+    </row>
+    <row r="110" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI110" s="38"/>
-      <c r="AJ110" s="53"/>
-    </row>
-    <row r="111" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ110" s="38"/>
+      <c r="AK110" s="53"/>
+    </row>
+    <row r="111" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI111" s="38"/>
-      <c r="AJ111" s="53"/>
-    </row>
-    <row r="112" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ111" s="38"/>
+      <c r="AK111" s="53"/>
+    </row>
+    <row r="112" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI112" s="38"/>
-      <c r="AJ112" s="53"/>
-    </row>
-    <row r="113" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ112" s="38"/>
+      <c r="AK112" s="53"/>
+    </row>
+    <row r="113" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI113" s="38"/>
-      <c r="AJ113" s="53"/>
-    </row>
-    <row r="114" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ113" s="38"/>
+      <c r="AK113" s="53"/>
+    </row>
+    <row r="114" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI114" s="38"/>
-      <c r="AJ114" s="53"/>
-    </row>
-    <row r="115" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ114" s="38"/>
+      <c r="AK114" s="53"/>
+    </row>
+    <row r="115" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI115" s="38"/>
-      <c r="AJ115" s="53"/>
-    </row>
-    <row r="116" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ115" s="38"/>
+      <c r="AK115" s="53"/>
+    </row>
+    <row r="116" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI116" s="38"/>
-      <c r="AJ116" s="53"/>
-    </row>
-    <row r="117" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ116" s="38"/>
+      <c r="AK116" s="53"/>
+    </row>
+    <row r="117" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI117" s="38"/>
-      <c r="AJ117" s="53"/>
-    </row>
-    <row r="118" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ117" s="38"/>
+      <c r="AK117" s="53"/>
+    </row>
+    <row r="118" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI118" s="38"/>
-      <c r="AJ118" s="53"/>
-    </row>
-    <row r="119" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ118" s="38"/>
+      <c r="AK118" s="53"/>
+    </row>
+    <row r="119" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI119" s="38"/>
-      <c r="AJ119" s="53"/>
-    </row>
-    <row r="120" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ119" s="38"/>
+      <c r="AK119" s="53"/>
+    </row>
+    <row r="120" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI120" s="38"/>
-      <c r="AJ120" s="53"/>
-    </row>
-    <row r="121" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ120" s="38"/>
+      <c r="AK120" s="53"/>
+    </row>
+    <row r="121" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI121" s="38"/>
-      <c r="AJ121" s="53"/>
-    </row>
-    <row r="122" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ121" s="38"/>
+      <c r="AK121" s="53"/>
+    </row>
+    <row r="122" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI122" s="38"/>
-      <c r="AJ122" s="53"/>
-    </row>
-    <row r="123" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ122" s="38"/>
+      <c r="AK122" s="53"/>
+    </row>
+    <row r="123" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI123" s="38"/>
-      <c r="AJ123" s="53"/>
-    </row>
-    <row r="124" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ123" s="38"/>
+      <c r="AK123" s="53"/>
+    </row>
+    <row r="124" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI124" s="38"/>
-      <c r="AJ124" s="53"/>
-    </row>
-    <row r="125" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ124" s="38"/>
+      <c r="AK124" s="53"/>
+    </row>
+    <row r="125" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI125" s="38"/>
-      <c r="AJ125" s="53"/>
-    </row>
-    <row r="126" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ125" s="38"/>
+      <c r="AK125" s="53"/>
+    </row>
+    <row r="126" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI126" s="38"/>
-      <c r="AJ126" s="53"/>
-    </row>
-    <row r="127" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ126" s="38"/>
+      <c r="AK126" s="53"/>
+    </row>
+    <row r="127" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI127" s="38"/>
-      <c r="AJ127" s="53"/>
-    </row>
-    <row r="128" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ127" s="38"/>
+      <c r="AK127" s="53"/>
+    </row>
+    <row r="128" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI128" s="38"/>
-      <c r="AJ128" s="53"/>
-    </row>
-    <row r="129" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ128" s="38"/>
+      <c r="AK128" s="53"/>
+    </row>
+    <row r="129" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI129" s="38"/>
-      <c r="AJ129" s="53"/>
-    </row>
-    <row r="130" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ129" s="38"/>
+      <c r="AK129" s="53"/>
+    </row>
+    <row r="130" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI130" s="38"/>
-      <c r="AJ130" s="53"/>
-    </row>
-    <row r="131" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ130" s="38"/>
+      <c r="AK130" s="53"/>
+    </row>
+    <row r="131" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI131" s="38"/>
-      <c r="AJ131" s="53"/>
-    </row>
-    <row r="132" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ131" s="38"/>
+      <c r="AK131" s="53"/>
+    </row>
+    <row r="132" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI132" s="38"/>
-      <c r="AJ132" s="53"/>
-    </row>
-    <row r="133" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ132" s="38"/>
+      <c r="AK132" s="53"/>
+    </row>
+    <row r="133" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI133" s="38"/>
-      <c r="AJ133" s="53"/>
-    </row>
-    <row r="134" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ133" s="38"/>
+      <c r="AK133" s="53"/>
+    </row>
+    <row r="134" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI134" s="38"/>
-      <c r="AJ134" s="53"/>
-    </row>
-    <row r="135" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ134" s="38"/>
+      <c r="AK134" s="53"/>
+    </row>
+    <row r="135" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI135" s="38"/>
-      <c r="AJ135" s="53"/>
-    </row>
-    <row r="136" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ135" s="38"/>
+      <c r="AK135" s="53"/>
+    </row>
+    <row r="136" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI136" s="38"/>
-      <c r="AJ136" s="53"/>
-    </row>
-    <row r="137" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ136" s="38"/>
+      <c r="AK136" s="53"/>
+    </row>
+    <row r="137" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI137" s="38"/>
-      <c r="AJ137" s="53"/>
-    </row>
-    <row r="138" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ137" s="38"/>
+      <c r="AK137" s="53"/>
+    </row>
+    <row r="138" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI138" s="38"/>
-      <c r="AJ138" s="53"/>
-    </row>
-    <row r="139" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ138" s="38"/>
+      <c r="AK138" s="53"/>
+    </row>
+    <row r="139" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI139" s="38"/>
-      <c r="AJ139" s="53"/>
-    </row>
-    <row r="140" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ139" s="38"/>
+      <c r="AK139" s="53"/>
+    </row>
+    <row r="140" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI140" s="38"/>
-      <c r="AJ140" s="53"/>
-    </row>
-    <row r="141" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ140" s="38"/>
+      <c r="AK140" s="53"/>
+    </row>
+    <row r="141" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI141" s="38"/>
-      <c r="AJ141" s="53"/>
-    </row>
-    <row r="142" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ141" s="38"/>
+      <c r="AK141" s="53"/>
+    </row>
+    <row r="142" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI142" s="38"/>
-      <c r="AJ142" s="53"/>
-    </row>
-    <row r="143" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ142" s="38"/>
+      <c r="AK142" s="53"/>
+    </row>
+    <row r="143" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI143" s="38"/>
-      <c r="AJ143" s="53"/>
-    </row>
-    <row r="144" spans="35:36" x14ac:dyDescent="0.25">
+      <c r="AJ143" s="38"/>
+      <c r="AK143" s="53"/>
+    </row>
+    <row r="144" spans="35:37" x14ac:dyDescent="0.25">
       <c r="AI144" s="38"/>
-      <c r="AJ144" s="53"/>
+      <c r="AJ144" s="38"/>
+      <c r="AK144" s="53"/>
     </row>
   </sheetData>
   <phoneticPr fontId="25" type="noConversion"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{AF0BD18C-1713-4515-81EA-41B88FD7BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{131FFFCF-3747-4C83-B5A1-38500FA5EFE8}"/>
+  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{AF0BD18C-1713-4515-81EA-41B88FD7BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5F3F01D-23D3-4506-9892-3AF683011D6F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
     <sheet name="DemTechs_INDF" sheetId="7" r:id="rId2"/>
+    <sheet name="Wind and Solar" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="FID_1">#REF!</definedName>
@@ -1554,7 +1555,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="217">
   <si>
     <t>~FI_T</t>
   </si>
@@ -4469,8 +4470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AW144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AH15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AR20" sqref="AR20"/>
+    <sheetView topLeftCell="AC15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI18:AO18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
@@ -7468,18 +7469,40 @@
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:49" ht="13" x14ac:dyDescent="0.3">
-      <c r="B53" s="79"/>
-      <c r="C53" s="79"/>
-      <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53"/>
-      <c r="G53"/>
-      <c r="H53"/>
-      <c r="I53"/>
-      <c r="J53"/>
-      <c r="K53"/>
-      <c r="L53"/>
+    <row r="53" spans="2:49" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B53" s="80" t="s">
+        <v>185</v>
+      </c>
+      <c r="C53" s="80" t="s">
+        <v>186</v>
+      </c>
+      <c r="D53" s="80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="F53" s="80">
+        <v>2022</v>
+      </c>
+      <c r="G53" s="80">
+        <v>2025</v>
+      </c>
+      <c r="H53" s="80">
+        <v>2030</v>
+      </c>
+      <c r="I53" s="80">
+        <v>2035</v>
+      </c>
+      <c r="J53" s="80">
+        <v>2040</v>
+      </c>
+      <c r="K53" s="80">
+        <v>2045</v>
+      </c>
+      <c r="L53" s="80">
+        <v>2050</v>
+      </c>
       <c r="AI53" s="38" t="s">
         <v>215</v>
       </c>
@@ -7523,40 +7546,30 @@
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:49" ht="13" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B54" s="80" t="s">
-        <v>185</v>
-      </c>
-      <c r="C54" s="80" t="s">
-        <v>186</v>
-      </c>
-      <c r="D54" s="80" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" s="80" t="s">
-        <v>130</v>
-      </c>
-      <c r="F54" s="80">
-        <v>2022</v>
-      </c>
-      <c r="G54" s="80">
-        <v>2025</v>
-      </c>
-      <c r="H54" s="80">
-        <v>2030</v>
-      </c>
-      <c r="I54" s="80">
-        <v>2035</v>
-      </c>
-      <c r="J54" s="80">
-        <v>2040</v>
-      </c>
-      <c r="K54" s="80">
-        <v>2045</v>
-      </c>
-      <c r="L54" s="80">
-        <v>2050</v>
-      </c>
+    <row r="54" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>121</v>
+      </c>
+      <c r="C54" t="s">
+        <v>94</v>
+      </c>
+      <c r="D54" t="s">
+        <v>188</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54"/>
+      <c r="I54"/>
+      <c r="J54"/>
+      <c r="K54"/>
+      <c r="L54"/>
       <c r="AI54" s="38" t="s">
         <v>215</v>
       </c>
@@ -7605,7 +7618,7 @@
         <v>121</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D55" t="s">
         <v>188</v>
@@ -7672,7 +7685,7 @@
         <v>121</v>
       </c>
       <c r="C56" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D56" t="s">
         <v>188</v>
@@ -7739,7 +7752,7 @@
         <v>121</v>
       </c>
       <c r="C57" t="s">
-        <v>65</v>
+        <v>187</v>
       </c>
       <c r="D57" t="s">
         <v>188</v>
@@ -7806,7 +7819,7 @@
         <v>121</v>
       </c>
       <c r="C58" t="s">
-        <v>187</v>
+        <v>102</v>
       </c>
       <c r="D58" t="s">
         <v>188</v>
@@ -7873,7 +7886,7 @@
         <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D59" t="s">
         <v>188</v>
@@ -7940,7 +7953,7 @@
         <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>105</v>
+        <v>66</v>
       </c>
       <c r="D60" t="s">
         <v>188</v>
@@ -8007,7 +8020,7 @@
         <v>121</v>
       </c>
       <c r="C61" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="D61" t="s">
         <v>188</v>
@@ -8070,29 +8083,6 @@
       </c>
     </row>
     <row r="62" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>121</v>
-      </c>
-      <c r="C62" t="s">
-        <v>103</v>
-      </c>
-      <c r="D62" t="s">
-        <v>188</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="F62">
-        <v>0</v>
-      </c>
-      <c r="G62">
-        <v>0</v>
-      </c>
-      <c r="H62"/>
-      <c r="I62"/>
-      <c r="J62"/>
-      <c r="K62"/>
-      <c r="L62"/>
       <c r="AI62" s="38" t="s">
         <v>215</v>
       </c>
@@ -8787,4 +8777,1911 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68997FF-C138-40F2-876B-1BB171CD0904}">
+  <dimension ref="A5:S134"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="8.1796875" style="49" customWidth="1"/>
+    <col min="3" max="10" width="8.81640625" style="48"/>
+    <col min="11" max="11" width="10.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.81640625" style="48"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="49"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C6" s="49"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C7" s="49"/>
+    </row>
+    <row r="8" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="85"/>
+      <c r="B8" s="85"/>
+      <c r="C8" s="85"/>
+    </row>
+    <row r="9" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="85"/>
+      <c r="B9" s="85"/>
+      <c r="C9" s="85"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C10" s="49"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C11" s="49"/>
+    </row>
+    <row r="17" spans="7:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G17" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="38"/>
+      <c r="N17" s="58" t="s">
+        <v>0</v>
+      </c>
+      <c r="O17" s="63"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="63"/>
+      <c r="R17" s="63"/>
+    </row>
+    <row r="18" spans="7:19" ht="13" x14ac:dyDescent="0.25">
+      <c r="G18" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="H18" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="I18" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="J18" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="K18" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="L18" s="64" t="s">
+        <v>208</v>
+      </c>
+      <c r="N18" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="O18" s="64" t="s">
+        <v>55</v>
+      </c>
+      <c r="P18" s="64" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q18" s="64" t="s">
+        <v>11</v>
+      </c>
+      <c r="R18" s="64" t="s">
+        <v>206</v>
+      </c>
+      <c r="S18" s="64" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="19" spans="7:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="44"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="44"/>
+      <c r="K19" s="44"/>
+      <c r="L19" s="44"/>
+      <c r="N19" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="O19" s="44"/>
+      <c r="P19" s="44"/>
+      <c r="Q19" s="44"/>
+      <c r="R19" s="44"/>
+      <c r="S19" s="44"/>
+    </row>
+    <row r="20" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H20" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I20" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="J20" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L20" s="48">
+        <v>2.5452192095824343E-3</v>
+      </c>
+      <c r="N20" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O20" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P20" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q20" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R20" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S20" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H21" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I21" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="J21" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K21" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L21" s="48">
+        <v>2.5834450529081338E-3</v>
+      </c>
+      <c r="N21" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O21" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P21" s="69" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q21" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R21" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S21" s="49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H22" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I22" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="J22" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K22" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L22" s="48">
+        <v>2.1363241345921055E-3</v>
+      </c>
+      <c r="N22" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O22" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P22" s="69" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q22" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R22" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S22" s="49">
+        <v>0.32637437275985665</v>
+      </c>
+    </row>
+    <row r="23" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H23" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I23" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="J23" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K23" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="48">
+        <v>1.8660639529435976E-3</v>
+      </c>
+      <c r="N23" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O23" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P23" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R23" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S23" s="49">
+        <v>0.35267560573476697</v>
+      </c>
+    </row>
+    <row r="24" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H24" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I24" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="J24" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K24" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L24" s="48">
+        <v>1.7487528282965712E-3</v>
+      </c>
+      <c r="N24" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O24" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P24" s="69" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q24" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R24" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S24" s="49">
+        <v>0.34322033691756271</v>
+      </c>
+    </row>
+    <row r="25" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H25" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I25" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="J25" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="48">
+        <v>1.6637860863902745E-3</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O25" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P25" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q25" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R25" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S25" s="49">
+        <v>0.30308891039426522</v>
+      </c>
+    </row>
+    <row r="26" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H26" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I26" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="J26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L26" s="48">
+        <v>1.8211742012316831E-3</v>
+      </c>
+      <c r="N26" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P26" s="69" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q26" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R26" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S26" s="49">
+        <v>0.23170381362007167</v>
+      </c>
+    </row>
+    <row r="27" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="G27" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H27" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I27" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="J27" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L27" s="48">
+        <v>1.9153018835258307E-3</v>
+      </c>
+      <c r="N27" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P27" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q27" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R27" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S27" s="49">
+        <v>0.14172651612903225</v>
+      </c>
+    </row>
+    <row r="28" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G28" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H28" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I28" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="J28" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K28" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="48">
+        <v>1.9744590518638132E-3</v>
+      </c>
+      <c r="N28" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O28" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P28" s="69" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q28" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R28" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S28" s="48">
+        <v>5.3895483870967743E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G29" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H29" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I29" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="J29" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L29" s="48">
+        <v>2.1878436160058393E-3</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O29" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P29" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q29" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R29" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S29" s="48">
+        <v>2.6301935483870969E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G30" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H30" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I30" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="J30" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K30" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L30" s="48">
+        <v>2.3889741533883327E-3</v>
+      </c>
+      <c r="N30" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O30" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P30" s="69" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q30" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R30" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S30" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G31" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I31" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="J31" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L31" s="48">
+        <v>2.4063426997311056E-3</v>
+      </c>
+      <c r="N31" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P31" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q31" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R31" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S31" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G32" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H32" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I32" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="J32" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K32" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L32" s="48">
+        <v>2.5925256698099051E-3</v>
+      </c>
+      <c r="N32" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O32" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P32" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q32" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R32" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S32" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G33" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H33" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I33" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="J33" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K33" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L33" s="48">
+        <v>2.9724559200622644E-3</v>
+      </c>
+      <c r="N33" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O33" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P33" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q33" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R33" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S33" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G34" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H34" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I34" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="J34" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K34" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L34" s="48">
+        <v>3.3823091606694387E-3</v>
+      </c>
+      <c r="N34" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O34" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P34" s="69" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q34" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R34" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S34" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G35" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H35" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I35" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="J35" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K35" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L35" s="48">
+        <v>3.3051976250754521E-3</v>
+      </c>
+      <c r="N35" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O35" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P35" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q35" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R35" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S35" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G36" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H36" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="J36" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K36" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="48">
+        <v>3.1618331753269246E-3</v>
+      </c>
+      <c r="N36" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O36" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P36" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q36" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R36" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S36" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G37" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H37" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I37" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="J37" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K37" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L37" s="48">
+        <v>2.8979409360310663E-3</v>
+      </c>
+      <c r="N37" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O37" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P37" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q37" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R37" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S37" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G38" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H38" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I38" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="J38" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K38" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L38" s="48">
+        <v>2.7156926103261707E-3</v>
+      </c>
+      <c r="N38" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O38" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P38" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q38" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R38" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S38" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G39" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I39" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="J39" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K39" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L39" s="48">
+        <v>2.5452192095824343E-3</v>
+      </c>
+      <c r="N39" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P39" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q39" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R39" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S39" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G40" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H40" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I40" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="J40" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K40" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L40" s="48">
+        <v>2.5834450529081338E-3</v>
+      </c>
+      <c r="N40" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O40" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P40" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q40" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R40" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S40" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G41" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H41" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I41" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="J41" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K41" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L41" s="48">
+        <v>2.7432881310744317E-3</v>
+      </c>
+      <c r="N41" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O41" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P41" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q41" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R41" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S41" s="48">
+        <v>6.4190919952210254E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G42" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H42" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I42" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="J42" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K42" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L42" s="48">
+        <v>2.8314721319216154E-3</v>
+      </c>
+      <c r="N42" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O42" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P42" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q42" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R42" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S42" s="48">
+        <v>7.0838474313022717E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G43" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H43" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I43" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="J43" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K43" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L43" s="48">
+        <v>2.8141143326017269E-3</v>
+      </c>
+      <c r="N43" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O43" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P43" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q43" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R43" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S43" s="48">
+        <v>0.15999428793309439</v>
+      </c>
+    </row>
+    <row r="44" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G44" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H44" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I44" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="J44" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K44" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L44" s="48">
+        <v>2.6656478128544076E-3</v>
+      </c>
+      <c r="N44" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O44" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P44" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q44" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R44" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S44" s="48">
+        <v>0.25343209199522099</v>
+      </c>
+    </row>
+    <row r="45" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G45" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H45" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I45" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="J45" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K45" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L45" s="48">
+        <v>2.4530677112863486E-3</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O45" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P45" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="Q45" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R45" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S45" s="48">
+        <v>0.32960197968936678</v>
+      </c>
+    </row>
+    <row r="46" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G46" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H46" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I46" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="J46" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K46" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L46" s="48">
+        <v>2.1363241345921055E-3</v>
+      </c>
+      <c r="N46" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O46" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P46" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q46" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R46" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S46" s="48">
+        <v>0.37592762246117079</v>
+      </c>
+    </row>
+    <row r="47" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G47" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H47" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I47" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="J47" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K47" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L47" s="48">
+        <v>1.8660639529435976E-3</v>
+      </c>
+      <c r="N47" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O47" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P47" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q47" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R47" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S47" s="48">
+        <v>0.38776096057347664</v>
+      </c>
+    </row>
+    <row r="48" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G48" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="J48" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K48" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L48" s="48">
+        <v>1.7487528282965712E-3</v>
+      </c>
+      <c r="N48" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O48" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P48" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q48" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R48" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S48" s="48">
+        <v>0.36426783751493425</v>
+      </c>
+    </row>
+    <row r="49" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G49" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H49" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I49" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="J49" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K49" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L49" s="48">
+        <v>1.6637860863902745E-3</v>
+      </c>
+      <c r="N49" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O49" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P49" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q49" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R49" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S49" s="48">
+        <v>0.31009156033452806</v>
+      </c>
+    </row>
+    <row r="50" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G50" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H50" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I50" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="J50" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K50" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L50" s="48">
+        <v>1.8211742012316831E-3</v>
+      </c>
+      <c r="N50" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O50" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P50" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q50" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R50" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S50" s="48">
+        <v>0.23188419952210276</v>
+      </c>
+    </row>
+    <row r="51" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G51" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H51" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I51" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="J51" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K51" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L51" s="48">
+        <v>1.9153018835258307E-3</v>
+      </c>
+      <c r="N51" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O51" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P51" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q51" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R51" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S51" s="48">
+        <v>0.13618056033452808</v>
+      </c>
+    </row>
+    <row r="52" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G52" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H52" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I52" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="J52" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K52" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L52" s="48">
+        <v>1.9744590518638132E-3</v>
+      </c>
+      <c r="N52" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O52" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P52" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q52" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R52" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S52" s="48">
+        <v>4.9357593787335743E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G53" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H53" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I53" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="J53" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K53" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L53" s="48">
+        <v>2.1878436160058393E-3</v>
+      </c>
+      <c r="N53" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O53" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P53" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q53" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R53" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S53" s="48">
+        <v>7.5268817204301086E-6</v>
+      </c>
+    </row>
+    <row r="54" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G54" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H54" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I54" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="J54" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K54" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L54" s="48">
+        <v>2.3889741533883327E-3</v>
+      </c>
+      <c r="N54" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O54" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P54" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q54" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R54" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S54" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G55" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H55" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I55" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="J55" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K55" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L55" s="48">
+        <v>2.4063426997311056E-3</v>
+      </c>
+      <c r="N55" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O55" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P55" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q55" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R55" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S55" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G56" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H56" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="J56" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K56" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L56" s="48">
+        <v>2.5925256698099051E-3</v>
+      </c>
+      <c r="N56" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O56" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P56" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q56" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R56" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S56" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G57" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H57" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="J57" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K57" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L57" s="48">
+        <v>2.9724559200622644E-3</v>
+      </c>
+      <c r="N57" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O57" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P57" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q57" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R57" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S57" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G58" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="H58" s="38">
+        <v>2030</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="J58" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="K58" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="L58" s="48">
+        <v>3.3823091606694387E-3</v>
+      </c>
+      <c r="N58" s="38" t="s">
+        <v>215</v>
+      </c>
+      <c r="O58" s="38">
+        <v>2030</v>
+      </c>
+      <c r="P58" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q58" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="R58" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="S58" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G59" s="38"/>
+      <c r="H59" s="38"/>
+    </row>
+    <row r="60" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+    </row>
+    <row r="61" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G61" s="38"/>
+      <c r="H61" s="38"/>
+    </row>
+    <row r="62" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G62" s="38"/>
+      <c r="H62" s="38"/>
+    </row>
+    <row r="63" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G63" s="38"/>
+      <c r="H63" s="38"/>
+    </row>
+    <row r="64" spans="7:19" x14ac:dyDescent="0.25">
+      <c r="G64" s="38"/>
+      <c r="H64" s="38"/>
+    </row>
+    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+    </row>
+    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G66" s="38"/>
+      <c r="H66" s="38"/>
+    </row>
+    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G67" s="38"/>
+      <c r="H67" s="38"/>
+    </row>
+    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G68" s="38"/>
+      <c r="H68" s="38"/>
+    </row>
+    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G69" s="38"/>
+      <c r="H69" s="38"/>
+    </row>
+    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G70" s="38"/>
+      <c r="H70" s="38"/>
+    </row>
+    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G71" s="38"/>
+      <c r="H71" s="38"/>
+    </row>
+    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G72" s="38"/>
+      <c r="H72" s="38"/>
+    </row>
+    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G73" s="38"/>
+      <c r="H73" s="38"/>
+    </row>
+    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G74" s="38"/>
+      <c r="H74" s="38"/>
+    </row>
+    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G75" s="38"/>
+      <c r="H75" s="38"/>
+    </row>
+    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G76" s="38"/>
+      <c r="H76" s="38"/>
+    </row>
+    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+    </row>
+    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G78" s="38"/>
+      <c r="H78" s="38"/>
+    </row>
+    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="38"/>
+      <c r="H79" s="38"/>
+    </row>
+    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G80" s="38"/>
+      <c r="H80" s="38"/>
+    </row>
+    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G81" s="38"/>
+      <c r="H81" s="38"/>
+    </row>
+    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G82" s="38"/>
+      <c r="H82" s="38"/>
+    </row>
+    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G83" s="38"/>
+      <c r="H83" s="38"/>
+    </row>
+    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G84" s="38"/>
+      <c r="H84" s="38"/>
+    </row>
+    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G85" s="38"/>
+      <c r="H85" s="38"/>
+    </row>
+    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G86" s="38"/>
+      <c r="H86" s="38"/>
+    </row>
+    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G87" s="38"/>
+      <c r="H87" s="38"/>
+    </row>
+    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="38"/>
+      <c r="H88" s="38"/>
+    </row>
+    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G89" s="38"/>
+      <c r="H89" s="38"/>
+    </row>
+    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G90" s="38"/>
+      <c r="H90" s="38"/>
+    </row>
+    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G91" s="38"/>
+      <c r="H91" s="38"/>
+    </row>
+    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="38"/>
+      <c r="H92" s="38"/>
+    </row>
+    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G93" s="38"/>
+      <c r="H93" s="38"/>
+    </row>
+    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G94" s="38"/>
+      <c r="H94" s="38"/>
+    </row>
+    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="38"/>
+      <c r="H95" s="38"/>
+    </row>
+    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G96" s="38"/>
+      <c r="H96" s="38"/>
+    </row>
+    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G97" s="38"/>
+      <c r="H97" s="38"/>
+    </row>
+    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="38"/>
+      <c r="H98" s="38"/>
+    </row>
+    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G99" s="38"/>
+      <c r="H99" s="38"/>
+    </row>
+    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="38"/>
+      <c r="H100" s="38"/>
+    </row>
+    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G101" s="38"/>
+      <c r="H101" s="38"/>
+    </row>
+    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G102" s="38"/>
+      <c r="H102" s="38"/>
+    </row>
+    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G103" s="38"/>
+      <c r="H103" s="38"/>
+    </row>
+    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G104" s="38"/>
+      <c r="H104" s="38"/>
+    </row>
+    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G105" s="38"/>
+      <c r="H105" s="38"/>
+    </row>
+    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G106" s="38"/>
+      <c r="H106" s="38"/>
+    </row>
+    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+    </row>
+    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G108" s="38"/>
+      <c r="H108" s="38"/>
+    </row>
+    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G109" s="38"/>
+      <c r="H109" s="38"/>
+    </row>
+    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G110" s="38"/>
+      <c r="H110" s="38"/>
+    </row>
+    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G111" s="38"/>
+      <c r="H111" s="38"/>
+    </row>
+    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G112" s="38"/>
+      <c r="H112" s="38"/>
+    </row>
+    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G113" s="38"/>
+      <c r="H113" s="38"/>
+    </row>
+    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G114" s="38"/>
+      <c r="H114" s="38"/>
+    </row>
+    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G115" s="38"/>
+      <c r="H115" s="38"/>
+    </row>
+    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G116" s="38"/>
+      <c r="H116" s="38"/>
+    </row>
+    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G117" s="38"/>
+      <c r="H117" s="38"/>
+    </row>
+    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G118" s="38"/>
+      <c r="H118" s="38"/>
+    </row>
+    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G119" s="38"/>
+      <c r="H119" s="38"/>
+    </row>
+    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G120" s="38"/>
+      <c r="H120" s="38"/>
+    </row>
+    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G121" s="38"/>
+      <c r="H121" s="38"/>
+    </row>
+    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G122" s="38"/>
+      <c r="H122" s="38"/>
+    </row>
+    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G123" s="38"/>
+      <c r="H123" s="38"/>
+    </row>
+    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G124" s="38"/>
+      <c r="H124" s="38"/>
+    </row>
+    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G125" s="38"/>
+      <c r="H125" s="38"/>
+    </row>
+    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G126" s="38"/>
+      <c r="H126" s="38"/>
+    </row>
+    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G127" s="38"/>
+      <c r="H127" s="38"/>
+    </row>
+    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G128" s="38"/>
+      <c r="H128" s="38"/>
+    </row>
+    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G129" s="38"/>
+      <c r="H129" s="38"/>
+    </row>
+    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G130" s="38"/>
+      <c r="H130" s="38"/>
+    </row>
+    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G131" s="38"/>
+      <c r="H131" s="38"/>
+    </row>
+    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+    </row>
+    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G133" s="38"/>
+      <c r="H133" s="38"/>
+    </row>
+    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
+      <c r="G134" s="38"/>
+      <c r="H134" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -5,17 +5,16 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eduumb-my.sharepoint.com/personal/meselu_tegenie_mellaku_nmbu_no/Documents/Documents/GitHub/MANU2025/SubRES_TMPL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="33" documentId="13_ncr:1_{AF0BD18C-1713-4515-81EA-41B88FD7BAFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5F3F01D-23D3-4506-9892-3AF683011D6F}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315903E-003A-43BE-B6A5-41A0384EF595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
     <sheet name="DemTechs_INDF" sheetId="7" r:id="rId2"/>
-    <sheet name="Wind and Solar" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="FID_1">#REF!</definedName>
@@ -1555,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="217">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2145,9 +2144,6 @@
     <t>Share-I~UP~UP~2050</t>
   </si>
   <si>
-    <t>FX</t>
-  </si>
-  <si>
     <t>TimeSlices</t>
   </si>
   <si>
@@ -2206,6 +2202,9 @@
   </si>
   <si>
     <t>~TFM_DINS</t>
+  </si>
+  <si>
+    <t>Year*</t>
   </si>
 </sst>
 </file>
@@ -3025,10 +3024,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
@@ -3322,31 +3317,31 @@
       <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26953125" customWidth="1"/>
-    <col min="4" max="4" width="18.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.7265625" customWidth="1"/>
-    <col min="14" max="14" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="7.1796875" customWidth="1"/>
-    <col min="16" max="16" width="21.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="36.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6.1796875" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" customWidth="1"/>
-    <col min="20" max="20" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.26953125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" customWidth="1"/>
+    <col min="4" max="4" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.77734375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.77734375" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.21875" customWidth="1"/>
+    <col min="16" max="16" width="21.44140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="36.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.21875" customWidth="1"/>
+    <col min="19" max="19" width="11.5546875" customWidth="1"/>
+    <col min="20" max="20" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="19.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:22" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B1" s="4" t="s">
         <v>38</v>
       </c>
@@ -3364,7 +3359,7 @@
       </c>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C2" s="38" t="s">
         <v>72</v>
       </c>
@@ -3390,7 +3385,7 @@
       <c r="U2" s="7"/>
       <c r="V2" s="7"/>
     </row>
-    <row r="3" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C3" s="38" t="s">
         <v>63</v>
       </c>
@@ -3432,7 +3427,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:22" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:22" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C4" s="38" t="s">
         <v>61</v>
       </c>
@@ -3474,7 +3469,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C5" s="38" t="s">
         <v>60</v>
       </c>
@@ -3508,7 +3503,7 @@
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
     </row>
-    <row r="6" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C6" s="14"/>
       <c r="D6" s="14"/>
       <c r="E6" s="11"/>
@@ -3534,7 +3529,7 @@
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
     </row>
-    <row r="7" spans="2:22" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:22" ht="15.6" x14ac:dyDescent="0.3">
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="11"/>
@@ -3548,7 +3543,7 @@
         <v>72</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="R7" s="12" t="s">
         <v>58</v>
@@ -3572,10 +3567,10 @@
       </c>
       <c r="O8" s="37"/>
       <c r="P8" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="Q8" s="37" t="s">
         <v>199</v>
-      </c>
-      <c r="Q8" s="37" t="s">
-        <v>200</v>
       </c>
       <c r="R8" s="37" t="s">
         <v>58</v>
@@ -3765,7 +3760,7 @@
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
     </row>
-    <row r="22" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:22" x14ac:dyDescent="0.25">
       <c r="F22" s="2" t="s">
         <v>0</v>
       </c>
@@ -3782,7 +3777,7 @@
       <c r="U22" s="10"/>
       <c r="V22" s="10"/>
     </row>
-    <row r="23" spans="2:22" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B23" s="15" t="s">
         <v>1</v>
       </c>
@@ -3841,7 +3836,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>48</v>
       </c>
@@ -3900,7 +3895,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="25" spans="2:22" ht="21" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:22" ht="21.6" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="18" t="s">
         <v>53</v>
       </c>
@@ -4055,10 +4050,10 @@
         <v>64</v>
       </c>
       <c r="P28" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q28" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="R28" s="38" t="s">
         <v>58</v>
@@ -4095,10 +4090,10 @@
       </c>
       <c r="O29" s="14"/>
       <c r="P29" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q29" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="Q29" s="14" t="s">
-        <v>203</v>
       </c>
       <c r="R29" s="38" t="s">
         <v>58</v>
@@ -4468,46 +4463,46 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AW144"/>
+  <dimension ref="B1:AU144"/>
   <sheetViews>
-    <sheetView topLeftCell="AC15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AI18" sqref="AI18:AO18"/>
+    <sheetView tabSelected="1" topLeftCell="R15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AX23" sqref="AX23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" style="48" customWidth="1"/>
-    <col min="2" max="2" width="12.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.81640625" style="48" customWidth="1"/>
-    <col min="4" max="4" width="13.81640625" style="48" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.77734375" style="48" customWidth="1"/>
+    <col min="4" max="4" width="13.77734375" style="48" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" style="48" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.54296875" style="48" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.1796875" style="48" customWidth="1"/>
-    <col min="10" max="10" width="12.81640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="8.1796875" style="48" customWidth="1"/>
-    <col min="13" max="13" width="10.26953125" style="48" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="8.1796875" style="48" customWidth="1"/>
-    <col min="20" max="21" width="8.1796875" style="49" customWidth="1"/>
-    <col min="22" max="22" width="12.7265625" style="48" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.1796875" style="48" customWidth="1"/>
-    <col min="24" max="24" width="11.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="63.81640625" style="48" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.26953125" style="48" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="11.7265625" style="48" customWidth="1"/>
-    <col min="28" max="28" width="13.453125" style="48" customWidth="1"/>
-    <col min="29" max="29" width="13.81640625" style="48" customWidth="1"/>
-    <col min="30" max="30" width="8.453125" style="48" customWidth="1"/>
-    <col min="31" max="36" width="8.81640625" style="48"/>
-    <col min="37" max="37" width="12.453125" style="48" bestFit="1" customWidth="1"/>
-    <col min="38" max="39" width="8.81640625" style="48"/>
-    <col min="40" max="40" width="10.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="42" max="16384" width="8.81640625" style="48"/>
+    <col min="6" max="6" width="13.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="48" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.21875" style="48" customWidth="1"/>
+    <col min="10" max="10" width="12.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="8.21875" style="48" customWidth="1"/>
+    <col min="13" max="13" width="10.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="8.21875" style="48" customWidth="1"/>
+    <col min="20" max="21" width="8.21875" style="49" customWidth="1"/>
+    <col min="22" max="22" width="12.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.21875" style="48" customWidth="1"/>
+    <col min="24" max="24" width="11.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="63.77734375" style="48" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.77734375" style="48" customWidth="1"/>
+    <col min="28" max="28" width="13.44140625" style="48" customWidth="1"/>
+    <col min="29" max="29" width="13.77734375" style="48" customWidth="1"/>
+    <col min="30" max="30" width="8.44140625" style="48" customWidth="1"/>
+    <col min="31" max="36" width="8.77734375" style="48"/>
+    <col min="37" max="37" width="12.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="8.77734375" style="48"/>
+    <col min="39" max="39" width="10.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="41" max="16384" width="8.77734375" style="48"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:31" ht="14.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:31" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B1" s="47" t="s">
         <v>38</v>
       </c>
@@ -4528,7 +4523,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="2:31" ht="31" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:31" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B2" s="50" t="s">
         <v>98</v>
       </c>
@@ -4561,7 +4556,7 @@
       <c r="AC2" s="53"/>
       <c r="AD2" s="53"/>
     </row>
-    <row r="3" spans="2:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:31" x14ac:dyDescent="0.25">
       <c r="V3" s="54" t="s">
         <v>8</v>
       </c>
@@ -4590,7 +4585,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:31" ht="22" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:31" ht="22.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="56"/>
       <c r="C4" s="56"/>
       <c r="D4" s="56"/>
@@ -4625,7 +4620,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B5" s="56"/>
       <c r="C5" s="56"/>
       <c r="D5" s="56"/>
@@ -4653,7 +4648,7 @@
       <c r="AD5" s="41"/>
       <c r="AE5" s="49"/>
     </row>
-    <row r="6" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B6" s="56"/>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
@@ -4681,7 +4676,7 @@
       <c r="AD6" s="57"/>
       <c r="AE6" s="49"/>
     </row>
-    <row r="7" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B7" s="56"/>
       <c r="C7" s="56"/>
       <c r="D7" s="56"/>
@@ -4709,7 +4704,7 @@
       <c r="AD7" s="57"/>
       <c r="AE7" s="49"/>
     </row>
-    <row r="8" spans="2:31" s="84" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:31" s="84" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="83"/>
       <c r="C8" s="83"/>
       <c r="D8" s="83"/>
@@ -4722,10 +4717,10 @@
         <v>59</v>
       </c>
       <c r="X8" s="84" t="s">
+        <v>208</v>
+      </c>
+      <c r="Y8" s="84" t="s">
         <v>209</v>
-      </c>
-      <c r="Y8" s="84" t="s">
-        <v>210</v>
       </c>
       <c r="Z8" s="84" t="s">
         <v>58</v>
@@ -4735,7 +4730,7 @@
       </c>
       <c r="AE8" s="85"/>
     </row>
-    <row r="9" spans="2:31" s="84" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:31" s="84" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
       <c r="D9" s="83"/>
@@ -4748,10 +4743,10 @@
         <v>59</v>
       </c>
       <c r="X9" s="84" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Y9" s="84" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Z9" s="84" t="s">
         <v>58</v>
@@ -4761,7 +4756,7 @@
       </c>
       <c r="AE9" s="85"/>
     </row>
-    <row r="10" spans="2:31" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:31" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B10" s="56"/>
       <c r="C10" s="56"/>
       <c r="D10" s="56"/>
@@ -4795,7 +4790,7 @@
       <c r="AC14" s="53"/>
       <c r="AD14" s="53"/>
     </row>
-    <row r="16" spans="2:31" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:31" x14ac:dyDescent="0.25">
       <c r="D16" s="58" t="s">
         <v>0</v>
       </c>
@@ -4814,7 +4809,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:49" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4895,24 +4890,22 @@
         <v>22</v>
       </c>
       <c r="AI17" s="63" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AJ17" s="63"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="63"/>
       <c r="AM17" s="63"/>
-      <c r="AN17" s="63"/>
-      <c r="AO17" s="38"/>
-      <c r="AQ17" s="63" t="s">
-        <v>216</v>
-      </c>
-      <c r="AR17" s="63"/>
-      <c r="AS17" s="38"/>
+      <c r="AN17" s="38"/>
+      <c r="AP17" s="63" t="s">
+        <v>215</v>
+      </c>
+      <c r="AQ17" s="63"/>
+      <c r="AR17" s="38"/>
+      <c r="AS17" s="63"/>
       <c r="AT17" s="63"/>
-      <c r="AU17" s="63"/>
-      <c r="AV17" s="63"/>
-    </row>
-    <row r="18" spans="2:49" ht="31" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="2:47" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4996,46 +4989,40 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
+        <v>216</v>
+      </c>
+      <c r="AK18" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="AL18" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="AM18" s="64" t="s">
+        <v>205</v>
+      </c>
+      <c r="AN18" s="64" t="s">
+        <v>207</v>
+      </c>
+      <c r="AP18" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ18" s="64" t="s">
         <v>55</v>
       </c>
-      <c r="AK18" s="64" t="s">
+      <c r="AR18" s="64" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS18" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT18" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="AL18" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="AM18" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="AN18" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="AO18" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="AQ18" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="AR18" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="AS18" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="AT18" s="64" t="s">
-        <v>197</v>
-      </c>
       <c r="AU18" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="AV18" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="AW18" s="64" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="2:49" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -5085,20 +5072,18 @@
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
       <c r="AN19" s="44"/>
-      <c r="AO19" s="44"/>
-      <c r="AQ19" s="44" t="s">
+      <c r="AP19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44" t="s">
+      <c r="AQ19" s="44"/>
+      <c r="AR19" s="44" t="s">
         <v>131</v>
       </c>
+      <c r="AS19" s="44"/>
       <c r="AT19" s="44"/>
       <c r="AU19" s="44"/>
-      <c r="AV19" s="44"/>
-      <c r="AW19" s="44"/>
-    </row>
-    <row r="20" spans="2:49" ht="13.5" thickBot="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="2:47" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="48" t="str">
         <f>X20</f>
         <v>Furnace</v>
@@ -5168,24 +5153,22 @@
       <c r="AJ20" s="45"/>
       <c r="AK20" s="45"/>
       <c r="AL20" s="45" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AM20" s="45"/>
       <c r="AN20" s="45"/>
-      <c r="AO20" s="45"/>
-      <c r="AQ20" s="45" t="s">
+      <c r="AP20" s="45" t="s">
         <v>53</v>
       </c>
+      <c r="AQ20" s="45"/>
       <c r="AR20" s="45"/>
-      <c r="AS20" s="45"/>
-      <c r="AT20" s="45" t="s">
-        <v>207</v>
-      </c>
-      <c r="AU20" s="45"/>
-      <c r="AV20" s="45"/>
-      <c r="AW20" s="44"/>
-    </row>
-    <row r="21" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+      <c r="AS20" s="45" t="s">
+        <v>206</v>
+      </c>
+      <c r="AT20" s="45"/>
+      <c r="AU20" s="44"/>
+    </row>
+    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="str">
         <f>X$21</f>
         <v>BIOBoiler</v>
@@ -5251,49 +5234,43 @@
       <c r="AC21" s="49"/>
       <c r="AD21" s="49"/>
       <c r="AI21" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ21" s="38">
         <v>2030</v>
       </c>
       <c r="AK21" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL21" s="48" t="s">
         <v>132</v>
       </c>
       <c r="AM21" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN21" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO21" s="48">
+      <c r="AN21" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AQ21" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR21" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS21" s="39" t="s">
-        <v>209</v>
+      <c r="AP21" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ21" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR21" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS21" s="48" t="s">
+        <v>132</v>
       </c>
       <c r="AT21" s="48" t="s">
-        <v>132</v>
-      </c>
-      <c r="AU21" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV21" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW21" s="48">
+      <c r="AU21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="str">
         <f>X24</f>
         <v>ELCBoiler</v>
@@ -5358,49 +5335,43 @@
       <c r="AC22" s="49"/>
       <c r="AD22" s="49"/>
       <c r="AI22" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ22" s="38">
         <v>2030</v>
       </c>
       <c r="AK22" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL22" s="69" t="s">
         <v>133</v>
       </c>
       <c r="AM22" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN22" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO22" s="48">
+      <c r="AN22" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AQ22" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR22" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS22" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT22" s="69" t="s">
+      <c r="AP22" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ22" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR22" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AU22" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV22" s="48" t="s">
+      <c r="AT22" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW22" s="48">
+      <c r="AU22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="48" t="str">
         <f>X22</f>
         <v>BIOKiln</v>
@@ -5463,49 +5434,43 @@
         <v>88</v>
       </c>
       <c r="AI23" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ23" s="38">
         <v>2030</v>
       </c>
       <c r="AK23" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL23" s="48" t="s">
         <v>134</v>
       </c>
       <c r="AM23" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN23" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO23" s="48">
+      <c r="AN23" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AQ23" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR23" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS23" s="39" t="s">
-        <v>209</v>
+      <c r="AP23" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ23" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR23" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS23" s="48" t="s">
+        <v>134</v>
       </c>
       <c r="AT23" s="48" t="s">
-        <v>134</v>
-      </c>
-      <c r="AU23" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV23" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW23" s="49">
+      <c r="AU23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5568,49 +5533,43 @@
         <v>88</v>
       </c>
       <c r="AI24" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ24" s="38">
         <v>2030</v>
       </c>
       <c r="AK24" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL24" s="69" t="s">
         <v>135</v>
       </c>
       <c r="AM24" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN24" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO24" s="48">
+      <c r="AN24" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AQ24" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR24" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS24" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT24" s="69" t="s">
+      <c r="AP24" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ24" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR24" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AU24" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV24" s="48" t="s">
+      <c r="AT24" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW24" s="49">
+      <c r="AU24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="str">
         <f>X26</f>
         <v>WNDTRBN</v>
@@ -5620,7 +5579,7 @@
         <v>WIND</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E25" s="46">
         <v>2030</v>
@@ -5679,49 +5638,43 @@
         <v>88</v>
       </c>
       <c r="AI25" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ25" s="38">
         <v>2030</v>
       </c>
       <c r="AK25" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL25" s="48" t="s">
         <v>136</v>
       </c>
       <c r="AM25" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN25" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO25" s="48">
+      <c r="AN25" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AQ25" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR25" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS25" s="39" t="s">
-        <v>209</v>
+      <c r="AP25" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ25" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR25" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS25" s="48" t="s">
+        <v>136</v>
       </c>
       <c r="AT25" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="AU25" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV25" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW25" s="49">
+      <c r="AU25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="str">
         <f>X27</f>
         <v>SOLPV</v>
@@ -5731,7 +5684,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E26" s="46">
         <v>2030</v>
@@ -5790,49 +5743,43 @@
         <v>88</v>
       </c>
       <c r="AI26" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ26" s="38">
         <v>2030</v>
       </c>
       <c r="AK26" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL26" s="69" t="s">
         <v>137</v>
       </c>
       <c r="AM26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN26" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO26" s="48">
+      <c r="AN26" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AQ26" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR26" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS26" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT26" s="69" t="s">
+      <c r="AP26" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ26" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR26" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AU26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV26" s="48" t="s">
+      <c r="AT26" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW26" s="49">
+      <c r="AU26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="str">
         <f>X25</f>
         <v>CSP</v>
@@ -5902,49 +5849,43 @@
         <v>88</v>
       </c>
       <c r="AI27" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ27" s="38">
         <v>2030</v>
       </c>
       <c r="AK27" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL27" s="48" t="s">
         <v>138</v>
       </c>
       <c r="AM27" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN27" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO27" s="48">
+      <c r="AN27" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AQ27" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR27" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS27" s="39" t="s">
-        <v>209</v>
+      <c r="AP27" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ27" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR27" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS27" s="48" t="s">
+        <v>138</v>
       </c>
       <c r="AT27" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="AU27" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV27" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW27" s="49">
+      <c r="AU27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6015,49 +5956,43 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AI28" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ28" s="38">
         <v>2030</v>
       </c>
       <c r="AK28" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL28" s="69" t="s">
         <v>139</v>
       </c>
       <c r="AM28" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN28" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO28" s="48">
+      <c r="AN28" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AQ28" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR28" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS28" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT28" s="69" t="s">
+      <c r="AP28" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ28" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR28" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AU28" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV28" s="48" t="s">
+      <c r="AT28" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW28" s="49">
+      <c r="AU28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6110,10 +6045,10 @@
         <v>69</v>
       </c>
       <c r="X29" s="49" t="s">
+        <v>212</v>
+      </c>
+      <c r="Y29" s="49" t="s">
         <v>213</v>
-      </c>
-      <c r="Y29" s="49" t="s">
-        <v>214</v>
       </c>
       <c r="Z29" s="49" t="s">
         <v>58</v>
@@ -6125,49 +6060,43 @@
         <v>88</v>
       </c>
       <c r="AI29" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ29" s="38">
         <v>2030</v>
       </c>
       <c r="AK29" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL29" s="48" t="s">
         <v>140</v>
       </c>
       <c r="AM29" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN29" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO29" s="48">
+      <c r="AN29" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AQ29" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR29" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS29" s="39" t="s">
-        <v>209</v>
+      <c r="AP29" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ29" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR29" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS29" s="48" t="s">
+        <v>140</v>
       </c>
       <c r="AT29" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="AU29" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV29" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW29" s="49">
+      <c r="AU29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6226,49 +6155,43 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
       <c r="AI30" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ30" s="38">
         <v>2030</v>
       </c>
       <c r="AK30" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL30" s="69" t="s">
         <v>141</v>
       </c>
       <c r="AM30" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN30" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO30" s="48">
+      <c r="AN30" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AQ30" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR30" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS30" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT30" s="69" t="s">
+      <c r="AP30" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ30" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR30" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AU30" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV30" s="48" t="s">
+      <c r="AT30" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW30" s="49">
+      <c r="AU30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -6312,54 +6235,48 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
       <c r="AI31" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ31" s="38">
         <v>2030</v>
       </c>
       <c r="AK31" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL31" s="48" t="s">
         <v>142</v>
       </c>
       <c r="AM31" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN31" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO31" s="48">
+      <c r="AN31" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AQ31" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR31" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS31" s="39" t="s">
-        <v>209</v>
+      <c r="AP31" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR31" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS31" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="AT31" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="AU31" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV31" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW31" s="49">
+      <c r="AU31" s="49">
         <v>0.27468446594982077</v>
       </c>
     </row>
-    <row r="32" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="53" t="s">
         <v>69</v>
@@ -6394,54 +6311,48 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
       <c r="AI32" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ32" s="38">
         <v>2030</v>
       </c>
       <c r="AK32" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL32" s="69" t="s">
         <v>143</v>
       </c>
       <c r="AM32" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN32" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO32" s="48">
+      <c r="AN32" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AQ32" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR32" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS32" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT32" s="69" t="s">
+      <c r="AP32" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ32" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR32" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AU32" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV32" s="48" t="s">
+      <c r="AT32" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW32" s="49">
+      <c r="AU32" s="49">
         <v>0.32637437275985665</v>
       </c>
     </row>
-    <row r="33" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D33" s="53" t="s">
         <v>69</v>
@@ -6476,49 +6387,43 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
       <c r="AI33" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ33" s="38">
         <v>2030</v>
       </c>
       <c r="AK33" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL33" s="48" t="s">
         <v>144</v>
       </c>
       <c r="AM33" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN33" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO33" s="48">
+      <c r="AN33" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AQ33" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR33" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS33" s="39" t="s">
-        <v>209</v>
+      <c r="AP33" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ33" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR33" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS33" s="48" t="s">
+        <v>144</v>
       </c>
       <c r="AT33" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="AU33" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV33" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW33" s="49">
+      <c r="AU33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -6535,49 +6440,43 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
       <c r="AI34" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ34" s="38">
         <v>2030</v>
       </c>
       <c r="AK34" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL34" s="69" t="s">
         <v>145</v>
       </c>
       <c r="AM34" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN34" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO34" s="48">
+      <c r="AN34" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AQ34" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR34" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS34" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT34" s="69" t="s">
+      <c r="AP34" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ34" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR34" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AU34" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV34" s="48" t="s">
+      <c r="AT34" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW34" s="49">
+      <c r="AU34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -6595,49 +6494,43 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
       <c r="AI35" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ35" s="38">
         <v>2030</v>
       </c>
       <c r="AK35" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL35" s="48" t="s">
         <v>146</v>
       </c>
       <c r="AM35" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN35" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO35" s="48">
+      <c r="AN35" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AQ35" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR35" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS35" s="39" t="s">
-        <v>209</v>
+      <c r="AP35" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ35" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR35" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS35" s="48" t="s">
+        <v>146</v>
       </c>
       <c r="AT35" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="AU35" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV35" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW35" s="49">
+      <c r="AU35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:49" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -6658,49 +6551,43 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
       <c r="AI36" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ36" s="38">
         <v>2030</v>
       </c>
       <c r="AK36" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL36" s="69" t="s">
         <v>147</v>
       </c>
       <c r="AM36" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN36" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO36" s="48">
+      <c r="AN36" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AQ36" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR36" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS36" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT36" s="69" t="s">
+      <c r="AP36" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ36" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR36" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AU36" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV36" s="48" t="s">
+      <c r="AT36" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW36" s="49">
+      <c r="AU36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:49" s="49" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -6721,49 +6608,43 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
       <c r="AI37" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ37" s="38">
         <v>2030</v>
       </c>
       <c r="AK37" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL37" s="48" t="s">
         <v>148</v>
       </c>
       <c r="AM37" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN37" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO37" s="48">
+      <c r="AN37" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AQ37" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR37" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS37" s="39" t="s">
-        <v>209</v>
+      <c r="AP37" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ37" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR37" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS37" s="48" t="s">
+        <v>148</v>
       </c>
       <c r="AT37" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="AU37" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV37" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW37" s="49">
+      <c r="AU37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
@@ -6772,192 +6653,168 @@
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
       <c r="AI38" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ38" s="38">
         <v>2030</v>
       </c>
       <c r="AK38" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL38" s="69" t="s">
         <v>149</v>
       </c>
       <c r="AM38" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN38" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO38" s="48">
+      <c r="AN38" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AQ38" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR38" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS38" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT38" s="69" t="s">
+      <c r="AP38" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ38" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR38" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AU38" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV38" s="48" t="s">
+      <c r="AT38" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW38" s="48">
+      <c r="AU38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ39" s="38">
         <v>2030</v>
       </c>
       <c r="AK39" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL39" s="48" t="s">
         <v>150</v>
       </c>
       <c r="AM39" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN39" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO39" s="48">
+      <c r="AN39" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AQ39" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR39" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS39" s="39" t="s">
-        <v>209</v>
+      <c r="AP39" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR39" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS39" s="48" t="s">
+        <v>150</v>
       </c>
       <c r="AT39" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="AU39" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV39" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW39" s="48">
+      <c r="AU39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
       </c>
       <c r="H40" s="75"/>
       <c r="AI40" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ40" s="38">
         <v>2030</v>
       </c>
       <c r="AK40" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL40" s="69" t="s">
         <v>151</v>
       </c>
       <c r="AM40" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN40" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO40" s="48">
+      <c r="AN40" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AQ40" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR40" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS40" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT40" s="69" t="s">
+      <c r="AP40" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ40" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR40" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AU40" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV40" s="48" t="s">
+      <c r="AT40" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW40" s="48">
+      <c r="AU40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="75"/>
       <c r="AI41" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ41" s="38">
         <v>2030</v>
       </c>
       <c r="AK41" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL41" s="48" t="s">
         <v>152</v>
       </c>
       <c r="AM41" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN41" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO41" s="48">
+      <c r="AN41" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AQ41" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR41" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS41" s="39" t="s">
-        <v>209</v>
+      <c r="AP41" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ41" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR41" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS41" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="AT41" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="AU41" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV41" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW41" s="48">
+      <c r="AU41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -6966,93 +6823,81 @@
       </c>
       <c r="H42" s="75"/>
       <c r="AI42" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ42" s="38">
         <v>2030</v>
       </c>
       <c r="AK42" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL42" s="69" t="s">
         <v>153</v>
       </c>
       <c r="AM42" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN42" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO42" s="48">
+      <c r="AN42" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AQ42" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR42" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS42" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT42" s="69" t="s">
+      <c r="AP42" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ42" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR42" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AU42" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV42" s="48" t="s">
+      <c r="AT42" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW42" s="48">
+      <c r="AU42" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI43" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ43" s="38">
         <v>2030</v>
       </c>
       <c r="AK43" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL43" s="48" t="s">
         <v>154</v>
       </c>
       <c r="AM43" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN43" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO43" s="48">
+      <c r="AN43" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AQ43" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR43" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS43" s="39" t="s">
-        <v>209</v>
+      <c r="AP43" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ43" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR43" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS43" s="48" t="s">
+        <v>154</v>
       </c>
       <c r="AT43" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="AU43" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV43" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW43" s="48">
+      <c r="AU43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -7061,358 +6906,310 @@
         <v>8760</v>
       </c>
       <c r="AI44" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ44" s="38">
         <v>2030</v>
       </c>
       <c r="AK44" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL44" s="69" t="s">
         <v>155</v>
       </c>
       <c r="AM44" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN44" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO44" s="48">
+      <c r="AN44" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AQ44" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR44" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS44" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT44" s="69" t="s">
+      <c r="AP44" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ44" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR44" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AU44" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV44" s="48" t="s">
+      <c r="AT44" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW44" s="48">
+      <c r="AU44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ45" s="38">
         <v>2030</v>
       </c>
       <c r="AK45" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL45" s="38" t="s">
         <v>156</v>
       </c>
       <c r="AM45" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN45" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO45" s="48">
+      <c r="AN45" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AQ45" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR45" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS45" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT45" s="38" t="s">
+      <c r="AP45" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ45" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR45" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AU45" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV45" s="48" t="s">
+      <c r="AT45" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW45" s="48">
+      <c r="AU45" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI46" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ46" s="38">
         <v>2030</v>
       </c>
       <c r="AK46" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL46" s="38" t="s">
         <v>157</v>
       </c>
       <c r="AM46" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN46" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO46" s="48">
+      <c r="AN46" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AQ46" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR46" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS46" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT46" s="38" t="s">
+      <c r="AP46" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ46" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR46" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AU46" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV46" s="48" t="s">
+      <c r="AT46" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW46" s="48">
+      <c r="AU46" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI47" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ47" s="38">
         <v>2030</v>
       </c>
       <c r="AK47" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL47" s="38" t="s">
         <v>158</v>
       </c>
       <c r="AM47" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN47" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO47" s="48">
+      <c r="AN47" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AQ47" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR47" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS47" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT47" s="38" t="s">
+      <c r="AP47" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ47" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR47" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AU47" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV47" s="48" t="s">
+      <c r="AT47" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW47" s="48">
+      <c r="AU47" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI48" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ48" s="38">
         <v>2030</v>
       </c>
       <c r="AK48" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL48" s="38" t="s">
         <v>159</v>
       </c>
       <c r="AM48" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN48" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO48" s="48">
+      <c r="AN48" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AQ48" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR48" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS48" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT48" s="38" t="s">
+      <c r="AP48" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ48" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR48" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AU48" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV48" s="48" t="s">
+      <c r="AT48" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW48" s="48">
+      <c r="AU48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI49" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ49" s="38">
         <v>2030</v>
       </c>
       <c r="AK49" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL49" s="38" t="s">
         <v>160</v>
       </c>
       <c r="AM49" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN49" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO49" s="48">
+      <c r="AN49" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AQ49" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR49" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS49" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT49" s="38" t="s">
+      <c r="AP49" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ49" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR49" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AU49" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV49" s="48" t="s">
+      <c r="AT49" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW49" s="48">
+      <c r="AU49" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI50" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ50" s="38">
         <v>2030</v>
       </c>
       <c r="AK50" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL50" s="38" t="s">
         <v>161</v>
       </c>
       <c r="AM50" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN50" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO50" s="48">
+      <c r="AN50" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AQ50" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR50" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS50" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT50" s="38" t="s">
+      <c r="AP50" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ50" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR50" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AU50" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV50" s="48" t="s">
+      <c r="AT50" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW50" s="48">
+      <c r="AU50" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI51" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ51" s="38">
         <v>2030</v>
       </c>
       <c r="AK51" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL51" s="38" t="s">
         <v>162</v>
       </c>
       <c r="AM51" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN51" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO51" s="48">
+      <c r="AN51" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AQ51" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR51" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS51" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT51" s="38" t="s">
+      <c r="AP51" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ51" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR51" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AU51" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV51" s="48" t="s">
+      <c r="AT51" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW51" s="48">
+      <c r="AU51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:49" ht="13" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
         <v>184</v>
       </c>
@@ -7427,49 +7224,43 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="AI52" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ52" s="38">
         <v>2030</v>
       </c>
       <c r="AK52" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL52" s="38" t="s">
         <v>163</v>
       </c>
       <c r="AM52" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN52" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO52" s="48">
+      <c r="AN52" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AQ52" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR52" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS52" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT52" s="38" t="s">
+      <c r="AP52" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ52" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR52" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AU52" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV52" s="48" t="s">
+      <c r="AT52" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW52" s="48">
+      <c r="AU52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:49" ht="13" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:47" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="80" t="s">
         <v>185</v>
       </c>
@@ -7504,49 +7295,43 @@
         <v>2050</v>
       </c>
       <c r="AI53" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ53" s="38">
         <v>2030</v>
       </c>
       <c r="AK53" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL53" s="38" t="s">
         <v>164</v>
       </c>
       <c r="AM53" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN53" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO53" s="48">
+      <c r="AN53" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AQ53" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR53" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS53" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT53" s="38" t="s">
+      <c r="AP53" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ53" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR53" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AU53" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV53" s="48" t="s">
+      <c r="AT53" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW53" s="48">
+      <c r="AU53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>121</v>
       </c>
@@ -7571,49 +7356,43 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="AI54" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ54" s="38">
         <v>2030</v>
       </c>
       <c r="AK54" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL54" s="38" t="s">
         <v>165</v>
       </c>
       <c r="AM54" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN54" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO54" s="48">
+      <c r="AN54" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AQ54" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR54" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS54" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT54" s="38" t="s">
+      <c r="AP54" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ54" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR54" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AU54" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV54" s="48" t="s">
+      <c r="AT54" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW54" s="48">
+      <c r="AU54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -7638,49 +7417,43 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="AI55" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ55" s="38">
         <v>2030</v>
       </c>
       <c r="AK55" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL55" s="38" t="s">
         <v>166</v>
       </c>
       <c r="AM55" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN55" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO55" s="48">
+      <c r="AN55" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AQ55" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR55" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS55" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT55" s="38" t="s">
+      <c r="AP55" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ55" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR55" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AU55" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV55" s="48" t="s">
+      <c r="AT55" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW55" s="48">
+      <c r="AU55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -7705,49 +7478,43 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="AI56" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ56" s="38">
         <v>2030</v>
       </c>
       <c r="AK56" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL56" s="38" t="s">
         <v>167</v>
       </c>
       <c r="AM56" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN56" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO56" s="48">
+      <c r="AN56" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AQ56" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR56" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS56" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT56" s="38" t="s">
+      <c r="AP56" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ56" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR56" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AU56" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV56" s="48" t="s">
+      <c r="AT56" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW56" s="48">
+      <c r="AU56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -7772,49 +7539,43 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="AI57" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ57" s="38">
         <v>2030</v>
       </c>
       <c r="AK57" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL57" s="38" t="s">
         <v>168</v>
       </c>
       <c r="AM57" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN57" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO57" s="48">
+      <c r="AN57" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AQ57" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR57" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS57" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT57" s="38" t="s">
+      <c r="AP57" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ57" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR57" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AU57" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV57" s="48" t="s">
+      <c r="AT57" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW57" s="48">
+      <c r="AU57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -7839,49 +7600,43 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="AI58" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ58" s="38">
         <v>2030</v>
       </c>
       <c r="AK58" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL58" s="38" t="s">
         <v>169</v>
       </c>
       <c r="AM58" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN58" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO58" s="48">
+      <c r="AN58" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AQ58" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR58" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS58" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT58" s="38" t="s">
+      <c r="AP58" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ58" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR58" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AU58" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV58" s="48" t="s">
+      <c r="AT58" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW58" s="48">
+      <c r="AU58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -7906,49 +7661,43 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="AI59" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ59" s="38">
         <v>2030</v>
       </c>
       <c r="AK59" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL59" s="38" t="s">
         <v>170</v>
       </c>
       <c r="AM59" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN59" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO59" s="48">
+      <c r="AN59" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AQ59" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR59" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS59" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT59" s="38" t="s">
+      <c r="AP59" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ59" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR59" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AU59" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV59" s="48" t="s">
+      <c r="AT59" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW59" s="48">
+      <c r="AU59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -7973,49 +7722,43 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="AI60" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ60" s="38">
         <v>2030</v>
       </c>
       <c r="AK60" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL60" s="38" t="s">
         <v>171</v>
       </c>
       <c r="AM60" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN60" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO60" s="48">
+      <c r="AN60" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AQ60" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR60" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS60" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT60" s="38" t="s">
+      <c r="AP60" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ60" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR60" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AU60" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV60" s="48" t="s">
+      <c r="AT60" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW60" s="48">
+      <c r="AU60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:47" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -8040,412 +7783,364 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="AI61" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ61" s="38">
         <v>2030</v>
       </c>
       <c r="AK61" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL61" s="38" t="s">
         <v>172</v>
       </c>
       <c r="AM61" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN61" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO61" s="48">
+      <c r="AN61" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AQ61" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR61" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS61" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT61" s="38" t="s">
+      <c r="AP61" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ61" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR61" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AU61" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV61" s="48" t="s">
+      <c r="AT61" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW61" s="48">
+      <c r="AU61" s="48">
         <v>0.13618056033452808</v>
       </c>
     </row>
-    <row r="62" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI62" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ62" s="38">
         <v>2030</v>
       </c>
       <c r="AK62" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL62" s="38" t="s">
         <v>173</v>
       </c>
       <c r="AM62" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN62" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO62" s="48">
+      <c r="AN62" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AQ62" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR62" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS62" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT62" s="38" t="s">
+      <c r="AP62" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ62" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR62" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AU62" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV62" s="48" t="s">
+      <c r="AT62" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW62" s="48">
+      <c r="AU62" s="48">
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI63" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ63" s="38">
         <v>2030</v>
       </c>
       <c r="AK63" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL63" s="38" t="s">
         <v>174</v>
       </c>
       <c r="AM63" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN63" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO63" s="48">
+      <c r="AN63" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AQ63" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR63" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS63" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT63" s="38" t="s">
+      <c r="AP63" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ63" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR63" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AU63" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV63" s="48" t="s">
+      <c r="AT63" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW63" s="48">
+      <c r="AU63" s="48">
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:49" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:47" x14ac:dyDescent="0.25">
       <c r="AI64" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ64" s="38">
         <v>2030</v>
       </c>
       <c r="AK64" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL64" s="38" t="s">
         <v>175</v>
       </c>
       <c r="AM64" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN64" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO64" s="48">
+      <c r="AN64" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AQ64" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR64" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS64" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT64" s="38" t="s">
+      <c r="AP64" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ64" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR64" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AU64" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV64" s="48" t="s">
+      <c r="AT64" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW64" s="48">
+      <c r="AU64" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="65" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI65" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ65" s="38">
         <v>2030</v>
       </c>
       <c r="AK65" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL65" s="38" t="s">
         <v>176</v>
       </c>
       <c r="AM65" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN65" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO65" s="48">
+      <c r="AN65" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AQ65" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR65" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS65" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT65" s="38" t="s">
+      <c r="AP65" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ65" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR65" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AU65" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV65" s="48" t="s">
+      <c r="AT65" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW65" s="48">
+      <c r="AU65" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="66" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI66" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ66" s="38">
         <v>2030</v>
       </c>
       <c r="AK66" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL66" s="38" t="s">
         <v>177</v>
       </c>
       <c r="AM66" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN66" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO66" s="48">
+      <c r="AN66" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AQ66" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR66" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS66" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT66" s="38" t="s">
+      <c r="AP66" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ66" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR66" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AU66" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV66" s="48" t="s">
+      <c r="AT66" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW66" s="48">
+      <c r="AU66" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="67" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI67" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ67" s="38">
         <v>2030</v>
       </c>
       <c r="AK67" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL67" s="38" t="s">
         <v>178</v>
       </c>
       <c r="AM67" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN67" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO67" s="48">
+      <c r="AN67" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AQ67" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR67" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS67" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT67" s="38" t="s">
+      <c r="AP67" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ67" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR67" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AU67" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV67" s="48" t="s">
+      <c r="AT67" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW67" s="48">
+      <c r="AU67" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="68" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI68" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AJ68" s="38">
         <v>2030</v>
       </c>
       <c r="AK68" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AL68" s="38" t="s">
         <v>179</v>
       </c>
       <c r="AM68" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AN68" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="AO68" s="48">
+      <c r="AN68" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AQ68" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="AR68" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AS68" s="39" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT68" s="38" t="s">
+      <c r="AP68" s="38" t="s">
+        <v>214</v>
+      </c>
+      <c r="AQ68" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AR68" s="39" t="s">
+        <v>208</v>
+      </c>
+      <c r="AS68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AU68" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV68" s="48" t="s">
+      <c r="AT68" s="48" t="s">
         <v>94</v>
       </c>
-      <c r="AW68" s="48">
+      <c r="AU68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="69" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI69" s="38"/>
       <c r="AJ69" s="38"/>
       <c r="AK69" s="53"/>
     </row>
-    <row r="70" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="70" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI70" s="38"/>
       <c r="AJ70" s="38"/>
       <c r="AK70" s="53"/>
     </row>
-    <row r="71" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="71" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI71" s="38"/>
       <c r="AJ71" s="38"/>
       <c r="AK71" s="53"/>
     </row>
-    <row r="72" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="72" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI72" s="38"/>
       <c r="AJ72" s="38"/>
       <c r="AK72" s="53"/>
     </row>
-    <row r="73" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="73" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI73" s="38"/>
       <c r="AJ73" s="38"/>
       <c r="AK73" s="53"/>
     </row>
-    <row r="74" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="74" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI74" s="38"/>
       <c r="AJ74" s="38"/>
       <c r="AK74" s="53"/>
     </row>
-    <row r="75" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="75" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI75" s="38"/>
       <c r="AJ75" s="38"/>
       <c r="AK75" s="53"/>
     </row>
-    <row r="76" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="76" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI76" s="38"/>
       <c r="AJ76" s="38"/>
       <c r="AK76" s="53"/>
     </row>
-    <row r="77" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="77" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI77" s="38"/>
       <c r="AJ77" s="38"/>
       <c r="AK77" s="53"/>
     </row>
-    <row r="78" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="78" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI78" s="38"/>
       <c r="AJ78" s="38"/>
       <c r="AK78" s="53"/>
     </row>
-    <row r="79" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="79" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI79" s="38"/>
       <c r="AJ79" s="38"/>
       <c r="AK79" s="53"/>
     </row>
-    <row r="80" spans="35:49" x14ac:dyDescent="0.25">
+    <row r="80" spans="35:47" x14ac:dyDescent="0.25">
       <c r="AI80" s="38"/>
       <c r="AJ80" s="38"/>
       <c r="AK80" s="53"/>
@@ -8777,1911 +8472,4 @@
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B68997FF-C138-40F2-876B-1BB171CD0904}">
-  <dimension ref="A5:S134"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="8.1796875" style="49" customWidth="1"/>
-    <col min="3" max="10" width="8.81640625" style="48"/>
-    <col min="11" max="11" width="10.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.1796875" style="48" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.81640625" style="48"/>
-  </cols>
-  <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="49"/>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="49"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="49"/>
-    </row>
-    <row r="8" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
-      <c r="B8" s="85"/>
-      <c r="C8" s="85"/>
-    </row>
-    <row r="9" spans="1:3" s="84" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
-      <c r="B9" s="85"/>
-      <c r="C9" s="85"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="49"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="49"/>
-    </row>
-    <row r="17" spans="7:19" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G17" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="38"/>
-      <c r="N17" s="58" t="s">
-        <v>0</v>
-      </c>
-      <c r="O17" s="63"/>
-      <c r="P17" s="63"/>
-      <c r="Q17" s="63"/>
-      <c r="R17" s="63"/>
-    </row>
-    <row r="18" spans="7:19" ht="13" x14ac:dyDescent="0.25">
-      <c r="G18" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="H18" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="I18" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="J18" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="K18" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="L18" s="64" t="s">
-        <v>208</v>
-      </c>
-      <c r="N18" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="O18" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="P18" s="64" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q18" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="R18" s="64" t="s">
-        <v>206</v>
-      </c>
-      <c r="S18" s="64" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="19" spans="7:19" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G19" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="H19" s="44"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="44"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="N19" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="44"/>
-      <c r="R19" s="44"/>
-      <c r="S19" s="44"/>
-    </row>
-    <row r="20" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G20" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H20" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I20" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L20" s="48">
-        <v>2.5452192095824343E-3</v>
-      </c>
-      <c r="N20" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O20" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P20" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q20" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R20" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S20" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G21" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H21" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I21" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="J21" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K21" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L21" s="48">
-        <v>2.5834450529081338E-3</v>
-      </c>
-      <c r="N21" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O21" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P21" s="69" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q21" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R21" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S21" s="49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G22" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H22" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I22" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="J22" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K22" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L22" s="48">
-        <v>2.1363241345921055E-3</v>
-      </c>
-      <c r="N22" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O22" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P22" s="69" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R22" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S22" s="49">
-        <v>0.32637437275985665</v>
-      </c>
-    </row>
-    <row r="23" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G23" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H23" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I23" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="J23" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K23" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="48">
-        <v>1.8660639529435976E-3</v>
-      </c>
-      <c r="N23" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O23" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P23" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q23" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R23" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S23" s="49">
-        <v>0.35267560573476697</v>
-      </c>
-    </row>
-    <row r="24" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G24" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H24" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I24" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="J24" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K24" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L24" s="48">
-        <v>1.7487528282965712E-3</v>
-      </c>
-      <c r="N24" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O24" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P24" s="69" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q24" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R24" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S24" s="49">
-        <v>0.34322033691756271</v>
-      </c>
-    </row>
-    <row r="25" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G25" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H25" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I25" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="J25" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K25" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L25" s="48">
-        <v>1.6637860863902745E-3</v>
-      </c>
-      <c r="N25" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O25" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P25" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q25" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R25" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S25" s="49">
-        <v>0.30308891039426522</v>
-      </c>
-    </row>
-    <row r="26" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G26" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H26" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I26" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="J26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K26" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L26" s="48">
-        <v>1.8211742012316831E-3</v>
-      </c>
-      <c r="N26" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O26" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P26" s="69" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q26" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R26" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S26" s="49">
-        <v>0.23170381362007167</v>
-      </c>
-    </row>
-    <row r="27" spans="7:19" s="49" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="G27" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H27" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I27" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="J27" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K27" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L27" s="48">
-        <v>1.9153018835258307E-3</v>
-      </c>
-      <c r="N27" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O27" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P27" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q27" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R27" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S27" s="49">
-        <v>0.14172651612903225</v>
-      </c>
-    </row>
-    <row r="28" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G28" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H28" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I28" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="J28" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K28" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L28" s="48">
-        <v>1.9744590518638132E-3</v>
-      </c>
-      <c r="N28" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O28" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P28" s="69" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q28" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R28" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S28" s="48">
-        <v>5.3895483870967743E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G29" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H29" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I29" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="J29" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K29" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L29" s="48">
-        <v>2.1878436160058393E-3</v>
-      </c>
-      <c r="N29" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O29" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P29" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q29" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R29" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S29" s="48">
-        <v>2.6301935483870969E-3</v>
-      </c>
-    </row>
-    <row r="30" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G30" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H30" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I30" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="J30" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K30" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L30" s="48">
-        <v>2.3889741533883327E-3</v>
-      </c>
-      <c r="N30" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O30" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P30" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q30" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R30" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S30" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G31" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H31" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I31" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="J31" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K31" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L31" s="48">
-        <v>2.4063426997311056E-3</v>
-      </c>
-      <c r="N31" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O31" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P31" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q31" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R31" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S31" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G32" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H32" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I32" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="J32" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K32" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L32" s="48">
-        <v>2.5925256698099051E-3</v>
-      </c>
-      <c r="N32" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O32" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P32" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q32" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R32" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S32" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G33" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H33" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I33" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="J33" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K33" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L33" s="48">
-        <v>2.9724559200622644E-3</v>
-      </c>
-      <c r="N33" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O33" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P33" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q33" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R33" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S33" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G34" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H34" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I34" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="J34" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K34" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L34" s="48">
-        <v>3.3823091606694387E-3</v>
-      </c>
-      <c r="N34" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O34" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P34" s="69" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q34" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R34" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S34" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G35" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H35" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I35" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="J35" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K35" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L35" s="48">
-        <v>3.3051976250754521E-3</v>
-      </c>
-      <c r="N35" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O35" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P35" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q35" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R35" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S35" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G36" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H36" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I36" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="J36" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K36" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L36" s="48">
-        <v>3.1618331753269246E-3</v>
-      </c>
-      <c r="N36" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O36" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P36" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q36" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R36" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S36" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G37" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H37" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I37" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="J37" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K37" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L37" s="48">
-        <v>2.8979409360310663E-3</v>
-      </c>
-      <c r="N37" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O37" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P37" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q37" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R37" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S37" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G38" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H38" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I38" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="J38" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K38" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L38" s="48">
-        <v>2.7156926103261707E-3</v>
-      </c>
-      <c r="N38" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O38" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P38" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="Q38" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R38" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S38" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G39" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H39" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I39" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="J39" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K39" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L39" s="48">
-        <v>2.5452192095824343E-3</v>
-      </c>
-      <c r="N39" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O39" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P39" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q39" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R39" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S39" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G40" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H40" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I40" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="J40" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K40" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L40" s="48">
-        <v>2.5834450529081338E-3</v>
-      </c>
-      <c r="N40" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O40" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P40" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q40" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R40" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S40" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G41" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H41" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I41" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J41" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K41" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L41" s="48">
-        <v>2.7432881310744317E-3</v>
-      </c>
-      <c r="N41" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O41" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P41" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q41" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R41" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S41" s="48">
-        <v>6.4190919952210254E-3</v>
-      </c>
-    </row>
-    <row r="42" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G42" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H42" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I42" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="J42" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K42" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L42" s="48">
-        <v>2.8314721319216154E-3</v>
-      </c>
-      <c r="N42" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O42" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P42" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q42" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R42" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S42" s="48">
-        <v>7.0838474313022717E-2</v>
-      </c>
-    </row>
-    <row r="43" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G43" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H43" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I43" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="J43" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K43" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L43" s="48">
-        <v>2.8141143326017269E-3</v>
-      </c>
-      <c r="N43" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O43" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P43" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q43" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R43" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S43" s="48">
-        <v>0.15999428793309439</v>
-      </c>
-    </row>
-    <row r="44" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G44" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H44" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I44" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="J44" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K44" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L44" s="48">
-        <v>2.6656478128544076E-3</v>
-      </c>
-      <c r="N44" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O44" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P44" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q44" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R44" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S44" s="48">
-        <v>0.25343209199522099</v>
-      </c>
-    </row>
-    <row r="45" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G45" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H45" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I45" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="J45" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K45" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L45" s="48">
-        <v>2.4530677112863486E-3</v>
-      </c>
-      <c r="N45" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O45" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P45" s="38" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q45" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R45" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S45" s="48">
-        <v>0.32960197968936678</v>
-      </c>
-    </row>
-    <row r="46" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G46" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H46" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I46" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="J46" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K46" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L46" s="48">
-        <v>2.1363241345921055E-3</v>
-      </c>
-      <c r="N46" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O46" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P46" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q46" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R46" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S46" s="48">
-        <v>0.37592762246117079</v>
-      </c>
-    </row>
-    <row r="47" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G47" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H47" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I47" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="J47" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K47" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L47" s="48">
-        <v>1.8660639529435976E-3</v>
-      </c>
-      <c r="N47" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O47" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P47" s="38" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q47" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R47" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S47" s="48">
-        <v>0.38776096057347664</v>
-      </c>
-    </row>
-    <row r="48" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G48" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H48" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I48" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="J48" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K48" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L48" s="48">
-        <v>1.7487528282965712E-3</v>
-      </c>
-      <c r="N48" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O48" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P48" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q48" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R48" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S48" s="48">
-        <v>0.36426783751493425</v>
-      </c>
-    </row>
-    <row r="49" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G49" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H49" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I49" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="J49" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K49" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L49" s="48">
-        <v>1.6637860863902745E-3</v>
-      </c>
-      <c r="N49" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O49" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P49" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="Q49" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R49" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S49" s="48">
-        <v>0.31009156033452806</v>
-      </c>
-    </row>
-    <row r="50" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G50" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H50" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I50" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="J50" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K50" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L50" s="48">
-        <v>1.8211742012316831E-3</v>
-      </c>
-      <c r="N50" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O50" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P50" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q50" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R50" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S50" s="48">
-        <v>0.23188419952210276</v>
-      </c>
-    </row>
-    <row r="51" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G51" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H51" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I51" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="J51" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K51" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L51" s="48">
-        <v>1.9153018835258307E-3</v>
-      </c>
-      <c r="N51" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O51" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P51" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q51" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R51" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S51" s="48">
-        <v>0.13618056033452808</v>
-      </c>
-    </row>
-    <row r="52" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G52" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H52" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I52" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="J52" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K52" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L52" s="48">
-        <v>1.9744590518638132E-3</v>
-      </c>
-      <c r="N52" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O52" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P52" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="Q52" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R52" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S52" s="48">
-        <v>4.9357593787335743E-2</v>
-      </c>
-    </row>
-    <row r="53" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G53" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H53" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I53" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="J53" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K53" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L53" s="48">
-        <v>2.1878436160058393E-3</v>
-      </c>
-      <c r="N53" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O53" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P53" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q53" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R53" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S53" s="48">
-        <v>7.5268817204301086E-6</v>
-      </c>
-    </row>
-    <row r="54" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G54" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H54" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I54" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="J54" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K54" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L54" s="48">
-        <v>2.3889741533883327E-3</v>
-      </c>
-      <c r="N54" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O54" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P54" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q54" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R54" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S54" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G55" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H55" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I55" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="J55" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K55" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L55" s="48">
-        <v>2.4063426997311056E-3</v>
-      </c>
-      <c r="N55" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O55" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P55" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q55" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R55" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S55" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G56" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H56" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I56" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="J56" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K56" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L56" s="48">
-        <v>2.5925256698099051E-3</v>
-      </c>
-      <c r="N56" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O56" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P56" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q56" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R56" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S56" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G57" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H57" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I57" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="J57" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K57" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L57" s="48">
-        <v>2.9724559200622644E-3</v>
-      </c>
-      <c r="N57" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O57" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P57" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q57" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R57" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S57" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G58" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="H58" s="38">
-        <v>2030</v>
-      </c>
-      <c r="I58" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="J58" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="K58" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="L58" s="48">
-        <v>3.3823091606694387E-3</v>
-      </c>
-      <c r="N58" s="38" t="s">
-        <v>215</v>
-      </c>
-      <c r="O58" s="38">
-        <v>2030</v>
-      </c>
-      <c r="P58" s="38" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q58" s="48" t="s">
-        <v>196</v>
-      </c>
-      <c r="R58" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="S58" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G59" s="38"/>
-      <c r="H59" s="38"/>
-    </row>
-    <row r="60" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G60" s="38"/>
-      <c r="H60" s="38"/>
-    </row>
-    <row r="61" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G61" s="38"/>
-      <c r="H61" s="38"/>
-    </row>
-    <row r="62" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G62" s="38"/>
-      <c r="H62" s="38"/>
-    </row>
-    <row r="63" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G63" s="38"/>
-      <c r="H63" s="38"/>
-    </row>
-    <row r="64" spans="7:19" x14ac:dyDescent="0.25">
-      <c r="G64" s="38"/>
-      <c r="H64" s="38"/>
-    </row>
-    <row r="65" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-    </row>
-    <row r="66" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G66" s="38"/>
-      <c r="H66" s="38"/>
-    </row>
-    <row r="67" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G67" s="38"/>
-      <c r="H67" s="38"/>
-    </row>
-    <row r="68" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G68" s="38"/>
-      <c r="H68" s="38"/>
-    </row>
-    <row r="69" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G69" s="38"/>
-      <c r="H69" s="38"/>
-    </row>
-    <row r="70" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G70" s="38"/>
-      <c r="H70" s="38"/>
-    </row>
-    <row r="71" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G71" s="38"/>
-      <c r="H71" s="38"/>
-    </row>
-    <row r="72" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G72" s="38"/>
-      <c r="H72" s="38"/>
-    </row>
-    <row r="73" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G73" s="38"/>
-      <c r="H73" s="38"/>
-    </row>
-    <row r="74" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G74" s="38"/>
-      <c r="H74" s="38"/>
-    </row>
-    <row r="75" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G75" s="38"/>
-      <c r="H75" s="38"/>
-    </row>
-    <row r="76" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G76" s="38"/>
-      <c r="H76" s="38"/>
-    </row>
-    <row r="77" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G77" s="38"/>
-      <c r="H77" s="38"/>
-    </row>
-    <row r="78" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G78" s="38"/>
-      <c r="H78" s="38"/>
-    </row>
-    <row r="79" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G79" s="38"/>
-      <c r="H79" s="38"/>
-    </row>
-    <row r="80" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-    </row>
-    <row r="81" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-    </row>
-    <row r="82" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-    </row>
-    <row r="83" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-    </row>
-    <row r="84" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G84" s="38"/>
-      <c r="H84" s="38"/>
-    </row>
-    <row r="85" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G85" s="38"/>
-      <c r="H85" s="38"/>
-    </row>
-    <row r="86" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G86" s="38"/>
-      <c r="H86" s="38"/>
-    </row>
-    <row r="87" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G87" s="38"/>
-      <c r="H87" s="38"/>
-    </row>
-    <row r="88" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G88" s="38"/>
-      <c r="H88" s="38"/>
-    </row>
-    <row r="89" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G89" s="38"/>
-      <c r="H89" s="38"/>
-    </row>
-    <row r="90" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G90" s="38"/>
-      <c r="H90" s="38"/>
-    </row>
-    <row r="91" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G91" s="38"/>
-      <c r="H91" s="38"/>
-    </row>
-    <row r="92" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G92" s="38"/>
-      <c r="H92" s="38"/>
-    </row>
-    <row r="93" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G93" s="38"/>
-      <c r="H93" s="38"/>
-    </row>
-    <row r="94" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G94" s="38"/>
-      <c r="H94" s="38"/>
-    </row>
-    <row r="95" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G95" s="38"/>
-      <c r="H95" s="38"/>
-    </row>
-    <row r="96" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G96" s="38"/>
-      <c r="H96" s="38"/>
-    </row>
-    <row r="97" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G97" s="38"/>
-      <c r="H97" s="38"/>
-    </row>
-    <row r="98" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G98" s="38"/>
-      <c r="H98" s="38"/>
-    </row>
-    <row r="99" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G99" s="38"/>
-      <c r="H99" s="38"/>
-    </row>
-    <row r="100" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G100" s="38"/>
-      <c r="H100" s="38"/>
-    </row>
-    <row r="101" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G101" s="38"/>
-      <c r="H101" s="38"/>
-    </row>
-    <row r="102" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G102" s="38"/>
-      <c r="H102" s="38"/>
-    </row>
-    <row r="103" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G103" s="38"/>
-      <c r="H103" s="38"/>
-    </row>
-    <row r="104" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G104" s="38"/>
-      <c r="H104" s="38"/>
-    </row>
-    <row r="105" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G105" s="38"/>
-      <c r="H105" s="38"/>
-    </row>
-    <row r="106" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G106" s="38"/>
-      <c r="H106" s="38"/>
-    </row>
-    <row r="107" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G107" s="38"/>
-      <c r="H107" s="38"/>
-    </row>
-    <row r="108" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G108" s="38"/>
-      <c r="H108" s="38"/>
-    </row>
-    <row r="109" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G109" s="38"/>
-      <c r="H109" s="38"/>
-    </row>
-    <row r="110" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G110" s="38"/>
-      <c r="H110" s="38"/>
-    </row>
-    <row r="111" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G111" s="38"/>
-      <c r="H111" s="38"/>
-    </row>
-    <row r="112" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G112" s="38"/>
-      <c r="H112" s="38"/>
-    </row>
-    <row r="113" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G113" s="38"/>
-      <c r="H113" s="38"/>
-    </row>
-    <row r="114" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G114" s="38"/>
-      <c r="H114" s="38"/>
-    </row>
-    <row r="115" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G115" s="38"/>
-      <c r="H115" s="38"/>
-    </row>
-    <row r="116" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G116" s="38"/>
-      <c r="H116" s="38"/>
-    </row>
-    <row r="117" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G117" s="38"/>
-      <c r="H117" s="38"/>
-    </row>
-    <row r="118" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G118" s="38"/>
-      <c r="H118" s="38"/>
-    </row>
-    <row r="119" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G119" s="38"/>
-      <c r="H119" s="38"/>
-    </row>
-    <row r="120" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G120" s="38"/>
-      <c r="H120" s="38"/>
-    </row>
-    <row r="121" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G121" s="38"/>
-      <c r="H121" s="38"/>
-    </row>
-    <row r="122" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G122" s="38"/>
-      <c r="H122" s="38"/>
-    </row>
-    <row r="123" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G123" s="38"/>
-      <c r="H123" s="38"/>
-    </row>
-    <row r="124" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G124" s="38"/>
-      <c r="H124" s="38"/>
-    </row>
-    <row r="125" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G125" s="38"/>
-      <c r="H125" s="38"/>
-    </row>
-    <row r="126" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G126" s="38"/>
-      <c r="H126" s="38"/>
-    </row>
-    <row r="127" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G127" s="38"/>
-      <c r="H127" s="38"/>
-    </row>
-    <row r="128" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G128" s="38"/>
-      <c r="H128" s="38"/>
-    </row>
-    <row r="129" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G129" s="38"/>
-      <c r="H129" s="38"/>
-    </row>
-    <row r="130" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G130" s="38"/>
-      <c r="H130" s="38"/>
-    </row>
-    <row r="131" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G131" s="38"/>
-      <c r="H131" s="38"/>
-    </row>
-    <row r="132" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-    </row>
-    <row r="133" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G133" s="38"/>
-      <c r="H133" s="38"/>
-    </row>
-    <row r="134" spans="7:8" x14ac:dyDescent="0.25">
-      <c r="G134" s="38"/>
-      <c r="H134" s="38"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3315903E-003A-43BE-B6A5-41A0384EF595}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFAE1C7-A75F-4CFF-B900-D655D03FAE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PRI_Sector_Fuels" sheetId="6" r:id="rId1"/>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="214">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2168,12 +2168,6 @@
     <t>Wind Resource-Harnessed</t>
   </si>
   <si>
-    <t>Cset_CN</t>
-  </si>
-  <si>
-    <t>Pset_CN</t>
-  </si>
-  <si>
     <t>Timeslices</t>
   </si>
   <si>
@@ -2198,13 +2192,10 @@
     <t>Decenteralized electricity</t>
   </si>
   <si>
-    <t>FLO_FR</t>
-  </si>
-  <si>
-    <t>~TFM_DINS</t>
-  </si>
-  <si>
     <t>Year*</t>
+  </si>
+  <si>
+    <t>AF</t>
   </si>
 </sst>
 </file>
@@ -4463,10 +4454,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AU144"/>
+  <dimension ref="B1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R15" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AX23" sqref="AX23"/>
+    <sheetView tabSelected="1" topLeftCell="Z9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AV18" sqref="AV18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4497,9 +4488,8 @@
     <col min="31" max="36" width="8.77734375" style="48"/>
     <col min="37" max="37" width="12.44140625" style="48" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="8.77734375" style="48"/>
-    <col min="39" max="39" width="10.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="41" max="16384" width="8.77734375" style="48"/>
+    <col min="39" max="39" width="13.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="40" max="16384" width="8.77734375" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="14.4" x14ac:dyDescent="0.3">
@@ -4717,10 +4707,10 @@
         <v>59</v>
       </c>
       <c r="X8" s="84" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="Y8" s="84" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="Z8" s="84" t="s">
         <v>58</v>
@@ -4743,10 +4733,10 @@
         <v>59</v>
       </c>
       <c r="X9" s="84" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="Y9" s="84" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="Z9" s="84" t="s">
         <v>58</v>
@@ -4809,7 +4799,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:47" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:45" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4890,22 +4880,20 @@
         <v>22</v>
       </c>
       <c r="AI17" s="63" t="s">
-        <v>215</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="63"/>
       <c r="AK17" s="38"/>
       <c r="AL17" s="63"/>
-      <c r="AM17" s="63"/>
-      <c r="AN17" s="38"/>
-      <c r="AP17" s="63" t="s">
-        <v>215</v>
-      </c>
-      <c r="AQ17" s="63"/>
-      <c r="AR17" s="38"/>
-      <c r="AS17" s="63"/>
-      <c r="AT17" s="63"/>
-    </row>
-    <row r="18" spans="2:47" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AM17" s="38"/>
+      <c r="AO17" s="63" t="s">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="63"/>
+      <c r="AQ17" s="38"/>
+      <c r="AR17" s="63"/>
+    </row>
+    <row r="18" spans="2:45" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4989,10 +4977,10 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="AK18" s="64" t="s">
-        <v>204</v>
+        <v>6</v>
       </c>
       <c r="AL18" s="64" t="s">
         <v>196</v>
@@ -5000,29 +4988,23 @@
       <c r="AM18" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="AN18" s="64" t="s">
-        <v>207</v>
+      <c r="AO18" s="64" t="s">
+        <v>130</v>
       </c>
       <c r="AP18" s="64" t="s">
-        <v>130</v>
+        <v>55</v>
       </c>
       <c r="AQ18" s="64" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="AR18" s="64" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="AS18" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT18" s="64" t="s">
         <v>205</v>
       </c>
-      <c r="AU18" s="64" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="19" spans="2:47" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="2:45" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -5071,19 +5053,17 @@
       </c>
       <c r="AL19" s="44"/>
       <c r="AM19" s="44"/>
-      <c r="AN19" s="44"/>
-      <c r="AP19" s="44" t="s">
+      <c r="AO19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AQ19" s="44"/>
-      <c r="AR19" s="44" t="s">
+      <c r="AP19" s="44"/>
+      <c r="AQ19" s="44" t="s">
         <v>131</v>
       </c>
+      <c r="AR19" s="44"/>
       <c r="AS19" s="44"/>
-      <c r="AT19" s="44"/>
-      <c r="AU19" s="44"/>
-    </row>
-    <row r="20" spans="2:47" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="2:45" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="48" t="str">
         <f>X20</f>
         <v>Furnace</v>
@@ -5153,22 +5133,20 @@
       <c r="AJ20" s="45"/>
       <c r="AK20" s="45"/>
       <c r="AL20" s="45" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AM20" s="45"/>
-      <c r="AN20" s="45"/>
-      <c r="AP20" s="45" t="s">
+      <c r="AO20" s="45" t="s">
         <v>53</v>
       </c>
+      <c r="AP20" s="45"/>
       <c r="AQ20" s="45"/>
-      <c r="AR20" s="45"/>
-      <c r="AS20" s="45" t="s">
-        <v>206</v>
-      </c>
-      <c r="AT20" s="45"/>
-      <c r="AU20" s="44"/>
-    </row>
-    <row r="21" spans="2:47" x14ac:dyDescent="0.25">
+      <c r="AR20" s="45" t="s">
+        <v>204</v>
+      </c>
+      <c r="AS20" s="44"/>
+    </row>
+    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="str">
         <f>X$21</f>
         <v>BIOBoiler</v>
@@ -5234,43 +5212,37 @@
       <c r="AC21" s="49"/>
       <c r="AD21" s="49"/>
       <c r="AI21" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ21" s="38">
         <v>2030</v>
       </c>
       <c r="AK21" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AM21" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN21" s="48">
+      <c r="AM21" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AP21" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ21" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR21" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS21" s="48" t="s">
+      <c r="AO21" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP21" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ21" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AT21" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU21" s="48">
+      <c r="AS21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="str">
         <f>X24</f>
         <v>ELCBoiler</v>
@@ -5335,43 +5307,37 @@
       <c r="AC22" s="49"/>
       <c r="AD22" s="49"/>
       <c r="AI22" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ22" s="38">
         <v>2030</v>
       </c>
       <c r="AK22" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AM22" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN22" s="48">
+      <c r="AM22" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AP22" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ22" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR22" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS22" s="69" t="s">
+      <c r="AO22" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP22" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ22" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AT22" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU22" s="48">
+      <c r="AS22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="48" t="str">
         <f>X22</f>
         <v>BIOKiln</v>
@@ -5434,43 +5400,37 @@
         <v>88</v>
       </c>
       <c r="AI23" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ23" s="38">
         <v>2030</v>
       </c>
       <c r="AK23" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AM23" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN23" s="48">
+      <c r="AM23" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AP23" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ23" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR23" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS23" s="48" t="s">
+      <c r="AO23" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP23" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ23" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AT23" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU23" s="49">
+      <c r="AS23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5533,43 +5493,37 @@
         <v>88</v>
       </c>
       <c r="AI24" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ24" s="38">
         <v>2030</v>
       </c>
       <c r="AK24" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AM24" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN24" s="48">
+      <c r="AM24" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AP24" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ24" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR24" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS24" s="69" t="s">
+      <c r="AO24" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP24" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ24" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AT24" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU24" s="49">
+      <c r="AS24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="str">
         <f>X26</f>
         <v>WNDTRBN</v>
@@ -5579,7 +5533,7 @@
         <v>WIND</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E25" s="46">
         <v>2030</v>
@@ -5638,43 +5592,37 @@
         <v>88</v>
       </c>
       <c r="AI25" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ25" s="38">
         <v>2030</v>
       </c>
       <c r="AK25" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AM25" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN25" s="48">
+      <c r="AM25" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AP25" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ25" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR25" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS25" s="48" t="s">
+      <c r="AO25" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP25" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ25" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AT25" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU25" s="49">
+      <c r="AS25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="str">
         <f>X27</f>
         <v>SOLPV</v>
@@ -5684,7 +5632,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E26" s="46">
         <v>2030</v>
@@ -5743,43 +5691,37 @@
         <v>88</v>
       </c>
       <c r="AI26" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ26" s="38">
         <v>2030</v>
       </c>
       <c r="AK26" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AM26" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN26" s="48">
+      <c r="AM26" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AP26" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ26" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR26" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS26" s="69" t="s">
+      <c r="AO26" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP26" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ26" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AT26" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU26" s="49">
+      <c r="AS26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="str">
         <f>X25</f>
         <v>CSP</v>
@@ -5849,43 +5791,37 @@
         <v>88</v>
       </c>
       <c r="AI27" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ27" s="38">
         <v>2030</v>
       </c>
       <c r="AK27" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AM27" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN27" s="48">
+      <c r="AM27" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AP27" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ27" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR27" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS27" s="48" t="s">
+      <c r="AO27" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP27" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ27" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AT27" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU27" s="49">
+      <c r="AS27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5956,43 +5892,37 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AI28" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ28" s="38">
         <v>2030</v>
       </c>
       <c r="AK28" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AM28" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN28" s="48">
+      <c r="AM28" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AP28" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ28" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR28" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS28" s="69" t="s">
+      <c r="AO28" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP28" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ28" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AT28" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU28" s="49">
+      <c r="AS28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6045,10 +5975,10 @@
         <v>69</v>
       </c>
       <c r="X29" s="49" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="Y29" s="49" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="Z29" s="49" t="s">
         <v>58</v>
@@ -6060,43 +5990,37 @@
         <v>88</v>
       </c>
       <c r="AI29" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ29" s="38">
         <v>2030</v>
       </c>
       <c r="AK29" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AM29" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN29" s="48">
+      <c r="AM29" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AP29" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ29" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR29" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS29" s="48" t="s">
+      <c r="AO29" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP29" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ29" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AT29" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU29" s="49">
+      <c r="AS29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6155,43 +6079,37 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
       <c r="AI30" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ30" s="38">
         <v>2030</v>
       </c>
       <c r="AK30" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AM30" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN30" s="48">
+      <c r="AM30" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AP30" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ30" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR30" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS30" s="69" t="s">
+      <c r="AO30" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP30" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ30" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AT30" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU30" s="49">
+      <c r="AS30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -6235,48 +6153,42 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
       <c r="AI31" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ31" s="38">
         <v>2030</v>
       </c>
       <c r="AK31" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AM31" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN31" s="48">
+      <c r="AM31" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AP31" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ31" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR31" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS31" s="48" t="s">
+      <c r="AO31" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP31" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ31" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AT31" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU31" s="49">
+      <c r="AS31" s="49">
         <v>0.27468446594982077</v>
       </c>
     </row>
-    <row r="32" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D32" s="53" t="s">
         <v>69</v>
@@ -6311,48 +6223,42 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
       <c r="AI32" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ32" s="38">
         <v>2030</v>
       </c>
       <c r="AK32" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AM32" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN32" s="48">
+      <c r="AM32" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AP32" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ32" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR32" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS32" s="69" t="s">
+      <c r="AO32" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP32" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ32" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AT32" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU32" s="49">
+      <c r="AS32" s="49">
         <v>0.32637437275985665</v>
       </c>
     </row>
-    <row r="33" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D33" s="53" t="s">
         <v>69</v>
@@ -6387,43 +6293,37 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
       <c r="AI33" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ33" s="38">
         <v>2030</v>
       </c>
       <c r="AK33" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AM33" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN33" s="48">
+      <c r="AM33" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AP33" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ33" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR33" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS33" s="48" t="s">
+      <c r="AO33" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP33" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ33" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AT33" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU33" s="49">
+      <c r="AS33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -6440,43 +6340,37 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
       <c r="AI34" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ34" s="38">
         <v>2030</v>
       </c>
       <c r="AK34" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AM34" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN34" s="48">
+      <c r="AM34" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AP34" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ34" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR34" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS34" s="69" t="s">
+      <c r="AO34" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP34" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ34" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AT34" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU34" s="49">
+      <c r="AS34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -6494,43 +6388,37 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
       <c r="AI35" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ35" s="38">
         <v>2030</v>
       </c>
       <c r="AK35" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AM35" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN35" s="48">
+      <c r="AM35" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AP35" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ35" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR35" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS35" s="48" t="s">
+      <c r="AO35" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP35" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ35" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AT35" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU35" s="49">
+      <c r="AS35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -6551,43 +6439,37 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
       <c r="AI36" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ36" s="38">
         <v>2030</v>
       </c>
       <c r="AK36" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AM36" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN36" s="48">
+      <c r="AM36" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AP36" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ36" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR36" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS36" s="69" t="s">
+      <c r="AO36" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP36" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ36" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AT36" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU36" s="49">
+      <c r="AS36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:47" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -6608,43 +6490,37 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
       <c r="AI37" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ37" s="38">
         <v>2030</v>
       </c>
       <c r="AK37" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AM37" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN37" s="48">
+      <c r="AM37" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AP37" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ37" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR37" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS37" s="48" t="s">
+      <c r="AO37" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP37" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ37" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AT37" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU37" s="49">
+      <c r="AS37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:45" x14ac:dyDescent="0.25">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
@@ -6653,168 +6529,144 @@
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
       <c r="AI38" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ38" s="38">
         <v>2030</v>
       </c>
       <c r="AK38" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AM38" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN38" s="48">
+      <c r="AM38" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AP38" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ38" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR38" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS38" s="69" t="s">
+      <c r="AO38" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP38" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ38" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AT38" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU38" s="48">
+      <c r="AS38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:45" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ39" s="38">
         <v>2030</v>
       </c>
       <c r="AK39" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AM39" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN39" s="48">
+      <c r="AM39" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AP39" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ39" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR39" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS39" s="48" t="s">
+      <c r="AO39" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP39" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ39" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AT39" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU39" s="48">
+      <c r="AS39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
       </c>
       <c r="H40" s="75"/>
       <c r="AI40" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ40" s="38">
         <v>2030</v>
       </c>
       <c r="AK40" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AM40" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN40" s="48">
+      <c r="AM40" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AP40" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ40" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR40" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS40" s="69" t="s">
+      <c r="AO40" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP40" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ40" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AT40" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU40" s="48">
+      <c r="AS40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="75"/>
       <c r="AI41" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ41" s="38">
         <v>2030</v>
       </c>
       <c r="AK41" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AM41" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN41" s="48">
+      <c r="AM41" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AP41" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ41" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR41" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS41" s="48" t="s">
+      <c r="AO41" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP41" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ41" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AT41" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU41" s="48">
+      <c r="AS41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:45" x14ac:dyDescent="0.25">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -6823,81 +6675,69 @@
       </c>
       <c r="H42" s="75"/>
       <c r="AI42" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ42" s="38">
         <v>2030</v>
       </c>
       <c r="AK42" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AM42" s="48" t="s">
+      <c r="AM42" s="48">
+        <v>2.5925256698099051E-3</v>
+      </c>
+      <c r="AO42" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP42" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ42" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR42" s="69" t="s">
+        <v>153</v>
+      </c>
+      <c r="AS42" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI43" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ43" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK43" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN42" s="48">
-        <v>2.5925256698099051E-3</v>
-      </c>
-      <c r="AP42" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ42" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR42" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS42" s="69" t="s">
-        <v>153</v>
-      </c>
-      <c r="AT42" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU42" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AI43" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ43" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK43" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AM43" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN43" s="48">
+      <c r="AM43" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AP43" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ43" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR43" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS43" s="48" t="s">
+      <c r="AO43" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP43" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ43" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AT43" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU43" s="48">
+      <c r="AS43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:45" x14ac:dyDescent="0.25">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -6906,310 +6746,262 @@
         <v>8760</v>
       </c>
       <c r="AI44" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ44" s="38">
         <v>2030</v>
       </c>
       <c r="AK44" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AM44" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN44" s="48">
+      <c r="AM44" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AP44" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ44" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR44" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS44" s="69" t="s">
+      <c r="AO44" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP44" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ44" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AT44" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU44" s="48">
+      <c r="AS44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:45" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ45" s="38">
         <v>2030</v>
       </c>
       <c r="AK45" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AM45" s="48" t="s">
+      <c r="AM45" s="48">
+        <v>3.3051976250754521E-3</v>
+      </c>
+      <c r="AO45" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP45" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ45" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR45" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="AS45" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI46" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ46" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK46" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN45" s="48">
-        <v>3.3051976250754521E-3</v>
-      </c>
-      <c r="AP45" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ45" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR45" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS45" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT45" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU45" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AI46" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ46" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK46" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AM46" s="48" t="s">
+      <c r="AM46" s="48">
+        <v>3.1618331753269246E-3</v>
+      </c>
+      <c r="AO46" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP46" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ46" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR46" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="AS46" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI47" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ47" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK47" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN46" s="48">
-        <v>3.1618331753269246E-3</v>
-      </c>
-      <c r="AP46" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ46" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR46" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS46" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="AT46" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU46" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AI47" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ47" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK47" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AM47" s="48" t="s">
+      <c r="AM47" s="48">
+        <v>2.8979409360310663E-3</v>
+      </c>
+      <c r="AO47" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP47" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ47" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR47" s="38" t="s">
+        <v>158</v>
+      </c>
+      <c r="AS47" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI48" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ48" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK48" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN47" s="48">
-        <v>2.8979409360310663E-3</v>
-      </c>
-      <c r="AP47" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ47" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR47" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS47" s="38" t="s">
-        <v>158</v>
-      </c>
-      <c r="AT47" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU47" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AI48" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ48" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK48" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AM48" s="48" t="s">
+      <c r="AM48" s="48">
+        <v>2.7156926103261707E-3</v>
+      </c>
+      <c r="AO48" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP48" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ48" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR48" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="AS48" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI49" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ49" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK49" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN48" s="48">
-        <v>2.7156926103261707E-3</v>
-      </c>
-      <c r="AP48" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ48" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR48" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS48" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="AT48" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU48" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AI49" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ49" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK49" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AM49" s="48" t="s">
+      <c r="AM49" s="48">
+        <v>2.5452192095824343E-3</v>
+      </c>
+      <c r="AO49" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP49" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ49" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR49" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="AS49" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI50" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ50" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK50" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN49" s="48">
-        <v>2.5452192095824343E-3</v>
-      </c>
-      <c r="AP49" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ49" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR49" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS49" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="AT49" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU49" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AI50" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ50" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK50" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AM50" s="48" t="s">
+      <c r="AM50" s="48">
+        <v>2.5834450529081338E-3</v>
+      </c>
+      <c r="AO50" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP50" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ50" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR50" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="AS50" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI51" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ51" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK51" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN50" s="48">
-        <v>2.5834450529081338E-3</v>
-      </c>
-      <c r="AP50" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ50" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR50" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS50" s="38" t="s">
-        <v>161</v>
-      </c>
-      <c r="AT50" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU50" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AI51" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ51" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK51" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AM51" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN51" s="48">
+      <c r="AM51" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AP51" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ51" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR51" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS51" s="38" t="s">
+      <c r="AO51" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP51" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ51" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AT51" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU51" s="48">
+      <c r="AS51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
         <v>184</v>
       </c>
@@ -7224,43 +7016,37 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="AI52" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ52" s="38">
         <v>2030</v>
       </c>
       <c r="AK52" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AM52" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN52" s="48">
+      <c r="AM52" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AP52" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ52" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR52" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS52" s="38" t="s">
+      <c r="AO52" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP52" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ52" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AT52" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU52" s="48">
+      <c r="AS52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:47" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:45" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="80" t="s">
         <v>185</v>
       </c>
@@ -7295,43 +7081,37 @@
         <v>2050</v>
       </c>
       <c r="AI53" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ53" s="38">
         <v>2030</v>
       </c>
       <c r="AK53" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AM53" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN53" s="48">
+      <c r="AM53" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AP53" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ53" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR53" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS53" s="38" t="s">
+      <c r="AO53" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP53" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ53" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AT53" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU53" s="48">
+      <c r="AS53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>121</v>
       </c>
@@ -7356,43 +7136,37 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="AI54" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ54" s="38">
         <v>2030</v>
       </c>
       <c r="AK54" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AM54" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN54" s="48">
+      <c r="AM54" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AP54" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ54" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR54" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS54" s="38" t="s">
+      <c r="AO54" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP54" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ54" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AT54" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU54" s="48">
+      <c r="AS54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -7417,43 +7191,37 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="AI55" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ55" s="38">
         <v>2030</v>
       </c>
       <c r="AK55" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AM55" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN55" s="48">
+      <c r="AM55" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AP55" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ55" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR55" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS55" s="38" t="s">
+      <c r="AO55" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP55" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ55" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AT55" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU55" s="48">
+      <c r="AS55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -7478,43 +7246,37 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="AI56" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ56" s="38">
         <v>2030</v>
       </c>
       <c r="AK56" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AM56" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN56" s="48">
+      <c r="AM56" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AP56" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ56" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR56" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS56" s="38" t="s">
+      <c r="AO56" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP56" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ56" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AT56" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU56" s="48">
+      <c r="AS56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -7539,43 +7301,37 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="AI57" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ57" s="38">
         <v>2030</v>
       </c>
       <c r="AK57" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AM57" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN57" s="48">
+      <c r="AM57" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AP57" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ57" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR57" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS57" s="38" t="s">
+      <c r="AO57" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP57" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ57" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AT57" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU57" s="48">
+      <c r="AS57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -7600,43 +7356,37 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="AI58" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ58" s="38">
         <v>2030</v>
       </c>
       <c r="AK58" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AM58" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN58" s="48">
+      <c r="AM58" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AP58" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ58" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR58" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS58" s="38" t="s">
+      <c r="AO58" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP58" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ58" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AT58" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU58" s="48">
+      <c r="AS58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -7661,43 +7411,37 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="AI59" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ59" s="38">
         <v>2030</v>
       </c>
       <c r="AK59" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AM59" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN59" s="48">
+      <c r="AM59" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AP59" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ59" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR59" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS59" s="38" t="s">
+      <c r="AO59" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP59" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ59" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AT59" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU59" s="48">
+      <c r="AS59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -7722,43 +7466,37 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="AI60" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ60" s="38">
         <v>2030</v>
       </c>
       <c r="AK60" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AM60" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN60" s="48">
+      <c r="AM60" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AP60" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ60" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR60" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS60" s="38" t="s">
+      <c r="AO60" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP60" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ60" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AT60" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU60" s="48">
+      <c r="AS60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="2:47" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:45" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -7783,364 +7521,316 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="AI61" s="38" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="AJ61" s="38">
         <v>2030</v>
       </c>
       <c r="AK61" s="39" t="s">
-        <v>211</v>
+        <v>93</v>
       </c>
       <c r="AL61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AM61" s="48" t="s">
+      <c r="AM61" s="48">
+        <v>1.9153018835258307E-3</v>
+      </c>
+      <c r="AO61" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP61" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ61" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR61" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="AS61" s="48">
+        <v>0.13618056033452808</v>
+      </c>
+    </row>
+    <row r="62" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI62" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ62" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK62" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN61" s="48">
-        <v>1.9153018835258307E-3</v>
-      </c>
-      <c r="AP61" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ61" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR61" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS61" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AT61" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU61" s="48">
-        <v>0.13618056033452808</v>
-      </c>
-    </row>
-    <row r="62" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AI62" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ62" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK62" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AM62" s="48" t="s">
+      <c r="AM62" s="48">
+        <v>1.9744590518638132E-3</v>
+      </c>
+      <c r="AO62" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP62" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ62" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR62" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AS62" s="48">
+        <v>4.9357593787335743E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI63" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ63" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK63" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN62" s="48">
-        <v>1.9744590518638132E-3</v>
-      </c>
-      <c r="AP62" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ62" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR62" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS62" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="AT62" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU62" s="48">
-        <v>4.9357593787335743E-2</v>
-      </c>
-    </row>
-    <row r="63" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AI63" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ63" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK63" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AM63" s="48" t="s">
+      <c r="AM63" s="48">
+        <v>2.1878436160058393E-3</v>
+      </c>
+      <c r="AO63" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP63" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ63" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR63" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AS63" s="48">
+        <v>7.5268817204301086E-6</v>
+      </c>
+    </row>
+    <row r="64" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AI64" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ64" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK64" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN63" s="48">
-        <v>2.1878436160058393E-3</v>
-      </c>
-      <c r="AP63" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ63" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR63" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS63" s="38" t="s">
-        <v>174</v>
-      </c>
-      <c r="AT63" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU63" s="48">
-        <v>7.5268817204301086E-6</v>
-      </c>
-    </row>
-    <row r="64" spans="2:47" x14ac:dyDescent="0.25">
-      <c r="AI64" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ64" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK64" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AM64" s="48" t="s">
+      <c r="AM64" s="48">
+        <v>2.3889741533883327E-3</v>
+      </c>
+      <c r="AO64" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP64" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ64" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR64" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="AS64" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI65" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ65" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK65" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN64" s="48">
-        <v>2.3889741533883327E-3</v>
-      </c>
-      <c r="AP64" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ64" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR64" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS64" s="38" t="s">
-        <v>175</v>
-      </c>
-      <c r="AT64" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU64" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI65" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ65" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK65" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AM65" s="48" t="s">
+      <c r="AM65" s="48">
+        <v>2.4063426997311056E-3</v>
+      </c>
+      <c r="AO65" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP65" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ65" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR65" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="AS65" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI66" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ66" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK66" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN65" s="48">
-        <v>2.4063426997311056E-3</v>
-      </c>
-      <c r="AP65" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ65" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR65" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS65" s="38" t="s">
-        <v>176</v>
-      </c>
-      <c r="AT65" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU65" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI66" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ66" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK66" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AM66" s="48" t="s">
+      <c r="AM66" s="48">
+        <v>2.5925256698099051E-3</v>
+      </c>
+      <c r="AO66" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP66" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ66" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR66" s="38" t="s">
+        <v>177</v>
+      </c>
+      <c r="AS66" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI67" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ67" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK67" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN66" s="48">
-        <v>2.5925256698099051E-3</v>
-      </c>
-      <c r="AP66" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ66" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR66" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS66" s="38" t="s">
-        <v>177</v>
-      </c>
-      <c r="AT66" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU66" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI67" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ67" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK67" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AM67" s="48" t="s">
+      <c r="AM67" s="48">
+        <v>2.9724559200622644E-3</v>
+      </c>
+      <c r="AO67" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP67" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ67" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR67" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="AS67" s="48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AI68" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AJ68" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AK68" s="39" t="s">
         <v>93</v>
-      </c>
-      <c r="AN67" s="48">
-        <v>2.9724559200622644E-3</v>
-      </c>
-      <c r="AP67" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ67" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR67" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS67" s="38" t="s">
-        <v>178</v>
-      </c>
-      <c r="AT67" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU67" s="48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="35:47" x14ac:dyDescent="0.25">
-      <c r="AI68" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AJ68" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK68" s="39" t="s">
-        <v>211</v>
       </c>
       <c r="AL68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AM68" s="48" t="s">
-        <v>93</v>
-      </c>
-      <c r="AN68" s="48">
+      <c r="AM68" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AP68" s="38" t="s">
-        <v>214</v>
-      </c>
-      <c r="AQ68" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AR68" s="39" t="s">
-        <v>208</v>
-      </c>
-      <c r="AS68" s="38" t="s">
+      <c r="AO68" s="38" t="s">
+        <v>213</v>
+      </c>
+      <c r="AP68" s="38">
+        <v>2030</v>
+      </c>
+      <c r="AQ68" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="AR68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AT68" s="48" t="s">
-        <v>94</v>
-      </c>
-      <c r="AU68" s="48">
+      <c r="AS68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="69" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI69" s="38"/>
       <c r="AJ69" s="38"/>
       <c r="AK69" s="53"/>
     </row>
-    <row r="70" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="70" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI70" s="38"/>
       <c r="AJ70" s="38"/>
       <c r="AK70" s="53"/>
     </row>
-    <row r="71" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="71" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI71" s="38"/>
       <c r="AJ71" s="38"/>
       <c r="AK71" s="53"/>
     </row>
-    <row r="72" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="72" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI72" s="38"/>
       <c r="AJ72" s="38"/>
       <c r="AK72" s="53"/>
     </row>
-    <row r="73" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="73" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI73" s="38"/>
       <c r="AJ73" s="38"/>
       <c r="AK73" s="53"/>
     </row>
-    <row r="74" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="74" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI74" s="38"/>
       <c r="AJ74" s="38"/>
       <c r="AK74" s="53"/>
     </row>
-    <row r="75" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="75" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI75" s="38"/>
       <c r="AJ75" s="38"/>
       <c r="AK75" s="53"/>
     </row>
-    <row r="76" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="76" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI76" s="38"/>
       <c r="AJ76" s="38"/>
       <c r="AK76" s="53"/>
     </row>
-    <row r="77" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="77" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI77" s="38"/>
       <c r="AJ77" s="38"/>
       <c r="AK77" s="53"/>
     </row>
-    <row r="78" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="78" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI78" s="38"/>
       <c r="AJ78" s="38"/>
       <c r="AK78" s="53"/>
     </row>
-    <row r="79" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="79" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI79" s="38"/>
       <c r="AJ79" s="38"/>
       <c r="AK79" s="53"/>
     </row>
-    <row r="80" spans="35:47" x14ac:dyDescent="0.25">
+    <row r="80" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI80" s="38"/>
       <c r="AJ80" s="38"/>
       <c r="AK80" s="53"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFFAE1C7-A75F-4CFF-B900-D655D03FAE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E71373F-70EE-461B-9557-1AAE954E1607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="213">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2190,9 +2190,6 @@
   </si>
   <si>
     <t>Decenteralized electricity</t>
-  </si>
-  <si>
-    <t>Year*</t>
   </si>
   <si>
     <t>AF</t>
@@ -4456,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Z9" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AV18" sqref="AV18"/>
+    <sheetView tabSelected="1" topLeftCell="AB11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AO17" sqref="AO17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4879,19 +4876,19 @@
       <c r="AD17" s="54" t="s">
         <v>22</v>
       </c>
-      <c r="AI17" s="63" t="s">
-        <v>0</v>
-      </c>
+      <c r="AI17" s="63"/>
       <c r="AJ17" s="63"/>
       <c r="AK17" s="38"/>
-      <c r="AL17" s="63"/>
+      <c r="AL17" s="79" t="s">
+        <v>0</v>
+      </c>
       <c r="AM17" s="38"/>
-      <c r="AO17" s="63" t="s">
-        <v>0</v>
-      </c>
+      <c r="AO17" s="63"/>
       <c r="AP17" s="63"/>
       <c r="AQ17" s="38"/>
-      <c r="AR17" s="63"/>
+      <c r="AR17" s="79" t="s">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="2:45" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
@@ -4977,7 +4974,7 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
-        <v>212</v>
+        <v>55</v>
       </c>
       <c r="AK18" s="64" t="s">
         <v>6</v>
@@ -5212,7 +5209,7 @@
       <c r="AC21" s="49"/>
       <c r="AD21" s="49"/>
       <c r="AI21" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ21" s="38">
         <v>2030</v>
@@ -5227,7 +5224,7 @@
         <v>3.3051976250754521E-3</v>
       </c>
       <c r="AO21" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP21" s="38">
         <v>2030</v>
@@ -5307,7 +5304,7 @@
       <c r="AC22" s="49"/>
       <c r="AD22" s="49"/>
       <c r="AI22" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ22" s="38">
         <v>2030</v>
@@ -5322,7 +5319,7 @@
         <v>3.1618331753269246E-3</v>
       </c>
       <c r="AO22" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP22" s="38">
         <v>2030</v>
@@ -5400,7 +5397,7 @@
         <v>88</v>
       </c>
       <c r="AI23" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ23" s="38">
         <v>2030</v>
@@ -5415,7 +5412,7 @@
         <v>2.8979409360310663E-3</v>
       </c>
       <c r="AO23" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP23" s="38">
         <v>2030</v>
@@ -5493,7 +5490,7 @@
         <v>88</v>
       </c>
       <c r="AI24" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ24" s="38">
         <v>2030</v>
@@ -5508,7 +5505,7 @@
         <v>2.7156926103261707E-3</v>
       </c>
       <c r="AO24" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP24" s="38">
         <v>2030</v>
@@ -5592,7 +5589,7 @@
         <v>88</v>
       </c>
       <c r="AI25" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ25" s="38">
         <v>2030</v>
@@ -5607,7 +5604,7 @@
         <v>2.5452192095824343E-3</v>
       </c>
       <c r="AO25" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP25" s="38">
         <v>2030</v>
@@ -5691,7 +5688,7 @@
         <v>88</v>
       </c>
       <c r="AI26" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ26" s="38">
         <v>2030</v>
@@ -5706,7 +5703,7 @@
         <v>2.5834450529081338E-3</v>
       </c>
       <c r="AO26" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP26" s="38">
         <v>2030</v>
@@ -5791,7 +5788,7 @@
         <v>88</v>
       </c>
       <c r="AI27" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ27" s="38">
         <v>2030</v>
@@ -5806,7 +5803,7 @@
         <v>2.7432881310744317E-3</v>
       </c>
       <c r="AO27" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP27" s="38">
         <v>2030</v>
@@ -5892,7 +5889,7 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AI28" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ28" s="38">
         <v>2030</v>
@@ -5907,7 +5904,7 @@
         <v>2.8314721319216154E-3</v>
       </c>
       <c r="AO28" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP28" s="38">
         <v>2030</v>
@@ -5990,7 +5987,7 @@
         <v>88</v>
       </c>
       <c r="AI29" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ29" s="38">
         <v>2030</v>
@@ -6005,7 +6002,7 @@
         <v>2.8141143326017269E-3</v>
       </c>
       <c r="AO29" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP29" s="38">
         <v>2030</v>
@@ -6079,7 +6076,7 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
       <c r="AI30" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ30" s="38">
         <v>2030</v>
@@ -6094,7 +6091,7 @@
         <v>2.6656478128544076E-3</v>
       </c>
       <c r="AO30" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP30" s="38">
         <v>2030</v>
@@ -6153,7 +6150,7 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
       <c r="AI31" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ31" s="38">
         <v>2030</v>
@@ -6168,7 +6165,7 @@
         <v>2.4530677112863486E-3</v>
       </c>
       <c r="AO31" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP31" s="38">
         <v>2030</v>
@@ -6223,7 +6220,7 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
       <c r="AI32" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ32" s="38">
         <v>2030</v>
@@ -6238,7 +6235,7 @@
         <v>2.1363241345921055E-3</v>
       </c>
       <c r="AO32" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP32" s="38">
         <v>2030</v>
@@ -6293,7 +6290,7 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
       <c r="AI33" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ33" s="38">
         <v>2030</v>
@@ -6308,7 +6305,7 @@
         <v>1.8660639529435976E-3</v>
       </c>
       <c r="AO33" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP33" s="38">
         <v>2030</v>
@@ -6340,7 +6337,7 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
       <c r="AI34" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ34" s="38">
         <v>2030</v>
@@ -6355,7 +6352,7 @@
         <v>1.7487528282965712E-3</v>
       </c>
       <c r="AO34" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP34" s="38">
         <v>2030</v>
@@ -6388,7 +6385,7 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
       <c r="AI35" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ35" s="38">
         <v>2030</v>
@@ -6403,7 +6400,7 @@
         <v>1.6637860863902745E-3</v>
       </c>
       <c r="AO35" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP35" s="38">
         <v>2030</v>
@@ -6439,7 +6436,7 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
       <c r="AI36" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ36" s="38">
         <v>2030</v>
@@ -6454,7 +6451,7 @@
         <v>1.8211742012316831E-3</v>
       </c>
       <c r="AO36" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP36" s="38">
         <v>2030</v>
@@ -6490,7 +6487,7 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
       <c r="AI37" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ37" s="38">
         <v>2030</v>
@@ -6505,7 +6502,7 @@
         <v>1.9153018835258307E-3</v>
       </c>
       <c r="AO37" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP37" s="38">
         <v>2030</v>
@@ -6529,7 +6526,7 @@
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
       <c r="AI38" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ38" s="38">
         <v>2030</v>
@@ -6544,7 +6541,7 @@
         <v>1.9744590518638132E-3</v>
       </c>
       <c r="AO38" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP38" s="38">
         <v>2030</v>
@@ -6562,7 +6559,7 @@
     <row r="39" spans="2:45" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ39" s="38">
         <v>2030</v>
@@ -6577,7 +6574,7 @@
         <v>2.1878436160058393E-3</v>
       </c>
       <c r="AO39" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP39" s="38">
         <v>2030</v>
@@ -6599,7 +6596,7 @@
       </c>
       <c r="H40" s="75"/>
       <c r="AI40" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ40" s="38">
         <v>2030</v>
@@ -6614,7 +6611,7 @@
         <v>2.3889741533883327E-3</v>
       </c>
       <c r="AO40" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP40" s="38">
         <v>2030</v>
@@ -6636,7 +6633,7 @@
       </c>
       <c r="H41" s="75"/>
       <c r="AI41" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ41" s="38">
         <v>2030</v>
@@ -6651,7 +6648,7 @@
         <v>2.4063426997311056E-3</v>
       </c>
       <c r="AO41" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP41" s="38">
         <v>2030</v>
@@ -6675,7 +6672,7 @@
       </c>
       <c r="H42" s="75"/>
       <c r="AI42" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ42" s="38">
         <v>2030</v>
@@ -6690,7 +6687,7 @@
         <v>2.5925256698099051E-3</v>
       </c>
       <c r="AO42" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP42" s="38">
         <v>2030</v>
@@ -6707,7 +6704,7 @@
     </row>
     <row r="43" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AI43" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ43" s="38">
         <v>2030</v>
@@ -6722,7 +6719,7 @@
         <v>2.9724559200622644E-3</v>
       </c>
       <c r="AO43" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP43" s="38">
         <v>2030</v>
@@ -6746,7 +6743,7 @@
         <v>8760</v>
       </c>
       <c r="AI44" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ44" s="38">
         <v>2030</v>
@@ -6761,7 +6758,7 @@
         <v>3.3823091606694387E-3</v>
       </c>
       <c r="AO44" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP44" s="38">
         <v>2030</v>
@@ -6779,7 +6776,7 @@
     <row r="45" spans="2:45" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ45" s="38">
         <v>2030</v>
@@ -6794,7 +6791,7 @@
         <v>3.3051976250754521E-3</v>
       </c>
       <c r="AO45" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP45" s="38">
         <v>2030</v>
@@ -6811,7 +6808,7 @@
     </row>
     <row r="46" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AI46" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ46" s="38">
         <v>2030</v>
@@ -6826,7 +6823,7 @@
         <v>3.1618331753269246E-3</v>
       </c>
       <c r="AO46" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP46" s="38">
         <v>2030</v>
@@ -6843,7 +6840,7 @@
     </row>
     <row r="47" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AI47" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ47" s="38">
         <v>2030</v>
@@ -6858,7 +6855,7 @@
         <v>2.8979409360310663E-3</v>
       </c>
       <c r="AO47" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP47" s="38">
         <v>2030</v>
@@ -6875,7 +6872,7 @@
     </row>
     <row r="48" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AI48" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ48" s="38">
         <v>2030</v>
@@ -6890,7 +6887,7 @@
         <v>2.7156926103261707E-3</v>
       </c>
       <c r="AO48" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP48" s="38">
         <v>2030</v>
@@ -6907,7 +6904,7 @@
     </row>
     <row r="49" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AI49" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ49" s="38">
         <v>2030</v>
@@ -6922,7 +6919,7 @@
         <v>2.5452192095824343E-3</v>
       </c>
       <c r="AO49" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP49" s="38">
         <v>2030</v>
@@ -6939,7 +6936,7 @@
     </row>
     <row r="50" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AI50" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ50" s="38">
         <v>2030</v>
@@ -6954,7 +6951,7 @@
         <v>2.5834450529081338E-3</v>
       </c>
       <c r="AO50" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP50" s="38">
         <v>2030</v>
@@ -6971,7 +6968,7 @@
     </row>
     <row r="51" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AI51" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ51" s="38">
         <v>2030</v>
@@ -6986,7 +6983,7 @@
         <v>2.7432881310744317E-3</v>
       </c>
       <c r="AO51" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP51" s="38">
         <v>2030</v>
@@ -7016,7 +7013,7 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="AI52" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ52" s="38">
         <v>2030</v>
@@ -7031,7 +7028,7 @@
         <v>2.8314721319216154E-3</v>
       </c>
       <c r="AO52" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP52" s="38">
         <v>2030</v>
@@ -7081,7 +7078,7 @@
         <v>2050</v>
       </c>
       <c r="AI53" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ53" s="38">
         <v>2030</v>
@@ -7096,7 +7093,7 @@
         <v>2.8141143326017269E-3</v>
       </c>
       <c r="AO53" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP53" s="38">
         <v>2030</v>
@@ -7136,7 +7133,7 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="AI54" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ54" s="38">
         <v>2030</v>
@@ -7151,7 +7148,7 @@
         <v>2.6656478128544076E-3</v>
       </c>
       <c r="AO54" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP54" s="38">
         <v>2030</v>
@@ -7191,7 +7188,7 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="AI55" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ55" s="38">
         <v>2030</v>
@@ -7206,7 +7203,7 @@
         <v>2.4530677112863486E-3</v>
       </c>
       <c r="AO55" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP55" s="38">
         <v>2030</v>
@@ -7246,7 +7243,7 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="AI56" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ56" s="38">
         <v>2030</v>
@@ -7261,7 +7258,7 @@
         <v>2.1363241345921055E-3</v>
       </c>
       <c r="AO56" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP56" s="38">
         <v>2030</v>
@@ -7301,7 +7298,7 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="AI57" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ57" s="38">
         <v>2030</v>
@@ -7316,7 +7313,7 @@
         <v>1.8660639529435976E-3</v>
       </c>
       <c r="AO57" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP57" s="38">
         <v>2030</v>
@@ -7356,7 +7353,7 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="AI58" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ58" s="38">
         <v>2030</v>
@@ -7371,7 +7368,7 @@
         <v>1.7487528282965712E-3</v>
       </c>
       <c r="AO58" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP58" s="38">
         <v>2030</v>
@@ -7411,7 +7408,7 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="AI59" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ59" s="38">
         <v>2030</v>
@@ -7426,7 +7423,7 @@
         <v>1.6637860863902745E-3</v>
       </c>
       <c r="AO59" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP59" s="38">
         <v>2030</v>
@@ -7466,7 +7463,7 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="AI60" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ60" s="38">
         <v>2030</v>
@@ -7481,7 +7478,7 @@
         <v>1.8211742012316831E-3</v>
       </c>
       <c r="AO60" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP60" s="38">
         <v>2030</v>
@@ -7521,7 +7518,7 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="AI61" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ61" s="38">
         <v>2030</v>
@@ -7536,7 +7533,7 @@
         <v>1.9153018835258307E-3</v>
       </c>
       <c r="AO61" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP61" s="38">
         <v>2030</v>
@@ -7553,7 +7550,7 @@
     </row>
     <row r="62" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AI62" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ62" s="38">
         <v>2030</v>
@@ -7568,7 +7565,7 @@
         <v>1.9744590518638132E-3</v>
       </c>
       <c r="AO62" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP62" s="38">
         <v>2030</v>
@@ -7585,7 +7582,7 @@
     </row>
     <row r="63" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AI63" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ63" s="38">
         <v>2030</v>
@@ -7600,7 +7597,7 @@
         <v>2.1878436160058393E-3</v>
       </c>
       <c r="AO63" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP63" s="38">
         <v>2030</v>
@@ -7617,7 +7614,7 @@
     </row>
     <row r="64" spans="2:45" x14ac:dyDescent="0.25">
       <c r="AI64" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ64" s="38">
         <v>2030</v>
@@ -7632,7 +7629,7 @@
         <v>2.3889741533883327E-3</v>
       </c>
       <c r="AO64" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP64" s="38">
         <v>2030</v>
@@ -7649,7 +7646,7 @@
     </row>
     <row r="65" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI65" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ65" s="38">
         <v>2030</v>
@@ -7664,7 +7661,7 @@
         <v>2.4063426997311056E-3</v>
       </c>
       <c r="AO65" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP65" s="38">
         <v>2030</v>
@@ -7681,7 +7678,7 @@
     </row>
     <row r="66" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI66" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ66" s="38">
         <v>2030</v>
@@ -7696,7 +7693,7 @@
         <v>2.5925256698099051E-3</v>
       </c>
       <c r="AO66" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP66" s="38">
         <v>2030</v>
@@ -7713,7 +7710,7 @@
     </row>
     <row r="67" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI67" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ67" s="38">
         <v>2030</v>
@@ -7728,7 +7725,7 @@
         <v>2.9724559200622644E-3</v>
       </c>
       <c r="AO67" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP67" s="38">
         <v>2030</v>
@@ -7745,7 +7742,7 @@
     </row>
     <row r="68" spans="35:45" x14ac:dyDescent="0.25">
       <c r="AI68" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AJ68" s="38">
         <v>2030</v>
@@ -7760,7 +7757,7 @@
         <v>3.3823091606694387E-3</v>
       </c>
       <c r="AO68" s="38" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AP68" s="38">
         <v>2030</v>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E71373F-70EE-461B-9557-1AAE954E1607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F15E4-F5E4-4C35-9F05-7F31E1D12178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2192,7 +2192,7 @@
     <t>Decenteralized electricity</t>
   </si>
   <si>
-    <t>AF</t>
+    <t>FLO_FR</t>
   </si>
 </sst>
 </file>
@@ -4453,8 +4453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
   <dimension ref="B1:AS144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB11" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AO17" sqref="AO17"/>
+    <sheetView tabSelected="1" topLeftCell="AB5" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>

--- a/SubRES_TMPL/SubRES_NewTechs.xlsx
+++ b/SubRES_TMPL/SubRES_NewTechs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\IND001\MANU2025\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{973F15E4-F5E4-4C35-9F05-7F31E1D12178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB69D49-7B1C-4DD0-A26A-E07C496A8395}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="212">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2171,9 +2171,6 @@
     <t>Timeslices</t>
   </si>
   <si>
-    <t>AllRegions</t>
-  </si>
-  <si>
     <t>SOLELC</t>
   </si>
   <si>
@@ -2192,7 +2189,7 @@
     <t>Decenteralized electricity</t>
   </si>
   <si>
-    <t>FLO_FR</t>
+    <t>AF</t>
   </si>
 </sst>
 </file>
@@ -4451,10 +4448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3360854E-4C4D-467D-BD8A-32231E61C6CE}">
-  <dimension ref="B1:AS144"/>
+  <dimension ref="B1:AQ144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB5" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+    <sheetView tabSelected="1" topLeftCell="AB48" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="AN21" sqref="AN21:AN68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -4482,11 +4479,11 @@
     <col min="28" max="28" width="13.44140625" style="48" customWidth="1"/>
     <col min="29" max="29" width="13.77734375" style="48" customWidth="1"/>
     <col min="30" max="30" width="8.44140625" style="48" customWidth="1"/>
-    <col min="31" max="36" width="8.77734375" style="48"/>
-    <col min="37" max="37" width="12.44140625" style="48" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="8.77734375" style="48"/>
-    <col min="39" max="39" width="13.21875" style="48" bestFit="1" customWidth="1"/>
-    <col min="40" max="16384" width="8.77734375" style="48"/>
+    <col min="31" max="35" width="8.77734375" style="48"/>
+    <col min="36" max="36" width="12.44140625" style="48" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.77734375" style="48"/>
+    <col min="38" max="38" width="13.21875" style="48" bestFit="1" customWidth="1"/>
+    <col min="39" max="16384" width="8.77734375" style="48"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:31" ht="14.4" x14ac:dyDescent="0.3">
@@ -4704,10 +4701,10 @@
         <v>59</v>
       </c>
       <c r="X8" s="84" t="s">
+        <v>205</v>
+      </c>
+      <c r="Y8" s="84" t="s">
         <v>206</v>
-      </c>
-      <c r="Y8" s="84" t="s">
-        <v>207</v>
       </c>
       <c r="Z8" s="84" t="s">
         <v>58</v>
@@ -4730,10 +4727,10 @@
         <v>59</v>
       </c>
       <c r="X9" s="84" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Y9" s="84" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Z9" s="84" t="s">
         <v>58</v>
@@ -4796,7 +4793,7 @@
       <c r="AC16" s="53"/>
       <c r="AD16" s="53"/>
     </row>
-    <row r="17" spans="2:45" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:43" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="59" t="s">
         <v>1</v>
       </c>
@@ -4877,20 +4874,18 @@
         <v>22</v>
       </c>
       <c r="AI17" s="63"/>
-      <c r="AJ17" s="63"/>
-      <c r="AK17" s="38"/>
-      <c r="AL17" s="79" t="s">
+      <c r="AJ17" s="38"/>
+      <c r="AK17" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="AM17" s="38"/>
-      <c r="AO17" s="63"/>
-      <c r="AP17" s="63"/>
-      <c r="AQ17" s="38"/>
-      <c r="AR17" s="79" t="s">
+      <c r="AL17" s="38"/>
+      <c r="AN17" s="63"/>
+      <c r="AO17" s="38"/>
+      <c r="AP17" s="79" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:45" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:43" ht="31.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="32" t="s">
         <v>48</v>
       </c>
@@ -4974,34 +4969,28 @@
         <v>130</v>
       </c>
       <c r="AJ18" s="64" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="AK18" s="64" t="s">
+        <v>196</v>
+      </c>
+      <c r="AL18" s="64">
+        <v>2030</v>
+      </c>
+      <c r="AN18" s="64" t="s">
+        <v>130</v>
+      </c>
+      <c r="AO18" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="AL18" s="64" t="s">
+      <c r="AP18" s="64" t="s">
         <v>196</v>
       </c>
-      <c r="AM18" s="64" t="s">
-        <v>205</v>
-      </c>
-      <c r="AO18" s="64" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP18" s="64" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ18" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="AR18" s="64" t="s">
-        <v>196</v>
-      </c>
-      <c r="AS18" s="64" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="19" spans="2:45" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ18" s="64">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="19" spans="2:43" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="34" t="s">
         <v>53</v>
       </c>
@@ -5044,23 +5033,21 @@
       <c r="AI19" s="44" t="s">
         <v>81</v>
       </c>
-      <c r="AJ19" s="44"/>
-      <c r="AK19" s="44" t="s">
+      <c r="AJ19" s="44" t="s">
         <v>131</v>
       </c>
+      <c r="AK19" s="44"/>
       <c r="AL19" s="44"/>
-      <c r="AM19" s="44"/>
+      <c r="AN19" s="44" t="s">
+        <v>81</v>
+      </c>
       <c r="AO19" s="44" t="s">
-        <v>81</v>
+        <v>131</v>
       </c>
       <c r="AP19" s="44"/>
-      <c r="AQ19" s="44" t="s">
-        <v>131</v>
-      </c>
-      <c r="AR19" s="44"/>
-      <c r="AS19" s="44"/>
-    </row>
-    <row r="20" spans="2:45" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AQ19" s="44"/>
+    </row>
+    <row r="20" spans="2:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="48" t="str">
         <f>X20</f>
         <v>Furnace</v>
@@ -5128,22 +5115,20 @@
         <v>53</v>
       </c>
       <c r="AJ20" s="45"/>
-      <c r="AK20" s="45"/>
-      <c r="AL20" s="45" t="s">
+      <c r="AK20" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="AM20" s="45"/>
-      <c r="AO20" s="45" t="s">
+      <c r="AL20" s="45"/>
+      <c r="AN20" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="AP20" s="45"/>
-      <c r="AQ20" s="45"/>
-      <c r="AR20" s="45" t="s">
+      <c r="AO20" s="45"/>
+      <c r="AP20" s="45" t="s">
         <v>204</v>
       </c>
-      <c r="AS20" s="44"/>
-    </row>
-    <row r="21" spans="2:45" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="44"/>
+    </row>
+    <row r="21" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B21" s="48" t="str">
         <f>X$21</f>
         <v>BIOBoiler</v>
@@ -5209,37 +5194,31 @@
       <c r="AC21" s="49"/>
       <c r="AD21" s="49"/>
       <c r="AI21" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ21" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK21" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ21" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL21" s="48" t="s">
+      <c r="AK21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AM21" s="48">
+      <c r="AL21" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AO21" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP21" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ21" s="39" t="s">
+      <c r="AN21" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO21" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR21" s="48" t="s">
+      <c r="AP21" s="48" t="s">
         <v>132</v>
       </c>
-      <c r="AS21" s="48">
+      <c r="AQ21" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B22" s="48" t="str">
         <f>X24</f>
         <v>ELCBoiler</v>
@@ -5304,37 +5283,31 @@
       <c r="AC22" s="49"/>
       <c r="AD22" s="49"/>
       <c r="AI22" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ22" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK22" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ22" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL22" s="69" t="s">
+      <c r="AK22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AM22" s="48">
+      <c r="AL22" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AO22" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP22" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ22" s="39" t="s">
+      <c r="AN22" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO22" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR22" s="69" t="s">
+      <c r="AP22" s="69" t="s">
         <v>133</v>
       </c>
-      <c r="AS22" s="48">
+      <c r="AQ22" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="48" t="str">
         <f>X22</f>
         <v>BIOKiln</v>
@@ -5397,37 +5370,31 @@
         <v>88</v>
       </c>
       <c r="AI23" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ23" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK23" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ23" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL23" s="48" t="s">
+      <c r="AK23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AM23" s="48">
+      <c r="AL23" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AO23" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP23" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ23" s="39" t="s">
+      <c r="AN23" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO23" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR23" s="48" t="s">
+      <c r="AP23" s="48" t="s">
         <v>134</v>
       </c>
-      <c r="AS23" s="49">
+      <c r="AQ23" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -5490,37 +5457,31 @@
         <v>88</v>
       </c>
       <c r="AI24" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ24" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK24" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ24" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL24" s="69" t="s">
+      <c r="AK24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AM24" s="48">
+      <c r="AL24" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AO24" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP24" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ24" s="39" t="s">
+      <c r="AN24" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO24" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR24" s="69" t="s">
+      <c r="AP24" s="69" t="s">
         <v>135</v>
       </c>
-      <c r="AS24" s="49">
+      <c r="AQ24" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="53" t="str">
         <f>X26</f>
         <v>WNDTRBN</v>
@@ -5530,7 +5491,7 @@
         <v>WIND</v>
       </c>
       <c r="D25" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E25" s="46">
         <v>2030</v>
@@ -5589,37 +5550,31 @@
         <v>88</v>
       </c>
       <c r="AI25" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ25" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK25" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ25" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL25" s="48" t="s">
+      <c r="AK25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AM25" s="48">
+      <c r="AL25" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AO25" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP25" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ25" s="39" t="s">
+      <c r="AN25" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO25" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR25" s="48" t="s">
+      <c r="AP25" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="AS25" s="49">
+      <c r="AQ25" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="53" t="str">
         <f>X27</f>
         <v>SOLPV</v>
@@ -5629,7 +5584,7 @@
         <v>SOLAR</v>
       </c>
       <c r="D26" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E26" s="46">
         <v>2030</v>
@@ -5688,37 +5643,31 @@
         <v>88</v>
       </c>
       <c r="AI26" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ26" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK26" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ26" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL26" s="69" t="s">
+      <c r="AK26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AM26" s="48">
+      <c r="AL26" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AO26" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP26" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ26" s="39" t="s">
+      <c r="AN26" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO26" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR26" s="69" t="s">
+      <c r="AP26" s="69" t="s">
         <v>137</v>
       </c>
-      <c r="AS26" s="49">
+      <c r="AQ26" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="53" t="str">
         <f>X25</f>
         <v>CSP</v>
@@ -5788,37 +5737,31 @@
         <v>88</v>
       </c>
       <c r="AI27" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ27" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK27" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ27" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL27" s="48" t="s">
+      <c r="AK27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AM27" s="48">
+      <c r="AL27" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AO27" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP27" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ27" s="39" t="s">
+      <c r="AN27" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO27" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR27" s="48" t="s">
+      <c r="AP27" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="AS27" s="49">
+      <c r="AQ27" s="49">
         <v>6.9165519713261618E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5889,37 +5832,31 @@
       <c r="AC28" s="48"/>
       <c r="AD28" s="48"/>
       <c r="AI28" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ28" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK28" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ28" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL28" s="69" t="s">
+      <c r="AK28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AM28" s="48">
+      <c r="AL28" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AO28" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP28" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ28" s="39" t="s">
+      <c r="AN28" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO28" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR28" s="69" t="s">
+      <c r="AP28" s="69" t="s">
         <v>139</v>
       </c>
-      <c r="AS28" s="49">
+      <c r="AQ28" s="49">
         <v>4.9742853046594968E-2</v>
       </c>
     </row>
-    <row r="29" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B29" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -5972,10 +5909,10 @@
         <v>69</v>
       </c>
       <c r="X29" s="49" t="s">
+        <v>209</v>
+      </c>
+      <c r="Y29" s="49" t="s">
         <v>210</v>
-      </c>
-      <c r="Y29" s="49" t="s">
-        <v>211</v>
       </c>
       <c r="Z29" s="49" t="s">
         <v>58</v>
@@ -5987,37 +5924,31 @@
         <v>88</v>
       </c>
       <c r="AI29" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ29" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK29" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ29" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL29" s="48" t="s">
+      <c r="AK29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AM29" s="48">
+      <c r="AL29" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AO29" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP29" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ29" s="39" t="s">
+      <c r="AN29" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO29" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR29" s="48" t="s">
+      <c r="AP29" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="AS29" s="49">
+      <c r="AQ29" s="49">
         <v>0.12554577777777776</v>
       </c>
     </row>
-    <row r="30" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B30" s="48" t="str">
         <f>X28</f>
         <v>RNWHEAT</v>
@@ -6076,37 +6007,31 @@
       <c r="AC30" s="48"/>
       <c r="AD30" s="48"/>
       <c r="AI30" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ30" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK30" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ30" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL30" s="69" t="s">
+      <c r="AK30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AM30" s="48">
+      <c r="AL30" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AO30" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP30" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ30" s="39" t="s">
+      <c r="AN30" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO30" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR30" s="69" t="s">
+      <c r="AP30" s="69" t="s">
         <v>141</v>
       </c>
-      <c r="AS30" s="49">
+      <c r="AQ30" s="49">
         <v>0.2058007025089606</v>
       </c>
     </row>
-    <row r="31" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="53" t="str">
         <f>X23</f>
         <v>GASBoiler</v>
@@ -6150,42 +6075,36 @@
       <c r="AC31" s="48"/>
       <c r="AD31" s="48"/>
       <c r="AI31" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ31" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK31" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ31" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL31" s="48" t="s">
+      <c r="AK31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AM31" s="48">
+      <c r="AL31" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AO31" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP31" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ31" s="39" t="s">
+      <c r="AN31" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO31" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR31" s="48" t="s">
+      <c r="AP31" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="AS31" s="49">
+      <c r="AQ31" s="49">
         <v>0.27468446594982077</v>
       </c>
     </row>
-    <row r="32" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B32" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C32" s="53" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D32" s="53" t="s">
         <v>69</v>
@@ -6220,42 +6139,36 @@
       <c r="AC32" s="48"/>
       <c r="AD32" s="48"/>
       <c r="AI32" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ32" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK32" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ32" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL32" s="69" t="s">
+      <c r="AK32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AM32" s="48">
+      <c r="AL32" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AO32" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP32" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ32" s="39" t="s">
+      <c r="AN32" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO32" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR32" s="69" t="s">
+      <c r="AP32" s="69" t="s">
         <v>143</v>
       </c>
-      <c r="AS32" s="49">
+      <c r="AQ32" s="49">
         <v>0.32637437275985665</v>
       </c>
     </row>
-    <row r="33" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B33" s="53" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C33" s="53" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D33" s="53" t="s">
         <v>69</v>
@@ -6290,37 +6203,31 @@
       <c r="AC33" s="48"/>
       <c r="AD33" s="48"/>
       <c r="AI33" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ33" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK33" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ33" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL33" s="48" t="s">
+      <c r="AK33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AM33" s="48">
+      <c r="AL33" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AO33" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP33" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ33" s="39" t="s">
+      <c r="AN33" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO33" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR33" s="48" t="s">
+      <c r="AP33" s="48" t="s">
         <v>144</v>
       </c>
-      <c r="AS33" s="49">
+      <c r="AQ33" s="49">
         <v>0.35267560573476697</v>
       </c>
     </row>
-    <row r="34" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B34" s="48"/>
       <c r="C34" s="53"/>
       <c r="D34" s="53"/>
@@ -6337,37 +6244,31 @@
       <c r="AC34" s="48"/>
       <c r="AD34" s="48"/>
       <c r="AI34" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ34" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK34" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ34" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL34" s="69" t="s">
+      <c r="AK34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AM34" s="48">
+      <c r="AL34" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AO34" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP34" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ34" s="39" t="s">
+      <c r="AN34" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO34" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR34" s="69" t="s">
+      <c r="AP34" s="69" t="s">
         <v>145</v>
       </c>
-      <c r="AS34" s="49">
+      <c r="AQ34" s="49">
         <v>0.34322033691756271</v>
       </c>
     </row>
-    <row r="35" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B35" s="53"/>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>
@@ -6385,37 +6286,31 @@
       <c r="AC35" s="48"/>
       <c r="AD35" s="48"/>
       <c r="AI35" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ35" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK35" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ35" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL35" s="48" t="s">
+      <c r="AK35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AM35" s="48">
+      <c r="AL35" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AO35" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP35" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ35" s="39" t="s">
+      <c r="AN35" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO35" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR35" s="48" t="s">
+      <c r="AP35" s="48" t="s">
         <v>146</v>
       </c>
-      <c r="AS35" s="49">
+      <c r="AQ35" s="49">
         <v>0.30308891039426522</v>
       </c>
     </row>
-    <row r="36" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B36" s="53"/>
       <c r="C36" s="48"/>
       <c r="D36" s="53"/>
@@ -6436,37 +6331,31 @@
       <c r="AC36" s="48"/>
       <c r="AD36" s="48"/>
       <c r="AI36" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ36" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK36" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ36" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL36" s="69" t="s">
+      <c r="AK36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AM36" s="48">
+      <c r="AL36" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AO36" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP36" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ36" s="39" t="s">
+      <c r="AN36" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO36" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR36" s="69" t="s">
+      <c r="AP36" s="69" t="s">
         <v>147</v>
       </c>
-      <c r="AS36" s="49">
+      <c r="AQ36" s="49">
         <v>0.23170381362007167</v>
       </c>
     </row>
-    <row r="37" spans="2:45" s="49" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:43" s="49" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B37" s="48"/>
       <c r="C37" s="48"/>
       <c r="D37" s="48"/>
@@ -6487,37 +6376,31 @@
       <c r="AC37" s="48"/>
       <c r="AD37" s="48"/>
       <c r="AI37" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ37" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK37" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ37" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL37" s="48" t="s">
+      <c r="AK37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AM37" s="48">
+      <c r="AL37" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AO37" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP37" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ37" s="39" t="s">
+      <c r="AN37" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO37" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR37" s="48" t="s">
+      <c r="AP37" s="48" t="s">
         <v>148</v>
       </c>
-      <c r="AS37" s="49">
+      <c r="AQ37" s="49">
         <v>0.14172651612903225</v>
       </c>
     </row>
-    <row r="38" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:43" x14ac:dyDescent="0.25">
       <c r="F38" s="73"/>
       <c r="G38" s="46"/>
       <c r="H38" s="75"/>
@@ -6526,144 +6409,120 @@
       <c r="Z38" s="57"/>
       <c r="AA38" s="57"/>
       <c r="AI38" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ38" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK38" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ38" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL38" s="69" t="s">
+      <c r="AK38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AM38" s="48">
+      <c r="AL38" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AO38" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP38" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ38" s="39" t="s">
+      <c r="AN38" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO38" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR38" s="69" t="s">
+      <c r="AP38" s="69" t="s">
         <v>149</v>
       </c>
-      <c r="AS38" s="48">
+      <c r="AQ38" s="48">
         <v>5.3895483870967743E-2</v>
       </c>
     </row>
-    <row r="39" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:43" x14ac:dyDescent="0.25">
       <c r="H39" s="75"/>
       <c r="AI39" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ39" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK39" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ39" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL39" s="48" t="s">
+      <c r="AK39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AM39" s="48">
+      <c r="AL39" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AO39" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP39" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ39" s="39" t="s">
+      <c r="AN39" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO39" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR39" s="48" t="s">
+      <c r="AP39" s="48" t="s">
         <v>150</v>
       </c>
-      <c r="AS39" s="48">
+      <c r="AQ39" s="48">
         <v>2.6301935483870969E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B40" s="76"/>
       <c r="C40" s="48" t="s">
         <v>82</v>
       </c>
       <c r="H40" s="75"/>
       <c r="AI40" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ40" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK40" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ40" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL40" s="69" t="s">
+      <c r="AK40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AM40" s="48">
+      <c r="AL40" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AO40" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP40" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ40" s="39" t="s">
+      <c r="AN40" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO40" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR40" s="69" t="s">
+      <c r="AP40" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="AS40" s="48">
+      <c r="AQ40" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B41" s="77"/>
       <c r="C41" s="48" t="s">
         <v>83</v>
       </c>
       <c r="H41" s="75"/>
       <c r="AI41" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ41" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK41" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ41" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL41" s="48" t="s">
+      <c r="AK41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AM41" s="48">
+      <c r="AL41" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AO41" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP41" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ41" s="39" t="s">
+      <c r="AN41" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO41" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR41" s="48" t="s">
+      <c r="AP41" s="48" t="s">
         <v>152</v>
       </c>
-      <c r="AS41" s="48">
+      <c r="AQ41" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:43" x14ac:dyDescent="0.25">
       <c r="E42" s="48" t="s">
         <v>89</v>
       </c>
@@ -6672,69 +6531,57 @@
       </c>
       <c r="H42" s="75"/>
       <c r="AI42" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ42" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK42" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ42" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL42" s="69" t="s">
+      <c r="AK42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AM42" s="48">
+      <c r="AL42" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AO42" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP42" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ42" s="39" t="s">
+      <c r="AN42" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO42" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR42" s="69" t="s">
+      <c r="AP42" s="69" t="s">
         <v>153</v>
       </c>
-      <c r="AS42" s="48">
+      <c r="AQ42" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AI43" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ43" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK43" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ43" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL43" s="48" t="s">
+      <c r="AK43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AM43" s="48">
+      <c r="AL43" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AO43" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP43" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ43" s="39" t="s">
+      <c r="AN43" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO43" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR43" s="48" t="s">
+      <c r="AP43" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="AS43" s="48">
+      <c r="AQ43" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:43" x14ac:dyDescent="0.25">
       <c r="E44" s="48" t="s">
         <v>91</v>
       </c>
@@ -6743,262 +6590,214 @@
         <v>8760</v>
       </c>
       <c r="AI44" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ44" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK44" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ44" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL44" s="69" t="s">
+      <c r="AK44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AM44" s="48">
+      <c r="AL44" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AO44" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP44" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ44" s="39" t="s">
+      <c r="AN44" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO44" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR44" s="69" t="s">
+      <c r="AP44" s="69" t="s">
         <v>155</v>
       </c>
-      <c r="AS44" s="48">
+      <c r="AQ44" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:43" x14ac:dyDescent="0.25">
       <c r="E45" s="46"/>
       <c r="AI45" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ45" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK45" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ45" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL45" s="38" t="s">
+      <c r="AK45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AM45" s="48">
+      <c r="AL45" s="48">
         <v>3.3051976250754521E-3</v>
       </c>
-      <c r="AO45" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP45" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ45" s="39" t="s">
+      <c r="AN45" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO45" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR45" s="38" t="s">
+      <c r="AP45" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="AS45" s="48">
+      <c r="AQ45" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AI46" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ46" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK46" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ46" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL46" s="38" t="s">
+      <c r="AK46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AM46" s="48">
+      <c r="AL46" s="48">
         <v>3.1618331753269246E-3</v>
       </c>
-      <c r="AO46" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP46" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ46" s="39" t="s">
+      <c r="AN46" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO46" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR46" s="38" t="s">
+      <c r="AP46" s="38" t="s">
         <v>157</v>
       </c>
-      <c r="AS46" s="48">
+      <c r="AQ46" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AI47" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ47" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK47" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ47" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL47" s="38" t="s">
+      <c r="AK47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AM47" s="48">
+      <c r="AL47" s="48">
         <v>2.8979409360310663E-3</v>
       </c>
-      <c r="AO47" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP47" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ47" s="39" t="s">
+      <c r="AN47" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO47" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR47" s="38" t="s">
+      <c r="AP47" s="38" t="s">
         <v>158</v>
       </c>
-      <c r="AS47" s="48">
+      <c r="AQ47" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AI48" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ48" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK48" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ48" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL48" s="38" t="s">
+      <c r="AK48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AM48" s="48">
+      <c r="AL48" s="48">
         <v>2.7156926103261707E-3</v>
       </c>
-      <c r="AO48" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP48" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ48" s="39" t="s">
+      <c r="AN48" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO48" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR48" s="38" t="s">
+      <c r="AP48" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="AS48" s="48">
+      <c r="AQ48" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AI49" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ49" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK49" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ49" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL49" s="38" t="s">
+      <c r="AK49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AM49" s="48">
+      <c r="AL49" s="48">
         <v>2.5452192095824343E-3</v>
       </c>
-      <c r="AO49" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP49" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ49" s="39" t="s">
+      <c r="AN49" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO49" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR49" s="38" t="s">
+      <c r="AP49" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="AS49" s="48">
+      <c r="AQ49" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AI50" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ50" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK50" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ50" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL50" s="38" t="s">
+      <c r="AK50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AM50" s="48">
+      <c r="AL50" s="48">
         <v>2.5834450529081338E-3</v>
       </c>
-      <c r="AO50" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP50" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ50" s="39" t="s">
+      <c r="AN50" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO50" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR50" s="38" t="s">
+      <c r="AP50" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="AS50" s="48">
+      <c r="AQ50" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AI51" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ51" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK51" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ51" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL51" s="38" t="s">
+      <c r="AK51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AM51" s="48">
+      <c r="AL51" s="48">
         <v>2.7432881310744317E-3</v>
       </c>
-      <c r="AO51" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP51" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ51" s="39" t="s">
+      <c r="AN51" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO51" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR51" s="38" t="s">
+      <c r="AP51" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="AS51" s="48">
+      <c r="AQ51" s="48">
         <v>6.4190919952210254E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B52" s="79" t="s">
         <v>184</v>
       </c>
@@ -7013,37 +6812,31 @@
       <c r="K52"/>
       <c r="L52"/>
       <c r="AI52" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ52" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK52" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ52" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL52" s="38" t="s">
+      <c r="AK52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AM52" s="48">
+      <c r="AL52" s="48">
         <v>2.8314721319216154E-3</v>
       </c>
-      <c r="AO52" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP52" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ52" s="39" t="s">
+      <c r="AN52" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO52" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR52" s="38" t="s">
+      <c r="AP52" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="AS52" s="48">
+      <c r="AQ52" s="48">
         <v>7.0838474313022717E-2</v>
       </c>
     </row>
-    <row r="53" spans="2:45" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:43" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B53" s="80" t="s">
         <v>185</v>
       </c>
@@ -7078,37 +6871,31 @@
         <v>2050</v>
       </c>
       <c r="AI53" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ53" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK53" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ53" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL53" s="38" t="s">
+      <c r="AK53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AM53" s="48">
+      <c r="AL53" s="48">
         <v>2.8141143326017269E-3</v>
       </c>
-      <c r="AO53" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP53" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ53" s="39" t="s">
+      <c r="AN53" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO53" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR53" s="38" t="s">
+      <c r="AP53" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="AS53" s="48">
+      <c r="AQ53" s="48">
         <v>0.15999428793309439</v>
       </c>
     </row>
-    <row r="54" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>121</v>
       </c>
@@ -7133,37 +6920,31 @@
       <c r="K54"/>
       <c r="L54"/>
       <c r="AI54" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ54" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK54" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ54" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL54" s="38" t="s">
+      <c r="AK54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AM54" s="48">
+      <c r="AL54" s="48">
         <v>2.6656478128544076E-3</v>
       </c>
-      <c r="AO54" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP54" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ54" s="39" t="s">
+      <c r="AN54" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO54" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR54" s="38" t="s">
+      <c r="AP54" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="AS54" s="48">
+      <c r="AQ54" s="48">
         <v>0.25343209199522099</v>
       </c>
     </row>
-    <row r="55" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>121</v>
       </c>
@@ -7188,37 +6969,31 @@
       <c r="K55"/>
       <c r="L55"/>
       <c r="AI55" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ55" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK55" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ55" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL55" s="38" t="s">
+      <c r="AK55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AM55" s="48">
+      <c r="AL55" s="48">
         <v>2.4530677112863486E-3</v>
       </c>
-      <c r="AO55" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP55" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ55" s="39" t="s">
+      <c r="AN55" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO55" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR55" s="38" t="s">
+      <c r="AP55" s="38" t="s">
         <v>166</v>
       </c>
-      <c r="AS55" s="48">
+      <c r="AQ55" s="48">
         <v>0.32960197968936678</v>
       </c>
     </row>
-    <row r="56" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>121</v>
       </c>
@@ -7243,37 +7018,31 @@
       <c r="K56"/>
       <c r="L56"/>
       <c r="AI56" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ56" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK56" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ56" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL56" s="38" t="s">
+      <c r="AK56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AM56" s="48">
+      <c r="AL56" s="48">
         <v>2.1363241345921055E-3</v>
       </c>
-      <c r="AO56" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP56" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ56" s="39" t="s">
+      <c r="AN56" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO56" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR56" s="38" t="s">
+      <c r="AP56" s="38" t="s">
         <v>167</v>
       </c>
-      <c r="AS56" s="48">
+      <c r="AQ56" s="48">
         <v>0.37592762246117079</v>
       </c>
     </row>
-    <row r="57" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>121</v>
       </c>
@@ -7298,37 +7067,31 @@
       <c r="K57"/>
       <c r="L57"/>
       <c r="AI57" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ57" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK57" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ57" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL57" s="38" t="s">
+      <c r="AK57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AM57" s="48">
+      <c r="AL57" s="48">
         <v>1.8660639529435976E-3</v>
       </c>
-      <c r="AO57" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP57" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ57" s="39" t="s">
+      <c r="AN57" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO57" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR57" s="38" t="s">
+      <c r="AP57" s="38" t="s">
         <v>168</v>
       </c>
-      <c r="AS57" s="48">
+      <c r="AQ57" s="48">
         <v>0.38776096057347664</v>
       </c>
     </row>
-    <row r="58" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>121</v>
       </c>
@@ -7353,37 +7116,31 @@
       <c r="K58"/>
       <c r="L58"/>
       <c r="AI58" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ58" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK58" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ58" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL58" s="38" t="s">
+      <c r="AK58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AM58" s="48">
+      <c r="AL58" s="48">
         <v>1.7487528282965712E-3</v>
       </c>
-      <c r="AO58" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP58" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ58" s="39" t="s">
+      <c r="AN58" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO58" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR58" s="38" t="s">
+      <c r="AP58" s="38" t="s">
         <v>169</v>
       </c>
-      <c r="AS58" s="48">
+      <c r="AQ58" s="48">
         <v>0.36426783751493425</v>
       </c>
     </row>
-    <row r="59" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>121</v>
       </c>
@@ -7408,37 +7165,31 @@
       <c r="K59"/>
       <c r="L59"/>
       <c r="AI59" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ59" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK59" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ59" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL59" s="38" t="s">
+      <c r="AK59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AM59" s="48">
+      <c r="AL59" s="48">
         <v>1.6637860863902745E-3</v>
       </c>
-      <c r="AO59" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP59" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ59" s="39" t="s">
+      <c r="AN59" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO59" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR59" s="38" t="s">
+      <c r="AP59" s="38" t="s">
         <v>170</v>
       </c>
-      <c r="AS59" s="48">
+      <c r="AQ59" s="48">
         <v>0.31009156033452806</v>
       </c>
     </row>
-    <row r="60" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>121</v>
       </c>
@@ -7463,37 +7214,31 @@
       <c r="K60"/>
       <c r="L60"/>
       <c r="AI60" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ60" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK60" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ60" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL60" s="38" t="s">
+      <c r="AK60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AM60" s="48">
+      <c r="AL60" s="48">
         <v>1.8211742012316831E-3</v>
       </c>
-      <c r="AO60" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP60" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ60" s="39" t="s">
+      <c r="AN60" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO60" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR60" s="38" t="s">
+      <c r="AP60" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="AS60" s="48">
+      <c r="AQ60" s="48">
         <v>0.23188419952210276</v>
       </c>
     </row>
-    <row r="61" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:43" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>121</v>
       </c>
@@ -7518,639 +7263,515 @@
       <c r="K61"/>
       <c r="L61"/>
       <c r="AI61" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ61" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK61" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ61" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL61" s="38" t="s">
+      <c r="AK61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AM61" s="48">
+      <c r="AL61" s="48">
         <v>1.9153018835258307E-3</v>
       </c>
-      <c r="AO61" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP61" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ61" s="39" t="s">
+      <c r="AN61" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO61" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR61" s="38" t="s">
+      <c r="AP61" s="38" t="s">
         <v>172</v>
       </c>
-      <c r="AS61" s="48">
+      <c r="AQ61" s="48">
         <v>0.13618056033452808</v>
       </c>
     </row>
-    <row r="62" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AI62" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ62" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK62" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ62" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL62" s="38" t="s">
+      <c r="AK62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AM62" s="48">
+      <c r="AL62" s="48">
         <v>1.9744590518638132E-3</v>
       </c>
-      <c r="AO62" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP62" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ62" s="39" t="s">
+      <c r="AN62" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO62" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR62" s="38" t="s">
+      <c r="AP62" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AS62" s="48">
+      <c r="AQ62" s="48">
         <v>4.9357593787335743E-2</v>
       </c>
     </row>
-    <row r="63" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AI63" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ63" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK63" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ63" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL63" s="38" t="s">
+      <c r="AK63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AM63" s="48">
+      <c r="AL63" s="48">
         <v>2.1878436160058393E-3</v>
       </c>
-      <c r="AO63" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP63" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ63" s="39" t="s">
+      <c r="AN63" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO63" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR63" s="38" t="s">
+      <c r="AP63" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AS63" s="48">
+      <c r="AQ63" s="48">
         <v>7.5268817204301086E-6</v>
       </c>
     </row>
-    <row r="64" spans="2:45" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:43" x14ac:dyDescent="0.25">
       <c r="AI64" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ64" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK64" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ64" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL64" s="38" t="s">
+      <c r="AK64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AM64" s="48">
+      <c r="AL64" s="48">
         <v>2.3889741533883327E-3</v>
       </c>
-      <c r="AO64" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP64" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ64" s="39" t="s">
+      <c r="AN64" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO64" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR64" s="38" t="s">
+      <c r="AP64" s="38" t="s">
         <v>175</v>
       </c>
-      <c r="AS64" s="48">
+      <c r="AQ64" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="35:45" x14ac:dyDescent="0.25">
+    <row r="65" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI65" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ65" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK65" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ65" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL65" s="38" t="s">
+      <c r="AK65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AM65" s="48">
+      <c r="AL65" s="48">
         <v>2.4063426997311056E-3</v>
       </c>
-      <c r="AO65" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP65" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ65" s="39" t="s">
+      <c r="AN65" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO65" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR65" s="38" t="s">
+      <c r="AP65" s="38" t="s">
         <v>176</v>
       </c>
-      <c r="AS65" s="48">
+      <c r="AQ65" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="35:45" x14ac:dyDescent="0.25">
+    <row r="66" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI66" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ66" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK66" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ66" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL66" s="38" t="s">
+      <c r="AK66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AM66" s="48">
+      <c r="AL66" s="48">
         <v>2.5925256698099051E-3</v>
       </c>
-      <c r="AO66" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP66" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ66" s="39" t="s">
+      <c r="AN66" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO66" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR66" s="38" t="s">
+      <c r="AP66" s="38" t="s">
         <v>177</v>
       </c>
-      <c r="AS66" s="48">
+      <c r="AQ66" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="35:45" x14ac:dyDescent="0.25">
+    <row r="67" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI67" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ67" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK67" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ67" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL67" s="38" t="s">
+      <c r="AK67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AM67" s="48">
+      <c r="AL67" s="48">
         <v>2.9724559200622644E-3</v>
       </c>
-      <c r="AO67" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP67" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ67" s="39" t="s">
+      <c r="AN67" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO67" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR67" s="38" t="s">
+      <c r="AP67" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="AS67" s="48">
+      <c r="AQ67" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="35:45" x14ac:dyDescent="0.25">
+    <row r="68" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI68" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AJ68" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AK68" s="39" t="s">
+        <v>211</v>
+      </c>
+      <c r="AJ68" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="AL68" s="38" t="s">
+      <c r="AK68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AM68" s="48">
+      <c r="AL68" s="48">
         <v>3.3823091606694387E-3</v>
       </c>
-      <c r="AO68" s="38" t="s">
-        <v>212</v>
-      </c>
-      <c r="AP68" s="38">
-        <v>2030</v>
-      </c>
-      <c r="AQ68" s="39" t="s">
+      <c r="AN68" s="38" t="s">
+        <v>211</v>
+      </c>
+      <c r="AO68" s="39" t="s">
         <v>94</v>
       </c>
-      <c r="AR68" s="38" t="s">
+      <c r="AP68" s="38" t="s">
         <v>179</v>
       </c>
-      <c r="AS68" s="48">
+      <c r="AQ68" s="48">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="35:45" x14ac:dyDescent="0.25">
+    <row r="69" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI69" s="38"/>
-      <c r="AJ69" s="38"/>
-      <c r="AK69" s="53"/>
-    </row>
-    <row r="70" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ69" s="53"/>
+    </row>
+    <row r="70" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI70" s="38"/>
-      <c r="AJ70" s="38"/>
-      <c r="AK70" s="53"/>
-    </row>
-    <row r="71" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ70" s="53"/>
+    </row>
+    <row r="71" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI71" s="38"/>
-      <c r="AJ71" s="38"/>
-      <c r="AK71" s="53"/>
-    </row>
-    <row r="72" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ71" s="53"/>
+    </row>
+    <row r="72" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI72" s="38"/>
-      <c r="AJ72" s="38"/>
-      <c r="AK72" s="53"/>
-    </row>
-    <row r="73" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ72" s="53"/>
+    </row>
+    <row r="73" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI73" s="38"/>
-      <c r="AJ73" s="38"/>
-      <c r="AK73" s="53"/>
-    </row>
-    <row r="74" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ73" s="53"/>
+    </row>
+    <row r="74" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI74" s="38"/>
-      <c r="AJ74" s="38"/>
-      <c r="AK74" s="53"/>
-    </row>
-    <row r="75" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ74" s="53"/>
+    </row>
+    <row r="75" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI75" s="38"/>
-      <c r="AJ75" s="38"/>
-      <c r="AK75" s="53"/>
-    </row>
-    <row r="76" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ75" s="53"/>
+    </row>
+    <row r="76" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI76" s="38"/>
-      <c r="AJ76" s="38"/>
-      <c r="AK76" s="53"/>
-    </row>
-    <row r="77" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ76" s="53"/>
+    </row>
+    <row r="77" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI77" s="38"/>
-      <c r="AJ77" s="38"/>
-      <c r="AK77" s="53"/>
-    </row>
-    <row r="78" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ77" s="53"/>
+    </row>
+    <row r="78" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI78" s="38"/>
-      <c r="AJ78" s="38"/>
-      <c r="AK78" s="53"/>
-    </row>
-    <row r="79" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ78" s="53"/>
+    </row>
+    <row r="79" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI79" s="38"/>
-      <c r="AJ79" s="38"/>
-      <c r="AK79" s="53"/>
-    </row>
-    <row r="80" spans="35:45" x14ac:dyDescent="0.25">
+      <c r="AJ79" s="53"/>
+    </row>
+    <row r="80" spans="35:43" x14ac:dyDescent="0.25">
       <c r="AI80" s="38"/>
-      <c r="AJ80" s="38"/>
-      <c r="AK80" s="53"/>
-    </row>
-    <row r="81" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ80" s="53"/>
+    </row>
+    <row r="81" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI81" s="38"/>
-      <c r="AJ81" s="38"/>
-      <c r="AK81" s="53"/>
-    </row>
-    <row r="82" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ81" s="53"/>
+    </row>
+    <row r="82" spans="35:36" x14ac:dyDescent="0.25">
       <c r="AI82" s="38"/>
-      <c r="AJ82" s="38"/>
-      <c r="AK82" s="53"/>
-    </row>
-    <row r="83" spans="35:37" x14ac:dyDescent="0.25">
+      <c r="AJ82